--- a/data/02_intermediate/cleaned_Da_Uzi_songs.xlsx
+++ b/data/02_intermediate/cleaned_Da_Uzi_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Na beat-u DJ Shone, DJ Shone, DJ Shone Na piu kuliram, svako me zumira Kad krenem, turiram Ooh Krv mi pulsira, ja bih da uivam Za tebe uvijam Ooh I vie me ne dri mesto, ti sipaj dupli din Pravi se fin I ove noi znam da mi budni smo do tri Vatra i dim Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram You might also like Za jedan sat zna da ja u doi Dok si sam, pie mi natoi To je plan da gori ove noi Ti budi moj, vozi i ne koi I vie me ne dri mesto, ti sipaj dupli din Pravi se fin I ove noi znam da mi budni smo do tri Vatra i dim Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram</t>
+          <t>Na beat-u DJ Shone, DJ Shone, DJ Shone Na piu kuliram, svako me zumira Kad krenem, turiram Ooh Krv mi pulsira, ja bih da uivam Za tebe uvijam Ooh I vie me ne dri mesto, ti sipaj dupli din Pravi se fin I ove noi znam da mi budni smo do tri Vatra i dim Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram Za jedan sat zna da ja u doi Dok si sam, pie mi natoi To je plan da gori ove noi Ti budi moj, vozi i ne koi I vie me ne dri mesto, ti sipaj dupli din Pravi se fin I ove noi znam da mi budni smo do tri Vatra i dim Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram Nije me blam, pa te nou dozivam Sve bih da dam tebi, ljubav gram po gram I nemam plan da se ovde foliram I moj si, znaj, pa ti noas poziram</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tell me what you see Tell me what you think Only one true king Only one true king Running a fishery Catching fish you see An allegory Actual people not just a story GODSPEED GODSPEED GODSPEED, whoa GODSPEED GODSPEED GODSPEED, ey GODSPEED GODSPEED GODSPEED Please revert If you never understood what I said first You might also like How am I supposed write How am I supposed to fight How am I supposed to be a light, bearer The Son of the most high The Christ, the truth, the life The One and Bread of Life The One who gave you sight, better The One who made it right, ayt Can save you Never play but save you Do you wanna fly sky high, till you sky dive, until your mind sighs, lost your eyesight and your hindsight, so are you blind right? Buzzing off of something that you thought would make you OG, oh geez, now you OD Oh see, brodie,you low key smoke weed, you made a curse made a curse out of a blessing which is codeine No see, 1...2, 1...2 , on the 1...2, now you want to, mic check, life test,do you like it, where's your life vest, life test like litmus, do you feel this, salvation a free gift, Christmas Freely received now freely give see Tell me what you see Tell me what you think Only one true king Only one true king Running a fishery Cathcing fish you see An allegory Actual people not just a story GODSPEED GODSPEED GODSPEED, whoa GODSPEED GODSPEED GODSPEED, ey GODSPEED GODSPEED GODSPEED Please revert If you never understood what I said first People look for things around em' just to satisfy em' Clearly they forgot about The One,TheGreat I AM Vision 020 living from a place of blindness If we willingfully sin then we have a crises You can have a life time worth of information Aviation Levitation Elevation You can have a life time worth of information With your pride you will just plumet like satan Please listen here very clear and yo' Bro don't be scared And that which you subjected to by default that you will fear Let's think about it now if I die today where will I spend eternity These thoughts were rounding mind which shock me internally ey There's so many problems in this world if you can see Especially rappers who have more cows than they unity How many rappers you see who keep writing their lyrics About girls,cloths and money but in person never live it Let me get back at it Just like a crack addict Burn out, Burn out Oh no, Let's burn now With the passion Busy acting With a fraction Of a fragment He can take that Set ablaze and Give you rest and Just because I Right these verses Doesn't mean I Am perfect This ain't your life stop living in a facade His the one and only person who deserves your praise and applause So lets all just give it to GOD Without him it would be SPEED and I would be gone No man knows the day nor the hour when the Son of Man shall come back With that being said BE READY</t>
+          <t>Tell me what you see Tell me what you think Only one true king Only one true king Running a fishery Catching fish you see An allegory Actual people not just a story GODSPEED GODSPEED GODSPEED, whoa GODSPEED GODSPEED GODSPEED, ey GODSPEED GODSPEED GODSPEED Please revert If you never understood what I said first How am I supposed write How am I supposed to fight How am I supposed to be a light, bearer The Son of the most high The Christ, the truth, the life The One and Bread of Life The One who gave you sight, better The One who made it right, ayt Can save you Never play but save you Do you wanna fly sky high, till you sky dive, until your mind sighs, lost your eyesight and your hindsight, so are you blind right? Buzzing off of something that you thought would make you OG, oh geez, now you OD Oh see, brodie,you low key smoke weed, you made a curse made a curse out of a blessing which is codeine No see, 1...2, 1...2 , on the 1...2, now you want to, mic check, life test,do you like it, where's your life vest, life test like litmus, do you feel this, salvation a free gift, Christmas Freely received now freely give see Tell me what you see Tell me what you think Only one true king Only one true king Running a fishery Cathcing fish you see An allegory Actual people not just a story GODSPEED GODSPEED GODSPEED, whoa GODSPEED GODSPEED GODSPEED, ey GODSPEED GODSPEED GODSPEED Please revert If you never understood what I said first People look for things around em' just to satisfy em' Clearly they forgot about The One,TheGreat I AM Vision 020 living from a place of blindness If we willingfully sin then we have a crises You can have a life time worth of information Aviation Levitation Elevation You can have a life time worth of information With your pride you will just plumet like satan Please listen here very clear and yo' Bro don't be scared And that which you subjected to by default that you will fear Let's think about it now if I die today where will I spend eternity These thoughts were rounding mind which shock me internally ey There's so many problems in this world if you can see Especially rappers who have more cows than they unity How many rappers you see who keep writing their lyrics About girls,cloths and money but in person never live it Let me get back at it Just like a crack addict Burn out, Burn out Oh no, Let's burn now With the passion Busy acting With a fraction Of a fragment He can take that Set ablaze and Give you rest and Just because I Right these verses Doesn't mean I Am perfect This ain't your life stop living in a facade His the one and only person who deserves your praise and applause So lets all just give it to GOD Without him it would be SPEED and I would be gone No man knows the day nor the hour when the Son of Man shall come back With that being said BE READY</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim Korkma, sknt yok ya, sorun benim, tamam Bi' yokla sol taraf, hissettin mi ruha ait tek bi' nota? Sanmam Neden kayp gitti rotan? Bizi neden erteledin, neden balandn bi' psikopata? Yaa, tüm hisleri tat Kötü bütün anlar hemen silip at Ya da sik-tir et, kaliteli kal Üstümdeki enerjiyi bendn geri al Beni sana anlatmaktan inan hiç yorulmadm Çok mu mutluyum ki? Uçurumun kenarndaym Kndimi kaybttim ve çok farkndaym Bunu ikimiz için baarmak zorundaym Öyle içten güler miydin? Çaldn vaktim' yokken Baktm o yok, derdim yok ama sanki daha güzel varken Döküldüyse gerçekten saf cümlelerin kalpten Artk bulumal tüm âklar henüz saken You might also like stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim Att yirmi sene, bi' gün bile dur demeden Anlar yaanp dönütü dövmelerime Ate gibiydim, bu soukta sönmedim yine Katland bedenim anlara, dövmelerine Senle birlikte vazgeçmeliyim ehirden Bi' akm sen, bi' akm o ne yapmalyz imdi biz? Arkasnda kaldk yannda dülediklerimizin Beikta' kaçnc turlaymz hep birlikte? Pembe manzaralar çünkü yaam siyah beyaz Tersodaydm hep, bilirsin, ayakkabm yeni biraz Sorumluluklarm kan içinde geçen bi' yaz Senin omuzlarn benim yüklerimi srtlayamaz stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim4</t>
+          <t>stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim Korkma, sknt yok ya, sorun benim, tamam Bi' yokla sol taraf, hissettin mi ruha ait tek bi' nota? Sanmam Neden kayp gitti rotan? Bizi neden erteledin, neden balandn bi' psikopata? Yaa, tüm hisleri tat Kötü bütün anlar hemen silip at Ya da sik-tir et, kaliteli kal Üstümdeki enerjiyi bendn geri al Beni sana anlatmaktan inan hiç yorulmadm Çok mu mutluyum ki? Uçurumun kenarndaym Kndimi kaybttim ve çok farkndaym Bunu ikimiz için baarmak zorundaym Öyle içten güler miydin? Çaldn vaktim' yokken Baktm o yok, derdim yok ama sanki daha güzel varken Döküldüyse gerçekten saf cümlelerin kalpten Artk bulumal tüm âklar henüz saken stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim Att yirmi sene, bi' gün bile dur demeden Anlar yaanp dönütü dövmelerime Ate gibiydim, bu soukta sönmedim yine Katland bedenim anlara, dövmelerine Senle birlikte vazgeçmeliyim ehirden Bi' akm sen, bi' akm o ne yapmalyz imdi biz? Arkasnda kaldk yannda dülediklerimizin Beikta' kaçnc turlaymz hep birlikte? Pembe manzaralar çünkü yaam siyah beyaz Tersodaydm hep, bilirsin, ayakkabm yeni biraz Sorumluluklarm kan içinde geçen bi' yaz Senin omuzlarn benim yüklerimi srtlayamaz stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin stedim hayatna dâhil olmay ve beni uzaklatrdn, bi' hainsin Benim kalmad mecalim, yerden baknca anladm, gökyüzüne sahipmisin arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim arklar sokaklara ait ama bu bi' ilk ve sen ilklere sahipmisin Solan çiçeklerim mavi, bedenim benimle yirmi senedir ve sadk kalbim4</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Whoopty you know its bout to get spooky Rap god you know how I do beats You know I get da snappin no QB I stay fly I dont walk on my two feet I put ice on my bitch like Im mooky Im big papa whenever she juicy Yo bitch wanna dip I got blue cheese I dont gotta sweat her no coogi She say she wanna give me that coochie ,wanna scratch on my body like Bruce lee Told her back dat ass up like Im Juve Might catch me in da vert wit da uzi Keep da stick in da car like Im boosie I might slide with the Drake like I'm Toosie Keep a nina on me like Im Drew Brees Thats self murder how niggas accused me You better duck down when I U.P Niggas scared of for they life look you dead in yo eyes and Im closing them bitches no boutique You play and you done you gonna get sung we bring out them macs for you goofys This 30 will spray ,youll get curried away i pull up like Im Steph I dont shoot 3s After so many shots they goin hang over and then Imma pill out like a roofie Gotta jet on they ass no jacuzzi I put holes in they top like a Cufie I dont care bout yo bro and em stop hollering foe and em , 4 and em get zipped like a Q.P So tell yo whole cast that if they want a role then Im shootin they ass like a movie swaged out Before you can blink imma lash after hittin him up Theyll be zipping him up so I guess he up in his bag now Leave a nigga sleeping now his niggas woke Heard the news and acted like I didnt know I be sonin niggas it aint different strokes Punchin on da mic I aint Riddick Bowe I be making money off of spittin crack every time I rap its like Im dealing dope Way before the rappin I was gettin' dope green And purple buds look like piccolo If it dont make Dollars then It dont make sense got a N wit da green like kuhbreenee Use to stuff so much green Im my Louie and Gucci shit they should of called me Luigi Man its only right that i murder these rappers grew up listening to Lil weezy All of these famous rappers got trapped like a trick ,now they tryin to get out like Houdini Had his bitch on my tip when she seen me She going do as I wish like a genie Im da nigga his bitch wanna please me I aint worried bout her man he peewee Take his chick and Im doing him greasy looking fa me he better be Stevie, bust a cap at his top like a Bennie All my artist going spray no graffiti You must of been drinking, do not get it twisted My Nina blue tops like a fiji I dont run to da net I keep one inna neck I put two inna wrapper no Reesies He talking dat rah rah he must be out his mth La Cucaracha kick In his front door We up in his casa, yeah you know que pasa Choppas go blaka, we blowing on ganja When my bullets fly niggas die like la bamba,we x him out then we bounce like wakanda You might also likeTalking dat rah rah he must be out his mth La Cucaracha kick In his front door We up in his casa, yeah you know que pasa Choppas go blaka, we blowing on ganja When my bullets fly niggas die like la bamba we x him out then we bounce like wakanda Talking dat rah rah he must be out his mth La Cucaracha kick In his front door we up in his casa, yeah you know que pasa Talking dat rah rah he must be out his mth La Cucaracha kick In his front door no arriba la raza rap Allahu Akbar2</t>
+          <t>Whoopty you know its bout to get spooky Rap god you know how I do beats You know I get da snappin no QB I stay fly I dont walk on my two feet I put ice on my bitch like Im mooky Im big papa whenever she juicy Yo bitch wanna dip I got blue cheese I dont gotta sweat her no coogi She say she wanna give me that coochie ,wanna scratch on my body like Bruce lee Told her back dat ass up like Im Juve Might catch me in da vert wit da uzi Keep da stick in da car like Im boosie I might slide with the Drake like I'm Toosie Keep a nina on me like Im Drew Brees Thats self murder how niggas accused me You better duck down when I U.P Niggas scared of for they life look you dead in yo eyes and Im closing them bitches no boutique You play and you done you gonna get sung we bring out them macs for you goofys This 30 will spray ,youll get curried away i pull up like Im Steph I dont shoot 3s After so many shots they goin hang over and then Imma pill out like a roofie Gotta jet on they ass no jacuzzi I put holes in they top like a Cufie I dont care bout yo bro and em stop hollering foe and em , 4 and em get zipped like a Q.P So tell yo whole cast that if they want a role then Im shootin they ass like a movie swaged out Before you can blink imma lash after hittin him up Theyll be zipping him up so I guess he up in his bag now Leave a nigga sleeping now his niggas woke Heard the news and acted like I didnt know I be sonin niggas it aint different strokes Punchin on da mic I aint Riddick Bowe I be making money off of spittin crack every time I rap its like Im dealing dope Way before the rappin I was gettin' dope green And purple buds look like piccolo If it dont make Dollars then It dont make sense got a N wit da green like kuhbreenee Use to stuff so much green Im my Louie and Gucci shit they should of called me Luigi Man its only right that i murder these rappers grew up listening to Lil weezy All of these famous rappers got trapped like a trick ,now they tryin to get out like Houdini Had his bitch on my tip when she seen me She going do as I wish like a genie Im da nigga his bitch wanna please me I aint worried bout her man he peewee Take his chick and Im doing him greasy looking fa me he better be Stevie, bust a cap at his top like a Bennie All my artist going spray no graffiti You must of been drinking, do not get it twisted My Nina blue tops like a fiji I dont run to da net I keep one inna neck I put two inna wrapper no Reesies He talking dat rah rah he must be out his mth La Cucaracha kick In his front door We up in his casa, yeah you know que pasa Choppas go blaka, we blowing on ganja When my bullets fly niggas die like la bamba,we x him out then we bounce like wakanda Talking dat rah rah he must be out his mth La Cucaracha kick In his front door We up in his casa, yeah you know que pasa Choppas go blaka, we blowing on ganja When my bullets fly niggas die like la bamba we x him out then we bounce like wakanda Talking dat rah rah he must be out his mth La Cucaracha kick In his front door we up in his casa, yeah you know que pasa Talking dat rah rah he must be out his mth La Cucaracha kick In his front door no arriba la raza rap Allahu Akbar2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>It was one of the worst performances I've seen in my life I couldn't sleep last night because I felt this shit Ooh, ah, ooh, ah Ooh, ah, ah, ooh, ah, ah, ah, ah, ah Yeah, yeah, yeah, yeah, yee Enoch, your father's just detoxed, my callin' is right on time Transformation, I must had a thousand lives And like three thousand wives You should know that I'm slightly off Fightin' off demons that been outside Better known as myself, I'm a demigod Every thought is creative, sometimes, I'm afraid of my open mind Shit on my mind, and it's heavy Tell you in pieces 'cause it's way too heavy My diamonds, the choker is heavy More lif to give on demand, are you rady? Who keep 'em honest like us? Who in alignment like us? Who gotta heal 'em all? Us Us When there's no one to call You might also like Don't need no conversation If it ain't 'bout the business, shut the door now Bitch, it's a celebration And if this shit ain't bussin', what's it for now? Steppin' out when the weight lifts Floatin' on 'em Ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, ooh-ooh-ooh, da-da Steppin' out when the weight lifts Floatin' on 'em Ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Uzi, your father's in deep meditation My spirit's awakened, my brain is asleep I got a new temperature Sharpenin' multiple swords in the faith I believe I think about Robert Kelly If he weren't molested, I wonder if life'd fail him I wonder if Oprah found closure The way that she postered the hurt that a woman carries My mother abused young Like all of the mothers back where we from SSI bury family members At the repass, they servin' Popeyes chicken What you know about Black trauma? FNs, kickin' back is another genre Tyler Perry, the face of a thousand rappers Using violence to cover what really happen I know somebody's listenin' Past life regressions to know my conditions It's based off experience Karma for karma, my habits insensitive Watchin' my cousin struggle with addiction Then watchin' her firstborn make a million And both of them off the grid for forgiveness I'm sacrificin' myself to start the healin' and... Shit on my mind and it's heavy Tell you in pieces 'cause it's way too heavy My diamonds, the choker is heavy More life to give on demand, are you ready Who keep 'em honest like us? Who in alignment like us? Who gotta heal 'em all? Us Us When there's no one to call us Us Say, Hydrate, it's time to heal Safe, you're frustrated, I can feel Huddle up, tie the flag, call the troops, holla back Huddle up, tie the flag, call the troops, holla back Yeah, yeah, yeah, yeah Ooh-ooh-ooh, da-da Ooh-ooh-ooh, da-da Ooh-ooh-ooh, da-da People get taken over by this pain-body Ooh-ooh-ooh, da-da Because this energy field Ooh-ooh-ooh, da-da that almost has a life of its own Ooh-ooh-ooh, da-da It needs to Ooh-ooh-ooh, da-da, periodically, feed on more unhappiness22</t>
+          <t>It was one of the worst performances I've seen in my life I couldn't sleep last night because I felt this shit Ooh, ah, ooh, ah Ooh, ah, ah, ooh, ah, ah, ah, ah, ah Yeah, yeah, yeah, yeah, yee Enoch, your father's just detoxed, my callin' is right on time Transformation, I must had a thousand lives And like three thousand wives You should know that I'm slightly off Fightin' off demons that been outside Better known as myself, I'm a demigod Every thought is creative, sometimes, I'm afraid of my open mind Shit on my mind, and it's heavy Tell you in pieces 'cause it's way too heavy My diamonds, the choker is heavy More lif to give on demand, are you rady? Who keep 'em honest like us? Who in alignment like us? Who gotta heal 'em all? Us Us When there's no one to call Don't need no conversation If it ain't 'bout the business, shut the door now Bitch, it's a celebration And if this shit ain't bussin', what's it for now? Steppin' out when the weight lifts Floatin' on 'em Ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, ooh-ooh-ooh, da-da Steppin' out when the weight lifts Floatin' on 'em Ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Floatin' on 'em Float, float, ooh-ooh-ooh, da-da Uzi, your father's in deep meditation My spirit's awakened, my brain is asleep I got a new temperature Sharpenin' multiple swords in the faith I believe I think about Robert Kelly If he weren't molested, I wonder if life'd fail him I wonder if Oprah found closure The way that she postered the hurt that a woman carries My mother abused young Like all of the mothers back where we from SSI bury family members At the repass, they servin' Popeyes chicken What you know about Black trauma? FNs, kickin' back is another genre Tyler Perry, the face of a thousand rappers Using violence to cover what really happen I know somebody's listenin' Past life regressions to know my conditions It's based off experience Karma for karma, my habits insensitive Watchin' my cousin struggle with addiction Then watchin' her firstborn make a million And both of them off the grid for forgiveness I'm sacrificin' myself to start the healin' and... Shit on my mind and it's heavy Tell you in pieces 'cause it's way too heavy My diamonds, the choker is heavy More life to give on demand, are you ready Who keep 'em honest like us? Who in alignment like us? Who gotta heal 'em all? Us Us When there's no one to call us Us Say, Hydrate, it's time to heal Safe, you're frustrated, I can feel Huddle up, tie the flag, call the troops, holla back Huddle up, tie the flag, call the troops, holla back Yeah, yeah, yeah, yeah Ooh-ooh-ooh, da-da Ooh-ooh-ooh, da-da Ooh-ooh-ooh, da-da People get taken over by this pain-body Ooh-ooh-ooh, da-da Because this energy field Ooh-ooh-ooh, da-da that almost has a life of its own Ooh-ooh-ooh, da-da It needs to Ooh-ooh-ooh, da-da, periodically, feed on more unhappiness22</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Manzaram, benim manzaram Kayar aaya uçurumlardan Tek renk siyah ya uçurtmamda Yanar lambalar, uzak kavgadan Manzaram, benim manzaram Kayar aaya uçurumlardan Tek renk siyah ya uçurtmamda Yanar lambalar, uzak kavgadan Vazgeçtim ben benden bu gece Kitledim kendimi odama Hüzüne kar aldm cephe Katilim sen ve de manzaram Adn kazdm ranzama Resmin duruyo duvarda Kalsn özürün alamam asla Artk deilsin umrumda Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle You might also likeDüler uzak çok yaadm yere gör Evrenim, Yldz çok biri gecelrde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle Uzak da olsa umrumda deil Bulucam Yldz kaycam bil Davetlim olucan VIP loca Zplycaz beraber sokucam moda Olucak param, olucak öhret Giyicem yine Hoodiemde kudret Ksmet yok ben edersem gayret Sadz takma biz herkes de hayret Güller adas ve manzaram ayn Kaybm ben kayp huzur bu gayr Nerde buldun beni, nerde buldun? Kaybettin beni vertigomdun Sence senin benden farkn var m? Srtmda onca yük sen de vardn Deiti kiiler, olaym ayn Onca fotorafm sende kalsn Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle</t>
+          <t>Manzaram, benim manzaram Kayar aaya uçurumlardan Tek renk siyah ya uçurtmamda Yanar lambalar, uzak kavgadan Manzaram, benim manzaram Kayar aaya uçurumlardan Tek renk siyah ya uçurtmamda Yanar lambalar, uzak kavgadan Vazgeçtim ben benden bu gece Kitledim kendimi odama Hüzüne kar aldm cephe Katilim sen ve de manzaram Adn kazdm ranzama Resmin duruyo duvarda Kalsn özürün alamam asla Artk deilsin umrumda Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle Düler uzak çok yaadm yere gör Evrenim, Yldz çok biri gecelrde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle Uzak da olsa umrumda deil Bulucam Yldz kaycam bil Davetlim olucan VIP loca Zplycaz beraber sokucam moda Olucak param, olucak öhret Giyicem yine Hoodiemde kudret Ksmet yok ben edersem gayret Sadz takma biz herkes de hayret Güller adas ve manzaram ayn Kaybm ben kayp huzur bu gayr Nerde buldun beni, nerde buldun? Kaybettin beni vertigomdun Sence senin benden farkn var m? Srtmda onca yük sen de vardn Deiti kiiler, olaym ayn Onca fotorafm sende kalsn Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle Düler uzak çok yaadm yere göre Evrenim, Yldz çok biri gecelerde Durdum sadece ben sahilimde Deimez manzaram bu mavilerle</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir You might also like Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
+          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tattm küçük yamda Ghetto'yu Doldururdum yllar önce annemin evinde onca demoyu stediklerim vard, olmalyd bi' yolu imdi Mercedes'te gururlandrrz Vio'yu Eref Paa Lisesi'nde hayal kuran bir çocuk Çekmece - Bakrköy Hatt, kaçak tren yolculuk Breakdance, sokaklar, cepte yok ki bi' kuru imdi kanatlarm gökyüzüne dokunur Hayal ederdim koskoca bi' stüdyo Gözlerim doluydu çocukken hep, çünkü hüzün çok On yedimde babam yok, dedim Artk zaman yok. Borç içinde yanllara dütüm, evet, yalan yok On sekizde ayrldm evimden, tertemiz çocukluumdan Bi' parça vermedim o lanet hayallerimden Taksim, Bakrköy, ödenmeyen kiralar Hiphop sayesinde hayatm deiti bi' anda Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Hani hayaller karn doyurmuyodu ya? Diplomas olmayan adamdan saylmyodu ya? imdi yok satarz inan karaborsada Merdiven dayadk Çekmeceden yldzlara Gökyüzünde V, yeryüzünde biz, hedef bir Artk rüyalarm da o kadar uzak deil Hayal fabrikas gibi iler, M.O.B Seni sen yapan dülerin, emin ol ki ciron deil Kovaladm ey para deil, rüya Çok bilmi züppelere göre piman olucaktm güya Bi' dilek tuttum, gerçek oldu her ey o an Bi' kelebeim artk, yrtlyo' kozam You might also like Gökyüzüne dedim ben Bi'çok kötü güne dedi Söyle benle eer sevdiysen nan artk hepsi geçti bi' anda Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Anne, Aysun abla, meleklerim... Biraz daha var zaman Yanmda çocukluum, oluyorum ailemin kahraman zledim ölen kelebekleri, o solan renkleri Buz gibi evleri, kopkoyu demleri Mahalle öretir hayali, engeli Yalanr gözlerim, öylece bekledim Kurak güneleri, frtna sesleri üstüne arklar, tetik nöbetleri Sordum hep anneme, Bu biticek di' mi? Rüyalar, rüyalar, rüyalar Rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular1</t>
+          <t>Tattm küçük yamda Ghetto'yu Doldururdum yllar önce annemin evinde onca demoyu stediklerim vard, olmalyd bi' yolu imdi Mercedes'te gururlandrrz Vio'yu Eref Paa Lisesi'nde hayal kuran bir çocuk Çekmece - Bakrköy Hatt, kaçak tren yolculuk Breakdance, sokaklar, cepte yok ki bi' kuru imdi kanatlarm gökyüzüne dokunur Hayal ederdim koskoca bi' stüdyo Gözlerim doluydu çocukken hep, çünkü hüzün çok On yedimde babam yok, dedim Artk zaman yok. Borç içinde yanllara dütüm, evet, yalan yok On sekizde ayrldm evimden, tertemiz çocukluumdan Bi' parça vermedim o lanet hayallerimden Taksim, Bakrköy, ödenmeyen kiralar Hiphop sayesinde hayatm deiti bi' anda Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Hani hayaller karn doyurmuyodu ya? Diplomas olmayan adamdan saylmyodu ya? imdi yok satarz inan karaborsada Merdiven dayadk Çekmeceden yldzlara Gökyüzünde V, yeryüzünde biz, hedef bir Artk rüyalarm da o kadar uzak deil Hayal fabrikas gibi iler, M.O.B Seni sen yapan dülerin, emin ol ki ciron deil Kovaladm ey para deil, rüya Çok bilmi züppelere göre piman olucaktm güya Bi' dilek tuttum, gerçek oldu her ey o an Bi' kelebeim artk, yrtlyo' kozam Gökyüzüne dedim ben Bi'çok kötü güne dedi Söyle benle eer sevdiysen nan artk hepsi geçti bi' anda Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Anne, Aysun abla, meleklerim... Biraz daha var zaman Yanmda çocukluum, oluyorum ailemin kahraman zledim ölen kelebekleri, o solan renkleri Buz gibi evleri, kopkoyu demleri Mahalle öretir hayali, engeli Yalanr gözlerim, öylece bekledim Kurak güneleri, frtna sesleri üstüne arklar, tetik nöbetleri Sordum hep anneme, Bu biticek di' mi? Rüyalar, rüyalar, rüyalar Rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular Rüyalar, rüyalar, bir bir gerçek oldular Kayglar, korkular, uykusuz gecelerim son buldular1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>H-H-Hypzex Üzgünüm, üzgünüm Cidden üzdüm mü? Tüh gülüm Ya Birden uyandm, mutluyum Senden bunaldm, haklym Hiç susar mym? Tek kural güven A-ah Dip sulardaym, hiç çkarma, git Ya-ya Kukular büyük, hiç güvenmedik Omuzlarda yük, hep frenle git, ya-ya Ya stersen yol gösteririm, kaybol bol, bol, bol, bol Israr yok, gene net deilsin, rahat ol Ol, ol, ol Zaten topladm geleceimi zar zor Zor, zor, zor, zor Bana gelenleri artk bizden sor Tuttum hep kendimi boa Uyuzum, inan, geldiim yaa Yatlarm tiki, yatlarm homo Yaadm his sarayda paa Konu aa, aa Artk alyorum seni taaa Özgür hislerin tad baka Bu yüzden koptum senden, çok pardon Ya, ya You might also like Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürk salam Ah, ah ah Seni isterim srarla Kabul et, kabul t kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla Yaamak deil bi' neden Ya Kalamam burada, yok bi' neden Prr Geceler bana ak geceler Susamam, hemen anlatr heceler Hani bak beni gözlüyor nereden Nereden geldim ben bilemem Yanyor sadece gözlerin canm Benden geçti bu seneler, seneler seneler Direndim, direndim, hayatma kar durdum dimdik, ey Grr Bunu bana sor, eli bana bol sadece ol cimri Ya, ya Beni bana ver ya da seni al, hadi siktir git, yeah Ya, ya Bu sokaklar serseridir ve buna ahit Aar beni, ben toparlayamam, kanar yeniden, yeah Derler Geri gel, sarar seni ben, sarar beni sen Ya Aralarda kal, kararlarda boul, sana hediyem Sana hediyem Sana hediyem Sana hediyem, sana hediyem Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürek salam Ah, ah ah Seni isterim srarla Kabul et, kabul et kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla Cat, kedi, pussy beni kesmedi, ah Es, es, ah, esmer, BlackBerry, ah Testim sensin, hayat beni kesmedi, ah Be gram yersin, baban seni beslesin, ah HES kodu, telsiz alveri çok Yeni benim üstüm bam, pahal Geceleri olunca hep elin kolun bal Yat, sakin Getto etkiledi beni ve datyo' odam Saa sola dat o cebindeki papaan Konuma, carpe diem, yaayalm an Etkiledi, bak, admn yanndaki tik Restoranda braktm yüklü tip, ah Yattm kalktm baladm o ip, ah Harca blakka, kalmasn nakit, black card Pu-pu, pu, pu Honey, seni isterim srarla Pu, pu, pu Bozmadm hiç, bak, mentalitem salam Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürek salam Ah, ah ah Seni isterim srarla Kabul et, kabul et kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla2</t>
+          <t>H-H-Hypzex Üzgünüm, üzgünüm Cidden üzdüm mü? Tüh gülüm Ya Birden uyandm, mutluyum Senden bunaldm, haklym Hiç susar mym? Tek kural güven A-ah Dip sulardaym, hiç çkarma, git Ya-ya Kukular büyük, hiç güvenmedik Omuzlarda yük, hep frenle git, ya-ya Ya stersen yol gösteririm, kaybol bol, bol, bol, bol Israr yok, gene net deilsin, rahat ol Ol, ol, ol Zaten topladm geleceimi zar zor Zor, zor, zor, zor Bana gelenleri artk bizden sor Tuttum hep kendimi boa Uyuzum, inan, geldiim yaa Yatlarm tiki, yatlarm homo Yaadm his sarayda paa Konu aa, aa Artk alyorum seni taaa Özgür hislerin tad baka Bu yüzden koptum senden, çok pardon Ya, ya Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürk salam Ah, ah ah Seni isterim srarla Kabul et, kabul t kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla Yaamak deil bi' neden Ya Kalamam burada, yok bi' neden Prr Geceler bana ak geceler Susamam, hemen anlatr heceler Hani bak beni gözlüyor nereden Nereden geldim ben bilemem Yanyor sadece gözlerin canm Benden geçti bu seneler, seneler seneler Direndim, direndim, hayatma kar durdum dimdik, ey Grr Bunu bana sor, eli bana bol sadece ol cimri Ya, ya Beni bana ver ya da seni al, hadi siktir git, yeah Ya, ya Bu sokaklar serseridir ve buna ahit Aar beni, ben toparlayamam, kanar yeniden, yeah Derler Geri gel, sarar seni ben, sarar beni sen Ya Aralarda kal, kararlarda boul, sana hediyem Sana hediyem Sana hediyem Sana hediyem, sana hediyem Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürek salam Ah, ah ah Seni isterim srarla Kabul et, kabul et kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla Cat, kedi, pussy beni kesmedi, ah Es, es, ah, esmer, BlackBerry, ah Testim sensin, hayat beni kesmedi, ah Be gram yersin, baban seni beslesin, ah HES kodu, telsiz alveri çok Yeni benim üstüm bam, pahal Geceleri olunca hep elin kolun bal Yat, sakin Getto etkiledi beni ve datyo' odam Saa sola dat o cebindeki papaan Konuma, carpe diem, yaayalm an Etkiledi, bak, admn yanndaki tik Restoranda braktm yüklü tip, ah Yattm kalktm baladm o ip, ah Harca blakka, kalmasn nakit, black card Pu-pu, pu, pu Honey, seni isterim srarla Pu, pu, pu Bozmadm hiç, bak, mentalitem salam Gezip gördüm, kzm, bak Shawty, yeti hzma Uyan kan uykusundan Sadece yarnlar düle Uah, buna yok ki bulan mana Rahat ol, buldum çoktan, bende yürek salam Ah, ah ah Seni isterim srarla Kabul et, kabul et kendine bi' serseri smarla Ah, ah, ah Kendine bi' serseri smarla2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bir yaz axam yandrdm am Neç vaxtdr görmürm sni Bir yaz axam taxdm nian Sevgilim, snin barmana Üzük qasiz qalb, qzl da xal sald Güzgünü toz ald, qaytmadn Bu am bütün gec sönür, yanr nec? Sönmsin, gur yansn blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Bir yaz axam döysn qapm Snin addmn hiss etsm Gedrm açm, ev buraxm Nurla dolsun mnim bo evim You might also likeSnin saçlarna taxardm bir sra Nrgiz güllrini xrda-xrda am yansn, sönmsin, da suya dönmsin Üryi bölmsin iki yer Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Sn baqa evd yerini tapdn Bo bir ürkd yuva saldn Ay, mnd hr axam yandrram am Blk am ina gldin Gec-uzun gec, tnhal bir gec Arzular heç salbsan, yar Üzük qasz qald, qzl da xal sald Güzgünü toz ald, qaytmadn Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Blk gldin, blk gldin</t>
+          <t>Bir yaz axam yandrdm am Neç vaxtdr görmürm sni Bir yaz axam taxdm nian Sevgilim, snin barmana Üzük qasiz qalb, qzl da xal sald Güzgünü toz ald, qaytmadn Bu am bütün gec sönür, yanr nec? Sönmsin, gur yansn blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Bir yaz axam döysn qapm Snin addmn hiss etsm Gedrm açm, ev buraxm Nurla dolsun mnim bo evim Snin saçlarna taxardm bir sra Nrgiz güllrini xrda-xrda am yansn, sönmsin, da suya dönmsin Üryi bölmsin iki yer Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Sn baqa evd yerini tapdn Bo bir ürkd yuva saldn Ay, mnd hr axam yandrram am Blk am ina gldin Gec-uzun gec, tnhal bir gec Arzular heç salbsan, yar Üzük qasz qald, qzl da xal sald Güzgünü toz ald, qaytmadn Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Üryim tup-tup döyünür hr df Snin klini divarda görnd Qapn tuk-tuk kims döynd Gedirm açmaa blk gldin Blk gldin, blk gldin</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Allak bullak kafam, odaklanamam öyle kolay Yeah, illegal laboratuvar Sistemin kölesi, seni küçük fare kobay Yeah, edildi olay tarumar Yanklanr sesim, mahallede döner ekolar Yeah, geni yüreime getto dar Beyaz çocuk sanki çkm gibi San Diego'dan Yeah, tüm olay ibaret egodan Golden age, yeah, fuckin' game change, yeah Konu dur, yeah, hiç sorun deil, yeah Cevap yok, ah, yeah, olumsuz, yeah Korkuyo'n, ah, yeah, koutur seni Seni küçük aslan, o yerin Madagaskar Palmiye altnda beslen bi' ananastan Yaradan'n istedii Fazla yarat azdan Ben yetinmedim asla, ne olmu yaramazsam? Sektörün içindeyim, panzehir aktif Ovalad sürtüün, çkt birden Aladdin, ah Tehlikeli derede yapyo'n raftin', ah Elli kere dedim Ne bakyo'n artist, ha? Çabuk, cebindekini öne dat Dracula V, vursan da etmez o vefat Milenyum rapçi getirdi geri rönesans Getirdi geri rönesans You might also like Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Kameray bize doru çevir sorunumuz sen deil, cebindekilerle Ya, ya UZI peine düer yolun yanndaki tipi bozuk seri katillerle Ya, ya Senin payna düen yok, yok, kemiini al ve ilerle Kovalardm semttekilerle, yayo'du üzerime mahalleden lanet Cehenneme davetliyiz, all eyez on me, çok sabrettik Haberini gelmeden aldk biz, çok daha zor deil, hemen hallederiz Ah Çekmece, Güngören fark etmez, her ner'de olursak rahat ederiz Ya, ya Her ner'de olursak yalan ederiz Ya, dostlarmn ald sadece risk Ah Suratnz beton, aklmdakilerle dolu getto Gözlerimi kamatrr rafmdaki retro Murda 212'deki bad boy Yakamzda cash yok ama ihtiyacm olan e dost Kapndaki Rolls-Royce çalnabilir bu gece Aklm havada bi'kaç doz, ya Prr Sahip olduklarm ne kadar, ah? Sizden aldklarm depoda Saklyorum bozuk-luk-lar Hatrlamak istiyorum bütün bunlar Öyle salam basyo' ayak-larm Sayyorum teker teker attm admlar Caddeleri turluyorum Bi' yoku durduramaz ki bizi hiç Hiç Kalmad üstümde bi' damla kan Bu sefer ellerim çok temiz, prr Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme Ya, ho geldin, buras bizim çöplük Bizim, bizim çöplük Bi'çou merak eder Biliyo'lar, köeyi nasl döndük? Dostlarmla yolun yanndaym her gün, ah, bi' sebebim var Evet, onun için nefes alyorum her gün, ah, sürtüklerin dilindeyiz Biliyorum, konuuluyoruz her gün, ah, gerçekten um'rumuzda m? Konuursak olur piyasanz ters düz Ters düz, ya, ters düz Henüz yok benim kçma göre taht, o yüzden olabilirsin istediin gibi kral Prr lgi alanmda olsayd u anda bamda parldyo'du azn sulandran o taç Hrsm andran krmz bi' Aventador, göz bebeklerimi kavuruyo' u fuego Ah, eh'rin gece güneleri biziz, teklif ediyorum bütün yldzlara yeni düello Bize nema problemo, Çekmece bizimle San Diego Dörtte iki deniz, dörtte iki kara beton Ya getto artlarn kabul et ya da usulca bizim caddemizden defol Bütün takm or'-jinal seni defo Bu yüzden bizim DNA'mzda bu lanet koor-dinat Çok zor bi' kart oynamak istediim ama vuramyo'san eer ki hedef ol Kumarn içindesin, welcome to my get-to, biziz bu yaka da trap lord Maalesef tenim dmda beni ben yapan bütün etkenlerim Neg-ro3</t>
+          <t>Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Allak bullak kafam, odaklanamam öyle kolay Yeah, illegal laboratuvar Sistemin kölesi, seni küçük fare kobay Yeah, edildi olay tarumar Yanklanr sesim, mahallede döner ekolar Yeah, geni yüreime getto dar Beyaz çocuk sanki çkm gibi San Diego'dan Yeah, tüm olay ibaret egodan Golden age, yeah, fuckin' game change, yeah Konu dur, yeah, hiç sorun deil, yeah Cevap yok, ah, yeah, olumsuz, yeah Korkuyo'n, ah, yeah, koutur seni Seni küçük aslan, o yerin Madagaskar Palmiye altnda beslen bi' ananastan Yaradan'n istedii Fazla yarat azdan Ben yetinmedim asla, ne olmu yaramazsam? Sektörün içindeyim, panzehir aktif Ovalad sürtüün, çkt birden Aladdin, ah Tehlikeli derede yapyo'n raftin', ah Elli kere dedim Ne bakyo'n artist, ha? Çabuk, cebindekini öne dat Dracula V, vursan da etmez o vefat Milenyum rapçi getirdi geri rönesans Getirdi geri rönesans Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Kameray bize doru çevir sorunumuz sen deil, cebindekilerle Ya, ya UZI peine düer yolun yanndaki tipi bozuk seri katillerle Ya, ya Senin payna düen yok, yok, kemiini al ve ilerle Kovalardm semttekilerle, yayo'du üzerime mahalleden lanet Cehenneme davetliyiz, all eyez on me, çok sabrettik Haberini gelmeden aldk biz, çok daha zor deil, hemen hallederiz Ah Çekmece, Güngören fark etmez, her ner'de olursak rahat ederiz Ya, ya Her ner'de olursak yalan ederiz Ya, dostlarmn ald sadece risk Ah Suratnz beton, aklmdakilerle dolu getto Gözlerimi kamatrr rafmdaki retro Murda 212'deki bad boy Yakamzda cash yok ama ihtiyacm olan e dost Kapndaki Rolls-Royce çalnabilir bu gece Aklm havada bi'kaç doz, ya Prr Sahip olduklarm ne kadar, ah? Sizden aldklarm depoda Saklyorum bozuk-luk-lar Hatrlamak istiyorum bütün bunlar Öyle salam basyo' ayak-larm Sayyorum teker teker attm admlar Caddeleri turluyorum Bi' yoku durduramaz ki bizi hiç Hiç Kalmad üstümde bi' damla kan Bu sefer ellerim çok temiz, prr Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme Ya, ho geldin, buras bizim çöplük Bizim, bizim çöplük Bi'çou merak eder Biliyo'lar, köeyi nasl döndük? Dostlarmla yolun yanndaym her gün, ah, bi' sebebim var Evet, onun için nefes alyorum her gün, ah, sürtüklerin dilindeyiz Biliyorum, konuuluyoruz her gün, ah, gerçekten um'rumuzda m? Konuursak olur piyasanz ters düz Ters düz, ya, ters düz Henüz yok benim kçma göre taht, o yüzden olabilirsin istediin gibi kral Prr lgi alanmda olsayd u anda bamda parldyo'du azn sulandran o taç Hrsm andran krmz bi' Aventador, göz bebeklerimi kavuruyo' u fuego Ah, eh'rin gece güneleri biziz, teklif ediyorum bütün yldzlara yeni düello Bize nema problemo, Çekmece bizimle San Diego Dörtte iki deniz, dörtte iki kara beton Ya getto artlarn kabul et ya da usulca bizim caddemizden defol Bütün takm or'-jinal seni defo Bu yüzden bizim DNA'mzda bu lanet koor-dinat Çok zor bi' kart oynamak istediim ama vuramyo'san eer ki hedef ol Kumarn içindesin, welcome to my get-to, biziz bu yaka da trap lord Maalesef tenim dmda beni ben yapan bütün etkenlerim Neg-ro3</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ha, ha, ha-ha, hmm, yeah Segah En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Yapam'iy'caksan vazgeç Ey Varsa cesaret saldr Yes Celo harbici bro, aga savage Ya Özenle delinir baldr Ya, ya Bi' günde delirir akll geln hep Vallah bu cihaz jar'dr Allah yukar'da, kalmad ihsan Her gün çekrek tükendi sabr Tü-tü, tükürdüm üstlerine Pu Balanamam birine Artk yalarmn yerine Kanlar oturdu gözlerime Prr Güvenirim bi' tek gölgelere Arkamdayken bile klar kaybolmuken Ya Ih lan, ayk ol dükün Eh Üzerime on dört balanmken Prr E n'apalm, iler güçler Ha Ucuz fi, sahte gülüler Yes Ayarsz bizdeki güçler Sayarsnz yldzlar piçler Sabah manitalar, gece polisler Prr Kovalar ikisi de yormay ister Çkar makinalar, hani hasmlar? Pat Çok ciddisiniz siz ve ciciler Soldan kalktm, tersim He Taht m? Or'dan kalktm otursun, rahatm He Yoldan çktm, bozdum kendimi Allah versin bence belan Benden bulma, bizi bo yere yllara vurma Beni bitirdi bu Güngören usta ki yldr hiç uramasam da, da You might also like En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Madem kap açk, durma öyle, içeriye gir Karanlkta çtrt seni donuna ietir Verilmeyen hasarn stresi içte birikir Kendinle barmak için ate etmen gerekir Tabo, herkes gergin, di mi? Di mi? Çok ükür ki ksa, edebim, dinim Çok ateli bi' kap içinden geçtiimiz Belli gözümüzden seçtiimiz Kapmdan kapna on lira taksiyle indi bindimizin paras O yüzden temiz konu ki karmda kronik kekeme olmayasn Vardr o dümeye basasm, her eyi yok edip bitiren çimde sadece yaras, bi' ekilde beni bitiren Var bende kötü bi' köpek, kulübede durur yirmi iki kilo Köküne kanann vardr kolunda, bacanda diki yaras O yüzden sevimli kerata, kiloyla çözülmez baz meseleler lla ki çözülür dersen En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr1</t>
+          <t>Ha, ha, ha-ha, hmm, yeah Segah En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Yapam'iy'caksan vazgeç Ey Varsa cesaret saldr Yes Celo harbici bro, aga savage Ya Özenle delinir baldr Ya, ya Bi' günde delirir akll geln hep Vallah bu cihaz jar'dr Allah yukar'da, kalmad ihsan Her gün çekrek tükendi sabr Tü-tü, tükürdüm üstlerine Pu Balanamam birine Artk yalarmn yerine Kanlar oturdu gözlerime Prr Güvenirim bi' tek gölgelere Arkamdayken bile klar kaybolmuken Ya Ih lan, ayk ol dükün Eh Üzerime on dört balanmken Prr E n'apalm, iler güçler Ha Ucuz fi, sahte gülüler Yes Ayarsz bizdeki güçler Sayarsnz yldzlar piçler Sabah manitalar, gece polisler Prr Kovalar ikisi de yormay ister Çkar makinalar, hani hasmlar? Pat Çok ciddisiniz siz ve ciciler Soldan kalktm, tersim He Taht m? Or'dan kalktm otursun, rahatm He Yoldan çktm, bozdum kendimi Allah versin bence belan Benden bulma, bizi bo yere yllara vurma Beni bitirdi bu Güngören usta ki yldr hiç uramasam da, da En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Madem kap açk, durma öyle, içeriye gir Karanlkta çtrt seni donuna ietir Verilmeyen hasarn stresi içte birikir Kendinle barmak için ate etmen gerekir Tabo, herkes gergin, di mi? Di mi? Çok ükür ki ksa, edebim, dinim Çok ateli bi' kap içinden geçtiimiz Belli gözümüzden seçtiimiz Kapmdan kapna on lira taksiyle indi bindimizin paras O yüzden temiz konu ki karmda kronik kekeme olmayasn Vardr o dümeye basasm, her eyi yok edip bitiren çimde sadece yaras, bi' ekilde beni bitiren Var bende kötü bi' köpek, kulübede durur yirmi iki kilo Köküne kanann vardr kolunda, bacanda diki yaras O yüzden sevimli kerata, kiloyla çözülmez baz meseleler lla ki çözülür dersen En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr1</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Discographie - 13 Block Album Studio - 20190426 13 Block - BLO - 20191025 13 Block - BLO Réédition - 20201127 13 Block - BLO II Mixtape - 20140418 Block 13 - XIII - 20160304 13 Block - Violence urbaine émeute - 20160909 13 Block - ULTRAP - 20180406 13 Block - Triple S Single - 2014 Block 13 - 13 Block enfoiré - 2014 Block 13 - Ferrari - 2014 Block 13 - J't'avise - 20140306 Block 13 - On smoke - 20140811 Block 13 - Bulls - 20141031 13 Block - Slovaquie - 20150126 13 Block - Zéyo - 20150515 13 Block - Vegeta - 20150610 13 Block - Choochoo Gang - 20150722 13 Block - LKTEB - 20150904 13 Block - L'autre côté Freestyle - 20151106 13 Block - Olaskurt - 20151221 13 Block - Les gars d'la ville - 20160104 13 Block - LVDG Freestyle - 20160226 13 Block - 13 Block - 20160229 13 Block - Insomnie - 20160304 13 Block - Vers l'enfer - 20160307 13 Block - Freestyle OKLM - 20160520 13 Block - Vrai négro - 20160601 13 Block - DRUG'Z - 20160712 13 Block - Massacre - 20160722 13 Block - Ville - 20160817 13 Block - Griezmann - 20160819 13 Block - DIEZ - 20160905 13 Block - Mains sales - 20170203 13 Block - Gobelets - 20170317 13 Block - Brabus en esprit - 20170324 13 Block - R.S.A - 20170331 13 Block - Vous le savez - 20170501 13 Block - Kurama - 20170518 13 Block - Pay ou Key - 20170525 13 Block - Wario - 20170728 13 Block - Ville 2 - 20170830 13 Block - Essaye - 20171013 13 Block - Somme - 20171208 13 Block - Vide - 20180406 13 Block - Calibre - 20180420 13 Block - Bleck - 20180511 13 Block - A1 A3 - 20180606 13 Block - Freestyle Couvre Fu - 20180718 13 Block - Mood - 20180914 13 Block - Balayer - 20181116 13 Block - GTI Freestyle - 20181221 13 Block - Zidane - 20190213 13 Block - Faut que - 20190321 13 Block - Amis d'avant - 20190419 13 Block - Petit cur - 20190807 13 Block - CR - 20191101 13 Block - Fuck le 17 - 20200403 13 Block - BOÎTE 6 40 KIL - 20200806 13 Block - Tieks - 20201119 13 Block - Babi - 20201223 13 Block - Riina Toto You might also likeFeaturing - 20150330 Kaaris - Vie sauvage - 20150604 BMG - C.F.T.O - 20160118 Ninho - Verre - 20160616 Cheu-B - Pesos - 20160912 Alkpote - Ultrapute - 20170308 Lyrrix - Investir - 20171222 DA Uzi - C'est le même thème - 20180126 Alkpote - AR - 20180216 Ghost Killer Track - Neuf - 20180216 DJ Weedim - Mauvais Toy - 20180316 Dosseh - Papillon - 20180514 DJ Weedim - Mauvais Toy Heizenberg Remix - 20180622 Ikaz Boi - Ganja - 20180928 Dabs - Dinero - 20190125 Seth Gueko - Cookies - 20190315 Binks Beatz - Salam - 20190705 DJ Babs Jordan - 36 heures - 20190802 Hamza - Clic clac - 20200320 Twinsmatic - GROSLOT - 20200320 Soolking - On ira - 20201002 GLK - Grillé - 20201023 C.O.R - Jamais vu - 20210127 AP du 113 - Paparazzi - 20210618 Dabs - Du block aux loges - 20220622 Sale Epoque - VIE DE GANGSTER Discographie complémentaire - Discographie - OldPee - Discographie - Stavo - Discographie - Zed - Discographie - Zefor</t>
+          <t>Discographie - 13 Block Album Studio - 20190426 13 Block - BLO - 20191025 13 Block - BLO Réédition - 20201127 13 Block - BLO II Mixtape - 20140418 Block 13 - XIII - 20160304 13 Block - Violence urbaine émeute - 20160909 13 Block - ULTRAP - 20180406 13 Block - Triple S Single - 2014 Block 13 - 13 Block enfoiré - 2014 Block 13 - Ferrari - 2014 Block 13 - J't'avise - 20140306 Block 13 - On smoke - 20140811 Block 13 - Bulls - 20141031 13 Block - Slovaquie - 20150126 13 Block - Zéyo - 20150515 13 Block - Vegeta - 20150610 13 Block - Choochoo Gang - 20150722 13 Block - LKTEB - 20150904 13 Block - L'autre côté Freestyle - 20151106 13 Block - Olaskurt - 20151221 13 Block - Les gars d'la ville - 20160104 13 Block - LVDG Freestyle - 20160226 13 Block - 13 Block - 20160229 13 Block - Insomnie - 20160304 13 Block - Vers l'enfer - 20160307 13 Block - Freestyle OKLM - 20160520 13 Block - Vrai négro - 20160601 13 Block - DRUG'Z - 20160712 13 Block - Massacre - 20160722 13 Block - Ville - 20160817 13 Block - Griezmann - 20160819 13 Block - DIEZ - 20160905 13 Block - Mains sales - 20170203 13 Block - Gobelets - 20170317 13 Block - Brabus en esprit - 20170324 13 Block - R.S.A - 20170331 13 Block - Vous le savez - 20170501 13 Block - Kurama - 20170518 13 Block - Pay ou Key - 20170525 13 Block - Wario - 20170728 13 Block - Ville 2 - 20170830 13 Block - Essaye - 20171013 13 Block - Somme - 20171208 13 Block - Vide - 20180406 13 Block - Calibre - 20180420 13 Block - Bleck - 20180511 13 Block - A1 A3 - 20180606 13 Block - Freestyle Couvre Fu - 20180718 13 Block - Mood - 20180914 13 Block - Balayer - 20181116 13 Block - GTI Freestyle - 20181221 13 Block - Zidane - 20190213 13 Block - Faut que - 20190321 13 Block - Amis d'avant - 20190419 13 Block - Petit cur - 20190807 13 Block - CR - 20191101 13 Block - Fuck le 17 - 20200403 13 Block - BOÎTE 6 40 KIL - 20200806 13 Block - Tieks - 20201119 13 Block - Babi - 20201223 13 Block - Riina Toto Featuring - 20150330 Kaaris - Vie sauvage - 20150604 BMG - C.F.T.O - 20160118 Ninho - Verre - 20160616 Cheu-B - Pesos - 20160912 Alkpote - Ultrapute - 20170308 Lyrrix - Investir - 20171222 DA Uzi - C'est le même thème - 20180126 Alkpote - AR - 20180216 Ghost Killer Track - Neuf - 20180216 DJ Weedim - Mauvais Toy - 20180316 Dosseh - Papillon - 20180514 DJ Weedim - Mauvais Toy Heizenberg Remix - 20180622 Ikaz Boi - Ganja - 20180928 Dabs - Dinero - 20190125 Seth Gueko - Cookies - 20190315 Binks Beatz - Salam - 20190705 DJ Babs Jordan - 36 heures - 20190802 Hamza - Clic clac - 20200320 Twinsmatic - GROSLOT - 20200320 Soolking - On ira - 20201002 GLK - Grillé - 20201023 C.O.R - Jamais vu - 20210127 AP du 113 - Paparazzi - 20210618 Dabs - Du block aux loges - 20220622 Sale Epoque - VIE DE GANGSTER Discographie complémentaire - Discographie - OldPee - Discographie - Stavo - Discographie - Zed - Discographie - Zefor</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima! Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana You might also likeJa nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima!</t>
+          <t>Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima! Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima!</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pra quem eu devo meu respeito Nossa missão é dedicada pra cada camarada Que não esconde a cara, na hora da batalha Ta junto, nunca dá falha, e não paga pau pra canalha Só tem idéia forte carregada de esperança Então, assim que consta, é hardcore com rap, é gangsta Foi feito nas ruas, e feito pras ruas... Hey boy, hey boy A nossa trilha sonora não é pras tuas De condomínios guardados por viaturas Minha realidade é cercada de sepultura De mano enterrado bem antes da formatura Jamais vou me esquecer daqueles que me forjaram Seja no ódio ou aqueles que me amaram Na caminhada com os manos na contenção Fiz cada pedra ser usada de munição Olho pro lado e vejo que tenho irmão Jamais me deixa perdido na multidão Na solidão de uma cela, pra cada beco e viela Se for ou não da favela, nós tamo junto no riso e na vela Então, vocês não disseram que era idéia de vagabundo Com o microfone conseguir mudar o mundo? Agora tenta parar o rojão com o peito, filho da puta You might also likeVejo minas e manos de todos os lados Alguns de milianos, outros novos aliados Se for pra somar, então pode encostar Se for pra atrasar é só no ra ta ta ta... Tristezas e mágoas são fitas de águas passadas Sei quem ta comigo na largada e na chegada Só é lamentável os que mudaram a caminhada Mas já não me espanto com os que encontro nesta estrada Família, falar é fácil, né tio? Sustentar é que é difícil E no caminho vários foi pro precipício Não tô julgando, até porque não tenho nada a ver com isso O foda é ver pilantra te dando tapinha nas costas Pra virar a esquina falando uma pá de bosta, é isso que dá revolta Lembra da cara dos vermes na minha bota Mas pode pá parasita que o globo roda... E cobra... Quem quis se jogar se jogou Ficou no moio quem sempre valorizou, então Fala pra mim, que vai ta até o fim na linha de frente Tomando soco na roda, perdendo os dentes Quem repentinamente não botou fé na gente Fazer o que zé povinho, se infelizmente não agrado a ateus e crentes Sobrevivente da selva é inteligente Se liga favela que a idéia é quente Lembro de antigamente, tudo era diferente Sobraram poucos mas reconheço cada elo que é forte em nossa corrente Trouxe na idéia só idéia fluente, e na memória a saudade latente irmão Onde estiver cuide sempre da gente, firmão? ... Seja no Brás, Brooklin, Glicério, Cambucí Guaianazes, Catumbí, Cangaíba, Sacomã Santo Amaro, Jaçanã, ahan, ahan Tem Talibã por ali, Vila Sabrina, Grajaú Noronha, Itapeví, Jardim Brasil, Jardim Perí, Lajeado, Mogí Campo Limpo, Diadema, Taboão Capão Redondo, salve Vila Fundão Da Espraiada até o Ipiranga, minha quebrada Periferia central, sem boi pra boy paga pau Vila Formosa, mantém o proceder Tiradentes, São Miguel, Jardim São Rafael Nós não vai pro céu só por causa de um papel, jamais Cursino, Cupecê, Caixa Dágua, Saúde, Água Funda, salve Vila Cisper Mandaqui, Brasilândia, Favela da União, é nós Aclimação Vila Matilde, Osasco, Cohab 5 Caracas Barueri, aí, lembrei de ti Ferraz, Paralheiros, Helipa, São Mateus, Cidade de Deus Favela da Mistral, satisfação total Pirituba, Jaraguá, Vila Santa Catarina Mooca, Lauzane, Pari, Pedreira, Jardim Ângela Parque São Lucas, São Judas Cohab II Lado Leste Itaquera Guarulhos, Jabaquara Pirajuçara, Mauá, então, é nós quebrada Aeroporto, só no rasante louco Aquele salve pro Climax Três Tombos, Favela Rua Alba! Boqueirão, Itaim, Imirim Quando puder lembra de mim... Aos moradores de rua da Sé, quem é, é No Tremembé nós vai na fé... ABC, São Bernardo, Santo André... Às cidades do Rio de Janeiro São José, Piracicaba, Taubaté Salve a todas as cidades do Vale Ibiúna, Santos, Curitiba, Praia Grande Salve, todos os mangues... Aquele salve pra todas as quebradas Pra cada periferia, pracada viela Pra cada escadão, pra cada função Se liga favela que a idéia é quente Sobrevivente é a gente nos corres Tenho nas veias o sangue corrente Filho de branco com preto, sou brasileiro Sou latino mestiço, sou guerrilheiro...</t>
+          <t>Pra quem eu devo meu respeito Nossa missão é dedicada pra cada camarada Que não esconde a cara, na hora da batalha Ta junto, nunca dá falha, e não paga pau pra canalha Só tem idéia forte carregada de esperança Então, assim que consta, é hardcore com rap, é gangsta Foi feito nas ruas, e feito pras ruas... Hey boy, hey boy A nossa trilha sonora não é pras tuas De condomínios guardados por viaturas Minha realidade é cercada de sepultura De mano enterrado bem antes da formatura Jamais vou me esquecer daqueles que me forjaram Seja no ódio ou aqueles que me amaram Na caminhada com os manos na contenção Fiz cada pedra ser usada de munição Olho pro lado e vejo que tenho irmão Jamais me deixa perdido na multidão Na solidão de uma cela, pra cada beco e viela Se for ou não da favela, nós tamo junto no riso e na vela Então, vocês não disseram que era idéia de vagabundo Com o microfone conseguir mudar o mundo? Agora tenta parar o rojão com o peito, filho da puta Vejo minas e manos de todos os lados Alguns de milianos, outros novos aliados Se for pra somar, então pode encostar Se for pra atrasar é só no ra ta ta ta... Tristezas e mágoas são fitas de águas passadas Sei quem ta comigo na largada e na chegada Só é lamentável os que mudaram a caminhada Mas já não me espanto com os que encontro nesta estrada Família, falar é fácil, né tio? Sustentar é que é difícil E no caminho vários foi pro precipício Não tô julgando, até porque não tenho nada a ver com isso O foda é ver pilantra te dando tapinha nas costas Pra virar a esquina falando uma pá de bosta, é isso que dá revolta Lembra da cara dos vermes na minha bota Mas pode pá parasita que o globo roda... E cobra... Quem quis se jogar se jogou Ficou no moio quem sempre valorizou, então Fala pra mim, que vai ta até o fim na linha de frente Tomando soco na roda, perdendo os dentes Quem repentinamente não botou fé na gente Fazer o que zé povinho, se infelizmente não agrado a ateus e crentes Sobrevivente da selva é inteligente Se liga favela que a idéia é quente Lembro de antigamente, tudo era diferente Sobraram poucos mas reconheço cada elo que é forte em nossa corrente Trouxe na idéia só idéia fluente, e na memória a saudade latente irmão Onde estiver cuide sempre da gente, firmão? ... Seja no Brás, Brooklin, Glicério, Cambucí Guaianazes, Catumbí, Cangaíba, Sacomã Santo Amaro, Jaçanã, ahan, ahan Tem Talibã por ali, Vila Sabrina, Grajaú Noronha, Itapeví, Jardim Brasil, Jardim Perí, Lajeado, Mogí Campo Limpo, Diadema, Taboão Capão Redondo, salve Vila Fundão Da Espraiada até o Ipiranga, minha quebrada Periferia central, sem boi pra boy paga pau Vila Formosa, mantém o proceder Tiradentes, São Miguel, Jardim São Rafael Nós não vai pro céu só por causa de um papel, jamais Cursino, Cupecê, Caixa Dágua, Saúde, Água Funda, salve Vila Cisper Mandaqui, Brasilândia, Favela da União, é nós Aclimação Vila Matilde, Osasco, Cohab 5 Caracas Barueri, aí, lembrei de ti Ferraz, Paralheiros, Helipa, São Mateus, Cidade de Deus Favela da Mistral, satisfação total Pirituba, Jaraguá, Vila Santa Catarina Mooca, Lauzane, Pari, Pedreira, Jardim Ângela Parque São Lucas, São Judas Cohab II Lado Leste Itaquera Guarulhos, Jabaquara Pirajuçara, Mauá, então, é nós quebrada Aeroporto, só no rasante louco Aquele salve pro Climax Três Tombos, Favela Rua Alba! Boqueirão, Itaim, Imirim Quando puder lembra de mim... Aos moradores de rua da Sé, quem é, é No Tremembé nós vai na fé... ABC, São Bernardo, Santo André... Às cidades do Rio de Janeiro São José, Piracicaba, Taubaté Salve a todas as cidades do Vale Ibiúna, Santos, Curitiba, Praia Grande Salve, todos os mangues... Aquele salve pra todas as quebradas Pra cada periferia, pracada viela Pra cada escadão, pra cada função Se liga favela que a idéia é quente Sobrevivente é a gente nos corres Tenho nas veias o sangue corrente Filho de branco com preto, sou brasileiro Sou latino mestiço, sou guerrilheiro...</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino You might also likeALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Segah Hayat mn önünü kapattn Ha-ah-ah Nasl savayo' kalbim ile aklm? Büyükleri tarafndan hepsine yasaktm Gizli gizli izlediler, hep önüme baktm Nasl pencerenin arka taraf? Or'da olabilmek için bouna m dattm? Ah-ah Sanma darbelerin yakar canm Ha-ah-ah Kolumdaki yanklar ellerimle yaptm Ha-ah-ah Bana zarar veremezsin Düündüümü uygularsam inan Deli dersin Ya Hayat benden aldklarn götüne soksun Ya, ya, ya Biraz rahat versin, pis oluyo' tersim Kapmdan uzakla, artk dönemezsin Bizi bi' bunaltma, delirdik mi dersin? Bu saatten sonra bütün babalar gelsin Ya, ya Gücü yeten dostlarmla aramz bozsun Çok ayp! On beinde kzlarn peindeler Çok ayp! Yetnekli rap'çileri siktiler Çok ayp! irktlere esir ettiler, yazk ettiler Sonra Senle iim bitti der, çok ayp! Ya, ya, ya nandnz yalanlara sokaym, ah Küfür ettim ama buna demem Çok ayp!, ya Ya Biraz ben ileri zora sokaym, ha Gel, sinirimi sna bakaym You might also like Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben ükür, sevdiklerim güveniyo' bana Tabii üzerime düeni hep yapyorum, aga Getirmedim anam hiç karakola Düürmedim yüzünü ve bamz sokmadm dara Yeteneim güzellikler getirmiyo' u an Kötülükleri içimden atyorum ama Sahip çkyorum hâlâ anneme bu sahnede Bence sana benzemedim baba Yok sorunlu biri, açld bahtm Yanmda yoklarken yerinde aklm Bölük pörçüktüm, güçsüzdüm, büyüdüm Kanm da akt ve kan da döktüm imde tekim, taam tartn Onlara kyasla gerçekten rahatm Yam m küçük? Önemsiz artk Biz kime ne olduysa bilerek yaptk Saygszm, yanamayn, ha Kardeiniz yapamazsnz beni Sevmezsin internet sayesinde Tanrsan hastamz olursun hani Yaktm kafay ve deilim deli Sigara uzman bordo bereli Haksz kazanç, Tanr'nn eli Maalesef bu ite çok tecrübeli Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun sinemay gördüm ve de sustum, her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum yaptm yanl biliyordum Sadece sabrm deniyordum ben3</t>
+          <t>Segah Hayat mn önünü kapattn Ha-ah-ah Nasl savayo' kalbim ile aklm? Büyükleri tarafndan hepsine yasaktm Gizli gizli izlediler, hep önüme baktm Nasl pencerenin arka taraf? Or'da olabilmek için bouna m dattm? Ah-ah Sanma darbelerin yakar canm Ha-ah-ah Kolumdaki yanklar ellerimle yaptm Ha-ah-ah Bana zarar veremezsin Düündüümü uygularsam inan Deli dersin Ya Hayat benden aldklarn götüne soksun Ya, ya, ya Biraz rahat versin, pis oluyo' tersim Kapmdan uzakla, artk dönemezsin Bizi bi' bunaltma, delirdik mi dersin? Bu saatten sonra bütün babalar gelsin Ya, ya Gücü yeten dostlarmla aramz bozsun Çok ayp! On beinde kzlarn peindeler Çok ayp! Yetnekli rap'çileri siktiler Çok ayp! irktlere esir ettiler, yazk ettiler Sonra Senle iim bitti der, çok ayp! Ya, ya, ya nandnz yalanlara sokaym, ah Küfür ettim ama buna demem Çok ayp!, ya Ya Biraz ben ileri zora sokaym, ha Gel, sinirimi sna bakaym Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben ükür, sevdiklerim güveniyo' bana Tabii üzerime düeni hep yapyorum, aga Getirmedim anam hiç karakola Düürmedim yüzünü ve bamz sokmadm dara Yeteneim güzellikler getirmiyo' u an Kötülükleri içimden atyorum ama Sahip çkyorum hâlâ anneme bu sahnede Bence sana benzemedim baba Yok sorunlu biri, açld bahtm Yanmda yoklarken yerinde aklm Bölük pörçüktüm, güçsüzdüm, büyüdüm Kanm da akt ve kan da döktüm imde tekim, taam tartn Onlara kyasla gerçekten rahatm Yam m küçük? Önemsiz artk Biz kime ne olduysa bilerek yaptk Saygszm, yanamayn, ha Kardeiniz yapamazsnz beni Sevmezsin internet sayesinde Tanrsan hastamz olursun hani Yaktm kafay ve deilim deli Sigara uzman bordo bereli Haksz kazanç, Tanr'nn eli Maalesef bu ite çok tecrübeli Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun sinemay gördüm ve de sustum, her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum yaptm yanl biliyordum Sadece sabrm deniyordum ben3</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kendini sev Kendini sev Öyle bir ey yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn Sakn küçük görme kendini Çünkü çabalamann içindedir güzellik, zenci Hepinize gelsin bu Çabalamann içindedir güzellik, zenci Açklayaym Çabalamann içindedir güzellik , çirkinlikse baarnn Kulak ver sözlerime ya da üzüntü sinyallerimi dinle ehirde büyümeme ramen baz zamanlar az ey olurdu elimizde Mahalledeki dier dostlarmla kyaslarsak Adamm, biz resmen kutsanmtk Ve hayat olamaz bir peri masal, bir zamanlar yok Ama eer çabalamazsam lanet olsun bana Söylesene anne, neden sürekli içiyorsun? O herifin getirdii tüm ac hala kafann içinde mi yoksa? Çünkü o ac hala benimkinin içinde Zenginliklere giden yolda bulacan ey budur yi haber, baya bir yol aldn zenci Kötü haber, yanl yola gittin zenci Fakir olmann daha iyi olduunu düündün You might also like Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Mutluluk olmadan nedir ki para? Ya da sevdiklerin olmadan zor zamanlar? Sradaki olacak eyden emin olmamama ramen Yukardaki Tanr'dan istedim gücü Çünkü uzun zamandr güçlüyüm Ama hissedebiliyorum tutuumun gevediini Çabuk, bir eyler yap onu tamamen kaybetmeden Tekrar kazan ve onu iyi bir ey için kullan Ve insanlara dokun daha önce yaptn gibi Yoruldum ben eytanlarla yaamaktan çünkü sürekli daha fazlasn davet ediyorlar Fakirliin daha iyi olduunu düündün Bu cümleyi saygszlk yapmak için kurmadm Borç içinde yaayan dostlarma Düük maa alp televizyonu açnca zencinin tekinin Rolexini görenlere Ve stressiz hayat düleyenlere Bunu içtenlikle söylüyorum Bir zamanlar sizin durumunuzda olan biri olarak Kaybedecek hiçbir eyi olmadan yaayan biri olarak, umarm bir gün beni duyarsnz Darda bir yerde her zaman daha büyük bir ev olacak ama zenci anla beni Yürekten sevdiklerinin olduu olduktan sonra o lanet yeri sikeyim Her zaman seninkinden daha iyi bir araba olacak Her zaman senin giydiklerinden daha haval giysiler olacak Her zaman darda daha haval bir kaltak olacak Ama sen hiçbir zaman mutlu olamayacaksan ta ki kendini sevene kadar Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn</t>
+          <t>Kendini sev Kendini sev Öyle bir ey yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn Sakn küçük görme kendini Çünkü çabalamann içindedir güzellik, zenci Hepinize gelsin bu Çabalamann içindedir güzellik, zenci Açklayaym Çabalamann içindedir güzellik , çirkinlikse baarnn Kulak ver sözlerime ya da üzüntü sinyallerimi dinle ehirde büyümeme ramen baz zamanlar az ey olurdu elimizde Mahalledeki dier dostlarmla kyaslarsak Adamm, biz resmen kutsanmtk Ve hayat olamaz bir peri masal, bir zamanlar yok Ama eer çabalamazsam lanet olsun bana Söylesene anne, neden sürekli içiyorsun? O herifin getirdii tüm ac hala kafann içinde mi yoksa? Çünkü o ac hala benimkinin içinde Zenginliklere giden yolda bulacan ey budur yi haber, baya bir yol aldn zenci Kötü haber, yanl yola gittin zenci Fakir olmann daha iyi olduunu düündün Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Mutluluk olmadan nedir ki para? Ya da sevdiklerin olmadan zor zamanlar? Sradaki olacak eyden emin olmamama ramen Yukardaki Tanr'dan istedim gücü Çünkü uzun zamandr güçlüyüm Ama hissedebiliyorum tutuumun gevediini Çabuk, bir eyler yap onu tamamen kaybetmeden Tekrar kazan ve onu iyi bir ey için kullan Ve insanlara dokun daha önce yaptn gibi Yoruldum ben eytanlarla yaamaktan çünkü sürekli daha fazlasn davet ediyorlar Fakirliin daha iyi olduunu düündün Bu cümleyi saygszlk yapmak için kurmadm Borç içinde yaayan dostlarma Düük maa alp televizyonu açnca zencinin tekinin Rolexini görenlere Ve stressiz hayat düleyenlere Bunu içtenlikle söylüyorum Bir zamanlar sizin durumunuzda olan biri olarak Kaybedecek hiçbir eyi olmadan yaayan biri olarak, umarm bir gün beni duyarsnz Darda bir yerde her zaman daha büyük bir ev olacak ama zenci anla beni Yürekten sevdiklerinin olduu olduktan sonra o lanet yeri sikeyim Her zaman seninkinden daha iyi bir araba olacak Her zaman senin giydiklerinden daha haval giysiler olacak Her zaman darda daha haval bir kaltak olacak Ama sen hiçbir zaman mutlu olamayacaksan ta ki kendini sevene kadar Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zehirli Melodiler Zihnimin her tarafnda gezen Zehirli Melodiler ey Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Artk gülmek daha zor çten deil hiç dostum Ah Çok kotum çok bolua Dütüm, kalktm dostum Ya Sahip çktm aileme Durdum hep yolun yannda Braktm temiz gelecek Varoun çocuklarna Sensei, iz braktn gözümün tam altna Gösümün üzerine, yldzlarn tam ortasna Sabret bu kadar suç ardndan gelir bela Belki tek yol budur gelmek için kardeim yanna Denedim kendimi tutmay zorladm ama hiç baaramyorum Ah Güleriz her zaman bilirsin artk o günlere ulaamyorum Ah yi bi' nakarat yapnca fikrin için sana danamyorum Yanl anladlar anlatamyorum Ate altndaym savaamyorum hiç You might also like Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Zehirli melodiler Zihnimi deli eden Sarlr dört yanm tehlikeli kelimeler Gece biter ah Ve senin dostlarn der bi gün geçer Kaplanr dört yann dert brak yeter Sokaklar için öderiz bedel Geçinmek zor i bizi mahveder Güne açk ama söner klar için bu karanlklar Beklemek için sabrszm Kanmda zehirli melodiler Kanmda zehirli melodiler Kanmda zehirli melodiler Yolumuz toz dolu altk zorlu kavgalara da Bitmeyen gecelere hiç uyanamamaya da Sanki bu kumarn içinde son kozum müzik kabul ederim ama Sonunda kaydeden ben olursam herhalde çkamam bi yarna Bu yoku çok dik sanyorsunuz ben yapyorum makara Varotan kurtulmak isteyen ruhumu susturamyorum bu mu hata Savam kaderimle en dipten fazlasn yaamak Yoruldum bitmedi mi basamak açlsn artk çelik kasalar Her yolu dener Atlas Yannda 7 kii size el uzatmaz Hrsndan devriliyor tüm yüksek binalar Ellerim bal fakat dönemem plandan Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Hay! bilecektik nerden? Kaçamadk zehirli melodilerden Ah! gör beni bi yerden Düen hayalleri topluyorum yerden Zehirli melodiler beynimi deli eden Gözlerim kapansa da kafamn içindeler Denedim 50 sefer bitiremedim ki ben Ölümle kavgamz var devir deiti Vio bak Deil ki yalnzca melodiler zehirli Sevimli gözüken sahtelikler gerçek istein mi? What you sayin' B? anlardn dinleseydin bi' Ne filmler dönüyor sen kalma seyirci Artk içimdeki ses benim deil senin V Belirsizlik deiti, kesin ki olamam daha da uysal Alacak sorunlar, sanclar varolusal Çklacak dar yokular, hazrlan daha yolun var Dü kalk yok durmak görünce bile dibi Ghetto için panzehir zehirli melodimiz Artk dayanamadmda bana güç veriyor Biggie Tpk Prodigy, 2Pac ve Vio gibi Aklm bodu sonras yoktu Dönüyor dünya bir yln doldu Suretin her yer kapma komu imdi hayallerin gece güneim oldu Anlatamam yok yok hecelerini Kaplyor bu varo lo gecelerimi Çkarz bu ateten bo ellerimiz Kalr zehirli melodiler, zehirli melodiler5</t>
+          <t>Zehirli Melodiler Zihnimin her tarafnda gezen Zehirli Melodiler ey Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Artk gülmek daha zor çten deil hiç dostum Ah Çok kotum çok bolua Dütüm, kalktm dostum Ya Sahip çktm aileme Durdum hep yolun yannda Braktm temiz gelecek Varoun çocuklarna Sensei, iz braktn gözümün tam altna Gösümün üzerine, yldzlarn tam ortasna Sabret bu kadar suç ardndan gelir bela Belki tek yol budur gelmek için kardeim yanna Denedim kendimi tutmay zorladm ama hiç baaramyorum Ah Güleriz her zaman bilirsin artk o günlere ulaamyorum Ah yi bi' nakarat yapnca fikrin için sana danamyorum Yanl anladlar anlatamyorum Ate altndaym savaamyorum hiç Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Zehirli melodiler Zihnimi deli eden Sarlr dört yanm tehlikeli kelimeler Gece biter ah Ve senin dostlarn der bi gün geçer Kaplanr dört yann dert brak yeter Sokaklar için öderiz bedel Geçinmek zor i bizi mahveder Güne açk ama söner klar için bu karanlklar Beklemek için sabrszm Kanmda zehirli melodiler Kanmda zehirli melodiler Kanmda zehirli melodiler Yolumuz toz dolu altk zorlu kavgalara da Bitmeyen gecelere hiç uyanamamaya da Sanki bu kumarn içinde son kozum müzik kabul ederim ama Sonunda kaydeden ben olursam herhalde çkamam bi yarna Bu yoku çok dik sanyorsunuz ben yapyorum makara Varotan kurtulmak isteyen ruhumu susturamyorum bu mu hata Savam kaderimle en dipten fazlasn yaamak Yoruldum bitmedi mi basamak açlsn artk çelik kasalar Her yolu dener Atlas Yannda 7 kii size el uzatmaz Hrsndan devriliyor tüm yüksek binalar Ellerim bal fakat dönemem plandan Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Hay! bilecektik nerden? Kaçamadk zehirli melodilerden Ah! gör beni bi yerden Düen hayalleri topluyorum yerden Zehirli melodiler beynimi deli eden Gözlerim kapansa da kafamn içindeler Denedim 50 sefer bitiremedim ki ben Ölümle kavgamz var devir deiti Vio bak Deil ki yalnzca melodiler zehirli Sevimli gözüken sahtelikler gerçek istein mi? What you sayin' B? anlardn dinleseydin bi' Ne filmler dönüyor sen kalma seyirci Artk içimdeki ses benim deil senin V Belirsizlik deiti, kesin ki olamam daha da uysal Alacak sorunlar, sanclar varolusal Çklacak dar yokular, hazrlan daha yolun var Dü kalk yok durmak görünce bile dibi Ghetto için panzehir zehirli melodimiz Artk dayanamadmda bana güç veriyor Biggie Tpk Prodigy, 2Pac ve Vio gibi Aklm bodu sonras yoktu Dönüyor dünya bir yln doldu Suretin her yer kapma komu imdi hayallerin gece güneim oldu Anlatamam yok yok hecelerini Kaplyor bu varo lo gecelerimi Çkarz bu ateten bo ellerimiz Kalr zehirli melodiler, zehirli melodiler5</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Buras benim çöplüüm, yalnzca benim öttüüm Korkarak zehir çözdüün, bugün tüm devir götlüün Delirdin seyir kördüüm, peinden gelir örttüün Kör olsam ne fark eder? her ey kirli, rezil gördüüm Çk dünyaya caddeden bar, edemem kahpeden kar Yaamak kumara benzer her eyi mahveden zar Kusura bakmayn hocam sizleri bekletirdim Ilk derse gelemezdim, sabah 9 mahkemem var! Ya, sokaa ekil veririz Bataklktan çkp da geldim dedim çekinme pisim bu kadar yeter artk dedi geri çekilmelisin Öyle yaamalsn ki deli denilmelisin Harman hamleler, peti permatik deler Sirenler kol gezer, rol keser hepsi panikteler Son umut ne, sonumuz mu? sorma bize Paso bize çalr narkotik, organize! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar! You might also like Hayat ya bu ite, savuturur vay haline Hzl admlar seni kavuturur hayaline Ben de kotururum bulana dek ta ki neden Hzl yaantm admlarm takip eder Sanki bedel ödüyosun pahas ar Henüz hiçbir ey görmedin ki sen dahas var Dümesin azna, iyiyse haslat Azraille yirmi birinci round buna raz kal Emin ol korkarsn, kl ol, çetemle bone thugsm'dr O bu fark etmez gören der kafadan kontaksn bro Bomayla bong kastk pro-mil Durur hep belimde krom kapl brow-ning Bu gece fazla sisliyim çekiyim biraz daha Bu müzik hayatmda çizdiim tek iyi resim Diz trip teknii iyi kissliyip tekliyi Benden uzak dur, çünkü ben bi' pisliin tekiyim! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar!</t>
+          <t>Buras benim çöplüüm, yalnzca benim öttüüm Korkarak zehir çözdüün, bugün tüm devir götlüün Delirdin seyir kördüüm, peinden gelir örttüün Kör olsam ne fark eder? her ey kirli, rezil gördüüm Çk dünyaya caddeden bar, edemem kahpeden kar Yaamak kumara benzer her eyi mahveden zar Kusura bakmayn hocam sizleri bekletirdim Ilk derse gelemezdim, sabah 9 mahkemem var! Ya, sokaa ekil veririz Bataklktan çkp da geldim dedim çekinme pisim bu kadar yeter artk dedi geri çekilmelisin Öyle yaamalsn ki deli denilmelisin Harman hamleler, peti permatik deler Sirenler kol gezer, rol keser hepsi panikteler Son umut ne, sonumuz mu? sorma bize Paso bize çalr narkotik, organize! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar! Hayat ya bu ite, savuturur vay haline Hzl admlar seni kavuturur hayaline Ben de kotururum bulana dek ta ki neden Hzl yaantm admlarm takip eder Sanki bedel ödüyosun pahas ar Henüz hiçbir ey görmedin ki sen dahas var Dümesin azna, iyiyse haslat Azraille yirmi birinci round buna raz kal Emin ol korkarsn, kl ol, çetemle bone thugsm'dr O bu fark etmez gören der kafadan kontaksn bro Bomayla bong kastk pro-mil Durur hep belimde krom kapl brow-ning Bu gece fazla sisliyim çekiyim biraz daha Bu müzik hayatmda çizdiim tek iyi resim Diz trip teknii iyi kissliyip tekliyi Benden uzak dur, çünkü ben bi' pisliin tekiyim! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar!</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans edemedik üphem yok sevgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans demedik üphem yok svgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana You might also like Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana</t>
+          <t>Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans edemedik üphem yok sevgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans demedik üphem yok svgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gözümü açtm bu alemde Yaadm kendi halimde Çalnt yüzlere baktm her gün Hepsi hayallere sürgün Kime baksam dertlere tutsak Bi tek ben miyim aksak ? Haykrsam desem herkese Bover elen delice Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun Skldm artk kalplardan Çünkü hepsi büyük bi yalan Snrlarm ben çiziyorum artk Darda kalanlara yaktk You might also likeKime baksam kendinden çok uzak Sanki biraz da paranoyak Nasl anlatsam ben herkese Uyansa herkes keke Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun</t>
+          <t>Gözümü açtm bu alemde Yaadm kendi halimde Çalnt yüzlere baktm her gün Hepsi hayallere sürgün Kime baksam dertlere tutsak Bi tek ben miyim aksak ? Haykrsam desem herkese Bover elen delice Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun Skldm artk kalplardan Çünkü hepsi büyük bi yalan Snrlarm ben çiziyorum artk Darda kalanlara yaktk Kime baksam kendinden çok uzak Sanki biraz da paranoyak Nasl anlatsam ben herkese Uyansa herkes keke Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal Bizde dersler zevkli, hepsi YouTube'dan yes Mert Hoca'nn anlatm biçilmi kaftan Matematik sorun deil, antioksidan dan Sk çal, kazanmak yok karalamadan Kamp kitab açn bakn hepsi full ilem ilem Olaslk zorda deil uzay örneklem Anlamadm diyorsan kur ksa denklem yes TYT mi AYT mi büyük ikilem yes Baba dedim Dershane?, dedi çok para çok para YouTube'dan izle bakan, hemen açsana alo Sivaslyz ama doum yri Ankara ate Ödevlerin yoksa yrsin salam papara azar YouTube kapal of, kitap karal çiz Derse bak hemen, açklamal yes Video hemen x2, baba bural nefis Derste patlat bi' kahve, hem de çikolatal You might also like Türev napcaz kanka, trigo da biraz zor zor Üçgen aç bünye için tam bir antikor üf Limit yaklam sanki bize metafor big Doksan günde bitir ii, ol bir matador ko Hocam netler sabit, sorun sanki bende mi? yok Üç senedir vard burda ar pandemi covid Kazanrsan alcam sana civanperçemi thanks Ara snf, Discord koun Mert Hoca Akademi Eitsizlik sevmez içler dlar çarpm üf EBOB-EKOK soru gelmez ayaktakm Parabolü sevmem, kollar hep yukar m? Düzen için print'le kamp program Mert Hoca devam ko Aleyküm selam lan Derse baktm, yine zordu alad anam çü Kazanmadan gezmek bana gerçekten haram çk Patlatsana Mert Hoca'm edelim kelam yes YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal hem de çikolatal, hem de çikolatal3</t>
+          <t>YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal Bizde dersler zevkli, hepsi YouTube'dan yes Mert Hoca'nn anlatm biçilmi kaftan Matematik sorun deil, antioksidan dan Sk çal, kazanmak yok karalamadan Kamp kitab açn bakn hepsi full ilem ilem Olaslk zorda deil uzay örneklem Anlamadm diyorsan kur ksa denklem yes TYT mi AYT mi büyük ikilem yes Baba dedim Dershane?, dedi çok para çok para YouTube'dan izle bakan, hemen açsana alo Sivaslyz ama doum yri Ankara ate Ödevlerin yoksa yrsin salam papara azar YouTube kapal of, kitap karal çiz Derse bak hemen, açklamal yes Video hemen x2, baba bural nefis Derste patlat bi' kahve, hem de çikolatal Türev napcaz kanka, trigo da biraz zor zor Üçgen aç bünye için tam bir antikor üf Limit yaklam sanki bize metafor big Doksan günde bitir ii, ol bir matador ko Hocam netler sabit, sorun sanki bende mi? yok Üç senedir vard burda ar pandemi covid Kazanrsan alcam sana civanperçemi thanks Ara snf, Discord koun Mert Hoca Akademi Eitsizlik sevmez içler dlar çarpm üf EBOB-EKOK soru gelmez ayaktakm Parabolü sevmem, kollar hep yukar m? Düzen için print'le kamp program Mert Hoca devam ko Aleyküm selam lan Derse baktm, yine zordu alad anam çü Kazanmadan gezmek bana gerçekten haram çk Patlatsana Mert Hoca'm edelim kelam yes YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal hem de çikolatal, hem de çikolatal3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için You might also like Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
+          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Geceler uzun, bamda bi' dert Kosam da kaçamam peimdekinden Ya, ya Yldzm parlar, sanma ki söner Gün olur bu devran bize de döner Ya, ya Uydururum ii kitabna Çok fazla güvenme fiyatna Harcanr gençliin bi' çrpda Ya, ya Yayo'm, kardeim, inadna Ey, ey Yayo'm kardeimin adna Kayan tüm yldzlar aramzdan Uzaktan bakmak tabii ki kolay Gel içine de gir, nedir olay? Burann suyunu içen bilir Gençleri tehlike seviyo'lar Yüzümüz is, içimiz temiz Ya, ya Hakikati onlar biliyo'lar Ya En güzel arklar varotan çkar Çakal Mercedes, içinde sistem Onunsa içinde arkmz çalar Yükselir vites, toz olur gider Ey Dik dur ve hayatn tadn çkar Prr Yok gibi ölüm, yok ki bi' keder Bi' çkar salamam dostlarmdan Yüzünü güldürmk houma gider Dar'dan serseri damgas, ah Haklsn aslnda, yaptk biraz Ya, ya Tatlsn ama bn acym, bak Ey Sksaydn kalbimin ortasna Ya, ya Severim tehlike, severim silah Neleri geldi bu bama, inan Her yolu denedim, sözümü yemedim Saklanmam yalann arkasna Prr You might also like Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le Kaybedicek hiçbi' eyim yok Ya Of çekecek bi' cier bile Ya, ya Kapld herkes rüzgârma Silkelendi, hemen de geldi kendine Gülü seven çok dostlarm oldu Ey Gösümü gerdim hep dikenlere Ey Çkmaz sokakta kaybolduk biz Ey Hayran kaldk lüks caddelere Ya, ya Seneler kanser, seneler Her ehirde konser Gördüm her gerçei ve çok sertti Bur'daym her eyimle gençler Ya Keneler cebimde boy gösterdi Seninse var cebinde akrep Meselem dürüst olmakt en bandan Sen anlamadn, bo ver, ya Bo duranlar Allah sevmez Wouh Koturanlar memurlar Ya, ya Sokaklar âk serserilere Bo kalmyo' hiç karakollar Holanmyorum cvklktan Ve lütfen benimle inatlama Ya, ya Boulursun açklarda Sen kendini kurtar, beni kurtarma Ya, ey, gecenin içine gir, ya Bulat elime kir Kimse diyemez Denemedin Ya, ey, artk yok bi' seçenein Buras güvenli deil, ya Gecenin içine gir Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le2</t>
+          <t>Geceler uzun, bamda bi' dert Kosam da kaçamam peimdekinden Ya, ya Yldzm parlar, sanma ki söner Gün olur bu devran bize de döner Ya, ya Uydururum ii kitabna Çok fazla güvenme fiyatna Harcanr gençliin bi' çrpda Ya, ya Yayo'm, kardeim, inadna Ey, ey Yayo'm kardeimin adna Kayan tüm yldzlar aramzdan Uzaktan bakmak tabii ki kolay Gel içine de gir, nedir olay? Burann suyunu içen bilir Gençleri tehlike seviyo'lar Yüzümüz is, içimiz temiz Ya, ya Hakikati onlar biliyo'lar Ya En güzel arklar varotan çkar Çakal Mercedes, içinde sistem Onunsa içinde arkmz çalar Yükselir vites, toz olur gider Ey Dik dur ve hayatn tadn çkar Prr Yok gibi ölüm, yok ki bi' keder Bi' çkar salamam dostlarmdan Yüzünü güldürmk houma gider Dar'dan serseri damgas, ah Haklsn aslnda, yaptk biraz Ya, ya Tatlsn ama bn acym, bak Ey Sksaydn kalbimin ortasna Ya, ya Severim tehlike, severim silah Neleri geldi bu bama, inan Her yolu denedim, sözümü yemedim Saklanmam yalann arkasna Prr Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le Kaybedicek hiçbi' eyim yok Ya Of çekecek bi' cier bile Ya, ya Kapld herkes rüzgârma Silkelendi, hemen de geldi kendine Gülü seven çok dostlarm oldu Ey Gösümü gerdim hep dikenlere Ey Çkmaz sokakta kaybolduk biz Ey Hayran kaldk lüks caddelere Ya, ya Seneler kanser, seneler Her ehirde konser Gördüm her gerçei ve çok sertti Bur'daym her eyimle gençler Ya Keneler cebimde boy gösterdi Seninse var cebinde akrep Meselem dürüst olmakt en bandan Sen anlamadn, bo ver, ya Bo duranlar Allah sevmez Wouh Koturanlar memurlar Ya, ya Sokaklar âk serserilere Bo kalmyo' hiç karakollar Holanmyorum cvklktan Ve lütfen benimle inatlama Ya, ya Boulursun açklarda Sen kendini kurtar, beni kurtarma Ya, ey, gecenin içine gir, ya Bulat elime kir Kimse diyemez Denemedin Ya, ey, artk yok bi' seçenein Buras güvenli deil, ya Gecenin içine gir Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le2</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pu, pu, pu, pu Segah Pu, pu Siyah tayt neon Nike Ih Ylan type, bu kz Hype Fenalar, fenalar Prr Tk follow, tk like Woo Yürürüz imkân varsa, ksmet iirme kendini kasma, az dur Fenomen Instagram'da Akln varsa kendine sakla, sakla Pu, pu Komalarda, baba komalarda Grr lla alrm seni kovalarsam Woo, woo Localarda, suit odalarda Prr, prr Cin çkar üç kere iyi ovalarsam Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar You might also like Üzülme canm, denk geliriz yine Ver numaran diyip biz sizi ararz Belki bir kaç beden büyük geliriz Ey, ey Size uymuyorsa erkenden kaçarz Kotur kurtardn paçan Bize dert deil cidden baar Yeah Bana gel seni her ekil tarm Yeah Para biter tabii her eyin ar Brr Gitceksem hz 180 Woo Hissettiririm hissetsem Ey Sus ben bilirim her dilden Ey Söz konuucam hep kalbimden Ya, ya Takvimime bakp dönücem Woo Ama sessiz ol görmesin yengen Bina giriini hâlledelim ilk Brr Sonra komular olmasn engel Renkler, bozuk ekran Ya Gitti resmen Ya kzm valla billa' Ya Esmer ya da sarn Ya Fark ederse Ya inan ki Kuran çarpsn Ya, ya Renkler bozuk ekran Ya Gitti resmen Ya kzm valla' billa' Ya, ya Esmer ya da sarn Ya Fark ederse inan ki Kuran çarpsn Ya, ey, brr Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar1</t>
+          <t>Pu, pu, pu, pu Segah Pu, pu Siyah tayt neon Nike Ih Ylan type, bu kz Hype Fenalar, fenalar Prr Tk follow, tk like Woo Yürürüz imkân varsa, ksmet iirme kendini kasma, az dur Fenomen Instagram'da Akln varsa kendine sakla, sakla Pu, pu Komalarda, baba komalarda Grr lla alrm seni kovalarsam Woo, woo Localarda, suit odalarda Prr, prr Cin çkar üç kere iyi ovalarsam Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar Üzülme canm, denk geliriz yine Ver numaran diyip biz sizi ararz Belki bir kaç beden büyük geliriz Ey, ey Size uymuyorsa erkenden kaçarz Kotur kurtardn paçan Bize dert deil cidden baar Yeah Bana gel seni her ekil tarm Yeah Para biter tabii her eyin ar Brr Gitceksem hz 180 Woo Hissettiririm hissetsem Ey Sus ben bilirim her dilden Ey Söz konuucam hep kalbimden Ya, ya Takvimime bakp dönücem Woo Ama sessiz ol görmesin yengen Bina giriini hâlledelim ilk Brr Sonra komular olmasn engel Renkler, bozuk ekran Ya Gitti resmen Ya kzm valla billa' Ya Esmer ya da sarn Ya Fark ederse Ya inan ki Kuran çarpsn Ya, ya Renkler bozuk ekran Ya Gitti resmen Ya kzm valla' billa' Ya, ya Esmer ya da sarn Ya Fark ederse inan ki Kuran çarpsn Ya, ey, brr Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Seni cierlerimde ve damarlarmda hissediyorum Kan dolammdasn ve bu beynime ulaabilmenin tek yolu Dierlerini de denedim ama onlar senin kadar iyi deillerdi Deliriyorum çünkü sadece seninleyken böyle hissediyorum Belki de eskiden olduu kadar güçlü deilimdir artk Son zamanlarda artk bam döndürmüyorsun Buna tpk ar bir uyuturucuymuum gibi balmlym Nikki bebeim, seni seviyorum ama imdi gitmem lazm Çünkü bu iin sonu nereye varr biliyorsun Muhtemeln nerde olduumu merak diyor Bense gözden uzam, düünüyorum da bunun bedeli ne? Dier tüm hatunlar kucamda ama umrumda deil Sen ihtiyacm olan tek kadnsn, seni geri kazanmam gerek Hem de cierimi siyaha çevirmene ramen Bana nerde olduunu söyle? Ah, ad Mary olan hatunu biliyorum Her eyden bi' haberken onu becerirdim Dostlarmla beraber okulu asardk Mary ile iim bitince sadece sen ve ben kaldk Beni iyi hissetiriyorsun, ilk düüncelerim böyleydi Sen ve ben beraberken, Tanr ahidim olsun iyiydik Senden uzaklanca ilerimi yapmam pek zor oluyor Ah, bu kalbimin de daha sk çalmasn gerektiriyor Yaklak on yldr beraberiz Lanet olsun, ben gençken beni tavlad Her gün kim olduumu, kim olacam, nereye gideceimi Ve mezar tama ne yazacaklarn düünüyorum Kral olarak domu özgür bir adam, köle olarak ölen Yine de onun için yaptklar bir hiç urunayd Ah hayr yavaça brkamam, hemen kurtulmalym senden Beni Vegas'a uçuyormuum gibi trip'lendiriyorsun Tüm bu bana yaptklarn acmaszca Tek bildiim hiç yaayamayacam bir hayat yaadm Sonunda senden kurtuldum, hiç yapamayacam sanardm Yanl anlama, paylatmz o anlar unutamam Gittiim her yerde, senin de orda olduunu biliyorum Kaçmaya çaltm ama ayaklarm izin vermedi Yüzümü çeviriyorum ama bam izin vermiyor Seni tazeyken seviyorum Seni alyorum ve ayn nefesi paylayoruz Sana ihtiyacm olmasndan nefret ediyorum, Nikki Ama seni doyurmay seviyorum, Nikki Senin için üzülmekten nefret ediyorum Ah, sana hasretim ve sana ihtiyacm var Senin tadn almay seviyorum Hiçbir ey senin yerini alamaz Keke seni silebilsem, gittiim her yerdesin Ama olmak istediim her yerdesin Ve dier insanlar bunu anlamyor gibi gözükmüyor Ben her zaman herkesin skntn ne diye sorduu adamm Sen arzuladm her eysin Sen beni mezara sokmasna izin verebileceim tek eysin Ben kralm, sen de benim Corettamsn Ama son zamanlarda kendimi nikotinin kölesiymi gibi hissediyorum You might also like Kölesi Dedim ki, nikotinin kölesiyim Senin kölen oldum Senin sikik bir kölenim Nikotinin kölesi Nikki, Nikki, kölenim Senin kölenim Nikki Senin sikik bir kölenim</t>
+          <t>Seni cierlerimde ve damarlarmda hissediyorum Kan dolammdasn ve bu beynime ulaabilmenin tek yolu Dierlerini de denedim ama onlar senin kadar iyi deillerdi Deliriyorum çünkü sadece seninleyken böyle hissediyorum Belki de eskiden olduu kadar güçlü deilimdir artk Son zamanlarda artk bam döndürmüyorsun Buna tpk ar bir uyuturucuymuum gibi balmlym Nikki bebeim, seni seviyorum ama imdi gitmem lazm Çünkü bu iin sonu nereye varr biliyorsun Muhtemeln nerde olduumu merak diyor Bense gözden uzam, düünüyorum da bunun bedeli ne? Dier tüm hatunlar kucamda ama umrumda deil Sen ihtiyacm olan tek kadnsn, seni geri kazanmam gerek Hem de cierimi siyaha çevirmene ramen Bana nerde olduunu söyle? Ah, ad Mary olan hatunu biliyorum Her eyden bi' haberken onu becerirdim Dostlarmla beraber okulu asardk Mary ile iim bitince sadece sen ve ben kaldk Beni iyi hissetiriyorsun, ilk düüncelerim böyleydi Sen ve ben beraberken, Tanr ahidim olsun iyiydik Senden uzaklanca ilerimi yapmam pek zor oluyor Ah, bu kalbimin de daha sk çalmasn gerektiriyor Yaklak on yldr beraberiz Lanet olsun, ben gençken beni tavlad Her gün kim olduumu, kim olacam, nereye gideceimi Ve mezar tama ne yazacaklarn düünüyorum Kral olarak domu özgür bir adam, köle olarak ölen Yine de onun için yaptklar bir hiç urunayd Ah hayr yavaça brkamam, hemen kurtulmalym senden Beni Vegas'a uçuyormuum gibi trip'lendiriyorsun Tüm bu bana yaptklarn acmaszca Tek bildiim hiç yaayamayacam bir hayat yaadm Sonunda senden kurtuldum, hiç yapamayacam sanardm Yanl anlama, paylatmz o anlar unutamam Gittiim her yerde, senin de orda olduunu biliyorum Kaçmaya çaltm ama ayaklarm izin vermedi Yüzümü çeviriyorum ama bam izin vermiyor Seni tazeyken seviyorum Seni alyorum ve ayn nefesi paylayoruz Sana ihtiyacm olmasndan nefret ediyorum, Nikki Ama seni doyurmay seviyorum, Nikki Senin için üzülmekten nefret ediyorum Ah, sana hasretim ve sana ihtiyacm var Senin tadn almay seviyorum Hiçbir ey senin yerini alamaz Keke seni silebilsem, gittiim her yerdesin Ama olmak istediim her yerdesin Ve dier insanlar bunu anlamyor gibi gözükmüyor Ben her zaman herkesin skntn ne diye sorduu adamm Sen arzuladm her eysin Sen beni mezara sokmasna izin verebileceim tek eysin Ben kralm, sen de benim Corettamsn Ama son zamanlarda kendimi nikotinin kölesiymi gibi hissediyorum Kölesi Dedim ki, nikotinin kölesiyim Senin kölen oldum Senin sikik bir kölenim Nikotinin kölesi Nikki, Nikki, kölenim Senin kölenim Nikki Senin sikik bir kölenim</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Seninle görüeceiz, dünya orospusu Senden alacaklarm çok, ben de alacama pisim Kol krld yen içinde kald için için yandm Tanr beni sevmediinden mapushuna hapisim Herkesin dilinde bir dert pozitif düün Halbuki gerçek u ki kafan bozuk düündüün muur Mutlu insanlar oturup da halvetimek dinlemez Dinlese de inan bana sözlerinden anlamaz Derdine ortam diyenler aslnda sallamaz Akacak ya gözde durmaz ha bide damarda kan Bir eyi anlamak için ayn olmak gerekli Ben bir bunu bilir bunu söylerim baka laftan anlamam Aklm gezer hir ehir kulaklarmda tambur Kardelerimi sir alm beli kambur stanbul Bellemisiniz gözden rak olan gönülden atmaya Bizi yarm brakan da bir gün gelir tam bulur Hayatm siktiniz lan, brakn da 2 cümle küfredeyim Ben olunu hiç sevmeyen bir adamn nefretiyim Bir kavgada nasl oluk oluk kan yutulur Benim dünyamda ay tutulmaz kin tutulur Bir alemde bir baba nasl sikilir göreceksiniz Bu açk tehdit olaylar geliince çözeceksiniz Bitirdiniz lan beni, tam tamna 10 ayda Ölmü eek kurttan korkmaz adamn amna koyarlar You might also like Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Yeen dizlerine uzanp da, saatlerce alamak Bu öyle romantik bir ey de deil ha nsan kadn erkek bir kucaa ihtiyaç duyar Bazen en olmad bir kaldrm ta bile uyar Çaresi olmayan bir derde alamak adama koyar Ve bu çaresiz bir alar ki sar sultan duyar Ne manzaral bir da ba, ne çarnn tam ortas Gören bakar geçer sana ac olan da bu ya Balarm ulan imdi felein süslü çarkna Artk yapmyorum ben de böyle hisli arklar Var artk sen de u talihsizliinin farkna Puslu havann isli kaderimden ne fark var Karnm aç azmda kürdan hadi oradan Ayakkabm yrtk üstü boyal buyur buradan Bu dünya benim hakkmda ne bilir ha? Bir k vakti hayallerimin üstü delik deik yorgan Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Gözlerim telal Yorgunluktan, belki uykusuzluktan Bazen de takldmzdan Dertlerden yakndmzdan Pislie yaknlmzdan Çekiyor bizi her an ondan sakndmzda Kafan atar bir cami avlusunda kal Yat kalk hadi na git okula imdi Uyukla anlatrsn hocalar anlarsa yorgun halini Sen anca notlarnla korkular indir Gömleime pis kokular sindi Henüz atarl çocukluum üstümde o zamanlar Hayat tanmam etmem, tanrm para bozanlar Siz anlatn biz hattayz Kederli yazyor bak ehrinde kara ozanlar Hiç mi düüp baylmam lan Hiç mi ölüm kokan hanelerde hastalarca saylmam Bir amin diyemedin u kanser olup gebermeme Ha gayret sinirlenip beddualar sayar annem Ama onlar saylmaz Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu..</t>
+          <t>Seninle görüeceiz, dünya orospusu Senden alacaklarm çok, ben de alacama pisim Kol krld yen içinde kald için için yandm Tanr beni sevmediinden mapushuna hapisim Herkesin dilinde bir dert pozitif düün Halbuki gerçek u ki kafan bozuk düündüün muur Mutlu insanlar oturup da halvetimek dinlemez Dinlese de inan bana sözlerinden anlamaz Derdine ortam diyenler aslnda sallamaz Akacak ya gözde durmaz ha bide damarda kan Bir eyi anlamak için ayn olmak gerekli Ben bir bunu bilir bunu söylerim baka laftan anlamam Aklm gezer hir ehir kulaklarmda tambur Kardelerimi sir alm beli kambur stanbul Bellemisiniz gözden rak olan gönülden atmaya Bizi yarm brakan da bir gün gelir tam bulur Hayatm siktiniz lan, brakn da 2 cümle küfredeyim Ben olunu hiç sevmeyen bir adamn nefretiyim Bir kavgada nasl oluk oluk kan yutulur Benim dünyamda ay tutulmaz kin tutulur Bir alemde bir baba nasl sikilir göreceksiniz Bu açk tehdit olaylar geliince çözeceksiniz Bitirdiniz lan beni, tam tamna 10 ayda Ölmü eek kurttan korkmaz adamn amna koyarlar Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Yeen dizlerine uzanp da, saatlerce alamak Bu öyle romantik bir ey de deil ha nsan kadn erkek bir kucaa ihtiyaç duyar Bazen en olmad bir kaldrm ta bile uyar Çaresi olmayan bir derde alamak adama koyar Ve bu çaresiz bir alar ki sar sultan duyar Ne manzaral bir da ba, ne çarnn tam ortas Gören bakar geçer sana ac olan da bu ya Balarm ulan imdi felein süslü çarkna Artk yapmyorum ben de böyle hisli arklar Var artk sen de u talihsizliinin farkna Puslu havann isli kaderimden ne fark var Karnm aç azmda kürdan hadi oradan Ayakkabm yrtk üstü boyal buyur buradan Bu dünya benim hakkmda ne bilir ha? Bir k vakti hayallerimin üstü delik deik yorgan Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Gözlerim telal Yorgunluktan, belki uykusuzluktan Bazen de takldmzdan Dertlerden yakndmzdan Pislie yaknlmzdan Çekiyor bizi her an ondan sakndmzda Kafan atar bir cami avlusunda kal Yat kalk hadi na git okula imdi Uyukla anlatrsn hocalar anlarsa yorgun halini Sen anca notlarnla korkular indir Gömleime pis kokular sindi Henüz atarl çocukluum üstümde o zamanlar Hayat tanmam etmem, tanrm para bozanlar Siz anlatn biz hattayz Kederli yazyor bak ehrinde kara ozanlar Hiç mi düüp baylmam lan Hiç mi ölüm kokan hanelerde hastalarca saylmam Bir amin diyemedin u kanser olup gebermeme Ha gayret sinirlenip beddualar sayar annem Ama onlar saylmaz Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu..</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ege Qimptoven, let's go Ayo, cvctus, where you at? Uzaya da çksan Yok bendeki vizyon sende Bulamazsn, arama yaknda Dudaklarmn tam arasnda Daha yakn ah damarndan Aykana kadar hepsini siktim bile Sana düer arta kalanlar Duyulas pembe yalanlar Balant sorunlarm var Slatt Sürtük, senin için deiemem Gang Hepinizle seviemem Ah Flow gibi dei hemen Dönüyo' bam, azm pis utanmam Wha'? Bayld arkadan içmese de dumandan Adm Loki, yok hiçbi' kumandan Slatt Ban çkartma zulandan Lig üst katman, aldm üst kattan What? Ben renk katmam thank God, prega What? Chrome Hearts pijama Gang, adm LOKIBOI Slatt, slatt, slatt Kzm, gelir çaramba, bana masal anlatma Diz hepsini art arda Bunlar bizim, sanki jandarma Bunlar bizim komutanm Para bankamda Grr, koarlar adm atmamla Bana masal anlatma Ah You might also like Uzaya da çksan Perfect Semtinde atyo'm tur, wha'? Bulamazsn, arama yaknda Kalpleri et tuzla buz, wha'? Dudaklarmn tam arasnda Bilmiyo'san bnce sus, rrah Daha yakn ah damarndan Duyulas pembe yalanlar Arkadamd, o bnim arkadam Yabancym, buralara nasl geldi mevzu? Nasl anlamadm? Silahmn namlusunda ban darmadan arkadam canlanmad, kaçn O benim en sk td, en azndan artk benim mal Iklar evimin içinde krmz, yldzlar yanm Tüm birimler ylm, vzldar ekip Her birinde sniper Kzmda tetik var, bende de grinder Çkp da dedim ki Skyo'sa indir, mermiler kafam krmyo' Kadim bir adamm, ykmyo' Sarssa da yklmam, slanyo' kzlarnn oras Kralnn kral, yannda kar nasl mark? Uzaya da çksan Arkadan yanl trpanmn ucunda kafas Uzaya da çksan Slatt, wha'? Yok bendeki vizyon sende Slatt, wha'? Bulamazsn, arama yaknda Slatt, wha'? Dudaklarmn tam arasnda Daha yakn ah damarndan Wha', wha', wha'? Aykana kadar hepsini siktim bile Sana düer arta kalanlar Uh Duyulas pembe yalanlar Pembe yalanlar4</t>
+          <t>Ege Qimptoven, let's go Ayo, cvctus, where you at? Uzaya da çksan Yok bendeki vizyon sende Bulamazsn, arama yaknda Dudaklarmn tam arasnda Daha yakn ah damarndan Aykana kadar hepsini siktim bile Sana düer arta kalanlar Duyulas pembe yalanlar Balant sorunlarm var Slatt Sürtük, senin için deiemem Gang Hepinizle seviemem Ah Flow gibi dei hemen Dönüyo' bam, azm pis utanmam Wha'? Bayld arkadan içmese de dumandan Adm Loki, yok hiçbi' kumandan Slatt Ban çkartma zulandan Lig üst katman, aldm üst kattan What? Ben renk katmam thank God, prega What? Chrome Hearts pijama Gang, adm LOKIBOI Slatt, slatt, slatt Kzm, gelir çaramba, bana masal anlatma Diz hepsini art arda Bunlar bizim, sanki jandarma Bunlar bizim komutanm Para bankamda Grr, koarlar adm atmamla Bana masal anlatma Ah Uzaya da çksan Perfect Semtinde atyo'm tur, wha'? Bulamazsn, arama yaknda Kalpleri et tuzla buz, wha'? Dudaklarmn tam arasnda Bilmiyo'san bnce sus, rrah Daha yakn ah damarndan Duyulas pembe yalanlar Arkadamd, o bnim arkadam Yabancym, buralara nasl geldi mevzu? Nasl anlamadm? Silahmn namlusunda ban darmadan arkadam canlanmad, kaçn O benim en sk td, en azndan artk benim mal Iklar evimin içinde krmz, yldzlar yanm Tüm birimler ylm, vzldar ekip Her birinde sniper Kzmda tetik var, bende de grinder Çkp da dedim ki Skyo'sa indir, mermiler kafam krmyo' Kadim bir adamm, ykmyo' Sarssa da yklmam, slanyo' kzlarnn oras Kralnn kral, yannda kar nasl mark? Uzaya da çksan Arkadan yanl trpanmn ucunda kafas Uzaya da çksan Slatt, wha'? Yok bendeki vizyon sende Slatt, wha'? Bulamazsn, arama yaknda Slatt, wha'? Dudaklarmn tam arasnda Daha yakn ah damarndan Wha', wha', wha'? Aykana kadar hepsini siktim bile Sana düer arta kalanlar Uh Duyulas pembe yalanlar Pembe yalanlar4</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ayy, what's up What up, what up Chilling Kako si, ta ima sine? We are shooting the Drogba video right now Alright, let me hear it U rukavu imam keca Tebi fali mnogo herca Naa fora svaka peca Tvoja hrabrost - olienje zeca Srpsko-crnogorska eca Za trep smo to za folk Ceca Gledaj kako rolam Benza Ide gas, prva pa trea All in - ne izdaje me srea Do zore gori moja svjea Mora da ima dobra lea Pucam ka Stojakovi Pea ta? Pucam ka Stojakovi Pea Pa-pa-pa-pa Pucam ka Stojakovi Pea You might also like Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Svi 'oe slavu, svi 'oe ke Stvari su skupe, markiran ve To mi se ne da, to uzmem sama Zasto se stidi? Nema tu blama U posjetu bratu do Roterdama Zastiena vie no prva dama Zastiena kao sibirski tigar Ne moe me nai - u sijeno igla Stigli na scenu, praina se digla Sad se gradimo, cigla po cigla Rrra Sad slavimo, krigla po krigla Rrra Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca</t>
+          <t>Ayy, what's up What up, what up Chilling Kako si, ta ima sine? We are shooting the Drogba video right now Alright, let me hear it U rukavu imam keca Tebi fali mnogo herca Naa fora svaka peca Tvoja hrabrost - olienje zeca Srpsko-crnogorska eca Za trep smo to za folk Ceca Gledaj kako rolam Benza Ide gas, prva pa trea All in - ne izdaje me srea Do zore gori moja svjea Mora da ima dobra lea Pucam ka Stojakovi Pea ta? Pucam ka Stojakovi Pea Pa-pa-pa-pa Pucam ka Stojakovi Pea Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Svi 'oe slavu, svi 'oe ke Stvari su skupe, markiran ve To mi se ne da, to uzmem sama Zasto se stidi? Nema tu blama U posjetu bratu do Roterdama Zastiena vie no prva dama Zastiena kao sibirski tigar Ne moe me nai - u sijeno igla Stigli na scenu, praina se digla Sad se gradimo, cigla po cigla Rrra Sad slavimo, krigla po krigla Rrra Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jeg forguder din øyne, dine hender, dine lår Jeg kysser jorda der du står, der du sitter Du ser stjernestøv og glitter Som hos Peter Pan og Tingeling Letter jeg og flyr omkring Over byene, over skyene Som ingenting lenger betyr noe Jeg er blitt et dyr nå, jeg flyr nå Som et deilig eventyr og Alle masker har jeg tatt av meg Jeg er betatt av av deg Shit, rett og slett besatt av deg Husker natta jeg fikk lov å følge deg hjem Fra en fest hos en venn Vi hadde sitti igjen og bare prata Nå gikk vi sammen midt i gata Husker godt hva du sa da vi kom dit du bodde Du spurte om jeg trodde På kjærlighet ved første blikk Og det sa klikk inni huet mitt Og like romantisk som i Romeo og Julie Så skjedde det umulige Du kyssa meg, jeg prøvde å si noe Men du hysja meg Det neste jeg husker var at du hadde pysj på deg Nettene ble lange, dagene var fine Hvis kulda satte inn, fant vi varmen med å kline Vi levde og svevde som blomster og bier Men alt har en ende, det er som folk sier Shit, hvor lenge var Adam i Paradiset? Det blei krise, og enden på min vise Mine tanker, mine ord og mine gjerninger Ble borte i et spill som om alt var styrt av terninger Og når det spilles høyt så er fallet verre Og sånn ble det for meg Denne dagen òg dessverre Det jeg trodde jeg vant, det jeg fant, det tok slutt Da jeg hørte om deg og en annen gutt Det var en kar jeg ikke visste hvem var Jeg visste bare jeg skulle finne han Ta han med og binde han til et tre Knuse ballene hans med et kne Jeg skulle nikke han Ta en kniv og stikke han Men det han ikke kan Det er å stoppe tårene Som fyller salt i sårene Jeg ligger skada som skutt av en Uzi Jeg henger med gutta, med Dane og med Susi Prøver å tenke med huet, ikke hjertet mitt Men det er ikke så lett eller så smertefritt Du veit jeg har noen i meg, en glemt Don Juan Som en dag kommer fram igjen Gjør meg til en mann igjen Blåser støv av triksa som forfører og forleder deg Huh, jeg både gruer meg og gleder meg You might also like Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Det går aldri en dag uten at jeg tenker På hva framtida bringer og på hva som venter Er jeg kald om hjertet? Er jeg hard til beinet? Er jeg dømt til å være aleine? Vel, noen av grunnene hvor jeg kanskje selv har skylda Likte ikke å binde meg, så knulla på fylla En evig jakt etter kjærlighet, fant jeg meg en frekk en Var det ned på alle fire og så fikk'a smake kjeppen Hadde tre på en gang og da var det fett Men i ettertid blir jeg svett Når jeg tenker på hvor lett det var den gangen Da det største var å være den første Var man kongen, tok man dongen Hengte svinet i et tre Lot den fryse sånn at alle kunne se At det var MC Dane som hadde fått'a ned på kne Men alle blir vi eldre og tidene forandrer seg Og jeg veit at flere gamle flammer fortsatt klandrer meg For tapet av dyden, som en greker i Syden Er jeg frampå, sikkert som du veit jeg hater lyden Av karer som klager over draget Skriker og de bærer seg Drag er noe man har, ikke noe som man lærer seg Det er ikke dermed sagt at livet mitt er Nirvana Jeg mangler ikke jenter, men den riktige dama Piker som spriker og skriker er det nok av Men jeg savner en jeg kan elske og ære Sånn har det alltid vært og sånn vil det alltid være Men jeg slapper av for hvis jeg spiller korta riktig Kommer'a en vakker dag Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem?</t>
+          <t>Jeg forguder din øyne, dine hender, dine lår Jeg kysser jorda der du står, der du sitter Du ser stjernestøv og glitter Som hos Peter Pan og Tingeling Letter jeg og flyr omkring Over byene, over skyene Som ingenting lenger betyr noe Jeg er blitt et dyr nå, jeg flyr nå Som et deilig eventyr og Alle masker har jeg tatt av meg Jeg er betatt av av deg Shit, rett og slett besatt av deg Husker natta jeg fikk lov å følge deg hjem Fra en fest hos en venn Vi hadde sitti igjen og bare prata Nå gikk vi sammen midt i gata Husker godt hva du sa da vi kom dit du bodde Du spurte om jeg trodde På kjærlighet ved første blikk Og det sa klikk inni huet mitt Og like romantisk som i Romeo og Julie Så skjedde det umulige Du kyssa meg, jeg prøvde å si noe Men du hysja meg Det neste jeg husker var at du hadde pysj på deg Nettene ble lange, dagene var fine Hvis kulda satte inn, fant vi varmen med å kline Vi levde og svevde som blomster og bier Men alt har en ende, det er som folk sier Shit, hvor lenge var Adam i Paradiset? Det blei krise, og enden på min vise Mine tanker, mine ord og mine gjerninger Ble borte i et spill som om alt var styrt av terninger Og når det spilles høyt så er fallet verre Og sånn ble det for meg Denne dagen òg dessverre Det jeg trodde jeg vant, det jeg fant, det tok slutt Da jeg hørte om deg og en annen gutt Det var en kar jeg ikke visste hvem var Jeg visste bare jeg skulle finne han Ta han med og binde han til et tre Knuse ballene hans med et kne Jeg skulle nikke han Ta en kniv og stikke han Men det han ikke kan Det er å stoppe tårene Som fyller salt i sårene Jeg ligger skada som skutt av en Uzi Jeg henger med gutta, med Dane og med Susi Prøver å tenke med huet, ikke hjertet mitt Men det er ikke så lett eller så smertefritt Du veit jeg har noen i meg, en glemt Don Juan Som en dag kommer fram igjen Gjør meg til en mann igjen Blåser støv av triksa som forfører og forleder deg Huh, jeg både gruer meg og gleder meg Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Det går aldri en dag uten at jeg tenker På hva framtida bringer og på hva som venter Er jeg kald om hjertet? Er jeg hard til beinet? Er jeg dømt til å være aleine? Vel, noen av grunnene hvor jeg kanskje selv har skylda Likte ikke å binde meg, så knulla på fylla En evig jakt etter kjærlighet, fant jeg meg en frekk en Var det ned på alle fire og så fikk'a smake kjeppen Hadde tre på en gang og da var det fett Men i ettertid blir jeg svett Når jeg tenker på hvor lett det var den gangen Da det største var å være den første Var man kongen, tok man dongen Hengte svinet i et tre Lot den fryse sånn at alle kunne se At det var MC Dane som hadde fått'a ned på kne Men alle blir vi eldre og tidene forandrer seg Og jeg veit at flere gamle flammer fortsatt klandrer meg For tapet av dyden, som en greker i Syden Er jeg frampå, sikkert som du veit jeg hater lyden Av karer som klager over draget Skriker og de bærer seg Drag er noe man har, ikke noe som man lærer seg Det er ikke dermed sagt at livet mitt er Nirvana Jeg mangler ikke jenter, men den riktige dama Piker som spriker og skriker er det nok av Men jeg savner en jeg kan elske og ære Sånn har det alltid vært og sånn vil det alltid være Men jeg slapper av for hvis jeg spiller korta riktig Kommer'a en vakker dag Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem?</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel Tüm semt bizim mm Telefonda aga nerdesin mm Whatsapptan konum at seri ha ha Hatun dr dr gerçekten tek miyim? Bebeim kalbimin için tekin deil Yaadm yer gibi Buz gibi içi bak boynumdaki gibi Telefonda hatun o da at gibi Küçük yata yaptm ilk soygunu lk tokatta daha 17 çocuktum lk satta daha liseli çocuktum uh uh Kimine göre iyi çocuktum Kimine de birazck uyumsuz Buldumu paralar doyumsuz Daha önce de görmedi napsn? E tabi ceplri dolunca mard 100 lük ama üstü kanl Eskiden zordu cidden imdiyse borçtan kurtul kurtul Önmli deil nas yaptm sonunda paralar buldum buldum It is what it is fam ay Tranquille ma gueule You might also likeBakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel</t>
+          <t>Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel Tüm semt bizim mm Telefonda aga nerdesin mm Whatsapptan konum at seri ha ha Hatun dr dr gerçekten tek miyim? Bebeim kalbimin için tekin deil Yaadm yer gibi Buz gibi içi bak boynumdaki gibi Telefonda hatun o da at gibi Küçük yata yaptm ilk soygunu lk tokatta daha 17 çocuktum lk satta daha liseli çocuktum uh uh Kimine göre iyi çocuktum Kimine de birazck uyumsuz Buldumu paralar doyumsuz Daha önce de görmedi napsn? E tabi ceplri dolunca mard 100 lük ama üstü kanl Eskiden zordu cidden imdiyse borçtan kurtul kurtul Önmli deil nas yaptm sonunda paralar buldum buldum It is what it is fam ay Tranquille ma gueule Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Funk'd Up'a dek, bitirim ikili bitirir hevesi Ah be canm sene iki bin on iki ve hala gerici beynin Ki derdim, deil ki tatlm beni de beenin Ben kapadm artk girmek için kr kepengi Bas, play piç böyle olmazdn Nas bileydin Arabesk rapçilerin müziime kast neydi Yeni nesil geliyo' full cap'i çkartp kask deneyin Bu boktan hep iç, boktan herif bok deil de Katk diyelim Farkl gelir, arttr geliri üç be tebrik tevik primi O kotuunuz yolu trnakla etik gelirim iyi Geriden iz süren de braksn deliremeyip Beenme piç, beenme, sçsam da benim emeim Müziin u anki hali için edebil'cein tek ey Tebrik Ve üretilen her i resmen hit ve resmen kliplik Durum buyken bile herkes tripli ve ibirlikçi Bi' ben içten ve gerisi fuck you, siktir, fick dich You might also like Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Kaçmz kurulmak istedikçe, üç kurula ve izbelik rap Hedefin uçkurunsa Uçkun'un da ibnelii tek Amck azl var m akln? VooDoo'nun stili mantk ayr O gururu piç edip ald payn, bu duruma içiyo'm alt aydr Al bakaym dedi bi' bebe ve seneler yere ben gerilip hedefe Saplanaym, denedim bedenen yüzerek geçtim Ankara'y Ah Kalan iç, bu iyi bi' derman kafamz piç mi Deil mi yelman para pis itir, iyi bi' yer var o da müzik De ti'ye almaz niye saman var, öküzü bol piyasam aptal Çözümü yok fiyat amdan ucuz mic gözünü tok Tut lan ite, hip-hoptan iler yi deil mangr kitaptan ile Ampulü yak ve de birandan iç hemen Al beni oldu bu imam da Nietzsche Hiç noksan deilim, benim hep doksan teybim Sana hip-hop'tan peynir, unut her boktan keyfi Yine de kvrp oynarsan eskorttan iyisin Hele bi' cvr tavlarsan pet shop'tan giydir Hip-hop'a funk' kattm, fark tattn deil mi tatlm Üstten attk seni de ah be güzelim biz gelene dek pek rahattn Vasfn vasfszlk, ondan hasmn hasmszdr Sorsan hazmszdr çünkü çoktan kadnszdr Çok yazk, sorsan bebede kitle vardr ancak o da bi' memede Yine de erken tehis koyduk, VooDoo bu lazm her eve Azck ark yaptm senede, yine de hitap ettim genele Sen hadi git eve boktan rapini dinletirsin anca dedene Sizde ekipman var kafa tam takr Fark anlamak için açn Funk'd Up' Bize laf atman gereksiz bi' de amak gibi Sanki birazck maksad Doru dedi ki hip-hop bi' pastadr Ama henüz onu sen hiç tatmadn Konser diye çktn mekan aslnda Bir düün salonunun alt kat! Aga B, Funk'd Up, Ais Ezhel ve Ankara imdi daha güzel Bu durum bi' çounu daha üzer ve gelip o tavan daa küser Kiilik bozulmasna, düzene ayak uydurmak da desen Hayat acmaszdr ondan ne kadar kaçsanz da düzer Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Dediler ki abi sakin, nere gitti sakin halim? Amna koydum sinirimi bozan her herifin ama ta ki halim Bitene kadar, Bi' nefes alak diyo'dum taa ki cahil artist Hip-hop' eletirene dek Sen of ne kadar marjinalsin Saldraman lafla bana pek dikkatini bu parçalara çek Hip-hop, hiphop kalacak, iki bebe görüp hip-hop' sanma arabesk Ya da uzakla arkalara geç, bana bulama takla sana rap atarm Kimine kova özentilikse bizde ganja hareket imdi Ezhel, Aga B parazit, kafan bo tut ya da sigara iç Cannabis sarak bi' mahalle basl bul onu yine de baba fizana git Geveze beyne ne desek elenecek, tezek deme emeime Çözeriz ama biz mesele neyse, Aga B, Funk'd Up, E-z-he-le Martaval atar, anca yazarak, sanma kafadan, aptal adam az Parça yapamaz, arkada kalan, harcanan adam, Ankara'da var Maksat adamak, karna bakarak, anlatan adam, baksan alamaz Rap için yemei, bu bebe Aralk ortasndan Mart'a kadar aç Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo2</t>
+          <t>Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Funk'd Up'a dek, bitirim ikili bitirir hevesi Ah be canm sene iki bin on iki ve hala gerici beynin Ki derdim, deil ki tatlm beni de beenin Ben kapadm artk girmek için kr kepengi Bas, play piç böyle olmazdn Nas bileydin Arabesk rapçilerin müziime kast neydi Yeni nesil geliyo' full cap'i çkartp kask deneyin Bu boktan hep iç, boktan herif bok deil de Katk diyelim Farkl gelir, arttr geliri üç be tebrik tevik primi O kotuunuz yolu trnakla etik gelirim iyi Geriden iz süren de braksn deliremeyip Beenme piç, beenme, sçsam da benim emeim Müziin u anki hali için edebil'cein tek ey Tebrik Ve üretilen her i resmen hit ve resmen kliplik Durum buyken bile herkes tripli ve ibirlikçi Bi' ben içten ve gerisi fuck you, siktir, fick dich Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Kaçmz kurulmak istedikçe, üç kurula ve izbelik rap Hedefin uçkurunsa Uçkun'un da ibnelii tek Amck azl var m akln? VooDoo'nun stili mantk ayr O gururu piç edip ald payn, bu duruma içiyo'm alt aydr Al bakaym dedi bi' bebe ve seneler yere ben gerilip hedefe Saplanaym, denedim bedenen yüzerek geçtim Ankara'y Ah Kalan iç, bu iyi bi' derman kafamz piç mi Deil mi yelman para pis itir, iyi bi' yer var o da müzik De ti'ye almaz niye saman var, öküzü bol piyasam aptal Çözümü yok fiyat amdan ucuz mic gözünü tok Tut lan ite, hip-hoptan iler yi deil mangr kitaptan ile Ampulü yak ve de birandan iç hemen Al beni oldu bu imam da Nietzsche Hiç noksan deilim, benim hep doksan teybim Sana hip-hop'tan peynir, unut her boktan keyfi Yine de kvrp oynarsan eskorttan iyisin Hele bi' cvr tavlarsan pet shop'tan giydir Hip-hop'a funk' kattm, fark tattn deil mi tatlm Üstten attk seni de ah be güzelim biz gelene dek pek rahattn Vasfn vasfszlk, ondan hasmn hasmszdr Sorsan hazmszdr çünkü çoktan kadnszdr Çok yazk, sorsan bebede kitle vardr ancak o da bi' memede Yine de erken tehis koyduk, VooDoo bu lazm her eve Azck ark yaptm senede, yine de hitap ettim genele Sen hadi git eve boktan rapini dinletirsin anca dedene Sizde ekipman var kafa tam takr Fark anlamak için açn Funk'd Up' Bize laf atman gereksiz bi' de amak gibi Sanki birazck maksad Doru dedi ki hip-hop bi' pastadr Ama henüz onu sen hiç tatmadn Konser diye çktn mekan aslnda Bir düün salonunun alt kat! Aga B, Funk'd Up, Ais Ezhel ve Ankara imdi daha güzel Bu durum bi' çounu daha üzer ve gelip o tavan daa küser Kiilik bozulmasna, düzene ayak uydurmak da desen Hayat acmaszdr ondan ne kadar kaçsanz da düzer Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Dediler ki abi sakin, nere gitti sakin halim? Amna koydum sinirimi bozan her herifin ama ta ki halim Bitene kadar, Bi' nefes alak diyo'dum taa ki cahil artist Hip-hop' eletirene dek Sen of ne kadar marjinalsin Saldraman lafla bana pek dikkatini bu parçalara çek Hip-hop, hiphop kalacak, iki bebe görüp hip-hop' sanma arabesk Ya da uzakla arkalara geç, bana bulama takla sana rap atarm Kimine kova özentilikse bizde ganja hareket imdi Ezhel, Aga B parazit, kafan bo tut ya da sigara iç Cannabis sarak bi' mahalle basl bul onu yine de baba fizana git Geveze beyne ne desek elenecek, tezek deme emeime Çözeriz ama biz mesele neyse, Aga B, Funk'd Up, E-z-he-le Martaval atar, anca yazarak, sanma kafadan, aptal adam az Parça yapamaz, arkada kalan, harcanan adam, Ankara'da var Maksat adamak, karna bakarak, anlatan adam, baksan alamaz Rap için yemei, bu bebe Aralk ortasndan Mart'a kadar aç Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo2</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aigo Aigo beats Pavnieku Tlavas bloks Nahuj 02 un opps Es labk sev noprku Gloku N, es labk noperku stockus Js Es nevaru paciest tos lohus Tev netikt klub, maks par su Es stu shot'us Menti uz astes, jo masa Neraksti man, jo szias lasa Nezinu versiju, ja vii man prasa Japu slampas, Paemu naudu, jo va ir kase Pullupo troikas, spljam basi Mtjam apkrt, padodu passu Neprkp robeas, pardi pasi Rollojam sdu, rokojam rotas Nedodu sdu, esmu skops Mainojam crypto koinu Naiks ir netrs, mazgju rokas You might also likeTuru uz mles, hitojam lickus Lai ice Nemetu rindas, es hitoju splifus Padod man , naiks ir netrs, bet paeko kickus Pulti kicki, nevajag vasku quick, Elon Musk SpaceX flovs, nevajag nastu Tu esi neglta, uzvelc masku Vajag pakas, nevajag pastu Trippo? mrci, nevajag pastu Vajag Bnz, nevajag pastu Palg, palg, nevajag rstu Aika de, uh-uh pamua sd uh-uh Repa sple, ma-na, man ira la, pa-ga uh-huh IC k slpe uh-huh Repa sple, ma-na, man ira la, a-ha Zmjam shmu, runa ir lta uh-huh Nemet man nu huh, nemaini tmu huh Nu jau par vlu huh, lrum es mu, j Tie zdi izauga sjum, no grama brl' uz grmatm No pard uz palg uz padod ksi Tagad ir labi, tas ir fakts Nomet to maizi, tas ira pakts Necep nodoki, braucu ar Taxi Kontakts, o, man piezvana plags Doubloju pakas, doubloju krapsi Doubloju, doubloju, tas ir dubs Tmju walking, nabaga kaps? Man tavs sds k nabagam lats Nahuj opps, vi man dod top 2 slampas uz kameras Tas nav vlogs, pc tam vajag Veuk, stop, Aigo, Marko, Drake un Josh Jimmy Neutron, blastoju off Timmy Turner, es gribu savu Gloku Servjam nahuj vius k Aigo, Marko, Drake un Josh</t>
+          <t>Aigo Aigo beats Pavnieku Tlavas bloks Nahuj 02 un opps Es labk sev noprku Gloku N, es labk noperku stockus Js Es nevaru paciest tos lohus Tev netikt klub, maks par su Es stu shot'us Menti uz astes, jo masa Neraksti man, jo szias lasa Nezinu versiju, ja vii man prasa Japu slampas, Paemu naudu, jo va ir kase Pullupo troikas, spljam basi Mtjam apkrt, padodu passu Neprkp robeas, pardi pasi Rollojam sdu, rokojam rotas Nedodu sdu, esmu skops Mainojam crypto koinu Naiks ir netrs, mazgju rokas Turu uz mles, hitojam lickus Lai ice Nemetu rindas, es hitoju splifus Padod man , naiks ir netrs, bet paeko kickus Pulti kicki, nevajag vasku quick, Elon Musk SpaceX flovs, nevajag nastu Tu esi neglta, uzvelc masku Vajag pakas, nevajag pastu Trippo? mrci, nevajag pastu Vajag Bnz, nevajag pastu Palg, palg, nevajag rstu Aika de, uh-uh pamua sd uh-uh Repa sple, ma-na, man ira la, pa-ga uh-huh IC k slpe uh-huh Repa sple, ma-na, man ira la, a-ha Zmjam shmu, runa ir lta uh-huh Nemet man nu huh, nemaini tmu huh Nu jau par vlu huh, lrum es mu, j Tie zdi izauga sjum, no grama brl' uz grmatm No pard uz palg uz padod ksi Tagad ir labi, tas ir fakts Nomet to maizi, tas ira pakts Necep nodoki, braucu ar Taxi Kontakts, o, man piezvana plags Doubloju pakas, doubloju krapsi Doubloju, doubloju, tas ir dubs Tmju walking, nabaga kaps? Man tavs sds k nabagam lats Nahuj opps, vi man dod top 2 slampas uz kameras Tas nav vlogs, pc tam vajag Veuk, stop, Aigo, Marko, Drake un Josh Jimmy Neutron, blastoju off Timmy Turner, es gribu savu Gloku Servjam nahuj vius k Aigo, Marko, Drake un Josh</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La gente lotta e si sbatte fino alle 5 del venerdì Io lotto ogni giorno, ma con l'Enalotto così forse cambio il PC Dai follow for follow così un po' di follower mi offrono qualche free drink Anche se faccio la fame e ho le orecchie da cane What do you think? Migliaia di anni di storia per farci votare i governi migliori Adesso votiamo ad Amici, sul calcio e i sondaggi nelle Instagram Stories Dovrei lavorare, pagare le tasse per 35 anni d'amore Ma se mia moglie è lo Stato, io sto fidanzato e basterà un fiore Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sarò fuori corso, ma zero soccorso, mi piace l'università Wow Seguendo i miei piani una volta finita c'è quella della terza età Andiamo in vacanza da giugno a settembre, una volta deciso si va Che sia mare, montagna, campagna o città tanto paga papà Il babbo ha un amico che forse ha un amico che ha un bar dove cerca baristi Ma se la sera io faccio il Mojito, alla Play chi sconfigge i nazisti? Nonno a 30 anni sgobbava da 20 e ogni volta lui ce lo racconta Io dipendo da mamma anche per gli alimenti A proposito, la cena è già pronta? You might also like Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Non c'è trucco, mammalucco Nasco ricco, mi ci impicco Faccio l'uomo, dai ci provo Spicco il volo, sto da solo Sushi bar con champagne Sono a secco, fai prosecco Sotto sfratto, notte brava Sono sfatto, torno a casa Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare, sempre meglio che lavorare</t>
+          <t>La gente lotta e si sbatte fino alle 5 del venerdì Io lotto ogni giorno, ma con l'Enalotto così forse cambio il PC Dai follow for follow così un po' di follower mi offrono qualche free drink Anche se faccio la fame e ho le orecchie da cane What do you think? Migliaia di anni di storia per farci votare i governi migliori Adesso votiamo ad Amici, sul calcio e i sondaggi nelle Instagram Stories Dovrei lavorare, pagare le tasse per 35 anni d'amore Ma se mia moglie è lo Stato, io sto fidanzato e basterà un fiore Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sarò fuori corso, ma zero soccorso, mi piace l'università Wow Seguendo i miei piani una volta finita c'è quella della terza età Andiamo in vacanza da giugno a settembre, una volta deciso si va Che sia mare, montagna, campagna o città tanto paga papà Il babbo ha un amico che forse ha un amico che ha un bar dove cerca baristi Ma se la sera io faccio il Mojito, alla Play chi sconfigge i nazisti? Nonno a 30 anni sgobbava da 20 e ogni volta lui ce lo racconta Io dipendo da mamma anche per gli alimenti A proposito, la cena è già pronta? Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Non c'è trucco, mammalucco Nasco ricco, mi ci impicco Faccio l'uomo, dai ci provo Spicco il volo, sto da solo Sushi bar con champagne Sono a secco, fai prosecco Sotto sfratto, notte brava Sono sfatto, torno a casa Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare, sempre meglio che lavorare</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ko je prio, tu sa mojima trim za kintom Neu preko, jer ovde sam odrasto mlad I ovde u umrem sa istom Oduvek tu sam sa istom ekipom A da se takmie gistro Vadi papire da vidimo ishod Ko' te slago da jo smo tu ispod nule Nule aj Nismo mi isti ni kriminali, malo kea uzmem, cela pria eto Export import ljakamo ko pezos, trcim brzo kad cujem evro Hodam spretno, piim samo napred nee stii onaj ni sa plavim svetlom Svri icu ako batre nesto, moji spremni bodu bayonetom Alo ko je, treba ti komad bani za dva Dole, putam im poruke stigo, Dragan Pogasim repere, Flow je tata Ubijem svakog ko marmelada Igram dva plesa sa flowom i avolom A vi ste mali i preslabi s karikom Stanemo pravo i to je tematika Dodam pa oduzmem ko matematikom Magijos, ima da broji se noima Lovu da brojim sam naviko Jer gilje su brze ko Forest Gang You might also like Ostavim lovu za sebe, ostavim lovu za svoje Ovi moji e ii, ii e gde i ja odem Brau odveli su ve, braa opet sa nama Mene jure milioni, ja, ja Ne znam gde sam, sve sam za sebe video i sve sam odma za sebe uzo Moj fratelo, nisi vie drug moj, sad si taster, sad sve je skupo Ne nisu sa nama Boga mole da im ostavimo barem neki ulog Sve je ovde sada naa mapa, sada ima soma jedan uslov Hou da budemo bogati puni ba kao to puna je pakla E to je poso kada napunim dzepove, vi ste obuli kao Barcelona S firmom do miliona mestu sa mojima, tvojima trosit u pare Jer eno ba donose novu, otvori stotku i pravim komade Mi chiami fenomeno Hteo bi da bude replika, svi poslovi su mi trovano Poruke salju na telegram, kada ? moze samo govorom Da ne bi me uzela celija, jer trening mi je kad potrcimo Medelja me ceka i premija Lova me zove, nije teko Na treningu smo tu, jer istrimo ko Benz-om My, my god, da me zoves my svetlo Dostupno je stalno kada pozove neko My uno, due, tre, quattro Uno, due, tre, yeah</t>
+          <t>Ko je prio, tu sa mojima trim za kintom Neu preko, jer ovde sam odrasto mlad I ovde u umrem sa istom Oduvek tu sam sa istom ekipom A da se takmie gistro Vadi papire da vidimo ishod Ko' te slago da jo smo tu ispod nule Nule aj Nismo mi isti ni kriminali, malo kea uzmem, cela pria eto Export import ljakamo ko pezos, trcim brzo kad cujem evro Hodam spretno, piim samo napred nee stii onaj ni sa plavim svetlom Svri icu ako batre nesto, moji spremni bodu bayonetom Alo ko je, treba ti komad bani za dva Dole, putam im poruke stigo, Dragan Pogasim repere, Flow je tata Ubijem svakog ko marmelada Igram dva plesa sa flowom i avolom A vi ste mali i preslabi s karikom Stanemo pravo i to je tematika Dodam pa oduzmem ko matematikom Magijos, ima da broji se noima Lovu da brojim sam naviko Jer gilje su brze ko Forest Gang Ostavim lovu za sebe, ostavim lovu za svoje Ovi moji e ii, ii e gde i ja odem Brau odveli su ve, braa opet sa nama Mene jure milioni, ja, ja Ne znam gde sam, sve sam za sebe video i sve sam odma za sebe uzo Moj fratelo, nisi vie drug moj, sad si taster, sad sve je skupo Ne nisu sa nama Boga mole da im ostavimo barem neki ulog Sve je ovde sada naa mapa, sada ima soma jedan uslov Hou da budemo bogati puni ba kao to puna je pakla E to je poso kada napunim dzepove, vi ste obuli kao Barcelona S firmom do miliona mestu sa mojima, tvojima trosit u pare Jer eno ba donose novu, otvori stotku i pravim komade Mi chiami fenomeno Hteo bi da bude replika, svi poslovi su mi trovano Poruke salju na telegram, kada ? moze samo govorom Da ne bi me uzela celija, jer trening mi je kad potrcimo Medelja me ceka i premija Lova me zove, nije teko Na treningu smo tu, jer istrimo ko Benz-om My, my god, da me zoves my svetlo Dostupno je stalno kada pozove neko My uno, due, tre, quattro Uno, due, tre, yeah</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ta-Ta-Ta-Tanerman E hadi sevdik, peki sonra? Hep ayn son geliyo' Her gecenin sonu karakolda ya da kapnda bitiyo' Hiç u hâlimi kendine yorma Bu gönül hep birini seviyo' Belki çektiim her bi' dumanla nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece Yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Bi' kre de sen ara, hâlimi sor Bi' kre de sen ara, hat'rm sor Muhtemelen sen güller, ben anason Yeah kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden, çabalyorum da keyfekeder Keyfekeder You might also like Bi'kaç milyon dert dolu Louis Duffle çantam Yolun çok bandaym da uzy'can sanmam Yüzünde bi' maske, bana geçmiimden bahsetme Ben temiz olmak uruna kaldm içinde kan ter Pes etsem ne geç'cek elime, devam etsem nolur? Bi' ses versen derinlerden kalmy'cak bi' sorun Yaamay istiyo'm da kolay modu yok mu? Hiçbi' kza güvenmemek yeni motto oldu Yâr sev beni yâr Ya da sar, yak iç küllerimi Kaç yl yaadk yetmedi mi, yetmedi mi? Va-va-varsn acmaszm Vicdan brakmadlar Bo ver, tut elimi, sen tut elimi nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Keyfekeder Yeah, keyfekeder Keyfekeder</t>
+          <t>Ta-Ta-Ta-Tanerman E hadi sevdik, peki sonra? Hep ayn son geliyo' Her gecenin sonu karakolda ya da kapnda bitiyo' Hiç u hâlimi kendine yorma Bu gönül hep birini seviyo' Belki çektiim her bi' dumanla nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece Yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Bi' kre de sen ara, hâlimi sor Bi' kre de sen ara, hat'rm sor Muhtemelen sen güller, ben anason Yeah kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden, çabalyorum da keyfekeder Keyfekeder Bi'kaç milyon dert dolu Louis Duffle çantam Yolun çok bandaym da uzy'can sanmam Yüzünde bi' maske, bana geçmiimden bahsetme Ben temiz olmak uruna kaldm içinde kan ter Pes etsem ne geç'cek elime, devam etsem nolur? Bi' ses versen derinlerden kalmy'cak bi' sorun Yaamay istiyo'm da kolay modu yok mu? Hiçbi' kza güvenmemek yeni motto oldu Yâr sev beni yâr Ya da sar, yak iç küllerimi Kaç yl yaadk yetmedi mi, yetmedi mi? Va-va-varsn acmaszm Vicdan brakmadlar Bo ver, tut elimi, sen tut elimi nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Keyfekeder Yeah, keyfekeder Keyfekeder</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Discographie - Ninho Album Studio - 20170908 Ninho - Comme prévu - 20190322 Ninho - Destin - 20211203 Ninho - Jefe Mixtape - 20140217 Ninho DJ Quick - Ils sont pas au courant, Vol. 1 - 20141110 Ninho DJ Quick - ENATTENDANTISPAC2 - 20160118 Ninho DJ Quick - I.S.P.A.C 2 - 20161021 Ninho - M.I.L.S - 20180330 Ninho - M.I.L.S 2.0 - 20200307 Ninho - M.I.L.S 3 - 20201030 Ninho - M.I.L.S 3 Réédition Compilation - 20200608 Ninho - Destin Comme prévu Single - 20120421 Ninho - Capuché - 20130301 Ninho - N.I.N Freestyle 2 - 20140106 Ninho - Ginger Winnie - 20140124 Ninho - N.I.N Freestyle 3 - 20140314 Ninho - N.I.N Freestyle 4 - 20140616 Ninho - Médicaments - 20140627 Ninho - N.I.N Freestyle 5 - 20140901 Ninho - Niño - 20140915 Ninho - Chamak - 20140929 Ninho - 3ème guerre mondiale - 20141012 Ninho - En attendant ISPAC 2 - 20141027 Ninho - 18 - 20141121 Ninho - Qu'est ce que tu va faire ? - 20150501 Ninho - Intro - 20150610 Ninho - Charly Delta Remix - 20150708 Ninho - Peugeuff - 20150730 Ninho - Nae Nae - 20150817 Ninho - Mal luné - 20150929 Ninho - Miroir - 20150930 Ninho - Booska Pop-corn - 20151009 Ninho - Nae Nae 2.0 - 20151030 Ninho - À 100 à l'heure - 20151120 Ninho - Temps plein - 20151207 Ninho - Cash Money Kilo Gramme - 20151221 Ninho - Malsain - 20160118 Ninho - Bloqués en bas - 20160123 Ninho - Booska Pays-Bas - 20160212 Ninho - In My Cup - 20160219 Ninho - Verre - 20160406 Ninho - Temps plein 2.0 - 20160601 Ninho - Bitch Dab - 20160701 Ninho - Binks to Binks Part. 1 - 20160721 Ninho - Crésus - 20160815 Ninho - Binks to Binks Part. 2 - 20160907 Ninho - Pour nous - 20160921 Ninho - OKLM Freestyle - 20160929 Ninho - Binks to Binks Part. 3 - 20161003 Ninho - Freestyle Couvre Feu - 20161012 Ninho - Freestyle M.I.L.S - 20161018 Ninho - Tout ira mieux - 20161025 Ninho - Booska MILS - 20161104 Ninho - Légende - 20161121 Ninho - Freestyle Couvre Feu 2 - 20161207 Ninho - Dis-moi que tu m'aimes - 20170126 Ninho - Binks to Binks Part. 4 - 20170224 Ninho - Malcolm - 20170421 Ninho - Roro - 20170628 Ninho - Binks to Binks Part. 5 - 20170706 Ninho - Mamacita - 20170818 Ninho - Chino - 20170905 Ninho - Booska Comme prévu - 20170908 Ninho - Hall - 20170909 Ninho - Freestyle Comme prévu - 20170926 Ninho - OKLM Freestyle Part. 2 - 20171006 Ninho - Laisse pas traîner ton fils - 20171227 Ninho - Dita - 20180117 Ninho - Rose - 20180309 Ninho - Bénéfice - 20180328 Ninho - Coffrer - 20180404 Ninho - Boîte auto - 20180425 Ninho - Un Poco - 20180919 Ninho - Fendi - 20181114 Ninho - Toutes options - 20190101 Ninho - Binks to Binks 6 - 20190221 Ninho - Goutte d'eau - 20190321 Ninho - Paris c'est magique - 20190319 Ninho - Booska Destin - 20190524 Ninho - Maman ne le sait pas - 20190619 Ninho - Kim Jong-il - 20190920 Ninho - Putana - 20200227 Ninho - M.I.L.S 3 - 20200320 Ninho - Zipette - 20200320 Ninho - Pirate - 20200527 Ninho - Lettre à une femme - 20201002 Ninho - Problèmes du matin - 20201030 Ninho - Sur Paname - 20201216 Ninho - Tout en Gucci - 20211130 Ninho - Binks to Binks 7 - 20220209 Ninho - Jefe You might also likeFeaturing - 20140627 Sadek - Jamais - 20151215 Sazamyzy - Braquage à lafricaine 4 Part. 1 - 20160502 Sofiane - Mortal Kombat - 20160708 Sadek - C'est trop - 20160826 Douma Kalash - IGO 10 - 20160905 13 Block - Mains sales - 20170113 Sirsy - Refait - 20170224 Médine - Grand Paris - 20170608 Blasko - RAS - 20170908 Rentre dans le Cercle - Rentre dans le Cercle - Épisode 1 - 20170915 Sadek - Madre Mia - 20171117 Lacrim - Veux-tu ? - 20180108 Sofiane - Longue vie - 20180126 Yaro - Casa de Papel - 20180223 YL - Sicario - 20180324 Leto - Avon Barksdale - 20180504 Naza - À midi - 20180511 Yaro - Bucci Night - 20180608 4Keus Gang - Midi dans le ghetto - 20180725 Rim'K - Air Max - 20180727 KPoint - Ma 6t a craqué - 20180905 DA Uzi - Entre les murs - 20180921 Mac Tyer - 20 ans - 20180921 Hornet La Frappe - Sheitana - 20181019 SCH - Prêt à partir - 20181130 Capo Plaza - Billets - 20181130 GLK - Mauvais - 20181207 JuL - Et je deviens fou - 20190111 4Keus Gang - Vida Loca - 20190405 Zola - Papers - 20190412 Alonzo - C'est elle - 20190419 Hiro - À découvert - 20190531 Vegedream - Elle est bonne sa mère - 20190606 Kingzer - Gaine 'D 2.0 - 20190614 JuL - Tel Me - 20190705 Leto - Tes parents - 20190719 Hös Copperfield - Ma Guapa - 20190906 Niska - Méchant - 20190927 Amy - Mauvais côté - 20191108 Soprano - Musica - 20191129 SCH - Mayday - 20191129 Gradur - BLH - 20191220 Maes - Distant - 20200207 Yaro - Mec de cité - 20200220 Naps - 6.3 - 20200403 DA Uzi - Crois-moi - 20200417 Leto - Double Binks - 20200619 Dadju - Grand bain - 20200717 Mac Tyer - Moto - 20200731 Yaro - Dios mio - 20200828 Leto - Macaroni - 20200911 Carbozo - Carbozo 2.0 - 20201002 91 All Stars - La zone - 20201016 Lacrim - Dadinho - 20201023 Koba LaD - Encore - 20201127 Fally Ipupa - Likolo - 20201203 KeBlack - Je fais ma vie - 20201218 Landy - Enfants terribles - 20210101 DA Uzi - La vie du binks - 20210101 Leto - Vie de star - 20210226 Serge Ibaka - Champion - 20210312 Kore - Mon poto - 20210409 Sadek - Kimono - 20210602 DJ Quick - Elle m'a dit - 20210611 Dadinho - Mendosa - 20210625 Hös Copperfield - Incertain - 20210718 No Limit - Millions - 20210827 Hornet La Frappe - Gasolina - 20210903 Koffi Olomidé - Hercule - 20211103 Niska - N.I - 20211105 Gianni - La Calle - 20211119 Gazo - MAUVAIS 2X - 20220128 Kaneki - Jules César - 20220128 Ronisia - Suis-moi - 20220311 Lamatrix - 11H - 20220325 Yaro - Dernier étage - 20220401 DA Uzi - Kongolais mauvais - 20220520 Alonzo - TOUT VA BIEN - 20221021 Redvolution - Carolina - 20221028 Franglish - Sécu - 20221104 Heuss L'enfoiré - La Marseillaise - 20221104 Dinos - Portes suicide - 20221118 Graya - Coucou - 20221125 Kalash - Tennessee - 20230113 GAULOIS - Jolie</t>
+          <t>Discographie - Ninho Album Studio - 20170908 Ninho - Comme prévu - 20190322 Ninho - Destin - 20211203 Ninho - Jefe Mixtape - 20140217 Ninho DJ Quick - Ils sont pas au courant, Vol. 1 - 20141110 Ninho DJ Quick - ENATTENDANTISPAC2 - 20160118 Ninho DJ Quick - I.S.P.A.C 2 - 20161021 Ninho - M.I.L.S - 20180330 Ninho - M.I.L.S 2.0 - 20200307 Ninho - M.I.L.S 3 - 20201030 Ninho - M.I.L.S 3 Réédition Compilation - 20200608 Ninho - Destin Comme prévu Single - 20120421 Ninho - Capuché - 20130301 Ninho - N.I.N Freestyle 2 - 20140106 Ninho - Ginger Winnie - 20140124 Ninho - N.I.N Freestyle 3 - 20140314 Ninho - N.I.N Freestyle 4 - 20140616 Ninho - Médicaments - 20140627 Ninho - N.I.N Freestyle 5 - 20140901 Ninho - Niño - 20140915 Ninho - Chamak - 20140929 Ninho - 3ème guerre mondiale - 20141012 Ninho - En attendant ISPAC 2 - 20141027 Ninho - 18 - 20141121 Ninho - Qu'est ce que tu va faire ? - 20150501 Ninho - Intro - 20150610 Ninho - Charly Delta Remix - 20150708 Ninho - Peugeuff - 20150730 Ninho - Nae Nae - 20150817 Ninho - Mal luné - 20150929 Ninho - Miroir - 20150930 Ninho - Booska Pop-corn - 20151009 Ninho - Nae Nae 2.0 - 20151030 Ninho - À 100 à l'heure - 20151120 Ninho - Temps plein - 20151207 Ninho - Cash Money Kilo Gramme - 20151221 Ninho - Malsain - 20160118 Ninho - Bloqués en bas - 20160123 Ninho - Booska Pays-Bas - 20160212 Ninho - In My Cup - 20160219 Ninho - Verre - 20160406 Ninho - Temps plein 2.0 - 20160601 Ninho - Bitch Dab - 20160701 Ninho - Binks to Binks Part. 1 - 20160721 Ninho - Crésus - 20160815 Ninho - Binks to Binks Part. 2 - 20160907 Ninho - Pour nous - 20160921 Ninho - OKLM Freestyle - 20160929 Ninho - Binks to Binks Part. 3 - 20161003 Ninho - Freestyle Couvre Feu - 20161012 Ninho - Freestyle M.I.L.S - 20161018 Ninho - Tout ira mieux - 20161025 Ninho - Booska MILS - 20161104 Ninho - Légende - 20161121 Ninho - Freestyle Couvre Feu 2 - 20161207 Ninho - Dis-moi que tu m'aimes - 20170126 Ninho - Binks to Binks Part. 4 - 20170224 Ninho - Malcolm - 20170421 Ninho - Roro - 20170628 Ninho - Binks to Binks Part. 5 - 20170706 Ninho - Mamacita - 20170818 Ninho - Chino - 20170905 Ninho - Booska Comme prévu - 20170908 Ninho - Hall - 20170909 Ninho - Freestyle Comme prévu - 20170926 Ninho - OKLM Freestyle Part. 2 - 20171006 Ninho - Laisse pas traîner ton fils - 20171227 Ninho - Dita - 20180117 Ninho - Rose - 20180309 Ninho - Bénéfice - 20180328 Ninho - Coffrer - 20180404 Ninho - Boîte auto - 20180425 Ninho - Un Poco - 20180919 Ninho - Fendi - 20181114 Ninho - Toutes options - 20190101 Ninho - Binks to Binks 6 - 20190221 Ninho - Goutte d'eau - 20190321 Ninho - Paris c'est magique - 20190319 Ninho - Booska Destin - 20190524 Ninho - Maman ne le sait pas - 20190619 Ninho - Kim Jong-il - 20190920 Ninho - Putana - 20200227 Ninho - M.I.L.S 3 - 20200320 Ninho - Zipette - 20200320 Ninho - Pirate - 20200527 Ninho - Lettre à une femme - 20201002 Ninho - Problèmes du matin - 20201030 Ninho - Sur Paname - 20201216 Ninho - Tout en Gucci - 20211130 Ninho - Binks to Binks 7 - 20220209 Ninho - Jefe Featuring - 20140627 Sadek - Jamais - 20151215 Sazamyzy - Braquage à lafricaine 4 Part. 1 - 20160502 Sofiane - Mortal Kombat - 20160708 Sadek - C'est trop - 20160826 Douma Kalash - IGO 10 - 20160905 13 Block - Mains sales - 20170113 Sirsy - Refait - 20170224 Médine - Grand Paris - 20170608 Blasko - RAS - 20170908 Rentre dans le Cercle - Rentre dans le Cercle - Épisode 1 - 20170915 Sadek - Madre Mia - 20171117 Lacrim - Veux-tu ? - 20180108 Sofiane - Longue vie - 20180126 Yaro - Casa de Papel - 20180223 YL - Sicario - 20180324 Leto - Avon Barksdale - 20180504 Naza - À midi - 20180511 Yaro - Bucci Night - 20180608 4Keus Gang - Midi dans le ghetto - 20180725 Rim'K - Air Max - 20180727 KPoint - Ma 6t a craqué - 20180905 DA Uzi - Entre les murs - 20180921 Mac Tyer - 20 ans - 20180921 Hornet La Frappe - Sheitana - 20181019 SCH - Prêt à partir - 20181130 Capo Plaza - Billets - 20181130 GLK - Mauvais - 20181207 JuL - Et je deviens fou - 20190111 4Keus Gang - Vida Loca - 20190405 Zola - Papers - 20190412 Alonzo - C'est elle - 20190419 Hiro - À découvert - 20190531 Vegedream - Elle est bonne sa mère - 20190606 Kingzer - Gaine 'D 2.0 - 20190614 JuL - Tel Me - 20190705 Leto - Tes parents - 20190719 Hös Copperfield - Ma Guapa - 20190906 Niska - Méchant - 20190927 Amy - Mauvais côté - 20191108 Soprano - Musica - 20191129 SCH - Mayday - 20191129 Gradur - BLH - 20191220 Maes - Distant - 20200207 Yaro - Mec de cité - 20200220 Naps - 6.3 - 20200403 DA Uzi - Crois-moi - 20200417 Leto - Double Binks - 20200619 Dadju - Grand bain - 20200717 Mac Tyer - Moto - 20200731 Yaro - Dios mio - 20200828 Leto - Macaroni - 20200911 Carbozo - Carbozo 2.0 - 20201002 91 All Stars - La zone - 20201016 Lacrim - Dadinho - 20201023 Koba LaD - Encore - 20201127 Fally Ipupa - Likolo - 20201203 KeBlack - Je fais ma vie - 20201218 Landy - Enfants terribles - 20210101 DA Uzi - La vie du binks - 20210101 Leto - Vie de star - 20210226 Serge Ibaka - Champion - 20210312 Kore - Mon poto - 20210409 Sadek - Kimono - 20210602 DJ Quick - Elle m'a dit - 20210611 Dadinho - Mendosa - 20210625 Hös Copperfield - Incertain - 20210718 No Limit - Millions - 20210827 Hornet La Frappe - Gasolina - 20210903 Koffi Olomidé - Hercule - 20211103 Niska - N.I - 20211105 Gianni - La Calle - 20211119 Gazo - MAUVAIS 2X - 20220128 Kaneki - Jules César - 20220128 Ronisia - Suis-moi - 20220311 Lamatrix - 11H - 20220325 Yaro - Dernier étage - 20220401 DA Uzi - Kongolais mauvais - 20220520 Alonzo - TOUT VA BIEN - 20221021 Redvolution - Carolina - 20221028 Franglish - Sécu - 20221104 Heuss L'enfoiré - La Marseillaise - 20221104 Dinos - Portes suicide - 20221118 Graya - Coucou - 20221125 Kalash - Tennessee - 20230113 GAULOIS - Jolie</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hayatm stanbul gibi skk Skk Ah, her yeri trafik Bu kz sevmedim, tarz bi' ylk Ylk, serseri dinamit Açk aryo', bu gece beni patlatcak Ha Akl sra Piyanc'y atlatcak Hahaha Piyasa hzl, birileri harcancak Rap'i seviyo'sak dikenine katlanca'z Katlanca'z Biri birine, biri dierine Gelicek üstün, sen elime dütün Bak, ortama gelince seviye dütü Ne diye yüzsüz gibi peime dütün? Ama benden uzak durun Kuralm bu, kesilecek suratn buz Görünce beni deitir yolunu ve çeneni kapal tut Sana göre fazla gelir Anl haval, cool Hayallerimin en büyüünü yarattm Rap Hep keyfimi bozmaya çaltlar Tek kelimesi bile bana varmadan dütü Onu gören akbabalar bana üütü Bence piyasa bugün hasta Korkacak bi' ey yok tarzda Rap'in ad hepimizden büyük bugün çindeki, dndaki kahpeler' hepsine ölüm Ta-ta, ta-ta, ta-ta tararken Yüreimizden kopan bu atei salarken Tekrar ayaa kalkan pop deil olum, rap'im Bur'da çldran beni gören, sevenlerim You might also like Beni yobazlar dinlesin kanka Wuh Seni yobazlar dinliyo' kanka Hahah Hayk dönüürken Immanuel Kant'a Sana düen onun mirasn satmak Fino fenolarn götlerini koklaynca olucak m sanyo'sun hiç? Uh Biliyo'sun, dü bu Senin azndan dökülen dk Cesaret sandn eyin ad kuku, putsun Geberirken viskine ve kokainine sarl Söylesene, neyi koyabiliyo'sun para yerine? Brr Pelerine taklnca deliler ard bu, kime ta atcak alp eline? Ne tuhaf? Dönütünüz bataa Benim her kavgamda kaçtnz uzaa Sandnz ki susarm, dütünüz tuzaa Benzediniz tüccara, hepinizden uzam Hey Herkesin derdi, derdi kendine Siktir et Cüno derdim kendime Ar gelebilir sana baz rhyme'lar Yeah Sen git al abini, getir semtime Hehehehe Gelen görür, sakat gider Kan kokar her bi' kavgam Londra'da bu ara tek bi' kral var Sen bi' de git sor abilerine ngilizce'n bombok Hahahaha, rap'ini kçna sok Bok.com, bok torbas bok atma bana, bak, krarm kafan Katliam annda bana gider yapma Ah, ha Tekmill, Massaka harbi damardan patlar kafan Kzaran gözlerim kirpik alt Dalgadan deil birader, souk aldm Ya günümde hediyemi kendim aldm Yazdm satrlar da yara bandm Martlar atlan simit sand Var evde bir bekleyenim, Safir ad Dilek diliy'ce'm de yldz m kald? Okuduum her eyi sen yaz m sandn? Dütüyse kaldr dülerin dalmadan Kazanmak isteyen sabretsin yorulmadan Duvar deilsin, yaayasn yklmadan Kimse ak demesin hasretle yanmadan Sormadan gitmeyin, aklm kalacak sonra Uyanr uyanmaz sütünden sofra Bi' dara dü, kalabalklar yoklar Bu ara bamda bi' bela llegali brak olum, nasibini ara h Düüyoruz arada bi' dara Hayat, güler misin bana da bi' bana? Bana bi' tek kelime verin, bak, evin içinde bi' deli Yeri gelir, bizim için Neyin peindesin? dedi Çöpe giden bi' ton hayal, hiçbirisi bizim deil Yarna yarn inann sokak benim, evimdeyim Gözünü kapat, hadi Allah'a ükret Bu yol kime kader, kime ksmet? Bo lafa nispet, kalmad kimse Korkuyorsan olanlar izle Diyo'lar Canbay'la Wolker bi' keco Siktir git, yolumdan defol olsan da ileriniz defo Yeni baladk hani, gördüklerin demo O yüzden efor, görünmez bu yol Ah Tarama la beyni, beyni Yok bize geri Yok, simsiyah deri Deri Dümanma tattrdm yeri Maskeye aktn altnda benim Haha Kerhanede takl, ekilsin Karda hep izin Yah, sokaklar bizim Yah O adam, bu adam ama sen deilsin Hayr Dinle Türkçe rap kahpe, çok iyisin Ah Gö-gökte hilal, hapisten firar Üç kere zpladn, patlad villan Zrhl aracna bombal pilav Ya, ya, ya, ya Cotun, n'oldu? Sonucu viran Be-be-belde alet, yanl ticaret Gece ziyaret, kurun isabet Pa-pa-pa-pat Üç-alt cehennem, yanyo' vilayet Ruh hastasyz moruk, bunu idare et Bankaya gir, soy, yüzümde çorap Ah Gir tekme tokat Ney?, boalsn dolap Oh Çantalar dolsun, dolsun hep dolar -ar Ufaktan mola ya da bi' soda Ah Güvenlik, yol al siktir git, domal Hasiktir lan Ortalk duman, yanmda kovam Kçna sahip çk, arlar sokar Yabani dünyada kaptn kopar Boynuna kablo, gelsin tüm kadro Buras tehlikeli, yoktur tiyatro Ya, ya Ne yeter Polat, ne de bi' Pablo Massaka'nn en irenç taraf Diablo Yeah Türkçe rap giydi kefen Oh Diablo Blood gelir gece Oh Pembe etei giydi çeten Ha Üç yerden k-rld çenen Deutsche rap ve doy er'e Dolce gang yok kot, ceket Soruyo'sun çok sebep yo-yok yere Soluyo'sun bok bebek, yok ot ve meth Dinliyo'sun Gucci Gang, mucci gang Bu cidden yaralyo', hoca, beni, yapyo'sun çok çene Diyo'sun Ot çekek be bo bele Müziinse komple le ve bo gebe, yürü git Yürü git Yürütürüm, al, türlü türlü mal Gürültülü saçmalklar ünlü münlü deil Dikka, mikrofonu koy yere Sizin sikik Auto-Tune'nunuz pop ve wack Sesin kötü diye koyuyo'sun, havan olsun Birisi mana sorsa sklp Aman dersin Yediin paralar hep haram olsun Adam gibi bi' eyde bi' davan olsun Yapt bou ka, yara hounuza gidiyo' ya Bamza yeni bela, hadi ya Saptn sapam, sapm, kopuum, krm Kolunu krarm, ko'du'mun yllar zarar Kaçt kou kiminin evimin lou Duyduun huu, baar ehrimin k Bulduum a ucuza alyo'm ama Kimisine kayyo', gidiyo' yine para Gece dolamaya korktuun sokaklarda notalar çalar yeraltndan benim melodimin Dedi ki Def, kar, para, araba var, yalakalar, mavi mor lambalar ama ben o deilim No Hep ayn rayda Def, pure rap motherfucker moruk, yllar önce ayaklarma beton giydim Sen bugün varsn, yarn yoksun küçük kz çocuklarn peinden koan motherfucker pedofilisin Kafana cap, beline Colt, eline mikrofon geçirmekle hiçbi' zaman getto deilsin No Durma, benim adm sil playlist'inden homie eer hakkn veremiyo'sam ben o beat'in Baz satrlar eskilerden hatrlarsn bile, bu shit katk katlmam hâli heroin'in Bu flow tiki taka, de ki Ne çabuk bitti sekiz satr? Ustalarn beni tanr DefEasy imdi sanat için soyunanlar Bi' de Türkçe rap'in her tarafta aslanlar Bizi gördüünde, inan, iner kalkanlar Bi' de hatrlatr sana bura Balkanlar' imdi üçten geri say hadi, kankanz high Bu da bilim tezi, eekten olmuyo' tay Sana sorunlarn en güzeli ama Senin Dik gelir dediklerin hepsi yatay Gözümü kapatr, bi' de dalarm içeri Hadi hesabn ver bana olann bitenin Geri kafalsn ama, evet, dönemedi geri Beni tanyo'sun, emin ol bulurum o evi Beni duyuyo'sun, de' mi? Krarm o beli Testereyle gelir, keserim o uzam o dili Bana sormasn o, küllerimden oluuruz geri Yaplan bu iler elimizin kiri Panik yok animal, bu rap sürekli chemical Benimle tand Silivri Hannibal Wonder Woman'n saçsn öfkesiyken Venom'un Liriklerim katlediyo' hepsini Sorry mama, I'm a criminal Bilirsin, Rota tür-lü sorunun ad Hür oldukça rap'im onlarn hayat bi' zulüm içinde O yüzden atarm suratlarna külü Bizim çete deitirir suyun ak yönünü Bitch, yeah Yerimden oynatamaz vinç Ordum eder piçlerini linç Çünkü karaladm verse'lerimi sen uyurken geblo Sudan çkm balksnz, bizim için denk yok Tünelisin bu bokun, ben içindeki metro Delip geçiyoruz, bu piyasadaki tek lord biziz Küçücüksün, biz hep yannda deviz Hip-hop'la ben ayn Tiësto'yla techno21</t>
+          <t>Hayatm stanbul gibi skk Skk Ah, her yeri trafik Bu kz sevmedim, tarz bi' ylk Ylk, serseri dinamit Açk aryo', bu gece beni patlatcak Ha Akl sra Piyanc'y atlatcak Hahaha Piyasa hzl, birileri harcancak Rap'i seviyo'sak dikenine katlanca'z Katlanca'z Biri birine, biri dierine Gelicek üstün, sen elime dütün Bak, ortama gelince seviye dütü Ne diye yüzsüz gibi peime dütün? Ama benden uzak durun Kuralm bu, kesilecek suratn buz Görünce beni deitir yolunu ve çeneni kapal tut Sana göre fazla gelir Anl haval, cool Hayallerimin en büyüünü yarattm Rap Hep keyfimi bozmaya çaltlar Tek kelimesi bile bana varmadan dütü Onu gören akbabalar bana üütü Bence piyasa bugün hasta Korkacak bi' ey yok tarzda Rap'in ad hepimizden büyük bugün çindeki, dndaki kahpeler' hepsine ölüm Ta-ta, ta-ta, ta-ta tararken Yüreimizden kopan bu atei salarken Tekrar ayaa kalkan pop deil olum, rap'im Bur'da çldran beni gören, sevenlerim Beni yobazlar dinlesin kanka Wuh Seni yobazlar dinliyo' kanka Hahah Hayk dönüürken Immanuel Kant'a Sana düen onun mirasn satmak Fino fenolarn götlerini koklaynca olucak m sanyo'sun hiç? Uh Biliyo'sun, dü bu Senin azndan dökülen dk Cesaret sandn eyin ad kuku, putsun Geberirken viskine ve kokainine sarl Söylesene, neyi koyabiliyo'sun para yerine? Brr Pelerine taklnca deliler ard bu, kime ta atcak alp eline? Ne tuhaf? Dönütünüz bataa Benim her kavgamda kaçtnz uzaa Sandnz ki susarm, dütünüz tuzaa Benzediniz tüccara, hepinizden uzam Hey Herkesin derdi, derdi kendine Siktir et Cüno derdim kendime Ar gelebilir sana baz rhyme'lar Yeah Sen git al abini, getir semtime Hehehehe Gelen görür, sakat gider Kan kokar her bi' kavgam Londra'da bu ara tek bi' kral var Sen bi' de git sor abilerine ngilizce'n bombok Hahahaha, rap'ini kçna sok Bok.com, bok torbas bok atma bana, bak, krarm kafan Katliam annda bana gider yapma Ah, ha Tekmill, Massaka harbi damardan patlar kafan Kzaran gözlerim kirpik alt Dalgadan deil birader, souk aldm Ya günümde hediyemi kendim aldm Yazdm satrlar da yara bandm Martlar atlan simit sand Var evde bir bekleyenim, Safir ad Dilek diliy'ce'm de yldz m kald? Okuduum her eyi sen yaz m sandn? Dütüyse kaldr dülerin dalmadan Kazanmak isteyen sabretsin yorulmadan Duvar deilsin, yaayasn yklmadan Kimse ak demesin hasretle yanmadan Sormadan gitmeyin, aklm kalacak sonra Uyanr uyanmaz sütünden sofra Bi' dara dü, kalabalklar yoklar Bu ara bamda bi' bela llegali brak olum, nasibini ara h Düüyoruz arada bi' dara Hayat, güler misin bana da bi' bana? Bana bi' tek kelime verin, bak, evin içinde bi' deli Yeri gelir, bizim için Neyin peindesin? dedi Çöpe giden bi' ton hayal, hiçbirisi bizim deil Yarna yarn inann sokak benim, evimdeyim Gözünü kapat, hadi Allah'a ükret Bu yol kime kader, kime ksmet? Bo lafa nispet, kalmad kimse Korkuyorsan olanlar izle Diyo'lar Canbay'la Wolker bi' keco Siktir git, yolumdan defol olsan da ileriniz defo Yeni baladk hani, gördüklerin demo O yüzden efor, görünmez bu yol Ah Tarama la beyni, beyni Yok bize geri Yok, simsiyah deri Deri Dümanma tattrdm yeri Maskeye aktn altnda benim Haha Kerhanede takl, ekilsin Karda hep izin Yah, sokaklar bizim Yah O adam, bu adam ama sen deilsin Hayr Dinle Türkçe rap kahpe, çok iyisin Ah Gö-gökte hilal, hapisten firar Üç kere zpladn, patlad villan Zrhl aracna bombal pilav Ya, ya, ya, ya Cotun, n'oldu? Sonucu viran Be-be-belde alet, yanl ticaret Gece ziyaret, kurun isabet Pa-pa-pa-pat Üç-alt cehennem, yanyo' vilayet Ruh hastasyz moruk, bunu idare et Bankaya gir, soy, yüzümde çorap Ah Gir tekme tokat Ney?, boalsn dolap Oh Çantalar dolsun, dolsun hep dolar -ar Ufaktan mola ya da bi' soda Ah Güvenlik, yol al siktir git, domal Hasiktir lan Ortalk duman, yanmda kovam Kçna sahip çk, arlar sokar Yabani dünyada kaptn kopar Boynuna kablo, gelsin tüm kadro Buras tehlikeli, yoktur tiyatro Ya, ya Ne yeter Polat, ne de bi' Pablo Massaka'nn en irenç taraf Diablo Yeah Türkçe rap giydi kefen Oh Diablo Blood gelir gece Oh Pembe etei giydi çeten Ha Üç yerden k-rld çenen Deutsche rap ve doy er'e Dolce gang yok kot, ceket Soruyo'sun çok sebep yo-yok yere Soluyo'sun bok bebek, yok ot ve meth Dinliyo'sun Gucci Gang, mucci gang Bu cidden yaralyo', hoca, beni, yapyo'sun çok çene Diyo'sun Ot çekek be bo bele Müziinse komple le ve bo gebe, yürü git Yürü git Yürütürüm, al, türlü türlü mal Gürültülü saçmalklar ünlü münlü deil Dikka, mikrofonu koy yere Sizin sikik Auto-Tune'nunuz pop ve wack Sesin kötü diye koyuyo'sun, havan olsun Birisi mana sorsa sklp Aman dersin Yediin paralar hep haram olsun Adam gibi bi' eyde bi' davan olsun Yapt bou ka, yara hounuza gidiyo' ya Bamza yeni bela, hadi ya Saptn sapam, sapm, kopuum, krm Kolunu krarm, ko'du'mun yllar zarar Kaçt kou kiminin evimin lou Duyduun huu, baar ehrimin k Bulduum a ucuza alyo'm ama Kimisine kayyo', gidiyo' yine para Gece dolamaya korktuun sokaklarda notalar çalar yeraltndan benim melodimin Dedi ki Def, kar, para, araba var, yalakalar, mavi mor lambalar ama ben o deilim No Hep ayn rayda Def, pure rap motherfucker moruk, yllar önce ayaklarma beton giydim Sen bugün varsn, yarn yoksun küçük kz çocuklarn peinden koan motherfucker pedofilisin Kafana cap, beline Colt, eline mikrofon geçirmekle hiçbi' zaman getto deilsin No Durma, benim adm sil playlist'inden homie eer hakkn veremiyo'sam ben o beat'in Baz satrlar eskilerden hatrlarsn bile, bu shit katk katlmam hâli heroin'in Bu flow tiki taka, de ki Ne çabuk bitti sekiz satr? Ustalarn beni tanr DefEasy imdi sanat için soyunanlar Bi' de Türkçe rap'in her tarafta aslanlar Bizi gördüünde, inan, iner kalkanlar Bi' de hatrlatr sana bura Balkanlar' imdi üçten geri say hadi, kankanz high Bu da bilim tezi, eekten olmuyo' tay Sana sorunlarn en güzeli ama Senin Dik gelir dediklerin hepsi yatay Gözümü kapatr, bi' de dalarm içeri Hadi hesabn ver bana olann bitenin Geri kafalsn ama, evet, dönemedi geri Beni tanyo'sun, emin ol bulurum o evi Beni duyuyo'sun, de' mi? Krarm o beli Testereyle gelir, keserim o uzam o dili Bana sormasn o, küllerimden oluuruz geri Yaplan bu iler elimizin kiri Panik yok animal, bu rap sürekli chemical Benimle tand Silivri Hannibal Wonder Woman'n saçsn öfkesiyken Venom'un Liriklerim katlediyo' hepsini Sorry mama, I'm a criminal Bilirsin, Rota tür-lü sorunun ad Hür oldukça rap'im onlarn hayat bi' zulüm içinde O yüzden atarm suratlarna külü Bizim çete deitirir suyun ak yönünü Bitch, yeah Yerimden oynatamaz vinç Ordum eder piçlerini linç Çünkü karaladm verse'lerimi sen uyurken geblo Sudan çkm balksnz, bizim için denk yok Tünelisin bu bokun, ben içindeki metro Delip geçiyoruz, bu piyasadaki tek lord biziz Küçücüksün, biz hep yannda deviz Hip-hop'la ben ayn Tiësto'yla techno21</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Menfhi Zaman geçer tik tak, yaant spin off Sokak ara zikzak, agalarm Pink Floyd aka gibi, gangimiz mamboi Sesim olur big mic', günahlarm hell boy Alay da Brak dedi, içim dedi Duraksama Herkese food, bro, yok babe, drug sana çeriden plug summer, yanmzda biblo, taptn newcomer çeriden baktnda hepsi de fake ama Onlar hep çok kii gangimiz tek ama Sandlar iyisiniz hepsi de kek ama Üstümdeki kuma hepsine denk ama Yorumlar siksok, alay da iyidir Salaklara pinpon, yudumladm teami Hatal bu pin kod, çetemizden deilsin Dolapdere, win boy, dengimiz deilsin Ya, duman dolu vücut tka basa Kasap diyet, hayat helal hesap Kelim, uzat onu, eline salk Yangn yeri içim, k uzak Tolerans yok, ya sabr, meditasyon Tansiyon geriliyo', dön evine, naylon eytan dolu pansiyon gibi, baba Size up ya da uzatmadan kaybol Köpekleri ham yapar, ehrimin insan bin kat Pislii zihnimin her yeri kaynyo' Genç giriim ii, tam gaz, keke Pedal basan ayak edemiyo' paydos Be senedir atyo' manzara takla Sokak aralar, keke, rampa atakta Sava cepheleri evim, kusuruma bakma Ve sorun önerilerini WhatsApp'a aktar Dü, kalk, geri dü, kalk Dirili biz, inaat gibi hissiyat Yeniliksiz, Risk al dedi eytan Yerin esiz, peyzaj gerek, insan, seni pislik You might also like Yakaladm ensesinden salaklar Havamz hep fresh, güneli, kararmad Konutular çok, kafama takmadm Azmda kan tad, sr'cak kalmad Ov Yanl hesapladn Geçemezsin buradan, sana yasakladm Kaypaklardan deiliz, Circle' satmadm Çemberi daralttk, artk daha da rahatm Ne bakyo'n hâlâ? Favorini ben var ettim, yalansa Yalan de Ne konuuyo'n hâlâ? En son konuanlar u an tannm'cak Ne dersen de, sikimde mi, hayr Trmanyo'z durmadan dere, tepe, bayr E, dost, akrabadan görmedim hayr Eskisinden daha iyi hissettim, fenaym, wow Menfhi</t>
+          <t>Menfhi Zaman geçer tik tak, yaant spin off Sokak ara zikzak, agalarm Pink Floyd aka gibi, gangimiz mamboi Sesim olur big mic', günahlarm hell boy Alay da Brak dedi, içim dedi Duraksama Herkese food, bro, yok babe, drug sana çeriden plug summer, yanmzda biblo, taptn newcomer çeriden baktnda hepsi de fake ama Onlar hep çok kii gangimiz tek ama Sandlar iyisiniz hepsi de kek ama Üstümdeki kuma hepsine denk ama Yorumlar siksok, alay da iyidir Salaklara pinpon, yudumladm teami Hatal bu pin kod, çetemizden deilsin Dolapdere, win boy, dengimiz deilsin Ya, duman dolu vücut tka basa Kasap diyet, hayat helal hesap Kelim, uzat onu, eline salk Yangn yeri içim, k uzak Tolerans yok, ya sabr, meditasyon Tansiyon geriliyo', dön evine, naylon eytan dolu pansiyon gibi, baba Size up ya da uzatmadan kaybol Köpekleri ham yapar, ehrimin insan bin kat Pislii zihnimin her yeri kaynyo' Genç giriim ii, tam gaz, keke Pedal basan ayak edemiyo' paydos Be senedir atyo' manzara takla Sokak aralar, keke, rampa atakta Sava cepheleri evim, kusuruma bakma Ve sorun önerilerini WhatsApp'a aktar Dü, kalk, geri dü, kalk Dirili biz, inaat gibi hissiyat Yeniliksiz, Risk al dedi eytan Yerin esiz, peyzaj gerek, insan, seni pislik Yakaladm ensesinden salaklar Havamz hep fresh, güneli, kararmad Konutular çok, kafama takmadm Azmda kan tad, sr'cak kalmad Ov Yanl hesapladn Geçemezsin buradan, sana yasakladm Kaypaklardan deiliz, Circle' satmadm Çemberi daralttk, artk daha da rahatm Ne bakyo'n hâlâ? Favorini ben var ettim, yalansa Yalan de Ne konuuyo'n hâlâ? En son konuanlar u an tannm'cak Ne dersen de, sikimde mi, hayr Trmanyo'z durmadan dere, tepe, bayr E, dost, akrabadan görmedim hayr Eskisinden daha iyi hissettim, fenaym, wow Menfhi</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yine odamda bir bama sensiz uyandm Uyanmaz olaydm Yan bamda bir fotoraf, gülen bir kadn Ah o kadn Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Beni hatrla Senin uruna niceler yandm Daha da yanardm Ben unutmam Her yanm bana seni hatrlatan yanklarm Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? You might also like Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm1</t>
+          <t>Yine odamda bir bama sensiz uyandm Uyanmaz olaydm Yan bamda bir fotoraf, gülen bir kadn Ah o kadn Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Beni hatrla Senin uruna niceler yandm Daha da yanardm Ben unutmam Her yanm bana seni hatrlatan yanklarm Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ey Cehennem bura, çkarz tura Neresi fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra RaRa told me, Bring the drama, pull up with that guru-gurra This that Who Shot Ya? 2Pac Ya, crush ya lil' cookaracha, who got you gassed up? Boy, do stop or end on crew necks, boy, you next The bitch fly, then I'm probably paintin' her face like grischa I was running these plays and hittin' my lick up Pushin' start on the auto, you startin' you gettin' lift up Nettin' numbers like Harden, that rocket come out that bitch, bruh Yeah, run up if you wanna then you all fin' die Really with the scheiße put ya life on line We are not playin' no baseball, you do not wanna pop fly I'm really doin' it 'bout to ruin ya whole top-five Poppin' I probably be knockin', I don't do no drive-bys Always doin' it bigger than them, and it's no bite-size Mines come through, and we do not comply Mob with the killers, nigga, mines got ties You might also like Xternational, Trip stanbul Huh Syrldk, var ettik yoktan Ya Hatrlatr sana kim olduumu Huh, huh Allah var, yok gam Ya Son gaz Huh, avlan Huh Uzanr açklarna oltam Huh Voltran California, Berlin Bütün maçlar derbi, lig ampiyonda XX bu çift yldz hit business, bir sfr Öndeyiz rfnt, Lucifer ok Ya Suikastim lirikal, müzikal bi' tlsm Yklsn kaleler, bomba hip-hop Bana para konuma seni kaar Bu durumann size göre davas baka X hâlâ savata, yardrrz canla bala Sakn dalama Cehennem bura, çkarz tura Neresi? Fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra Kille paar Bars und ich bleibe aktiv Hurra, hurra Straßenbandit Hurra, hurra, immer noch mies Kiss im-kun kullkum, Berliner Der Krieger, ich zahle mit Visa La viva la vida, von wegen nur Spieler Kein Dreamer, Habiba, ein Realer, kein FIFA Ja, mieser, du Typ, und ich ficke dein'n Fame Fame Der King Kong ist back und ich baller' paar Parts Die GLOCK in der Hand, Müslüm Baba -ba Ist doch egal Alles ist da Alles ist nah Langsam wissen sie Bescheid, was passiert ZZ, er kommt über Nacht, Schüsse aus Schiebedach Wie gesagt, ist egal, was sie sagt Bleibe Star, zero-one Adana Adana I know you need people like me Sie tappen voll in die Falle, werden high von dem Haze Undercover, Doppel-Zer, meine Zeil'n sind safe Alles legal I come to your party when you pay</t>
+          <t>Ey Cehennem bura, çkarz tura Neresi fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra RaRa told me, Bring the drama, pull up with that guru-gurra This that Who Shot Ya? 2Pac Ya, crush ya lil' cookaracha, who got you gassed up? Boy, do stop or end on crew necks, boy, you next The bitch fly, then I'm probably paintin' her face like grischa I was running these plays and hittin' my lick up Pushin' start on the auto, you startin' you gettin' lift up Nettin' numbers like Harden, that rocket come out that bitch, bruh Yeah, run up if you wanna then you all fin' die Really with the scheiße put ya life on line We are not playin' no baseball, you do not wanna pop fly I'm really doin' it 'bout to ruin ya whole top-five Poppin' I probably be knockin', I don't do no drive-bys Always doin' it bigger than them, and it's no bite-size Mines come through, and we do not comply Mob with the killers, nigga, mines got ties Xternational, Trip stanbul Huh Syrldk, var ettik yoktan Ya Hatrlatr sana kim olduumu Huh, huh Allah var, yok gam Ya Son gaz Huh, avlan Huh Uzanr açklarna oltam Huh Voltran California, Berlin Bütün maçlar derbi, lig ampiyonda XX bu çift yldz hit business, bir sfr Öndeyiz rfnt, Lucifer ok Ya Suikastim lirikal, müzikal bi' tlsm Yklsn kaleler, bomba hip-hop Bana para konuma seni kaar Bu durumann size göre davas baka X hâlâ savata, yardrrz canla bala Sakn dalama Cehennem bura, çkarz tura Neresi? Fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra Kille paar Bars und ich bleibe aktiv Hurra, hurra Straßenbandit Hurra, hurra, immer noch mies Kiss im-kun kullkum, Berliner Der Krieger, ich zahle mit Visa La viva la vida, von wegen nur Spieler Kein Dreamer, Habiba, ein Realer, kein FIFA Ja, mieser, du Typ, und ich ficke dein'n Fame Fame Der King Kong ist back und ich baller' paar Parts Die GLOCK in der Hand, Müslüm Baba -ba Ist doch egal Alles ist da Alles ist nah Langsam wissen sie Bescheid, was passiert ZZ, er kommt über Nacht, Schüsse aus Schiebedach Wie gesagt, ist egal, was sie sagt Bleibe Star, zero-one Adana Adana I know you need people like me Sie tappen voll in die Falle, werden high von dem Haze Undercover, Doppel-Zer, meine Zeil'n sind safe Alles legal I come to your party when you pay</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mhm-haha, TRVMEN Etki on the track Biraz yattm Yeah, zorundaydm harbiden Braktm ceketimi, tatil uzun süre yattm Yeah Yatmasam kurul'caktm Haha Aniden vurul'caktn Yeah Tabutuma bir çivi çaktm ans sigaram bile tersten yaktm Sadece bad trip yaatyo' aklm Baow-baow-baow Be sene her gün soldan kalktm, tersim Konuma, dayak yersin Yemekler frnda, Allah versin Bu prlantalar ner'den? Sorma, param bitsin istersin Olmaz Mafyalara gidersin Olmaz Yeni grup istersin Olmaz Groupie'ler istersin, yetmez Baban da diss'lersin belki Arabam hzl tank Yatarm, yeter lan tek bi' bank Sizin arklar Çilli bom Ama biziz, bak, hababam Sizde yat kalk ye, babam Dostlarm gelir Dou'dan, Bat'dan Birinizi görsek atlarz çatdan Bakyoruz her eye farkl bi' açdan Ya, ya You might also like Hem sahne hem sokak sold out, kalabalk çete gibi Az konuur, soru sormam, KKM gang, fam' GNG Size müzik, para, öhret, bizde biraz tehlikeli Bütün yollar bana çkar, tüm stanbul bilir beni Kaplar bamz dimdik geçtik Bilmeyen bilsin, hepsini seçtik Ya Bataklkta cahildik, gençtik Kim eytan, kim dosttur bildik Bi' cezam varsa çekice'm Sonu var, gam yok, bunu bildik Pasaport, kimlik Bi' neden bulduk, defterleri çizdik Ah-ah Ate etmek ve saklanmak yok Gö-gördün ihanet silahlardan Çktn o alçak sokaklardan Dütün bu yüksek binalardan Ah-ah, bak sen u finale Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah Laklak, vak vak Konusa âlem, dinlese milyonlar Bana çat-çat, taak Olmam sen gibi serilse trilyonlar spatlar sana one day, benim Herkese selam dönülmez bir yoldan Krk bir zarf, küçücük bir not Celo one shot, one bang, mm-mm Her eyi bo ver, paray çok sev Akln kurcalasn kombinin Bu silah esmer, cildim tersi Amacm varmak, var son güne Tavuu besler cani eller Kaçman için artlar çok bile Helikopter al, sana bu tavr çok Maan sabitleyin on bine Ne biliyo' hakkmda bu tipler? Yanp sönen pahal suit'ler Ate eden korkak tweet'ler Arabadan pahal tripler Mm, mm-mm Yere düüren boa beni, yetien dua Bum-bum, bum-bum, bum-bum Yüksek puan, bu fam big plan Bu squa' Squa' Anadolu'dan, Dou Anadolu'dan Müzik babadan miras, asalet gelir soyumdan Tatil için deil Bodrum, telefon gelir bana Van'dan Anam okur Kur'an, korur kazadan, beladan Boyna köçek gibi, para için onlar kdm, kdm kdm Zenne gibi krtrlar onlar kdm, kdm Loca sokak deil, bur'da öyle taklamazsnz Olaynz fiskos, kdm, kdm Tü-tü maallah Siz gibi deilim, yürüyorum dimdik bu sokaklarda Her gün yeni dert, tasalar birikir, çok çektik valla Yasa milyonlar, dese kurunlar Deiir yamz, çatlr kamz, tavrmz asla Elhamdülillah Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah1</t>
+          <t>Mhm-haha, TRVMEN Etki on the track Biraz yattm Yeah, zorundaydm harbiden Braktm ceketimi, tatil uzun süre yattm Yeah Yatmasam kurul'caktm Haha Aniden vurul'caktn Yeah Tabutuma bir çivi çaktm ans sigaram bile tersten yaktm Sadece bad trip yaatyo' aklm Baow-baow-baow Be sene her gün soldan kalktm, tersim Konuma, dayak yersin Yemekler frnda, Allah versin Bu prlantalar ner'den? Sorma, param bitsin istersin Olmaz Mafyalara gidersin Olmaz Yeni grup istersin Olmaz Groupie'ler istersin, yetmez Baban da diss'lersin belki Arabam hzl tank Yatarm, yeter lan tek bi' bank Sizin arklar Çilli bom Ama biziz, bak, hababam Sizde yat kalk ye, babam Dostlarm gelir Dou'dan, Bat'dan Birinizi görsek atlarz çatdan Bakyoruz her eye farkl bi' açdan Ya, ya Hem sahne hem sokak sold out, kalabalk çete gibi Az konuur, soru sormam, KKM gang, fam' GNG Size müzik, para, öhret, bizde biraz tehlikeli Bütün yollar bana çkar, tüm stanbul bilir beni Kaplar bamz dimdik geçtik Bilmeyen bilsin, hepsini seçtik Ya Bataklkta cahildik, gençtik Kim eytan, kim dosttur bildik Bi' cezam varsa çekice'm Sonu var, gam yok, bunu bildik Pasaport, kimlik Bi' neden bulduk, defterleri çizdik Ah-ah Ate etmek ve saklanmak yok Gö-gördün ihanet silahlardan Çktn o alçak sokaklardan Dütün bu yüksek binalardan Ah-ah, bak sen u finale Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah Laklak, vak vak Konusa âlem, dinlese milyonlar Bana çat-çat, taak Olmam sen gibi serilse trilyonlar spatlar sana one day, benim Herkese selam dönülmez bir yoldan Krk bir zarf, küçücük bir not Celo one shot, one bang, mm-mm Her eyi bo ver, paray çok sev Akln kurcalasn kombinin Bu silah esmer, cildim tersi Amacm varmak, var son güne Tavuu besler cani eller Kaçman için artlar çok bile Helikopter al, sana bu tavr çok Maan sabitleyin on bine Ne biliyo' hakkmda bu tipler? Yanp sönen pahal suit'ler Ate eden korkak tweet'ler Arabadan pahal tripler Mm, mm-mm Yere düüren boa beni, yetien dua Bum-bum, bum-bum, bum-bum Yüksek puan, bu fam big plan Bu squa' Squa' Anadolu'dan, Dou Anadolu'dan Müzik babadan miras, asalet gelir soyumdan Tatil için deil Bodrum, telefon gelir bana Van'dan Anam okur Kur'an, korur kazadan, beladan Boyna köçek gibi, para için onlar kdm, kdm kdm Zenne gibi krtrlar onlar kdm, kdm Loca sokak deil, bur'da öyle taklamazsnz Olaynz fiskos, kdm, kdm Tü-tü maallah Siz gibi deilim, yürüyorum dimdik bu sokaklarda Her gün yeni dert, tasalar birikir, çok çektik valla Yasa milyonlar, dese kurunlar Deiir yamz, çatlr kamz, tavrmz asla Elhamdülillah Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah1</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Her sabah bi' ölü Vidos Kurunlar saçlr Vidos Ölüme yaknz trafikteyiz Memurla aramz limoni cano Arayn Mami'yi yannda Mako nönü hzldr evine ko Uzi'yi bilirsin lakabm Çavo Vido La Coka stil, arazi ol Çakn beline koy Sokarm götüne çevirip onu Yine bebeler aranyor Bizimle yaran evinden olur Karakol önünde duman uurum yerinde deil Anamz okuyo' dua, korur o, mevzular sknt deil Gücünüz kime yeter ki, tokatlar bi' çocuk kendine gelir Bok atar herkese semtinin dnda bi' mevzu yapamaz ve baba denir Deli bilir kime sataacan aykr ar, hafifi bilir Eve tek dönüyo'm, gece bo üzerim Kelime yapmayn bi' yara verin Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos You might also like Ghettonun içinde her biri peimde, bi' türlü veremedi ki bi' rahat Demitim ikile büyüdü korkun hep içinde, deneme beni bi' daha Kirlenmez elim bile, bur'da cann almama yetiyo' iki bira Ki sana benzemem, öyle bi' tweetle bi' anda soumaz içim inan Konuur konuur ama bi' zarar yok, her sözü içinde kalr Yüzüme konuacak bi' cesareti yok, o Vidos'u çok iyi tanr Müziinizin her notas çöp, dinleyicilerin hepsi mi sar? O elit semtin büyük abisi sadece metin belgesine döküyor kan ya, ya Sokan denklemi basit, tek bi' seçenein var Ya düündüünü kazan ya da kazandn düün Seninle uramak için hiç vaktimiz yok, o yüzden birinden birini yap Ya tükürdüünü yala ya da yaladna tükür Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos, vidos Iklar kapal bi' araç yanar yanmza Para döndürüyo' bütün olay, farkna varmadan kar kanmza Karanlk olmadan uza, biz seni bulmadan uza Cennet ve Cehennem yakn, sevgi ve adalet uzak Korkuyo' bütün gençleriniz, gelirse biliyo' sadece yara alr Karard ksk gözlerimiz, çekmecem açlsa piyasa bize kalr Yolum yönüm belli, yldzlara doru kaldrdm Katanam Üstümdeki kan lekeleri yanmad Gör kayboldu bütün dostlarm ortadan bro Polis yok ortada bro Sonunda hiç geçmediin bi' sokakta karlayoruz, yolun sonu bro Senin için ama benim için deil, kaplar kapanyo' Benim için ama senin için deil, kaplar açlyo' Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos</t>
+          <t>Her sabah bi' ölü Vidos Kurunlar saçlr Vidos Ölüme yaknz trafikteyiz Memurla aramz limoni cano Arayn Mami'yi yannda Mako nönü hzldr evine ko Uzi'yi bilirsin lakabm Çavo Vido La Coka stil, arazi ol Çakn beline koy Sokarm götüne çevirip onu Yine bebeler aranyor Bizimle yaran evinden olur Karakol önünde duman uurum yerinde deil Anamz okuyo' dua, korur o, mevzular sknt deil Gücünüz kime yeter ki, tokatlar bi' çocuk kendine gelir Bok atar herkese semtinin dnda bi' mevzu yapamaz ve baba denir Deli bilir kime sataacan aykr ar, hafifi bilir Eve tek dönüyo'm, gece bo üzerim Kelime yapmayn bi' yara verin Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Ghettonun içinde her biri peimde, bi' türlü veremedi ki bi' rahat Demitim ikile büyüdü korkun hep içinde, deneme beni bi' daha Kirlenmez elim bile, bur'da cann almama yetiyo' iki bira Ki sana benzemem, öyle bi' tweetle bi' anda soumaz içim inan Konuur konuur ama bi' zarar yok, her sözü içinde kalr Yüzüme konuacak bi' cesareti yok, o Vidos'u çok iyi tanr Müziinizin her notas çöp, dinleyicilerin hepsi mi sar? O elit semtin büyük abisi sadece metin belgesine döküyor kan ya, ya Sokan denklemi basit, tek bi' seçenein var Ya düündüünü kazan ya da kazandn düün Seninle uramak için hiç vaktimiz yok, o yüzden birinden birini yap Ya tükürdüünü yala ya da yaladna tükür Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos, vidos Iklar kapal bi' araç yanar yanmza Para döndürüyo' bütün olay, farkna varmadan kar kanmza Karanlk olmadan uza, biz seni bulmadan uza Cennet ve Cehennem yakn, sevgi ve adalet uzak Korkuyo' bütün gençleriniz, gelirse biliyo' sadece yara alr Karard ksk gözlerimiz, çekmecem açlsa piyasa bize kalr Yolum yönüm belli, yldzlara doru kaldrdm Katanam Üstümdeki kan lekeleri yanmad Gör kayboldu bütün dostlarm ortadan bro Polis yok ortada bro Sonunda hiç geçmediin bi' sokakta karlayoruz, yolun sonu bro Senin için ama benim için deil, kaplar kapanyo' Benim için ama senin için deil, kaplar açlyo' Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Evet Bebeim Bebeim, hepsinin sebebi bendim Kusurlarm kabul etmeliyim Geçmiimde sçtm, duygusal açdan hala yaralym Öyle Umarm unutmadan önce affedersin beni Ve biliyorum ki reddedeceksin beni fakat meleklerim cevaplayacak beni Sorduum tek ey Eer bitirdiysen, söyle bana bebeim Ah, ah Günahlarnla Miami'ye uçtun Tüm arkadalarn takip etmiyorum Kzm, tekrar oraya gitmek istemiyorum Evet, çok zor Benden istediinde bu Beni fena istiyorsun, sana gelmemi de Beni üzgün görmek istiyorsun, intikam almay da Ah, ah Oh, ooh woah, oh-oh Bebeim sana yaattm eyleri hak etmedin Senin yerinde olsaydm ben de bitirebilirdim Kaldryorsun beni Dibe çekiyorsun beni bebeim, dibe çekiyorsun Galiba benden istediinde bu Benden istediinde bu Olmaya çaltm kii bu deildi Evet, olmam istediin kii bu Yalan söyleme bana Çünkü eer söylersen, benim için hava ho çimden bir ses daha yavatan almamz söylüyor Ah, bebeim Gençtik, Sikerler, yaa gitsin dedik Bu konuda hiç konumadk dersem yalan söylemi olurum Evet, o eytanlarla dolu odada ki bir melek Bugünün erken geleceini biliyorduk Kim biliyordu, bebeim, kim biliyordu? Sen biliyordun Affedersin Kaybetmi olmalym onu Sense unutmu olmalsn Sana kalbimi verdim ve sen onu düürmeye karar verdin Kes unu, ahh kes unu Evet Bebeim, ah bebeimYou might also like</t>
+          <t>Evet Bebeim Bebeim, hepsinin sebebi bendim Kusurlarm kabul etmeliyim Geçmiimde sçtm, duygusal açdan hala yaralym Öyle Umarm unutmadan önce affedersin beni Ve biliyorum ki reddedeceksin beni fakat meleklerim cevaplayacak beni Sorduum tek ey Eer bitirdiysen, söyle bana bebeim Ah, ah Günahlarnla Miami'ye uçtun Tüm arkadalarn takip etmiyorum Kzm, tekrar oraya gitmek istemiyorum Evet, çok zor Benden istediinde bu Beni fena istiyorsun, sana gelmemi de Beni üzgün görmek istiyorsun, intikam almay da Ah, ah Oh, ooh woah, oh-oh Bebeim sana yaattm eyleri hak etmedin Senin yerinde olsaydm ben de bitirebilirdim Kaldryorsun beni Dibe çekiyorsun beni bebeim, dibe çekiyorsun Galiba benden istediinde bu Benden istediinde bu Olmaya çaltm kii bu deildi Evet, olmam istediin kii bu Yalan söyleme bana Çünkü eer söylersen, benim için hava ho çimden bir ses daha yavatan almamz söylüyor Ah, bebeim Gençtik, Sikerler, yaa gitsin dedik Bu konuda hiç konumadk dersem yalan söylemi olurum Evet, o eytanlarla dolu odada ki bir melek Bugünün erken geleceini biliyorduk Kim biliyordu, bebeim, kim biliyordu? Sen biliyordun Affedersin Kaybetmi olmalym onu Sense unutmu olmalsn Sana kalbimi verdim ve sen onu düürmeye karar verdin Kes unu, ahh kes unu Evet Bebeim, ah bebeim</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Boli sve, od due junije Traimo biser od ivota ta je tunije od nae sudbine? Al' ti se boji da Izgoreemo mi pre smrti Pa zaboravlja, dok se borim ja Meseina puna mana Opet ja mislim o nama Al' ove noi pleem sama Pleem sama ja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala You might also like Budim se, kraljica pustinje Sino su se sene ljubile Al' zora zarudi, zaboli I mui me od due junije Dalje se borim ja, ne postoji niko bolji ta je tunije od nae sudbine? Jer ti se boji da, izgoreemo mi pre smrti Pa zaboravlja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Beimo u mrak, beimo u mrak Sklopi oi, pomisli na nas Beimo u mrak, noas budi jak Sklopi oi, zamiljaj Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Meseina sja Meseina zna Meseina ta i ja</t>
+          <t>Boli sve, od due junije Traimo biser od ivota ta je tunije od nae sudbine? Al' ti se boji da Izgoreemo mi pre smrti Pa zaboravlja, dok se borim ja Meseina puna mana Opet ja mislim o nama Al' ove noi pleem sama Pleem sama ja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Budim se, kraljica pustinje Sino su se sene ljubile Al' zora zarudi, zaboli I mui me od due junije Dalje se borim ja, ne postoji niko bolji ta je tunije od nae sudbine? Jer ti se boji da, izgoreemo mi pre smrti Pa zaboravlja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Beimo u mrak, beimo u mrak Sklopi oi, pomisli na nas Beimo u mrak, noas budi jak Sklopi oi, zamiljaj Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Meseina sja Meseina zna Meseina ta i ja</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Traim prave rei priam u prazno sa sobom Dok gledam kako su sreni, moda oseam prezir Nita tenzija jo jedan dan dok se stresiram Al nita sa drugima jer pria u prazno se ponavlja Izgubim sve, a nisam nita ni imao Gde stojim tu je klimavo jo me vide ko klinju Ba divno to, ali nemam gde da ekam voz I da imam, ba i ne znam gde bi otio Dosta sam se naviko da ne ide sve po planu Pa stavim sebe na stranu, to je sranje stvarno Jo me grize savest stalno, to je zajebano Al moram sve sam da reim znam to Jo me jebe muzika, trudim se da sam unikat Pisao bi reperima ali uvek bude kurina Zato razoaran u mnoge, mogu rei idole, pa me povue jo dole Veruj mi, ne zna ta je industrija, naravno muzika Mada moe da se povee sa hranom, jer svi potajno znamo da je govno Al opet idemo u to i kao nema veze sa lovom Ali pazi ovo, na instagramu piso njima trideset ta mislis ko je odgovorio, samo Iskaz je I tu treba da istrajem, zar ne, ali odma vidi se Ko je to zaradio a ko je imo sree Troim sebi nerve zbog tebe, omiljeno mesto mi postaje krevet Jer se krijem od sebe Za mene tek je poetak, ostajem umoran valjda uskoro e petak Polako pada elja, polako brate ne znam Pa kako nisi trezna, a opet treba tog kea Od danas sam sjeban Od danas priam sa sobom Od danas nema nikog, ostaje mi sav prostor I na kraju ko smo?You might also like</t>
+          <t>Traim prave rei priam u prazno sa sobom Dok gledam kako su sreni, moda oseam prezir Nita tenzija jo jedan dan dok se stresiram Al nita sa drugima jer pria u prazno se ponavlja Izgubim sve, a nisam nita ni imao Gde stojim tu je klimavo jo me vide ko klinju Ba divno to, ali nemam gde da ekam voz I da imam, ba i ne znam gde bi otio Dosta sam se naviko da ne ide sve po planu Pa stavim sebe na stranu, to je sranje stvarno Jo me grize savest stalno, to je zajebano Al moram sve sam da reim znam to Jo me jebe muzika, trudim se da sam unikat Pisao bi reperima ali uvek bude kurina Zato razoaran u mnoge, mogu rei idole, pa me povue jo dole Veruj mi, ne zna ta je industrija, naravno muzika Mada moe da se povee sa hranom, jer svi potajno znamo da je govno Al opet idemo u to i kao nema veze sa lovom Ali pazi ovo, na instagramu piso njima trideset ta mislis ko je odgovorio, samo Iskaz je I tu treba da istrajem, zar ne, ali odma vidi se Ko je to zaradio a ko je imo sree Troim sebi nerve zbog tebe, omiljeno mesto mi postaje krevet Jer se krijem od sebe Za mene tek je poetak, ostajem umoran valjda uskoro e petak Polako pada elja, polako brate ne znam Pa kako nisi trezna, a opet treba tog kea Od danas sam sjeban Od danas priam sa sobom Od danas nema nikog, ostaje mi sav prostor I na kraju ko smo?</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CÜNDÖ RÏSÄË DÏNSÄË Hidden, empty, i collect myself ÜNDÄ ÜRÏ CÖÏ ÜNDÄRÏ Perverse world, forced to disconnect me to him MÏ ËÜRT ÜRTÄ My heart brutalized ÜNTÄ CÖ ÜNDÏ Chasm linked of my past MÏMÄË ÜNDÄTÏ My eternal companions FÜR ÜNDÄTÄ So as to treat ÜNTÄ ÏRÏN SÜN FÜR SÜN TÜ Ï SÜN TÜRÜN DÄRÜN DÄRÏ I looking for the Sun in my hell, this sick inner Sun, calm, connection to my torrent of rose Ä ÜRÏ YÜMTÄ YÜMTÄ ÜNDÏ I am united with the universe, an innocent and sensitive human FÜRÏ ÜNTÄ YÜMDÄ Without hate, i'm an another man Ä Ü RÜNDÄ SÄË MÄR SÜTCHÄË United to you i sculpt my spirit, enought pain FÜR RÜNDÄ Ü TÜVÏ For raise me and advance awake Ä YÜMÄ SÜTCHÄË The original consciousness that forgive YÜMÄ RÜNDÄ ÜNDÄTÏ The original consciousness that rises to infinity ÄÜÄ ÜVÏ Ä ÜRÏ ÜNDÄ Fusion with nature, grow in this unlivable world You might also likeKÄ LÄLÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÄ LÄ LÏÜNDÄ LÄ LÄ LÏÜNDÄ Now, this mental illusion, now, this mental illusion KÄ LÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÏ LÏ Ä LÄ LÏ Ä LÄ LÄ LÏ Ä LÄ Narcissistic civilization of material, lies and ego ÜNDÜ ÏLÏS ÜNDÜLÏ ÏLÏS ÜNDÜLÏ ÜNDÜLÏS Essential creativity, understanding by creating, understanding by imagining ÜNTÄ ÏLÏ CÜN TÄ ÏLÏ SÜN FÜR ÏLÜNDÏLÏ SÄË FÜRÏ ÜNDÏ I fall in my sibyllin fears, find my Sun, for issuing my spirit of this deep anger CÖ ÏLÏ RÜNTÄË ÏLÏ SÜN FÜR ÏLÜNDÏLÏ Condemned in this artificial prison, issue this Sun SÄË MÏ ËÜRT SÄÏR Spirit, my heart bleeds RËVËÜRT Revolt of the heart BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long ÜRÏ CÖSÄ ÜRÏ Ä CÖSTÄË ÜNDÄ The cosmos is opposed to this corrupt and inhuman world TÄË FÜRÏ CÖSTÄË ÜNDÏ ÄË YÜMDÄ YÜMDÄ The anger damages the stars, and the beings suffer ÄYÄ ÜNDÄ ÄYÄ ÜNDÄ ÜRÏ ÜNDÄ ÄYÄ ÜNDÄ Sob unlivable, sob unlivable, trampled cosmos, sanglot invivable ÜNTÖ LÏDÏ YÜM SÄË YÜM DÄË The spirit of man that he was part of a whole, humanity dies YÜM LËFÜ YÜM LÄ YÜM DÄË Mankind be are misplace, mankind of now, mankind dies ÜTÄ LËÏ ÜR TÄË FÜR LÄNDÄ FÜR LÄNDÄË SÜ YÜMÄ The Earth is a living being sensitive to energy, it's a paradise, a paradise lost, fight of beautiful mankind ÜNDÄ LËÄ FÜR SÄ ÜRÏ ÜNDÄ Ü FÜR Ü ÜLI LÄNDÄ SÜDJÏ I tear this mask for issuing the cosmos of hell, and it's you, under the abomination there is an beautiful world of peace Ü FÜ ÜLÏ SÄN LÄNDÄ LÄNDÄTÏ Under the alienation planted in our flesh, there is a imperishable beautiful world Ö LÄË ËLËÏ ÜNDÏ LÜNDÄTÏ Soul, the living suffers because there is monstrous negatives energies CÖ ÜLÏ CÖ Ï ÜNDÏ CÖ ÏLÏ SÖ ÏLÏ SÜDJÏ Enchaine to the depths, enchaine to our suffering, enchaine in this prison, beyond of she there is the peace ÜNDÄ LËÄ SÜ FÜ ÜRÏ Ö YÜM I tear the mask, unnecessary armed conflict in the world, man ÏNTÖ LÏÜM SÄË SÄË Ï ÜNDÄTÏ VÏ TÄË RÏ TÄË SÄË In the light of intuition, each spirit is eternal, Earth of duality, the spirit of the Earth eviscerate SÄN SÄË ÜN RÜN SÄË Ï SÄ ÜDÏ YÜM SÄË ÜNDÄTÏ The flesh crushes the spirit, i break the chains of the spirit, the spirit of mankind is eternal ÜTÄ Ï ÜNDÖRÏ We are amorphous creatures MÄ ÏÜN SÄTÄ ÏÜN LÄNDÄ SÜDJÜTÏ The evil inside, the devil inside, it's an infernal paradise YÜM ÜR TÄË ÜNTÖ ÜRË ÜNDÖ MÏ LÄË ÜNDÄTÏ Man of the earth, everything is reborn obviously, our spirits are eternals LÄNDÄ Paradise MÏ ËÜRT My heart MÏ SÄË My spirit MÏ TÄË My Earth CRÏ ÜNDÄTÏ Constantly crying FÜR YÜM For mankind FÜR ÄMÄ For love FÜR LÏNÏ For the tree of life VÖÏCÏS MÏ LÄË This is my life soul</t>
+          <t>CÜNDÖ RÏSÄË DÏNSÄË Hidden, empty, i collect myself ÜNDÄ ÜRÏ CÖÏ ÜNDÄRÏ Perverse world, forced to disconnect me to him MÏ ËÜRT ÜRTÄ My heart brutalized ÜNTÄ CÖ ÜNDÏ Chasm linked of my past MÏMÄË ÜNDÄTÏ My eternal companions FÜR ÜNDÄTÄ So as to treat ÜNTÄ ÏRÏN SÜN FÜR SÜN TÜ Ï SÜN TÜRÜN DÄRÜN DÄRÏ I looking for the Sun in my hell, this sick inner Sun, calm, connection to my torrent of rose Ä ÜRÏ YÜMTÄ YÜMTÄ ÜNDÏ I am united with the universe, an innocent and sensitive human FÜRÏ ÜNTÄ YÜMDÄ Without hate, i'm an another man Ä Ü RÜNDÄ SÄË MÄR SÜTCHÄË United to you i sculpt my spirit, enought pain FÜR RÜNDÄ Ü TÜVÏ For raise me and advance awake Ä YÜMÄ SÜTCHÄË The original consciousness that forgive YÜMÄ RÜNDÄ ÜNDÄTÏ The original consciousness that rises to infinity ÄÜÄ ÜVÏ Ä ÜRÏ ÜNDÄ Fusion with nature, grow in this unlivable world KÄ LÄLÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÄ LÄ LÏÜNDÄ LÄ LÄ LÏÜNDÄ Now, this mental illusion, now, this mental illusion KÄ LÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÏ LÏ Ä LÄ LÏ Ä LÄ LÄ LÏ Ä LÄ Narcissistic civilization of material, lies and ego ÜNDÜ ÏLÏS ÜNDÜLÏ ÏLÏS ÜNDÜLÏ ÜNDÜLÏS Essential creativity, understanding by creating, understanding by imagining ÜNTÄ ÏLÏ CÜN TÄ ÏLÏ SÜN FÜR ÏLÜNDÏLÏ SÄË FÜRÏ ÜNDÏ I fall in my sibyllin fears, find my Sun, for issuing my spirit of this deep anger CÖ ÏLÏ RÜNTÄË ÏLÏ SÜN FÜR ÏLÜNDÏLÏ Condemned in this artificial prison, issue this Sun SÄË MÏ ËÜRT SÄÏR Spirit, my heart bleeds RËVËÜRT Revolt of the heart BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long ÜRÏ CÖSÄ ÜRÏ Ä CÖSTÄË ÜNDÄ The cosmos is opposed to this corrupt and inhuman world TÄË FÜRÏ CÖSTÄË ÜNDÏ ÄË YÜMDÄ YÜMDÄ The anger damages the stars, and the beings suffer ÄYÄ ÜNDÄ ÄYÄ ÜNDÄ ÜRÏ ÜNDÄ ÄYÄ ÜNDÄ Sob unlivable, sob unlivable, trampled cosmos, sanglot invivable ÜNTÖ LÏDÏ YÜM SÄË YÜM DÄË The spirit of man that he was part of a whole, humanity dies YÜM LËFÜ YÜM LÄ YÜM DÄË Mankind be are misplace, mankind of now, mankind dies ÜTÄ LËÏ ÜR TÄË FÜR LÄNDÄ FÜR LÄNDÄË SÜ YÜMÄ The Earth is a living being sensitive to energy, it's a paradise, a paradise lost, fight of beautiful mankind ÜNDÄ LËÄ FÜR SÄ ÜRÏ ÜNDÄ Ü FÜR Ü ÜLI LÄNDÄ SÜDJÏ I tear this mask for issuing the cosmos of hell, and it's you, under the abomination there is an beautiful world of peace Ü FÜ ÜLÏ SÄN LÄNDÄ LÄNDÄTÏ Under the alienation planted in our flesh, there is a imperishable beautiful world Ö LÄË ËLËÏ ÜNDÏ LÜNDÄTÏ Soul, the living suffers because there is monstrous negatives energies CÖ ÜLÏ CÖ Ï ÜNDÏ CÖ ÏLÏ SÖ ÏLÏ SÜDJÏ Enchaine to the depths, enchaine to our suffering, enchaine in this prison, beyond of she there is the peace ÜNDÄ LËÄ SÜ FÜ ÜRÏ Ö YÜM I tear the mask, unnecessary armed conflict in the world, man ÏNTÖ LÏÜM SÄË SÄË Ï ÜNDÄTÏ VÏ TÄË RÏ TÄË SÄË In the light of intuition, each spirit is eternal, Earth of duality, the spirit of the Earth eviscerate SÄN SÄË ÜN RÜN SÄË Ï SÄ ÜDÏ YÜM SÄË ÜNDÄTÏ The flesh crushes the spirit, i break the chains of the spirit, the spirit of mankind is eternal ÜTÄ Ï ÜNDÖRÏ We are amorphous creatures MÄ ÏÜN SÄTÄ ÏÜN LÄNDÄ SÜDJÜTÏ The evil inside, the devil inside, it's an infernal paradise YÜM ÜR TÄË ÜNTÖ ÜRË ÜNDÖ MÏ LÄË ÜNDÄTÏ Man of the earth, everything is reborn obviously, our spirits are eternals LÄNDÄ Paradise MÏ ËÜRT My heart MÏ SÄË My spirit MÏ TÄË My Earth CRÏ ÜNDÄTÏ Constantly crying FÜR YÜM For mankind FÜR ÄMÄ For love FÜR LÏNÏ For the tree of life VÖÏCÏS MÏ LÄË This is my life soul</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Discographie - Maes Album Studio - 20181130 Maes - Pure - 20200117 Maes - Les Derniers Salopards - 20211126 Maes - Réelle vie 3.0 Mixtape - 20170110 Maes - Réelle vie - 20180302 Maes - Réelle vie 2.0 Single - 20120108 Maestro - Solo masacreur - 20140708 Maestro - Ceux qui mènent la danse - 20141122 Maes - Zemel - 20150107 Maes - Off - 20150916 Maes - Sacré colis - 20151012 Maes - Si tu savais - 20151109 Maes - Tu connais - 20151218 Maes - La stup - 20160205 Maes - FQSB - 20160330 Maes - LibérezMaes - 20160514 Maes - 42 by Night - 20171018 Maes - Libérabl - 20171117 Maes - Dans le tiek's - 20171208 Mas - T-max 530 - 20171225 Maes - RS6 - 20180130 Maes - Booska Professeur - 20180223 Maes - Réelle vie 2.0 Freestyle Rapelite - 20180301 Maes - Sur moi - 20180319 Maes - Freestyle FMRS - 20180321 Maes - Freestyle OKLM - 20180405 Maes - Sale histoire - 20180406 Maes - Tokarêve - 20180502 Maes - Switch Up - 20180727 Maes - Billets verts - 20180927 Maes - Pack M - 20181012 Maes - Avenue Montaigne - 20181026 Maes - Madrina - 20181116 Maes - Booska Pure - 20181210 Maes - Pure Freestyle Rapelite - 20190123 Maes - Mama - 20190207 Maes - Gorille - 20190318 Maes - Platine - 20190426 Maes - NWR - 20191031 Maes - Street - 20191010 Maes - Freestyle Sale Époque - 20191213 Maes - Liquide rouge - 20191220 Maes - Distant - 20200103 Maes - Booska C - 20200305 Maes - Blanche - 20200423 Maes - Dragovic - 20200623 Maes - Dybala - 20200717 Maes - Prioritaire - 20210405 Maes - Elle - 20211124 Maes - T-max 560 - 20211126 Maes - 10 Janvier - 20211222 Maes - Kalenji - 20220121 Maes - Faux amis - 20221109 Maes - Fetty Wap - 20230106 Maes - Galactic You might also likeFeaturing - 20150320 Dixane - Machiavélique - 20180418 DA Uzi - Nounou - 20190301 Dabs - Tes rêves - 20190308 Benab - Rude - 20190419 Koba LaD - Matin - 20190628 Dosseh - L'odeur du charbon - 20190913 PLK - Cartelo - 20191011 Niro - Stupéfiant - 20191011 Vald - ASB - 20191108 Goulag - Mentalité 93 - 20200221 Dosseh - L'odeur du charbon Remix - 20200221 DA Uzi - Le dire - 20200228 Naps - Pourcent - 20200228 Timal - Ailleurs - 20200306 Kaza - Béni - 20200529 Bolémvn - 10K - 20200612 Benab - Sourire - 20200626 RK - Euros - 20201016 Lacrim - Boston George - 20201016 Timal - Ailleurs Oliver Ryon Remix - 20201022 Koba LaD - Coffre plein - 20201127 13 Block - Riina Toto - 20210219 Benab - Andale - 20210305 Booba - VVV - 20210430 Kaza - N26 - 20210514 Bramsito - MPLT - 20210702 RK - Petit cur - 20210709 Bolémvn - Dis pas mon nom - 20210805 Hornet La Frappe - Maison d'arrêt - 20210917 Leto - Derrière nos tours - 20211029 Larry - Colis - 20211029 Benab - Faya - 20211105 Niska - Blue Magic - 20211110 Ziak - Rhum machette - 20211112 Pico - Symphonie - 20211210 SDM - Passat - 20220610 Soso Maness - Parapluie - 20220705 Booba - Pablo Remix - 20220918 Sotof - R1T - 20220923 Werenoi - Selfie - 20230120 Fresh LaDouille - Bénéfice Discographie complémentaire - Discographie - MSR</t>
+          <t>Discographie - Maes Album Studio - 20181130 Maes - Pure - 20200117 Maes - Les Derniers Salopards - 20211126 Maes - Réelle vie 3.0 Mixtape - 20170110 Maes - Réelle vie - 20180302 Maes - Réelle vie 2.0 Single - 20120108 Maestro - Solo masacreur - 20140708 Maestro - Ceux qui mènent la danse - 20141122 Maes - Zemel - 20150107 Maes - Off - 20150916 Maes - Sacré colis - 20151012 Maes - Si tu savais - 20151109 Maes - Tu connais - 20151218 Maes - La stup - 20160205 Maes - FQSB - 20160330 Maes - LibérezMaes - 20160514 Maes - 42 by Night - 20171018 Maes - Libérabl - 20171117 Maes - Dans le tiek's - 20171208 Mas - T-max 530 - 20171225 Maes - RS6 - 20180130 Maes - Booska Professeur - 20180223 Maes - Réelle vie 2.0 Freestyle Rapelite - 20180301 Maes - Sur moi - 20180319 Maes - Freestyle FMRS - 20180321 Maes - Freestyle OKLM - 20180405 Maes - Sale histoire - 20180406 Maes - Tokarêve - 20180502 Maes - Switch Up - 20180727 Maes - Billets verts - 20180927 Maes - Pack M - 20181012 Maes - Avenue Montaigne - 20181026 Maes - Madrina - 20181116 Maes - Booska Pure - 20181210 Maes - Pure Freestyle Rapelite - 20190123 Maes - Mama - 20190207 Maes - Gorille - 20190318 Maes - Platine - 20190426 Maes - NWR - 20191031 Maes - Street - 20191010 Maes - Freestyle Sale Époque - 20191213 Maes - Liquide rouge - 20191220 Maes - Distant - 20200103 Maes - Booska C - 20200305 Maes - Blanche - 20200423 Maes - Dragovic - 20200623 Maes - Dybala - 20200717 Maes - Prioritaire - 20210405 Maes - Elle - 20211124 Maes - T-max 560 - 20211126 Maes - 10 Janvier - 20211222 Maes - Kalenji - 20220121 Maes - Faux amis - 20221109 Maes - Fetty Wap - 20230106 Maes - Galactic Featuring - 20150320 Dixane - Machiavélique - 20180418 DA Uzi - Nounou - 20190301 Dabs - Tes rêves - 20190308 Benab - Rude - 20190419 Koba LaD - Matin - 20190628 Dosseh - L'odeur du charbon - 20190913 PLK - Cartelo - 20191011 Niro - Stupéfiant - 20191011 Vald - ASB - 20191108 Goulag - Mentalité 93 - 20200221 Dosseh - L'odeur du charbon Remix - 20200221 DA Uzi - Le dire - 20200228 Naps - Pourcent - 20200228 Timal - Ailleurs - 20200306 Kaza - Béni - 20200529 Bolémvn - 10K - 20200612 Benab - Sourire - 20200626 RK - Euros - 20201016 Lacrim - Boston George - 20201016 Timal - Ailleurs Oliver Ryon Remix - 20201022 Koba LaD - Coffre plein - 20201127 13 Block - Riina Toto - 20210219 Benab - Andale - 20210305 Booba - VVV - 20210430 Kaza - N26 - 20210514 Bramsito - MPLT - 20210702 RK - Petit cur - 20210709 Bolémvn - Dis pas mon nom - 20210805 Hornet La Frappe - Maison d'arrêt - 20210917 Leto - Derrière nos tours - 20211029 Larry - Colis - 20211029 Benab - Faya - 20211105 Niska - Blue Magic - 20211110 Ziak - Rhum machette - 20211112 Pico - Symphonie - 20211210 SDM - Passat - 20220610 Soso Maness - Parapluie - 20220705 Booba - Pablo Remix - 20220918 Sotof - R1T - 20220923 Werenoi - Selfie - 20230120 Fresh LaDouille - Bénéfice Discographie complémentaire - Discographie - MSR</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Atalarm Tuareg, baladm do-rag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh Cahile söylemem bi' ey No Hepsiyle sohbeti kesmemi istedi Veysel, Çal, dedim, DJ Çal Bu ak satmyo' eBay Oh, my nigga Mahallede yeni adm CJ Ey Gitgide benziyo'z iyice Flex Planl vukuat zekice Tertemiz kudurduk ite Hrr Bix gecede bi' gölge, African ninja Kabile çocuuyum, Libya Sah Kariyerimi ediyo'm inaa nallah Sam solum Alicia, Keisha Luis V' Semtimi sanrsn Crenshaw Suu, whoop Görevimi etmiim ifa Ha Bizde kelimenin arkas icraat Ha Daha nas' edebilirim izah? Bütün semt bizim, deil ev kira Çaltm yllarca, dönütüm silaha Gidiyo'm ortamdan, oluyo' killa Dönersem annda oluruz viral Yepyeni botlarm iki bin dinar Basarm lavuun üstüne bi' daha Bismillah, bizi edemezler istila Bad decision You might also like Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh deolojim çok sakat Yeah Just like Moustapha Akkad That's me Çkyoruz binay kat kat Kat kat Klca'm tepede iki rakad Bi' gün Michael Myers gibi kasap Kasap Bugün Hamza vibe'm da tamam Elhamdülillah Opp'lara veremem aman Nah Tükeniyo', kalmad zaman Sürtük, bitmiyo' draman Aalk hayatn ucuz bi' roman Syrdm klcm knndan Conan Naslsa kalmad arayan, soran Ah Sevdiklerim cennette ulan O.G. Arama dünyada, görmedim bulan O.G. Gün gelir, yavatan yükselir sular Yanl rota nigga, yank pusula Çetem Plus my baby, looks like Aaliyah Taktm peime bi' tarikat Her ey sürdü birkaç dakika Baktm, yol da zaten patika Herkes ahit, hepsi hakikat On God Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh</t>
+          <t>Atalarm Tuareg, baladm do-rag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh Cahile söylemem bi' ey No Hepsiyle sohbeti kesmemi istedi Veysel, Çal, dedim, DJ Çal Bu ak satmyo' eBay Oh, my nigga Mahallede yeni adm CJ Ey Gitgide benziyo'z iyice Flex Planl vukuat zekice Tertemiz kudurduk ite Hrr Bix gecede bi' gölge, African ninja Kabile çocuuyum, Libya Sah Kariyerimi ediyo'm inaa nallah Sam solum Alicia, Keisha Luis V' Semtimi sanrsn Crenshaw Suu, whoop Görevimi etmiim ifa Ha Bizde kelimenin arkas icraat Ha Daha nas' edebilirim izah? Bütün semt bizim, deil ev kira Çaltm yllarca, dönütüm silaha Gidiyo'm ortamdan, oluyo' killa Dönersem annda oluruz viral Yepyeni botlarm iki bin dinar Basarm lavuun üstüne bi' daha Bismillah, bizi edemezler istila Bad decision Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh deolojim çok sakat Yeah Just like Moustapha Akkad That's me Çkyoruz binay kat kat Kat kat Klca'm tepede iki rakad Bi' gün Michael Myers gibi kasap Kasap Bugün Hamza vibe'm da tamam Elhamdülillah Opp'lara veremem aman Nah Tükeniyo', kalmad zaman Sürtük, bitmiyo' draman Aalk hayatn ucuz bi' roman Syrdm klcm knndan Conan Naslsa kalmad arayan, soran Ah Sevdiklerim cennette ulan O.G. Arama dünyada, görmedim bulan O.G. Gün gelir, yavatan yükselir sular Yanl rota nigga, yank pusula Çetem Plus my baby, looks like Aaliyah Taktm peime bi' tarikat Her ey sürdü birkaç dakika Baktm, yol da zaten patika Herkes ahit, hepsi hakikat On God Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Alo brat' dospi mi jo jednu rakiju Slabije da radi me na mafiju Sabijemo topa ili paliju Vie lii na oklagiju Huu Prirodu izdahnem Pukne me fle iz detinjstva Lupanje o erpe i pitaljke Rat, sankcije, kriza Al' ovaj bit je veseo-od toga nita Danas je dan kada ide mi sve Boje Majamija uz zvuk ovog bita Bita Ko da je GrandMaster Flash Imam svoj trip i to je dobro Ne idemo kontra, plovimo sa flow-om Imamo ene najlepe, bogu hvala Vidi da kuliramo sada, nemoj da me smara Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac You might also like Ugh Ponekad kao da je dungla Nekad kao da je svuda urka Malo smo umorni za hajp Al' danas je neki drugi dan Sve mi je lepo, ak mirie grad, zato Samo u ti rei-don't kill my vibe-bitch! Vidi da uivam u radu Gledam okolo, vidi da uivam u gradu Ugh Vidi da uivam u danu Sutra e problemi da me zgranu Zato nemoj da ponavljam dvaput Nego se opusti i odmori glavu Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Jer dobar je bio dananji dan Jeaa Opet sam preiveo, naravno, jer sam furao gun Aha Jer ovo ispaljivam, kao loptu Thomson Clay And all I'm gonna say is Damn right, it was a good day Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac</t>
+          <t>Alo brat' dospi mi jo jednu rakiju Slabije da radi me na mafiju Sabijemo topa ili paliju Vie lii na oklagiju Huu Prirodu izdahnem Pukne me fle iz detinjstva Lupanje o erpe i pitaljke Rat, sankcije, kriza Al' ovaj bit je veseo-od toga nita Danas je dan kada ide mi sve Boje Majamija uz zvuk ovog bita Bita Ko da je GrandMaster Flash Imam svoj trip i to je dobro Ne idemo kontra, plovimo sa flow-om Imamo ene najlepe, bogu hvala Vidi da kuliramo sada, nemoj da me smara Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Ugh Ponekad kao da je dungla Nekad kao da je svuda urka Malo smo umorni za hajp Al' danas je neki drugi dan Sve mi je lepo, ak mirie grad, zato Samo u ti rei-don't kill my vibe-bitch! Vidi da uivam u radu Gledam okolo, vidi da uivam u gradu Ugh Vidi da uivam u danu Sutra e problemi da me zgranu Zato nemoj da ponavljam dvaput Nego se opusti i odmori glavu Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Jer dobar je bio dananji dan Jeaa Opet sam preiveo, naravno, jer sam furao gun Aha Jer ovo ispaljivam, kao loptu Thomson Clay And all I'm gonna say is Damn right, it was a good day Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Sadece siktiimin bunalmndaym Bu çöküten çkyor gibi görünmüyorum Bu tepeyi aabilsem de Bu çöplükten beni çekebilecek bir eye ihtiyacm var Yaralarm aldm, darbelerimi aldm Dütüm ve hemen toparlandm Ama psikolojimi toplamak için bu kvlcma ihtiyacm vard Benim mikrofonu geri almam için Bilmiyorum nasl, neden ya da ne zaman Bulunduum yere geldiimi lgisiz hissetmeye balyorum Bu yüzden kalemi elime almaya karar verdim Ve da vurmay denedim Ama kabullenemiyorum Ya da Rap ile iimin bitmi olabilecei gerçeinin üstesinden gelemiyorum Yeni bir yola ihtiyacm var Biliyorum baz eyleri kabullenmek zor Ama sadece arkama yaslanp debelenemem Kendi kederimin içinde, ama bir gerçek biliyorum Devam ettirilmesi zor bir hareket olacam Devam ettirilmesi zor bir hareket, devam ettirilmesi zor bir hareket olacam Bugün burada, yarn gidecek Ama bin mil yürümelisin You might also like Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Sanrm mizah anlaym kaybetmeye balyorum Her ey çok gergin ve kasvetli Neredeyse scakln kontrol etmek zorunda hissediyorum Odann, hemen Odaya girdiim gibi, tüm gözler bende gibi Bundan herhangi bir göz temasndan kaçnmaya çalyorum Çünkü eer yaparsam sonradan kaps açlyor Konumann tam da istediim gibi! Ekstra ilgi aramyorum, sizin gibi olmak Odann kalanyla karp Belki de en yakn tuvalete götürmesini istiyorum u siktiim erkek uaa ihtiyacm yok Beni takip etmeye ve kçm toplamaya çalp Patlattm her bir akaya gülüp Yars komik bile olmasa da Hah! Marshall çok komiksin adamm Sen bir komedyen olmalsn, kahretsin! Maalesef öyleyim Sadece bir palyaçonun gözyalarnn arkasna saklanyorum Yani neden hepiniz oturmuyorsunuz? Anlatmak üzere olduum hikayeyi dinleyin Lanet, ayakkablar deitirmek zorunda deiliz Ve bin mil yürümek zorunda deilsin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Kimse hayatn bize Bu saçma kartlar vermesini istemedi Kartlar kendimiz alp Yardm beklemeden açmak zorundayz imdi kçmn üstüne oturarak sarho olup inleye de bilirim Ya da içine koyulduum olay anlayarak Ayaa kalkp kendiminkini alabilirim Hiç kapnn yannda bekleyip çantasn toplayan Verandaya oturup asla görünmeyen babasn görünmesi için Umut edip dua eden bir çocuk olmadm Sadece bulunduum her yere uymak istedim, her gittiim okula O haval çocuk olmay hayal ettim Bu aptal davranmak anlamna gelse bile Edna Teyze bana hep derdi Bu surat yapadur, öyle kalacak Bu srada urada oturup Dilimi tutarak böyle konumay denerdim Ta ki 8 yamda donmu DUR levhasnn direine dilimi sktrana dek Sonra dersimi aldm Çünkü artk arkadalarm etkilemeye çalmyordum Ama zaten sana tüm hayat hikayemi anlattm Sadece benim açklamama dayal deil Çünkü oturduun yerden görünen Muhtemelen 110 farkl Sanrm birbirimizin ayakkablarnda en azndan bir mil yürümeliyiz Kaç numara giyiyorsun? Ben 10'larda giyiyorum Bakalm ayan sdrabilecek misin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Bebeklerime, güçlü kaln Baba yaknda evde olacak Ve dünyann geri kalan Tanr size sdnz ayakkaby verdi Onlar aln ve giyin. Kendiniz olun adamm Kim olduunuzla gururlann, klie olsa bile Kimsenin size güzel olmadnz söylemesine izin vermeyin1</t>
+          <t>Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Sadece siktiimin bunalmndaym Bu çöküten çkyor gibi görünmüyorum Bu tepeyi aabilsem de Bu çöplükten beni çekebilecek bir eye ihtiyacm var Yaralarm aldm, darbelerimi aldm Dütüm ve hemen toparlandm Ama psikolojimi toplamak için bu kvlcma ihtiyacm vard Benim mikrofonu geri almam için Bilmiyorum nasl, neden ya da ne zaman Bulunduum yere geldiimi lgisiz hissetmeye balyorum Bu yüzden kalemi elime almaya karar verdim Ve da vurmay denedim Ama kabullenemiyorum Ya da Rap ile iimin bitmi olabilecei gerçeinin üstesinden gelemiyorum Yeni bir yola ihtiyacm var Biliyorum baz eyleri kabullenmek zor Ama sadece arkama yaslanp debelenemem Kendi kederimin içinde, ama bir gerçek biliyorum Devam ettirilmesi zor bir hareket olacam Devam ettirilmesi zor bir hareket, devam ettirilmesi zor bir hareket olacam Bugün burada, yarn gidecek Ama bin mil yürümelisin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Sanrm mizah anlaym kaybetmeye balyorum Her ey çok gergin ve kasvetli Neredeyse scakln kontrol etmek zorunda hissediyorum Odann, hemen Odaya girdiim gibi, tüm gözler bende gibi Bundan herhangi bir göz temasndan kaçnmaya çalyorum Çünkü eer yaparsam sonradan kaps açlyor Konumann tam da istediim gibi! Ekstra ilgi aramyorum, sizin gibi olmak Odann kalanyla karp Belki de en yakn tuvalete götürmesini istiyorum u siktiim erkek uaa ihtiyacm yok Beni takip etmeye ve kçm toplamaya çalp Patlattm her bir akaya gülüp Yars komik bile olmasa da Hah! Marshall çok komiksin adamm Sen bir komedyen olmalsn, kahretsin! Maalesef öyleyim Sadece bir palyaçonun gözyalarnn arkasna saklanyorum Yani neden hepiniz oturmuyorsunuz? Anlatmak üzere olduum hikayeyi dinleyin Lanet, ayakkablar deitirmek zorunda deiliz Ve bin mil yürümek zorunda deilsin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Kimse hayatn bize Bu saçma kartlar vermesini istemedi Kartlar kendimiz alp Yardm beklemeden açmak zorundayz imdi kçmn üstüne oturarak sarho olup inleye de bilirim Ya da içine koyulduum olay anlayarak Ayaa kalkp kendiminkini alabilirim Hiç kapnn yannda bekleyip çantasn toplayan Verandaya oturup asla görünmeyen babasn görünmesi için Umut edip dua eden bir çocuk olmadm Sadece bulunduum her yere uymak istedim, her gittiim okula O haval çocuk olmay hayal ettim Bu aptal davranmak anlamna gelse bile Edna Teyze bana hep derdi Bu surat yapadur, öyle kalacak Bu srada urada oturup Dilimi tutarak böyle konumay denerdim Ta ki 8 yamda donmu DUR levhasnn direine dilimi sktrana dek Sonra dersimi aldm Çünkü artk arkadalarm etkilemeye çalmyordum Ama zaten sana tüm hayat hikayemi anlattm Sadece benim açklamama dayal deil Çünkü oturduun yerden görünen Muhtemelen 110 farkl Sanrm birbirimizin ayakkablarnda en azndan bir mil yürümeliyiz Kaç numara giyiyorsun? Ben 10'larda giyiyorum Bakalm ayan sdrabilecek misin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Bebeklerime, güçlü kaln Baba yaknda evde olacak Ve dünyann geri kalan Tanr size sdnz ayakkaby verdi Onlar aln ve giyin. Kendiniz olun adamm Kim olduunuzla gururlann, klie olsa bile Kimsenin size güzel olmadnz söylemesine izin vermeyin1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sava korkak izleyen bi' kargasn sen Ve maddiyatç kayglara bir çözümse Rap hitaben Damaklarmda donuk odada kalmsa geceden Bil ki yanndayd muz kokulu rapper nebyA Sanki rap'te on ya alt beyinlerdesin Kiminlesin bu yolda, söyle kimle dalaa girersin? Kes sesini, kulakta Disstortion'un nedeni Ve sözlerinin bedeli, bu Kuvvetmira daimi Galibi belli bu düellonun Diss çöplüünde pislik istiyorsan Mozo kâbusun Sonun sahte plaka, konun ki uyduruksa kefet Bil ki rolün yalnzca reklam panolarnda Kafanda çok çeitli fitneler, fesatlk adamn kanna iler Zevzekler keke kekeler, bu bahçelerde taklit sözler, ineler Kuvvetmira, harp okulundan çkt en baba rap'ler Yaptn ey sanat m, azna lolipopu alarak, para kazanmak uruna? Ceyhun'un kucanda gördüm seni kendi ovunda Ya Metaforlarnn anaforunda kaçak elektrik kullandn Hzl konucam, Diss'ci olcam. derken ne di'ce'ni ardn Alkolikle Ne oldu? Özür dilemeye altn, kandn Basit sözlere kaçtn Filozofiye el attn Anlamn bilmeden metafizikten bahis açtn Onun bunun hareketlerini çalp sahnede tiyatro yaptn Hepsini geçtim, sen yanl insanlara bok attn Yazamadn rhyme'lar dinlemek arna m gitti lan? Bitch Techno trance bir müzik türü, kimdi burcu burcu Rap yapan? Pardon sen deil miydin askerdeki arkadan satan? Her verdii röportajda kralm diye götü klç kalkan Açk seçik ol biraz, çarptma kelimelerini Keke Küfür suratna pek yakmad, ah bitirdin kendini Sen Kolera, Sago, Sitem, Mozo, Raffine krd kalemini Cart Kuvvetmira karargâhnda gerçekletiririm eylemimi You might also like Yaplan eylem çok komikti, güldük geçtik hâline Ha Gel de konuk ol bahçeme, beat verece'm sahtene Ay-ben mi rapçi oldum? Bilmem Pardon abi Rap'ini öncelerden Fu-Schnickens, duydum sanki Sahi, taklit ettin, sen de buralara geldin Kzm Diss'lerin basit kaçard, her seferde söyledim Ben Gözledim yalanlar, sahtekâr yarnlara Lolipop yalamak senin iin, altk artk bunlara Biz Namelerdi inleyen kafanda Güm Ba ucunda nefretin kaçakt, duygularsa çok krkt Ya Güçlü gördün kendini Sen Lakin çok bitiktin Sen Roka vermi beat'ini, hadi ya? Çok komiksin Sen Kayglar yazld kaç kere, içimde sakl nefretim Beslemek kolayd, gözümde söndü deerin Fos Özverimle yazdm her bi' cümlemi, çok kolayd Gücümü ondan aldm Kuvvet'im Mira'yd Denge sala düme, uçurum öldürür Ve kelle koydu yoluna eytan, ban döndürür Ve saf niyetli sömürülür Ve Vesvas Hannas, mumunu söndürür Çakallarn da gözü de kördür Çok ekerli Rap'lerinde di çürür Ne olacak yarnn sminin bir hasmnn Toplamam yerde kalr krntn Seni sen yapana ödedin son kiran Ve ayn hep anlam bo cümlelerin kimin tarz? Senin mi? Halkn talebi arzu üzerine yazdn sözlerinde para m arzun? Cevap ver Bo geri vokalin dahto kara, yklr yedi katl binan Nedir bu sendeki hnç Hnç Bo sal yine tek nefesle sç Sç Ya da kr kçn, kaldran zaman am Sç Gerçekleri beynine sok da art kaln kafan Patlat Kimlerin eline dümü, can çekimekte iyi-kötü kavram Hayat Ve yaptn iin anlam kalmad, ettiim en ar küfürler yüzüne sakl Kan bozuk, seni kurbaa suratl Kuak-uak Çeliki satt Sat, Bar diyen yayvan azn yrtmal Cart Bir Çapanolu sen mi çktn memlekette At suratl Bu aalk duygusuna nasl alabildin Nasl Bu kaarlk olgusunu bünyende nasl tayabildin Ha Bence sen rap'ine, al da elektrik kablosunu bala Tak fii Ala, buras Kuvvetmira, cebinde krk ayna Dikkat ele batmasn Sen misali u anda, sen misali alamal, sen u anda Ha Kin güder, çomak biler ben bu anda Yeah Bi' yerini mi kestin acaba? Mis gibi hyar koktu da Sahnede sözleri unuttun, adasz bacaklarnla Ay Salaa yatma lan, götürecektin Tuçe'yi, olmasayd ot kokan Ah, ne fark eder ki çald zaten seni bir hanmdan Lütfen srar etme artk, öretemem sana rap'i Of Çekitirme kolumdan, aln lan sunu bamdan Yeter Nursuz anmasn veliyi çinde fitne olan garip, buras srr- imtihan, tek hükümran Bilgin'in cahil kardei, ksaca Miss Kompleks Ha Gerçekten sen eskidendin, kul gözünde oldun ex Ha Salla kafana baltay, oyna evinde Golden Axe Hh Ekle süte olur hemen kalorisiz bir Corn Flakes Sen benim mymy rap'ime kes de kafan kurban et Rap senin neyine kz, gel de karantinam tavaf et çinde yanar küfrettiin, hak aklar dikkat et Kula zulüm, Rabb'a küfür, sonun adn tövbe et Yedi sene topa tuttuun Kolera, hem de hiç tanmadan Bu ne hiddet, bu ne celal, elimi dahi skmadan? B.P.G. 2004, rahmet diler, uyan lan Kimdi 2005'te para için kemik szlatan? Koyaym senin yazacan lirie, iki adet has kafiye Yüzün kara, için fesat, prim verdim zilline Nenen örnek versin yandan ipi sarkan takkene Cehennem olsun her iki cihan, küfür ettin Rabb'ime Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Eilimi, eilimi, eilimi Yo! Yo, Sago kastr! Elinden tutmasayd elim, Bosphorus'dan atlayacaktn Köeye çekilip yaktn osuruunun aleviyle yanacaktn Gurbet elde Allah'ma küfredip, ele elini açtn Ne yazk ki bir plak dolumu için kçn sattn Hey Rap'in star kayd, bundan iyi cevap am'da kays rem'in bahçesinde güller açt, çekiç kafana çakt Hayatta bir kez dürüst olun, taktir bilmez insan domuz Nöbetteyken de dinamiti ateler Yunus Özyavuz Yarattn kâbusu, kirlettin mahrem namusu Açtrdn ya kutunu, söylettin u Yunus'u Diss piriyle ak atarsan verilir hicvin kursu Unutma Bilgin dingil Fazla kurcalarsan yklr Sago'nun tabusu Ve Allah iyiliini versin, felek cezan kesmesin Kuvvetmira Kalem Harp Okulu'ndan kovulan ilk emeklisin En çömezimle sahnelerde Keke Flex halindesin Unuttuun tüm sözlerini Tanr sana geri versin Beat banda küfredersin, sonra kankardeim dersin, ne i? En yakn zamanda bir psikoloa görünmelisin Bar deil savala sahnelerdesin, bebeksin Hayatta karma çkan en zavall döneksin Kuvvetmira üzerine yakan giymektir Yakmayan def etmek hobilerimdendir, bu ben demektir Benimle sidik yar yapan ancak kektir Bilirsiniz Sessiz atn çiftesi deve teper ki pektir! Dünya'nn en iyi prodüktörlerinden Mic Check selam eder Geçmiine küfreden tarihi acmaszdr, kolay siler kinci arkn benim için olacaksa kulaa varmadan düer Kalbim eski dosta küser, bu diss bur'da biter</t>
+          <t>Sava korkak izleyen bi' kargasn sen Ve maddiyatç kayglara bir çözümse Rap hitaben Damaklarmda donuk odada kalmsa geceden Bil ki yanndayd muz kokulu rapper nebyA Sanki rap'te on ya alt beyinlerdesin Kiminlesin bu yolda, söyle kimle dalaa girersin? Kes sesini, kulakta Disstortion'un nedeni Ve sözlerinin bedeli, bu Kuvvetmira daimi Galibi belli bu düellonun Diss çöplüünde pislik istiyorsan Mozo kâbusun Sonun sahte plaka, konun ki uyduruksa kefet Bil ki rolün yalnzca reklam panolarnda Kafanda çok çeitli fitneler, fesatlk adamn kanna iler Zevzekler keke kekeler, bu bahçelerde taklit sözler, ineler Kuvvetmira, harp okulundan çkt en baba rap'ler Yaptn ey sanat m, azna lolipopu alarak, para kazanmak uruna? Ceyhun'un kucanda gördüm seni kendi ovunda Ya Metaforlarnn anaforunda kaçak elektrik kullandn Hzl konucam, Diss'ci olcam. derken ne di'ce'ni ardn Alkolikle Ne oldu? Özür dilemeye altn, kandn Basit sözlere kaçtn Filozofiye el attn Anlamn bilmeden metafizikten bahis açtn Onun bunun hareketlerini çalp sahnede tiyatro yaptn Hepsini geçtim, sen yanl insanlara bok attn Yazamadn rhyme'lar dinlemek arna m gitti lan? Bitch Techno trance bir müzik türü, kimdi burcu burcu Rap yapan? Pardon sen deil miydin askerdeki arkadan satan? Her verdii röportajda kralm diye götü klç kalkan Açk seçik ol biraz, çarptma kelimelerini Keke Küfür suratna pek yakmad, ah bitirdin kendini Sen Kolera, Sago, Sitem, Mozo, Raffine krd kalemini Cart Kuvvetmira karargâhnda gerçekletiririm eylemimi Yaplan eylem çok komikti, güldük geçtik hâline Ha Gel de konuk ol bahçeme, beat verece'm sahtene Ay-ben mi rapçi oldum? Bilmem Pardon abi Rap'ini öncelerden Fu-Schnickens, duydum sanki Sahi, taklit ettin, sen de buralara geldin Kzm Diss'lerin basit kaçard, her seferde söyledim Ben Gözledim yalanlar, sahtekâr yarnlara Lolipop yalamak senin iin, altk artk bunlara Biz Namelerdi inleyen kafanda Güm Ba ucunda nefretin kaçakt, duygularsa çok krkt Ya Güçlü gördün kendini Sen Lakin çok bitiktin Sen Roka vermi beat'ini, hadi ya? Çok komiksin Sen Kayglar yazld kaç kere, içimde sakl nefretim Beslemek kolayd, gözümde söndü deerin Fos Özverimle yazdm her bi' cümlemi, çok kolayd Gücümü ondan aldm Kuvvet'im Mira'yd Denge sala düme, uçurum öldürür Ve kelle koydu yoluna eytan, ban döndürür Ve saf niyetli sömürülür Ve Vesvas Hannas, mumunu söndürür Çakallarn da gözü de kördür Çok ekerli Rap'lerinde di çürür Ne olacak yarnn sminin bir hasmnn Toplamam yerde kalr krntn Seni sen yapana ödedin son kiran Ve ayn hep anlam bo cümlelerin kimin tarz? Senin mi? Halkn talebi arzu üzerine yazdn sözlerinde para m arzun? Cevap ver Bo geri vokalin dahto kara, yklr yedi katl binan Nedir bu sendeki hnç Hnç Bo sal yine tek nefesle sç Sç Ya da kr kçn, kaldran zaman am Sç Gerçekleri beynine sok da art kaln kafan Patlat Kimlerin eline dümü, can çekimekte iyi-kötü kavram Hayat Ve yaptn iin anlam kalmad, ettiim en ar küfürler yüzüne sakl Kan bozuk, seni kurbaa suratl Kuak-uak Çeliki satt Sat, Bar diyen yayvan azn yrtmal Cart Bir Çapanolu sen mi çktn memlekette At suratl Bu aalk duygusuna nasl alabildin Nasl Bu kaarlk olgusunu bünyende nasl tayabildin Ha Bence sen rap'ine, al da elektrik kablosunu bala Tak fii Ala, buras Kuvvetmira, cebinde krk ayna Dikkat ele batmasn Sen misali u anda, sen misali alamal, sen u anda Ha Kin güder, çomak biler ben bu anda Yeah Bi' yerini mi kestin acaba? Mis gibi hyar koktu da Sahnede sözleri unuttun, adasz bacaklarnla Ay Salaa yatma lan, götürecektin Tuçe'yi, olmasayd ot kokan Ah, ne fark eder ki çald zaten seni bir hanmdan Lütfen srar etme artk, öretemem sana rap'i Of Çekitirme kolumdan, aln lan sunu bamdan Yeter Nursuz anmasn veliyi çinde fitne olan garip, buras srr- imtihan, tek hükümran Bilgin'in cahil kardei, ksaca Miss Kompleks Ha Gerçekten sen eskidendin, kul gözünde oldun ex Ha Salla kafana baltay, oyna evinde Golden Axe Hh Ekle süte olur hemen kalorisiz bir Corn Flakes Sen benim mymy rap'ime kes de kafan kurban et Rap senin neyine kz, gel de karantinam tavaf et çinde yanar küfrettiin, hak aklar dikkat et Kula zulüm, Rabb'a küfür, sonun adn tövbe et Yedi sene topa tuttuun Kolera, hem de hiç tanmadan Bu ne hiddet, bu ne celal, elimi dahi skmadan? B.P.G. 2004, rahmet diler, uyan lan Kimdi 2005'te para için kemik szlatan? Koyaym senin yazacan lirie, iki adet has kafiye Yüzün kara, için fesat, prim verdim zilline Nenen örnek versin yandan ipi sarkan takkene Cehennem olsun her iki cihan, küfür ettin Rabb'ime Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Eilimi, eilimi, eilimi Yo! Yo, Sago kastr! Elinden tutmasayd elim, Bosphorus'dan atlayacaktn Köeye çekilip yaktn osuruunun aleviyle yanacaktn Gurbet elde Allah'ma küfredip, ele elini açtn Ne yazk ki bir plak dolumu için kçn sattn Hey Rap'in star kayd, bundan iyi cevap am'da kays rem'in bahçesinde güller açt, çekiç kafana çakt Hayatta bir kez dürüst olun, taktir bilmez insan domuz Nöbetteyken de dinamiti ateler Yunus Özyavuz Yarattn kâbusu, kirlettin mahrem namusu Açtrdn ya kutunu, söylettin u Yunus'u Diss piriyle ak atarsan verilir hicvin kursu Unutma Bilgin dingil Fazla kurcalarsan yklr Sago'nun tabusu Ve Allah iyiliini versin, felek cezan kesmesin Kuvvetmira Kalem Harp Okulu'ndan kovulan ilk emeklisin En çömezimle sahnelerde Keke Flex halindesin Unuttuun tüm sözlerini Tanr sana geri versin Beat banda küfredersin, sonra kankardeim dersin, ne i? En yakn zamanda bir psikoloa görünmelisin Bar deil savala sahnelerdesin, bebeksin Hayatta karma çkan en zavall döneksin Kuvvetmira üzerine yakan giymektir Yakmayan def etmek hobilerimdendir, bu ben demektir Benimle sidik yar yapan ancak kektir Bilirsiniz Sessiz atn çiftesi deve teper ki pektir! Dünya'nn en iyi prodüktörlerinden Mic Check selam eder Geçmiine küfreden tarihi acmaszdr, kolay siler kinci arkn benim için olacaksa kulaa varmadan düer Kalbim eski dosta küser, bu diss bur'da biter</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mesnetsiz mi bu yaklam? yo Bana ykc felaket yaklar Buna hazr olamam ben, yazk olamaz yine ters gider iler, bir anda karr Her eyden geçtim geçtim, sana ait olan bir kalp var elimde Bu sonum olamaz, buna hazr olamam ay tutulmaz ki günein yerine Tutulur dilim kalmaz hiç kelime Cebimde bozukluklar bana bozulur derecede kzgn kzgn Öfkeli ve de krgn lham tersleyip kalemimi krdm krdm Admma göre adam aradm Denize düene göre menzili taradm Hadi gir kabuuna, seni yllarca tadm Dü yakamdan da rahatma bakaym nan ki yo olsaydn, ben bn yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göl maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma You might also likeZorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Laf gediine koyup ilerledim Bak, lam cimi yok bunun biter dedim bitti Kap dar itekledim gitti, yap ta bile gerekmedi Yarndan tezi yok ''söver.'' dedim ben Yerine seven biri gelir dedim yo Ku olup uçarken dileklerim piman olup da hiç üzülmedim Konuur dilim susmamak için Snrn koru nefreti kusmamak için hey Zor olan yapp yine uratn kalbna göre bir adam olmamak için olamadn Oluruna brak olmas için Say yerinde zamann dolmas için ''Ölmek var dönmek yok mu?'' demeli ok yayndan tez çkmas için nan ki olsaydn, ben ben yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz</t>
+          <t>Mesnetsiz mi bu yaklam? yo Bana ykc felaket yaklar Buna hazr olamam ben, yazk olamaz yine ters gider iler, bir anda karr Her eyden geçtim geçtim, sana ait olan bir kalp var elimde Bu sonum olamaz, buna hazr olamam ay tutulmaz ki günein yerine Tutulur dilim kalmaz hiç kelime Cebimde bozukluklar bana bozulur derecede kzgn kzgn Öfkeli ve de krgn lham tersleyip kalemimi krdm krdm Admma göre adam aradm Denize düene göre menzili taradm Hadi gir kabuuna, seni yllarca tadm Dü yakamdan da rahatma bakaym nan ki yo olsaydn, ben bn yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göl maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Laf gediine koyup ilerledim Bak, lam cimi yok bunun biter dedim bitti Kap dar itekledim gitti, yap ta bile gerekmedi Yarndan tezi yok ''söver.'' dedim ben Yerine seven biri gelir dedim yo Ku olup uçarken dileklerim piman olup da hiç üzülmedim Konuur dilim susmamak için Snrn koru nefreti kusmamak için hey Zor olan yapp yine uratn kalbna göre bir adam olmamak için olamadn Oluruna brak olmas için Say yerinde zamann dolmas için ''Ölmek var dönmek yok mu?'' demeli ok yayndan tez çkmas için nan ki olsaydn, ben ben yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hyata glmiik, sevk, sevilk Sevinci yaadaq, qmi itirk Sevgi bdidir, bilinmir ya Yasn ömrümüz sevgi ya Ömür bir nmdir, dünya tamaa Dymsin sevgimiz, dymsin daa Göylr l açb, sevgi dilyk Gülsün üzümüz hr arzu, dilk Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Eqin nsindn dadaq doyunca Ona könül verk illr boyunca Ürklr birls, alm nurlanar Mhbbtdn gözl hyatda n var? You might also likeKimins ilk eqi dalara dyr Kimins sevgisi dillrd gzr Hr ksin sevgid bir qismti var Leyliy, Mcnuna bnzyin, dostlar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar</t>
+          <t>Hyata glmiik, sevk, sevilk Sevinci yaadaq, qmi itirk Sevgi bdidir, bilinmir ya Yasn ömrümüz sevgi ya Ömür bir nmdir, dünya tamaa Dymsin sevgimiz, dymsin daa Göylr l açb, sevgi dilyk Gülsün üzümüz hr arzu, dilk Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Eqin nsindn dadaq doyunca Ona könül verk illr boyunca Ürklr birls, alm nurlanar Mhbbtdn gözl hyatda n var? Kimins ilk eqi dalara dyr Kimins sevgisi dillrd gzr Hr ksin sevgid bir qismti var Leyliy, Mcnuna bnzyin, dostlar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dardan size ne kadar sessiz, hiç konumuyor derlerken Kafanzdaki seslerden sar olduunuz oldu mu hiç? Her gün kabustan uyanr gibi uyanp Bunun bir kabus deil Hayatnzn kendisi olduunu anladnz m hiç? Kalp ritimlerim yavalyor yavaça Artk beni kurtaracak biri yok Biliyorsun zaten deiim yok Hâlâ aynym, iyileesim yok Kafamdaki düünceleri anlatamam Anlatsam bile anlayamazlar Biliyorum aslnda her eyi ben Açtklar bu yaralar kapanmyor Gözlerimde kayboluyor hayat, bilmeseler de Kendimi attm uçurumlar bir tek ben hissettim gösümde Bçak gibiydi her ayrl, bilmediler ne kadar söyleseler d Binler de gelir, milyonlar da Ama bnim gösterdiim semptomlarda Bir deiiklik olmuyor artk yi gelmeyecek hiç bir ey bana Deitirmiyor hayaller artk, gerçek olsalar bile Bir kalbim vard ve artk yok Onu attm, geçti uzun zaman üstünden Tandm, kurtuldum dedim ama travmalar öyle demiyor bana You might also likentihar mektubu yazdm yeniden, baka bir çarem var m ki? bilemem Kapat beni bir odaya izle Sence içimde hâlâ bir umut var m? Gözlerim kzark her gün, neden? Aslnda hiçbir madde kullanmadm Hep alamaktan bunlar, bilemezsin Yaattklarn unutamamaktan Kafamdakinden kurtulamamaktan ntihar hâlâ benim yanmda Bileimde ne var, söyle bana? Uyumak istiyorum artk geceleri alamadan Yarn umudum olacak m? bunu bile bilmiyorum ben laçlar fayda etmiyor bana Aslnda hiç bir ey iyi gelmiyor anlasana Ölüyorum her gün biraz daha Hissediyorum her saniye daha fazla nsanlar beni anlayamazlar Çünkü ben onlara hiç bir zaman kendimi anlatmayacam Kalbim krk gözümde yalar gidiyorum yavaça buralardan Öldüümde sadece bir kelime çkacak o kanl dudaklarmdan Kaybettim tüm gerçei zihnimle olan bu savamda Tanrm duy sesimi bu sefer bitirebilirim her eyi Tanrm duy sesimi delirmek üzereyim yemin ederim ki Duy sesimi, duy sesimi, duy sesimi Peki siz hayattaki tek umudunuzu Sizi kurtaracak olana Srtnz dönüp gitmek zorunda kaldnz m hiç? Ksaca doktor siz hiç kendi kendinizin cehennemi oldunuz mu?</t>
+          <t>Dardan size ne kadar sessiz, hiç konumuyor derlerken Kafanzdaki seslerden sar olduunuz oldu mu hiç? Her gün kabustan uyanr gibi uyanp Bunun bir kabus deil Hayatnzn kendisi olduunu anladnz m hiç? Kalp ritimlerim yavalyor yavaça Artk beni kurtaracak biri yok Biliyorsun zaten deiim yok Hâlâ aynym, iyileesim yok Kafamdaki düünceleri anlatamam Anlatsam bile anlayamazlar Biliyorum aslnda her eyi ben Açtklar bu yaralar kapanmyor Gözlerimde kayboluyor hayat, bilmeseler de Kendimi attm uçurumlar bir tek ben hissettim gösümde Bçak gibiydi her ayrl, bilmediler ne kadar söyleseler d Binler de gelir, milyonlar da Ama bnim gösterdiim semptomlarda Bir deiiklik olmuyor artk yi gelmeyecek hiç bir ey bana Deitirmiyor hayaller artk, gerçek olsalar bile Bir kalbim vard ve artk yok Onu attm, geçti uzun zaman üstünden Tandm, kurtuldum dedim ama travmalar öyle demiyor bana ntihar mektubu yazdm yeniden, baka bir çarem var m ki? bilemem Kapat beni bir odaya izle Sence içimde hâlâ bir umut var m? Gözlerim kzark her gün, neden? Aslnda hiçbir madde kullanmadm Hep alamaktan bunlar, bilemezsin Yaattklarn unutamamaktan Kafamdakinden kurtulamamaktan ntihar hâlâ benim yanmda Bileimde ne var, söyle bana? Uyumak istiyorum artk geceleri alamadan Yarn umudum olacak m? bunu bile bilmiyorum ben laçlar fayda etmiyor bana Aslnda hiç bir ey iyi gelmiyor anlasana Ölüyorum her gün biraz daha Hissediyorum her saniye daha fazla nsanlar beni anlayamazlar Çünkü ben onlara hiç bir zaman kendimi anlatmayacam Kalbim krk gözümde yalar gidiyorum yavaça buralardan Öldüümde sadece bir kelime çkacak o kanl dudaklarmdan Kaybettim tüm gerçei zihnimle olan bu savamda Tanrm duy sesimi bu sefer bitirebilirim her eyi Tanrm duy sesimi delirmek üzereyim yemin ederim ki Duy sesimi, duy sesimi, duy sesimi Peki siz hayattaki tek umudunuzu Sizi kurtaracak olana Srtnz dönüp gitmek zorunda kaldnz m hiç? Ksaca doktor siz hiç kendi kendinizin cehennemi oldunuz mu?</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç, hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak düüp durur masama Kaderin elindeki zar Gökler hapis, kimisi mezara firar Etti senide sonunda canavar Sistem bitik, senin tasman ufak paradan Kirli sesim çarpsa duvarlara ya Kaplarn ardnda saklanamam Krar basamaklar ayaklarm risk al, dur Kafam kalabalk stanbul gibi Gezip gördüm hiç vaktim yok, hiç Dönüp durur bam hiç halim yok, hiç Sabahlarm yarm ah Krlyor zaman Giderim bu defa, sokaklar yakarak Ya varm ya yokum, kalamam hiç arada Ölüm bi' tandm gelir gider yanma Her gün her gün daha da You might also like Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Tüm üstüm bam çamur, yürüdüm her gün yolu lek bi' cadde gibi görmüken onca yüzü Bardaklar hala dolu içimse alev dolu Olsam da buz bi' cehennem çok uzak çk yolu Bi' sonu yok Yürüdük epey uzun yol Günler haftalar ölüm gibi kovalyor 5 kii arabam yine deliyle doluyor Telefon çalyor ama boa çalyor Ürkek admlarla kaç uçurumdan uzakla Yüksek binalar alçak insanlara kar ancak Hesap kitap yapar zamandan onca çalan saf Ve dat kafan dat yarn yokmucasna Kanmdaki zehir yenilenir ah Yenemedi ehir yenilmedim daha Eritir asit kurallarn Devirmek basit duvarlar ya Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak</t>
+          <t>Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç, hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak düüp durur masama Kaderin elindeki zar Gökler hapis, kimisi mezara firar Etti senide sonunda canavar Sistem bitik, senin tasman ufak paradan Kirli sesim çarpsa duvarlara ya Kaplarn ardnda saklanamam Krar basamaklar ayaklarm risk al, dur Kafam kalabalk stanbul gibi Gezip gördüm hiç vaktim yok, hiç Dönüp durur bam hiç halim yok, hiç Sabahlarm yarm ah Krlyor zaman Giderim bu defa, sokaklar yakarak Ya varm ya yokum, kalamam hiç arada Ölüm bi' tandm gelir gider yanma Her gün her gün daha da Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Tüm üstüm bam çamur, yürüdüm her gün yolu lek bi' cadde gibi görmüken onca yüzü Bardaklar hala dolu içimse alev dolu Olsam da buz bi' cehennem çok uzak çk yolu Bi' sonu yok Yürüdük epey uzun yol Günler haftalar ölüm gibi kovalyor 5 kii arabam yine deliyle doluyor Telefon çalyor ama boa çalyor Ürkek admlarla kaç uçurumdan uzakla Yüksek binalar alçak insanlara kar ancak Hesap kitap yapar zamandan onca çalan saf Ve dat kafan dat yarn yokmucasna Kanmdaki zehir yenilenir ah Yenemedi ehir yenilmedim daha Eritir asit kurallarn Devirmek basit duvarlar ya Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir You might also like Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
+          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Não há nada que eu sinta desses rappers mofinos Só escrevem é rimas 'pa pussy Só causam sarilhos Não investem nos filhos mas mandam calinas da gucci Tão perco o meu juízo Entro no circo onde atuam os filhos do Luci Sem sequer um aviso Liberto o meu skill e aperto o gatilho da Uzi De volta ao ativo de novo 'Tou a seguir o meu sonho Mas não 'tou ao Dormes Tenho apetite de lobo Aviso te, jantas comigo não comes Rappers só escalam 'po top yah Sem escrever nada que incomode yah Fuckit eu fodo os a todos sem esforço Dou lhes motivo p'ra me odiar Venho da zona do Sam Da zona do Snake Tão não dá 'pa ser average Só dá p'ra ser great Tão toma o meu rap da cá o teu respeito Não sei se 'tou cego, não vejo outro jeito Não sei se é do ego, não sei se é defeito Ver tanto boneco a querer ser aceite Com rimas sem nexo, a verter azeite Eu fico perplexo, e insa-tisfeito 'Tão não tenho outra opção Sem ser maléfico enérgico quando pego no rap 'Tou tipo em battle com o devil Sozinho em guerra na selva Faço isto, no matter the weather Boy tchecka bem o meu level Tou sem conversa 'pa gellous Sou mais um puleka de Chelas Dum tipo que apela à cautela Meu estilo é Bera confere O poder que fere o teu ser Manka que a barraca Abana enquanto Eu tiver ao ponta pé na parede 'Tão espera 'pa veres You might also like Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos Bué patetas à má fila A fazer birra 'Pa ter guita, sem rimar um peido Eu na minha a montar dicas 'pa acabar C'a competition e tirar respeito Não é a fame nem o hate Por ninguém 'Tou apenas avisar o game Nenhum rapper me intimida Se tiver de haver uma briga para ocupar um space 'Inda te aleijo Porque eu posso Rapper Quando duvidas do meu skill Boy não gosto népia Quem és tu? Puto eu rimo até c'a tosse seca Fuck you Tu não rimas nem que dropes merdas no sumo Cada um mais estúpido cu último Sem terem consciência fazem absurdos num estúdio Pseudo-vedetas com bué da bullshit music E eu quero entender é, como é que o público curte disso Boy és wack, queres o quê? Já és rico Queres chatice, Caga nisso, se tens um filho Pega o guito e põe num buiz quick Antes que eu te afunde a carreira e tu fiques liso Levanta a bunda da cadeira let me sit please Mano a cultura tá cheia de tanto pique nique Da para ver que a tua plateia 'tá deep sleep É quando abro a torneira patdar o big drip Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos</t>
+          <t>Não há nada que eu sinta desses rappers mofinos Só escrevem é rimas 'pa pussy Só causam sarilhos Não investem nos filhos mas mandam calinas da gucci Tão perco o meu juízo Entro no circo onde atuam os filhos do Luci Sem sequer um aviso Liberto o meu skill e aperto o gatilho da Uzi De volta ao ativo de novo 'Tou a seguir o meu sonho Mas não 'tou ao Dormes Tenho apetite de lobo Aviso te, jantas comigo não comes Rappers só escalam 'po top yah Sem escrever nada que incomode yah Fuckit eu fodo os a todos sem esforço Dou lhes motivo p'ra me odiar Venho da zona do Sam Da zona do Snake Tão não dá 'pa ser average Só dá p'ra ser great Tão toma o meu rap da cá o teu respeito Não sei se 'tou cego, não vejo outro jeito Não sei se é do ego, não sei se é defeito Ver tanto boneco a querer ser aceite Com rimas sem nexo, a verter azeite Eu fico perplexo, e insa-tisfeito 'Tão não tenho outra opção Sem ser maléfico enérgico quando pego no rap 'Tou tipo em battle com o devil Sozinho em guerra na selva Faço isto, no matter the weather Boy tchecka bem o meu level Tou sem conversa 'pa gellous Sou mais um puleka de Chelas Dum tipo que apela à cautela Meu estilo é Bera confere O poder que fere o teu ser Manka que a barraca Abana enquanto Eu tiver ao ponta pé na parede 'Tão espera 'pa veres Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos Bué patetas à má fila A fazer birra 'Pa ter guita, sem rimar um peido Eu na minha a montar dicas 'pa acabar C'a competition e tirar respeito Não é a fame nem o hate Por ninguém 'Tou apenas avisar o game Nenhum rapper me intimida Se tiver de haver uma briga para ocupar um space 'Inda te aleijo Porque eu posso Rapper Quando duvidas do meu skill Boy não gosto népia Quem és tu? Puto eu rimo até c'a tosse seca Fuck you Tu não rimas nem que dropes merdas no sumo Cada um mais estúpido cu último Sem terem consciência fazem absurdos num estúdio Pseudo-vedetas com bué da bullshit music E eu quero entender é, como é que o público curte disso Boy és wack, queres o quê? Já és rico Queres chatice, Caga nisso, se tens um filho Pega o guito e põe num buiz quick Antes que eu te afunde a carreira e tu fiques liso Levanta a bunda da cadeira let me sit please Mano a cultura tá cheia de tanto pique nique Da para ver que a tua plateia 'tá deep sleep É quando abro a torneira patdar o big drip Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ayy, it was so hard writin for my dawg I said damn, where am I gonna start? I know to yall, he appear a pair a animal like Noahs Ark But I know he soft You try anything on this stage tonight, and Ima throw you off And have Rock on his back like a hot stone massage Yeah, I know you fraud I know he fraud He aint never take no trips for them long plays I told Shine, Its a different typa butter in the park, K Parkay I put soda on the water, make a crystal out of soft clay Watch it sizzle in the pan, thats somethin you never saw, Tay sautée I had them shootin up every night, man my scale was jumpin I gave them straps, spoons, needles, anything that could help wit somethin We aint even know the police was there, sometimes you could just tell they comin Its like Midnight Madness, everybody left and had me givin out belts for nothin Shells is dumpin Yeah, I just talked to my plug last week and he told me that some bales is comin And if he throw you work youll snitch, yeah you could tell he frontin Big blade, from the side of your ribcage to yo belly button Or I could make him sit wit a thirty, I R. Kelly somethin Tell me somethin Why you aint never learn nothin from what the staff offer I mean, even when yo career was bad, awful All we heard was, Get that nigga Roc!, and you aint see how it was bad for ya But now do the inflation, we see how much that gas cost ya They put Roc in front of a Tank, boy this sound like Donte vers Gervonta Im on your lawn, Tay Wit a long K Bout to pick a bitch up in front of the crib, its a prom date You know why we dont get along, Tay? Cause I know you never gave a shit After the fight, I was on the line everyday wit Brizz Like- like where you wanna take it, kid Yeah, we kept watchin the footage back tryna see who on stage and shit I seen yo man jump front line, yeah he always down to take a risk I guess Chess was just a pawn that take a risk Why you aint jump in that brawl? Oh its makin sense Its like the police breakin up a catfight Tays tase a bitch But do you know the real part that kept makin me sick? Its how we said a line about a nigga moms and you screamed out, Say it again! Bro it was regular shit But you put so much emphasis on it, you made it a magnificent moment Mook thought we was tryna diss while he mournin Then some fists got to throwin Boy you moonwalked yo skinny ass to the back stage Put glasses on and was back laid Makes sense to me, cause we know he met his baby mother on backpage Why you aint tell em that, Tay? I guess I gotta be the shit-starter Tell em how you was scrollin online tryna skip the gays and she became a list-crawler And had the bitch daughter Look look look loook look Ill hit all ya, Im rollin through ya neighborhood wit two straps wit me The sign say 35 but I dont do that limit Im creepin in a car wit no tints, they like who that wit me? All they see is me smokin Rock through a fishbowl like New Jack City And he a bitch We aint never seen him swing a bit Joe Dirt we found out Rock was a piece of shit And yall wanna know why Ima end Titles too? Cause Im entitled to A real nigga like Nas album wit the N title too I heard you had a love triangle, and had two men fight for you Then got mad when they aint wanna come and spend nights witchu See, I got a invite for dude from like midnight to 2 I slide on a Street Fighter, thats a M. Bison move Smack, why you been payin this nigga pennies bruh You know he just now gettin his own car? I mean you made Roc see rentals Roxy Reynolds his whole fuckin career like the pornstar Who knew Id be a mogul? I was stuck on my trappin shit I started on the corner then moved up to traffickin We was broke wit cocaine dreams, nigga that was it I learned from Craig, when life beatin you up, you grab a brick Ayy Roc, we aint have us shit, bro I really had to pitch these dimes I had the border locked down on my Brittney grind Grin You wanna tempt me? Fine Ill make this bitch recline I had the chop in the corner like Ric Flair, and I done hit the Title 16 times Bitch Bro I done been to Edgewood nigga, I seen yall world Niggas press, yall fold, I done seen yall curl Chess cant even hold his liquor, we done seen yall hurl They had to hold the Title up like a ring card girl Ayy, but I do thank you For comin to see me as a man, Im too grateful Cause for years he been runnin his lips but let his crew save you Ave, Surf, Chess, I made a few angels Wit bullets the size of Belaire bottles, the blue labels You lost over half your members and now your crew hate you So all Top see is a autopsy, yeah thats the closest hell ever make it to a cool table First Ave and Kannon left, I said, Damn, what the fuck is this? And then Brizz left the group after he seen he was a fuckin bitch We watched you change Chef for Chess and a buncha other Crips Like if he kept the Wave around, we wouldnt know this nigga jumpin ship You dumb as shit Thats why my careers outlastin ya Im outclassin ya My gun got probable cause, so whoever ridin wit him, itll takeout passengers Slowly, we seen your fangs comin out you bit everybody that was down bad for ya Accusation after accusation, you know how many we can Count, Dracula The coroner gotta yo shit, I had the White mixed wit the Brown South Africa I heard you got wit a tranny, then kissed your baby moms afterwards They say you made him a bubble bath wit a little bit of lavender You nasty, bruh Concrete Yall niggas aint fuckin wit me Concrete They aint fuckin wit me You might also like Ever since you tried make it known that you want take the throne Vibes between us aint been similar since scents, we aint usin the same cologne Night Of Main Events I chiseled this date in stone N-O-M-E this card wit no me, it aint a NOME Change your tone Theres no chance for you They wanna know, if Brizz was cool wit the both of us then where he stand loyal? I like surprises, dont let the plan spoil But I aint one of Bizzy busy friends, its nothin but Thom time on my hands for you Blam on you Special beam on the cannon Piccolo Bangin it, hangin it over Top mistletoe Unload those I used to sell whole Os Even fake white and in the glass like all the official snowglobes The coke sold, I had packs there for me And I sold dope, it was always some kinda Smack there for me Back then, you couldnt trap where we be Niggas wouldve took your herb, honey, and your Blackberry, T tea Who brought this fat Bear to me? No Grizzly, I see cubs I let a shotgun lick out a shell, youll see slugs Fuckin wit Roc, I wanna see blood Lemon squeeze, thisll hit his lip then Lipton sink inside T tea mu- You didnt know? You standin in your very own plot Imagine the pallbearers tryna carry yo box Imagine Hes heavy as fuck Ayy, imagine the pallbearers tryna carry yo box You gon end up the one they carry home shot Get the red beam on his forehead thats the cherry on Top We at war Whatchu thought I brought this mask for Rappin bout drugs, til I crack Top in his glass jaw jar I pop and thats when somethin collide A casket is what they had to build the Bear Build-A-Bear to stuff him inside Youll get beat and battered Upside your skull, til pieces shatter Inf beam charge up wit a USB adapter A vest wont even matter Squeeze the ladder Kings vs. Queens these Clips spit, and you gon see Jesus after Heater clap ya Send a fragment through they shirt Remington shell look like a mini Kool-Aid Burst Im that hostile When you battled Charron, that cat fried you And you lost against EK, G EKG he flatlined you Question is you high off E or Eeyore a fent Perc Bounce like Tigger, I pull this trigger, your head burst And I could see I hit the Bear when he Winnie got a red shirt I said Eeyore, Tigger, the Bear Winnie got a red shirt Semisll pop If he survive, his weight vividly drop Yall aint gon know that it really is Top Hell get out the hospital skinny as Roc Like Tommy from Martin yall gon look at him, and yall aint gon know if he Bizzy busy or not Youll really get shot in this out of town arena Or pistol-whipped, get blood on something I copped out the Houston Galleria Ayy, Top You play today, split his shit, grab a heater Top fadeaway Jada Pinkett-Smith, alopecia Middleman actin like he the head of a cartel He done signed up for this, and that shit wasnt thought well This 30 curl but it dont be a barbell Duck your taco, if I catch him on tour, Tll tortilla get a hard she- Your skull s- Its me Im chillin right now Im tryna chill Ayy Your skull swell The body rot, harsh smell I just caught the Bear in a trap from a trail of some Lets see if he still talkin in that freshly built coffin Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight- Youre dead nigga Fuck outta here nigga Its me, nigga Fuck is wrong witchu nigga I said Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight shots, speed past him Graze grays Top Sheed Happens BITCH, BITCH, BITCH, BITCH, BITCH ITS ME ITS ME IT IS ME THATS LIGHT Bitch Fuck wrong wit niggas Ayy Graze grays Top Sheed Happ- Boy, yall see how I beat the hell out my kid? Summer Impact, your fat ass fell on us, and thats the only time I fell out wit Brizz Bitch, youll get hit wit every shell out the SIG He aint keep his eye on the baby, then Bizzy busy body fell out the crib Peep, in battle rap, Im action packed You aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All yall see is the bottom of Top, read the Snapple Fa- I pack a strap- Thats liiight This shit easy I swear to God on my fuckin kids Its easy Peep, in battle rap, Im action packed He aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All you see is the bottom of Top, read the Snapple- I pack a strap wit 30 R.I.P. Bernie the Mac is Black Grab a gat 8 throwin bullets Matt Hasselbeck Casket nap Kick in the door where he trappin at Have him pourin all his Os out his bag it look like Apple Jacks Bitch Its me Hold up Im on you nigga You got me fucked up Im on you Im not done nigga Yall thought I was done? Im not Ayy Have him pourin all the Os out his bag it look like Apple Jacks Thats a fact We dont even know what tier he is Outta you and Rawsteen, all we wanna hear is Brizz Wit the suppression, you could still hear the SIG Noisy ass shot, point it pointed at Top like Egyptian pyramids Here it is You fake showed me props You phony, stop I used to think that we was homies, Top Now I know we not You trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Bitch Easy, Beasley Nah, Im not done I used to think that we was homies, Top Now I know we not Trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Watch what you say, I know a lot Rawsteen used to roll wit the Cave, you roll wit opps When you battle me, you get straight bars cause my flow is hot I dont dig up dirt, I make sure the dirt go over Top Thats liiiight This bitch is dead Easy, nigga I said yo Bro, now when I first heard you was fuckin wit trannies dawg, I said, Come on, Tay I was more disappointed than mad, I made the palm face The nigga said you tried to take him to your moms crib that was the wrong place Told his wifey he was chillin wit the guys he made a strong case Now I dont know if the nigga name was Fred and shit But you definitely was askin that nigga for some head and shit He had blue hair like your baby mom, thats when your lil fetish hit Makeup wit the painted on reddish lips He said, Nah, nah, it aint what it look like, family Yall know how I say its coke but it cook like candy Well I believe the accusations, and it took light plannin Cause both his baby moms and his girlfriend look like trannies So I believe it Now when you first started fuckin wit that bitch, bro, I bet you thought that it was all terrific New tricks in the bedroom, she was awesome, gifted All submissive But since the footage got released out by all them critics We cant even call her sister We dont know who balls she lickin Hypochondria we startin to look at Caution different This aint at all a gimmick Cause when we want a quick visit, we just call a name Bro you married a slut, a who- a- boy its all the same But you think the shit is all a game Got robbed for your fake jewelry then went and got a ball and chain Whats up wit this fella? Bro you was supposed to hit it then quit it, but you cuffed it and settled Why buy the cow when you could have the milk for free, you coulda upped and just left her Now I dont know what Roc owe Rocko in this Modern Life, but now he stuck wit that Heffer Bruh they aint gotta like it nigga Shut up But now you stuck wit that Heffer Just do your thing, just make sure you can handle it first Cause I see you tryna make a family work And you even put a ring on Caution like a Amber Alert But I guess that was the love in the air Bruh we told you she was the biggest slut of the year And you had the nerve to s- What the fuck i-, it was us tryna put a bug in your ear Stupid Stupid You fuckin idiot We told you Ayy, but he aint wanna listen, I guess know hes hearin it Yeah, everytime she get her ass beat, he responds wit arrogance I done been through baby mama allegations, I coulda showed you how to handle it But it cant come from Bizzy the Bear, you gotta talk to Bizzy the therapist T-Top puts on glasses and holds a clipboard Okay, now Accordin to my notes, you been like this since a boy Seein pictures of your wife bent over was somethin you was tryin to avoid She said he had her lips out wit cum stains, you shouldntve wifed that bitch at all You mean to tell me you run the Cave and didnt see the writin on her walls Nigga naw Nah nah nah nah hold on, hold on The second thing it say, right It say you cant get mad when niggas say that they had her, too Yeah nigga dont be showin no attitude You cant let them niggas know that they damaged you Its the evolution charts you supposed to walk away as a man, but you start by actin like a animal Thats totally different The third point, stop contactin niggas askin, Did you have my girl? Di- did you have my girl? Nigga you done lost your mind You up there late night arguin wit niggas, thats what put you off your grind But we all know Scorpios is freaky, and you shouldve paid more attention to Caution sign I said ahh See, thats why your bars no longer move me Your whole crew remind me of YSL, right, but that was all part of the movie Cause come to find out, she started givin up the coochie to a nigga named Lucci Oh my God Yeah thats why you shouldntve never wifed the bitch You got him sendin threatenin messages online like we aint just watch that indictment hit Yeah, sometimes your pride get in the way and we can die as men So if you aint got real beef wit Lucci then why offend YFN? Im just askin, and I hope you could set the record straight You tried to send that man to Heaven gates Was ready to kill Lucci like he was beatin on Reginae You gotta do better, Tay Audience member says, Fire I know it was nigga Dont say none Ayo, you gotta do better Tay See, sometimes you gotta make sure your friends head is straight and that they headin straight Cause you was back catchin for a tranny tryna make it to second base Do better, Tay I take Caution, give her saltfish til her eggs separate That bitch a breakfast See, and one of yo best mistakes Was when you grabbed Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Huh? Why you do that? Why you do that? Bro Yo best mistake Was grabbin Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Do you know what fraud you have to be To clown a man about his chain when yours cost half the piece Thats why you do not got my respect Cause two weeks later, you let niggas take what you rock round your neck And come back wit an even faker chain that say Roc round your neck I come wit a Glock 9 and a chop round my neck Give him 23 and 1, thats that lockdown effect Bloo blaka from this T is not sound effects I understand you cool wit him like But sometimes you good wit him, then you not down wit Rex You came in the game screamin how Dot Mob the best So it confused me when everyone in Dot Mob had left All that drama round this set It was Roc in this and then Roc in that Niggas took your shit, they had em rockin this and Rockin that Bro why Surf and them Crips aint never ride behind that Somethings odd behind that All them GunTitles but the story red read, nobody died behind that And I know you and Surf honor them things The designers and chains Thats why you stole Brizz battle, cause your loyaltys overridden by your desire for fame Concrete I technically dont need a team, I came in this shit dolo, the big Cave Who put in more work than me on the big stage? He would go on strike again if he knew what I just made You dont get paid I cut up Top, like a temp fade Switchblade Split Top down the middle French braids Whatever bitch fuckin you got some sick ways You look like a orangutan wit clothes on, how you get laid? Fat stupid bitch I can call you that in a slick way Or in pig Latin you at-fay upid-stay itch-bay You aint alert? You knew not to upset me and make it worse Tay is cursed Like June sixth 06 is my date of birth I came to work You shouldve dressed up like you came for church Aim and burst Put the Bear on a tee Palm Angels merch We militant Shit gon get a little vigilant, ignorant Split your shit over a simple incident Pistol whip I will dent your shit wit the pistol grip Spit the clip Big rounds clappin like cymbal instrum- I dont care if Haymakers your weed spot If I was Piru in his Fruit Town, I still aint buyin your Tree, Top Please stop When I cop ammo, they gotta restock I like G-locks Spot him, got him SpotemGottem Beat Bo- The aftermath, you gon see Dots You like a deal on the table, they puttin you in a scope to see shots Listenin for sounds and they think the beat stop They dont know if its The Chronic or they need to Detox Look, theres no drop tops or any kinda cars in this chop shop You wanna see ARs C-A-Rs? Well look, heres a chop Top If he play wit him, he better keep Ks wit him I be ridin round up North, Wess West on my lap Pete Davids- Heat stay wit him Just for the fuck of it, no reasonin You only safe if the police wit him So make a choice chicken or shrimp? Dont beef wit him You missin the flavourin packet? Cause when Top rhymin Ramen, theres no seasonin I have to get at you I know I have to get at you Thats light Thats light, I gotchu though He dont rap like this You dont I have to get at you Rappin pitiful thats your typical Gon make a nigga smack and spit on you Leave a cat in critical wit the ratchet Drive by the candlelight, hit every individual at the vigil Crack the head of you Thats the only shit thats respectable Show up where you live, your kids gon have to ask for medical Ill pull somethin foul out and catch a technical We can start oldest to youngest or alphabetical Thats acceptable Ice pick stab the neck of you Drag the flesh of you Turn you to a actual vegetable Broke chest plate, crack your pectoral Flatten your lung, puncture your heart, slash the ventricle In the hospital, staff is checkin you Bout your pain like, Did it kick in?, but he dont know if its workin like he had a edible Oh you half-man, half-bear? Thats incredible Ill leave you hooked to machines youll be half-man, half-electrical Whats up wit this? I aint the one that you wanna diss This a ass-whoopin back in the 90s I brung a switch Pistol whip, itll hit you hard as a ton of bricks Bust your lips FN a fin in a Bear mouth he huntin fish Fuckin bitch And you talkin bout Caution, some sucka shit Cause that video wit the mother of your child is some other shit But like that video, Ill have a BM pull up, glizzy hang out sound just like your baby mother suckin dick Bitch I will have Caution bust your shit What this faggot thought? Shell stomp you out in slides if you actually fought Yall seen Waterboy, when his girl and his mom had to sit and have a talk? He get a mouthful of Crocs, like Vicky Vallencourt Clap the torch Shoot through you and who standin by ya Smack, he dont want smoke, he Smokey the Bear, he scared of fires In the trap, I used to scam wit buyers and handle liars I swear shit was a battle every week, like Danny Mye- Boy I thought you knew that this kid is an elite It look like you say fuck the company and this the misery you keep This tool buck, put you infinitely to sleep Ill pull up like a food truck and leave Bizzy busy in the street Hit you wit the heat Clap up whatever he whip today Thisll leave all your tires flat, Top flattop. You think Im kiddin, play Kid n Play You in the way Lift and spray Clock you out, put this 9 to 5 and end Bizzy busy day I bring a Glock Or a big nose King of Pop Pull somethin from the side and Top gon drop, like Jenga blocks Niggas play and wanna call out me End up in a morgue tryna figure out how he died, and thats all Top see autopsy R.I.P Bitch Blade to his face, push force through Then right through the stomach, shuttin down a organ or two Then right through his foot, steel in his heel like a horseshoe Whippin a lot, I twist it in Top like a corkscrew I warned you Now Ima show you how the shit goes .38 big nose Double barrel Swiss rolls Catch him in traffic, TEC wit the Swiss holds If you dont have a MAC Mac on your lap, Top laptop, thisll hit your Apple through the Windows Fuck this battle Thats light I say yo Yall wanted to talk about the strike, right? You and your man Yall wanted to talk about the strike, right? See what I tried to do was take battle rappers from makin regular bread to really seein em checks Shit, I was really believin in that We all put our contracts in a group chat just to see who would rat And Rain told me everything we put in that muthafucka he was feedin to Smack Thats a fact Thats when I found out the hate was real Cause he kept sayin, It gotta be Suge, it- it gotta be Suge, and then we found out it was Tay that squealed So when yall say the strike ended too fast, I was feelin the same way for real But you know when your co-de start snitchin, shit you might as well take the deal He been top coppin Yeah if he had a kilo in front of the boys, they would not lock him And I done gave the people L bowls elbows, but I can never tell Roc bout em Rock Bottom You wanted a rematch? Cool, my nigga, I put the grips on him I heard he Rollin wit 60s, well hats off to tha- I put the Brims on him Nigga, stomp him out, yall gon see double soles I put the Timbs on him Take his daughter, she been gone so long, the milk carton say Brizz on it Ill put a knife in his ribs then put a spin on it The slab so big, Houston, I put rims on it Yeah, and if we was locked in a room wit no cops, I get it poppin wit dude Solitary confinement is what we not gonna do Cause Im a sneakerhead, it would hurt my soul sole to have Rock in the shoe But you know the point when I stopped rockin witchu? When you told the world, Ill be back Ave, and then you left that man to die in the hospital COVID-19, ventilations, we couldnt even see his vitals move Then you hung yourself marryin Caution, she just wanted to tie the knot witchu Ayy look, ayy look All that gang gang shit tonight, you better stand on it Gun Bar King? When you had a Calicoe in your face, nigga you aint put a hand on it This your damn warnin All that almost about to fight, nigga knock it off Or its docs involved, bandages and cotton balls Swellin here, lumps is there, a whole bunch of knots involved Caution tryna get the swellin down, Ice Cube and Rock like Ride Along Yeah, I got the call Not from Smack, from Baltimore They say he do not be wit k- I know, Shine I know, Shine Yeah, I got the call Not from Smack, from Baltimore They said he do not be wit killers His gun bars is just bars, he will not pull a trigger They tried to give me dirt on you for a whole lotta figures I said he the little bitch followin Wave, I dont need no mo on a Moana nigga I got a whole lotta hittas And when you see em, boy they loadin Rugers You said somethin bout on sight wit the MAC, well they dont own computers I dont care if you got Eazy or Chess witchu, Im still sendin over shooters And whatevers under Rock get ate, like Timon and Pumbaa Bitch, bitch, bitch Okay, we got some math to do Bruh tell me how the fuck I came in after you and still end up passin you Crowd affirms, yelling, Facts. Big cap The biggest cap They said facts They said facts Yo, ayy ayy How the fuck did I come in after you and still end up passin you I mean that might not seem right to the masses, cool But dont act confused Nigga my first year in it I did the BET Awards, and then came back for two Yeah, rapid moves They never asked for you Netflix specials, I be actin too Yeah, Funk Flex Freestyle aight yeah, that was a nasty move But I still got business ventures, different avenues A record label that I own all the masters to A studio, big artists be passin through I got Kids World Giveaway, yeah thats a app we use to help kids after school Yeah, I got classic 2-on-2 wit Brizz then after that, Jerooz Yeah, yeah, Haymaker, Unbearable, thats two weed companies Im established through Im not sayin this for no braggin tools Im just mad at you And Im mad confused You been in this culture 15 years on average, dude I mean a star online, aint even got a website we could tap into Huh? See, I paid attention to everything you was attachin to The Aves, the Mooks the Smacks, the groups Feel me? You been in this game 15 years on average, dude I mean a star online, and you aint even got a website we could tap into I mean the most you can talk about in battles you done grabbed a boo Nah nah, thats actually cute You know what, from now on in battle rap, thats the move You leave your BM for a chick not even half as cute and get married too Cause thats somethin you been chasin your whole fuckin career, to find out it wasnt worth it like dragonfruit Yeah, I got two nicknames for him in this battle, yeah drag and fruit Or passionfruit They been wanted me to kick yo ass, I just aint have the passion to Concrete Them fake personals can put you in a lotta danger That shit fuels a lotta anger You really be bendin and stretchin angles like usin a wire hanger You not a gangsta Two 9s, both got a laser They look related but aint the same they doppelgängers Free Twork It was somethin I said to him in our rounds It was, You the reason niggas like me gotta battle Swamp now That really go for you, you aint seein the light? If yall niggas wouldve shut him down then, he wouldnt be here tonight Speakin of Swamp, where is that T.I. voice havin ass nigga? Soon as I see the man Get the whole clip a Tiny Tips, the heater blam Run up wit the chopper out, he like, Is we beefin? Damn Then put the sticks on Swamp, look like a beaver dam Back to you, we miss you beein the coke-sellin fat nigga We miss the fake drug bars from this fake crack dealer Now he got all these angles, when you become that nigga? Bill Collector voice we liked you better as the trap nigga Im mad witcha Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef That was cold Bitch ass nigga that was fire You bitch ass nigga Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef, you should diet wit grapes Fuck I need to put it in Gun Titles or somethin? I call the Locs if its beef, you gon die, its wit Grapes This fat nigga wont survive in this place You aint know we got the same jean size .45 on the waist Take this time to think, cause you aint never thought like Your fat ass cant slide down a slidin board or sit on a swing set and be alright Spendin all this time witcha kids at the playground and somehow you still cant enjoy the park life ParkLyfe Boy, I bet your back hurt cause your titties too big for your body, bitch Yeah You bout to body-bitch me? Yeaaah Yeaaaaaah Yeaah Ayy I bet your back hurt cause your titties too big for your body, bitch That third round I had for Official can get remixed for your body, bitch Ima cook him Ima remi- Ima cook him That third round I had for Official can get remixed for your body, bitch You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin Crowd chants 3-0 Ayy T-Top says something to Tay Roc Thats fucked up Im tryna remember where Im at, thats fucked up Ayy You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin You got a bad health body, bitch You got a its a buffet, help yourself body, bitch Extra mayo, extra bacon, turkey melt body, bitch You got a stomach overlappin the belt body, bitch Him wanted? Picture that, itll be a large type photo You a soft type bozo But that is somethin that yall all might know though My nigga Crip, dont think my dawg ride dolo A callll have a Bear surrounded in blue, look like a Klondike logo Thats light Now Ima kill him for real Now Ima really kill him Im not even done Ayy Look like a Klondike logo Ayy, Top That Summer Impact shit is old, wit no meanin into it But when you threw that bottle, you shouldve tried leanin into it You aint battle Cal? You could easily do it Ill put a Calicoe in your face before Smack and Beasley do it Honestly I pull a switchblade from the side of me My girl called, I said, When I get Bizzy busy, dont bother me She think I aint got time for her, and thats silly as it gets Ill bring him back split in half thats two Bizzy too busy for my bitch 50 wit the stick And I could silencer the shit If I look and happen to notice him drivin in his whip Like any other hunter that survived in this event If you see the Bear in the field, then fire through the tint I start a riot in this bitch if I grip my tool I aint got it all, you know my mind miss out screws Right, left, the big guy snooze Top floored in the building, gon sound like I get penthouse views You a jokin nigga, you be laughin a lot I pull out one 911 911, somethin fly and crash into Top Your shit split Stand over him til it click click The Bear laid on his back Yogi after the picnic Run your mouth, til its your mouth where a gun is put Son get took to a bridge, and the drop is a hunnid foot They dont know what happened, and they dont wanna look They just know some cat attacked the Bear Shere Khan in Jungle Book You not a fuckin crook Why you keep talkin like you somebody I will tie you up, make you watch, view the body Your bitch take a shot right through the body Then Top the next person, Im always tryn outdo somebody Hes talkin clever Til a boxcutter hit him and carve a letter Like that movie Ted wit Wahlberg, leave the bear wit a Mark forever Sever shit He get hit wit the edge of it Youll be dead as shit Knife in the Bear neck like Im Leo in The Revenant Devilish This murder-for-hire Dior runners, Balenciaga mask, I could purge in designer Pick through his ribcage, turn it behind ya Then let it spin around his neck give him a Hurricanrana Bitch You see it slicin Oh he aint know that Ill kill people like him Skin the Bear then wear him look like a Medieval Viking We is triflin Cuttin ya Leave it stuck in ya Like a circus act how I go for the Bear jugular juggler Im a hustler And he dont know what this element bring I spent a lot on a necklace to bling I copped a orange Charger last year, this year I might do a Tesla in green Or a Porsche, maybe matte mat white like a wrestling ring Youll never be king As long as long as Im here on this damn scene The loyalty I bring in this shit is a rare thing I told Brizz when he was on my damn team Just because he cool witchu, dont mean I gotta fuck wit the Bear, Steen Berenstain Fuck this man mean? I call</t>
+          <t>Ayy, it was so hard writin for my dawg I said damn, where am I gonna start? I know to yall, he appear a pair a animal like Noahs Ark But I know he soft You try anything on this stage tonight, and Ima throw you off And have Rock on his back like a hot stone massage Yeah, I know you fraud I know he fraud He aint never take no trips for them long plays I told Shine, Its a different typa butter in the park, K Parkay I put soda on the water, make a crystal out of soft clay Watch it sizzle in the pan, thats somethin you never saw, Tay sautée I had them shootin up every night, man my scale was jumpin I gave them straps, spoons, needles, anything that could help wit somethin We aint even know the police was there, sometimes you could just tell they comin Its like Midnight Madness, everybody left and had me givin out belts for nothin Shells is dumpin Yeah, I just talked to my plug last week and he told me that some bales is comin And if he throw you work youll snitch, yeah you could tell he frontin Big blade, from the side of your ribcage to yo belly button Or I could make him sit wit a thirty, I R. Kelly somethin Tell me somethin Why you aint never learn nothin from what the staff offer I mean, even when yo career was bad, awful All we heard was, Get that nigga Roc!, and you aint see how it was bad for ya But now do the inflation, we see how much that gas cost ya They put Roc in front of a Tank, boy this sound like Donte vers Gervonta Im on your lawn, Tay Wit a long K Bout to pick a bitch up in front of the crib, its a prom date You know why we dont get along, Tay? Cause I know you never gave a shit After the fight, I was on the line everyday wit Brizz Like- like where you wanna take it, kid Yeah, we kept watchin the footage back tryna see who on stage and shit I seen yo man jump front line, yeah he always down to take a risk I guess Chess was just a pawn that take a risk Why you aint jump in that brawl? Oh its makin sense Its like the police breakin up a catfight Tays tase a bitch But do you know the real part that kept makin me sick? Its how we said a line about a nigga moms and you screamed out, Say it again! Bro it was regular shit But you put so much emphasis on it, you made it a magnificent moment Mook thought we was tryna diss while he mournin Then some fists got to throwin Boy you moonwalked yo skinny ass to the back stage Put glasses on and was back laid Makes sense to me, cause we know he met his baby mother on backpage Why you aint tell em that, Tay? I guess I gotta be the shit-starter Tell em how you was scrollin online tryna skip the gays and she became a list-crawler And had the bitch daughter Look look look loook look Ill hit all ya, Im rollin through ya neighborhood wit two straps wit me The sign say 35 but I dont do that limit Im creepin in a car wit no tints, they like who that wit me? All they see is me smokin Rock through a fishbowl like New Jack City And he a bitch We aint never seen him swing a bit Joe Dirt we found out Rock was a piece of shit And yall wanna know why Ima end Titles too? Cause Im entitled to A real nigga like Nas album wit the N title too I heard you had a love triangle, and had two men fight for you Then got mad when they aint wanna come and spend nights witchu See, I got a invite for dude from like midnight to 2 I slide on a Street Fighter, thats a M. Bison move Smack, why you been payin this nigga pennies bruh You know he just now gettin his own car? I mean you made Roc see rentals Roxy Reynolds his whole fuckin career like the pornstar Who knew Id be a mogul? I was stuck on my trappin shit I started on the corner then moved up to traffickin We was broke wit cocaine dreams, nigga that was it I learned from Craig, when life beatin you up, you grab a brick Ayy Roc, we aint have us shit, bro I really had to pitch these dimes I had the border locked down on my Brittney grind Grin You wanna tempt me? Fine Ill make this bitch recline I had the chop in the corner like Ric Flair, and I done hit the Title 16 times Bitch Bro I done been to Edgewood nigga, I seen yall world Niggas press, yall fold, I done seen yall curl Chess cant even hold his liquor, we done seen yall hurl They had to hold the Title up like a ring card girl Ayy, but I do thank you For comin to see me as a man, Im too grateful Cause for years he been runnin his lips but let his crew save you Ave, Surf, Chess, I made a few angels Wit bullets the size of Belaire bottles, the blue labels You lost over half your members and now your crew hate you So all Top see is a autopsy, yeah thats the closest hell ever make it to a cool table First Ave and Kannon left, I said, Damn, what the fuck is this? And then Brizz left the group after he seen he was a fuckin bitch We watched you change Chef for Chess and a buncha other Crips Like if he kept the Wave around, we wouldnt know this nigga jumpin ship You dumb as shit Thats why my careers outlastin ya Im outclassin ya My gun got probable cause, so whoever ridin wit him, itll takeout passengers Slowly, we seen your fangs comin out you bit everybody that was down bad for ya Accusation after accusation, you know how many we can Count, Dracula The coroner gotta yo shit, I had the White mixed wit the Brown South Africa I heard you got wit a tranny, then kissed your baby moms afterwards They say you made him a bubble bath wit a little bit of lavender You nasty, bruh Concrete Yall niggas aint fuckin wit me Concrete They aint fuckin wit me Ever since you tried make it known that you want take the throne Vibes between us aint been similar since scents, we aint usin the same cologne Night Of Main Events I chiseled this date in stone N-O-M-E this card wit no me, it aint a NOME Change your tone Theres no chance for you They wanna know, if Brizz was cool wit the both of us then where he stand loyal? I like surprises, dont let the plan spoil But I aint one of Bizzy busy friends, its nothin but Thom time on my hands for you Blam on you Special beam on the cannon Piccolo Bangin it, hangin it over Top mistletoe Unload those I used to sell whole Os Even fake white and in the glass like all the official snowglobes The coke sold, I had packs there for me And I sold dope, it was always some kinda Smack there for me Back then, you couldnt trap where we be Niggas wouldve took your herb, honey, and your Blackberry, T tea Who brought this fat Bear to me? No Grizzly, I see cubs I let a shotgun lick out a shell, youll see slugs Fuckin wit Roc, I wanna see blood Lemon squeeze, thisll hit his lip then Lipton sink inside T tea mu- You didnt know? You standin in your very own plot Imagine the pallbearers tryna carry yo box Imagine Hes heavy as fuck Ayy, imagine the pallbearers tryna carry yo box You gon end up the one they carry home shot Get the red beam on his forehead thats the cherry on Top We at war Whatchu thought I brought this mask for Rappin bout drugs, til I crack Top in his glass jaw jar I pop and thats when somethin collide A casket is what they had to build the Bear Build-A-Bear to stuff him inside Youll get beat and battered Upside your skull, til pieces shatter Inf beam charge up wit a USB adapter A vest wont even matter Squeeze the ladder Kings vs. Queens these Clips spit, and you gon see Jesus after Heater clap ya Send a fragment through they shirt Remington shell look like a mini Kool-Aid Burst Im that hostile When you battled Charron, that cat fried you And you lost against EK, G EKG he flatlined you Question is you high off E or Eeyore a fent Perc Bounce like Tigger, I pull this trigger, your head burst And I could see I hit the Bear when he Winnie got a red shirt I said Eeyore, Tigger, the Bear Winnie got a red shirt Semisll pop If he survive, his weight vividly drop Yall aint gon know that it really is Top Hell get out the hospital skinny as Roc Like Tommy from Martin yall gon look at him, and yall aint gon know if he Bizzy busy or not Youll really get shot in this out of town arena Or pistol-whipped, get blood on something I copped out the Houston Galleria Ayy, Top You play today, split his shit, grab a heater Top fadeaway Jada Pinkett-Smith, alopecia Middleman actin like he the head of a cartel He done signed up for this, and that shit wasnt thought well This 30 curl but it dont be a barbell Duck your taco, if I catch him on tour, Tll tortilla get a hard she- Your skull s- Its me Im chillin right now Im tryna chill Ayy Your skull swell The body rot, harsh smell I just caught the Bear in a trap from a trail of some Lets see if he still talkin in that freshly built coffin Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight- Youre dead nigga Fuck outta here nigga Its me, nigga Fuck is wrong witchu nigga I said Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight shots, speed past him Graze grays Top Sheed Happens BITCH, BITCH, BITCH, BITCH, BITCH ITS ME ITS ME IT IS ME THATS LIGHT Bitch Fuck wrong wit niggas Ayy Graze grays Top Sheed Happ- Boy, yall see how I beat the hell out my kid? Summer Impact, your fat ass fell on us, and thats the only time I fell out wit Brizz Bitch, youll get hit wit every shell out the SIG He aint keep his eye on the baby, then Bizzy busy body fell out the crib Peep, in battle rap, Im action packed You aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All yall see is the bottom of Top, read the Snapple Fa- I pack a strap- Thats liiight This shit easy I swear to God on my fuckin kids Its easy Peep, in battle rap, Im action packed He aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All you see is the bottom of Top, read the Snapple- I pack a strap wit 30 R.I.P. Bernie the Mac is Black Grab a gat 8 throwin bullets Matt Hasselbeck Casket nap Kick in the door where he trappin at Have him pourin all his Os out his bag it look like Apple Jacks Bitch Its me Hold up Im on you nigga You got me fucked up Im on you Im not done nigga Yall thought I was done? Im not Ayy Have him pourin all the Os out his bag it look like Apple Jacks Thats a fact We dont even know what tier he is Outta you and Rawsteen, all we wanna hear is Brizz Wit the suppression, you could still hear the SIG Noisy ass shot, point it pointed at Top like Egyptian pyramids Here it is You fake showed me props You phony, stop I used to think that we was homies, Top Now I know we not You trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Bitch Easy, Beasley Nah, Im not done I used to think that we was homies, Top Now I know we not Trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Watch what you say, I know a lot Rawsteen used to roll wit the Cave, you roll wit opps When you battle me, you get straight bars cause my flow is hot I dont dig up dirt, I make sure the dirt go over Top Thats liiiight This bitch is dead Easy, nigga I said yo Bro, now when I first heard you was fuckin wit trannies dawg, I said, Come on, Tay I was more disappointed than mad, I made the palm face The nigga said you tried to take him to your moms crib that was the wrong place Told his wifey he was chillin wit the guys he made a strong case Now I dont know if the nigga name was Fred and shit But you definitely was askin that nigga for some head and shit He had blue hair like your baby mom, thats when your lil fetish hit Makeup wit the painted on reddish lips He said, Nah, nah, it aint what it look like, family Yall know how I say its coke but it cook like candy Well I believe the accusations, and it took light plannin Cause both his baby moms and his girlfriend look like trannies So I believe it Now when you first started fuckin wit that bitch, bro, I bet you thought that it was all terrific New tricks in the bedroom, she was awesome, gifted All submissive But since the footage got released out by all them critics We cant even call her sister We dont know who balls she lickin Hypochondria we startin to look at Caution different This aint at all a gimmick Cause when we want a quick visit, we just call a name Bro you married a slut, a who- a- boy its all the same But you think the shit is all a game Got robbed for your fake jewelry then went and got a ball and chain Whats up wit this fella? Bro you was supposed to hit it then quit it, but you cuffed it and settled Why buy the cow when you could have the milk for free, you coulda upped and just left her Now I dont know what Roc owe Rocko in this Modern Life, but now he stuck wit that Heffer Bruh they aint gotta like it nigga Shut up But now you stuck wit that Heffer Just do your thing, just make sure you can handle it first Cause I see you tryna make a family work And you even put a ring on Caution like a Amber Alert But I guess that was the love in the air Bruh we told you she was the biggest slut of the year And you had the nerve to s- What the fuck i-, it was us tryna put a bug in your ear Stupid Stupid You fuckin idiot We told you Ayy, but he aint wanna listen, I guess know hes hearin it Yeah, everytime she get her ass beat, he responds wit arrogance I done been through baby mama allegations, I coulda showed you how to handle it But it cant come from Bizzy the Bear, you gotta talk to Bizzy the therapist T-Top puts on glasses and holds a clipboard Okay, now Accordin to my notes, you been like this since a boy Seein pictures of your wife bent over was somethin you was tryin to avoid She said he had her lips out wit cum stains, you shouldntve wifed that bitch at all You mean to tell me you run the Cave and didnt see the writin on her walls Nigga naw Nah nah nah nah hold on, hold on The second thing it say, right It say you cant get mad when niggas say that they had her, too Yeah nigga dont be showin no attitude You cant let them niggas know that they damaged you Its the evolution charts you supposed to walk away as a man, but you start by actin like a animal Thats totally different The third point, stop contactin niggas askin, Did you have my girl? Di- did you have my girl? Nigga you done lost your mind You up there late night arguin wit niggas, thats what put you off your grind But we all know Scorpios is freaky, and you shouldve paid more attention to Caution sign I said ahh See, thats why your bars no longer move me Your whole crew remind me of YSL, right, but that was all part of the movie Cause come to find out, she started givin up the coochie to a nigga named Lucci Oh my God Yeah thats why you shouldntve never wifed the bitch You got him sendin threatenin messages online like we aint just watch that indictment hit Yeah, sometimes your pride get in the way and we can die as men So if you aint got real beef wit Lucci then why offend YFN? Im just askin, and I hope you could set the record straight You tried to send that man to Heaven gates Was ready to kill Lucci like he was beatin on Reginae You gotta do better, Tay Audience member says, Fire I know it was nigga Dont say none Ayo, you gotta do better Tay See, sometimes you gotta make sure your friends head is straight and that they headin straight Cause you was back catchin for a tranny tryna make it to second base Do better, Tay I take Caution, give her saltfish til her eggs separate That bitch a breakfast See, and one of yo best mistakes Was when you grabbed Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Huh? Why you do that? Why you do that? Bro Yo best mistake Was grabbin Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Do you know what fraud you have to be To clown a man about his chain when yours cost half the piece Thats why you do not got my respect Cause two weeks later, you let niggas take what you rock round your neck And come back wit an even faker chain that say Roc round your neck I come wit a Glock 9 and a chop round my neck Give him 23 and 1, thats that lockdown effect Bloo blaka from this T is not sound effects I understand you cool wit him like But sometimes you good wit him, then you not down wit Rex You came in the game screamin how Dot Mob the best So it confused me when everyone in Dot Mob had left All that drama round this set It was Roc in this and then Roc in that Niggas took your shit, they had em rockin this and Rockin that Bro why Surf and them Crips aint never ride behind that Somethings odd behind that All them GunTitles but the story red read, nobody died behind that And I know you and Surf honor them things The designers and chains Thats why you stole Brizz battle, cause your loyaltys overridden by your desire for fame Concrete I technically dont need a team, I came in this shit dolo, the big Cave Who put in more work than me on the big stage? He would go on strike again if he knew what I just made You dont get paid I cut up Top, like a temp fade Switchblade Split Top down the middle French braids Whatever bitch fuckin you got some sick ways You look like a orangutan wit clothes on, how you get laid? Fat stupid bitch I can call you that in a slick way Or in pig Latin you at-fay upid-stay itch-bay You aint alert? You knew not to upset me and make it worse Tay is cursed Like June sixth 06 is my date of birth I came to work You shouldve dressed up like you came for church Aim and burst Put the Bear on a tee Palm Angels merch We militant Shit gon get a little vigilant, ignorant Split your shit over a simple incident Pistol whip I will dent your shit wit the pistol grip Spit the clip Big rounds clappin like cymbal instrum- I dont care if Haymakers your weed spot If I was Piru in his Fruit Town, I still aint buyin your Tree, Top Please stop When I cop ammo, they gotta restock I like G-locks Spot him, got him SpotemGottem Beat Bo- The aftermath, you gon see Dots You like a deal on the table, they puttin you in a scope to see shots Listenin for sounds and they think the beat stop They dont know if its The Chronic or they need to Detox Look, theres no drop tops or any kinda cars in this chop shop You wanna see ARs C-A-Rs? Well look, heres a chop Top If he play wit him, he better keep Ks wit him I be ridin round up North, Wess West on my lap Pete Davids- Heat stay wit him Just for the fuck of it, no reasonin You only safe if the police wit him So make a choice chicken or shrimp? Dont beef wit him You missin the flavourin packet? Cause when Top rhymin Ramen, theres no seasonin I have to get at you I know I have to get at you Thats light Thats light, I gotchu though He dont rap like this You dont I have to get at you Rappin pitiful thats your typical Gon make a nigga smack and spit on you Leave a cat in critical wit the ratchet Drive by the candlelight, hit every individual at the vigil Crack the head of you Thats the only shit thats respectable Show up where you live, your kids gon have to ask for medical Ill pull somethin foul out and catch a technical We can start oldest to youngest or alphabetical Thats acceptable Ice pick stab the neck of you Drag the flesh of you Turn you to a actual vegetable Broke chest plate, crack your pectoral Flatten your lung, puncture your heart, slash the ventricle In the hospital, staff is checkin you Bout your pain like, Did it kick in?, but he dont know if its workin like he had a edible Oh you half-man, half-bear? Thats incredible Ill leave you hooked to machines youll be half-man, half-electrical Whats up wit this? I aint the one that you wanna diss This a ass-whoopin back in the 90s I brung a switch Pistol whip, itll hit you hard as a ton of bricks Bust your lips FN a fin in a Bear mouth he huntin fish Fuckin bitch And you talkin bout Caution, some sucka shit Cause that video wit the mother of your child is some other shit But like that video, Ill have a BM pull up, glizzy hang out sound just like your baby mother suckin dick Bitch I will have Caution bust your shit What this faggot thought? Shell stomp you out in slides if you actually fought Yall seen Waterboy, when his girl and his mom had to sit and have a talk? He get a mouthful of Crocs, like Vicky Vallencourt Clap the torch Shoot through you and who standin by ya Smack, he dont want smoke, he Smokey the Bear, he scared of fires In the trap, I used to scam wit buyers and handle liars I swear shit was a battle every week, like Danny Mye- Boy I thought you knew that this kid is an elite It look like you say fuck the company and this the misery you keep This tool buck, put you infinitely to sleep Ill pull up like a food truck and leave Bizzy busy in the street Hit you wit the heat Clap up whatever he whip today Thisll leave all your tires flat, Top flattop. You think Im kiddin, play Kid n Play You in the way Lift and spray Clock you out, put this 9 to 5 and end Bizzy busy day I bring a Glock Or a big nose King of Pop Pull somethin from the side and Top gon drop, like Jenga blocks Niggas play and wanna call out me End up in a morgue tryna figure out how he died, and thats all Top see autopsy R.I.P Bitch Blade to his face, push force through Then right through the stomach, shuttin down a organ or two Then right through his foot, steel in his heel like a horseshoe Whippin a lot, I twist it in Top like a corkscrew I warned you Now Ima show you how the shit goes .38 big nose Double barrel Swiss rolls Catch him in traffic, TEC wit the Swiss holds If you dont have a MAC Mac on your lap, Top laptop, thisll hit your Apple through the Windows Fuck this battle Thats light I say yo Yall wanted to talk about the strike, right? You and your man Yall wanted to talk about the strike, right? See what I tried to do was take battle rappers from makin regular bread to really seein em checks Shit, I was really believin in that We all put our contracts in a group chat just to see who would rat And Rain told me everything we put in that muthafucka he was feedin to Smack Thats a fact Thats when I found out the hate was real Cause he kept sayin, It gotta be Suge, it- it gotta be Suge, and then we found out it was Tay that squealed So when yall say the strike ended too fast, I was feelin the same way for real But you know when your co-de start snitchin, shit you might as well take the deal He been top coppin Yeah if he had a kilo in front of the boys, they would not lock him And I done gave the people L bowls elbows, but I can never tell Roc bout em Rock Bottom You wanted a rematch? Cool, my nigga, I put the grips on him I heard he Rollin wit 60s, well hats off to tha- I put the Brims on him Nigga, stomp him out, yall gon see double soles I put the Timbs on him Take his daughter, she been gone so long, the milk carton say Brizz on it Ill put a knife in his ribs then put a spin on it The slab so big, Houston, I put rims on it Yeah, and if we was locked in a room wit no cops, I get it poppin wit dude Solitary confinement is what we not gonna do Cause Im a sneakerhead, it would hurt my soul sole to have Rock in the shoe But you know the point when I stopped rockin witchu? When you told the world, Ill be back Ave, and then you left that man to die in the hospital COVID-19, ventilations, we couldnt even see his vitals move Then you hung yourself marryin Caution, she just wanted to tie the knot witchu Ayy look, ayy look All that gang gang shit tonight, you better stand on it Gun Bar King? When you had a Calicoe in your face, nigga you aint put a hand on it This your damn warnin All that almost about to fight, nigga knock it off Or its docs involved, bandages and cotton balls Swellin here, lumps is there, a whole bunch of knots involved Caution tryna get the swellin down, Ice Cube and Rock like Ride Along Yeah, I got the call Not from Smack, from Baltimore They say he do not be wit k- I know, Shine I know, Shine Yeah, I got the call Not from Smack, from Baltimore They said he do not be wit killers His gun bars is just bars, he will not pull a trigger They tried to give me dirt on you for a whole lotta figures I said he the little bitch followin Wave, I dont need no mo on a Moana nigga I got a whole lotta hittas And when you see em, boy they loadin Rugers You said somethin bout on sight wit the MAC, well they dont own computers I dont care if you got Eazy or Chess witchu, Im still sendin over shooters And whatevers under Rock get ate, like Timon and Pumbaa Bitch, bitch, bitch Okay, we got some math to do Bruh tell me how the fuck I came in after you and still end up passin you Crowd affirms, yelling, Facts. Big cap The biggest cap They said facts They said facts Yo, ayy ayy How the fuck did I come in after you and still end up passin you I mean that might not seem right to the masses, cool But dont act confused Nigga my first year in it I did the BET Awards, and then came back for two Yeah, rapid moves They never asked for you Netflix specials, I be actin too Yeah, Funk Flex Freestyle aight yeah, that was a nasty move But I still got business ventures, different avenues A record label that I own all the masters to A studio, big artists be passin through I got Kids World Giveaway, yeah thats a app we use to help kids after school Yeah, I got classic 2-on-2 wit Brizz then after that, Jerooz Yeah, yeah, Haymaker, Unbearable, thats two weed companies Im established through Im not sayin this for no braggin tools Im just mad at you And Im mad confused You been in this culture 15 years on average, dude I mean a star online, aint even got a website we could tap into Huh? See, I paid attention to everything you was attachin to The Aves, the Mooks the Smacks, the groups Feel me? You been in this game 15 years on average, dude I mean a star online, and you aint even got a website we could tap into I mean the most you can talk about in battles you done grabbed a boo Nah nah, thats actually cute You know what, from now on in battle rap, thats the move You leave your BM for a chick not even half as cute and get married too Cause thats somethin you been chasin your whole fuckin career, to find out it wasnt worth it like dragonfruit Yeah, I got two nicknames for him in this battle, yeah drag and fruit Or passionfruit They been wanted me to kick yo ass, I just aint have the passion to Concrete Them fake personals can put you in a lotta danger That shit fuels a lotta anger You really be bendin and stretchin angles like usin a wire hanger You not a gangsta Two 9s, both got a laser They look related but aint the same they doppelgängers Free Twork It was somethin I said to him in our rounds It was, You the reason niggas like me gotta battle Swamp now That really go for you, you aint seein the light? If yall niggas wouldve shut him down then, he wouldnt be here tonight Speakin of Swamp, where is that T.I. voice havin ass nigga? Soon as I see the man Get the whole clip a Tiny Tips, the heater blam Run up wit the chopper out, he like, Is we beefin? Damn Then put the sticks on Swamp, look like a beaver dam Back to you, we miss you beein the coke-sellin fat nigga We miss the fake drug bars from this fake crack dealer Now he got all these angles, when you become that nigga? Bill Collector voice we liked you better as the trap nigga Im mad witcha Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef That was cold Bitch ass nigga that was fire You bitch ass nigga Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef, you should diet wit grapes Fuck I need to put it in Gun Titles or somethin? I call the Locs if its beef, you gon die, its wit Grapes This fat nigga wont survive in this place You aint know we got the same jean size .45 on the waist Take this time to think, cause you aint never thought like Your fat ass cant slide down a slidin board or sit on a swing set and be alright Spendin all this time witcha kids at the playground and somehow you still cant enjoy the park life ParkLyfe Boy, I bet your back hurt cause your titties too big for your body, bitch Yeah You bout to body-bitch me? Yeaaah Yeaaaaaah Yeaah Ayy I bet your back hurt cause your titties too big for your body, bitch That third round I had for Official can get remixed for your body, bitch Ima cook him Ima remi- Ima cook him That third round I had for Official can get remixed for your body, bitch You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin Crowd chants 3-0 Ayy T-Top says something to Tay Roc Thats fucked up Im tryna remember where Im at, thats fucked up Ayy You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin You got a bad health body, bitch You got a its a buffet, help yourself body, bitch Extra mayo, extra bacon, turkey melt body, bitch You got a stomach overlappin the belt body, bitch Him wanted? Picture that, itll be a large type photo You a soft type bozo But that is somethin that yall all might know though My nigga Crip, dont think my dawg ride dolo A callll have a Bear surrounded in blue, look like a Klondike logo Thats light Now Ima kill him for real Now Ima really kill him Im not even done Ayy Look like a Klondike logo Ayy, Top That Summer Impact shit is old, wit no meanin into it But when you threw that bottle, you shouldve tried leanin into it You aint battle Cal? You could easily do it Ill put a Calicoe in your face before Smack and Beasley do it Honestly I pull a switchblade from the side of me My girl called, I said, When I get Bizzy busy, dont bother me She think I aint got time for her, and thats silly as it gets Ill bring him back split in half thats two Bizzy too busy for my bitch 50 wit the stick And I could silencer the shit If I look and happen to notice him drivin in his whip Like any other hunter that survived in this event If you see the Bear in the field, then fire through the tint I start a riot in this bitch if I grip my tool I aint got it all, you know my mind miss out screws Right, left, the big guy snooze Top floored in the building, gon sound like I get penthouse views You a jokin nigga, you be laughin a lot I pull out one 911 911, somethin fly and crash into Top Your shit split Stand over him til it click click The Bear laid on his back Yogi after the picnic Run your mouth, til its your mouth where a gun is put Son get took to a bridge, and the drop is a hunnid foot They dont know what happened, and they dont wanna look They just know some cat attacked the Bear Shere Khan in Jungle Book You not a fuckin crook Why you keep talkin like you somebody I will tie you up, make you watch, view the body Your bitch take a shot right through the body Then Top the next person, Im always tryn outdo somebody Hes talkin clever Til a boxcutter hit him and carve a letter Like that movie Ted wit Wahlberg, leave the bear wit a Mark forever Sever shit He get hit wit the edge of it Youll be dead as shit Knife in the Bear neck like Im Leo in The Revenant Devilish This murder-for-hire Dior runners, Balenciaga mask, I could purge in designer Pick through his ribcage, turn it behind ya Then let it spin around his neck give him a Hurricanrana Bitch You see it slicin Oh he aint know that Ill kill people like him Skin the Bear then wear him look like a Medieval Viking We is triflin Cuttin ya Leave it stuck in ya Like a circus act how I go for the Bear jugular juggler Im a hustler And he dont know what this element bring I spent a lot on a necklace to bling I copped a orange Charger last year, this year I might do a Tesla in green Or a Porsche, maybe matte mat white like a wrestling ring Youll never be king As long as long as Im here on this damn scene The loyalty I bring in this shit is a rare thing I told Brizz when he was on my damn team Just because he cool witchu, dont mean I gotta fuck wit the Bear, Steen Berenstain Fuck this man mean? I call a gatherin This wha</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>u stanbul tam yedi tepedir Bunlardan biri de Cihangir Yollar kark,bir labirent gibi Sokakta dolr kurnaz tilki Cihangir de tek kapl evde Yedi kii alemde Dalr tayfa,çkarlar sokaa Elli türlü tehdit,elli türlü takla Rasta babay koparmlar On adam evini basmlar Biz orda deildik,olay görmedik Orda olsaydk,müdahale ederdik Cihangir den aaya kaçm Kazanc da sktrmlar Üç el havaya atp,gerisini bacana skmlar Al..al..al.. bi de bunu al Taklaya getirmiler,kafas pek bir güzel Haylazlara kzyor,rastalarn babas Sigaras elinde,palamutu cebinde Her kadna saldrr,rastalarn babas Seni haylaz,seni gidi yaramaz Seni yaramaz,seni gidi afacan Seni hnzr,seni gidi yaramaz Kafas güzel,kendi güzel Ruhu güzel,mevzu özel Ama ona yine tuzak kuruyorlar Yine ona çakallk yapyorlar Orospunun teki peine taklm Bunu bir güzel kafakola alm Bizim rasta ,olmu ona hasta Ona sorarsan ,kar on numara LAN,yola yola yola bir eyi brakmadlar Lan,ne varsa elinden aldlar Bir deil,iki deil,üç deil oldu Bu yollar hayatna mal oldu You might also likeIklar kapannca,müzikler susunca Ulumaya balar,rastalarn babs Telefonu çalyor,telefonu açyor Yine dümen peinde,rastalarn babas Rastalarn babas,babalarn babas Çevremizde tam tedi gezegen var Bir güne,bir ay,bir de o var Rastalarn babas evrene smaz Gezer,gelir,koar,yine yorulmaz Cihangir de bir gece oldu Gecenin adn rasta baba koydu Allem kullem,haytalk peinde Önemli deil,rasta hep bizimle Rastalarn babas,babalarn babas Sen bizi sevmeseydin,biz seni sever miydik Gözün gönlün önünde,gözümüz üzerinde Sen bizi sormasaydn,biz seni sorar mydk</t>
+          <t>u stanbul tam yedi tepedir Bunlardan biri de Cihangir Yollar kark,bir labirent gibi Sokakta dolr kurnaz tilki Cihangir de tek kapl evde Yedi kii alemde Dalr tayfa,çkarlar sokaa Elli türlü tehdit,elli türlü takla Rasta babay koparmlar On adam evini basmlar Biz orda deildik,olay görmedik Orda olsaydk,müdahale ederdik Cihangir den aaya kaçm Kazanc da sktrmlar Üç el havaya atp,gerisini bacana skmlar Al..al..al.. bi de bunu al Taklaya getirmiler,kafas pek bir güzel Haylazlara kzyor,rastalarn babas Sigaras elinde,palamutu cebinde Her kadna saldrr,rastalarn babas Seni haylaz,seni gidi yaramaz Seni yaramaz,seni gidi afacan Seni hnzr,seni gidi yaramaz Kafas güzel,kendi güzel Ruhu güzel,mevzu özel Ama ona yine tuzak kuruyorlar Yine ona çakallk yapyorlar Orospunun teki peine taklm Bunu bir güzel kafakola alm Bizim rasta ,olmu ona hasta Ona sorarsan ,kar on numara LAN,yola yola yola bir eyi brakmadlar Lan,ne varsa elinden aldlar Bir deil,iki deil,üç deil oldu Bu yollar hayatna mal oldu Iklar kapannca,müzikler susunca Ulumaya balar,rastalarn babs Telefonu çalyor,telefonu açyor Yine dümen peinde,rastalarn babas Rastalarn babas,babalarn babas Çevremizde tam tedi gezegen var Bir güne,bir ay,bir de o var Rastalarn babas evrene smaz Gezer,gelir,koar,yine yorulmaz Cihangir de bir gece oldu Gecenin adn rasta baba koydu Allem kullem,haytalk peinde Önemli deil,rasta hep bizimle Rastalarn babas,babalarn babas Sen bizi sevmeseydin,biz seni sever miydik Gözün gönlün önünde,gözümüz üzerinde Sen bizi sormasaydn,biz seni sorar mydk</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr You might also like Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
+          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ye-yeah Ye-yeah Ok, ok Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah A te non penso più ho detto basta Ste cose ho detto basta Lo so non tutto passa Non mi interessa più cos'hai da dire su sta faccia Cosa vuoi che faccia o un lieto fine o una finaccia Però no non credo bro io no non credo Sono sotto il cielo ho perso ciò che avevo Io che ho finito la scuola e non mi vedo da adulto Non ho una vita nuova anche se è cambiato tutto Quassù si sentivano le urla da giù Poi le porte sbattute le battute non più Ho mollato storie concluse Lasciato donne confuse Ora sono io confuso Che non ho orari dormo col fuso Che mi addormento in stanza col fumo Lansia nella pancia mangia lo scudo Ma esce dalle labbra quando la sputo E rientra dalle labbra quando la assumo Yeah You might also like Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah E non finisce la noia Ma finisce il presente E ti ritrovi con niente, yeah E non finisce la noia Ma finisce il presente, yeah Andare via un pensiero costante Pace mia cercami costantemente In caso mi arrendessi me ne andrei, giuro Qua alle sei fa già buio Perdo ciò che trascuro, non ci penso e la chiudo No non lo so che cosa dirò a questi Da un po' non siamo gli stessi Ci amiamo solo distesi Non ci sentiamo da mesi Magari vieni da me, sì Magari vieni da me se Usiamo la scusa di Netflix</t>
+          <t>Ye-yeah Ye-yeah Ok, ok Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah A te non penso più ho detto basta Ste cose ho detto basta Lo so non tutto passa Non mi interessa più cos'hai da dire su sta faccia Cosa vuoi che faccia o un lieto fine o una finaccia Però no non credo bro io no non credo Sono sotto il cielo ho perso ciò che avevo Io che ho finito la scuola e non mi vedo da adulto Non ho una vita nuova anche se è cambiato tutto Quassù si sentivano le urla da giù Poi le porte sbattute le battute non più Ho mollato storie concluse Lasciato donne confuse Ora sono io confuso Che non ho orari dormo col fuso Che mi addormento in stanza col fumo Lansia nella pancia mangia lo scudo Ma esce dalle labbra quando la sputo E rientra dalle labbra quando la assumo Yeah Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah E non finisce la noia Ma finisce il presente E ti ritrovi con niente, yeah E non finisce la noia Ma finisce il presente, yeah Andare via un pensiero costante Pace mia cercami costantemente In caso mi arrendessi me ne andrei, giuro Qua alle sei fa già buio Perdo ciò che trascuro, non ci penso e la chiudo No non lo so che cosa dirò a questi Da un po' non siamo gli stessi Ci amiamo solo distesi Non ci sentiamo da mesi Magari vieni da me, sì Magari vieni da me se Usiamo la scusa di Netflix</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Daha ileri gidemem ki, benim gördüüm rüya bu kadar... Seni çok uzaa saklasam Böylece ruhumu aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Söyle bana ölüme uzak msn? Geçip gittiim sokak msn? Beni bulur canm alr msn, kendimi uzaa saklasam? Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Binlerce hali var, döner durur benimle Ne acayip ayar var kaçverir seni görünce çinde binbir umut var hepsi tuzak insana Sonunda bir tek huzur huzur var O da uzak, sana bana... Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Seni çok uzaa saklasam, böylece kendimi aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Benim bildiim çözüm bu kadar...You might also like</t>
+          <t>Daha ileri gidemem ki, benim gördüüm rüya bu kadar... Seni çok uzaa saklasam Böylece ruhumu aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Söyle bana ölüme uzak msn? Geçip gittiim sokak msn? Beni bulur canm alr msn, kendimi uzaa saklasam? Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Binlerce hali var, döner durur benimle Ne acayip ayar var kaçverir seni görünce çinde binbir umut var hepsi tuzak insana Sonunda bir tek huzur huzur var O da uzak, sana bana... Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Seni çok uzaa saklasam, böylece kendimi aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Benim bildiim çözüm bu kadar...</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>On a grandi salement salement, salement On n'est pas les mêmes, eux et nous, selon moi hein, hein Fini salement, Fini salement, plein de nous seuls au monde seul au monde, seul au monde C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'ai vu tellement, que Dieu m'épargne des flammes, moi, j'voulais ma part J'suis jeune d'en bas qu'a compris qu'la réussité passait par l'effort, faut en faire En vrai, les faux diront qu'ils sont vrais Patience est clé d'la réussite, j'me trouverai derrière la porte Toujours bouillant pour ma part, vous, c'est comment ? J'paye le loyer en rigolant, mes potes viennent d'ici ou bien d'Conakry On roule, on coupe le collant, j'pars en guerre sans treillis kaki La France, c'est mon pays mais pour les keufs j'ai pas la bonne peau J'm'habille pas chez Label Peaux, j'ai ma marque, ça passera pe-pro J'crois pas qu'on est les mêmes parce qu'à seize ans, j'avais un pe-pom Pilly, pilly, pour qu'ça pique et quand t'es placé sur sa gratte J'ai vu tellement d'trucs en vrai, j'vais prendre ma daronne et m'barrer Tous les jours, j'suis d'attaque comme Monkey D Luffy J'rencontre que des lles-fo mais pour l'amour, c'est pile ou face J'écrivais sur des prods YouTube, j'avais même pas d'WiFi J'suis l'chef d'en bas qui rappe mais bon, j'peux t'aider s'il faut You might also like J'suis jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand ils serrent la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'aime la pudeur et la pitié, pas la laideur et le spectacle On n'a plus l'temps nan, quand j'suis au Japon, j'dors chez l'habitant Le Halloumi dans la pita eh, la balle dans le pétard ouh Le tir dans l'habitacle, noyau d'olive qui casse tes chicots en quatre ah Et les dollars, ça sera jamais de l'or jamais J'crois pas qu'on est les mêmes parce qu'à dix-sept, j'dormais dehors jamais Crapuleux, coïncidence che-lou, leurs mains sont granuleuses, cramées on croit aux canulars, on craint aucun nullard J'ai des poids sur le cur, j'sais pas comment les aborder Quand j'ai des sautes d'humeur, j'suis obligé d'me saborder Ça vient d'Paname, ici, on a le savoir-faire J'ai des ennemis mais j'aimerai pas les savoir deads Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA J'prie pas que quand c'est dur, laisse-nous gérer la D.A Les miens priaient pour toi les miens prieront pour toi Les miens priaient pour nous les miens priaient pour nous Les miens priaient pour DA, priaient pour ceux d'en bas J'suis l'jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand il sert la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi On a grandi salement On n'est pas les mêmes, eux et nous, selon moi C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi1</t>
+          <t>On a grandi salement salement, salement On n'est pas les mêmes, eux et nous, selon moi hein, hein Fini salement, Fini salement, plein de nous seuls au monde seul au monde, seul au monde C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'ai vu tellement, que Dieu m'épargne des flammes, moi, j'voulais ma part J'suis jeune d'en bas qu'a compris qu'la réussité passait par l'effort, faut en faire En vrai, les faux diront qu'ils sont vrais Patience est clé d'la réussite, j'me trouverai derrière la porte Toujours bouillant pour ma part, vous, c'est comment ? J'paye le loyer en rigolant, mes potes viennent d'ici ou bien d'Conakry On roule, on coupe le collant, j'pars en guerre sans treillis kaki La France, c'est mon pays mais pour les keufs j'ai pas la bonne peau J'm'habille pas chez Label Peaux, j'ai ma marque, ça passera pe-pro J'crois pas qu'on est les mêmes parce qu'à seize ans, j'avais un pe-pom Pilly, pilly, pour qu'ça pique et quand t'es placé sur sa gratte J'ai vu tellement d'trucs en vrai, j'vais prendre ma daronne et m'barrer Tous les jours, j'suis d'attaque comme Monkey D Luffy J'rencontre que des lles-fo mais pour l'amour, c'est pile ou face J'écrivais sur des prods YouTube, j'avais même pas d'WiFi J'suis l'chef d'en bas qui rappe mais bon, j'peux t'aider s'il faut J'suis jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand ils serrent la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'aime la pudeur et la pitié, pas la laideur et le spectacle On n'a plus l'temps nan, quand j'suis au Japon, j'dors chez l'habitant Le Halloumi dans la pita eh, la balle dans le pétard ouh Le tir dans l'habitacle, noyau d'olive qui casse tes chicots en quatre ah Et les dollars, ça sera jamais de l'or jamais J'crois pas qu'on est les mêmes parce qu'à dix-sept, j'dormais dehors jamais Crapuleux, coïncidence che-lou, leurs mains sont granuleuses, cramées on croit aux canulars, on craint aucun nullard J'ai des poids sur le cur, j'sais pas comment les aborder Quand j'ai des sautes d'humeur, j'suis obligé d'me saborder Ça vient d'Paname, ici, on a le savoir-faire J'ai des ennemis mais j'aimerai pas les savoir deads Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA J'prie pas que quand c'est dur, laisse-nous gérer la D.A Les miens priaient pour toi les miens prieront pour toi Les miens priaient pour nous les miens priaient pour nous Les miens priaient pour DA, priaient pour ceux d'en bas J'suis l'jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand il sert la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi On a grandi salement On n'est pas les mêmes, eux et nous, selon moi C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>34 yamda al bamda Götürdüm mn yen rep qlmini Uzaqlan burdan, yaxn durmayn Dümyin tsirin zlzlmin Sim salabm, vur tbilin ver Zmannin tlbini Msti-xumar, bsdir burax Gl zirvd olan qara bir bax Ala, intibahdr, el indi vaxtdr Rep demir Ülkr gör neç vaxtdr 10 il fasilnin özü bir taktdr Aktlar braktr, buraxmr vaxt Takt qurub özün, buna bir bax Mikrofonda Ülkr Repd çoxdan sgr mn shndir Sngr güllm, stirim qulaq gzr Klmm kimins xtrini zr Biri xeyrini görr blk meylin çkr Danma mniml jarqonla Yorularsan shr qdr pardondan Slow motion, this is fashion My emotion is microphone-da action Holy! Holy goddamn Who mama? Yen, yen mn geri glirm, ya, ya ya ey Dli-dolu bnd mnim olur, h, ya ya, ya ey Hr iponum srt tlf olur rqiblr ey I'm mama boss, bilirlr zldn, ey' Yen mn mama Qorxulu yuxunuz yerindym, mama Shnlriniz glirm, mama Mnalarm düür drin, mama Mama-mama-mama-mama Kim indi qul? Kim indi cool? De Sn n qdr lazmdr pul? Ki verim kin qusan azn yum Mni danann yaralarna basram duz Bulanq sularda üzmürm tk, bu ii lazmdr düz elmk Mn oyundayam, bil sonunadk Sonunda sonuncu gülndk llrdir mn oyunda ey, çox otardm qoyunlar ey Dyiir zamanla qaydalar, amma mn ölrm, yorulmam Kim kimdir indi bildim, mn gör kim ki indi dindi El özün tsdiq v n stil, etsn d Mndn on qat skiksn, sn bitch You might also like Çk, çk slowly Tk-tk show me Rng-rng wholly Ya, cash only Bacs baxr hr gün Paxllq edirlr dörd gün Says çoxald düzgün Gncliyi keçirir üzgün Sayloony rep gtirir db Tomiris-m, parlayr zr Ssim de, brk Taxtaya nrd Cypher srt, my flow, glow, mrd Trzimd cool, tk-tk brk Baku on the map, I put that Bitch mad, suck my gat Rich fat, i got that Eat work, keep work Sn bir, mn sot Beat drop, smoke crop Klm flip-flop, budur hip-hop Geclr treklri yazram, h Görürm qlblri, vururam mn Girl MC, n dbli modellrdn Olmad bu gün göstriln Uuu yeah, mn n var? Bu aralar gözlr çarpar Uuu yeah, biz n var? Birlir axrda uzun yollar Ya bitch Ghetto-da böyüyn bblr, ey Küçd döyülür gdy, ey Bouna Bia-n hdl, ey Hdl, gör bi' bdlini, ey Bahal söz ya bahal chain Brain empty, bahal yin Drain dodaa, bahal mey Daha female, daha bi' male Hdfi blli, sbbi deyil Küçd gey, bu evin by Küçd sakit, evin deyinir Küçd paylayr, evin vermir Bunlar uaqdr, bu da fing Bel bir eydir, el qng Bia bi' irs, bura me Ssi d n duyub ek Blunt, bass sanki lava Cash, drip, balaklava Bsdir bu qdr drama Coco qarb qana Fuck the fake Fuck the fame Ya so lame Taxmayacam saxta chain Frqlnirm, istmirm saxta gang Necsn? Bilirm, deyilsen loyal Vaxtm yoxdur elyim holla Hold on! Çhray saçlarm sol qolda AP parldayr, çox zordur Yerini bil Gimme the loot Saf edir stil Hamya cool olan Mn üçün shit Dyi düüncni Mni eit</t>
+          <t>34 yamda al bamda Götürdüm mn yen rep qlmini Uzaqlan burdan, yaxn durmayn Dümyin tsirin zlzlmin Sim salabm, vur tbilin ver Zmannin tlbini Msti-xumar, bsdir burax Gl zirvd olan qara bir bax Ala, intibahdr, el indi vaxtdr Rep demir Ülkr gör neç vaxtdr 10 il fasilnin özü bir taktdr Aktlar braktr, buraxmr vaxt Takt qurub özün, buna bir bax Mikrofonda Ülkr Repd çoxdan sgr mn shndir Sngr güllm, stirim qulaq gzr Klmm kimins xtrini zr Biri xeyrini görr blk meylin çkr Danma mniml jarqonla Yorularsan shr qdr pardondan Slow motion, this is fashion My emotion is microphone-da action Holy! Holy goddamn Who mama? Yen, yen mn geri glirm, ya, ya ya ey Dli-dolu bnd mnim olur, h, ya ya, ya ey Hr iponum srt tlf olur rqiblr ey I'm mama boss, bilirlr zldn, ey' Yen mn mama Qorxulu yuxunuz yerindym, mama Shnlriniz glirm, mama Mnalarm düür drin, mama Mama-mama-mama-mama Kim indi qul? Kim indi cool? De Sn n qdr lazmdr pul? Ki verim kin qusan azn yum Mni danann yaralarna basram duz Bulanq sularda üzmürm tk, bu ii lazmdr düz elmk Mn oyundayam, bil sonunadk Sonunda sonuncu gülndk llrdir mn oyunda ey, çox otardm qoyunlar ey Dyiir zamanla qaydalar, amma mn ölrm, yorulmam Kim kimdir indi bildim, mn gör kim ki indi dindi El özün tsdiq v n stil, etsn d Mndn on qat skiksn, sn bitch Çk, çk slowly Tk-tk show me Rng-rng wholly Ya, cash only Bacs baxr hr gün Paxllq edirlr dörd gün Says çoxald düzgün Gncliyi keçirir üzgün Sayloony rep gtirir db Tomiris-m, parlayr zr Ssim de, brk Taxtaya nrd Cypher srt, my flow, glow, mrd Trzimd cool, tk-tk brk Baku on the map, I put that Bitch mad, suck my gat Rich fat, i got that Eat work, keep work Sn bir, mn sot Beat drop, smoke crop Klm flip-flop, budur hip-hop Geclr treklri yazram, h Görürm qlblri, vururam mn Girl MC, n dbli modellrdn Olmad bu gün göstriln Uuu yeah, mn n var? Bu aralar gözlr çarpar Uuu yeah, biz n var? Birlir axrda uzun yollar Ya bitch Ghetto-da böyüyn bblr, ey Küçd döyülür gdy, ey Bouna Bia-n hdl, ey Hdl, gör bi' bdlini, ey Bahal söz ya bahal chain Brain empty, bahal yin Drain dodaa, bahal mey Daha female, daha bi' male Hdfi blli, sbbi deyil Küçd gey, bu evin by Küçd sakit, evin deyinir Küçd paylayr, evin vermir Bunlar uaqdr, bu da fing Bel bir eydir, el qng Bia bi' irs, bura me Ssi d n duyub ek Blunt, bass sanki lava Cash, drip, balaklava Bsdir bu qdr drama Coco qarb qana Fuck the fake Fuck the fame Ya so lame Taxmayacam saxta chain Frqlnirm, istmirm saxta gang Necsn? Bilirm, deyilsen loyal Vaxtm yoxdur elyim holla Hold on! Çhray saçlarm sol qolda AP parldayr, çox zordur Yerini bil Gimme the loot Saf edir stil Hamya cool olan Mn üçün shit Dyi düüncni Mni eit</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet sorun var Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da Skldm, saydm, hep yalan artk Skldm bütün her eyden Boktan fikirlerden Bktm her eyinizden Her ehirden Skldm senden Skldm her eyimden Doldu kadehler kendinden kendinden Kendimi esir almken, sorun var You might also like Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasamda, zorlama ama Kalmasamda, arama beni bir daha Yoktu zaman, yok Yoktu para falan Çoktu acm çok Bastn yarama bana inat Bastn bana inat, ya Döndüm geri sana ya Sövdüm sana biraz ya Kzdn kara mizah ya Salma ona bir daha ya çtim durmadan ya Sardm oumu, yak-a durdum susmadan Evet 'sorun var' Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasanda, özledim seni ama Yoksun artk yanmda Bakalarnn lafndan lafndan Yanmda bi' gece kal kna etmekten oldum bi' hal ki kadeh de yanmda var Naz yapma kendini bana bi' sal Yeni masal Saçma gelir yeni bi' ak Sen yokken her ey uzak stediim tek ey seni duymak Telefon elimde keke arasam Kalmad cesaret ben darmadan Halimle nasl yazaym sana Böyleyken evet 'sorun var' Evet, sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada1</t>
+          <t>Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet sorun var Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da Skldm, saydm, hep yalan artk Skldm bütün her eyden Boktan fikirlerden Bktm her eyinizden Her ehirden Skldm senden Skldm her eyimden Doldu kadehler kendinden kendinden Kendimi esir almken, sorun var Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasamda, zorlama ama Kalmasamda, arama beni bir daha Yoktu zaman, yok Yoktu para falan Çoktu acm çok Bastn yarama bana inat Bastn bana inat, ya Döndüm geri sana ya Sövdüm sana biraz ya Kzdn kara mizah ya Salma ona bir daha ya çtim durmadan ya Sardm oumu, yak-a durdum susmadan Evet 'sorun var' Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasanda, özledim seni ama Yoksun artk yanmda Bakalarnn lafndan lafndan Yanmda bi' gece kal kna etmekten oldum bi' hal ki kadeh de yanmda var Naz yapma kendini bana bi' sal Yeni masal Saçma gelir yeni bi' ak Sen yokken her ey uzak stediim tek ey seni duymak Telefon elimde keke arasam Kalmad cesaret ben darmadan Halimle nasl yazaym sana Böyleyken evet 'sorun var' Evet, sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B-B-Bugy Bi'takm tipik tip bölgemde Bi'takm talihsiz söylemde Tümünün tüm ipliini pazara çkartp Açk açk göstercez Neyse ne ki bi de deyse neyse Bi kyas bi kuple bi piyez Gri bulut ve boz bayku Ne niyetle istendiyse öyle Kin sandnsa hayr rutin kaygdan böyle Yine de ruhuna salk paam Tabi, bi tk daha fazla shat di mi Aar, yine de sen ya adabnla baar Ya aalkça yaa Bilirsin çardkça baa bela Ki belki daha daha fenas tepende her an Ben almym aga desem de yine bana çatar, yeter Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin You might also likeMakul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin Pek içime sinmi de deil hani fikir Beyin, beyin ile düün Deiimin için tek çözüm Tek gözü görür onun dier gözü özür Çözülüp uzla, ya da yine neyse ne Israra kzmam da paam aha,aha,aha Ölücez hrstan, sen sal keke sar Aga hepsini öder hesap ne kadarsa Ve bende ite neyse kalan Kimine ilah kimine maskara falan Felakete dair fena bi' plan bu lk bi belirip pei sra kaybolduk E, kimimiz haketti de kimimize ayp oldu Ve bu meseleyi iyice bil diye öyle diyim Kenevirin yannda naylonsun Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin</t>
+          <t>B-B-Bugy Bi'takm tipik tip bölgemde Bi'takm talihsiz söylemde Tümünün tüm ipliini pazara çkartp Açk açk göstercez Neyse ne ki bi de deyse neyse Bi kyas bi kuple bi piyez Gri bulut ve boz bayku Ne niyetle istendiyse öyle Kin sandnsa hayr rutin kaygdan böyle Yine de ruhuna salk paam Tabi, bi tk daha fazla shat di mi Aar, yine de sen ya adabnla baar Ya aalkça yaa Bilirsin çardkça baa bela Ki belki daha daha fenas tepende her an Ben almym aga desem de yine bana çatar, yeter Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin Pek içime sinmi de deil hani fikir Beyin, beyin ile düün Deiimin için tek çözüm Tek gözü görür onun dier gözü özür Çözülüp uzla, ya da yine neyse ne Israra kzmam da paam aha,aha,aha Ölücez hrstan, sen sal keke sar Aga hepsini öder hesap ne kadarsa Ve bende ite neyse kalan Kimine ilah kimine maskara falan Felakete dair fena bi' plan bu lk bi belirip pei sra kaybolduk E, kimimiz haketti de kimimize ayp oldu Ve bu meseleyi iyice bil diye öyle diyim Kenevirin yannda naylonsun Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bu, bu yol yaamn ba Her gecenin sonunda aryo' ban prrr! Üstümde kapon, bere ve de bol pantol Çavo eklim nasl? Keyfim yerinde kur kumpas Bize denk deil her biri çöp torbas Her gün hustle, bizi göster basn Ölüyo' çocuklar sen bardasn Belimde kütem, çakm bakn, bakn ya, ya, ya, ya Yeni bi' akm ve GNG zirvede Bakn topland takm Torbada bakr, külüstür araba, aküyü kapn Sakncal ghetto, yakn tenekeleri, bir adm prrr! göz parldasn Daha zaman var Kapal kaplar biz açcaz t, t Duymadlar, bu gece kurala uymadlar Patrt var, Ose gel parann kokusu geliyo burnumuza Çabuk uza kes, kes Zulala tulann arasna Yaknda kokusu çkacak acaba ne ki? Bu çocuklara batacak ucu Yakacak inini ekibim, onlarn suçu bulaacak elime tozu Sorun ne ki? Boyun deil dengim elbette ki Derdim ne mi? Derdim göremi'cem o güzeli cennetteki You might also like Bu sokaklar dar dar Her yerde bamllar lar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar ah Bu sokaklar dar Her yerde bamllar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar Sokakta bu gece bamllar, ah Bu, bu yol ölümün ba Duruyor köede bamllar Kaçnz kurtuldu bu bokun içinden Yakandan tutuyo' skntlar Ölümün nefesi ensene deer Bi' gün yakalar Bi' gün bitecek bütün tasalar Bizi balamyo' sizin yasalar Nasld bu? imdi tek tek oturdu talar Gökyüzü dolu tüm sevdiklerimle Hiçbir yldz kaymaz da oradan ya prrr! Yasan tut hadi, kustum dün aslma dur Çoktandr içindeyiz sokan, deli deilsen yerinde dur dur Biz her gün öldük, doduk, içinde batan gördük gerçei Sen nereden bileceksin? Bu durumda olmak kendi tercihi mi? Yok oldu gençliin gerçi, dönmeyecek bugün bu devran Kurtulacak bütün çocuklar, ölmeyecek sokak banda Sanrm anladn bizi, GNG, narkotik, Murda ve Uzi ya Vidos ayltr adam uzaktan duyulur ''hayrdr? sesi Her sokak bi' film karesi ya, kanna giriyorlar Gençlerin tedavi çaresi ya, anneler alyorlar</t>
+          <t>Bu, bu yol yaamn ba Her gecenin sonunda aryo' ban prrr! Üstümde kapon, bere ve de bol pantol Çavo eklim nasl? Keyfim yerinde kur kumpas Bize denk deil her biri çöp torbas Her gün hustle, bizi göster basn Ölüyo' çocuklar sen bardasn Belimde kütem, çakm bakn, bakn ya, ya, ya, ya Yeni bi' akm ve GNG zirvede Bakn topland takm Torbada bakr, külüstür araba, aküyü kapn Sakncal ghetto, yakn tenekeleri, bir adm prrr! göz parldasn Daha zaman var Kapal kaplar biz açcaz t, t Duymadlar, bu gece kurala uymadlar Patrt var, Ose gel parann kokusu geliyo burnumuza Çabuk uza kes, kes Zulala tulann arasna Yaknda kokusu çkacak acaba ne ki? Bu çocuklara batacak ucu Yakacak inini ekibim, onlarn suçu bulaacak elime tozu Sorun ne ki? Boyun deil dengim elbette ki Derdim ne mi? Derdim göremi'cem o güzeli cennetteki Bu sokaklar dar dar Her yerde bamllar lar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar ah Bu sokaklar dar Her yerde bamllar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar Sokakta bu gece bamllar, ah Bu, bu yol ölümün ba Duruyor köede bamllar Kaçnz kurtuldu bu bokun içinden Yakandan tutuyo' skntlar Ölümün nefesi ensene deer Bi' gün yakalar Bi' gün bitecek bütün tasalar Bizi balamyo' sizin yasalar Nasld bu? imdi tek tek oturdu talar Gökyüzü dolu tüm sevdiklerimle Hiçbir yldz kaymaz da oradan ya prrr! Yasan tut hadi, kustum dün aslma dur Çoktandr içindeyiz sokan, deli deilsen yerinde dur dur Biz her gün öldük, doduk, içinde batan gördük gerçei Sen nereden bileceksin? Bu durumda olmak kendi tercihi mi? Yok oldu gençliin gerçi, dönmeyecek bugün bu devran Kurtulacak bütün çocuklar, ölmeyecek sokak banda Sanrm anladn bizi, GNG, narkotik, Murda ve Uzi ya Vidos ayltr adam uzaktan duyulur ''hayrdr? sesi Her sokak bi' film karesi ya, kanna giriyorlar Gençlerin tedavi çaresi ya, anneler alyorlar</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Hadi bulualm undergroundumun lk 'rap' bayra diktii yerde At bakalm Disse Diss, görelim kim Battle Winner, sözün 'beat'tii yerde Çakal m iyi, Uzi kullanyor Uzimi yapyor Çakallarla dans Hodri meydan, bak, yukarlar makam Yeter artk, akt sokaklarda kan Durma, durma, gönder mermi Kuru sk mermiyi Ben Fero yer mi? Ezhel mi hakl, ya Norm Ender mi? Bu El Classico deil, normal derbi You might also likeFarz et, Türkçe rapte ben Franszm, ama Macron deilim Hayki 2 sene Base mode-dayken Kaybedecek bir Patron deilim Eskiehir rap derken akla gelen Allame mi, Joker mi, bilemem Rap silahorunun hakkna giremem Söz sahibiysen, hakkn ver hemen Nedense herkes rapin sahibi Göz ya dökersin bir timsah gibi Hatan anlar Khontkar-dan gidip Özür dilersin ehinah gibi Yakr, Freestyle-a Hidra anere Sokrat ST, Mero-ya Murda Ceza, Turkish Rap God Go home hip-hop, underworld up Soruyorum eski okuldan Salam rap yapan kaç kii kald? Grogi, Kamufle, Defkhan, Aga B Sansar Salvo, Sayedar alt Türk rapi devlet olursa Gazapizm olur müzik bakan Fuat Erkin olur d iler bakan Sagopa Kajmer cumhurbakan Aln teri yerine aksa kanm Gangster rap Killa Hakan fan Ghetto-da tehlike 36 boys Ordusu yeterli Massaka-nn, ey Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Kim? Kim söz sahibi? Söz sahibi Kim söz sahibi? Söz sahibi Kim söz sahibi? Gel, gör, kim 'battle'' rapte söz sahibi?</t>
+          <t>Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Hadi bulualm undergroundumun lk 'rap' bayra diktii yerde At bakalm Disse Diss, görelim kim Battle Winner, sözün 'beat'tii yerde Çakal m iyi, Uzi kullanyor Uzimi yapyor Çakallarla dans Hodri meydan, bak, yukarlar makam Yeter artk, akt sokaklarda kan Durma, durma, gönder mermi Kuru sk mermiyi Ben Fero yer mi? Ezhel mi hakl, ya Norm Ender mi? Bu El Classico deil, normal derbi Farz et, Türkçe rapte ben Franszm, ama Macron deilim Hayki 2 sene Base mode-dayken Kaybedecek bir Patron deilim Eskiehir rap derken akla gelen Allame mi, Joker mi, bilemem Rap silahorunun hakkna giremem Söz sahibiysen, hakkn ver hemen Nedense herkes rapin sahibi Göz ya dökersin bir timsah gibi Hatan anlar Khontkar-dan gidip Özür dilersin ehinah gibi Yakr, Freestyle-a Hidra anere Sokrat ST, Mero-ya Murda Ceza, Turkish Rap God Go home hip-hop, underworld up Soruyorum eski okuldan Salam rap yapan kaç kii kald? Grogi, Kamufle, Defkhan, Aga B Sansar Salvo, Sayedar alt Türk rapi devlet olursa Gazapizm olur müzik bakan Fuat Erkin olur d iler bakan Sagopa Kajmer cumhurbakan Aln teri yerine aksa kanm Gangster rap Killa Hakan fan Ghetto-da tehlike 36 boys Ordusu yeterli Massaka-nn, ey Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Kim? Kim söz sahibi? Söz sahibi Kim söz sahibi? Söz sahibi Kim söz sahibi? Gel, gör, kim 'battle'' rapte söz sahibi?</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gelen fantastik ürperdi sende beden kaltak piç üzmezdim Kimliinde müslim yazan ergen kz neden takmaz ki tülbenti Gel kerem bak justin ünlendi rapçi yer kinder ver güçlensin arklarnla deil koç vajinanla sen dillerden dümezsin Zayfm kilo sorunum olabilir ama bak kaytta vokalle iti kabin Söz yazma yok artk bitti vakit, takma diin yapmaz dili rakip Ak parças tarzn benimsesem emin ol tavlar her barm amck Siktir olun piyasada wack kaynar biz yok lan piç ben varm artk ben varm artk pelteksin, yarrak verelim sen erkek sik Kalemini silah sanp ate ediyon da tutturamazsn merceksiz Pert ettim, söyler tam be kere ve anan manitam, manitan tek gecelik yeeaaah Arkadan karde geneli bu yeralt p bize kan le gerekir Bizim bi' bu kadar daha yeraltnda, arkada bekliyo' yüz tekne Fame olmaya bi' baar dersen, Arsz Bela'ya sakn ha küfretme! Tek tük besteee bulunca yetenek belgesi gösterir aç karnl Rap müsveddeme yazl bi'kaç sözle anlatlan bir bayapttr al! Ol'cak tabii göt birazck kibir vodka bitince biramdr fitil Kendini önemse fakat çocuk seni douma sürükledi bi' anlk sinir Kim arsz kimin namusuyla yaadn bilemez ilahsz biri Her yerden gelen o muhabbetlere kar manitana inandn sikik En azndan sigaran var üstünsün ama aç bir adamdan Üstüne kadn deil bira damlar, albümün alnm'cak DR'dan Vardiyalar var kan bi' yalanla lan kim ararsa dersin inanandan Feyz al tek peace at hit atam san onu bana gelin hatun tip ararsa Seç arkadan çek fark atmz bu kan yaz adm bak var tarafmz aga Bil ki kimse örenemezdi jurassic olmasayd punch kafasn Tut al kafasn tutkal yaratrz ud çal parasn tut kasma kasn Pus tat makasm prim alcaksan ergen hiç brakma vuslat yakasn Rhyme hastasym bu da göstergem, Enes Alper'i herkese göstercem Gene kan verin elzeme dön dersem, bere tak geri kerkenez özlen'ce'n Yere punch atarm karmaann içinden, kurtuldun mu lan ölmekten Peygamberimiz bir harf öretene kul, ona ramen sen öretmen kesYou might also like</t>
+          <t>Gelen fantastik ürperdi sende beden kaltak piç üzmezdim Kimliinde müslim yazan ergen kz neden takmaz ki tülbenti Gel kerem bak justin ünlendi rapçi yer kinder ver güçlensin arklarnla deil koç vajinanla sen dillerden dümezsin Zayfm kilo sorunum olabilir ama bak kaytta vokalle iti kabin Söz yazma yok artk bitti vakit, takma diin yapmaz dili rakip Ak parças tarzn benimsesem emin ol tavlar her barm amck Siktir olun piyasada wack kaynar biz yok lan piç ben varm artk ben varm artk pelteksin, yarrak verelim sen erkek sik Kalemini silah sanp ate ediyon da tutturamazsn merceksiz Pert ettim, söyler tam be kere ve anan manitam, manitan tek gecelik yeeaaah Arkadan karde geneli bu yeralt p bize kan le gerekir Bizim bi' bu kadar daha yeraltnda, arkada bekliyo' yüz tekne Fame olmaya bi' baar dersen, Arsz Bela'ya sakn ha küfretme! Tek tük besteee bulunca yetenek belgesi gösterir aç karnl Rap müsveddeme yazl bi'kaç sözle anlatlan bir bayapttr al! Ol'cak tabii göt birazck kibir vodka bitince biramdr fitil Kendini önemse fakat çocuk seni douma sürükledi bi' anlk sinir Kim arsz kimin namusuyla yaadn bilemez ilahsz biri Her yerden gelen o muhabbetlere kar manitana inandn sikik En azndan sigaran var üstünsün ama aç bir adamdan Üstüne kadn deil bira damlar, albümün alnm'cak DR'dan Vardiyalar var kan bi' yalanla lan kim ararsa dersin inanandan Feyz al tek peace at hit atam san onu bana gelin hatun tip ararsa Seç arkadan çek fark atmz bu kan yaz adm bak var tarafmz aga Bil ki kimse örenemezdi jurassic olmasayd punch kafasn Tut al kafasn tutkal yaratrz ud çal parasn tut kasma kasn Pus tat makasm prim alcaksan ergen hiç brakma vuslat yakasn Rhyme hastasym bu da göstergem, Enes Alper'i herkese göstercem Gene kan verin elzeme dön dersem, bere tak geri kerkenez özlen'ce'n Yere punch atarm karmaann içinden, kurtuldun mu lan ölmekten Peygamberimiz bir harf öretene kul, ona ramen sen öretmen kes</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde You might also like Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
+          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Grr Para sayan deil, Era7 para yapan bi' makina Pow Belde emanet, el'de Bodrumun harita Konuma be dakika, buluuruz patika Neden istek kutumda, kekem, senin manita? Pow Bilmeden matematik Glock otomatik, iler sistematik, n'apiyim? Yeah Olmuyo' para yapmadm tek bi' saatim Yeah Son icraatim engelledi yurtd seyahatimi Pow stedim beraatimi, vermiyorum i Veriyorum avukat eliinde ifademi Ey, ey, ey Era7capone, evet, bi' çetenin hakimi Bilir misin, bu hayat nelere oldu mal? Yeah, tkr tkr devam Uyurken bile benim bütün iim faal Bu çocuk gangsta, Bodrum Block orkestra Haram ya da helal, bebek, iim illegal Araba üstü açk, gez göz arpack Yerime yatar benim karde Götün yerse arka çk Sardk sarmak gibi, dedim Ate La vida loca, kuliste koka' Verdim srtm duvara ya da Bodrum Block'a Çiziyorum tabaklarn üzerine rota Bilmeden tek bi' nota, Spotify artist Era7capone birazck narsist Pow, pow, pow Delil toplar peimden Asayi Ödediin hesab veriyorum bahi Çekemiyo'm kapris çünkü param var Ey, ya Sürtüklerle aram ama hepsinde farkl numaram var You might also like K-K-K-KERO</t>
+          <t>Grr Para sayan deil, Era7 para yapan bi' makina Pow Belde emanet, el'de Bodrumun harita Konuma be dakika, buluuruz patika Neden istek kutumda, kekem, senin manita? Pow Bilmeden matematik Glock otomatik, iler sistematik, n'apiyim? Yeah Olmuyo' para yapmadm tek bi' saatim Yeah Son icraatim engelledi yurtd seyahatimi Pow stedim beraatimi, vermiyorum i Veriyorum avukat eliinde ifademi Ey, ey, ey Era7capone, evet, bi' çetenin hakimi Bilir misin, bu hayat nelere oldu mal? Yeah, tkr tkr devam Uyurken bile benim bütün iim faal Bu çocuk gangsta, Bodrum Block orkestra Haram ya da helal, bebek, iim illegal Araba üstü açk, gez göz arpack Yerime yatar benim karde Götün yerse arka çk Sardk sarmak gibi, dedim Ate La vida loca, kuliste koka' Verdim srtm duvara ya da Bodrum Block'a Çiziyorum tabaklarn üzerine rota Bilmeden tek bi' nota, Spotify artist Era7capone birazck narsist Pow, pow, pow Delil toplar peimden Asayi Ödediin hesab veriyorum bahi Çekemiyo'm kapris çünkü param var Ey, ya Sürtüklerle aram ama hepsinde farkl numaram var K-K-K-KERO</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kalemi kada hadi dilime bala Snrlarm zorla mürekkebimi boma Benim adm sorma bak neydim noldu vah Gözde kald taht leyli leyli lom Puan 10 ama bana 1 numara dedi Yeteneimi ölçemez cüretkar jüri Duygularm kadar bi' geçmi Kalp mantnn önüne geçmi Birden akl dengelerimi bozdu bi' kozdu bana bi' toz gibi bonzai Rap akli dengelerimi bozdu rap bi' madde çekmeyince zordu Hayalci derler uyku bilmem yazmadm gün içimde bi' dert var Rap olmadan var depremler Rap tahtmn altnda neler var Ben bilemedim ama kim bilir bunu bi' ben bilir rapime can denir Canma can gelir bunu yazan bilir bu yüzden bana hayat hep leyli leyli lom Ve neydin noldun lan ylanlarm attm koynumdan Uykularm bölemezsiniz artk geçtim ben kabuslardan Rap özgürlük yaradan bounam dil verdi Yalvarrm kalemi eline her alan yazmasn bak bu rap piç edildi Özüne dön geri de sayma geri kafal gözünü aç ileri Bi kulaç hadi bu dalgalara güvenme bu dalgalar limana götürmez Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer You might also like Bi' derde bay bay bi' derde gel gel, derdini senden alana yer ver Bi' derde goy goy gidene bi' yol ver, dert verene de leylide ley lom Krsan kalemimi krlr kalpler Kalbimi kran da üzdü kalemler Kelamlar yeter dil uzatsam evet çünkü dilimin ucu bi' hançer Sapl kalbe bi' rap sevdas rapin belas rapin cezas Üretirim ama dilime bi' laf ver rapin sevab bu rapin mirand Dualarm olur hadi bi' can ver kstlar sesimi sesime bi' ses ver Leyli leyli lom neydi nolacak kurtarmazsan dertde boulacak Dur dedim biraz duy dedim emei sarfedin rapimi kefedin Beni bi' test edin yada bi' ses verin türkçe raplerine leyli leyli lom Leyli leyli lom leyli leyli lom leyli leyli lom leyli leyli lom Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer1</t>
+          <t>Kalemi kada hadi dilime bala Snrlarm zorla mürekkebimi boma Benim adm sorma bak neydim noldu vah Gözde kald taht leyli leyli lom Puan 10 ama bana 1 numara dedi Yeteneimi ölçemez cüretkar jüri Duygularm kadar bi' geçmi Kalp mantnn önüne geçmi Birden akl dengelerimi bozdu bi' kozdu bana bi' toz gibi bonzai Rap akli dengelerimi bozdu rap bi' madde çekmeyince zordu Hayalci derler uyku bilmem yazmadm gün içimde bi' dert var Rap olmadan var depremler Rap tahtmn altnda neler var Ben bilemedim ama kim bilir bunu bi' ben bilir rapime can denir Canma can gelir bunu yazan bilir bu yüzden bana hayat hep leyli leyli lom Ve neydin noldun lan ylanlarm attm koynumdan Uykularm bölemezsiniz artk geçtim ben kabuslardan Rap özgürlük yaradan bounam dil verdi Yalvarrm kalemi eline her alan yazmasn bak bu rap piç edildi Özüne dön geri de sayma geri kafal gözünü aç ileri Bi kulaç hadi bu dalgalara güvenme bu dalgalar limana götürmez Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Bi' derde bay bay bi' derde gel gel, derdini senden alana yer ver Bi' derde goy goy gidene bi' yol ver, dert verene de leylide ley lom Krsan kalemimi krlr kalpler Kalbimi kran da üzdü kalemler Kelamlar yeter dil uzatsam evet çünkü dilimin ucu bi' hançer Sapl kalbe bi' rap sevdas rapin belas rapin cezas Üretirim ama dilime bi' laf ver rapin sevab bu rapin mirand Dualarm olur hadi bi' can ver kstlar sesimi sesime bi' ses ver Leyli leyli lom neydi nolacak kurtarmazsan dertde boulacak Dur dedim biraz duy dedim emei sarfedin rapimi kefedin Beni bi' test edin yada bi' ses verin türkçe raplerine leyli leyli lom Leyli leyli lom leyli leyli lom leyli leyli lom leyli leyli lom Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sert adamlar size göre deil di mi Ghetto sokaklar size zor gelir di mi Kolluyoruz Adanay çekil bas geri Back to back bu çete ii çete ii Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Uyan bahçende asl bara Güçlü ol ki iin gitsin rast Yine de gez dolu, kafa rahat Kafa bozduuyla kafa dat Kurdun ini, sfr bir Birlikte koparr yeriz bir Sokaklar dar, evler bir Bir yaarz biz, ölürüz bir ç karartr tablo, gösümde logo Benim Picasso'm, Escobar Pablo ç dünyam öldürür, d sebep buna kork Hayatlar bok, düler bizim, Van Gogh You might also likerendin çulsuzdu, söylüyordu Müslüm Çekince smokini, dediniz baba te bu yüzden akl deil istiyorum para Uçan bar güvercini deil mahalleye alarm Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Kalarmz çatk gözlerimiz kara Uzaklasak da çeker bizi bela Nasl edek okunuyor sela Cinayetler kol gezer hepsi müptela Mevzuyu abart, elemanlar sakat Bu gece sokaklardayz baba kaplar kapat Rahat uyu, tehlikede güvenlikte Bizde ak atyoruz sadece sizle Yadrgama bizi olmas gerekli böyle Çakallar öterdi yoksa reis bizde böyle Hatrla tipinden dolay mekandan attlar Taramad m hangover kalanikof ile Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Bugün ghetto yarn çkmalsn oradan ghetto Banka soyup para bulsam dahi yerim ghetto Sikim fame size beyin kafa krk Sanki onun peindeyim peindeyim Sicildeki kirin suçun hepsi bizim Mahalleye girin mevzular kesin Çetenize tehdit adanadan kesit Piyasana asit lamborghini M.O.B Mahallenin içi yerin dibi elin kiri Psikopat yarat minimal taliban çete tehlikeli Evden çkt bu çocuklar çok küçüktü Dokunsan ölürdü imdi dokunma ölürsün Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii</t>
+          <t>Sert adamlar size göre deil di mi Ghetto sokaklar size zor gelir di mi Kolluyoruz Adanay çekil bas geri Back to back bu çete ii çete ii Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Uyan bahçende asl bara Güçlü ol ki iin gitsin rast Yine de gez dolu, kafa rahat Kafa bozduuyla kafa dat Kurdun ini, sfr bir Birlikte koparr yeriz bir Sokaklar dar, evler bir Bir yaarz biz, ölürüz bir ç karartr tablo, gösümde logo Benim Picasso'm, Escobar Pablo ç dünyam öldürür, d sebep buna kork Hayatlar bok, düler bizim, Van Gogh rendin çulsuzdu, söylüyordu Müslüm Çekince smokini, dediniz baba te bu yüzden akl deil istiyorum para Uçan bar güvercini deil mahalleye alarm Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Kalarmz çatk gözlerimiz kara Uzaklasak da çeker bizi bela Nasl edek okunuyor sela Cinayetler kol gezer hepsi müptela Mevzuyu abart, elemanlar sakat Bu gece sokaklardayz baba kaplar kapat Rahat uyu, tehlikede güvenlikte Bizde ak atyoruz sadece sizle Yadrgama bizi olmas gerekli böyle Çakallar öterdi yoksa reis bizde böyle Hatrla tipinden dolay mekandan attlar Taramad m hangover kalanikof ile Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Bugün ghetto yarn çkmalsn oradan ghetto Banka soyup para bulsam dahi yerim ghetto Sikim fame size beyin kafa krk Sanki onun peindeyim peindeyim Sicildeki kirin suçun hepsi bizim Mahalleye girin mevzular kesin Çetenize tehdit adanadan kesit Piyasana asit lamborghini M.O.B Mahallenin içi yerin dibi elin kiri Psikopat yarat minimal taliban çete tehlikeli Evden çkt bu çocuklar çok küçüktü Dokunsan ölürdü imdi dokunma ölürsün Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr You might also like Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
+          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Svako malo mi se javljaju reperi pikice I mole da ih malo proguram, pa ih gurnem sa litice Glazba ko hrana, jebe noeve, vilice Dobar tek, do kraja pjesme imate slomljene vilice Ti si biznismen? Zakon bro, svako dobro esto putuje svijetom i sreli smo se napokon Dam ti Tram 11 album s eksplozivnom napravom I shvate tajnu crne kutije kad lociraju zrakoplov Treba blagoslov? Tog svetog dodira nema Ostaje glava obitelji, na zidu sobe trofeja Korpulentan fella, jedva smo se rijeili tijela Rambo sranje, ne zbog miia, ve zbog etiri dijela U peini repam, ubio sam Mamuta nedavno Dobar glas daleko se uje, drim kljove ko megafon Mrzim mekano govno, kad takva muzika krene Buim bubnjie, obeajem Vie nee uti za mene. Vrati se kui na vrijeme, gibaj natrag u sobicu itaj Auto Klub, broji suze koje teku po licu eli BMW? Nema pinke za policu Vodim te na otpad, skupa s autom pretvorim u kockicu... Piim katamaranom u Guantanamo S matrama vadim dva MC-a koji igraju biljar s granatama Igra s vatrama, nikad na Jantara jer nastrada kompa Siguran sam, ko u Siriji svinja na ramadam You might also like Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Bacim prvu lajnu, a mikrofon ve je satran ak mi Kolak veli da sam nevjero-Jantar Unikatniji od unikata, ti si Drake, ja sam Nathan Satan Panonski, deveta vrata Uvijek biti ete drugi i trei ko Sprite i Fanta Koljem wack MC-e dok svira Mjeseeva sonata Zna ono, kad ti je Broz tata Pa ti kae Daj pogledaj, mui me prostata. Imam bolestan dodir, al nisam Cobran i Mlata Imam ujaka shizofreniara, ima bombe jo od rata I ne kaem to tek tako, mi smo sekta ko likovi kaj dre Pentagon Diem embargo ak ima mekani rep kod Richard GiR je hip-hop dekan i lektor Nekad zvao sam se niko, danas me zovu netko To jest, drugi me zovu, sam sebe zovem rijetko Kakvi su vam utisci? Jednostavne lajne mi kolju ko da su multi-si Spavam dvanaest sati dnevno, to se zove beauty sleep I opet ubio sam i beat, i mic, i studio skroz rutinski off-beat Ljudi me kue ko da sam Josip Ovo sranje vozi, kroz zid, Boe pomozi Punch za punchem, di su stomatolozi ek, ek, ek sekundu, imam poziv Ey yo, Richard GiR, wassup? Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je striktno droga, rep mi sjedi tik do Boga Tintu tvojeg pera prepoznam kad ujem hit iz bonga Dim i smog na traci, kad bacim zapalim svaki beat Ko zlatni pirov novim i podarim zadnji ir Tvrd ko titan, bacim vers ko vrlo bitna karika U dobrom repu kad dotaknem rukom ritam Svako uho titra kad probijam zvuni zid Struni drift na beatu kojeg ne moe nauiti Nedokuiv skill, besprijekorno rutinski Iznesem svaki puta kad u gluhoj sobi sruim zid Tui zvunici izgaraju ko gorivo Tvoj spori flow nikad ne prelazi korito Koridor u kojem vladam okruen je bedemima Svako se sjeme prima, pa uberem emdem rima Nikakva preventiva ne postoji protiv ovog Zarobim slovo i natjeram ga da tvori novo Jebe akciju, strahuju kad kontra krene Obrambene tehnike pamte ko Nota bene Note okamene, tvore krut u metriku Poinju repere vezane uz etiku Sveti krug rijei neprestano krui matrom Kljuni faktor uim ak se slue tuim aktom Runim taktom navigiram let raketa Permanentna strofa, reperi su smijena meta Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je, ovo je ve esti jebote. Nita od one take-a</t>
+          <t>Svako malo mi se javljaju reperi pikice I mole da ih malo proguram, pa ih gurnem sa litice Glazba ko hrana, jebe noeve, vilice Dobar tek, do kraja pjesme imate slomljene vilice Ti si biznismen? Zakon bro, svako dobro esto putuje svijetom i sreli smo se napokon Dam ti Tram 11 album s eksplozivnom napravom I shvate tajnu crne kutije kad lociraju zrakoplov Treba blagoslov? Tog svetog dodira nema Ostaje glava obitelji, na zidu sobe trofeja Korpulentan fella, jedva smo se rijeili tijela Rambo sranje, ne zbog miia, ve zbog etiri dijela U peini repam, ubio sam Mamuta nedavno Dobar glas daleko se uje, drim kljove ko megafon Mrzim mekano govno, kad takva muzika krene Buim bubnjie, obeajem Vie nee uti za mene. Vrati se kui na vrijeme, gibaj natrag u sobicu itaj Auto Klub, broji suze koje teku po licu eli BMW? Nema pinke za policu Vodim te na otpad, skupa s autom pretvorim u kockicu... Piim katamaranom u Guantanamo S matrama vadim dva MC-a koji igraju biljar s granatama Igra s vatrama, nikad na Jantara jer nastrada kompa Siguran sam, ko u Siriji svinja na ramadam Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Bacim prvu lajnu, a mikrofon ve je satran ak mi Kolak veli da sam nevjero-Jantar Unikatniji od unikata, ti si Drake, ja sam Nathan Satan Panonski, deveta vrata Uvijek biti ete drugi i trei ko Sprite i Fanta Koljem wack MC-e dok svira Mjeseeva sonata Zna ono, kad ti je Broz tata Pa ti kae Daj pogledaj, mui me prostata. Imam bolestan dodir, al nisam Cobran i Mlata Imam ujaka shizofreniara, ima bombe jo od rata I ne kaem to tek tako, mi smo sekta ko likovi kaj dre Pentagon Diem embargo ak ima mekani rep kod Richard GiR je hip-hop dekan i lektor Nekad zvao sam se niko, danas me zovu netko To jest, drugi me zovu, sam sebe zovem rijetko Kakvi su vam utisci? Jednostavne lajne mi kolju ko da su multi-si Spavam dvanaest sati dnevno, to se zove beauty sleep I opet ubio sam i beat, i mic, i studio skroz rutinski off-beat Ljudi me kue ko da sam Josip Ovo sranje vozi, kroz zid, Boe pomozi Punch za punchem, di su stomatolozi ek, ek, ek sekundu, imam poziv Ey yo, Richard GiR, wassup? Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je striktno droga, rep mi sjedi tik do Boga Tintu tvojeg pera prepoznam kad ujem hit iz bonga Dim i smog na traci, kad bacim zapalim svaki beat Ko zlatni pirov novim i podarim zadnji ir Tvrd ko titan, bacim vers ko vrlo bitna karika U dobrom repu kad dotaknem rukom ritam Svako uho titra kad probijam zvuni zid Struni drift na beatu kojeg ne moe nauiti Nedokuiv skill, besprijekorno rutinski Iznesem svaki puta kad u gluhoj sobi sruim zid Tui zvunici izgaraju ko gorivo Tvoj spori flow nikad ne prelazi korito Koridor u kojem vladam okruen je bedemima Svako se sjeme prima, pa uberem emdem rima Nikakva preventiva ne postoji protiv ovog Zarobim slovo i natjeram ga da tvori novo Jebe akciju, strahuju kad kontra krene Obrambene tehnike pamte ko Nota bene Note okamene, tvore krut u metriku Poinju repere vezane uz etiku Sveti krug rijei neprestano krui matrom Kljuni faktor uim ak se slue tuim aktom Runim taktom navigiram let raketa Permanentna strofa, reperi su smijena meta Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je, ovo je ve esti jebote. Nita od one take-a</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Misli ti uzima kada ju gleda s drugima sad Dok luta noima grad, Zagreb iam te rad Vodio bi je u ir, a mala oe safir Da sjaji kao vampir, da sjaji kao vampir Mala ou je bila aye, feelaj hit do beata je Ko uspinjaa te podie, kad sputa sputa jos nie Ona bi htjela jo blie, da joj doe blie Gori umom pitanja, emu sva ova shvikanja I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Ne zanima me, ne zanima me Kae bilo bilo je, vie ne zanima me U glavi borba TNT 4 zida nisam free Oe vie uzmi si Pa se onda nosi s tim Sve je kao neki film aye ivim scenu trei dim aye Ak si s nama, nisi s njim ay Neu leana ou green aye Traku skombam dvij min aye Sori mala dobi seen aye Nisi prva niti zadnja bitch Swana ludi laser beam yeah You might also like I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima</t>
+          <t>I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Misli ti uzima kada ju gleda s drugima sad Dok luta noima grad, Zagreb iam te rad Vodio bi je u ir, a mala oe safir Da sjaji kao vampir, da sjaji kao vampir Mala ou je bila aye, feelaj hit do beata je Ko uspinjaa te podie, kad sputa sputa jos nie Ona bi htjela jo blie, da joj doe blie Gori umom pitanja, emu sva ova shvikanja I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Ne zanima me, ne zanima me Kae bilo bilo je, vie ne zanima me U glavi borba TNT 4 zida nisam free Oe vie uzmi si Pa se onda nosi s tim Sve je kao neki film aye ivim scenu trei dim aye Ak si s nama, nisi s njim ay Neu leana ou green aye Traku skombam dvij min aye Sori mala dobi seen aye Nisi prva niti zadnja bitch Swana ludi laser beam yeah I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KISIM I 530 Bebeim, uh Oha, bebeim, aradnda telefonu kim açacak? Evet, evet 530, araba kayp Ne bir cevap var ne de geri arama, hepimiz madurmuuz gibi hissediyorum Limanlar daha da uzamaya balyor Sarhoken mesaj atyorum, Patrón içmemeliyim Telefonu elime alyorum, müziimi açyorum, alanma giriyorum Sarhoken mesaj atyorum, Patrón'a dava açmalym Sana doru bir ekilde yaklamak için yanl admlar atmak zorunda kaldm Bütün bu admlardan geçmelisin ki tavsiye verebilesin O elenceli gecelerin bedeli, likörün vurduunu hissdebiliyorum Neden birisi snin kalbini krdnda, görüünü düzeltmene yardmc oluyor? Eer bir eytana ya da divaya ak olursan Ruh ikizinle bulutuunda, onun ruha sahip olmas için, dua et Kristal top, onlarn beni tekrar terk edip etmeyeceklerini söyleyemedi Problemler orta boyla paylamak için fazla büyük Bu seviyede, et ve kan için savamyoruz Ve eytann avukat, eytana avukatlk yapyor Ak tamamen akp gidiyor, durmas gerek, hepsi soluyor Eskiden gizli davranrdk, ama imdi, her ey çok bariz Hepsi kayp, deil mi? Her eyin çöküünü izliyoruz Konumann ana konusu biziz You might also like 530, araba kayp Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Oyun vakti, aslnda, Ye vakti Geçen yl garip geçti Çocuklarmla FaceTime üzerinden görütüm Ve kim ilk önce kimin kalbini kracak? Hep benimkini kryorlar Tanrnn bana verecei kutsamay bekliyorum Ben burada bir aile yetitirmeye çalyorum, nineyi de bakalar yetitirmeli Seni yalnz brakmaya çalyorum Ama son mesaj Patrón'un yüzündendi 530, araba kayp Duygularmdan uzaklatm Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Ksm II Dear Summer Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum 530, araba kayp Mesafe dediin ey bu mu? Biraz, camdan hapishanenin içinde Duh-duh, son görümemizden önce Bu i tamamdr, evet, umarm i görmütür Bu i görür, hayr, i gördü Bu konuya çok sinirliyim, yaptmz sanmtm Herkes, hepimizin çok fazlasn istiyor, biz hariç herkes Geriye kalanlarn daha az ne bilmiyorum, daha az olmadan uzakla ve kaç Bizden geri kalanlar yazmaya çalyorum, bizden geri kalanlar yazmaya çalyorum Baka bir ey yazamyorum, yazarn ne yaptn merak ediyorum Söyledikleri her ey yaand, ön gördükleri her ey yaand Ne kadar kötü olduunu bilmiyorum, bunu nasl unutacam bilmiyorum Bunu nasl unutacam bilmiyorum Ne olduunu biliyordun, ne olduunu biliyorsun, çocuklar biliyorsun Yaptmz biliyorsun ve ben de yaptmz biliyorum unu bil, kabul edeceim, devam edeceim çimdeki duygular dar çkarttm ve içeri giriyoruz Bütün listeyi tek bir telefonla hallederim ve yldrmla yüksee çkarm Dayanamyorum, dayanamyorum Sen sahte bir orospusun Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu O arklarn içinde yaamyorsun, nasl bir düünce, orospu Git Lil Baby dinle, git Future dinle, orospu Yumuak ol, gelecein hakknda düünmüyorsun, orospu Sa-fah-na-da yapma, bunda yeniyim Da-da, na-dana, bunlarn da üstesinden geleceim Pa-da-la, fa-na-dan, bunu düünme Senin için en tepeden düemem, orospu Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu Young Thug, Thug, Gunna Wunna, orospuya yap Git Lil Baby dinle, git Future dinle, orospu Bir kaçak için huy olmadan önce Wunna-tunna-dunna-dunna, ve ben orospular sevmiyorum Sen Ye'yi sevmiyorsun, sen Moneybagg Yo'yu seviyorsun Sözlemeyi imzaladn yeri imzaladm? O ne için kötü? O neye kzgn? Sen sahte bir orospusun Beni dinleme, dinlemene gerek yok, git Drake dinle, orospu Git Lil Baby dinle, git Future dinle, orospu Ama eer ben senin için geleceindeki nunna-dunna isem, orospu Umarm ki bebeinin babas kaçaktr Ve umarm çocuu kaybettiinde, sanna-danna yaparsn Ve umarm ki, bununla danna-danna yapmak istersin Bu son cümleler yaland Son mesaj Patrón yüzündendi Bir eyler balattm m? Kalp krkl yok, bunlarn da üstesinden geleceim</t>
+          <t>KISIM I 530 Bebeim, uh Oha, bebeim, aradnda telefonu kim açacak? Evet, evet 530, araba kayp Ne bir cevap var ne de geri arama, hepimiz madurmuuz gibi hissediyorum Limanlar daha da uzamaya balyor Sarhoken mesaj atyorum, Patrón içmemeliyim Telefonu elime alyorum, müziimi açyorum, alanma giriyorum Sarhoken mesaj atyorum, Patrón'a dava açmalym Sana doru bir ekilde yaklamak için yanl admlar atmak zorunda kaldm Bütün bu admlardan geçmelisin ki tavsiye verebilesin O elenceli gecelerin bedeli, likörün vurduunu hissdebiliyorum Neden birisi snin kalbini krdnda, görüünü düzeltmene yardmc oluyor? Eer bir eytana ya da divaya ak olursan Ruh ikizinle bulutuunda, onun ruha sahip olmas için, dua et Kristal top, onlarn beni tekrar terk edip etmeyeceklerini söyleyemedi Problemler orta boyla paylamak için fazla büyük Bu seviyede, et ve kan için savamyoruz Ve eytann avukat, eytana avukatlk yapyor Ak tamamen akp gidiyor, durmas gerek, hepsi soluyor Eskiden gizli davranrdk, ama imdi, her ey çok bariz Hepsi kayp, deil mi? Her eyin çöküünü izliyoruz Konumann ana konusu biziz 530, araba kayp Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Oyun vakti, aslnda, Ye vakti Geçen yl garip geçti Çocuklarmla FaceTime üzerinden görütüm Ve kim ilk önce kimin kalbini kracak? Hep benimkini kryorlar Tanrnn bana verecei kutsamay bekliyorum Ben burada bir aile yetitirmeye çalyorum, nineyi de bakalar yetitirmeli Seni yalnz brakmaya çalyorum Ama son mesaj Patrón'un yüzündendi 530, araba kayp Duygularmdan uzaklatm Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Ksm II Dear Summer Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum 530, araba kayp Mesafe dediin ey bu mu? Biraz, camdan hapishanenin içinde Duh-duh, son görümemizden önce Bu i tamamdr, evet, umarm i görmütür Bu i görür, hayr, i gördü Bu konuya çok sinirliyim, yaptmz sanmtm Herkes, hepimizin çok fazlasn istiyor, biz hariç herkes Geriye kalanlarn daha az ne bilmiyorum, daha az olmadan uzakla ve kaç Bizden geri kalanlar yazmaya çalyorum, bizden geri kalanlar yazmaya çalyorum Baka bir ey yazamyorum, yazarn ne yaptn merak ediyorum Söyledikleri her ey yaand, ön gördükleri her ey yaand Ne kadar kötü olduunu bilmiyorum, bunu nasl unutacam bilmiyorum Bunu nasl unutacam bilmiyorum Ne olduunu biliyordun, ne olduunu biliyorsun, çocuklar biliyorsun Yaptmz biliyorsun ve ben de yaptmz biliyorum unu bil, kabul edeceim, devam edeceim çimdeki duygular dar çkarttm ve içeri giriyoruz Bütün listeyi tek bir telefonla hallederim ve yldrmla yüksee çkarm Dayanamyorum, dayanamyorum Sen sahte bir orospusun Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu O arklarn içinde yaamyorsun, nasl bir düünce, orospu Git Lil Baby dinle, git Future dinle, orospu Yumuak ol, gelecein hakknda düünmüyorsun, orospu Sa-fah-na-da yapma, bunda yeniyim Da-da, na-dana, bunlarn da üstesinden geleceim Pa-da-la, fa-na-dan, bunu düünme Senin için en tepeden düemem, orospu Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu Young Thug, Thug, Gunna Wunna, orospuya yap Git Lil Baby dinle, git Future dinle, orospu Bir kaçak için huy olmadan önce Wunna-tunna-dunna-dunna, ve ben orospular sevmiyorum Sen Ye'yi sevmiyorsun, sen Moneybagg Yo'yu seviyorsun Sözlemeyi imzaladn yeri imzaladm? O ne için kötü? O neye kzgn? Sen sahte bir orospusun Beni dinleme, dinlemene gerek yok, git Drake dinle, orospu Git Lil Baby dinle, git Future dinle, orospu Ama eer ben senin için geleceindeki nunna-dunna isem, orospu Umarm ki bebeinin babas kaçaktr Ve umarm çocuu kaybettiinde, sanna-danna yaparsn Ve umarm ki, bununla danna-danna yapmak istersin Bu son cümleler yaland Son mesaj Patrón yüzündendi Bir eyler balattm m? Kalp krkl yok, bunlarn da üstesinden geleceim</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home Altro che Freud o Platter, è questa musica che cura bene Ricuce tagli al cuore in extrasistoli leggere Ridona il fuoco a chi oramai s'è perso dentro al ghiaccio E in un abbraccio che ricevo l'assaporo e taccio Lei è catarsi, infuocarsi ed acquietarsi Fra 'sti falsi pazzi, ma con lei non temo passi falsi Lei è casa, mano tesa, luce accesa nell'intesa Di due cuori che perseguono la stessa meta Consuetudini da cui scappo come Houdini Perché a fatica reggo il peso di certe incudini Colpa degli sbagli miei che non rifarei e per i miei Delusioni e fori al cuore come Dorian Gray Vorrei trovarti al pianoforte come Ray Con te sulle mie orecchie piano o forte correrei Tu c'eri in quelle notti fredde, ci scommetterei Che eri l'unica ad udire le mie urla, tu sei Oda Mae You might also like Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home È tra le guerre di Ungaretti e Bukowski Che cammino e scosto fumi dentro boschi nascosti Mostri dentro mostrano 'sti volti loschi E appena mostri loro inchiostri Fanno tanto i tosti e dopo scappano scomposti Anima e musica sono unite da una musa Che canta mentre incanta, m'accompagna e non comunica Le chiedo Dove sono?, o meglio Dove ero? Lei si avvicina e dice Benvenuto nel Locus Ameno Sorpreso temo, mentre scorgo il sole e il cielo tremo All'improvviso odo un riso, è questo il paradiso Serenità ma non nell'aldilà, il mio Amon Ra È dentro cuffie mezze rotte Proseguo per 'ste rotte, fra cuori rotti e botte Fra botti, fischi e intoppi, qua siamo troppi Ci dividiamo fra chi cerca il sole solo se vicini E quelli che son forti solo soli, come Pasolini Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home1</t>
+          <t>Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home Altro che Freud o Platter, è questa musica che cura bene Ricuce tagli al cuore in extrasistoli leggere Ridona il fuoco a chi oramai s'è perso dentro al ghiaccio E in un abbraccio che ricevo l'assaporo e taccio Lei è catarsi, infuocarsi ed acquietarsi Fra 'sti falsi pazzi, ma con lei non temo passi falsi Lei è casa, mano tesa, luce accesa nell'intesa Di due cuori che perseguono la stessa meta Consuetudini da cui scappo come Houdini Perché a fatica reggo il peso di certe incudini Colpa degli sbagli miei che non rifarei e per i miei Delusioni e fori al cuore come Dorian Gray Vorrei trovarti al pianoforte come Ray Con te sulle mie orecchie piano o forte correrei Tu c'eri in quelle notti fredde, ci scommetterei Che eri l'unica ad udire le mie urla, tu sei Oda Mae Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home È tra le guerre di Ungaretti e Bukowski Che cammino e scosto fumi dentro boschi nascosti Mostri dentro mostrano 'sti volti loschi E appena mostri loro inchiostri Fanno tanto i tosti e dopo scappano scomposti Anima e musica sono unite da una musa Che canta mentre incanta, m'accompagna e non comunica Le chiedo Dove sono?, o meglio Dove ero? Lei si avvicina e dice Benvenuto nel Locus Ameno Sorpreso temo, mentre scorgo il sole e il cielo tremo All'improvviso odo un riso, è questo il paradiso Serenità ma non nell'aldilà, il mio Amon Ra È dentro cuffie mezze rotte Proseguo per 'ste rotte, fra cuori rotti e botte Fra botti, fischi e intoppi, qua siamo troppi Ci dividiamo fra chi cerca il sole solo se vicini E quelli che son forti solo soli, come Pasolini Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home1</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ey, what's up? Here's the kid, 50 Cent! You're now tuned in to my man, Kool Savas! Optik Boom, destroy the German Dream, you heard?! You've made it, Eko, people are talking about you again After they thought you were gone, up and away, and dead Shit, this is too emotional, I keep my calm, I'm rational I go back to the beginning and tell you once again Remember Ekrem, you invited me to a jam My biggest fan alive, my personal stan You still were Ekrem Bora, sexy wog, not Eko Freezy The stu-stu-stu-stuttering boy, the shoe salesman from Gleezy Whatever I took you to Berlin and Mel gave you the right beats Suddenly you were a real rapper with a real EP Took you to gigs, gave you this, gave you that, gave you money Gave you what you needed, thought this boy is going to be an MC Left Put Da Needle, talked to EastWest and Universal No one wanted you, I renounced 170 000 Euro I'd promised you, If I get a deal, you get a deal A month later you have your deal with BMG 50 000 Euro, you take it for granted, you were A good person and then the cash started changing you You wanted everything, up, out, as fast as possible Because you were stupid, young, and needed as much money as possible You wanted a song with Trooper, one with Jeanette and Vanessa S I had to convince you to not do it Valezka merely said, Ekrem is slowly getting weird Crazy, a week later I learn that she sleeps with Ekrem She makes a record with him, shortly before the one with Mel is done After she's been living with us and taken advantage of us She wants us to pay for everything, but now it no longer matters You're broke and alone, what a pity, it's all fucked now Success is more important to you than realness, it's cash over friends Eko takes lyrics of Killa Cam and translates them to German I loved you but not like a gay one loves another man Like a brother who does everything for his brother But you're not loyal, not normal You are the fan, Amar isn't Unfortunately, I turned a blind eye to you but it won't happen again Eko, you and me, we were always on an equal footing But your career moves are always calculating You wanted to say bullshit and pointless stuff Spreading lies to Mel because you thought you could ruin my life You didn't want to leave the house any more Because you were scared of Bushido waiting outside I had to talk to him, work this out before it gets out of hands He and I, we had no beef, didn't hate each other But just because of you our relationship is a bit strained now Ek, I don't have to bite like you because everything I rap flows You're a guy who spreads lies like Hannes Loh You notice, it's slowly going down and darker And quick, quick - back to the Bunker Shit, everything you do is a strategic and calculated plan But here are 10 years of experience rapping right now I was like a father to you, as if you came from my semen And now you want to rebel against me? But why? Son, not like this, sorry you're dead This battle won't push your career And you are right - I'm almost 30 years old But how's that a diss now? I don't even get it Where would you be today without Optik? Think hard Now the German Dream turns into a nightmare, sucks, huh? Come to me, I clear your view with a hot needle Just a few more bars and you're lying still and quiet Now the little one has a beard and thinks he's hard as iron You and Valezka are a good match, you're both out of breath live onstage And Eko, are you listening to this? How I'm bombing you to pieces with each line Your eye brows turn into the McDonald's M Little Eko, there's no point in this beef This is the king versus a child This track is like a weapon pressed on your chin The judgment and your ruin, over and out I'm flowing like the wind, let it out like a pint I'm not a hater, you know me, but you're faker than Sentence S is like the sun, you get closer and burn yourself You won't survive this flood, look, I'm too much for you to deal with Your flow won't ever be better than mine, after this part you'll vomit What you do isn't right like joking about disabled people Whatever you write, it's nothing more than child's scribble to me Listen to what you're saying in interviews, people don't hate you Because they love me but because of your manners Not just because you're shit but you're immodest Player, lover, Turkish rap or gangster - decide You can't because you have no identity As if your eyes were closed You don't know where you're standing now And you don't know what you're saying The game makes you sick, huh? Come, I'll turn you off like a bedside lamp And you think you brought our boys to Optik Why does your label then not have one track on Optik-level? My friend, you're dreaming, turned crazy from coke, crazy from Ecstasy This is a phenomenon - what's happening inside the skull of E? You're doomed to die, your Mum said, Don't do anything to my son I didn't want to but the boy is too spoilt, too dishonest What? I fucked our future? There is no future for you At least not as a rapper in this business And all of this is true, you can put me under oath This part here are the facts but the next one is going to be very insulting No, you don't have to defend me I'm doing it for the kids out there who're waiting and who Want to know the truth, here's your report Report me because this track is like murder You're listening to the best, the king, the rapping Tony Hawk You want to sneak up from behind the throne, but no, hypocrite I spit and spread more panic than Robert Steinhäuser You crave my title like boys crave the hole of J.Lo You pretend to be man and suddenly you have more beef than Maredo But I've made you like Puffy Da Band And if you want, I'll dissolve you again - click, click bang! But please tell me one thing, Eko, what's up with you? You're not Mr Hankey - how do you get out of the toilet? You were gone, far away to the pop world The rapper who holds Dieter Bohlen's cock Soon there'll be head money You're crazy, you want to come back - who are you? You were L.O.V.E. and now HipHop again, you freak You're one of them Nina MC, Reen, Cappuccino Aleksey, der Wolf, Eko and Fettes Brot, they're all dead Rest in peace! This is a new era And I'm your teacher and shoot like rifles And you're softer than soft, softer than velvet Annoy the fuck out of me and I'll kick your ass, destroy you completely Ek, suck my dick!You might also like</t>
+          <t>Ey, what's up? Here's the kid, 50 Cent! You're now tuned in to my man, Kool Savas! Optik Boom, destroy the German Dream, you heard?! You've made it, Eko, people are talking about you again After they thought you were gone, up and away, and dead Shit, this is too emotional, I keep my calm, I'm rational I go back to the beginning and tell you once again Remember Ekrem, you invited me to a jam My biggest fan alive, my personal stan You still were Ekrem Bora, sexy wog, not Eko Freezy The stu-stu-stu-stuttering boy, the shoe salesman from Gleezy Whatever I took you to Berlin and Mel gave you the right beats Suddenly you were a real rapper with a real EP Took you to gigs, gave you this, gave you that, gave you money Gave you what you needed, thought this boy is going to be an MC Left Put Da Needle, talked to EastWest and Universal No one wanted you, I renounced 170 000 Euro I'd promised you, If I get a deal, you get a deal A month later you have your deal with BMG 50 000 Euro, you take it for granted, you were A good person and then the cash started changing you You wanted everything, up, out, as fast as possible Because you were stupid, young, and needed as much money as possible You wanted a song with Trooper, one with Jeanette and Vanessa S I had to convince you to not do it Valezka merely said, Ekrem is slowly getting weird Crazy, a week later I learn that she sleeps with Ekrem She makes a record with him, shortly before the one with Mel is done After she's been living with us and taken advantage of us She wants us to pay for everything, but now it no longer matters You're broke and alone, what a pity, it's all fucked now Success is more important to you than realness, it's cash over friends Eko takes lyrics of Killa Cam and translates them to German I loved you but not like a gay one loves another man Like a brother who does everything for his brother But you're not loyal, not normal You are the fan, Amar isn't Unfortunately, I turned a blind eye to you but it won't happen again Eko, you and me, we were always on an equal footing But your career moves are always calculating You wanted to say bullshit and pointless stuff Spreading lies to Mel because you thought you could ruin my life You didn't want to leave the house any more Because you were scared of Bushido waiting outside I had to talk to him, work this out before it gets out of hands He and I, we had no beef, didn't hate each other But just because of you our relationship is a bit strained now Ek, I don't have to bite like you because everything I rap flows You're a guy who spreads lies like Hannes Loh You notice, it's slowly going down and darker And quick, quick - back to the Bunker Shit, everything you do is a strategic and calculated plan But here are 10 years of experience rapping right now I was like a father to you, as if you came from my semen And now you want to rebel against me? But why? Son, not like this, sorry you're dead This battle won't push your career And you are right - I'm almost 30 years old But how's that a diss now? I don't even get it Where would you be today without Optik? Think hard Now the German Dream turns into a nightmare, sucks, huh? Come to me, I clear your view with a hot needle Just a few more bars and you're lying still and quiet Now the little one has a beard and thinks he's hard as iron You and Valezka are a good match, you're both out of breath live onstage And Eko, are you listening to this? How I'm bombing you to pieces with each line Your eye brows turn into the McDonald's M Little Eko, there's no point in this beef This is the king versus a child This track is like a weapon pressed on your chin The judgment and your ruin, over and out I'm flowing like the wind, let it out like a pint I'm not a hater, you know me, but you're faker than Sentence S is like the sun, you get closer and burn yourself You won't survive this flood, look, I'm too much for you to deal with Your flow won't ever be better than mine, after this part you'll vomit What you do isn't right like joking about disabled people Whatever you write, it's nothing more than child's scribble to me Listen to what you're saying in interviews, people don't hate you Because they love me but because of your manners Not just because you're shit but you're immodest Player, lover, Turkish rap or gangster - decide You can't because you have no identity As if your eyes were closed You don't know where you're standing now And you don't know what you're saying The game makes you sick, huh? Come, I'll turn you off like a bedside lamp And you think you brought our boys to Optik Why does your label then not have one track on Optik-level? My friend, you're dreaming, turned crazy from coke, crazy from Ecstasy This is a phenomenon - what's happening inside the skull of E? You're doomed to die, your Mum said, Don't do anything to my son I didn't want to but the boy is too spoilt, too dishonest What? I fucked our future? There is no future for you At least not as a rapper in this business And all of this is true, you can put me under oath This part here are the facts but the next one is going to be very insulting No, you don't have to defend me I'm doing it for the kids out there who're waiting and who Want to know the truth, here's your report Report me because this track is like murder You're listening to the best, the king, the rapping Tony Hawk You want to sneak up from behind the throne, but no, hypocrite I spit and spread more panic than Robert Steinhäuser You crave my title like boys crave the hole of J.Lo You pretend to be man and suddenly you have more beef than Maredo But I've made you like Puffy Da Band And if you want, I'll dissolve you again - click, click bang! But please tell me one thing, Eko, what's up with you? You're not Mr Hankey - how do you get out of the toilet? You were gone, far away to the pop world The rapper who holds Dieter Bohlen's cock Soon there'll be head money You're crazy, you want to come back - who are you? You were L.O.V.E. and now HipHop again, you freak You're one of them Nina MC, Reen, Cappuccino Aleksey, der Wolf, Eko and Fettes Brot, they're all dead Rest in peace! This is a new era And I'm your teacher and shoot like rifles And you're softer than soft, softer than velvet Annoy the fuck out of me and I'll kick your ass, destroy you completely Ek, suck my dick!</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Odamda fazla durma duman seni yorar Yetmez ba arma oxy falan Tükense de sabrm onu aramam Elbet bana kalr benim olan Aramam gideni yutarm xanny Mistik biriyim ama etmem dua Unutturdu seni dün gece biri Kocaman götü salland bu duvar Deilim Romeo bekleme çiçekler Kalbim krk ve peimde tourneo Bekleme desem de tüm gece bekler At gibiyse tamam ado rodeo Kasklarndaki ya kalbe seker Yarn unuturum olsan da eker Designer zip ve kurun delikleri Ölümden korkmam giderim tek teker You might also like Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Kark kafam yüklüce param var benim Harcarm sana Hem unutamam hem unutulamam yah Deli ediyor xannx Bembeyaz k kocaman kç Akldan ald götürdü bu ba Bugün ayn kaç? Yitirdim algm kalmad ac Var biraz sigara üzerimde Sdramam onu ceplerime neler dolar bedenimde Rastlayamaz artk izlerine Çok güvendim hislerime Zirveye yol kestirme Yenik dütüm nefretime Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk</t>
+          <t>Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Odamda fazla durma duman seni yorar Yetmez ba arma oxy falan Tükense de sabrm onu aramam Elbet bana kalr benim olan Aramam gideni yutarm xanny Mistik biriyim ama etmem dua Unutturdu seni dün gece biri Kocaman götü salland bu duvar Deilim Romeo bekleme çiçekler Kalbim krk ve peimde tourneo Bekleme desem de tüm gece bekler At gibiyse tamam ado rodeo Kasklarndaki ya kalbe seker Yarn unuturum olsan da eker Designer zip ve kurun delikleri Ölümden korkmam giderim tek teker Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Kark kafam yüklüce param var benim Harcarm sana Hem unutamam hem unutulamam yah Deli ediyor xannx Bembeyaz k kocaman kç Akldan ald götürdü bu ba Bugün ayn kaç? Yitirdim algm kalmad ac Var biraz sigara üzerimde Sdramam onu ceplerime neler dolar bedenimde Rastlayamaz artk izlerine Çok güvendim hislerime Zirveye yol kestirme Yenik dütüm nefretime Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 1 Ok, eu sou o tipo de nigga que não gostas E se tu me abusas eu vou logo contar aos cotas Poxas, olha para quanto tenho na minha conta Todo meu sucesso dizem que é graças aos cotas Opah, todas pitas da praça comi Podem até falar e dizer que não tenho pila big Mas o txi fala foi assim que aprendi E Deus não dá tudo tenham piedade Man eu vivo como rei, há que respeitar Faço merdas e tenho os cops para acobertar De 10 moçambicanos 9 queriam essa Life Essa good life de nunca ter de esperar na line oh E sei que tens falado mal de mim Mas enfim, eu tou em Pari a gastar vosso txi Com bué de europeias se aproveitando de mim Tirando fotos com famosos man olha só pra mim You might also likeCoro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço douro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 2 De volta a Moz com uma bag da Lui V Nem tudo que comprei coube na bag da Gucci I been killing everybody you can catch up my uzi I been feeling like Pablo when I'm rocking my uzi Dá licença !? Tu não vês quem o nigga é Provavelmente vais me ver a andar com monhés Porque falamos a mesma língua, money-mula-monhés I got this feeling que o resto só quer tirar meu pé E agora mandei vir um novo Ferrari Meu papi, nós vamos fazer barulho na cidade Mugabe, nós estamos aqui para eternidade Não vale, juntarem-se para tirar-nos do comando, we got this Ah, enquanto continuas a falar É o teu trabalho que tem me ajudado a pagar Carros que nem mais o bem pago pode pagar E se fores a fazer algo sabes como vai acabar Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania</t>
+          <t>Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 1 Ok, eu sou o tipo de nigga que não gostas E se tu me abusas eu vou logo contar aos cotas Poxas, olha para quanto tenho na minha conta Todo meu sucesso dizem que é graças aos cotas Opah, todas pitas da praça comi Podem até falar e dizer que não tenho pila big Mas o txi fala foi assim que aprendi E Deus não dá tudo tenham piedade Man eu vivo como rei, há que respeitar Faço merdas e tenho os cops para acobertar De 10 moçambicanos 9 queriam essa Life Essa good life de nunca ter de esperar na line oh E sei que tens falado mal de mim Mas enfim, eu tou em Pari a gastar vosso txi Com bué de europeias se aproveitando de mim Tirando fotos com famosos man olha só pra mim Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço douro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 2 De volta a Moz com uma bag da Lui V Nem tudo que comprei coube na bag da Gucci I been killing everybody you can catch up my uzi I been feeling like Pablo when I'm rocking my uzi Dá licença !? Tu não vês quem o nigga é Provavelmente vais me ver a andar com monhés Porque falamos a mesma língua, money-mula-monhés I got this feeling que o resto só quer tirar meu pé E agora mandei vir um novo Ferrari Meu papi, nós vamos fazer barulho na cidade Mugabe, nós estamos aqui para eternidade Não vale, juntarem-se para tirar-nos do comando, we got this Ah, enquanto continuas a falar É o teu trabalho que tem me ajudado a pagar Carros que nem mais o bem pago pode pagar E se fores a fazer algo sabes como vai acabar Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Sonunu düünmeden yayo'sun Bi' nevi teoride sen de u an ölümden kaçyo'sun Yolunu bilmiyo'sun, yine de gidiyo'sun Çkmaz bi' sokaktan çkmay diliyo'sun Umarm baarl oluca'm ve varca'm bi' sonuca Yaamm boyunca seninle yaranlar olacak Önüne konul'cak hedefler, hadi çanta dolacak Ve paran olursa kaplar manitayla dolacak Malesef denklem bu, güç eittir para Ben de bazen diyorum inan Bu ne çeit bi' kafa!? Belki cebimiz dolunca bi' gün eriiriz ama u an yeterli deil, o yüzden her iimiz yalan Yine de mücadeleye devam, buluruz elbet deva O güne kadar yaamn tadn çkar her an Çünkü geçmiin uzaklard bi' kare daha Bi' bakmn evinde sadece bi' kanepe var Onun da üzerinde yatas yok Pencereden darya bugün bakas yok, havamz bok u an dülerinden çok uzaktasn O yüzden çok normal hayatn gelip sana bi' omuz atmas You might also likeYkldn yerdesin, yine de kalkp direnmelisin Bu son ansn olabilir, gidenleri sil Sfrdan bala, yldzlar aka gelir Belki mucizeler balar, mucizeler balar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Ner'de kaldk devam, ne müzik oldu deva Çaresizlik veba gibi, paran varsa kebap Çektirdiler cefa, hep sürmedik ki sefa Bi' defadan n'olur? deyip içtik bin defa Ve devam Projeyle gittim Anl'a kanka dedim toparlanp stanbul'da çekelim bak sokakl Klip sonu lokantann birinde biz yemek yerken söyleseler inanmazdk Dört milyon tokatladk Bok atmayn boa yani gezdik çou illeri biz Sahneleri inlettik de sahnelerden inmedik Kahpelerin sistemi bak mahvederler hisleri Ve hayat Otur yerinde! der zahmet eden pislenir Risk deyip de ilerledik yaptk imdi biri bin ri bi' adamn önünde oturmas tribi gibidir Bilirim kskannca birini dirilip Nefsine Güç Ver'le yaptm bak hayalimin birini Gerilin, unutmadm yerimi Terinizin kokusu kadar iticiydi Rap'iniz Ve evini ykan bir belediye ekibine kafa tutan ev sahibi kadar sinirliyim imdi çekilin Çekici bir kadn kadar fetiist bu Rap ii Tek iim onunla tepiip dourtmakt bebii Her iim geliir sonra deiir eriim Ben de büyüdüm bir ylan gibi derimi deiip Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Rap Genius Türkiye</t>
+          <t>Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Sonunu düünmeden yayo'sun Bi' nevi teoride sen de u an ölümden kaçyo'sun Yolunu bilmiyo'sun, yine de gidiyo'sun Çkmaz bi' sokaktan çkmay diliyo'sun Umarm baarl oluca'm ve varca'm bi' sonuca Yaamm boyunca seninle yaranlar olacak Önüne konul'cak hedefler, hadi çanta dolacak Ve paran olursa kaplar manitayla dolacak Malesef denklem bu, güç eittir para Ben de bazen diyorum inan Bu ne çeit bi' kafa!? Belki cebimiz dolunca bi' gün eriiriz ama u an yeterli deil, o yüzden her iimiz yalan Yine de mücadeleye devam, buluruz elbet deva O güne kadar yaamn tadn çkar her an Çünkü geçmiin uzaklard bi' kare daha Bi' bakmn evinde sadece bi' kanepe var Onun da üzerinde yatas yok Pencereden darya bugün bakas yok, havamz bok u an dülerinden çok uzaktasn O yüzden çok normal hayatn gelip sana bi' omuz atmas Ykldn yerdesin, yine de kalkp direnmelisin Bu son ansn olabilir, gidenleri sil Sfrdan bala, yldzlar aka gelir Belki mucizeler balar, mucizeler balar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Ner'de kaldk devam, ne müzik oldu deva Çaresizlik veba gibi, paran varsa kebap Çektirdiler cefa, hep sürmedik ki sefa Bi' defadan n'olur? deyip içtik bin defa Ve devam Projeyle gittim Anl'a kanka dedim toparlanp stanbul'da çekelim bak sokakl Klip sonu lokantann birinde biz yemek yerken söyleseler inanmazdk Dört milyon tokatladk Bok atmayn boa yani gezdik çou illeri biz Sahneleri inlettik de sahnelerden inmedik Kahpelerin sistemi bak mahvederler hisleri Ve hayat Otur yerinde! der zahmet eden pislenir Risk deyip de ilerledik yaptk imdi biri bin ri bi' adamn önünde oturmas tribi gibidir Bilirim kskannca birini dirilip Nefsine Güç Ver'le yaptm bak hayalimin birini Gerilin, unutmadm yerimi Terinizin kokusu kadar iticiydi Rap'iniz Ve evini ykan bir belediye ekibine kafa tutan ev sahibi kadar sinirliyim imdi çekilin Çekici bir kadn kadar fetiist bu Rap ii Tek iim onunla tepiip dourtmakt bebii Her iim geliir sonra deiir eriim Ben de büyüdüm bir ylan gibi derimi deiip Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Rap Genius Türkiye</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Deli ii gibi bii deil bu neyin nesi bilmiyorum Sürekli deliriyo'm yaptklarm tek tek unutuyorum Bi' sen aklmdan çkamadn seni braktm yerdesin hala Yönetiyo' eytan beni gitmeme izin vermiyo' asla Gel kendine beni takip et gücüm bitmicek yine geri gelicek eytan bana olur hayran hiro Ömer Hayyam daralyo zaman Yok inanamam harbiden yaptna Senin fanlarn taklyo altmda Aç azn al bunu azna Alrm akln varamazsn farkna Yarasalar etrafmda dans eder kanm için arszca Tepeden trnaa deiecek dünya Fayda etmiyo' ganimetler altnlar Aklnza yazn bunu yazlan hep yazlarn hepsini ifa edicez ansm dönecek bu bana zevk verecek O küçük bi' çiçek ben çirkin dev Koca adam oldum Hala yok gözümde korku Korkun benden korkunç bir dev Koca adam oldum Hala yok gözümde korku Kimseden, hepsine tepkim net You might also likeFuck peace, hiro sanki batista Tatbikat yaparm kal aykta narsist bi' stil tarz aykmaz Der bu ne drill falan yapsana sende Siktir ordan Drillci bebelerden olmam Biz dinazorlar Sürtük lirikle oynar Kanlar akar Azn balarm kimse duymaz Yakarm gemide asitin filika stili etkisi gecene kadar da yanmda kal Zaten hep aklmdalar Bunlarn farkndalar ya ya eytanlar yani bamzda kendine gel ya da uzayalm burdan Real phonk, real shit You know what the fuck I'm talkin' about</t>
+          <t>Deli ii gibi bii deil bu neyin nesi bilmiyorum Sürekli deliriyo'm yaptklarm tek tek unutuyorum Bi' sen aklmdan çkamadn seni braktm yerdesin hala Yönetiyo' eytan beni gitmeme izin vermiyo' asla Gel kendine beni takip et gücüm bitmicek yine geri gelicek eytan bana olur hayran hiro Ömer Hayyam daralyo zaman Yok inanamam harbiden yaptna Senin fanlarn taklyo altmda Aç azn al bunu azna Alrm akln varamazsn farkna Yarasalar etrafmda dans eder kanm için arszca Tepeden trnaa deiecek dünya Fayda etmiyo' ganimetler altnlar Aklnza yazn bunu yazlan hep yazlarn hepsini ifa edicez ansm dönecek bu bana zevk verecek O küçük bi' çiçek ben çirkin dev Koca adam oldum Hala yok gözümde korku Korkun benden korkunç bir dev Koca adam oldum Hala yok gözümde korku Kimseden, hepsine tepkim net Fuck peace, hiro sanki batista Tatbikat yaparm kal aykta narsist bi' stil tarz aykmaz Der bu ne drill falan yapsana sende Siktir ordan Drillci bebelerden olmam Biz dinazorlar Sürtük lirikle oynar Kanlar akar Azn balarm kimse duymaz Yakarm gemide asitin filika stili etkisi gecene kadar da yanmda kal Zaten hep aklmdalar Bunlarn farkndalar ya ya eytanlar yani bamzda kendine gel ya da uzayalm burdan Real phonk, real shit You know what the fuck I'm talkin' about</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TRVMEN Ya Yeah, yeah Etki on the track Yeah, para, susmadm valla eminsem Ya, ya Sizden iyiyim pistte deilken bile, hâlâ rezilsiniz Ya, ya Dütüm fazla uzun süre kalktm, hâlâ tedirginim Eh, eh Kimse görmemitir gereinden fazla sevindiimi Eh, eh, ya, ya Bilirim, istersin dümemi azlardan Ah, ah Düersem daha beter olur, beslendim hep hrslardan Ah, ah Karma geç, karma geç harcarm, bak, bozarsam Ya, ya, ah-ah Komik olur bana kar saygn bozarsan Eh, eh, eh-eh Evet, VIP simsiyah bi' araba Uçular business class, kardeler bi' arada Evet, GNG ghetto'dan villalara Mm-mm Chavo kolye ald hem de yetmi bin dolara Mm, mm, mm-mm Yetimi mi gangsta mutfak parasna hiç? Yeah, yeah Pembe götlü asosyaller eder kariyeri linç Yeah, yeah Ben baardm, onlar dedi Ner'den çkt lan bu piç? Yeah, ye-yeah Yaadm yer hakknda bi' bilginiz var m hiç? Az bozuk Az bozuk, bu az bozuk da kim lan? Eh, eh Dövme faça, kral benim, baka yok ki bi' iddiam Youngsta, frenle, hayatn koca bi' imtihan Ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya, ya, ya Az bozuk Az bozuk, bu az bozuk da kim lan? Ya-ya, ya, ya Dövme faça, kral benim, baka yok ki bi' iddiam Ya-ya, ya, ya Youngsta, frenle, hayatn koca bi' imtihan Ya-ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya-ya You might also like Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya TRVMEN</t>
+          <t>TRVMEN Ya Yeah, yeah Etki on the track Yeah, para, susmadm valla eminsem Ya, ya Sizden iyiyim pistte deilken bile, hâlâ rezilsiniz Ya, ya Dütüm fazla uzun süre kalktm, hâlâ tedirginim Eh, eh Kimse görmemitir gereinden fazla sevindiimi Eh, eh, ya, ya Bilirim, istersin dümemi azlardan Ah, ah Düersem daha beter olur, beslendim hep hrslardan Ah, ah Karma geç, karma geç harcarm, bak, bozarsam Ya, ya, ah-ah Komik olur bana kar saygn bozarsan Eh, eh, eh-eh Evet, VIP simsiyah bi' araba Uçular business class, kardeler bi' arada Evet, GNG ghetto'dan villalara Mm-mm Chavo kolye ald hem de yetmi bin dolara Mm, mm, mm-mm Yetimi mi gangsta mutfak parasna hiç? Yeah, yeah Pembe götlü asosyaller eder kariyeri linç Yeah, yeah Ben baardm, onlar dedi Ner'den çkt lan bu piç? Yeah, ye-yeah Yaadm yer hakknda bi' bilginiz var m hiç? Az bozuk Az bozuk, bu az bozuk da kim lan? Eh, eh Dövme faça, kral benim, baka yok ki bi' iddiam Youngsta, frenle, hayatn koca bi' imtihan Ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya, ya, ya Az bozuk Az bozuk, bu az bozuk da kim lan? Ya-ya, ya, ya Dövme faça, kral benim, baka yok ki bi' iddiam Ya-ya, ya, ya Youngsta, frenle, hayatn koca bi' imtihan Ya-ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya-ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya TRVMEN</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão You might also like Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
+          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Desde tempos remotos europeus construíram impérios Pela glória verdes prados tornaram-se cemitérios Séculos de tortura, genocídio e violações Extinção de populações com diferentes visões Diferentes religiões, valores e culturas Foram exterminadas por civilizações brutas Supostamente mais maduras e mais desenvolvidas Com agricultura, escrita e tecnologias Monarquias e a religião católica Que assassinava mentes independentes de forma diabólica E assim fomos na rota dos descobrimentos Registamos a maior genocídio de todos os tempos Transformamos homens livres em escravos Violamos mulheres indígenas e doenças, propagamos Encontramos terras ricas em matérias-primas E iniciamos as primeiras iniciativas capitalistas Em plantações de açúcar e minas de metais Exploramos sem medida todos os recursos naturais Sem raízes culturais, americanos viraram índios O chicote da civilização tornou-os submissos Enquanto na Europa desenvolvemos a indústria Na América deixamos a miséria e a angústia A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer You might also like O imperialismo continua, não pára nem recua Em pleno século XXI, mantém-se a escravatura Obscura, dissimulada, mas em plena acção Agora vulgarmente chamada de Globalização Século XVIII, colónias conquistam independência Mas já com europeus como líderes da resistência Surge uma falsa nação com prepotência e sem ética São fundados os Estados Unidos da América Terra dos homens corajosos e livres Para determinar à força a maneira como vives Recomeça a exploração, corrupção e as guerras Roubam ao México a Califórnia e o Texas Nicarágua, República Dominicana, Filipinas São invadidas e instituídas ditaduras repressivas Ao serviço exclusivo do capital estrangeiro Nativos ficam com fome, empresas, com o bolso cheio A meio veio a infame Revolução de Outubro Sistema novo onde o povo controlaria o lucro É claro que as empresas reconheceram o perigo Por isso, o comunismo tornou-se no grande inimigo E a desculpa para mais invasões Controlo dos recursos e bombardeamento das populações 2 Grande Guerra, surge o Banco Mundial A C.I.A. e o Fundo Monetário Internacional Mercenários económicos em várias nações Corrompem líderes em prol das grandes corporações Assassinatos, ocupações, privatizações Aumento da dívida externa em galopantes proporções No Irão, Guatemala, Panamá, Equador Ainda sofrem os efeitos deste esquema opressor Na Guerra do Vietname lançam o agente laranja Apoiam ditadores no Chile, Argentina e Uganda Financiam os crimes dos Contras na Nicarágua Com os lucros obtidos na disputa armada Entre Irão e Iraque, armam ambos os lados Armamentos para a destruição maciça entram no mercado Ajudam os talibãs a combaterem o Soviéticos Através de novos métodos bélicos sem exércitos A Perestroika, a queda do Muro de Berlim A lucrativa Guerra Fria chega ao seu fim Surge um novo inimigo, filho de imperialismo Como é que pensas que nasceu o Terrorismo? Começa a obsessão pelo petróleo do Médio Oriente Na Guerra do Golfo conquistam os poços do Kuwait Criam a NAFTA por pura avidez Permitem o feminicídio na cidade de Juarez A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer! Janeiro de 2001, Bush torna-se presidente Eterno servente de uma elite prepotente Empresários da máquina da guerra e do petróleo Adquirem o total controlo do monopólio Preparam um acto ilusório para enganar todo o globo O 11 de Setembro não passou de um engodo Uma ferida auto infligida Com vista a uma alta margem lucrativa Clima de pânico perpetuado pelos média Ossama é o falso alvo para mais uma guerra Invasão e destruição do Afeganistão São dados contractos milionários a empresas de construção Colocação de bases militares Com poder para mandar o Médio Oriente pelos ares Próximo passo, expansão do ataque Criação de propaganda para a conquista do Iraque A ligação à Al-Queida, afirmação falsa A ameaça de armas de destruição de massas Mentiras, farsas, noticiadas na televisão Dão origem a uma invasão sem justificação Eles não querem libertar nem desenvolver é cómico Mas subjugar países ao poder económico No meio do drama surge um tal Obama Toda a gente aclama, mas as empresas fazem-lhe a cama Muitas promessas e retórica eloquente Escondem somente mais um impotente presidente Ele chega ao poder e envia mais tropas E a Fundação Nobel lambe-lhe as botas Novas mentiras já estão em circulação Presta atenção à preparação da próxima invasão A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer A questão é a seguinte, à cerca de 5 séculos que os países mais evoluídos tendo os Estados Unidos da América como cabeça vivem à Custa dos países menos evoluídos. Os países da América do Sul, África e Ásia são países riquíssimos em recursos, mas estes Recursos são todos explorados por grandes empresas estrangeiras, que têm o F.M.I e o Banco Mundial como utensílios para Corromperem governos, criarem dívidas externas astronómicas impossíveis de serem pagas e criarem sistemas de autêntica Escravidão e miséria para alimentarem os mais poderosos. Todas as guerras que tu vês a serem anunciadas, têm todos por trás Interesses económicos. Eles não estão interessados na liberdade e na democracia! Estão apenas interessados em alargar o seu Império e a maximizarem lucros, provocando a morte a milhões de inocentes e a destruição da Natureza. Fecha os livros de História Que te dão na escola e não acredites numa única palavra da comunicação social. Todas as notícias que tu vês na televisão são Controladas também por grandes grupos económicos que continuam a ver o lucro como o único objectivo para a humanidade. Os Impérios continuam a ser construídos secretamente e fazem tudo o que podem para destruir os seus oponentes. Sejam Muçulmanos, comunistas, índios ou organizações contra a globalização. Seja quem for que queira distribuir a riqueza das terras pela População ou seja quem for que não concorde com os valores ocidentais, é visto como inimigo a abater. Abre os olhos e antes de Falares acerca destes assuntos, informa-te convenientemente. Investiga e procura informação em fontes independentes Nunca é tarde para mudar, mas o nosso tempo começa-se a esgotar</t>
+          <t>Desde tempos remotos europeus construíram impérios Pela glória verdes prados tornaram-se cemitérios Séculos de tortura, genocídio e violações Extinção de populações com diferentes visões Diferentes religiões, valores e culturas Foram exterminadas por civilizações brutas Supostamente mais maduras e mais desenvolvidas Com agricultura, escrita e tecnologias Monarquias e a religião católica Que assassinava mentes independentes de forma diabólica E assim fomos na rota dos descobrimentos Registamos a maior genocídio de todos os tempos Transformamos homens livres em escravos Violamos mulheres indígenas e doenças, propagamos Encontramos terras ricas em matérias-primas E iniciamos as primeiras iniciativas capitalistas Em plantações de açúcar e minas de metais Exploramos sem medida todos os recursos naturais Sem raízes culturais, americanos viraram índios O chicote da civilização tornou-os submissos Enquanto na Europa desenvolvemos a indústria Na América deixamos a miséria e a angústia A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer O imperialismo continua, não pára nem recua Em pleno século XXI, mantém-se a escravatura Obscura, dissimulada, mas em plena acção Agora vulgarmente chamada de Globalização Século XVIII, colónias conquistam independência Mas já com europeus como líderes da resistência Surge uma falsa nação com prepotência e sem ética São fundados os Estados Unidos da América Terra dos homens corajosos e livres Para determinar à força a maneira como vives Recomeça a exploração, corrupção e as guerras Roubam ao México a Califórnia e o Texas Nicarágua, República Dominicana, Filipinas São invadidas e instituídas ditaduras repressivas Ao serviço exclusivo do capital estrangeiro Nativos ficam com fome, empresas, com o bolso cheio A meio veio a infame Revolução de Outubro Sistema novo onde o povo controlaria o lucro É claro que as empresas reconheceram o perigo Por isso, o comunismo tornou-se no grande inimigo E a desculpa para mais invasões Controlo dos recursos e bombardeamento das populações 2 Grande Guerra, surge o Banco Mundial A C.I.A. e o Fundo Monetário Internacional Mercenários económicos em várias nações Corrompem líderes em prol das grandes corporações Assassinatos, ocupações, privatizações Aumento da dívida externa em galopantes proporções No Irão, Guatemala, Panamá, Equador Ainda sofrem os efeitos deste esquema opressor Na Guerra do Vietname lançam o agente laranja Apoiam ditadores no Chile, Argentina e Uganda Financiam os crimes dos Contras na Nicarágua Com os lucros obtidos na disputa armada Entre Irão e Iraque, armam ambos os lados Armamentos para a destruição maciça entram no mercado Ajudam os talibãs a combaterem o Soviéticos Através de novos métodos bélicos sem exércitos A Perestroika, a queda do Muro de Berlim A lucrativa Guerra Fria chega ao seu fim Surge um novo inimigo, filho de imperialismo Como é que pensas que nasceu o Terrorismo? Começa a obsessão pelo petróleo do Médio Oriente Na Guerra do Golfo conquistam os poços do Kuwait Criam a NAFTA por pura avidez Permitem o feminicídio na cidade de Juarez A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer! Janeiro de 2001, Bush torna-se presidente Eterno servente de uma elite prepotente Empresários da máquina da guerra e do petróleo Adquirem o total controlo do monopólio Preparam um acto ilusório para enganar todo o globo O 11 de Setembro não passou de um engodo Uma ferida auto infligida Com vista a uma alta margem lucrativa Clima de pânico perpetuado pelos média Ossama é o falso alvo para mais uma guerra Invasão e destruição do Afeganistão São dados contractos milionários a empresas de construção Colocação de bases militares Com poder para mandar o Médio Oriente pelos ares Próximo passo, expansão do ataque Criação de propaganda para a conquista do Iraque A ligação à Al-Queida, afirmação falsa A ameaça de armas de destruição de massas Mentiras, farsas, noticiadas na televisão Dão origem a uma invasão sem justificação Eles não querem libertar nem desenvolver é cómico Mas subjugar países ao poder económico No meio do drama surge um tal Obama Toda a gente aclama, mas as empresas fazem-lhe a cama Muitas promessas e retórica eloquente Escondem somente mais um impotente presidente Ele chega ao poder e envia mais tropas E a Fundação Nobel lambe-lhe as botas Novas mentiras já estão em circulação Presta atenção à preparação da próxima invasão A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer A questão é a seguinte, à cerca de 5 séculos que os países mais evoluídos tendo os Estados Unidos da América como cabeça vivem à Custa dos países menos evoluídos. Os países da América do Sul, África e Ásia são países riquíssimos em recursos, mas estes Recursos são todos explorados por grandes empresas estrangeiras, que têm o F.M.I e o Banco Mundial como utensílios para Corromperem governos, criarem dívidas externas astronómicas impossíveis de serem pagas e criarem sistemas de autêntica Escravidão e miséria para alimentarem os mais poderosos. Todas as guerras que tu vês a serem anunciadas, têm todos por trás Interesses económicos. Eles não estão interessados na liberdade e na democracia! Estão apenas interessados em alargar o seu Império e a maximizarem lucros, provocando a morte a milhões de inocentes e a destruição da Natureza. Fecha os livros de História Que te dão na escola e não acredites numa única palavra da comunicação social. Todas as notícias que tu vês na televisão são Controladas também por grandes grupos económicos que continuam a ver o lucro como o único objectivo para a humanidade. Os Impérios continuam a ser construídos secretamente e fazem tudo o que podem para destruir os seus oponentes. Sejam Muçulmanos, comunistas, índios ou organizações contra a globalização. Seja quem for que queira distribuir a riqueza das terras pela População ou seja quem for que não concorde com os valores ocidentais, é visto como inimigo a abater. Abre os olhos e antes de Falares acerca destes assuntos, informa-te convenientemente. Investiga e procura informação em fontes independentes Nunca é tarde para mudar, mas o nosso tempo começa-se a esgotar</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yeter, çabalar, aclar, yaralar Bo sorular, yanlsamalar Kantlamalar, o hatrlamalar Aldramam, hatrlayamam, hatrlayamam Hissiyatsz bir oyun bu, ben kazandm nedense Bir alr, bir verirse ner'de benim sfrm? Bindim arabaya zencilerle kvrp Bu ileri geziyoruz yalandan srtp Ah Sanatçlar Siyonik, algoritma eridi Piyon ektiler topraa ve zombiler dirildi Neye fayda eder ki? Hepsi de delirdi Ah Doktorum bi' torbacdan daha fazla verimli Tekme atar bebekler, imdiden sinirliler Ben kronik vakaym, Fuck you, motherfucka'!ym Param var mutlu deil, tripteyim, bu ipteyim Cambazlara öretiyo'm Ulan, bak, bu ip dil La-la, la-la-la-la Sanki sirktesiniz, ner'de alknz? Hayatn sikr bizim yerde kalmmz La-la, la-la-la-la Sahil esintisi burada reyonlarda Kamera beni çekerken yönetmen hep uykuda You might also like Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Birlikte kazanana irket, kaybedene Aile denir Bana öyle bakma, ben de sizin mahalledenim Hâl ve gidi sfr fakat sknt yok, hallederiz Elli metre mesafeden fark ederim kaybedeni ehrin en ilek caddesinde tiner çeker çocuklar Gel de imdi afiyetle scak çorba iç Herkesin bi' mazareti vardr elbet moruk Fakat bir gün olsun hiç unutma, biz hep bur'dayz Ah Sormadm sorularn cevaplaryla megulüm Ve rehberimde ölülerin de numaralar var hâlen Hiç düünme, kaç pis sularda yüzme, kirletir seni Öldürür beni bu duruma düüren alem nsan ömrü pisuvarda izmarit Sen hayatta kal da pembe hayallerin az uzakta dursun Balistik bir detaydr en sonunda kurun Arkadana söyle, ben'le göz temas kursun Ah Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir6</t>
+          <t>Yeter, çabalar, aclar, yaralar Bo sorular, yanlsamalar Kantlamalar, o hatrlamalar Aldramam, hatrlayamam, hatrlayamam Hissiyatsz bir oyun bu, ben kazandm nedense Bir alr, bir verirse ner'de benim sfrm? Bindim arabaya zencilerle kvrp Bu ileri geziyoruz yalandan srtp Ah Sanatçlar Siyonik, algoritma eridi Piyon ektiler topraa ve zombiler dirildi Neye fayda eder ki? Hepsi de delirdi Ah Doktorum bi' torbacdan daha fazla verimli Tekme atar bebekler, imdiden sinirliler Ben kronik vakaym, Fuck you, motherfucka'!ym Param var mutlu deil, tripteyim, bu ipteyim Cambazlara öretiyo'm Ulan, bak, bu ip dil La-la, la-la-la-la Sanki sirktesiniz, ner'de alknz? Hayatn sikr bizim yerde kalmmz La-la, la-la-la-la Sahil esintisi burada reyonlarda Kamera beni çekerken yönetmen hep uykuda Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Birlikte kazanana irket, kaybedene Aile denir Bana öyle bakma, ben de sizin mahalledenim Hâl ve gidi sfr fakat sknt yok, hallederiz Elli metre mesafeden fark ederim kaybedeni ehrin en ilek caddesinde tiner çeker çocuklar Gel de imdi afiyetle scak çorba iç Herkesin bi' mazareti vardr elbet moruk Fakat bir gün olsun hiç unutma, biz hep bur'dayz Ah Sormadm sorularn cevaplaryla megulüm Ve rehberimde ölülerin de numaralar var hâlen Hiç düünme, kaç pis sularda yüzme, kirletir seni Öldürür beni bu duruma düüren alem nsan ömrü pisuvarda izmarit Sen hayatta kal da pembe hayallerin az uzakta dursun Balistik bir detaydr en sonunda kurun Arkadana söyle, ben'le göz temas kursun Ah Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir6</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Daha yazdklarm bence cansz Magazin herkesin dilinde bence çou da kansz Yazdklarm diline yapr kulaklarn yansn Ne kadar urasan da gözümde yktm bir kuralsn dinle sterler seni geri çekmek Hepsini vurmak bana yarm ekmek vermeyen sektörü geri tepmek Herkesten bunu bekleme çünkü bunlarn derdi bu prim etmek Seni kullanmak sektirmek headline MCler bunu yazmaz Sen gerçekleri gör beni dinle Kör gözleri lazm atman, dünyana düzgün bakman Rüyan düzgün anla bünyem psikopat bi' aslan Ezelden beri rap yazmam beni kurtarmaz ben piyasay sarsarm Mcler dinler zehirlendikleri kafiyeden beni suçlarlar takmam Epidemik hayatn kurtarmaz Bi' insan böyle gazlanmak Kald ki epidemik hayatm kurtarmasn beni satcak kadar alçalmaz Davalarla uratm her ie kendim bulatm Yalnz kalmakta çr açsam da ben fetvadan feyz almam Özgürlük ner'de tanr bizi korusun bu yerden Ölüm korkusuyla yaamak genç yamda benden çok ey götürdü Söyle kim kurtaracak bizi bizden Daha önemli bir ey yok sokakta neenden You might also like Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden Yaran somuyor oynarsn kapal tribün Rapçiler herkesin dilinde bence çou da üzgün Para kazanmasakta hiphoptan vazgeçmemek mümkün Naslsa ülkemin çölünde domuyor gün dinle Tech N9ne çakmas MC bak çkmad asla menzilden Bok gibi sound yaptklar popçular oynatmaz beni yerimden Gülmekten baka bi' çarem yok saygszlk etmem çünkü Saygszlk onlarn yapt arklard bilmem öyle deil mi? Önemsemiyorum tavsiye arkadalar bile desteklemez ederdi tasfiye Boktan MCleri yutturmanz mars diye Marsn içindeki nükleer bomba benim patlarm pat diye Bi' günde yaamak seni bomasn Nefretin domasn MCler bouna saçn ban yolmasn Ne varsa yollasn urasn beni sollasn Yok çaresi ve kumpas bulama bana tüy sikletin ustas Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden hahahah scratch Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden</t>
+          <t>Daha yazdklarm bence cansz Magazin herkesin dilinde bence çou da kansz Yazdklarm diline yapr kulaklarn yansn Ne kadar urasan da gözümde yktm bir kuralsn dinle sterler seni geri çekmek Hepsini vurmak bana yarm ekmek vermeyen sektörü geri tepmek Herkesten bunu bekleme çünkü bunlarn derdi bu prim etmek Seni kullanmak sektirmek headline MCler bunu yazmaz Sen gerçekleri gör beni dinle Kör gözleri lazm atman, dünyana düzgün bakman Rüyan düzgün anla bünyem psikopat bi' aslan Ezelden beri rap yazmam beni kurtarmaz ben piyasay sarsarm Mcler dinler zehirlendikleri kafiyeden beni suçlarlar takmam Epidemik hayatn kurtarmaz Bi' insan böyle gazlanmak Kald ki epidemik hayatm kurtarmasn beni satcak kadar alçalmaz Davalarla uratm her ie kendim bulatm Yalnz kalmakta çr açsam da ben fetvadan feyz almam Özgürlük ner'de tanr bizi korusun bu yerden Ölüm korkusuyla yaamak genç yamda benden çok ey götürdü Söyle kim kurtaracak bizi bizden Daha önemli bir ey yok sokakta neenden Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden Yaran somuyor oynarsn kapal tribün Rapçiler herkesin dilinde bence çou da üzgün Para kazanmasakta hiphoptan vazgeçmemek mümkün Naslsa ülkemin çölünde domuyor gün dinle Tech N9ne çakmas MC bak çkmad asla menzilden Bok gibi sound yaptklar popçular oynatmaz beni yerimden Gülmekten baka bi' çarem yok saygszlk etmem çünkü Saygszlk onlarn yapt arklard bilmem öyle deil mi? Önemsemiyorum tavsiye arkadalar bile desteklemez ederdi tasfiye Boktan MCleri yutturmanz mars diye Marsn içindeki nükleer bomba benim patlarm pat diye Bi' günde yaamak seni bomasn Nefretin domasn MCler bouna saçn ban yolmasn Ne varsa yollasn urasn beni sollasn Yok çaresi ve kumpas bulama bana tüy sikletin ustas Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden hahahah scratch Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K geceleri alkol alanlarn yanna oturdum Kendi tarzm beenmezdim ama her parçamn sonunda kendimi bulurdum Çekilen aclar tatmak için bi' bama rak sofrasna kuruldum Bana gerekli olan iki sahte dost deil de sevdiim kadna Geri dön. Demeyecek gururdur Vaktinde hiç iyi anlaamazdk annemle imdiyse çok iyi biliyorum Babam ölünce kymete binecek Bense hiç yazamayacam onlarla yaadm mutlu anlarm bu deftere Çektiim Çileler kalbimi söktü çkard zaten Artk gerek yok içimi demek için ameliyathanede kör bi' netere Defterimi doldurduum kalemin ucu krk Gittiim yolun yok ucu buca nsanlar istemiyo' sayfalar karalamam Neden bu hrsnz? Yoksa sebebi alamamak m intikamnz? Haline otur da ükret. Çünkü Sokakta karn ackm çocuklar dileniyo' hallerine yazk Yan daha 15 lerde görü'cen mutluluu imdiyse rahatla Sigaraya baladn. Biliyorum. Çünkü Oturupta 2 kelam edemiyo'sun babanla Anan da üzülür sen kötü ilere bulatkça Kendine öyle bir dost edin ki Yüzün hâlâ gülüyor olsun Onunla sohbetin son bulmu olsadaYou might also like</t>
+          <t>K geceleri alkol alanlarn yanna oturdum Kendi tarzm beenmezdim ama her parçamn sonunda kendimi bulurdum Çekilen aclar tatmak için bi' bama rak sofrasna kuruldum Bana gerekli olan iki sahte dost deil de sevdiim kadna Geri dön. Demeyecek gururdur Vaktinde hiç iyi anlaamazdk annemle imdiyse çok iyi biliyorum Babam ölünce kymete binecek Bense hiç yazamayacam onlarla yaadm mutlu anlarm bu deftere Çektiim Çileler kalbimi söktü çkard zaten Artk gerek yok içimi demek için ameliyathanede kör bi' netere Defterimi doldurduum kalemin ucu krk Gittiim yolun yok ucu buca nsanlar istemiyo' sayfalar karalamam Neden bu hrsnz? Yoksa sebebi alamamak m intikamnz? Haline otur da ükret. Çünkü Sokakta karn ackm çocuklar dileniyo' hallerine yazk Yan daha 15 lerde görü'cen mutluluu imdiyse rahatla Sigaraya baladn. Biliyorum. Çünkü Oturupta 2 kelam edemiyo'sun babanla Anan da üzülür sen kötü ilere bulatkça Kendine öyle bir dost edin ki Yüzün hâlâ gülüyor olsun Onunla sohbetin son bulmu olsada</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>'Cê vai pra sempre estar em mim Diz que a história não acabou Que depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah Ainda te sinto nos meus sonhos Toda noite eu te encontro nas estrelas Pra dançar nossa canção Lembro da sua boca no meu rosto Na última noite de agosto 'Cê já sabia que ia levar meu coração E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois You might also like 'Cê vai pra sempre estar em mim Diz que a história não acabou E depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, e eu te vejo lá Ah, ah, ah, ah E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois E eu te vejo lá6</t>
+          <t>'Cê vai pra sempre estar em mim Diz que a história não acabou Que depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah Ainda te sinto nos meus sonhos Toda noite eu te encontro nas estrelas Pra dançar nossa canção Lembro da sua boca no meu rosto Na última noite de agosto 'Cê já sabia que ia levar meu coração E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois 'Cê vai pra sempre estar em mim Diz que a história não acabou E depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, e eu te vejo lá Ah, ah, ah, ah E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois E eu te vejo lá6</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>K ritmin içine gökyüzünden dalan bir ahin kadar sinirliydi Bu ghetto'da isim yapmak kadar zor fakat bir o kadar sevinçliydi Nefesimi bugün de kesemediniz ben hayallerim kadar dirençliydim Olmak zorunda deilsin kafam mahallen kadar geni miydi Geni miydi ha geni miydi belki de bir anda deimeliydim Ritim ve natoyla ayn yataktaym hiç durmadan da sevimeliydim Gevi getirdi ve geli dedirtti Takale kendini fazla belirtti Üstüme gelen bu ehri umursamaz bir tavr içinde ve kendi delirdi Bana hala yeti diyorlar çünkü bu ormandaki tek kral benim Bana benden bakas dost olamaz egom fazla yüksekte krar zemin Saçlarn sarya boyatp Raponza gibi yapacaksn melankolik Harcamalarna kz avlamaya devam önüne alrsn birkaç kemik Ayn basamakta deiliz yorulduun an durup da bir sigara yakarsn Takale tasman sald korunmak için de hançeri o götüne takarsn Ilham gelince sol eline bak kek, duygusal bir parça yaparsn Sabah kahvaltsnda kaar görsen eski sevgiline mesaj atarsn Neyse siktir et, belki de bundan daha fazlasn hak ediyorum olsun Kimi kendini fazla kandrd kimin amac da sadece cüzdan dolsun Dolsun tabii niye dolmasn ki bo kalan yerlerine Kürat koysun apka ve sakal bu ehirde çakalm bazen emanet bazen kurun Hadi anlat x7 You might also likeHadi anlat, anlat, dinle gölgem siyahi ama gece rahatna bakmadm Mahallemdeyim ve etiketin düük ama ben dostumu asla satmadm Aslan kesildi tayfan gerildi kangren olacak o mic tuttuun el Herkes merak etti ama hiçbiri yaktrp o capi kafasna takmad Sanki bir Harlem mantk arar, övdüün o burjuvaya pandik atar Göl, köprü tepe üstü üzerine birden korku salar Bunu anlatmak isterdim ama yaamadan örenemeyeceksin Çekmecedeki tek safkan biziz ve bunu asla göremeyeceksin Ama neden neden kafam ar basar bu bedel kadar ar yaantlar Bir düzen kuruldu ve ykld kumar gözaltlarmdaki o ahane duvar Bahane bulan bir kerhane bul al kendine bir hatun elalem u'lar Bu kaçnc sunan karanlk sular punchline o zihne dinamini kurar Bu terapi stili senin eline verir o kç krk mikrofonu sana deneme dedim Ne geri ne ileri Hiphop için elemedeyim o zaman ele bebeim hadi be unu göreyim Elime tekila shot verip tuzum kuru demeyin veyahut kuru deneyin bu sorunlu bir deneyim Bir kere de brakn emeinizi kenara o zaman müzik nasl yaplyormu sizi göreyim Bekle sorun deil bekle, bekle sorun deil K34 yakana yapacak bu sorun beyim Ben zaten zirvedeyim, Aras yeni bir deneyim Beni de deneyin o sabrnz bir göreyim x21</t>
+          <t>K ritmin içine gökyüzünden dalan bir ahin kadar sinirliydi Bu ghetto'da isim yapmak kadar zor fakat bir o kadar sevinçliydi Nefesimi bugün de kesemediniz ben hayallerim kadar dirençliydim Olmak zorunda deilsin kafam mahallen kadar geni miydi Geni miydi ha geni miydi belki de bir anda deimeliydim Ritim ve natoyla ayn yataktaym hiç durmadan da sevimeliydim Gevi getirdi ve geli dedirtti Takale kendini fazla belirtti Üstüme gelen bu ehri umursamaz bir tavr içinde ve kendi delirdi Bana hala yeti diyorlar çünkü bu ormandaki tek kral benim Bana benden bakas dost olamaz egom fazla yüksekte krar zemin Saçlarn sarya boyatp Raponza gibi yapacaksn melankolik Harcamalarna kz avlamaya devam önüne alrsn birkaç kemik Ayn basamakta deiliz yorulduun an durup da bir sigara yakarsn Takale tasman sald korunmak için de hançeri o götüne takarsn Ilham gelince sol eline bak kek, duygusal bir parça yaparsn Sabah kahvaltsnda kaar görsen eski sevgiline mesaj atarsn Neyse siktir et, belki de bundan daha fazlasn hak ediyorum olsun Kimi kendini fazla kandrd kimin amac da sadece cüzdan dolsun Dolsun tabii niye dolmasn ki bo kalan yerlerine Kürat koysun apka ve sakal bu ehirde çakalm bazen emanet bazen kurun Hadi anlat x7 Hadi anlat, anlat, dinle gölgem siyahi ama gece rahatna bakmadm Mahallemdeyim ve etiketin düük ama ben dostumu asla satmadm Aslan kesildi tayfan gerildi kangren olacak o mic tuttuun el Herkes merak etti ama hiçbiri yaktrp o capi kafasna takmad Sanki bir Harlem mantk arar, övdüün o burjuvaya pandik atar Göl, köprü tepe üstü üzerine birden korku salar Bunu anlatmak isterdim ama yaamadan örenemeyeceksin Çekmecedeki tek safkan biziz ve bunu asla göremeyeceksin Ama neden neden kafam ar basar bu bedel kadar ar yaantlar Bir düzen kuruldu ve ykld kumar gözaltlarmdaki o ahane duvar Bahane bulan bir kerhane bul al kendine bir hatun elalem u'lar Bu kaçnc sunan karanlk sular punchline o zihne dinamini kurar Bu terapi stili senin eline verir o kç krk mikrofonu sana deneme dedim Ne geri ne ileri Hiphop için elemedeyim o zaman ele bebeim hadi be unu göreyim Elime tekila shot verip tuzum kuru demeyin veyahut kuru deneyin bu sorunlu bir deneyim Bir kere de brakn emeinizi kenara o zaman müzik nasl yaplyormu sizi göreyim Bekle sorun deil bekle, bekle sorun deil K34 yakana yapacak bu sorun beyim Ben zaten zirvedeyim, Aras yeni bir deneyim Beni de deneyin o sabrnz bir göreyim x21</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Çok track var Gösündeki kllarn says Aaa Pit10! Naber verseümdeki yllarn hasm Ego biter ses ver be ksmayn atnz eyho siker, cCc skmayn cann Szlanr yaras kskanmayn hrslanp yaznz z kalr atnz skaladn sklr kalbn Iskartalk maln ilk yaprana slatp yatrn Ismarlarz canm spanamz rzladr sanrm Küsemiyorum kadere hatalar benim Sövemiyorum felee hatalar benim Göremiyorum nerede hatam var benim Hatalar satr aralarnda yatarlar enik Atta gidelim hey hatta ce-ee fucked up bebe Takm taklavat takn alt kat yere Ma'fucka rakm underground muhatap ve de Ala nigga yakn aklar mal fuck rape Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil You might also like Ver Bat'dan melodimi ve tempomu diz Tarlama haseti çaktrmadan eker koku pis Top triple bozuk yap seker çou bir Türkçe Rap'e biber lazm homie çocuk deil stanbul'da homosun Japonya'da geya Uzi bana pussy gibi bazookada ehinah Nolursa eklin gel mason ya da petemal Ama bana deil yani mal olmadan geç pas Haclar ac verir açk elim kaçn geri Kçn yeri öper benim ilhamn kasl beyim Hiphop akl seli moron tti fasl ezik Meydanmda asl ezip kasl delir ba eim Egomu saf d brakmak egonu katleder Meteor gibi gelen nesiliz def olun sahneden Ne konum fark eder ne ya bir olup harp eder- -Sek birinci nesil biz gelince Zyon'u kaybeder Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil imdi bu adamlar birbirlerine bu kadar diss yaptlar, küfrettiler yani bu tükürdüünü yalamak oluyor biraz, gel sen o kadar birbirine küfret sonra gel beraber ark yap yani nerede kald sizin gururunuz onurunuz yani ................................... özet geç piç3</t>
+          <t>Çok track var Gösündeki kllarn says Aaa Pit10! Naber verseümdeki yllarn hasm Ego biter ses ver be ksmayn atnz eyho siker, cCc skmayn cann Szlanr yaras kskanmayn hrslanp yaznz z kalr atnz skaladn sklr kalbn Iskartalk maln ilk yaprana slatp yatrn Ismarlarz canm spanamz rzladr sanrm Küsemiyorum kadere hatalar benim Sövemiyorum felee hatalar benim Göremiyorum nerede hatam var benim Hatalar satr aralarnda yatarlar enik Atta gidelim hey hatta ce-ee fucked up bebe Takm taklavat takn alt kat yere Ma'fucka rakm underground muhatap ve de Ala nigga yakn aklar mal fuck rape Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Ver Bat'dan melodimi ve tempomu diz Tarlama haseti çaktrmadan eker koku pis Top triple bozuk yap seker çou bir Türkçe Rap'e biber lazm homie çocuk deil stanbul'da homosun Japonya'da geya Uzi bana pussy gibi bazookada ehinah Nolursa eklin gel mason ya da petemal Ama bana deil yani mal olmadan geç pas Haclar ac verir açk elim kaçn geri Kçn yeri öper benim ilhamn kasl beyim Hiphop akl seli moron tti fasl ezik Meydanmda asl ezip kasl delir ba eim Egomu saf d brakmak egonu katleder Meteor gibi gelen nesiliz def olun sahneden Ne konum fark eder ne ya bir olup harp eder- -Sek birinci nesil biz gelince Zyon'u kaybeder Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil imdi bu adamlar birbirlerine bu kadar diss yaptlar, küfrettiler yani bu tükürdüünü yalamak oluyor biraz, gel sen o kadar birbirine küfret sonra gel beraber ark yap yani nerede kald sizin gururunuz onurunuz yani ................................... özet geç piç3</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks Skatoties apkrt ko adrenalns veic Kaepe tu i' traks, t man imaks teica Ms baudam dienu, bet dados veidos Dzima baudt dzvi, ne lai par to steigtos Man mzika , kam ritenis, kam bikes Patrinjums apstdina, apstjas laiks Un vl kad mljies adrenalns sprgst Klausoties mziku, maigums un Te pki kds uzmet skaistu triku Easy Saldus saldo backflipu Nemaz jau nav traki ar izpletni vai gumiju Daivot oken, bt biznes ar uzviju You might also likeSplm piesdies, atslbis sabijies Sportam jtot ldzi pacilts, aizdedzies Kam man apstties, viss notiek pats no sevis Adrnalns visiem reizi biki kaut ko devis Tu rdzi to visur, tas scs tev t k mitrums To tev prass, kad tav dzv iestjies kritums Tas tav galv kp k kaln kpa alpnists Kas nebaids krist, izejot uz risku Tav prt nav viss kas parasti iet tev pretdabisks Gatavs esi raut, plst, lkt un krist, kam tev tas viss? Jaunb viss iet jaudgks, tur jau tas triks Ms visi esam dzves baudtji, nav jau tik slikti Vairk draudgs nek draudzgs is bts tav playlist nekad nebs saudzgs Pa ausm dauzs k pa spaini, paem pauzti Trausl vainas apzia ir ierakusies kaudz Adrenalns, ko izjt daudzi, risku raudz Aveu vns, izjti baudu, visu zaud Nesakrist var manas domas ar tavjm Tomr pie tmas s, ts mazliet kavjs ljos es, savienojot punktus galjos Apvienot te, visus tuvjos un tljos Rga, Saldus izkliedjot visus maldus Skanot im te, neviens neteiks vrdus saldus Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks</t>
+          <t>Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks Skatoties apkrt ko adrenalns veic Kaepe tu i' traks, t man imaks teica Ms baudam dienu, bet dados veidos Dzima baudt dzvi, ne lai par to steigtos Man mzika , kam ritenis, kam bikes Patrinjums apstdina, apstjas laiks Un vl kad mljies adrenalns sprgst Klausoties mziku, maigums un Te pki kds uzmet skaistu triku Easy Saldus saldo backflipu Nemaz jau nav traki ar izpletni vai gumiju Daivot oken, bt biznes ar uzviju Splm piesdies, atslbis sabijies Sportam jtot ldzi pacilts, aizdedzies Kam man apstties, viss notiek pats no sevis Adrnalns visiem reizi biki kaut ko devis Tu rdzi to visur, tas scs tev t k mitrums To tev prass, kad tav dzv iestjies kritums Tas tav galv kp k kaln kpa alpnists Kas nebaids krist, izejot uz risku Tav prt nav viss kas parasti iet tev pretdabisks Gatavs esi raut, plst, lkt un krist, kam tev tas viss? Jaunb viss iet jaudgks, tur jau tas triks Ms visi esam dzves baudtji, nav jau tik slikti Vairk draudgs nek draudzgs is bts tav playlist nekad nebs saudzgs Pa ausm dauzs k pa spaini, paem pauzti Trausl vainas apzia ir ierakusies kaudz Adrenalns, ko izjt daudzi, risku raudz Aveu vns, izjti baudu, visu zaud Nesakrist var manas domas ar tavjm Tomr pie tmas s, ts mazliet kavjs ljos es, savienojot punktus galjos Apvienot te, visus tuvjos un tljos Rga, Saldus izkliedjot visus maldus Skanot im te, neviens neteiks vrdus saldus Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Guarda che più partecipi più vinci meno Mo pedali, volevi la bici vero? Lazza fai cagare come dici, prego? A lavare i vetri come ti ci vedo Ti faccio urlare Zzalando, Don Lazza è l'anagramma La tua tipa di dietro ne ha presi talmente Che adesso c'ha il buco del mmh che parla, analgrammar Chiudo queste bocche tipo Saratoga Palle in faccia alla tua tipa, arapova Spiegami com'è che parla sempre di piccioni O sarà troia o sarà Povia Ho una barra nuova Quando faccio un live ti porti le casse, la prendi per gioco Non ti do ascolto, fra' se faccio un live Ti porti le casse da morto per dopo C'ho un botto di fotta, tu infottati troppo Fra' sotto a chi tocca, tu toccati sotto qua Lo sai perché qui meno te? Sei troppo stupido, QI -3 Qui meno tre scemi Che fanno la gara a chi ce l'ha più duro fra' Se fossi Neri Parenti voi sareste i protagonisti Per fare Natale a fanculo, fra' Bella Real Talk, sono un tipo fresh Sì ma fresh troppo Tu trash, goffo Cash troppo, quando stappo il G sono Flash Gordon Voi troppo babbi, troppo scarsi Bosca al beat, faccio un morto sappi Che non vado in tele perché se ci andassi Tirerei bestemmie frate' Gordon Ramsay You might also like Chi lo sa come va a finire Kilocal, peso queste rime Rapper ballerini con le ballerine Chi ti Kledi per capire eh? I tuoi cazzi li vieni a dire a me Che nemmeno ti sto ascoltando Ho preso un palo, Cristiano Ronaldo Sei tutto fumo, ti stiamo rollando Boy, fatti da parte se passa il mio team Frate' hai i minuti contati Come se ti scade la promo di Tim Fra' sei giù con la police, Sting Non sentirmi che ci rimani Lanci i sassi, nascondi mani Vedo un sacco di questi tali geni Incollati ai miei genitali E la giro e la fumo e non gioco a PES Sei sbirro, sei cane, fra' come Rex Mi puoi presentare, sì, come guest Anche come Dio, sì, alla Kanye West 'Sti rapper li usiamo da anti stress Si sa che sono così avanti che Se apri la rubrica dentro al mio cell La mia nuova tipa è salvata ex Metticeli in tasca che fatichiamo Mangiare una pasta, mi è capitato Se un fra' dice basta, decapitiamo Ce l'hai in bocca fra', Pasta del Capitano Io sto in gara ma mica per partecipare Non accetto le sconfitte Mischio le carte, fumo due jolle Pesco due Jolly e ti lascio il due di picche Ho un tattoo sulla mano con scritto odio Così sai cosa provo se te la stringo Rido quando fate Bang bang con la gang gang Sì ma il ferro è finto E il live è free Ma se vieni insieme alla tua tipa vai tra' lei paga lo stesso Il mio cachet è un po' meno di un palo Lei ci dà due gambe con la figa in mezzo Crudo, crudo, crudo come il sushi Frate' crudo, crudo come il Pata Negra Crudo frate' come i Vaffanculo Che ti prendi quando mi scrivi in bacheca Maledetto il giorno che hai scoperto il web Fra' spero che ti ripigli Sono tutto ttofa che scrivo sul sofà Quanto è figa Sabrina Ferilli Scarto rapper come Zanzibar Muori tu scemo che zanzi barre I tuoi frate' non hanno le palle I miei scroccano paglie per far le canne Hey hey, stai buono Che sei lì che cerchi di fare il pazzo Facci una sega con due mani Ti sblocchiamo l'iPhone col cazzo Sai come mi chiamano da me? Giovane Chopin Perché prima mi siedo a suonare il piano Dopo mi alzo per scrivere e suono te Sto tra i pazzi da legare, con i cazzi da levare Qua ci girano le palle, playmaker Li ho schivati tutti, Mayweather Non stare a sentire me o ti chiudi I miei frate' fanno Metro Boomin Sì ma frate' in cinque metri cubi Odio se mi crolla il mondo addosso Odio se passo momenti bui Odio per tanto perché non posso dire Che sto crollando io addosso a lui Bello il tuo discorso, ti giuro che è stato interessante Vorrei un portafoglio così gonfio Che sembra sia in stato interessante Fra', sono uno per cento come se ho il telefono scarico Fanculo il coltello, il flow è Hattori Hanz Con la katana dalla parte del manico Ho una bandana in testa come De Niro ne Il Cacciatore La faccia da Goodfellas e le scarpe da spacciatore Una schiera di groupie intorno e non capisco come Sto senza sentimenti ma è aperta la caccia al cuore Neanche un bisturi in pancia mi ha tolto la voglia di vivere Di scrivere, di tagliare la testa a queste vipere Bastoni tra le ruote ma non mollo, col cazzo 'Sti rapper deepthroat senza collo, Costanzo E ho vinto ancora io, non pari Perché ho sempre suonato i tasti giusti, Bollani È inutile, non puoi farmi fuori se non bari Mi han chiesto chi mi fa le scarpe, ho detto nobody E la tua scopa amica non ti scopa mica Sembri tutto gay, è come se scopa Mika Fra' mi mandi un pezzo che hai fatto la strofa fica Non lo apro nemmeno, boy, risparmia la fatica E sono giù con pochi, il resto è tutta scena Giso, Tela, Gimmy, Vegas, Mirko, Tedua Ghali, Killa e tutto il resto della cricca La tua crew fa ridere, Premiata Ditta Il tuo flow non prende come il cell in galleria Metto 'sti soldi da parte per andare via Torno e mi fanno una statua in mezzo alla mia via Maria io non esco, no, io esco la maria Il fatto che la terra è rotonda fra' è una cazzata Finché ci sono infami ad ogni angolo di strada Qua sfondano gli scemi perché la gente è distratta Non c'hai la credibilità ma te la sei comprata E manco vai a tempo, cazzo rappi? Stai perdendo Tempo, boy, fazzoletti Io sui tuoi progetti non investirei Investirei te e gli scemi con cui sei Se vuoi glielo dimostro a questi Quanto sono ancora sempre un mostro a testi In giro così fake che piuttosto il wrestling Il flow fra' non è tosto, frate', è Dosto-evskij E quindi frate' riempimi di fresca quella vasca Chi ti vende questa ha la tua cresta nella tasca Non dimenticarti mai di questa bella faccia Ho perle per le orecchie, tu una perla per la nasca È tutto uguale, droghe a puttane Poi il flow è da buttare Magari con me perdi ma prova a puntare Non puoi fare il sudoku se non fai i numeri a chiuderle E non puoi fare Goku finché vivi tra le nuvole, boy Quale strage di stato? Tu fai strage di stati Incapace a distrarmi, alla brace 'sti infami Vi rispedisco a casa al volo, viziati A cazzo bello forte in culo, colonizzati Ce ne avreste di storie da raccontare, ma forse Ve le siete perse in mezzo a puttanate più grosse Le domande che mi fate non avranno risposte Fra' al massimo sì con la testa più qualche colpo di tosse Oh mio Dio, oh mio Dio, muoio, sono leggenda Qualcosa del tipo Sarà mai esistito davvero? I miei numeri parlano, ma fa niente, che c'entra Per te sarò sempre un genio travestito da scemo, boy Ho nemici fra', un sacco di nemici fra' E più ne stai parlando più mi chiedo Cazzo dici?, fra' Amici, amici, fra' e ti fottono la bici, fra' 'Sti qua sono comparse, manco buoni a far le attrici, fra' Voglio il grano come Dandi di Romanzo Criminale Non ho fame, oggi il mio pranzo lì rimane Cerco calma, ma lo scazzo mi risale Fino al giorno che esco con un mitra in mano E faccio il pazzo al Quirinale, boy Questi rapper quando entro si danno l'addio Sai che c'ho il flow di Cristo però Cristo non ha il mio Cento passi indietro e non sono manco d'impegno Inginocchiati e poi slaccia 'sta lampo di genio, boy Volete fottere? Testate! Calderone, con il flow Mr. Lazzino rapper Fra', tu sei un coglione Il flow ti fa di brutto, vuoi fare il calderone La Pozione Polisucco, fammi un poli-risucchio Ye, come fossi Harry Potter Faccio girare i coglioni, tipo globetrotter Porto questa storia, quando arrivo vai sicuro Vuoi fare il maghetto ma c'hai la bacchetta nel culo Ye, Brexit, quando arrivo io è B-Rex it Sai come funziona, faccio flexing Come fossi Meek Mill che scopa Nicki Quando rappo fra' ho i tuoi versi preferiti Ye, laptop, quando arrivo Lazzino fra' sono là al top Porto questa storia, non ce n'è Fresh metrico, Crash Bandicoot Ti chiudo in due come un Macintosh Ye, hai presente com'è C'ho roba seria quando te ne droppo un paio col rap Ye, c'ho le robe fra' e non si discute Fai Biancaneve ma dai un morso alla mela del tuo computer! Yeah2</t>
+          <t>Guarda che più partecipi più vinci meno Mo pedali, volevi la bici vero? Lazza fai cagare come dici, prego? A lavare i vetri come ti ci vedo Ti faccio urlare Zzalando, Don Lazza è l'anagramma La tua tipa di dietro ne ha presi talmente Che adesso c'ha il buco del mmh che parla, analgrammar Chiudo queste bocche tipo Saratoga Palle in faccia alla tua tipa, arapova Spiegami com'è che parla sempre di piccioni O sarà troia o sarà Povia Ho una barra nuova Quando faccio un live ti porti le casse, la prendi per gioco Non ti do ascolto, fra' se faccio un live Ti porti le casse da morto per dopo C'ho un botto di fotta, tu infottati troppo Fra' sotto a chi tocca, tu toccati sotto qua Lo sai perché qui meno te? Sei troppo stupido, QI -3 Qui meno tre scemi Che fanno la gara a chi ce l'ha più duro fra' Se fossi Neri Parenti voi sareste i protagonisti Per fare Natale a fanculo, fra' Bella Real Talk, sono un tipo fresh Sì ma fresh troppo Tu trash, goffo Cash troppo, quando stappo il G sono Flash Gordon Voi troppo babbi, troppo scarsi Bosca al beat, faccio un morto sappi Che non vado in tele perché se ci andassi Tirerei bestemmie frate' Gordon Ramsay Chi lo sa come va a finire Kilocal, peso queste rime Rapper ballerini con le ballerine Chi ti Kledi per capire eh? I tuoi cazzi li vieni a dire a me Che nemmeno ti sto ascoltando Ho preso un palo, Cristiano Ronaldo Sei tutto fumo, ti stiamo rollando Boy, fatti da parte se passa il mio team Frate' hai i minuti contati Come se ti scade la promo di Tim Fra' sei giù con la police, Sting Non sentirmi che ci rimani Lanci i sassi, nascondi mani Vedo un sacco di questi tali geni Incollati ai miei genitali E la giro e la fumo e non gioco a PES Sei sbirro, sei cane, fra' come Rex Mi puoi presentare, sì, come guest Anche come Dio, sì, alla Kanye West 'Sti rapper li usiamo da anti stress Si sa che sono così avanti che Se apri la rubrica dentro al mio cell La mia nuova tipa è salvata ex Metticeli in tasca che fatichiamo Mangiare una pasta, mi è capitato Se un fra' dice basta, decapitiamo Ce l'hai in bocca fra', Pasta del Capitano Io sto in gara ma mica per partecipare Non accetto le sconfitte Mischio le carte, fumo due jolle Pesco due Jolly e ti lascio il due di picche Ho un tattoo sulla mano con scritto odio Così sai cosa provo se te la stringo Rido quando fate Bang bang con la gang gang Sì ma il ferro è finto E il live è free Ma se vieni insieme alla tua tipa vai tra' lei paga lo stesso Il mio cachet è un po' meno di un palo Lei ci dà due gambe con la figa in mezzo Crudo, crudo, crudo come il sushi Frate' crudo, crudo come il Pata Negra Crudo frate' come i Vaffanculo Che ti prendi quando mi scrivi in bacheca Maledetto il giorno che hai scoperto il web Fra' spero che ti ripigli Sono tutto ttofa che scrivo sul sofà Quanto è figa Sabrina Ferilli Scarto rapper come Zanzibar Muori tu scemo che zanzi barre I tuoi frate' non hanno le palle I miei scroccano paglie per far le canne Hey hey, stai buono Che sei lì che cerchi di fare il pazzo Facci una sega con due mani Ti sblocchiamo l'iPhone col cazzo Sai come mi chiamano da me? Giovane Chopin Perché prima mi siedo a suonare il piano Dopo mi alzo per scrivere e suono te Sto tra i pazzi da legare, con i cazzi da levare Qua ci girano le palle, playmaker Li ho schivati tutti, Mayweather Non stare a sentire me o ti chiudi I miei frate' fanno Metro Boomin Sì ma frate' in cinque metri cubi Odio se mi crolla il mondo addosso Odio se passo momenti bui Odio per tanto perché non posso dire Che sto crollando io addosso a lui Bello il tuo discorso, ti giuro che è stato interessante Vorrei un portafoglio così gonfio Che sembra sia in stato interessante Fra', sono uno per cento come se ho il telefono scarico Fanculo il coltello, il flow è Hattori Hanz Con la katana dalla parte del manico Ho una bandana in testa come De Niro ne Il Cacciatore La faccia da Goodfellas e le scarpe da spacciatore Una schiera di groupie intorno e non capisco come Sto senza sentimenti ma è aperta la caccia al cuore Neanche un bisturi in pancia mi ha tolto la voglia di vivere Di scrivere, di tagliare la testa a queste vipere Bastoni tra le ruote ma non mollo, col cazzo 'Sti rapper deepthroat senza collo, Costanzo E ho vinto ancora io, non pari Perché ho sempre suonato i tasti giusti, Bollani È inutile, non puoi farmi fuori se non bari Mi han chiesto chi mi fa le scarpe, ho detto nobody E la tua scopa amica non ti scopa mica Sembri tutto gay, è come se scopa Mika Fra' mi mandi un pezzo che hai fatto la strofa fica Non lo apro nemmeno, boy, risparmia la fatica E sono giù con pochi, il resto è tutta scena Giso, Tela, Gimmy, Vegas, Mirko, Tedua Ghali, Killa e tutto il resto della cricca La tua crew fa ridere, Premiata Ditta Il tuo flow non prende come il cell in galleria Metto 'sti soldi da parte per andare via Torno e mi fanno una statua in mezzo alla mia via Maria io non esco, no, io esco la maria Il fatto che la terra è rotonda fra' è una cazzata Finché ci sono infami ad ogni angolo di strada Qua sfondano gli scemi perché la gente è distratta Non c'hai la credibilità ma te la sei comprata E manco vai a tempo, cazzo rappi? Stai perdendo Tempo, boy, fazzoletti Io sui tuoi progetti non investirei Investirei te e gli scemi con cui sei Se vuoi glielo dimostro a questi Quanto sono ancora sempre un mostro a testi In giro così fake che piuttosto il wrestling Il flow fra' non è tosto, frate', è Dosto-evskij E quindi frate' riempimi di fresca quella vasca Chi ti vende questa ha la tua cresta nella tasca Non dimenticarti mai di questa bella faccia Ho perle per le orecchie, tu una perla per la nasca È tutto uguale, droghe a puttane Poi il flow è da buttare Magari con me perdi ma prova a puntare Non puoi fare il sudoku se non fai i numeri a chiuderle E non puoi fare Goku finché vivi tra le nuvole, boy Quale strage di stato? Tu fai strage di stati Incapace a distrarmi, alla brace 'sti infami Vi rispedisco a casa al volo, viziati A cazzo bello forte in culo, colonizzati Ce ne avreste di storie da raccontare, ma forse Ve le siete perse in mezzo a puttanate più grosse Le domande che mi fate non avranno risposte Fra' al massimo sì con la testa più qualche colpo di tosse Oh mio Dio, oh mio Dio, muoio, sono leggenda Qualcosa del tipo Sarà mai esistito davvero? I miei numeri parlano, ma fa niente, che c'entra Per te sarò sempre un genio travestito da scemo, boy Ho nemici fra', un sacco di nemici fra' E più ne stai parlando più mi chiedo Cazzo dici?, fra' Amici, amici, fra' e ti fottono la bici, fra' 'Sti qua sono comparse, manco buoni a far le attrici, fra' Voglio il grano come Dandi di Romanzo Criminale Non ho fame, oggi il mio pranzo lì rimane Cerco calma, ma lo scazzo mi risale Fino al giorno che esco con un mitra in mano E faccio il pazzo al Quirinale, boy Questi rapper quando entro si danno l'addio Sai che c'ho il flow di Cristo però Cristo non ha il mio Cento passi indietro e non sono manco d'impegno Inginocchiati e poi slaccia 'sta lampo di genio, boy Volete fottere? Testate! Calderone, con il flow Mr. Lazzino rapper Fra', tu sei un coglione Il flow ti fa di brutto, vuoi fare il calderone La Pozione Polisucco, fammi un poli-risucchio Ye, come fossi Harry Potter Faccio girare i coglioni, tipo globetrotter Porto questa storia, quando arrivo vai sicuro Vuoi fare il maghetto ma c'hai la bacchetta nel culo Ye, Brexit, quando arrivo io è B-Rex it Sai come funziona, faccio flexing Come fossi Meek Mill che scopa Nicki Quando rappo fra' ho i tuoi versi preferiti Ye, laptop, quando arrivo Lazzino fra' sono là al top Porto questa storia, non ce n'è Fresh metrico, Crash Bandicoot Ti chiudo in due come un Macintosh Ye, hai presente com'è C'ho roba seria quando te ne droppo un paio col rap Ye, c'ho le robe fra' e non si discute Fai Biancaneve ma dai un morso alla mela del tuo computer! Yeah2</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Jahlil Beats, holla at me It's time to eat The Unit is back Them niggas is back, the real is back, the streets is back Shooters on deck nigga, yeah Got keys twinklin', pianos in the next apartment Safe house when the narcs hit I give rap critics verbal bouquets about AKs Foolish rappers in my rearview, far away Ferragamo dreams, the bitch lipstick on my cigarette M4 Carbine, aim for your neck Got that wavy work, Ryan Seacrest Forgi's on the foreign and they deep dish Kill a mink to make a mink My jacket in the weasel family Luxurious furs, pull an eagle swammy New Tahoe, 27Z New grill on that bitch looks so mean Dog food call it Arabian coffee Good connect, don't ask what it cost me I got undetected explosives in my floor Got me in Vera Wang clothes, ya feel me? You might also like Fatality, fatality, fatality My brother been dippin' his fuckin' face in the powder Fuckin' up ours We supposed to be in this together but you done with sour Cash money brothers, remember money and power A little paper'll get a nigga knocked down like the Towers I spend hours in the kitchen standin' over the stove Put too much time in finer places to put niggas in holes I got my son froze cold, baggin' up O's He said he want him a Phantom before he's 14 years old I told him he can do it if he don't open his nose Like my nigga Louis ask him where most of his go I'm a bad influence to broke niggas Encourage 'em to the pull up, hop out and smoke niggas Yeah, marinated the bullets in body fluids And if my weapon don't kill 'em, the infection gon' do it Every nigga standin' in my section goin' through it We gon' get the money, you ain't gotta help us to it, yeah Fatality, fatality, fatality Kidd nigga, uhh HUH? Watchin' my OG whip it, I learned how to remix it Turn the pigeons to a chicken, four piece and a biscuit Bodies come up missin' get found by someone fishin' Long nose, Scottie Pippen, Glock 40 extension If I'm broke I fix it but that ain't nobody business They comin' for my head I hope my nigga don't start bitchin' Gotta thank the Lord I ain't get a life sentence 'Fore my name end up in a rest in peace sentence Boy I say sumthin' I meant it Start sumthin' I finish it If I spray sumthin' it's head shots, you can't say I'm attemptin' Y'all niggas keep dissin' I hear 'em talkin' this and that But don't confuse this with that I put a hole in your inner tube car fixed or flat Realest niggas in the game man you gotta give us that I hold it down I'll bust your head for the right amount Six shots, every bullet gotta count1</t>
+          <t>Jahlil Beats, holla at me It's time to eat The Unit is back Them niggas is back, the real is back, the streets is back Shooters on deck nigga, yeah Got keys twinklin', pianos in the next apartment Safe house when the narcs hit I give rap critics verbal bouquets about AKs Foolish rappers in my rearview, far away Ferragamo dreams, the bitch lipstick on my cigarette M4 Carbine, aim for your neck Got that wavy work, Ryan Seacrest Forgi's on the foreign and they deep dish Kill a mink to make a mink My jacket in the weasel family Luxurious furs, pull an eagle swammy New Tahoe, 27Z New grill on that bitch looks so mean Dog food call it Arabian coffee Good connect, don't ask what it cost me I got undetected explosives in my floor Got me in Vera Wang clothes, ya feel me? Fatality, fatality, fatality My brother been dippin' his fuckin' face in the powder Fuckin' up ours We supposed to be in this together but you done with sour Cash money brothers, remember money and power A little paper'll get a nigga knocked down like the Towers I spend hours in the kitchen standin' over the stove Put too much time in finer places to put niggas in holes I got my son froze cold, baggin' up O's He said he want him a Phantom before he's 14 years old I told him he can do it if he don't open his nose Like my nigga Louis ask him where most of his go I'm a bad influence to broke niggas Encourage 'em to the pull up, hop out and smoke niggas Yeah, marinated the bullets in body fluids And if my weapon don't kill 'em, the infection gon' do it Every nigga standin' in my section goin' through it We gon' get the money, you ain't gotta help us to it, yeah Fatality, fatality, fatality Kidd nigga, uhh HUH? Watchin' my OG whip it, I learned how to remix it Turn the pigeons to a chicken, four piece and a biscuit Bodies come up missin' get found by someone fishin' Long nose, Scottie Pippen, Glock 40 extension If I'm broke I fix it but that ain't nobody business They comin' for my head I hope my nigga don't start bitchin' Gotta thank the Lord I ain't get a life sentence 'Fore my name end up in a rest in peace sentence Boy I say sumthin' I meant it Start sumthin' I finish it If I spray sumthin' it's head shots, you can't say I'm attemptin' Y'all niggas keep dissin' I hear 'em talkin' this and that But don't confuse this with that I put a hole in your inner tube car fixed or flat Realest niggas in the game man you gotta give us that I hold it down I'll bust your head for the right amount Six shots, every bullet gotta count1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için You might also like Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
+          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok You might also likeOras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
+          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok Oras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tu gde svako petlja Gde civilna su svetla Proe speksi proe meta Dok tke, svoja plua eka Cuki bio tu sa 15 Znai iveo taj matching Pivo, trava, muter, trei Tu u kraju sedi s' neim Moja upra dalu, znai nije normal Tenzija me pukne, kada vidim loma Motaj jo, znai sve u topa Mora budem smiren, ako vidim drota Tu u kraju i dalje traju Znai radi amne, to je moj kblo Samo uti i ako znaju Mogu pue kurac i to grubo Reperi gde ste Cuki sklapa die beste Uivo da pisne ne sme Gistro ljava kao koji kerme Dobrodoao u Rbo Kriminal jai nego svuda duplo Samo pDo lobe vutra nita drugo Budi tu na zive samo vidim s drugom 'a je piko oe da se snima A vamo maska, ivi se kriminal Imam stila svaka glava klima Nastavljam rimu iz prolog singla Nisam lerdi ali uvek imam Samo motam samo neto dimRa Imam priu koja uvek prodje Mala mi u stau stavlja groe I tako dalje eto mene opet Krimi pria ti je moj domen Oko love, tu su moja braa I gedore velike ko praka ta god hoce bato uvek moe Samo skank nista bobe roze Pukne jako promeni ti boje Pod lampom tu neke biljke stoje Kesu cepaj stavi sve u ndla Tu te iza eka moj bruda Ovi smeni malo fale muda A fali glavi malo je i uplja mekeri a runi kao bulja Fanfa sve dobra je i sulja A moja plua vole samo unka Do muzike bato preko ugla Svi su tvrdi ubio ih kompleks Nita ne znam to je moj kodeks Tu u kraju 2 da li moe? Ne zna nita tako je i bolje Znaju ljudi koji ovo vode Znaju ljudi koji ovo rade Cukela u kui care Za ispravnost vadite medalje Alo Kad je trebalo bio sam Kad nije trebalo i'o sam Zipu uvao, nije sam Dvojku stavim i nije gram I moe stvarno kae ko ta hoe Svojim delima sam bato vodjen 22. Blok tu sam roen Daj mi neto vie, neu vie gloemYou might also like</t>
+          <t>Tu gde svako petlja Gde civilna su svetla Proe speksi proe meta Dok tke, svoja plua eka Cuki bio tu sa 15 Znai iveo taj matching Pivo, trava, muter, trei Tu u kraju sedi s' neim Moja upra dalu, znai nije normal Tenzija me pukne, kada vidim loma Motaj jo, znai sve u topa Mora budem smiren, ako vidim drota Tu u kraju i dalje traju Znai radi amne, to je moj kblo Samo uti i ako znaju Mogu pue kurac i to grubo Reperi gde ste Cuki sklapa die beste Uivo da pisne ne sme Gistro ljava kao koji kerme Dobrodoao u Rbo Kriminal jai nego svuda duplo Samo pDo lobe vutra nita drugo Budi tu na zive samo vidim s drugom 'a je piko oe da se snima A vamo maska, ivi se kriminal Imam stila svaka glava klima Nastavljam rimu iz prolog singla Nisam lerdi ali uvek imam Samo motam samo neto dimRa Imam priu koja uvek prodje Mala mi u stau stavlja groe I tako dalje eto mene opet Krimi pria ti je moj domen Oko love, tu su moja braa I gedore velike ko praka ta god hoce bato uvek moe Samo skank nista bobe roze Pukne jako promeni ti boje Pod lampom tu neke biljke stoje Kesu cepaj stavi sve u ndla Tu te iza eka moj bruda Ovi smeni malo fale muda A fali glavi malo je i uplja mekeri a runi kao bulja Fanfa sve dobra je i sulja A moja plua vole samo unka Do muzike bato preko ugla Svi su tvrdi ubio ih kompleks Nita ne znam to je moj kodeks Tu u kraju 2 da li moe? Ne zna nita tako je i bolje Znaju ljudi koji ovo vode Znaju ljudi koji ovo rade Cukela u kui care Za ispravnost vadite medalje Alo Kad je trebalo bio sam Kad nije trebalo i'o sam Zipu uvao, nije sam Dvojku stavim i nije gram I moe stvarno kae ko ta hoe Svojim delima sam bato vodjen 22. Blok tu sam roen Daj mi neto vie, neu vie gloem</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yürüyorum Eskiehir'in karanlk sokaklarnda Ne gam ne kasvet var aklm oyunlarmda Babamn yanndaym, yokular çkyoruz Minibüsten iniyoruz, eve doru kouyoruz Annem evde bekliyor hep, koltukta szyorum Küçük bir üçgenim var içinde yayorum Hep ayn eyden korkuyorum, ayn soka arnlayp Ayn odaya kapanyor ve ayn derdi tayorum Plakalar deiiyor zmir'de uyuyorum Uyanmak istemiyor planlarm erteliyorum Üstüm bam pislik içinde, saç sakal karyor Bir gün saçm olmayacak, o günlerde bilmiyorum Ev nedir? Bam sokacak bir çat deil çinde uyuduum be admlk odam deil Kesin karar veriyorum, kendimi uyutuyorum Nereye ev dendiini yava yava unutuyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede You might also like Nasl da üzüyor insan... Talih yüzüme gülüyor tren garnda bekliyorum stanbul yolunda ellerini tutuyorum Yanamda bir öpücük, dizlerim titriyor Ben ne yaptm bilmiyorum, yerden yüksek süzülüyorum Her güzel ey kirlenirmi, stanbul da öyle Sokaklarda be parasz sabah, akam, öle Meydanlarda sinir stres, politikayla iç içe Bir baka ehir olmuyor, bu kez bir baka ülke lk kez ayak basyorum bilmediim bu diyara Annem babam uzakta, sevdiklerim uzakta lk kez gerçekten tek bana Berlin sokaklarnda Bir özgürlük türküsü var çatlak dudaklarmda Hüzün çöküyor akam olunca kendimi dinliyorum Yazdkça yazyorum, yazdm silmiyorum Yazdkça yazyorum, yazdkça uyanyorum Nereye ev dendiini artk hiç hatrlamyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede</t>
+          <t>Yürüyorum Eskiehir'in karanlk sokaklarnda Ne gam ne kasvet var aklm oyunlarmda Babamn yanndaym, yokular çkyoruz Minibüsten iniyoruz, eve doru kouyoruz Annem evde bekliyor hep, koltukta szyorum Küçük bir üçgenim var içinde yayorum Hep ayn eyden korkuyorum, ayn soka arnlayp Ayn odaya kapanyor ve ayn derdi tayorum Plakalar deiiyor zmir'de uyuyorum Uyanmak istemiyor planlarm erteliyorum Üstüm bam pislik içinde, saç sakal karyor Bir gün saçm olmayacak, o günlerde bilmiyorum Ev nedir? Bam sokacak bir çat deil çinde uyuduum be admlk odam deil Kesin karar veriyorum, kendimi uyutuyorum Nereye ev dendiini yava yava unutuyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan... Talih yüzüme gülüyor tren garnda bekliyorum stanbul yolunda ellerini tutuyorum Yanamda bir öpücük, dizlerim titriyor Ben ne yaptm bilmiyorum, yerden yüksek süzülüyorum Her güzel ey kirlenirmi, stanbul da öyle Sokaklarda be parasz sabah, akam, öle Meydanlarda sinir stres, politikayla iç içe Bir baka ehir olmuyor, bu kez bir baka ülke lk kez ayak basyorum bilmediim bu diyara Annem babam uzakta, sevdiklerim uzakta lk kez gerçekten tek bana Berlin sokaklarnda Bir özgürlük türküsü var çatlak dudaklarmda Hüzün çöküyor akam olunca kendimi dinliyorum Yazdkça yazyorum, yazdm silmiyorum Yazdkça yazyorum, yazdkça uyanyorum Nereye ev dendiini artk hiç hatrlamyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Çabuk souttun beni Kanm akar akar deli Yeah Bilekleri kelepçeli deil Çkartrdm biladerimi Dollar dollar Richard Mille Beni deil param sevdi Konutum kznla kirli Sonuçta isteyerek içeri girdi Benimse bayadr içimde özgüven vard Bir anda sokana mermiler yad blaka stanbul küçük bizde iki yaka Çln duyabilen var m aka Ölmemisin hâlâ, ölemezsin ezmediyse 34 GNG plaka Benim ismim bile büyük fiyaka Bum bum bum asl glock'a kisi bacaktan, biri kafa U-uf Kötü aka, GNG kartel tiki taka Voom voom voom, hemen uza 1000RR kurtarr ya da Hayabusa Hemen satldn gittin ucuza Tek kral biziz alem buysa Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o You might also like Zarlar attm, küstah tavrm Kanla kazandm düman artt Susmam artk sana yer yok tatlm Kapkara bahtm bataklkta kaldm Sanma çiçek açtn, sarmaksn Yollar karmakt ama atm Giyerim Prada, artk bi' eytan Toplanr familia, dersin eyvah Çoald kopyalar, hepsi evlat Bd bd, biraz mermi patlat Srtrm ama yok hiç efkat Krntlar senin, hepsini topla Yorum yok, geri çekil beni izle Sonra bok gibi öl sahte yetenekle Ya da terk et buralar bi' valizle Atyo'z fark, otur üç kat yap rap'i sikme Kapmda krallk, turistler Fransz Yaadk kuralsz, olduk bak suratsz Kötü ans urasn, yine de baardk Didindik uratk, orospu sus artk Sus, sus, sus Soru sorma yoksa kumar oyna Kurtuldum derin orman Beni bozmaz senin ölmen Full, full, full fulle jeton Oyna oyun yada defol Kazan say yutar beton Abartmadk krdk rekor Kara gözüm sakat bi rol Kapla özüm yarat bi son Ya da ölüm dönmez bu yol Para çözüm olmaz bro'm Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o</t>
+          <t>Çabuk souttun beni Kanm akar akar deli Yeah Bilekleri kelepçeli deil Çkartrdm biladerimi Dollar dollar Richard Mille Beni deil param sevdi Konutum kznla kirli Sonuçta isteyerek içeri girdi Benimse bayadr içimde özgüven vard Bir anda sokana mermiler yad blaka stanbul küçük bizde iki yaka Çln duyabilen var m aka Ölmemisin hâlâ, ölemezsin ezmediyse 34 GNG plaka Benim ismim bile büyük fiyaka Bum bum bum asl glock'a kisi bacaktan, biri kafa U-uf Kötü aka, GNG kartel tiki taka Voom voom voom, hemen uza 1000RR kurtarr ya da Hayabusa Hemen satldn gittin ucuza Tek kral biziz alem buysa Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o Zarlar attm, küstah tavrm Kanla kazandm düman artt Susmam artk sana yer yok tatlm Kapkara bahtm bataklkta kaldm Sanma çiçek açtn, sarmaksn Yollar karmakt ama atm Giyerim Prada, artk bi' eytan Toplanr familia, dersin eyvah Çoald kopyalar, hepsi evlat Bd bd, biraz mermi patlat Srtrm ama yok hiç efkat Krntlar senin, hepsini topla Yorum yok, geri çekil beni izle Sonra bok gibi öl sahte yetenekle Ya da terk et buralar bi' valizle Atyo'z fark, otur üç kat yap rap'i sikme Kapmda krallk, turistler Fransz Yaadk kuralsz, olduk bak suratsz Kötü ans urasn, yine de baardk Didindik uratk, orospu sus artk Sus, sus, sus Soru sorma yoksa kumar oyna Kurtuldum derin orman Beni bozmaz senin ölmen Full, full, full fulle jeton Oyna oyun yada defol Kazan say yutar beton Abartmadk krdk rekor Kara gözüm sakat bi rol Kapla özüm yarat bi son Ya da ölüm dönmez bu yol Para çözüm olmaz bro'm Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Yeah, yeah Es ist K-U, der Typ in 'nem Brabus, Kennzeichen Kabul Kahbas auf Sarruch, Airmax, Tattoos, piep-piep, allu, allu? K-K-K-Therapie, schmuggel' Ware in Radio, Tajil So wie Abdel Khalil auf der Flucht vor Police, Treffpunkt Zentrum Berlin im gepanzerten Q7 hört ganz laut Almaz Musiq Bewaffnet mit Uzi, die Sprache Russi Da, Blajd im Privatjet, Alpha-Jacket, Gepäck eingecheckt Kein Scheck, sondern Bargeld, die Kahba in Latex wartet in 'nem A6 In der Hand ein Baguette, Afiyet, Schwarzgeld Auf dem Rücksitz gestapelt, nebendran ein RPG-Raket', ey, psscht, saket Gangbang mit Scarlett in 'nem BM-Double-W und sie atmet Wooh wooh wooh woooh wooh-wooh-wooh wooh Ganz schnell, ganz tief, in Handschell'n der Bandit, mitternachtsaktiv In die Bank zieh'n, der Diamantdieb, wer? Er, der Diamantdieb Gebor'n zwischen Landmin'n, hatte nichts zum Anzieh'n, heute in 3-0 matt Frees Ich chill' mit Gan-G und du nur mit Junkies, chrt pfu Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali You might also like Mein Anwalt heißt Tino, sieht aus wie Al Pacino fährt ein Lamborghini Innenfarbe Cappucino, wäscht Geld in Casinos, plus oder minus Beats von Zino, Almaz Niveau, Fantastico Yallah, yallah, ich baller' mit der Kalash, khalas, rauch' nur Marlboro-Tabak Ganz locker, Gawad trag' Zahnstocher, wowa, denn der Transport dauert Geld hisab zählen, während mich deine Schwestern massier'n, erpress' dein Patient Gangster-Aktien in Westkroatien, im Benzer maskiert, ständig Razzien Rap läuft parallel, check' Madame Annabelle, Hautfarbe Karamell Chillt in 'nem Panamera, Alfa Omega, 9 mm, Import Teheran Illegal? Der Täter hat Appetit, so wie Aladdin Gaza, Falastin, live aus dem Satallite, die Tattoos sind arabi Kurdo, der Typ mit dem Baghdad-Akzent, klau' von deiner Kahba Batzen Im schwarzen Mercedes, ich mein', im schwarzen matt CLS Der Typ in helle Jeans, der mit gefälschte Pässe dealt, non-stop auf Tilidin Boxe den Pressedienst, ich chill' mit Yezidis bald auf Television Plasma HD, Halabja, Café mit Uasta Waleh, Salamo Aleik Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali19</t>
+          <t>Yeah, yeah Es ist K-U, der Typ in 'nem Brabus, Kennzeichen Kabul Kahbas auf Sarruch, Airmax, Tattoos, piep-piep, allu, allu? K-K-K-Therapie, schmuggel' Ware in Radio, Tajil So wie Abdel Khalil auf der Flucht vor Police, Treffpunkt Zentrum Berlin im gepanzerten Q7 hört ganz laut Almaz Musiq Bewaffnet mit Uzi, die Sprache Russi Da, Blajd im Privatjet, Alpha-Jacket, Gepäck eingecheckt Kein Scheck, sondern Bargeld, die Kahba in Latex wartet in 'nem A6 In der Hand ein Baguette, Afiyet, Schwarzgeld Auf dem Rücksitz gestapelt, nebendran ein RPG-Raket', ey, psscht, saket Gangbang mit Scarlett in 'nem BM-Double-W und sie atmet Wooh wooh wooh woooh wooh-wooh-wooh wooh Ganz schnell, ganz tief, in Handschell'n der Bandit, mitternachtsaktiv In die Bank zieh'n, der Diamantdieb, wer? Er, der Diamantdieb Gebor'n zwischen Landmin'n, hatte nichts zum Anzieh'n, heute in 3-0 matt Frees Ich chill' mit Gan-G und du nur mit Junkies, chrt pfu Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Mein Anwalt heißt Tino, sieht aus wie Al Pacino fährt ein Lamborghini Innenfarbe Cappucino, wäscht Geld in Casinos, plus oder minus Beats von Zino, Almaz Niveau, Fantastico Yallah, yallah, ich baller' mit der Kalash, khalas, rauch' nur Marlboro-Tabak Ganz locker, Gawad trag' Zahnstocher, wowa, denn der Transport dauert Geld hisab zählen, während mich deine Schwestern massier'n, erpress' dein Patient Gangster-Aktien in Westkroatien, im Benzer maskiert, ständig Razzien Rap läuft parallel, check' Madame Annabelle, Hautfarbe Karamell Chillt in 'nem Panamera, Alfa Omega, 9 mm, Import Teheran Illegal? Der Täter hat Appetit, so wie Aladdin Gaza, Falastin, live aus dem Satallite, die Tattoos sind arabi Kurdo, der Typ mit dem Baghdad-Akzent, klau' von deiner Kahba Batzen Im schwarzen Mercedes, ich mein', im schwarzen matt CLS Der Typ in helle Jeans, der mit gefälschte Pässe dealt, non-stop auf Tilidin Boxe den Pressedienst, ich chill' mit Yezidis bald auf Television Plasma HD, Halabja, Café mit Uasta Waleh, Salamo Aleik Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali19</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>G-G-G-Good work, Charlie, hahaha Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Count something bitch, ho just count some money I just sold a zone, spent half the profit on Givenchy I got plenty shit, out your rim my nigga you can't find it Oh you came wit' her If I pull out my dick she top it And my bitch be rollin', and rollin' off xanny pill I look at that bitch like she crazy cuz Purple shit just be the concoction And my body filled up with toxins My niggas wild out every day moshin' Got dark skin, got light skin, got Puerto Rican bitch I got options I'm eatin' good, nigga, that's kosher Chopper real big fuck a holster And if that bitch all on me I give her D except Felecia And Lil Uzi just gettin' older, and Lil Uzi just gettin' wiser And Lil Uzi just gettin' money, shit my pockets gettin' wider Pray everyday cause you never know when its your time to go Rest in peace my nigga Chico Strong pockets but not stocky though This bitch all on my dick stop it hoe Know everybody u fuckin' hoe, Know everybody u toppin' hoe So don't act different 'round me, just know you gotta go Yes I coulda hit it but I turned it down you gotta go Your shit so wide like hockey puck and a hockey goal Or like spottin' my ass probably up in Montreal Pussy wider than a god damn three day obstacle You might also like Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit you can't afford for some blonde dikes Ok it's going down ? Got white got black got Puerto Rican got Asian nigga Got a lot of whores I be ballin' heavy, nigga talking final four I'm riding clean, 2014 Why you riding that dinosaur Promethazine connoisseur All I smoke is that good shit I'm the king in my city sitting good bitch I'm a young black nigga and I'm hood rich10</t>
+          <t>G-G-G-Good work, Charlie, hahaha Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Count something bitch, ho just count some money I just sold a zone, spent half the profit on Givenchy I got plenty shit, out your rim my nigga you can't find it Oh you came wit' her If I pull out my dick she top it And my bitch be rollin', and rollin' off xanny pill I look at that bitch like she crazy cuz Purple shit just be the concoction And my body filled up with toxins My niggas wild out every day moshin' Got dark skin, got light skin, got Puerto Rican bitch I got options I'm eatin' good, nigga, that's kosher Chopper real big fuck a holster And if that bitch all on me I give her D except Felecia And Lil Uzi just gettin' older, and Lil Uzi just gettin' wiser And Lil Uzi just gettin' money, shit my pockets gettin' wider Pray everyday cause you never know when its your time to go Rest in peace my nigga Chico Strong pockets but not stocky though This bitch all on my dick stop it hoe Know everybody u fuckin' hoe, Know everybody u toppin' hoe So don't act different 'round me, just know you gotta go Yes I coulda hit it but I turned it down you gotta go Your shit so wide like hockey puck and a hockey goal Or like spottin' my ass probably up in Montreal Pussy wider than a god damn three day obstacle Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit you can't afford for some blonde dikes Ok it's going down ? Got white got black got Puerto Rican got Asian nigga Got a lot of whores I be ballin' heavy, nigga talking final four I'm riding clean, 2014 Why you riding that dinosaur Promethazine connoisseur All I smoke is that good shit I'm the king in my city sitting good bitch I'm a young black nigga and I'm hood rich10</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nisam bogat, al' bih se radije provozao U kolima na manuelnim bih probao Pored nje bih oti'o toliko daleko Da nas ne nae, aman ba niko Sat otkucava, a jo si pored mene eno moja hoe li da se uda za mene Kai mi, reci mi, da bebo staviu ti prsten Ne bih voleo kad bih bio poniten Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno Konano sam van sela Za men tamo vie nema mesta Staro drutvo s odavno raspalo Budunost zajedno zapisujemo Trud i gas bez fleksa To je samo ako sme radit' bez seksa Samo vi radite va ou biz Ja u sa svojom dragom radit' svoj stil You might also like Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno</t>
+          <t>Nisam bogat, al' bih se radije provozao U kolima na manuelnim bih probao Pored nje bih oti'o toliko daleko Da nas ne nae, aman ba niko Sat otkucava, a jo si pored mene eno moja hoe li da se uda za mene Kai mi, reci mi, da bebo staviu ti prsten Ne bih voleo kad bih bio poniten Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno Konano sam van sela Za men tamo vie nema mesta Staro drutvo s odavno raspalo Budunost zajedno zapisujemo Trud i gas bez fleksa To je samo ako sme radit' bez seksa Samo vi radite va ou biz Ja u sa svojom dragom radit' svoj stil Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yeah, bak hele sakara, uyanm aya Yememi baya, güzelim daya Burdadr saf, görünür kap te köpee yutturur sap Baka bak baktn, baka da kaldn Yanla taktn, ataa kalktn Kaymsa gözün, yanltr sözün Satmsan özünü, yersin sen sözünü Sra da alr, bana da kalr Sana da dalar, iti de salar Yeri de yalar, geçmez dak'kalar Bitmez vakalar, bekleme gülüm Saniyeler zulüm, yakmaz ölüm Sokakta dölüm, çkmad falm Hapise saln, öcümü aln Kelepçem kaln, maske ile daln Biri satar, biri atar, biri katar, biri yatar Gündüz içinde uyumalar, uyuma yâr Zamann var, zaman kar, hatralar Geride dur, uzan uzan Kuzu kuzu, tuzu buza Yanmda durma git, uzak uzaa You might also like Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Alright Karanlk yollardan geldim Gürçeme, Kreuzberg, zmir, Berlin, ja Korkmadan çok yol geçtik Savan içinden çktm geldim, yeah Ateim sönmez asla Derine dütün çkman zor biraz Çukurun dibini gördük Gel de gör sen gözlerin kanar Palavra budala çok bak Bizde her yol tuttuk yok sçan Rats Kafas ezilir onlarn Ner'de bana gönder bir sopa Bat Adresler nette apaçk Girme hiç ner'desin falan Facts Kafalar bizde bi' tk kaçk Sen misin semtte fink atan? Tekilat salam düümü bala Kaçamaz asla, yeltenmen saçma Gözlerim kan bak, sebebi sakla Bizde yok inkar, gerçek hep or'da Zekâlar kvrak, yemezler sorma Dolambaç oyna, etraf kolla Düzene uyma, düzensiz olma Skarsak korkma, mertliini bozma Hrra, hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hayata bakn, güçlü duruun Kallee vuruun, gda ve bakm Psikopat takm, sokaa yaknz Underground akmz, parlar hep çakmz tedebilir, yakadabilir, hayatn önünde akadabilir Bir kalle sana bakadabilir, ak bela olup çkadabilir Mücadele et diren, polis ve siren Narkoza balanma, hayat bir tren Radar hep açk, gözler hep açk Bir gün yakar enfeksiyon arpack Hayatta kutun, yaama tutun Her eye sabr, baka bir tavr Gözlerim kanl, gömüldüm canl Varsa bir katm, terlidir atm Arkamda gözlerim var gibi Medusa üstümde parlyor yok geri Sokaktan dönütüm Sükse mi? Bak dedim Her türlü delikte telefon çak derim En azndan, yar'cak var biri size Bizim kulvarlar ta gibi, saatimiz belli hep tan yeri Hepinizin vaktine dank dedim Bile bile kal dedim Bile bile lades Belliydi yapacan kahpelik Sokak benim hep evim Heh Geldiim yere bak daha ne di'yim Daha neyim bak Ykk dökük her yeri Git gör Onarmadk deitirdik yepyeni Gel gör çimdeki cehennemin ateini Nhfff Dengeler kolyelerim buz gibi Yeah, ice Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang5</t>
+          <t>Yeah, bak hele sakara, uyanm aya Yememi baya, güzelim daya Burdadr saf, görünür kap te köpee yutturur sap Baka bak baktn, baka da kaldn Yanla taktn, ataa kalktn Kaymsa gözün, yanltr sözün Satmsan özünü, yersin sen sözünü Sra da alr, bana da kalr Sana da dalar, iti de salar Yeri de yalar, geçmez dak'kalar Bitmez vakalar, bekleme gülüm Saniyeler zulüm, yakmaz ölüm Sokakta dölüm, çkmad falm Hapise saln, öcümü aln Kelepçem kaln, maske ile daln Biri satar, biri atar, biri katar, biri yatar Gündüz içinde uyumalar, uyuma yâr Zamann var, zaman kar, hatralar Geride dur, uzan uzan Kuzu kuzu, tuzu buza Yanmda durma git, uzak uzaa Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Alright Karanlk yollardan geldim Gürçeme, Kreuzberg, zmir, Berlin, ja Korkmadan çok yol geçtik Savan içinden çktm geldim, yeah Ateim sönmez asla Derine dütün çkman zor biraz Çukurun dibini gördük Gel de gör sen gözlerin kanar Palavra budala çok bak Bizde her yol tuttuk yok sçan Rats Kafas ezilir onlarn Ner'de bana gönder bir sopa Bat Adresler nette apaçk Girme hiç ner'desin falan Facts Kafalar bizde bi' tk kaçk Sen misin semtte fink atan? Tekilat salam düümü bala Kaçamaz asla, yeltenmen saçma Gözlerim kan bak, sebebi sakla Bizde yok inkar, gerçek hep or'da Zekâlar kvrak, yemezler sorma Dolambaç oyna, etraf kolla Düzene uyma, düzensiz olma Skarsak korkma, mertliini bozma Hrra, hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hayata bakn, güçlü duruun Kallee vuruun, gda ve bakm Psikopat takm, sokaa yaknz Underground akmz, parlar hep çakmz tedebilir, yakadabilir, hayatn önünde akadabilir Bir kalle sana bakadabilir, ak bela olup çkadabilir Mücadele et diren, polis ve siren Narkoza balanma, hayat bir tren Radar hep açk, gözler hep açk Bir gün yakar enfeksiyon arpack Hayatta kutun, yaama tutun Her eye sabr, baka bir tavr Gözlerim kanl, gömüldüm canl Varsa bir katm, terlidir atm Arkamda gözlerim var gibi Medusa üstümde parlyor yok geri Sokaktan dönütüm Sükse mi? Bak dedim Her türlü delikte telefon çak derim En azndan, yar'cak var biri size Bizim kulvarlar ta gibi, saatimiz belli hep tan yeri Hepinizin vaktine dank dedim Bile bile kal dedim Bile bile lades Belliydi yapacan kahpelik Sokak benim hep evim Heh Geldiim yere bak daha ne di'yim Daha neyim bak Ykk dökük her yeri Git gör Onarmadk deitirdik yepyeni Gel gör çimdeki cehennemin ateini Nhfff Dengeler kolyelerim buz gibi Yeah, ice Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang5</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M6 is whipping this up Morts, I choose you Bilmezsin nereden geldim No Vibe deiik Baby, come fuck with the A team Yeah Buss downs on wrist we gravy Yeah One night and your life be changing 'Sup? Yalan yok we real If I got you, your benden still Hey Hayatm trap but we doing up drill Ya Kesilir sr, aslr göt real Nah Yok, yok his, souttu taktm that piece Aye tah açar ac o yüzden aldm Rolex Donatrm seni de, yanyo'san oh yes! Hmm Istrm geceleri tekrardan içine no cap Söylediim her eyi not et Yeah This ain't no phase, fast life, no chase Gece daha erken Emre'yi aradm Ner'de? Bu akam n'apsam sence? Alaçat ya da Çeme çinden geçti swerving Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z I want me Asl Enver Yeah Xany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar You might also like Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar Ah, hepsi bahar, hepsi ah Hepsi bahar Ey Hepsi bahar Hepsi bahar Hepsi, ah Gece daha erken Ey Emre'yi aradm Ner'de? Bu akam n'apsam sence? N'apim? Alaçat ya da Çeme çinden geçti swerving Skrr! Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z Oh I want me Asl Enver Yeah Zany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar</t>
+          <t>M6 is whipping this up Morts, I choose you Bilmezsin nereden geldim No Vibe deiik Baby, come fuck with the A team Yeah Buss downs on wrist we gravy Yeah One night and your life be changing 'Sup? Yalan yok we real If I got you, your benden still Hey Hayatm trap but we doing up drill Ya Kesilir sr, aslr göt real Nah Yok, yok his, souttu taktm that piece Aye tah açar ac o yüzden aldm Rolex Donatrm seni de, yanyo'san oh yes! Hmm Istrm geceleri tekrardan içine no cap Söylediim her eyi not et Yeah This ain't no phase, fast life, no chase Gece daha erken Emre'yi aradm Ner'de? Bu akam n'apsam sence? Alaçat ya da Çeme çinden geçti swerving Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z I want me Asl Enver Yeah Xany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar Ah, hepsi bahar, hepsi ah Hepsi bahar Ey Hepsi bahar Hepsi bahar Hepsi, ah Gece daha erken Ey Emre'yi aradm Ner'de? Bu akam n'apsam sence? N'apim? Alaçat ya da Çeme çinden geçti swerving Skrr! Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z Oh I want me Asl Enver Yeah Zany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Uzun zaman önce yeminimi ettim Bütün bu tabular devirecektim Yaamann anlam benim için buyken Kayglarm geciktiriyo' beni lgilenmem gereken çok konu var Yolum dar, yok olucam Ölümsüz ölmeliyim Bununla görevliyim, ah Buna ramen Veriyo' sevdiim ey zarar rendiim ey kadar Fevri verdiim her karar Dönüp durdum hep, kafamn içinde tek geldiim yer zaman Onun yeterliliinden falan Düün bi' ey ifade etmicek geberdiim yer sana Beni yaatmal bu bnliimden kalan Baka bi' ey dert dilken bana Mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam bunu anla, ya Müsaade et lüfen, ya You might also like Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et lütfen Müsaade et lütfen Fark ettim ki büyüdükçe ben küçülmekte her birine olan öfkem Kabarmyor hiç meersem Savam benimle hedefim arasndaym Size zamanm kalmyor hiç Yine artyor, artyor, etkim var biliyo'm zdiham diliyor, tansiyon hit Dilimin ürettii bu antibiyotiimi krp çektim Antibiyotiim Rap mant artk ayk'yon di mi? Benimki bala göte ky nikah daya döe Diyosanz Ne diyo bu çok ac, ha Cevaplarm cidden içten sorsanz Zaten tam da siz ve benle ilgili bu korkarm Yani korkmam da açkças korkmalym Düün elimdeki çakmakla yaktm contay Kasmpaa'dan yukar çk gör'cen ortam Aman aman, eksik tek bi' ey olmasn sofranzda Fakat mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam, ya, ya Müsaade et lüfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et, müsaade</t>
+          <t>Uzun zaman önce yeminimi ettim Bütün bu tabular devirecektim Yaamann anlam benim için buyken Kayglarm geciktiriyo' beni lgilenmem gereken çok konu var Yolum dar, yok olucam Ölümsüz ölmeliyim Bununla görevliyim, ah Buna ramen Veriyo' sevdiim ey zarar rendiim ey kadar Fevri verdiim her karar Dönüp durdum hep, kafamn içinde tek geldiim yer zaman Onun yeterliliinden falan Düün bi' ey ifade etmicek geberdiim yer sana Beni yaatmal bu bnliimden kalan Baka bi' ey dert dilken bana Mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam bunu anla, ya Müsaade et lüfen, ya Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et lütfen Müsaade et lütfen Fark ettim ki büyüdükçe ben küçülmekte her birine olan öfkem Kabarmyor hiç meersem Savam benimle hedefim arasndaym Size zamanm kalmyor hiç Yine artyor, artyor, etkim var biliyo'm zdiham diliyor, tansiyon hit Dilimin ürettii bu antibiyotiimi krp çektim Antibiyotiim Rap mant artk ayk'yon di mi? Benimki bala göte ky nikah daya döe Diyosanz Ne diyo bu çok ac, ha Cevaplarm cidden içten sorsanz Zaten tam da siz ve benle ilgili bu korkarm Yani korkmam da açkças korkmalym Düün elimdeki çakmakla yaktm contay Kasmpaa'dan yukar çk gör'cen ortam Aman aman, eksik tek bi' ey olmasn sofranzda Fakat mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam, ya, ya Müsaade et lüfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et, müsaade</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão You might also like Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
+          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Olvi Olvi king ya Bu Unique bro Bay bay niteliksizler, tüm pisliksizlik düler ey Bismillahszlardan beklerler etnik toplumlar ehven Cadlar eklenmi gemiye Kaptanlar acizken herkes hakl lan Ben nedense garnitür hissettim smim sektörden deilmi meer kilemek en zormu, randuman tutanla bir argüman tutan köstebek Aklm resmen iktidar tarts Aada kalan ksm banknotlar Keep it real Mississippi deil bura im bam kadar, ek i deil sra Tek isteim masa ba deal bro Turkish life bana göre iyi bro Mengeni eksan-trik meyve gibi Gerede mezbaha huh kelle paça Dörtdivan vah, Çaa merebi bu Alkol alma sana yapsnlar Mudurnuda Baba battk lan harap olmaktan Yalan altnlar beni bozmaz hah! Amcaolu sana klasmanlar vip wild Aksan var, çok aksanda az görmüler Espriymi bak seksenler baba imdi burdaysa balkon en tepe Yok club falan evde i bebek Baktn olmuyo, bakm'can aann Tek derdimiz iler gitmez Küçük ehre büyük öykü bitmez Bu mürettebatn içinde birsen Sen görmemisen insanlk esne yi deilse baban ticaretinde nsanl sormadan önce dön bak Komple memleket ne alemde bro? You might also like Söker atar kalbim arr Haslatm itin azna çomak Sen it bu bariz artk, iltifat m? Hasmlarma reva m? Hasmlarma reva m? Hasmlarma reva m? Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan Açlma aman, açlma aman htimalim ise birthday cake Mimli mahallede ki tornet keyif Eklemlerimde krk en sert yer En dost bildiklerin en çok yer Bense galibiyet sarhou Endam mabedine smaz hiç Planlar içinde yüz, kat için Sars itibarn da acilen Yolumu duydu ve kudurdu Kuyruk aclarlar yerine oturdu Durup dururken, e kuruntu muydu bu? Huzurum içime kaçt ah! Paket paket ara, belki kalr sana kara para gibi, para kara Nasl haram ama sana fana asl-a-ma-man ah Seni maganda papaz! Gözümün içine iyi bak! Bu gözler numara yer mi ha? Polisler adam eder mi? Yürein kuru eder mi lan? Düümde yalnzca Paris Ve bi de karmla parti var Havada dönüyor artk Taraf ol olma kanka kal Kalemim parlad Kula kul kalmaktandr bu Bana kal kal kal kal diyen olmad Paravan olmusak madem Tanmazlar doymadm Daha sofrada yeniyim zaten de Eskiden garsondum, imdi ben yiyorum Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan silkelen, silkelen, silkelen Açlma aman, açlma aman silkelen, silkelen, silkelen Yazk kafana, yazk kafana Yazk kafana, yazk kafana Azmsamadan, azmsamadan Açlma bana, açlma aman yazk, yazk, yazk Morde2</t>
+          <t>Olvi Olvi king ya Bu Unique bro Bay bay niteliksizler, tüm pisliksizlik düler ey Bismillahszlardan beklerler etnik toplumlar ehven Cadlar eklenmi gemiye Kaptanlar acizken herkes hakl lan Ben nedense garnitür hissettim smim sektörden deilmi meer kilemek en zormu, randuman tutanla bir argüman tutan köstebek Aklm resmen iktidar tarts Aada kalan ksm banknotlar Keep it real Mississippi deil bura im bam kadar, ek i deil sra Tek isteim masa ba deal bro Turkish life bana göre iyi bro Mengeni eksan-trik meyve gibi Gerede mezbaha huh kelle paça Dörtdivan vah, Çaa merebi bu Alkol alma sana yapsnlar Mudurnuda Baba battk lan harap olmaktan Yalan altnlar beni bozmaz hah! Amcaolu sana klasmanlar vip wild Aksan var, çok aksanda az görmüler Espriymi bak seksenler baba imdi burdaysa balkon en tepe Yok club falan evde i bebek Baktn olmuyo, bakm'can aann Tek derdimiz iler gitmez Küçük ehre büyük öykü bitmez Bu mürettebatn içinde birsen Sen görmemisen insanlk esne yi deilse baban ticaretinde nsanl sormadan önce dön bak Komple memleket ne alemde bro? Söker atar kalbim arr Haslatm itin azna çomak Sen it bu bariz artk, iltifat m? Hasmlarma reva m? Hasmlarma reva m? Hasmlarma reva m? Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan Açlma aman, açlma aman htimalim ise birthday cake Mimli mahallede ki tornet keyif Eklemlerimde krk en sert yer En dost bildiklerin en çok yer Bense galibiyet sarhou Endam mabedine smaz hiç Planlar içinde yüz, kat için Sars itibarn da acilen Yolumu duydu ve kudurdu Kuyruk aclarlar yerine oturdu Durup dururken, e kuruntu muydu bu? Huzurum içime kaçt ah! Paket paket ara, belki kalr sana kara para gibi, para kara Nasl haram ama sana fana asl-a-ma-man ah Seni maganda papaz! Gözümün içine iyi bak! Bu gözler numara yer mi ha? Polisler adam eder mi? Yürein kuru eder mi lan? Düümde yalnzca Paris Ve bi de karmla parti var Havada dönüyor artk Taraf ol olma kanka kal Kalemim parlad Kula kul kalmaktandr bu Bana kal kal kal kal diyen olmad Paravan olmusak madem Tanmazlar doymadm Daha sofrada yeniyim zaten de Eskiden garsondum, imdi ben yiyorum Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan silkelen, silkelen, silkelen Açlma aman, açlma aman silkelen, silkelen, silkelen Yazk kafana, yazk kafana Yazk kafana, yazk kafana Azmsamadan, azmsamadan Açlma bana, açlma aman yazk, yazk, yazk Morde2</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sorumsuz evladn ardndan yas tutan anneler Sorunsuz hayatlarnda sorunlu taklan nesiller Zaman deitikçe artan kibrin esiri gençlik Sorsan hepsi gündeme internetten isyan etmitir Yakn zaman, çok da uzak deil paranoyalar büyür Kötü giden bir eyler olsa bu ülkenin genci görür yi niyetle yaklar lakin eytann ardnda yürür Ve kimse anlamadan kin ve nefret kalplerinde büyür Gece olunca rahat uyu fitne senin kara kuyun Para girince büyür oyun hep önde gidiyor kara koyun Bilmek için soru sorun herkes yatyo yüzükoyun Bak huy dimez ayk olun yaknda balar asl oyun Tuzak var saptn her yolda tuzaklar da var Evet blki çok uzaklarda ancak hatrla Ardna bile bakmadan kaçarsn bir ey olduunda Zaten kçna tokad yemitin hem de ilk doduunda Farketmediiniz her nota sanki ibadetleri Yürüdüün her yolda sakl eytann sembolleri zlediiniz her yerde var deccalin üçgenleri Aydnlanan müzik deil rihannann ampülleri Çabuk unuttun dünleri acyla dolan günleri Aka dalar gözler hep ve kanla solar gülleri Kardan baknca soldan doru gelir zul Arkasndan baksan sadan gelir yaplan bütün zulümleri You might also like Bu biraz eletirel bu Salvo, Ayben Dar çkp biraz yürü ve hepsi sayko zaten Aklnn alamad nokta bak deimi alem Millete bok atarken çocuk nasl karnen? Aynen kafiyem afillidir nefret kusar bazen Sen brak bok atmayda yoluna yürü bi madem Burun kvrr entellektüel ya haspam aynen eytani endüstride Türkçe Rap bi maden Yeraltnda yürütür iini sonra durum deiir öyle Hayat gibidir insanolu kendisiyle çeliir Açk olmak gerekirse herkes Rap yapabilir zaten Hayatn masaya koy yada brak bu ii Gelii büyü gibidir etkiler çocuklar Çocuklar etkiler, etkiler sokaklar Etrafta onca hakszlk kasar akaklarm Bir asker kulaklnda ben sayar afaklar Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü</t>
+          <t>Sorumsuz evladn ardndan yas tutan anneler Sorunsuz hayatlarnda sorunlu taklan nesiller Zaman deitikçe artan kibrin esiri gençlik Sorsan hepsi gündeme internetten isyan etmitir Yakn zaman, çok da uzak deil paranoyalar büyür Kötü giden bir eyler olsa bu ülkenin genci görür yi niyetle yaklar lakin eytann ardnda yürür Ve kimse anlamadan kin ve nefret kalplerinde büyür Gece olunca rahat uyu fitne senin kara kuyun Para girince büyür oyun hep önde gidiyor kara koyun Bilmek için soru sorun herkes yatyo yüzükoyun Bak huy dimez ayk olun yaknda balar asl oyun Tuzak var saptn her yolda tuzaklar da var Evet blki çok uzaklarda ancak hatrla Ardna bile bakmadan kaçarsn bir ey olduunda Zaten kçna tokad yemitin hem de ilk doduunda Farketmediiniz her nota sanki ibadetleri Yürüdüün her yolda sakl eytann sembolleri zlediiniz her yerde var deccalin üçgenleri Aydnlanan müzik deil rihannann ampülleri Çabuk unuttun dünleri acyla dolan günleri Aka dalar gözler hep ve kanla solar gülleri Kardan baknca soldan doru gelir zul Arkasndan baksan sadan gelir yaplan bütün zulümleri Bu biraz eletirel bu Salvo, Ayben Dar çkp biraz yürü ve hepsi sayko zaten Aklnn alamad nokta bak deimi alem Millete bok atarken çocuk nasl karnen? Aynen kafiyem afillidir nefret kusar bazen Sen brak bok atmayda yoluna yürü bi madem Burun kvrr entellektüel ya haspam aynen eytani endüstride Türkçe Rap bi maden Yeraltnda yürütür iini sonra durum deiir öyle Hayat gibidir insanolu kendisiyle çeliir Açk olmak gerekirse herkes Rap yapabilir zaten Hayatn masaya koy yada brak bu ii Gelii büyü gibidir etkiler çocuklar Çocuklar etkiler, etkiler sokaklar Etrafta onca hakszlk kasar akaklarm Bir asker kulaklnda ben sayar afaklar Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Oh no, the gyaldem wan' party So uno mi affi start it Champagne she a sippy A wheh di gyaldem wan'? Red Rat and Chippy FaNaTiX Oh no Girls like insta' and girls like clubs Girls dont like you, girls like us Since 1980s, Cyndi Lauper I know girls just wanna have fun Seh wah? Dat one deh classy Dat one deh skatty Dat one got breast but she got no batty Two of dem boy dere babymudda call me daddy Haha It wasnt me, it was Shaggy Gyal call mi a cutie Ya See me in the dance DSquared2 or Gucci Ya Pussy 'pon safety, release da Uzi Brrr When mi seh buss it it nuh mean yuh fi shoot me Nuh Dat one deh choosy But still she ah choose me Young boss Not you, you aint gang Nah Tek way yourself, you aint part of di plan Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex for the fam You might also like My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru Me would a shame Tek way em gyal and 'im leff inna pain Mad Pussy boy now, frow dirt pon me name Ayy boy, why you wan give man bad name Oh no When theres bare gyal on road call dat easy street Ya Chatty-patty boys, call dem cheesy beef I dont fuck with you, so dont speak to me On my Cardi B shit Yo, yo Unno a mad mi 5 gyal a squeeze in the back of the taxi Skrrt Penthouse suite so dem view yah mad b Maud Mandem are strait nah yuh can't relax wi Wavy, Max B, couple gyal wan trap me Mhm Male groupies cant stand Nah Tek way your self, you ain't part of the gang Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex wid the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru That girl Oh no Double R Me would a shame The girl call him a cute A big man she wan She no wan a likkle yout If she not tell yuh Make me tell the trut Ah me she a want, yuh no see 'ow me cute? So all of dem girl deh ya a fi mi, you see me Me ask anyone, dem a gimmie Look 'ow she a jiggle and a twirl and a spin it You know from me a bahn any gyal mi go afta mi winnin Mek sure yuh can bubble and wine pon the dick Nuh struggle when you climb pon the dick Girl spend time pon dick Even do it t'ick Be my superstar Girl shine pon the dick An' whine like a clock girl Tick, tick me a boy Make your pussy start drip, drip Girl ride like a jockey Tek whip, whip My girl just swallow, dont spit Oh no My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru</t>
+          <t>Oh no, the gyaldem wan' party So uno mi affi start it Champagne she a sippy A wheh di gyaldem wan'? Red Rat and Chippy FaNaTiX Oh no Girls like insta' and girls like clubs Girls dont like you, girls like us Since 1980s, Cyndi Lauper I know girls just wanna have fun Seh wah? Dat one deh classy Dat one deh skatty Dat one got breast but she got no batty Two of dem boy dere babymudda call me daddy Haha It wasnt me, it was Shaggy Gyal call mi a cutie Ya See me in the dance DSquared2 or Gucci Ya Pussy 'pon safety, release da Uzi Brrr When mi seh buss it it nuh mean yuh fi shoot me Nuh Dat one deh choosy But still she ah choose me Young boss Not you, you aint gang Nah Tek way yourself, you aint part of di plan Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex for the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru Me would a shame Tek way em gyal and 'im leff inna pain Mad Pussy boy now, frow dirt pon me name Ayy boy, why you wan give man bad name Oh no When theres bare gyal on road call dat easy street Ya Chatty-patty boys, call dem cheesy beef I dont fuck with you, so dont speak to me On my Cardi B shit Yo, yo Unno a mad mi 5 gyal a squeeze in the back of the taxi Skrrt Penthouse suite so dem view yah mad b Maud Mandem are strait nah yuh can't relax wi Wavy, Max B, couple gyal wan trap me Mhm Male groupies cant stand Nah Tek way your self, you ain't part of the gang Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex wid the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru That girl Oh no Double R Me would a shame The girl call him a cute A big man she wan She no wan a likkle yout If she not tell yuh Make me tell the trut Ah me she a want, yuh no see 'ow me cute? So all of dem girl deh ya a fi mi, you see me Me ask anyone, dem a gimmie Look 'ow she a jiggle and a twirl and a spin it You know from me a bahn any gyal mi go afta mi winnin Mek sure yuh can bubble and wine pon the dick Nuh struggle when you climb pon the dick Girl spend time pon dick Even do it t'ick Be my superstar Girl shine pon the dick An' whine like a clock girl Tick, tick me a boy Make your pussy start drip, drip Girl ride like a jockey Tek whip, whip My girl just swallow, dont spit Oh no My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Uma vez eu sonhei que era rei do rap GAME Acordei e pensei That's kinda lame Lazy flow, same beats, lame shows, rimas non sense Qual o sentido de ser rei o desse game? Não sei, apenas sei que sou competitivo Hanibalizando beats e continuo faminto Canibalizando ouvidos apenas com minha intro Difícil compreensão? Volta ao início Nosso princípio Carbono e Oxigênio Nosso princípio Nitrogênio e Hidrogênio Sensacional, o princípio universal é o mesmo Ninguém é especial. Ingênuo ou um gênio? Contra a minha a tese, exercito o BRAGGADOCIO Quando nada aquece o coração de um monstro Ela olha pra mim e já ri de nervoso E ele olha pra mim com um sorriso escroto Minha habilidade oral é magistral O instrumental é o clitóris, minha língua o canal Reproduzo 7.1, não sou estereo Nem mono flow, me fala nego Qual é o seu critério? O império dos FAKE contra-ataca Playboy que só ladra, cosplay de favela Pior que novela, da mente apaga Rima nada com nada, enquanto eu pinto telas Que deviam tá no louvre, cês só rimam estrume Acho o cúmulo, procuram cume encontram túmulo Acúmulo do ridículo e a fan base que acostume Todo álbum é genial, que conceito estúpido Não sou guardinha de rap, só espero critério Senso crítico é mínimo, a cena virou circo, cês são tudo histérico Liguei pra MEG e falei Eu quero um império Não de fama, sucesso ou excesso, mas pela rima que expresso Os prego cego grita PRR e no final só sobra ego Só sobra ego You might also like Tudo mudou no dia 2 Outubro 2017, aniversário de vinte e uno Me sinto apático, preciso de um novo rumo Difícil ter pé no chão quando sua mente é em saturno Saio de casa atrasado, procuro um trabalho Diurno, taciturno ou noturno, que seja Só preciso de um destino que não termine em breja Prefiro em beijos, e que assim seja Por ela eu trabalho 12 horas na frimesa Não sou o único da linhagem, então cartas na mesa Minha bisa indígena, escrava de família portuguesa Provavelmente estuprada, dá a luz a cena Uma filha bastarda, minha vó paterna Enquanto isso minha vó materna chorava O marido foi pra Brasília, nunca voltara Essa mistura de história trágicas formou meu carater Personalidade, filosofia, identidade Limparam o caminho para minha prosperidade Então abram-se as alas, eu cheguei pra traçá-lo Por essas e outras, é que eu busco um LEGADO Para preencher as lacunas do meu espírito oco Meus gritos ecoam no corredor e eu fico rouco A perna bambeia, o coração acelera, porra A gente perde, levanta e tenta de novo Não acredito em meritocracia, quero que essa porra se foda Mas eu tento vencer na vida, mesmo que eu morra Mesmo que o sangue se misture com o suor E no final tudo escorra Altos e baixos, a criança machuca-se na gangorra Todo rapper alega ter uma vida sofrida Reclamador profissional, essa é a função do artista Paradoxos formam-se, segue a lista Um iconoclasta classicista, Estoico e hedonista Que procura riqueza mas de forma simplista Após divagar, me recordo de TEMPOS idos Rodando em CÍRCULOS, volto ao princípio Assisti de camarote a morte do meu irmão Vi minha mãe ser forte enfrentando a depressão Ela virou artesã, transformou a dor em arte Então eu luto contra a solidão que inunda meu coração Rezo para que do meus pais eu nunca perca a amizade E que nunca nessa vida eu cause decepção E o que falar da ACADEMIA? Essa engrenagem prussiana em estado de LETARGIA? Temer as autoridades em troca de sabedoria Tornar-se um lacaio por um pedaço de papel Ensino atrasado que prejudica a periferia Que suga nossa alma, acaba com nossa vida Penaliza gente sofrida, dolorida e enaltece parasita Qual o significado de CONTRAKADEMICO? É um personagem tirado de um mundo cênico Criado pela minha mente rebelde e insegura Que busca de uma vez justificar suas loucuras Quero criar o meu caminho, autodidata Nunca se render nem se corromper pela indústria Mas não busco o underground, busco as massas Mantendo a integridade, isso me causa um impasse Os BECOS da minha mente formam labirintos Procuro uma bússola para caminhos precisos Engulo seco, me encontro perdido Desencontro, atento, flashback To na mustardinha, eles enrolam beck Mescladinha, reparo o estresse O suor desce, aquece o couro CHUMBO escorre, renasce OURO Tudo que eles querem é nos calar Eles querem nos calar x2 Mas eu falo mesmo assim, pé na porta, o que esperas de mim? Ser mais um escravo? Preso num ciclo sem fim Abraços ternos formam momentos eternos Multidões num atraso perverso refletem no espelho convexo Não consigo me reconhecer, deixo a alma perecer Independente do que acontecer, não consigo vencer Isso que o demônio me fala todo dia Cartas na mesa, demô-cracia elitista Fácil ser meritocrata numa aristocracia Kratos é mais que um jogo quem diria Poder para o povo por meio de linhas anarquistas Aqui o discurso nunca será materialista Saiba diferenciar celebridade de artistas Não siga as Kardashians, valoriza tua vida Respeite a si mesmo e a sua vivência empírica Minha vida nas rimas, minha dor nas melodias Expurgando demônios e executando facínoras A caneta sangra e o resultado fascina Nos breves momentos em que a carne amacia O lábio ama e te reconecta com a vida Tudo que eles querem é nos calar Eles querem nos calar x2</t>
+          <t>Uma vez eu sonhei que era rei do rap GAME Acordei e pensei That's kinda lame Lazy flow, same beats, lame shows, rimas non sense Qual o sentido de ser rei o desse game? Não sei, apenas sei que sou competitivo Hanibalizando beats e continuo faminto Canibalizando ouvidos apenas com minha intro Difícil compreensão? Volta ao início Nosso princípio Carbono e Oxigênio Nosso princípio Nitrogênio e Hidrogênio Sensacional, o princípio universal é o mesmo Ninguém é especial. Ingênuo ou um gênio? Contra a minha a tese, exercito o BRAGGADOCIO Quando nada aquece o coração de um monstro Ela olha pra mim e já ri de nervoso E ele olha pra mim com um sorriso escroto Minha habilidade oral é magistral O instrumental é o clitóris, minha língua o canal Reproduzo 7.1, não sou estereo Nem mono flow, me fala nego Qual é o seu critério? O império dos FAKE contra-ataca Playboy que só ladra, cosplay de favela Pior que novela, da mente apaga Rima nada com nada, enquanto eu pinto telas Que deviam tá no louvre, cês só rimam estrume Acho o cúmulo, procuram cume encontram túmulo Acúmulo do ridículo e a fan base que acostume Todo álbum é genial, que conceito estúpido Não sou guardinha de rap, só espero critério Senso crítico é mínimo, a cena virou circo, cês são tudo histérico Liguei pra MEG e falei Eu quero um império Não de fama, sucesso ou excesso, mas pela rima que expresso Os prego cego grita PRR e no final só sobra ego Só sobra ego Tudo mudou no dia 2 Outubro 2017, aniversário de vinte e uno Me sinto apático, preciso de um novo rumo Difícil ter pé no chão quando sua mente é em saturno Saio de casa atrasado, procuro um trabalho Diurno, taciturno ou noturno, que seja Só preciso de um destino que não termine em breja Prefiro em beijos, e que assim seja Por ela eu trabalho 12 horas na frimesa Não sou o único da linhagem, então cartas na mesa Minha bisa indígena, escrava de família portuguesa Provavelmente estuprada, dá a luz a cena Uma filha bastarda, minha vó paterna Enquanto isso minha vó materna chorava O marido foi pra Brasília, nunca voltara Essa mistura de história trágicas formou meu carater Personalidade, filosofia, identidade Limparam o caminho para minha prosperidade Então abram-se as alas, eu cheguei pra traçá-lo Por essas e outras, é que eu busco um LEGADO Para preencher as lacunas do meu espírito oco Meus gritos ecoam no corredor e eu fico rouco A perna bambeia, o coração acelera, porra A gente perde, levanta e tenta de novo Não acredito em meritocracia, quero que essa porra se foda Mas eu tento vencer na vida, mesmo que eu morra Mesmo que o sangue se misture com o suor E no final tudo escorra Altos e baixos, a criança machuca-se na gangorra Todo rapper alega ter uma vida sofrida Reclamador profissional, essa é a função do artista Paradoxos formam-se, segue a lista Um iconoclasta classicista, Estoico e hedonista Que procura riqueza mas de forma simplista Após divagar, me recordo de TEMPOS idos Rodando em CÍRCULOS, volto ao princípio Assisti de camarote a morte do meu irmão Vi minha mãe ser forte enfrentando a depressão Ela virou artesã, transformou a dor em arte Então eu luto contra a solidão que inunda meu coração Rezo para que do meus pais eu nunca perca a amizade E que nunca nessa vida eu cause decepção E o que falar da ACADEMIA? Essa engrenagem prussiana em estado de LETARGIA? Temer as autoridades em troca de sabedoria Tornar-se um lacaio por um pedaço de papel Ensino atrasado que prejudica a periferia Que suga nossa alma, acaba com nossa vida Penaliza gente sofrida, dolorida e enaltece parasita Qual o significado de CONTRAKADEMICO? É um personagem tirado de um mundo cênico Criado pela minha mente rebelde e insegura Que busca de uma vez justificar suas loucuras Quero criar o meu caminho, autodidata Nunca se render nem se corromper pela indústria Mas não busco o underground, busco as massas Mantendo a integridade, isso me causa um impasse Os BECOS da minha mente formam labirintos Procuro uma bússola para caminhos precisos Engulo seco, me encontro perdido Desencontro, atento, flashback To na mustardinha, eles enrolam beck Mescladinha, reparo o estresse O suor desce, aquece o couro CHUMBO escorre, renasce OURO Tudo que eles querem é nos calar Eles querem nos calar x2 Mas eu falo mesmo assim, pé na porta, o que esperas de mim? Ser mais um escravo? Preso num ciclo sem fim Abraços ternos formam momentos eternos Multidões num atraso perverso refletem no espelho convexo Não consigo me reconhecer, deixo a alma perecer Independente do que acontecer, não consigo vencer Isso que o demônio me fala todo dia Cartas na mesa, demô-cracia elitista Fácil ser meritocrata numa aristocracia Kratos é mais que um jogo quem diria Poder para o povo por meio de linhas anarquistas Aqui o discurso nunca será materialista Saiba diferenciar celebridade de artistas Não siga as Kardashians, valoriza tua vida Respeite a si mesmo e a sua vivência empírica Minha vida nas rimas, minha dor nas melodias Expurgando demônios e executando facínoras A caneta sangra e o resultado fascina Nos breves momentos em que a carne amacia O lábio ama e te reconecta com a vida Tudo que eles querem é nos calar Eles querem nos calar x2</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Acho que eu envelheci dez anos Mas no calendário só foi três anos A teimosia ainda mata meus manos E às vezes somos os maior haters daquilo que planejamos Meu manos na ilha, e não é do Caribe Com o sonho cancelado tipo Freddie Gibbs Hoje Outback, ontem esfirra no Habib's Mas as armas ainda mira em nós, não importa o calibre Não perca o foco, quando tudo é click Nem todos têm o poder de Midas, isso eu vi no Rick Use o cérebro antes da Uzi, vida de Instagram, public Porém esse rappers bundão só são concorrência pra Nicki Pretos no topo, só não esquece as preta E quando expor suas fraquezas não culpe buceta MC destaque é o instrumental, quando se falta letra E se não tem talento, tudo bem, vai no Twitter, forja uma treta Minha redenção é através da arte, igual Caravaggio Ainda com a mesma fé, da Fiel quando lota o estádio Seres humanos tão vaidosos, mas soam frágil Copio ninguém além de Deus, só ele pode acusar eu de plágio Me comparar com cafetão e o crime, soa rockstar Me comparar com deuses e reis, soa arrogante Somos deuses do Orum invadindo o Olimpo pra ocupar Então pode se preocupar, se quer ver a morte dos meus semelhantes Criado mudo pra não ver o estante Quantos nossos, morreu de desgosto igual Little Walter Barry viu quão infiel a fama é Na primeira oportu' nos troca por um caucasiano qualquer Números mentem, JAY-Z, hoje se compra like Robôs projetam dislikes, qualidade se ver por like Exigência é mentir no mic, contabilizando like É que o novo hip-hop exige idiotas do hype 'Cêis quer nos bobo da corte ou no cemitério? Hypam quem brinca com a luta, não que leva a luta a sério Qual é o textão que nos separa? Respeito as manas desde Fabiana, Dona Ivone Lara Sonho do oprimido é ser o opressor? Não não, só ser ressarcido! Hoje o opressor diz o que é opressão, mermão, tamo fudido Menor de 13, entra pro 12, e se encontra perdido Morre na mira de um 38, matemática dos excluído Tudo invertido tipo a cruz do filme A Freira Tá de chapéu, abra sua mente, e eu nem falo em usar viseira Só em usar tua a visão, além do leitinho com pera Olhar pro próprio umbigo é estático, tipo correr na esteira Caneta e coração tem que fala mais do que o beat A cada 10 que me critica, 11 já me pediu feat Eu sei, que invejoso é mato, o jogo é sujo e pede hit Teatro da vida ingrata igual Adão culpando Lilith De volta ao lar igual Peter Tempos sombrios onde pastor quer pregar a palavra de Hitler Como Cristo fosse um soldado alemão nazista Não sou racista, eu tenho amigo preto Disse o racista Um dia arrastei tênis no chão pra ninguém ver ele furado Hoje a Converse me patrocina com os mais foda que ela têm lançado Corri tanto que os bico pareceu parado E hoje é impossível um top five sem meu nome ser lembrado Esse storytelling é foda Sem final feliz igual trama shakespeariana Brother, não existe amor quando o assunto é nota Aprendi do modo mais foda, que o Deus de São Paulo é grana É um mano meu me disse Esse mundo é o que há de pior Pessoas não muda, não se iluda, só aprendem a mentir melhor Eles nunca se posicionam, mais cobra Se posiciona e quando tua luz se vai, até tua sombra te abandona 2019 pecados a prestação É Black Friday né tio, depressão em liquidação Luz câmera e ação, pós produção exige marketing No lançamento da postura, a consciência que faz react Nosso sorriso inspira vida, tipo Dream Team do Passinho No ano de Jorge, Ogum na frente pra abrir o nossos caminhos Fiquem com o cobre e bronze, dizem que ouro não é pra gente Oxum é a minha mãe, filho da puta Eu vou por ouro até nos dente Papai Noel símbolo do império capitalista Esse ano vai vir de azul pra não parecer comunista Mas pera lá Coruja, cê tá sendo extremista Gritou a Revolução gourmet, bater panela na paulista 'Tamo precisando se amar, e eu nem falo só de foder Sim de empatia pra caminhar, pra no fim nós não se foder Mas não, eu quero CODEIN! Seus papo nem vende mais Tudo tão Michael Jackson, embranquecendo e andando pra trás You might also like Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Abrasileirei, linhas de murro, linhas de murro É a era do descartável, somos descartáveis Tudo tão vago, tudo tão vago, tudo tão raso2</t>
+          <t>Acho que eu envelheci dez anos Mas no calendário só foi três anos A teimosia ainda mata meus manos E às vezes somos os maior haters daquilo que planejamos Meu manos na ilha, e não é do Caribe Com o sonho cancelado tipo Freddie Gibbs Hoje Outback, ontem esfirra no Habib's Mas as armas ainda mira em nós, não importa o calibre Não perca o foco, quando tudo é click Nem todos têm o poder de Midas, isso eu vi no Rick Use o cérebro antes da Uzi, vida de Instagram, public Porém esse rappers bundão só são concorrência pra Nicki Pretos no topo, só não esquece as preta E quando expor suas fraquezas não culpe buceta MC destaque é o instrumental, quando se falta letra E se não tem talento, tudo bem, vai no Twitter, forja uma treta Minha redenção é através da arte, igual Caravaggio Ainda com a mesma fé, da Fiel quando lota o estádio Seres humanos tão vaidosos, mas soam frágil Copio ninguém além de Deus, só ele pode acusar eu de plágio Me comparar com cafetão e o crime, soa rockstar Me comparar com deuses e reis, soa arrogante Somos deuses do Orum invadindo o Olimpo pra ocupar Então pode se preocupar, se quer ver a morte dos meus semelhantes Criado mudo pra não ver o estante Quantos nossos, morreu de desgosto igual Little Walter Barry viu quão infiel a fama é Na primeira oportu' nos troca por um caucasiano qualquer Números mentem, JAY-Z, hoje se compra like Robôs projetam dislikes, qualidade se ver por like Exigência é mentir no mic, contabilizando like É que o novo hip-hop exige idiotas do hype 'Cêis quer nos bobo da corte ou no cemitério? Hypam quem brinca com a luta, não que leva a luta a sério Qual é o textão que nos separa? Respeito as manas desde Fabiana, Dona Ivone Lara Sonho do oprimido é ser o opressor? Não não, só ser ressarcido! Hoje o opressor diz o que é opressão, mermão, tamo fudido Menor de 13, entra pro 12, e se encontra perdido Morre na mira de um 38, matemática dos excluído Tudo invertido tipo a cruz do filme A Freira Tá de chapéu, abra sua mente, e eu nem falo em usar viseira Só em usar tua a visão, além do leitinho com pera Olhar pro próprio umbigo é estático, tipo correr na esteira Caneta e coração tem que fala mais do que o beat A cada 10 que me critica, 11 já me pediu feat Eu sei, que invejoso é mato, o jogo é sujo e pede hit Teatro da vida ingrata igual Adão culpando Lilith De volta ao lar igual Peter Tempos sombrios onde pastor quer pregar a palavra de Hitler Como Cristo fosse um soldado alemão nazista Não sou racista, eu tenho amigo preto Disse o racista Um dia arrastei tênis no chão pra ninguém ver ele furado Hoje a Converse me patrocina com os mais foda que ela têm lançado Corri tanto que os bico pareceu parado E hoje é impossível um top five sem meu nome ser lembrado Esse storytelling é foda Sem final feliz igual trama shakespeariana Brother, não existe amor quando o assunto é nota Aprendi do modo mais foda, que o Deus de São Paulo é grana É um mano meu me disse Esse mundo é o que há de pior Pessoas não muda, não se iluda, só aprendem a mentir melhor Eles nunca se posicionam, mais cobra Se posiciona e quando tua luz se vai, até tua sombra te abandona 2019 pecados a prestação É Black Friday né tio, depressão em liquidação Luz câmera e ação, pós produção exige marketing No lançamento da postura, a consciência que faz react Nosso sorriso inspira vida, tipo Dream Team do Passinho No ano de Jorge, Ogum na frente pra abrir o nossos caminhos Fiquem com o cobre e bronze, dizem que ouro não é pra gente Oxum é a minha mãe, filho da puta Eu vou por ouro até nos dente Papai Noel símbolo do império capitalista Esse ano vai vir de azul pra não parecer comunista Mas pera lá Coruja, cê tá sendo extremista Gritou a Revolução gourmet, bater panela na paulista 'Tamo precisando se amar, e eu nem falo só de foder Sim de empatia pra caminhar, pra no fim nós não se foder Mas não, eu quero CODEIN! Seus papo nem vende mais Tudo tão Michael Jackson, embranquecendo e andando pra trás Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Abrasileirei, linhas de murro, linhas de murro É a era do descartável, somos descartáveis Tudo tão vago, tudo tão vago, tudo tão raso2</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde You might also like Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
+          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Her yer her yer de Hep kalan oldum ben yerlerde Dalmm aryorum kendimi Kim bilir sen nerde ben nerde Es geçtim sokaklar Attmz admlar Unutmak istedim sadece Yaadmz tüm anlar Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun You might also like Gezdim sokaklar tek tek Önümü göremem net deilim pek Ya uzakla ya da geçmii es geç Senden bana kalan niye sadece nefret Ara! stersen söv acma Kusurunu kaplam sahte yanna Sinsice szdm bütün ayp anna Bugünü hapsettim ben kayp yarna Geziyorum odalar tek tek Eser yok eski halimden Bitiyor umutlarm sebep net Eksik bir yanm sen yokken hep Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun</t>
+          <t>Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Her yer her yer de Hep kalan oldum ben yerlerde Dalmm aryorum kendimi Kim bilir sen nerde ben nerde Es geçtim sokaklar Attmz admlar Unutmak istedim sadece Yaadmz tüm anlar Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Gezdim sokaklar tek tek Önümü göremem net deilim pek Ya uzakla ya da geçmii es geç Senden bana kalan niye sadece nefret Ara! stersen söv acma Kusurunu kaplam sahte yanna Sinsice szdm bütün ayp anna Bugünü hapsettim ben kayp yarna Geziyorum odalar tek tek Eser yok eski halimden Bitiyor umutlarm sebep net Eksik bir yanm sen yokken hep Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Part 1 Vom Anfangen Ich bin so fett - ich fall auf beiden Seiten aus dem Bett Jedes Statement so flüchtig wie das Leben und Gebäck Einmal kurz kacken gegangen und es ist weg Während man noch seine Nasenhaare im Klospiegel checkt Ich werde die Welt erst retten, wenn die Welt mich liebt Und nie wieder etwas essen, was mir Fanpost schreibt Ich hab noch immer keine Ahnung, wie man Geld verdient Ich verschwinde langsam immer mehr, ich verschwende Zeit Die Jugend ist mein Kapital und die ist längst vorbei Sonst hab ich wenig doch dafür die Hände frei Aber wem sag ich das, Mann ihr kennt den Scheiß Ihr habt ja nicht mal Geld, um den Song hier legal downzuloaden Ich sollte mich damit abfinden, statt mir einen abzusuchen Doch ich will den Kuchen essen und gleichzeitig behalten Und gleichzeitig verschenken, doch ich habe gar keinen Kuchen Und ich brauch am Ende drei Ich mach eigentlich nur Rap, um im Takt zu fluchen Dann kann ich sagen das ist eine Kunstform, Fe! Ich wurde Rapper, um die Wahrheit in meinem Sack zu suchen Ich hoffe, das bleibt unter uns, Du Fe! Geh mit mir oder weg da, aber mir nicht auf den Sack Bring mir Bier oder Erleuchtung, aber mich nicht aus dem Takt Gib mir Props oder nicht, Mann ich gebe keinen Fuck Auf Meinungen von Leuten, die nicht Ich sind You might also likeIch stehe ganz alleine auf ner Kreuzung mit der Flak Du stehst da ganz alleine mit ner Hose voller Kack Wenn ich meine Mütze umdrehe, werde ich zum Truck 80er Anspielungen machen heute kaum noch Sinn Manche sagen, dass ich aus der Zeit gefallen bin Andere fallen hin nachdem sie auf die Eins gegangen sind Manche fallen um, wenn ich auf sie eingegangen bin Ihr seid nicht Gangster, wenn eure Jobs im Einzelhandel sind Das Gute, Wahre, Schöne - meine Eier mittendrin Und treffende Metaphern sind eh nicht so mein Ding Die Weltgeschichte dreht sich plötzlich um die Krim Statt um mich obwohl ich viel interessanter bin Lass die Leute sich erschießen, Kinder zeugen und beten Lass die ganzen Rapper einfach weiter Scheiße reden Von Dingen von denen sie nicht verstehen Ich hab mich umgesehen - es gibt kaum was, wovon sie nicht nichts verstehen Schau mal, mein Sohn, die Kinder da draußen Spielen mit Waffen und dummen Parolen Und alle wollen doch eh nur das eine Sich gegenseitig einen runterholen Doch die Welt will das Drama - die Welt will Effekte Pornoroboter, Theaterdonner Gescheiterte Künstler und Zirkuspferde Ich spiel für euch den Maradona Man braucht keine Ahnung, um ne Meinung zu haben Da bin ich eurer Meinung, aber ich hab ja keine Ahnung Und man braucht keine Warnung um in die Eier zu schlagen Offenbar bin ich inzwischen sowas wie ne Offenbarung Die Offenbarung nach Manfred Apokryphen Zu alt für Gewalt und diese Aggrotypen Hör doch auf zu schreien, ich kann dich nicht verstehen Und dein BMW glänzt zwar hübsch, riecht aber übel Und Ewigkeit ist auch nicht mehr das, was sie mal war Ich mach ein langes Gesicht, wie ein Pferd in der Bar Du magst deine Witze wie deine Mama - mit Bart Unverhofft kommt selten, wie der Name schon sagt Ich bin so alt, ich spiel immer noch Mario Kart Und freue mich, wenn mein Song im Radio war Obwohl meine Zielgruppe nicht weiß, was ein Radio war Die Schallplatte killt den Videostar Ich bin ein Ausschlussjoker für jede Frage des Lebens Ein Roboter - programmiert um Gott zu töten Und seitdem bin unterwegs mit vollen Segeln Und einer Crew aus Idioten und verlorenen Seelen Der fliegende Highlander es kann nur einen geben Und danach spiel ich weiterhin mich selbst - nur als Rayden Aber versuch besser nicht, mir irgendwo reinzureden Denn meine Kernkompetenz ist dir vors Schienbein zu treten Also Kick Kick Yeah, Kick Kick Yeah Vielleicht wär ja alles gut, wenn ich Dolf Lundgren wär Vielleicht wär ja alles gut, wär ich ein Kickboxer Dann könnt ich alle dissen du Wichskopf, yeah Und zwar ohne dass der Dingsbums-Clan vor meiner Haustüre steht Und mir nen Pferdekopf auf mein Kopfkissen legt Wenn schon ein abgetrennter Kopf, dann ein Pandabär Denn Pferdeköpfe gibt es ja schließlich wie Sand am Meer Und so ein bisschen exklusiv sollte das Ganze schon sein Denn bei uns ist nichts heilig, höchstens der Schein Der dafür sehr, größer ist besser als klein Es kommt nicht auf Technik an, sondern aufs Stylen Ich will dein Geld einstecken und dann austeilen Ich will mich leise umschauen und dann laut schreien Wie tight ich bin und mich an mir selber aufgeilen Das Leben serviert mir Fressen - und ich hau rein Wir sind am Ende nur Fragmente aus Bauteilen Monothematisch - Rosa von Praunheim Und mögen unsere Seelen auch dunkelgrau sein Kommen wir rein und nehmen den ganzen Raum ein Und kaum ein anderer MC schafft den Spagat Zwischen, Poesie, Praxis und Eiersalat Zwischen Theorie, Taxis und Feiern im Park Zwischen Affengehege und 18 Karat Zwischen Abstraktion und Wursttheke im Real Albernheit, Oscar Wilde, Themenlokal Manfred Groove wir bringen Rapmusik zum Roman Bitte einsetzen Novaliszitat Ihrer Wahl Part 2 Vom Aussterben Wie man in den Wald scheißt, scheißt es heraus Man wird zum Abgrund, wenn man in den Abgrund läuft Man fällt ab, wenn man zu lange in den Abfall schaut Und sinkt ab, wenn man laufend Absinth säuft Ich habe meine Welt um einen Takt rum gebaut Und die restlichen Normen mit der Axt umgehauen Die Umwertung der Werte Meine Nacht ist dein Traum Der Luxus des kleinen Mannes - Hackwunderbaum Nichts tun ist auch irgendwie Kunst, steht auf meiner Kappe Glaube ich zumindest ich kann ja nicht hochschauen Was auf meiner Schublade steht, ist mir eigentlich Latte Hauptsache im Walkman läuft Motown Haselnüsse sind eigentlich rotbraun Und der Enzian blüht so blau auch wieder nich Man sollte nicht alles glauben, was die Volksmusik erzählt Und schon ist die Welt ein bisschen weniger widerlich Denn schließlich wäre auf einer Skala von eins bis zehn Die Welt ohne Enzian so ziemlich genauso schön Ich kann ja Enzianbilder im Internet sehen Warum bitte sollte ich auf irgendwelche Berge stehen? Also jammer mich nicht voll mit Dingen, die aussterben Wie Realität oder asiatische Tiger Ich hatte auch mal ne Freundin, die war auf einmal weg Und drei Tage später traf ich sie wieder Und zwar im Cabrio von so nem Modedesigner Sie war im 8 Monat schwanger und hat Spanisch gesprochen Manchmal ist mir, als wäre meine Logik gescheitert Doch dann kommt sie im Mantel der Erkenntnis wieder angekrochen Wir müssen einfach nur anfangen, Geschichte im Kreis zu denken Und alle Probleme lösen sich wie Brausetabletten Und die Gedanken fließen in geregelten Flussbetten Von oben nach unten, als ob sie Staustufen hätten Am Wasser entlang, bis zum Rheindamm Da wo das Zitat anfängt Und sich alles um sich selbst im Kreis dreht Wie wenn man auf der Tartanbahn rennt Der Schwindel begleitet den Rest deines Lebens Er hat sich an deinen Magen gehängt Und er teilt sich ein Bett mit deiner Depression Und die beiden haben deine Laken durchtränkt Das Militär hat aus Versehen deinen Vermieter versenkt Und dir als Trost ein PUR-Album und einen Kater geschenkt Und jetzt suchst du Trost in fernöstlicher Weisheit Und siehst aus wie ein getragenes Hemd Es ist doch immer das Gleiche mit euch komischen Menschen Ich hab doch die Antworten auf alle eure Fragen Aber ihr glaubt lieber an die größten Idioten Und die größten Arschlöcher wie Hitler undoder Stalin Und das nur, weil ihr Welterklärungen braucht Dabei müsstet ihr nur lernen, die Welt nicht zu erklären Sondern sie einfach mal sehen, als das was sie ist Keine Ahnung was sie ist, Mann zumindest kein Stern Also wendet euch an meinen Arsch, um euch zu beschweren Sehr geehrte Kategorien 3, Damen und Herren Ich weiß ja - man hat es nicht leicht so als Mensch Denn laufend verwechselt man Scheiße mit Senf Das ist das menschliche Dilemma Man startet als König und endet als Penner Man erwartet zu wenig und erreicht nicht mal das Und dabei hat man dann nur so mäßig viel Spaß Wir wollen gleichzeitig weg und suchen Anhänger Mit dem Kopf in den Wolken - Jan Tenner Mit glasigen Augen wie 100 Sandmänner Ein paar verkannte, an die Wand rennende Anfänger Ein echter Bösewicht erschießt zuerst das Pferd Bevor er mit dem Auto über deine Kniescheibe fährt Ein schlechter Bösewicht lässt Ravioli auf dem Herd Bevor er mit dem Auto aus Versehen in einen Kindergarten fährt Wenn du Künstler werden willst, kauf dir einen Hut Wenn du willst, dass Leute zuhören, sag viele dumme Sachen Wenn du Sex haben willst, sei schön oder reich Nett reicht meistens nur, um ein bisschen rumzumachen Und niemals ungewaschen in die Waschanlage fahren Das Universum hat viel mehr Humor, als du denkst Und nie nen Mülleimer in einen Mülleimer werfen Weil sonst die Schwarzes-Loch-Anomalie der Logik anfängt Dinge, die dich umbringen, sind meistens härter als du Dinge, die dich umzingeln, sind meistens mehr da als du Dinge, die nicht rund sind, sind öfters mal das Tor Und wenn du willst, dass man den Witz versteht, schreib halt nen scheiß Smiley! Und überhaupt Ein Witz sollte ohne Smiley funktionieren Oder hast du das Gefühl, deine Freunde sind zu dumm? Oder hast du einfach Angst vor social Awkwardness? Ein kleines bisschen Eier bringt dich schon nicht um Naja - Ich will nicht scharf essen und trotzdem ein Mann sein Doch du kannst kein Mann sein und keine Chilischoten anfassen Als es noch okay war, Frauen nachzupfeifen Musste McDonalds die Currysaucenschärfe nicht anpassen Vielleicht bringt dich ein kleines bisschen Ei ja aber doch um? Wer weiß das schon bei den ganzen Allergien heutzutage Und ob das Glúten oder Glutén heißt, könnt ich recherchieren Aber ich habe Angst davor, das diesen Google zu fragen Sonst werde ich wieder zugeschissen mit Vorschlägen Für Bestelladressen für Ernährungssensible Und dabei sehne ich mich doch nur nach Bestelladressen Für ein schwedisches Model und eine tschechische Geliebte Es liegt ein toter Mann am Strand Mackie Messer lacht idiotisch die Polizei vermutet Herzinfarkt Da liegt man zu fast 40 richtig und das ist ausreichend Wie für Marzipankartoffeln Persipan Yeah, Mann! Part 3 Von der Wirklichkeit Manchmal sind Dinge perfekt aber trotzdem falsch Wie ein Ehemann in einer Witwenerinnerung Unser Gehirn spielt gerne mit der Realität rum Sie wird erst verklärt, sitzt sie nicht mehr im Zimmer rum Und kratzt sich die Eier mit dem Silberbesteck Und damals dachte man noch Man will da nur weg Doch jetzt ist er tot und das Gehirn erinnert sich nicht mehr Dass er je etwas wie Eierkratzen getan hätt Und mit einem tot und einem, der sich nicht daran erinnert Ist diese Szene nun tatsächlich nie passiert Es gibt keinen Geschichtsschreiber des Universums Der jede Kleinigkeit irgendwo für irgendwen notiert Wir haben nur uns und unsere löchrigen Köpfe Und was man nicht erinnert, ist für immer verschwunden Realität ist relativ, wusste schon Einstein Doch wir sind nun endlich nicht mehr an die Draußenwelt gebunden Wir sollten der NSA danken, dass sie unser kollektives Bewusstsein auf irgendwelchen Servern verwaltet Und unserem Gehirn, dass es diese wirre Wirklichkeit Aus irgendwelchen komischen Wörtern gestaltet Danke PRISM, für die Sammlung menschlicher Belanglosigkeit Danke für die ganz großen Fragen unserer Zeit Wenn eine Ära nach dem ganz großen Wunder schreit Dann unsere bis man uns endlich den Berg runter treibt Und da unten steht der kultivierte Herr mit dem Floß Und bittet uns sehr höflich, aber bestimmt Dass wir doch bitte nun übersetzen müssten Weil sonst die Zeit noch weiter ins Nirgendwo rinnt Und überhaupt Zeit - warum bin ich getrieben von diesem seltsamen Gedanken Irgendetwas zu erschaffen, was bleibt Und überhaupt Bleiben ein Fußabdruck im Sand bleibt Wie ein Strich an der Wand aus Kreide wie ein Strich an der Wand aus Stein Wie ein Strich an der Wand aus Ewigkeit Der Unterschied ist unterm Strich nur graduell Eine langweilige Kreisfahrt Kettenkarussell Denn Bleiben ist nicht das Gleiche wie Rückwärtsgehen Man geht nicht ins Theater um das Stück zu sehen Man geht nur ins Theater um sich selbst beim Stücke sehen Zuzusehen. Das sind die wichtigen Szenen Und was wir daraus mitnehmen Ist ein zerschlissener Goodiebag Mit viel zu kleinen Socken und viel zu großer Tasche Und die Unmöglichkeit, irgend etwas Gutes zu sehen Ich bin kein Pessimist, wenn ich das Glas halb leer gesoffen hab Nur wenn ich es halb voll gegossen hab Ich wohne nicht in Berlin, nur weil ich da nen Koffer hab Und Marlene Dietrich hat mir gar nichts zu befehlen Und Hildegard Knef hatte höchstwahrscheinlich recht Ganz egal, was sie wieder Dummes erzählt hat Es geht nur um die Art und Weise der Präsentation Die man für seine Vermittlung gewählt hat Auch wenn mir sonst nie irgendwas gefehlt hat Ist jetzt meine Matratze nicht ausreichend gefedert Prioritäten verlagern sich mit gegebener Zeit Vom Zustand der Welt zur eigenen Befindlichkeit Und manchmal habe ich das Gefühl, wir sind so weit Dann wieder das Gefühl, wir sind so weit weg Wovon wäre noch zu klären zu gegebener Zeit Doch bis dahin ist fast alles ein großer Scheißdreck Und um den großen Scheißhaufen hübsch zu finden Braucht man neue Kategorien für Ästhetik Also atmet durch den Mund und reißt euch zusammen Und umarmt die Scheiße, bis sie weggelebt ist Etwas Träges fällt von oben und dreht sich Legt sich zusammen, wird konkret und verwebt sich Und wir stehen mitten drin, im Neonlicht Und denken Geometrisches wie Tetris Und das Leben macht Ding diggeding digge ding digge ding... Und wir kennen die Melodie und wir sehen das Problem Aber wir haben keinen Plan, in welchem Level wir sind Wahrscheinlich kurz vor Schluss und das Ende ist nah Aber wie jeder weiß, gibt der Klügere nicht nach Weil er ja sonst verlieren würde und die Geschichte schreiben Sieger Und schwuppdiwupp ist das eigene Image im Arsch Wenn ich ein Diktator wäre, ich würde zuallererst mal Immer allen sagen, sie sind frei und reich Und dass sie alles erreichen können, wenn sie hart dafür arbeiten Und dass sie alles verlieren können, wenn der Feind angreift Und wenn es keinen gibt, muss man eben einen schnitzen Und seien sie noch so grobe Abziehfiguren Hauptsache, die Leute, die vor dem Facebook-Fernsehern sitzen Spuren Aber ich bin ja kein Diktator noch nicht Mir ist noch kein vernünftiger Bart eingefallen Und noch kein richtiger Slogan für nen konsequenten Putsch Der letzte Stand war Sehr viel Geld für alle! Wenn man Glück im Spiel hat, hat man genug Geld für die Liebe Wenn man Musik macht, hat man nie genug Geld für die Miete Wir wetten gegen Staaten und setzen auf die Krise Und schreiben gleichzeitig schwarze Zahlen und Miese Virtuelles Geld und virtuelle Welt, die sich bedingen Virtualität ist das letzte große Ding Und wenn die Wirklichkeiten zu Informationen gerinnen Sitzen wir gleichzeitig draußen und drinnen Und die Grenzen verschwimmen Und es bleibt mal wieder nur mein Sack das ist Fakt Ich habe lange darüber nachgedacht was eigentlich noch bleibt Wenn man verzweifelt und es bleibt mal wieder nur mein Sack Part 4 Von der HipHop Szene Ich nehm den Satzfüller, Schreibschrift in meinen Fanblock Schlagworte Aussprache, Leitsätze in den Trendspot Presseberichte in mein Feuerwerk und Landebahn-brechendes Stell an Sprüche Ansprüche, dass es ansprechend ist Ich Gehwege, seh Leute, wenn ich durch Augenblicke Und tausend Tritte treffen tausend Ärsche, wenn ichs nach draußen schicke Ich mach den Tintenkiller seh jeden Abend rot Füll Federn, schreib ein Mundwerk und Nieten ziehen das Gnadenlos Denn Julia Engelmann ist die deutsche HipHop-Szene Ein kleines Mädchen mit großen Erste-Welt-Problemen Rap ist in der Pubertät und nicht im echten Leben Zwischen Tränen und wahllos Umsichtreten Nur relevant für alle, die sich mit 17 erschießen Oder schon fürs Aufstehen ne Belohnung kriegen Wenn man nur Kinder anspricht, sieht man nur Kinder reagieren Deshalb meint man auch immer, dass nur Kinder diskutieren Kinder und Idioten sagen die Wahrheit Trinker sagen, was sie denken, denken aber kaum Das Internet sagt, was irgendwer da reinschreibt Und Wahrheit ist eh ein feuchter Diktatorentraum Ich lass die Hoden baumeln mehr kann ich nicht erreichen Außer völlig nutzlose tausend Zeilen schreiben Ein livre sur rien gesprochen auf den Takt Lässt das sinnlose Hämmern besonders kühn erscheinen Verweis doch mal auf Dinge, die auch wir verstehen! Ey Mann, ich scheiß doch auf die Dinge, die auch ihr versteht Ich trink schon wieder morgens Bier statt Biotee Und denke, mein Traumjob wär Funktionär beim IOC Denn Willkür ist der größte Luxus unserer Zeit Endlich vom Diktat der Rationalität befreit Muss ein Zustand sein, den man nur über den Wolken Oder als Unterschichtenfernseh-Darsteller erreicht Oder als Wutbürger - in der Netzwelt Wo der digitale Stammtisch dem lautesten Proleten hinterher bellt Und Ansichten zu Wahrheiten werden Als würden sich Kirchen über Giraffenmord beschweren Als wollte man Nietzsche einem Affenhort erklären Und die dumm-vitalen Bonobos bumsen die ganze Zeit Und während man so redet, merkt man, dass sie vielleicht Alles verstehen und eben deswegen geil werden Aber mitbumsen will man auch nicht unbedingt Denn da ist ja dieses Gefälle zwischen den Viechern und mir Und die Sehnsucht, dieses Gefälle zu überwinden Und grunzend mitzumachen wird vom Verstand blockiert Laufend steht der Scheiß zwischen mir und dem Glück Das Gras ist viel grüner, wenn man sich nicht danach bückt Ein Pickel macht nur Spaß, wenn man ihn ausdrückt Und Rap macht nur Spaß, wenn man Applaus kriegt Also doch Gangster, Fotzen und Scheiß drauf auf Kreislauf reimen Also doch Propaganda machen - Sergej Eisenstein Und endlich abnehmen, dass man als Hipster durchgeht Und völlig crazy Sachen machen und Lifestyle sein Dieses Cabrio kaufen und den Wind in Kauf nehmen Dann eine Mütze kaufen, weil der Wind ins Auto weht Einen Unfall bauen, weil es deine Mütze wegweht Und dann mit stylisch verwuschelten Haaren draufgehen Wenn es Samstag ist, will ich ausgehen Es sei denn, ich bin eine Kerze Es kommt immer darauf an, was man ist und will Über Relativität gibt es NUR gute Scherze So wie über Handpuppen mit einer Hand im Po Sowie komplexe Poesie auf einer Wand im Klo Das Lied der Straße - Zampano Naja, komplexe Poesie gibt es wohl anderswo Ich habe einen guten, aber arroganten Flow Warum das so ist? Ich kann das so! Milf und Yellow cookies sind die Fanta zwo, nur in Gut Keine Angst, Mann, das geht noch lange so Oder eben nicht das ist das Schöne daran Dass ich, wenn ich will, diese Hasenhaken schlagen kann Und die Leute gewöhnen sich dran Oder eben doch nicht, dann ist das immerhin ein stolzer Abgesang Und Abgesänge sind bekanntlich die besten Gesänge Schönheit und Tod ist die beste Kombo Wer würde nicht gerne in Rosenblättern ersticken Ein bisschen Dekadenzästhetik für euer Fitnesstudio Also lass doch mal das Pumpen und das Hustlen sein Pack doch mal die Pumpgun und Goldkette ein Versuch doch einfach mal nicht, der Tollste zu sein Ich versuch inzwischen mal Tolstoi zu sein Denn Krieg und Frieden steht zu Dichtung und Wahrheit Wie Style und Zeit zu Wein und Vibes Und wir beide hier, wir stehen zu ehrlicher Arbeit Wie zu Leistungsethos und geilem Geiz Wir meiden das! Falls ihr das noch nicht verstanden habt Vielleicht sind wir deshalb auch niemals angesagt Vielleicht werden wir deshalb vor unseren Gigs nie angesagt Und trotzdem sagt der viel, der Guten Abend sagt Ich habe einen Anzug und einen Tage-Bart Und kaufe meine Möbel im Habitat Ich bums deine Freundin auf Abifahrt Ein fiktionales Leben aus Klavier und Kaviar Na immerhin hat das Klavier gestimmt Na immerhin hat The Finger das Klavier gestimmt Na immerhin hat das Kontingent an Bier gestimmt Alles andere ist egal, Hauptsache, die Wirkung stimmt Bitte gehen Sie weiter, hier gibt es nichts zu hören Es sei denn, Sie haben etwas Zeit mitgebracht Wir sind angetreten, um Gewohnheiten zu stören Und ham endlich wieder Musik weit entfernt von Hits gemacht Part 5 Vom Haben und vom Sein Ich wollte noch nie, das was ich habe - sein Ich war noch nie das was ich sage Nein Es geht seit Jahren nur von Fragen zu Fragen Und nur der gleiche Trott, mein Morgen ist euer Abend Ich bin irgendwann aus der Zeit gefallen Die Gedanken aus den immer gleichen Longdrinks geboren Doch solange der Beat läuft, geh ich raus In meinem Kopf einen Mittelfinger an die Welt und den Walkman im Ohr Jeder Rapper ist ein Alphatier Ich produzier nur tonnenweise Altpapier Steh auf Bühnen rum und halte die immer gleiche Predigt Von der einzig wahren Religion von Leck-mich-doch und kaltem Bier Bevor ich mich im Blätterwald verlier, mach ich die Augen zu Ich mein, ich mach die Augen auf, schau mich um und mach die Augen zu Ich mach das im Endeffekt genau wie du Nur nicht halb so prollig und weniger Leute schauen mir zu Man lacht nicht, wenn man die Welt als sinnvoll betrachtet Doch ich lache, weil ich die Welt als meinen Sack betrachte Die Welt als Wille und Vollstreckung Und als ihr dachtet Es kann nicht schlimmer kommen, kam Manfred ans Schachbrett Und da bin ich nun Mit der Axt und einem Landstreicherbündel voller Billiguhren Kauft was oder macht doch was ihr wollt, aber gebt mir euer Geld Ich werd erst reich, dann berühmt und erst dann will ich touren Denn wir sind fahrendes Volk mit Taschen voller Katzengold Sitzen wir vorne und der Wagen der rollt Und wir tragen die Masken der Hungerkünstler Und der Zirkusartisten und wir tragen sie stolz Und auch wenn wir sonst nichts haben haben wir Zeit Und den Block und den Stift und die Freiheit Und auch wenn die ganze Welt nach Beschleunigung schreit Nehm ich den Block und den Stift und ich schreib Ich nehm den Block und den Stift und ich bleib Mir treu und hier sitzen, bis der Flow treibt Sollen alle ruhig rennen, die kommen schon wieder zurück Wenn der Vorhang aufgeht und die Show steigt jetzt Ich schick diesen Reim heim durchs Wurmloch wie Deep Space Nine Geflügelte Worte der übelsten Sorte Geschichtenerzähler wie Siebenstein Ich könnt liegenbleiben, oder aufstehen In Siebenmeilenstiefeln rausgehen Wenn wir aufdrehen ist Entkommen nicht drin - Gezeiten in Stauseen Die Früchte des Zorns manifestieren sich in diesen Zeilen Es wurden schon wieder Gerüchte geboren Bald gibts Tränen wie beim Zwiebelschneiden Bei jedem, der jemals über die Themenwahl lästerte Im Vergleich zu Manfred ist der Zeitgeist das ewig Gestrige Wir halten uns in Grenzen die wir gezogen haben Denn wir vertreten die Jedi-Methoden wie Obi Wan Sind noch ein bisschen aggressiver als ein Grobian im Drogenwahn Verlieren oft komplett die Kontrolle, aber nie den roten Faden Es ging alles ziemlich lahm, bis Manfred kam Dann ging alles ganz schnell - und auf einmal war alles ab Es war alles ziemlich lahm, bis Manfred kam Dann war alles ganz schnell - und auf einmal ging alles ab Schlechte Entscheidungen werden gute Geschichten Erzählt von schlechten Erzählern, die sich in gutes Licht rücken Gute Entscheidungen werden lange Geschichten Erzählt von schlechten Erzählern, die über sich selbst entzückt sind Und gute Erzähler? Erzählen keine Geschichten Die auf ihren belanglosen Entscheidungen basieren Gute Erzähler erzählen nur Geschichten Von Robotern, Titten, Stierkampf und Bier Und hier sind wir unterhalt uns Irgendwo in der Mitte irgendeines Albums Irgendwo in der Mitte irgendeines Ortes Und geistern verwirrt und versoffen im Wald rum Bitte bewahren Sie die Haltung Auch wenn Sie die Sinnlosigkeit durchschaut haben Sie haben sonst nichts, also auch nichts zu verlieren Außer fiktionalen Aufgaben Selbsterkenntnis ist der erste Schritt zum Suizid Die Kur gegen Selbsterkenntnis ist Louis V Pack alle Zweifel in die Tasche und zeig sie deiner Welt Bis sie selbst zur Tasche wird und Du wirst sie Du wirst sehen Haben ist Sein Hauptsache dein Magen ist klein Hauptsache dein Wagen ist groß Hauptsache dein Herz ist rein Also immer rein in die gute Stube, liebe Menschheit Und in dieses sympathische Spiegelkabinett Wo alle Bilder von euch ständig gnädig lächeln Und ihr endlich schlafen könnt also ab ins Bett Wir wünschen bunte Träume von Zuckerwattenwolken Und Lebkuchenhäusern und Töpfen voller Gold Am Fuß des Regenbogens und in Kürbiskutschen Fahrt ihr durch Zauberwälder, wo euch der Untergang holt Und deine Geister spielen Hackbrett Und Dennis Hopper schreit Fuck that! Du denkst, dass ewig am längsten währt Während sich dein Leben neu taktet Fuck that! Ich habe meine Angst für Texte im Wandschrank Denn meine Sätze finden bisher kaum Anklang Ich will nicht untergehen ohne Sang und klang Und schaue euch deswegen so gebannt an Ich nehm euch auf auf Video ihr spielt euch von alleine Little people und Liegen haben kurze Beine Und Lügen haben behaarte - Ihr wollt noch mehr schöne Lügen? Wir bringen Raptracks auf Arte Wir machen Raptracks salonfähig für die Hochpreisigen Rotwein trinkenden Teile der Gesellschaft Also Gangsterrapper, Autoschieber, Halbweltboxer Abmahnanwälte und zahlreiche Präsidenten einer Weltmacht Part 6 Vom Erwachsenwerden Wenn mich das Glück verlässt, geh ich einfach mit Denn jeder Untergang beginnt mit dem ersten Schritt Heute ist der erste Tag vom Rest des ganzen Shit Und die Plastiktraumgesellschaft tanzt mit Ich wollte immer irgendwo weggehen Ich wollte immer irgendwo bleiben Wahrscheinlich wollte ich einfach immer irgendwo rumstehen Und völlig überraschend war ich knapp über 30 Wenn man alt wird sollte man nicht jung bleiben wollen In Seilbahnen sollte man nicht umsteigen wollen Egal, wo wir uns rumtreiben sollen Wenn es keinen Alkohol gibt, ist es wahrscheinlich nicht toll Wenn wirs gewonnen haben, ist es sicher nicht Gold Wenn wir gewonnen haben, bin ich sicherlich voll Ihr wollt Expertenanalysen wie von Kahn oder Scholl Balkanbeats ist Ska nur in Moll Der frühe Wurm wird vom frühen Vogel gefangen Hätte er doch lieber länger vor der Playstation gehangen Dann müssten seine Kinder jetzt nicht ins Heim Und er könnte noch immer unverdaut sein no doubt! Apropos unverdaut ich hab mal meine Eltern beim Bumsen erwischt Also wenn ich plötzlich weine, wundert euch nicht Ich hatte eine ziemlich schwere Kindheit Deshalb bin ich jetzt Rapper und schicke Frauen auf den Strich Was man halt so tut um in die Szene zu kommen Koks ticken, Hoes ficken, gib mal die Bong Auf Outlines beharren, als wäre die Welt Tron Und außerdem hab ich diesen Train gebombt selbstverständlicher Blick Nach der Snare kommt die Kick Und wenn das nicht so ist, weiß man, dass etwas nicht richtig ist Man steht auf einem Grund, der nicht triftig ist So wie der Untergrund nicht so wichtig ist wie er sich selbst nimmt Denn ein Weltbild hält nur, so lange das Geld stimmt Und jeder, der zu lange auffällt, fällt hin Also flüchte ich doch lieber in die Fiktionalität Und verliebe mich brutal unglücklich in diese Elbin Na die mit den Ohren und der Brust und dem Bogen Die den strengen Vater hat und im Wald und von oben Ach, ihr versteht mich alle nicht ich bin ganz allein Na klar! Würdest du denn gerne mit dir befreundet sein? Also ehrlich Träumereien in Ehren Ich will mich nicht über unrealistische Pläne beschweren Ich will nicht viel, nur euch euer Leben erklären Bis die Dorfbewohner mich wieder federn und teeren Doch da muss man durch wie durch dieses Nadelöhr Nachdem man endlich unendlich reich geworden ist Ich will nicht viel, nur euch euer Leben erschweren Und für den Hotdog-Fress-Contest ein Sportgebiss Mit diesen Bling-Bling Dingern am Zahn Die Kasse macht Kling Kling ich sage ja Verkaufe dann gewinnbringend Dinge am Markt Und werde Binge-Drinking-King alles klar? Schreit mal ja! Ja! Oh, wohl doch keiner da Naja, vielleicht ist der Song als Clubtrack nicht optimal 40 Minuten Rap am Stück und da noch nicht mal tanzbar Wie ich damit reich werden konnte, ist mir immer noch nicht ganz klar Aber Hauptsache ist, dass ich es geworden bin Hoffen auf selbsterfüllende Prophezeiung Und wenn ich schon zu Unrecht nie was im Sport gewinn Dann doch wenigstens bei der nächsten Grammy Verleihung Oder wie heißt doch gleich das deutsche Pendant Da wo immer Peter Maffay und Eißfeld spielen Wo man das Gefühl hat, Musikdeutschland ist ein riesiger Haufen Und eigentlich will man doch nur den ganzen Scheiß wegspülen Der ECHO ist wie dunkle Schokolade oder ein Handjob Man nimmt es, wenn es keine Auswahl gibt Aber sobald irgendetwas anderes daneben liegt Steckt man den Penis lieber woanders rein Oder man kauft ne Alpenmilch um in den Metaphern zu bleiben Wir wollen nicht viel nur all die Affen vertreiben Und den Stil zurückbringen denn Rap ohne Style Ist eben wie ein Handjob nur so ein bisschen geil Und mal ganz ehrlich Mona Lisa und Nofretete Sind auch nicht so eindrucksvoll wie immer alle tun Die eine schaut debil, die andere wie auf Opium Und trotzdem haben sie genug Fame, um sich darauf auszuruhen Also was machen die richtig, was wir falsch machen? Außer, dass sie Frauen sind - und tot Wer macht denn diese komischen Regeln für diese Hypes Und warum befolgt die dann eigentlich jeder Idiot? Wenn die kritische Schwelle des Erfolgs mal erreicht ist Dann leistet sich keiner mehr, zu sagen, was alle sehen Nämlich Dieses oder jenes Werk ist zwar nett Aber eigentlich dann doch nur so Handjob-okay Es geht um 15 Minutes of fame Die reichen exakt für eine Halbzeitpause Und trotzdem rennen ihm alle hinterher Und man denkt bei jedem zweiten nur OH! Halt die Schnauze Wenn man nichts kann und nicht arbeiten will Kann man immer noch Abmahnanwalt oder Celebrity werden Denn wir leben schließlich in einer Gesellschaft, in der wir Spielerfrauen und Modebloggerinnen verehren Doch eines Tages werden auch Celebrities zu Menschen Und entdecken einen tiefgreifenden Mangel an Kompetenzen Wenn die Aura erst mal weg ist und echten Fragen anfangen Muss man erstmals anfangen, seine Lücken zu ergänzen Aber vielleicht ist genau das, was erwachsen sein ist Desillusionierung und Scheitern als Prinzip Und sich dann irgendwann entscheiden, den Helm aufzuziehen Und der erste Rostentferner lässt die Rüstung wieder glänzen Part 7 Vom Wesen des Seins Ich schmeiß mal eben nen Eimer Farbe über mein altes Leben Und ne alte Häkeldecke über mein ganzes Wesen Vieles hat uns Halt gegeben und ist dann weggebrochen Oder es trägt sich aus, wie alte Tennissocken Am Rand des Planeten ist ein Abgrund aus Meer Und darunter lebt Gott, der sich um oben einen Scheißdreck schert Was solls, wir segeln mit, das ist ne Reise wert Denn nur unterwegs sein vertreibt den Schmerz Idealerweise muss die Reise dein Zuhause werden Es gibt Parallelen von Allem und Nichts Idealerweise muss die Scheiße jemand auswerten Doch ich glaube, der arbeitet im Dachbodengericht Und all unser Streben ist nach oben gerichtet Und alles was hier ist, gehört grob umgeschichtet Und wenn ich nen vernünftigen Hundeblick hätt Läge ich nicht schon wieder alleine betrunken im Bett Naja Talfahrt geht auch im Riesenslalom Und das Radio singt wieder Liebeskanon Und was ist eigentlich mit Tibet? Das müsste ich mal googlen, wenn ich mit Youporn fertig bin Schnipselporn, Schnipselinfo, Schnipselempörung Unmittelbar stört mich nur die Routerstörung Mittelbar aber alles und das halt ich nicht zurück Gesellschaftliche Verantwortung beginnt mit einem Klick Ich gebe einen Fick auf folgende Dinge Eisenbahnen, Eisbären, Eisenhüttenstadt und Katzen Listen, Ironie, Ski fahren und Singen Und auf alle Sachen, die mit einem T beginnen Zum Beispiel Teewurst nur auf flache Witze Komm ich eigentlich ganz gut klar nur nicht über Katzen Manchmal ist es mir zudem ganz egal, wie ich klinge Solange ich nur an das Wesen des Seins vordringe Und dass das geradeaus gehen soll, hat sich noch nie bewährt Viele Dinge, die man nicht mag, sind eine Liebe wert Doch im Nu wird eine Pflugschar wieder Schwert Wenn man das Gefühl hat, dass man nicht dazu gehört Doch das Wesen des Seins ist ein komisches Wesen Es hat lichte Haare und einen hässlichen Buckel Einen Bauch und nen fetten Arsch hat es auch Und es plärrt mir dreckig lachend immer wieder in meine Mucke Und es stört einfach und versteht nicht, wenn man das nicht will Als würde es das Wort Nein nicht kennen Und es nimmt keine Rücksicht auf mich oder andere Und es macht ihm auch nichts aus, immer alleine zu pennen So ein Arschloch naja leben und leben lassen Was will man machen man kann eh nichts machen Denn Aktivisten und Aktionisten sind nicht das Gleiche Das Selbe und das Gleiche ist nicht das Gleiche Und schon gar nicht das Selbe denn auf dieser Reise Sind die Unterscheidungen das Entscheidende Der Weg vom Rand der Welt steht mit offener Weiche Bereit - am Ende ist man hoffentlich eine schöne Leiche Was will man sonst erreichen, außer in Schönheit unterzugehen Wir haben keine Wahl, wenn keine Wunder geschehen Wir bewegen uns nur innerhalb unserer Regeln Nur im Fußball endet Prozent bei Hundert und zehn Aber Mathematik erklärt die Welt nicht Wir erklären uns die Welt mit Mathemati</t>
+          <t>Part 1 Vom Anfangen Ich bin so fett - ich fall auf beiden Seiten aus dem Bett Jedes Statement so flüchtig wie das Leben und Gebäck Einmal kurz kacken gegangen und es ist weg Während man noch seine Nasenhaare im Klospiegel checkt Ich werde die Welt erst retten, wenn die Welt mich liebt Und nie wieder etwas essen, was mir Fanpost schreibt Ich hab noch immer keine Ahnung, wie man Geld verdient Ich verschwinde langsam immer mehr, ich verschwende Zeit Die Jugend ist mein Kapital und die ist längst vorbei Sonst hab ich wenig doch dafür die Hände frei Aber wem sag ich das, Mann ihr kennt den Scheiß Ihr habt ja nicht mal Geld, um den Song hier legal downzuloaden Ich sollte mich damit abfinden, statt mir einen abzusuchen Doch ich will den Kuchen essen und gleichzeitig behalten Und gleichzeitig verschenken, doch ich habe gar keinen Kuchen Und ich brauch am Ende drei Ich mach eigentlich nur Rap, um im Takt zu fluchen Dann kann ich sagen das ist eine Kunstform, Fe! Ich wurde Rapper, um die Wahrheit in meinem Sack zu suchen Ich hoffe, das bleibt unter uns, Du Fe! Geh mit mir oder weg da, aber mir nicht auf den Sack Bring mir Bier oder Erleuchtung, aber mich nicht aus dem Takt Gib mir Props oder nicht, Mann ich gebe keinen Fuck Auf Meinungen von Leuten, die nicht Ich sind Ich stehe ganz alleine auf ner Kreuzung mit der Flak Du stehst da ganz alleine mit ner Hose voller Kack Wenn ich meine Mütze umdrehe, werde ich zum Truck 80er Anspielungen machen heute kaum noch Sinn Manche sagen, dass ich aus der Zeit gefallen bin Andere fallen hin nachdem sie auf die Eins gegangen sind Manche fallen um, wenn ich auf sie eingegangen bin Ihr seid nicht Gangster, wenn eure Jobs im Einzelhandel sind Das Gute, Wahre, Schöne - meine Eier mittendrin Und treffende Metaphern sind eh nicht so mein Ding Die Weltgeschichte dreht sich plötzlich um die Krim Statt um mich obwohl ich viel interessanter bin Lass die Leute sich erschießen, Kinder zeugen und beten Lass die ganzen Rapper einfach weiter Scheiße reden Von Dingen von denen sie nicht verstehen Ich hab mich umgesehen - es gibt kaum was, wovon sie nicht nichts verstehen Schau mal, mein Sohn, die Kinder da draußen Spielen mit Waffen und dummen Parolen Und alle wollen doch eh nur das eine Sich gegenseitig einen runterholen Doch die Welt will das Drama - die Welt will Effekte Pornoroboter, Theaterdonner Gescheiterte Künstler und Zirkuspferde Ich spiel für euch den Maradona Man braucht keine Ahnung, um ne Meinung zu haben Da bin ich eurer Meinung, aber ich hab ja keine Ahnung Und man braucht keine Warnung um in die Eier zu schlagen Offenbar bin ich inzwischen sowas wie ne Offenbarung Die Offenbarung nach Manfred Apokryphen Zu alt für Gewalt und diese Aggrotypen Hör doch auf zu schreien, ich kann dich nicht verstehen Und dein BMW glänzt zwar hübsch, riecht aber übel Und Ewigkeit ist auch nicht mehr das, was sie mal war Ich mach ein langes Gesicht, wie ein Pferd in der Bar Du magst deine Witze wie deine Mama - mit Bart Unverhofft kommt selten, wie der Name schon sagt Ich bin so alt, ich spiel immer noch Mario Kart Und freue mich, wenn mein Song im Radio war Obwohl meine Zielgruppe nicht weiß, was ein Radio war Die Schallplatte killt den Videostar Ich bin ein Ausschlussjoker für jede Frage des Lebens Ein Roboter - programmiert um Gott zu töten Und seitdem bin unterwegs mit vollen Segeln Und einer Crew aus Idioten und verlorenen Seelen Der fliegende Highlander es kann nur einen geben Und danach spiel ich weiterhin mich selbst - nur als Rayden Aber versuch besser nicht, mir irgendwo reinzureden Denn meine Kernkompetenz ist dir vors Schienbein zu treten Also Kick Kick Yeah, Kick Kick Yeah Vielleicht wär ja alles gut, wenn ich Dolf Lundgren wär Vielleicht wär ja alles gut, wär ich ein Kickboxer Dann könnt ich alle dissen du Wichskopf, yeah Und zwar ohne dass der Dingsbums-Clan vor meiner Haustüre steht Und mir nen Pferdekopf auf mein Kopfkissen legt Wenn schon ein abgetrennter Kopf, dann ein Pandabär Denn Pferdeköpfe gibt es ja schließlich wie Sand am Meer Und so ein bisschen exklusiv sollte das Ganze schon sein Denn bei uns ist nichts heilig, höchstens der Schein Der dafür sehr, größer ist besser als klein Es kommt nicht auf Technik an, sondern aufs Stylen Ich will dein Geld einstecken und dann austeilen Ich will mich leise umschauen und dann laut schreien Wie tight ich bin und mich an mir selber aufgeilen Das Leben serviert mir Fressen - und ich hau rein Wir sind am Ende nur Fragmente aus Bauteilen Monothematisch - Rosa von Praunheim Und mögen unsere Seelen auch dunkelgrau sein Kommen wir rein und nehmen den ganzen Raum ein Und kaum ein anderer MC schafft den Spagat Zwischen, Poesie, Praxis und Eiersalat Zwischen Theorie, Taxis und Feiern im Park Zwischen Affengehege und 18 Karat Zwischen Abstraktion und Wursttheke im Real Albernheit, Oscar Wilde, Themenlokal Manfred Groove wir bringen Rapmusik zum Roman Bitte einsetzen Novaliszitat Ihrer Wahl Part 2 Vom Aussterben Wie man in den Wald scheißt, scheißt es heraus Man wird zum Abgrund, wenn man in den Abgrund läuft Man fällt ab, wenn man zu lange in den Abfall schaut Und sinkt ab, wenn man laufend Absinth säuft Ich habe meine Welt um einen Takt rum gebaut Und die restlichen Normen mit der Axt umgehauen Die Umwertung der Werte Meine Nacht ist dein Traum Der Luxus des kleinen Mannes - Hackwunderbaum Nichts tun ist auch irgendwie Kunst, steht auf meiner Kappe Glaube ich zumindest ich kann ja nicht hochschauen Was auf meiner Schublade steht, ist mir eigentlich Latte Hauptsache im Walkman läuft Motown Haselnüsse sind eigentlich rotbraun Und der Enzian blüht so blau auch wieder nich Man sollte nicht alles glauben, was die Volksmusik erzählt Und schon ist die Welt ein bisschen weniger widerlich Denn schließlich wäre auf einer Skala von eins bis zehn Die Welt ohne Enzian so ziemlich genauso schön Ich kann ja Enzianbilder im Internet sehen Warum bitte sollte ich auf irgendwelche Berge stehen? Also jammer mich nicht voll mit Dingen, die aussterben Wie Realität oder asiatische Tiger Ich hatte auch mal ne Freundin, die war auf einmal weg Und drei Tage später traf ich sie wieder Und zwar im Cabrio von so nem Modedesigner Sie war im 8 Monat schwanger und hat Spanisch gesprochen Manchmal ist mir, als wäre meine Logik gescheitert Doch dann kommt sie im Mantel der Erkenntnis wieder angekrochen Wir müssen einfach nur anfangen, Geschichte im Kreis zu denken Und alle Probleme lösen sich wie Brausetabletten Und die Gedanken fließen in geregelten Flussbetten Von oben nach unten, als ob sie Staustufen hätten Am Wasser entlang, bis zum Rheindamm Da wo das Zitat anfängt Und sich alles um sich selbst im Kreis dreht Wie wenn man auf der Tartanbahn rennt Der Schwindel begleitet den Rest deines Lebens Er hat sich an deinen Magen gehängt Und er teilt sich ein Bett mit deiner Depression Und die beiden haben deine Laken durchtränkt Das Militär hat aus Versehen deinen Vermieter versenkt Und dir als Trost ein PUR-Album und einen Kater geschenkt Und jetzt suchst du Trost in fernöstlicher Weisheit Und siehst aus wie ein getragenes Hemd Es ist doch immer das Gleiche mit euch komischen Menschen Ich hab doch die Antworten auf alle eure Fragen Aber ihr glaubt lieber an die größten Idioten Und die größten Arschlöcher wie Hitler undoder Stalin Und das nur, weil ihr Welterklärungen braucht Dabei müsstet ihr nur lernen, die Welt nicht zu erklären Sondern sie einfach mal sehen, als das was sie ist Keine Ahnung was sie ist, Mann zumindest kein Stern Also wendet euch an meinen Arsch, um euch zu beschweren Sehr geehrte Kategorien 3, Damen und Herren Ich weiß ja - man hat es nicht leicht so als Mensch Denn laufend verwechselt man Scheiße mit Senf Das ist das menschliche Dilemma Man startet als König und endet als Penner Man erwartet zu wenig und erreicht nicht mal das Und dabei hat man dann nur so mäßig viel Spaß Wir wollen gleichzeitig weg und suchen Anhänger Mit dem Kopf in den Wolken - Jan Tenner Mit glasigen Augen wie 100 Sandmänner Ein paar verkannte, an die Wand rennende Anfänger Ein echter Bösewicht erschießt zuerst das Pferd Bevor er mit dem Auto über deine Kniescheibe fährt Ein schlechter Bösewicht lässt Ravioli auf dem Herd Bevor er mit dem Auto aus Versehen in einen Kindergarten fährt Wenn du Künstler werden willst, kauf dir einen Hut Wenn du willst, dass Leute zuhören, sag viele dumme Sachen Wenn du Sex haben willst, sei schön oder reich Nett reicht meistens nur, um ein bisschen rumzumachen Und niemals ungewaschen in die Waschanlage fahren Das Universum hat viel mehr Humor, als du denkst Und nie nen Mülleimer in einen Mülleimer werfen Weil sonst die Schwarzes-Loch-Anomalie der Logik anfängt Dinge, die dich umbringen, sind meistens härter als du Dinge, die dich umzingeln, sind meistens mehr da als du Dinge, die nicht rund sind, sind öfters mal das Tor Und wenn du willst, dass man den Witz versteht, schreib halt nen scheiß Smiley! Und überhaupt Ein Witz sollte ohne Smiley funktionieren Oder hast du das Gefühl, deine Freunde sind zu dumm? Oder hast du einfach Angst vor social Awkwardness? Ein kleines bisschen Eier bringt dich schon nicht um Naja - Ich will nicht scharf essen und trotzdem ein Mann sein Doch du kannst kein Mann sein und keine Chilischoten anfassen Als es noch okay war, Frauen nachzupfeifen Musste McDonalds die Currysaucenschärfe nicht anpassen Vielleicht bringt dich ein kleines bisschen Ei ja aber doch um? Wer weiß das schon bei den ganzen Allergien heutzutage Und ob das Glúten oder Glutén heißt, könnt ich recherchieren Aber ich habe Angst davor, das diesen Google zu fragen Sonst werde ich wieder zugeschissen mit Vorschlägen Für Bestelladressen für Ernährungssensible Und dabei sehne ich mich doch nur nach Bestelladressen Für ein schwedisches Model und eine tschechische Geliebte Es liegt ein toter Mann am Strand Mackie Messer lacht idiotisch die Polizei vermutet Herzinfarkt Da liegt man zu fast 40 richtig und das ist ausreichend Wie für Marzipankartoffeln Persipan Yeah, Mann! Part 3 Von der Wirklichkeit Manchmal sind Dinge perfekt aber trotzdem falsch Wie ein Ehemann in einer Witwenerinnerung Unser Gehirn spielt gerne mit der Realität rum Sie wird erst verklärt, sitzt sie nicht mehr im Zimmer rum Und kratzt sich die Eier mit dem Silberbesteck Und damals dachte man noch Man will da nur weg Doch jetzt ist er tot und das Gehirn erinnert sich nicht mehr Dass er je etwas wie Eierkratzen getan hätt Und mit einem tot und einem, der sich nicht daran erinnert Ist diese Szene nun tatsächlich nie passiert Es gibt keinen Geschichtsschreiber des Universums Der jede Kleinigkeit irgendwo für irgendwen notiert Wir haben nur uns und unsere löchrigen Köpfe Und was man nicht erinnert, ist für immer verschwunden Realität ist relativ, wusste schon Einstein Doch wir sind nun endlich nicht mehr an die Draußenwelt gebunden Wir sollten der NSA danken, dass sie unser kollektives Bewusstsein auf irgendwelchen Servern verwaltet Und unserem Gehirn, dass es diese wirre Wirklichkeit Aus irgendwelchen komischen Wörtern gestaltet Danke PRISM, für die Sammlung menschlicher Belanglosigkeit Danke für die ganz großen Fragen unserer Zeit Wenn eine Ära nach dem ganz großen Wunder schreit Dann unsere bis man uns endlich den Berg runter treibt Und da unten steht der kultivierte Herr mit dem Floß Und bittet uns sehr höflich, aber bestimmt Dass wir doch bitte nun übersetzen müssten Weil sonst die Zeit noch weiter ins Nirgendwo rinnt Und überhaupt Zeit - warum bin ich getrieben von diesem seltsamen Gedanken Irgendetwas zu erschaffen, was bleibt Und überhaupt Bleiben ein Fußabdruck im Sand bleibt Wie ein Strich an der Wand aus Kreide wie ein Strich an der Wand aus Stein Wie ein Strich an der Wand aus Ewigkeit Der Unterschied ist unterm Strich nur graduell Eine langweilige Kreisfahrt Kettenkarussell Denn Bleiben ist nicht das Gleiche wie Rückwärtsgehen Man geht nicht ins Theater um das Stück zu sehen Man geht nur ins Theater um sich selbst beim Stücke sehen Zuzusehen. Das sind die wichtigen Szenen Und was wir daraus mitnehmen Ist ein zerschlissener Goodiebag Mit viel zu kleinen Socken und viel zu großer Tasche Und die Unmöglichkeit, irgend etwas Gutes zu sehen Ich bin kein Pessimist, wenn ich das Glas halb leer gesoffen hab Nur wenn ich es halb voll gegossen hab Ich wohne nicht in Berlin, nur weil ich da nen Koffer hab Und Marlene Dietrich hat mir gar nichts zu befehlen Und Hildegard Knef hatte höchstwahrscheinlich recht Ganz egal, was sie wieder Dummes erzählt hat Es geht nur um die Art und Weise der Präsentation Die man für seine Vermittlung gewählt hat Auch wenn mir sonst nie irgendwas gefehlt hat Ist jetzt meine Matratze nicht ausreichend gefedert Prioritäten verlagern sich mit gegebener Zeit Vom Zustand der Welt zur eigenen Befindlichkeit Und manchmal habe ich das Gefühl, wir sind so weit Dann wieder das Gefühl, wir sind so weit weg Wovon wäre noch zu klären zu gegebener Zeit Doch bis dahin ist fast alles ein großer Scheißdreck Und um den großen Scheißhaufen hübsch zu finden Braucht man neue Kategorien für Ästhetik Also atmet durch den Mund und reißt euch zusammen Und umarmt die Scheiße, bis sie weggelebt ist Etwas Träges fällt von oben und dreht sich Legt sich zusammen, wird konkret und verwebt sich Und wir stehen mitten drin, im Neonlicht Und denken Geometrisches wie Tetris Und das Leben macht Ding diggeding digge ding digge ding... Und wir kennen die Melodie und wir sehen das Problem Aber wir haben keinen Plan, in welchem Level wir sind Wahrscheinlich kurz vor Schluss und das Ende ist nah Aber wie jeder weiß, gibt der Klügere nicht nach Weil er ja sonst verlieren würde und die Geschichte schreiben Sieger Und schwuppdiwupp ist das eigene Image im Arsch Wenn ich ein Diktator wäre, ich würde zuallererst mal Immer allen sagen, sie sind frei und reich Und dass sie alles erreichen können, wenn sie hart dafür arbeiten Und dass sie alles verlieren können, wenn der Feind angreift Und wenn es keinen gibt, muss man eben einen schnitzen Und seien sie noch so grobe Abziehfiguren Hauptsache, die Leute, die vor dem Facebook-Fernsehern sitzen Spuren Aber ich bin ja kein Diktator noch nicht Mir ist noch kein vernünftiger Bart eingefallen Und noch kein richtiger Slogan für nen konsequenten Putsch Der letzte Stand war Sehr viel Geld für alle! Wenn man Glück im Spiel hat, hat man genug Geld für die Liebe Wenn man Musik macht, hat man nie genug Geld für die Miete Wir wetten gegen Staaten und setzen auf die Krise Und schreiben gleichzeitig schwarze Zahlen und Miese Virtuelles Geld und virtuelle Welt, die sich bedingen Virtualität ist das letzte große Ding Und wenn die Wirklichkeiten zu Informationen gerinnen Sitzen wir gleichzeitig draußen und drinnen Und die Grenzen verschwimmen Und es bleibt mal wieder nur mein Sack das ist Fakt Ich habe lange darüber nachgedacht was eigentlich noch bleibt Wenn man verzweifelt und es bleibt mal wieder nur mein Sack Part 4 Von der HipHop Szene Ich nehm den Satzfüller, Schreibschrift in meinen Fanblock Schlagworte Aussprache, Leitsätze in den Trendspot Presseberichte in mein Feuerwerk und Landebahn-brechendes Stell an Sprüche Ansprüche, dass es ansprechend ist Ich Gehwege, seh Leute, wenn ich durch Augenblicke Und tausend Tritte treffen tausend Ärsche, wenn ichs nach draußen schicke Ich mach den Tintenkiller seh jeden Abend rot Füll Federn, schreib ein Mundwerk und Nieten ziehen das Gnadenlos Denn Julia Engelmann ist die deutsche HipHop-Szene Ein kleines Mädchen mit großen Erste-Welt-Problemen Rap ist in der Pubertät und nicht im echten Leben Zwischen Tränen und wahllos Umsichtreten Nur relevant für alle, die sich mit 17 erschießen Oder schon fürs Aufstehen ne Belohnung kriegen Wenn man nur Kinder anspricht, sieht man nur Kinder reagieren Deshalb meint man auch immer, dass nur Kinder diskutieren Kinder und Idioten sagen die Wahrheit Trinker sagen, was sie denken, denken aber kaum Das Internet sagt, was irgendwer da reinschreibt Und Wahrheit ist eh ein feuchter Diktatorentraum Ich lass die Hoden baumeln mehr kann ich nicht erreichen Außer völlig nutzlose tausend Zeilen schreiben Ein livre sur rien gesprochen auf den Takt Lässt das sinnlose Hämmern besonders kühn erscheinen Verweis doch mal auf Dinge, die auch wir verstehen! Ey Mann, ich scheiß doch auf die Dinge, die auch ihr versteht Ich trink schon wieder morgens Bier statt Biotee Und denke, mein Traumjob wär Funktionär beim IOC Denn Willkür ist der größte Luxus unserer Zeit Endlich vom Diktat der Rationalität befreit Muss ein Zustand sein, den man nur über den Wolken Oder als Unterschichtenfernseh-Darsteller erreicht Oder als Wutbürger - in der Netzwelt Wo der digitale Stammtisch dem lautesten Proleten hinterher bellt Und Ansichten zu Wahrheiten werden Als würden sich Kirchen über Giraffenmord beschweren Als wollte man Nietzsche einem Affenhort erklären Und die dumm-vitalen Bonobos bumsen die ganze Zeit Und während man so redet, merkt man, dass sie vielleicht Alles verstehen und eben deswegen geil werden Aber mitbumsen will man auch nicht unbedingt Denn da ist ja dieses Gefälle zwischen den Viechern und mir Und die Sehnsucht, dieses Gefälle zu überwinden Und grunzend mitzumachen wird vom Verstand blockiert Laufend steht der Scheiß zwischen mir und dem Glück Das Gras ist viel grüner, wenn man sich nicht danach bückt Ein Pickel macht nur Spaß, wenn man ihn ausdrückt Und Rap macht nur Spaß, wenn man Applaus kriegt Also doch Gangster, Fotzen und Scheiß drauf auf Kreislauf reimen Also doch Propaganda machen - Sergej Eisenstein Und endlich abnehmen, dass man als Hipster durchgeht Und völlig crazy Sachen machen und Lifestyle sein Dieses Cabrio kaufen und den Wind in Kauf nehmen Dann eine Mütze kaufen, weil der Wind ins Auto weht Einen Unfall bauen, weil es deine Mütze wegweht Und dann mit stylisch verwuschelten Haaren draufgehen Wenn es Samstag ist, will ich ausgehen Es sei denn, ich bin eine Kerze Es kommt immer darauf an, was man ist und will Über Relativität gibt es NUR gute Scherze So wie über Handpuppen mit einer Hand im Po Sowie komplexe Poesie auf einer Wand im Klo Das Lied der Straße - Zampano Naja, komplexe Poesie gibt es wohl anderswo Ich habe einen guten, aber arroganten Flow Warum das so ist? Ich kann das so! Milf und Yellow cookies sind die Fanta zwo, nur in Gut Keine Angst, Mann, das geht noch lange so Oder eben nicht das ist das Schöne daran Dass ich, wenn ich will, diese Hasenhaken schlagen kann Und die Leute gewöhnen sich dran Oder eben doch nicht, dann ist das immerhin ein stolzer Abgesang Und Abgesänge sind bekanntlich die besten Gesänge Schönheit und Tod ist die beste Kombo Wer würde nicht gerne in Rosenblättern ersticken Ein bisschen Dekadenzästhetik für euer Fitnesstudio Also lass doch mal das Pumpen und das Hustlen sein Pack doch mal die Pumpgun und Goldkette ein Versuch doch einfach mal nicht, der Tollste zu sein Ich versuch inzwischen mal Tolstoi zu sein Denn Krieg und Frieden steht zu Dichtung und Wahrheit Wie Style und Zeit zu Wein und Vibes Und wir beide hier, wir stehen zu ehrlicher Arbeit Wie zu Leistungsethos und geilem Geiz Wir meiden das! Falls ihr das noch nicht verstanden habt Vielleicht sind wir deshalb auch niemals angesagt Vielleicht werden wir deshalb vor unseren Gigs nie angesagt Und trotzdem sagt der viel, der Guten Abend sagt Ich habe einen Anzug und einen Tage-Bart Und kaufe meine Möbel im Habitat Ich bums deine Freundin auf Abifahrt Ein fiktionales Leben aus Klavier und Kaviar Na immerhin hat das Klavier gestimmt Na immerhin hat The Finger das Klavier gestimmt Na immerhin hat das Kontingent an Bier gestimmt Alles andere ist egal, Hauptsache, die Wirkung stimmt Bitte gehen Sie weiter, hier gibt es nichts zu hören Es sei denn, Sie haben etwas Zeit mitgebracht Wir sind angetreten, um Gewohnheiten zu stören Und ham endlich wieder Musik weit entfernt von Hits gemacht Part 5 Vom Haben und vom Sein Ich wollte noch nie, das was ich habe - sein Ich war noch nie das was ich sage Nein Es geht seit Jahren nur von Fragen zu Fragen Und nur der gleiche Trott, mein Morgen ist euer Abend Ich bin irgendwann aus der Zeit gefallen Die Gedanken aus den immer gleichen Longdrinks geboren Doch solange der Beat läuft, geh ich raus In meinem Kopf einen Mittelfinger an die Welt und den Walkman im Ohr Jeder Rapper ist ein Alphatier Ich produzier nur tonnenweise Altpapier Steh auf Bühnen rum und halte die immer gleiche Predigt Von der einzig wahren Religion von Leck-mich-doch und kaltem Bier Bevor ich mich im Blätterwald verlier, mach ich die Augen zu Ich mein, ich mach die Augen auf, schau mich um und mach die Augen zu Ich mach das im Endeffekt genau wie du Nur nicht halb so prollig und weniger Leute schauen mir zu Man lacht nicht, wenn man die Welt als sinnvoll betrachtet Doch ich lache, weil ich die Welt als meinen Sack betrachte Die Welt als Wille und Vollstreckung Und als ihr dachtet Es kann nicht schlimmer kommen, kam Manfred ans Schachbrett Und da bin ich nun Mit der Axt und einem Landstreicherbündel voller Billiguhren Kauft was oder macht doch was ihr wollt, aber gebt mir euer Geld Ich werd erst reich, dann berühmt und erst dann will ich touren Denn wir sind fahrendes Volk mit Taschen voller Katzengold Sitzen wir vorne und der Wagen der rollt Und wir tragen die Masken der Hungerkünstler Und der Zirkusartisten und wir tragen sie stolz Und auch wenn wir sonst nichts haben haben wir Zeit Und den Block und den Stift und die Freiheit Und auch wenn die ganze Welt nach Beschleunigung schreit Nehm ich den Block und den Stift und ich schreib Ich nehm den Block und den Stift und ich bleib Mir treu und hier sitzen, bis der Flow treibt Sollen alle ruhig rennen, die kommen schon wieder zurück Wenn der Vorhang aufgeht und die Show steigt jetzt Ich schick diesen Reim heim durchs Wurmloch wie Deep Space Nine Geflügelte Worte der übelsten Sorte Geschichtenerzähler wie Siebenstein Ich könnt liegenbleiben, oder aufstehen In Siebenmeilenstiefeln rausgehen Wenn wir aufdrehen ist Entkommen nicht drin - Gezeiten in Stauseen Die Früchte des Zorns manifestieren sich in diesen Zeilen Es wurden schon wieder Gerüchte geboren Bald gibts Tränen wie beim Zwiebelschneiden Bei jedem, der jemals über die Themenwahl lästerte Im Vergleich zu Manfred ist der Zeitgeist das ewig Gestrige Wir halten uns in Grenzen die wir gezogen haben Denn wir vertreten die Jedi-Methoden wie Obi Wan Sind noch ein bisschen aggressiver als ein Grobian im Drogenwahn Verlieren oft komplett die Kontrolle, aber nie den roten Faden Es ging alles ziemlich lahm, bis Manfred kam Dann ging alles ganz schnell - und auf einmal war alles ab Es war alles ziemlich lahm, bis Manfred kam Dann war alles ganz schnell - und auf einmal ging alles ab Schlechte Entscheidungen werden gute Geschichten Erzählt von schlechten Erzählern, die sich in gutes Licht rücken Gute Entscheidungen werden lange Geschichten Erzählt von schlechten Erzählern, die über sich selbst entzückt sind Und gute Erzähler? Erzählen keine Geschichten Die auf ihren belanglosen Entscheidungen basieren Gute Erzähler erzählen nur Geschichten Von Robotern, Titten, Stierkampf und Bier Und hier sind wir unterhalt uns Irgendwo in der Mitte irgendeines Albums Irgendwo in der Mitte irgendeines Ortes Und geistern verwirrt und versoffen im Wald rum Bitte bewahren Sie die Haltung Auch wenn Sie die Sinnlosigkeit durchschaut haben Sie haben sonst nichts, also auch nichts zu verlieren Außer fiktionalen Aufgaben Selbsterkenntnis ist der erste Schritt zum Suizid Die Kur gegen Selbsterkenntnis ist Louis V Pack alle Zweifel in die Tasche und zeig sie deiner Welt Bis sie selbst zur Tasche wird und Du wirst sie Du wirst sehen Haben ist Sein Hauptsache dein Magen ist klein Hauptsache dein Wagen ist groß Hauptsache dein Herz ist rein Also immer rein in die gute Stube, liebe Menschheit Und in dieses sympathische Spiegelkabinett Wo alle Bilder von euch ständig gnädig lächeln Und ihr endlich schlafen könnt also ab ins Bett Wir wünschen bunte Träume von Zuckerwattenwolken Und Lebkuchenhäusern und Töpfen voller Gold Am Fuß des Regenbogens und in Kürbiskutschen Fahrt ihr durch Zauberwälder, wo euch der Untergang holt Und deine Geister spielen Hackbrett Und Dennis Hopper schreit Fuck that! Du denkst, dass ewig am längsten währt Während sich dein Leben neu taktet Fuck that! Ich habe meine Angst für Texte im Wandschrank Denn meine Sätze finden bisher kaum Anklang Ich will nicht untergehen ohne Sang und klang Und schaue euch deswegen so gebannt an Ich nehm euch auf auf Video ihr spielt euch von alleine Little people und Liegen haben kurze Beine Und Lügen haben behaarte - Ihr wollt noch mehr schöne Lügen? Wir bringen Raptracks auf Arte Wir machen Raptracks salonfähig für die Hochpreisigen Rotwein trinkenden Teile der Gesellschaft Also Gangsterrapper, Autoschieber, Halbweltboxer Abmahnanwälte und zahlreiche Präsidenten einer Weltmacht Part 6 Vom Erwachsenwerden Wenn mich das Glück verlässt, geh ich einfach mit Denn jeder Untergang beginnt mit dem ersten Schritt Heute ist der erste Tag vom Rest des ganzen Shit Und die Plastiktraumgesellschaft tanzt mit Ich wollte immer irgendwo weggehen Ich wollte immer irgendwo bleiben Wahrscheinlich wollte ich einfach immer irgendwo rumstehen Und völlig überraschend war ich knapp über 30 Wenn man alt wird sollte man nicht jung bleiben wollen In Seilbahnen sollte man nicht umsteigen wollen Egal, wo wir uns rumtreiben sollen Wenn es keinen Alkohol gibt, ist es wahrscheinlich nicht toll Wenn wirs gewonnen haben, ist es sicher nicht Gold Wenn wir gewonnen haben, bin ich sicherlich voll Ihr wollt Expertenanalysen wie von Kahn oder Scholl Balkanbeats ist Ska nur in Moll Der frühe Wurm wird vom frühen Vogel gefangen Hätte er doch lieber länger vor der Playstation gehangen Dann müssten seine Kinder jetzt nicht ins Heim Und er könnte noch immer unverdaut sein no doubt! Apropos unverdaut ich hab mal meine Eltern beim Bumsen erwischt Also wenn ich plötzlich weine, wundert euch nicht Ich hatte eine ziemlich schwere Kindheit Deshalb bin ich jetzt Rapper und schicke Frauen auf den Strich Was man halt so tut um in die Szene zu kommen Koks ticken, Hoes ficken, gib mal die Bong Auf Outlines beharren, als wäre die Welt Tron Und außerdem hab ich diesen Train gebombt selbstverständlicher Blick Nach der Snare kommt die Kick Und wenn das nicht so ist, weiß man, dass etwas nicht richtig ist Man steht auf einem Grund, der nicht triftig ist So wie der Untergrund nicht so wichtig ist wie er sich selbst nimmt Denn ein Weltbild hält nur, so lange das Geld stimmt Und jeder, der zu lange auffällt, fällt hin Also flüchte ich doch lieber in die Fiktionalität Und verliebe mich brutal unglücklich in diese Elbin Na die mit den Ohren und der Brust und dem Bogen Die den strengen Vater hat und im Wald und von oben Ach, ihr versteht mich alle nicht ich bin ganz allein Na klar! Würdest du denn gerne mit dir befreundet sein? Also ehrlich Träumereien in Ehren Ich will mich nicht über unrealistische Pläne beschweren Ich will nicht viel, nur euch euer Leben erklären Bis die Dorfbewohner mich wieder federn und teeren Doch da muss man durch wie durch dieses Nadelöhr Nachdem man endlich unendlich reich geworden ist Ich will nicht viel, nur euch euer Leben erschweren Und für den Hotdog-Fress-Contest ein Sportgebiss Mit diesen Bling-Bling Dingern am Zahn Die Kasse macht Kling Kling ich sage ja Verkaufe dann gewinnbringend Dinge am Markt Und werde Binge-Drinking-King alles klar? Schreit mal ja! Ja! Oh, wohl doch keiner da Naja, vielleicht ist der Song als Clubtrack nicht optimal 40 Minuten Rap am Stück und da noch nicht mal tanzbar Wie ich damit reich werden konnte, ist mir immer noch nicht ganz klar Aber Hauptsache ist, dass ich es geworden bin Hoffen auf selbsterfüllende Prophezeiung Und wenn ich schon zu Unrecht nie was im Sport gewinn Dann doch wenigstens bei der nächsten Grammy Verleihung Oder wie heißt doch gleich das deutsche Pendant Da wo immer Peter Maffay und Eißfeld spielen Wo man das Gefühl hat, Musikdeutschland ist ein riesiger Haufen Und eigentlich will man doch nur den ganzen Scheiß wegspülen Der ECHO ist wie dunkle Schokolade oder ein Handjob Man nimmt es, wenn es keine Auswahl gibt Aber sobald irgendetwas anderes daneben liegt Steckt man den Penis lieber woanders rein Oder man kauft ne Alpenmilch um in den Metaphern zu bleiben Wir wollen nicht viel nur all die Affen vertreiben Und den Stil zurückbringen denn Rap ohne Style Ist eben wie ein Handjob nur so ein bisschen geil Und mal ganz ehrlich Mona Lisa und Nofretete Sind auch nicht so eindrucksvoll wie immer alle tun Die eine schaut debil, die andere wie auf Opium Und trotzdem haben sie genug Fame, um sich darauf auszuruhen Also was machen die richtig, was wir falsch machen? Außer, dass sie Frauen sind - und tot Wer macht denn diese komischen Regeln für diese Hypes Und warum befolgt die dann eigentlich jeder Idiot? Wenn die kritische Schwelle des Erfolgs mal erreicht ist Dann leistet sich keiner mehr, zu sagen, was alle sehen Nämlich Dieses oder jenes Werk ist zwar nett Aber eigentlich dann doch nur so Handjob-okay Es geht um 15 Minutes of fame Die reichen exakt für eine Halbzeitpause Und trotzdem rennen ihm alle hinterher Und man denkt bei jedem zweiten nur OH! Halt die Schnauze Wenn man nichts kann und nicht arbeiten will Kann man immer noch Abmahnanwalt oder Celebrity werden Denn wir leben schließlich in einer Gesellschaft, in der wir Spielerfrauen und Modebloggerinnen verehren Doch eines Tages werden auch Celebrities zu Menschen Und entdecken einen tiefgreifenden Mangel an Kompetenzen Wenn die Aura erst mal weg ist und echten Fragen anfangen Muss man erstmals anfangen, seine Lücken zu ergänzen Aber vielleicht ist genau das, was erwachsen sein ist Desillusionierung und Scheitern als Prinzip Und sich dann irgendwann entscheiden, den Helm aufzuziehen Und der erste Rostentferner lässt die Rüstung wieder glänzen Part 7 Vom Wesen des Seins Ich schmeiß mal eben nen Eimer Farbe über mein altes Leben Und ne alte Häkeldecke über mein ganzes Wesen Vieles hat uns Halt gegeben und ist dann weggebrochen Oder es trägt sich aus, wie alte Tennissocken Am Rand des Planeten ist ein Abgrund aus Meer Und darunter lebt Gott, der sich um oben einen Scheißdreck schert Was solls, wir segeln mit, das ist ne Reise wert Denn nur unterwegs sein vertreibt den Schmerz Idealerweise muss die Reise dein Zuhause werden Es gibt Parallelen von Allem und Nichts Idealerweise muss die Scheiße jemand auswerten Doch ich glaube, der arbeitet im Dachbodengericht Und all unser Streben ist nach oben gerichtet Und alles was hier ist, gehört grob umgeschichtet Und wenn ich nen vernünftigen Hundeblick hätt Läge ich nicht schon wieder alleine betrunken im Bett Naja Talfahrt geht auch im Riesenslalom Und das Radio singt wieder Liebeskanon Und was ist eigentlich mit Tibet? Das müsste ich mal googlen, wenn ich mit Youporn fertig bin Schnipselporn, Schnipselinfo, Schnipselempörung Unmittelbar stört mich nur die Routerstörung Mittelbar aber alles und das halt ich nicht zurück Gesellschaftliche Verantwortung beginnt mit einem Klick Ich gebe einen Fick auf folgende Dinge Eisenbahnen, Eisbären, Eisenhüttenstadt und Katzen Listen, Ironie, Ski fahren und Singen Und auf alle Sachen, die mit einem T beginnen Zum Beispiel Teewurst nur auf flache Witze Komm ich eigentlich ganz gut klar nur nicht über Katzen Manchmal ist es mir zudem ganz egal, wie ich klinge Solange ich nur an das Wesen des Seins vordringe Und dass das geradeaus gehen soll, hat sich noch nie bewährt Viele Dinge, die man nicht mag, sind eine Liebe wert Doch im Nu wird eine Pflugschar wieder Schwert Wenn man das Gefühl hat, dass man nicht dazu gehört Doch das Wesen des Seins ist ein komisches Wesen Es hat lichte Haare und einen hässlichen Buckel Einen Bauch und nen fetten Arsch hat es auch Und es plärrt mir dreckig lachend immer wieder in meine Mucke Und es stört einfach und versteht nicht, wenn man das nicht will Als würde es das Wort Nein nicht kennen Und es nimmt keine Rücksicht auf mich oder andere Und es macht ihm auch nichts aus, immer alleine zu pennen So ein Arschloch naja leben und leben lassen Was will man machen man kann eh nichts machen Denn Aktivisten und Aktionisten sind nicht das Gleiche Das Selbe und das Gleiche ist nicht das Gleiche Und schon gar nicht das Selbe denn auf dieser Reise Sind die Unterscheidungen das Entscheidende Der Weg vom Rand der Welt steht mit offener Weiche Bereit - am Ende ist man hoffentlich eine schöne Leiche Was will man sonst erreichen, außer in Schönheit unterzugehen Wir haben keine Wahl, wenn keine Wunder geschehen Wir bewegen uns nur innerhalb unserer Regeln Nur im Fußball endet Prozent bei Hundert und zehn Aber Mathematik erklärt die Welt nicht Wir erklären uns die Welt mit Mathematik Und vielleicht si</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Altn rahata, iyi bak etrafa Ner'de olursak olalm bamz belada Bi' günümüz sahne, bi' gün mevzularda Bakarm icraate, oynayn kenarda Ben gibi bi' tane var o da çok uzakta Ayn yerde deiliz ayn yerde bulunsakta Hzl bizim cadde, sen bekledin durakta Bur'da seni gören kimse sikmedan brakma Yükselirim her gün, evim bulutlarda Para kazanyorum artk dursam da Mutluluk sadece bi' telefon uzakta Hatta beni bekliyo'dur dier hatta Asla dümem sen kalma merakta Yükseliyo' çta beni gördüün her hafta Ascak, kesicek ama sadec lafta Biraz rahatla Konu benim, kanm serin Takm denim v dolu belim Kopar film Makina deil belim tutulur Kskanç piçler bize saat gibi kurulur Üflemem pesto, kanmda yok alkol Yeni Moodie temiz biri doal huzur Fs bize UK derdimiz çmem ben Kool-Aid, kraln bo koy Gözlerim kara, cefa anlatr Sözlerim yasak ceza balatr Harbiler sever yalana Mermiler seker, analar alatr Loui V, gerçekten ölmezsin Kimliim dandik bu ate sönmez GNG aga or'jinal aile Babalar dönmeden de geri dönmez You might also like Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek Çra gibi kemik krd amcaolu Biz onlara dedik, tanr kolu komu Yüz metrelik kou, her birini ta Ner'desin? Görüntü iyi aramayz açk Ama kestik pozu kameralara Senin orospun ama neden benim yanmda? Dedikleri aklmda ama üphe sonuçta Deniz scak sen yine de ylanlara alma Dan tepesindeyim karn içinde, arama Rap yerine el ii yap bence o ses tonuyla Hah, Glock marka bebek GNG Yetimek için öyle bi' frn yok demek Yerim taht olsa bu kadar rahat olamazdm Ben taçsz kralm sen saçsz kaarsn Güngören'de büyüdüm, çktm baardm Rap yapmasam da zengin yaardm Koydum aklma para çaltm Hm, sen kar paras yedin, altn Yüzümü bu sefer sana kapatca'm, vn, vn Seni vuruca'm bunu bil çocuk altrdm Hah, Glock marka evet Bilir misin sokaklarda fedai ne demek? Zekatn verir sana bendeki yetenek Olucak m, görücekler orospuda Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek</t>
+          <t>Altn rahata, iyi bak etrafa Ner'de olursak olalm bamz belada Bi' günümüz sahne, bi' gün mevzularda Bakarm icraate, oynayn kenarda Ben gibi bi' tane var o da çok uzakta Ayn yerde deiliz ayn yerde bulunsakta Hzl bizim cadde, sen bekledin durakta Bur'da seni gören kimse sikmedan brakma Yükselirim her gün, evim bulutlarda Para kazanyorum artk dursam da Mutluluk sadece bi' telefon uzakta Hatta beni bekliyo'dur dier hatta Asla dümem sen kalma merakta Yükseliyo' çta beni gördüün her hafta Ascak, kesicek ama sadec lafta Biraz rahatla Konu benim, kanm serin Takm denim v dolu belim Kopar film Makina deil belim tutulur Kskanç piçler bize saat gibi kurulur Üflemem pesto, kanmda yok alkol Yeni Moodie temiz biri doal huzur Fs bize UK derdimiz çmem ben Kool-Aid, kraln bo koy Gözlerim kara, cefa anlatr Sözlerim yasak ceza balatr Harbiler sever yalana Mermiler seker, analar alatr Loui V, gerçekten ölmezsin Kimliim dandik bu ate sönmez GNG aga or'jinal aile Babalar dönmeden de geri dönmez Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek Çra gibi kemik krd amcaolu Biz onlara dedik, tanr kolu komu Yüz metrelik kou, her birini ta Ner'desin? Görüntü iyi aramayz açk Ama kestik pozu kameralara Senin orospun ama neden benim yanmda? Dedikleri aklmda ama üphe sonuçta Deniz scak sen yine de ylanlara alma Dan tepesindeyim karn içinde, arama Rap yerine el ii yap bence o ses tonuyla Hah, Glock marka bebek GNG Yetimek için öyle bi' frn yok demek Yerim taht olsa bu kadar rahat olamazdm Ben taçsz kralm sen saçsz kaarsn Güngören'de büyüdüm, çktm baardm Rap yapmasam da zengin yaardm Koydum aklma para çaltm Hm, sen kar paras yedin, altn Yüzümü bu sefer sana kapatca'm, vn, vn Seni vuruca'm bunu bil çocuk altrdm Hah, Glock marka evet Bilir misin sokaklarda fedai ne demek? Zekatn verir sana bendeki yetenek Olucak m, görücekler orospuda Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Yeahhh Let me talk my shit real quick Uhh I'm feeling woozy Catch an opp n Im upping The toolie Money longer jus copped a Lil uzi Drop da lo we gon slide like it's toosie Shorty thick yea I'm grabbing her booty Take a flick yeah we making a movie Talkin shit and I knocked off his duwee Heard I'm rich now she's tryna come do me Ouu, slide down yo block Catch an opp and im bussing da chop He a snitch he be talking to cops She a treesh be doing hella cocks Put my phone up on do not disturb Hit her once then kick her to the curb Roll up 10 gs I'm smoking on herb Popped a 40 now I'm geeked like a nerd Lil shorty horny keep asking what's th word He was talking shit now he flying with The birds Had to cut my bitch off sh getting on my nerves I know what she wants but I don't really need it Slide down yo block I'm making foenem bleed it I heard his tummy growl These bullets gon feed it My bitch said she hungry this dick she finna eat it Side bitch took a photo I told her to delete it We don't take no Ls we really undefeated Used to fight niggas now dey getting heated I can't cuff no thot but that bitch nigga he did Keep talking shit taking u off of the grid And she squirted on me like she was a damn squid I can't fuck again cuz that pussy was real mid You might also likeLIKE, the 30s 50s double ds onna Glock All this ice up on me got me feeling like wop Call up Ju he don't miss he taking off yo top Feel like R kelly I'm bout to be up on dis thot Keep ya pants on I only came here for da bop He was flexing until we got up on his drop Got no bodies then why you claiming you an opp We got sticks we got mops we cleaning up yo block Told Jo to spin one more time to make sure we ain't miss no spots The opps tryna line me they saying I'm cocky but really I don't give a fuck I'm getting this money I'm stacking this paper I'm swimming in blues like it was a flood I'm hanging with Glizzy,he banging that neighborhood crip So his ass steady screaming out cuz I'm hitting this bitch from the back then throw her to the side I think that she falling in love She ask me Jo Glizzy I need a 3.5 but fuck it I gave her a dub but she got a slug So, fuck it might hit it again then next time give her a nug Now she outta luck She calling my phone like it wasn't enough You bitches is sluts I call up D30 he slide with that mac and that .50 No second thought he gone buss Like Don't trip get hit in your gut She a freak out my thumb in her butt Big .45 and you know this shit tucked Dick on the clip and you know i'm gon buss Like, lil nigga talk tuff but he ran Lean in my gut, ian popping no Xan Calling me broke, can you show me a band? Dissing the wood, you ain't spin for your mans Goofy ain't spin for his mans Spin on they block and I'm flocking like ten Drop a fake check imma grab 8 bands Givenchy my shoes, Amiri my pants Geeking off Wock I barely can stand We fucking dese bitches you know that they fans I'm smoking exotic I'm looking Japan The wood be the gang you know that's my clan Uh, I'm feeling woozy Catch an Opp n Im upping The Toolie Money longer just copped a Lil Uzi Drop da lo we gone slide like it's tootsie Shorty thick yea I'm grabbing her booty Take a flick, yeah, we making a movie Talkin shit and I knocked off his du-wee Wanna feat pay the fee but it better not be dookie Got a freak hoe at cooper she giving me Slurpee Got yo bitch bussing wide Tellin you she ain't heard of me Can't fall in love with no bitch like my nigga low key I can fuck a thot but I will never marry Turn an opp SRT into a fuckin Chevy Cant up the score on us, yall ass sweet like sum cherry Ain't leave the crib in months man y'all niggas is scary Claiming Candlewood K now that bitch getting buried</t>
+          <t>Yeahhh Let me talk my shit real quick Uhh I'm feeling woozy Catch an opp n Im upping The toolie Money longer jus copped a Lil uzi Drop da lo we gon slide like it's toosie Shorty thick yea I'm grabbing her booty Take a flick yeah we making a movie Talkin shit and I knocked off his duwee Heard I'm rich now she's tryna come do me Ouu, slide down yo block Catch an opp and im bussing da chop He a snitch he be talking to cops She a treesh be doing hella cocks Put my phone up on do not disturb Hit her once then kick her to the curb Roll up 10 gs I'm smoking on herb Popped a 40 now I'm geeked like a nerd Lil shorty horny keep asking what's th word He was talking shit now he flying with The birds Had to cut my bitch off sh getting on my nerves I know what she wants but I don't really need it Slide down yo block I'm making foenem bleed it I heard his tummy growl These bullets gon feed it My bitch said she hungry this dick she finna eat it Side bitch took a photo I told her to delete it We don't take no Ls we really undefeated Used to fight niggas now dey getting heated I can't cuff no thot but that bitch nigga he did Keep talking shit taking u off of the grid And she squirted on me like she was a damn squid I can't fuck again cuz that pussy was real mid LIKE, the 30s 50s double ds onna Glock All this ice up on me got me feeling like wop Call up Ju he don't miss he taking off yo top Feel like R kelly I'm bout to be up on dis thot Keep ya pants on I only came here for da bop He was flexing until we got up on his drop Got no bodies then why you claiming you an opp We got sticks we got mops we cleaning up yo block Told Jo to spin one more time to make sure we ain't miss no spots The opps tryna line me they saying I'm cocky but really I don't give a fuck I'm getting this money I'm stacking this paper I'm swimming in blues like it was a flood I'm hanging with Glizzy,he banging that neighborhood crip So his ass steady screaming out cuz I'm hitting this bitch from the back then throw her to the side I think that she falling in love She ask me Jo Glizzy I need a 3.5 but fuck it I gave her a dub but she got a slug So, fuck it might hit it again then next time give her a nug Now she outta luck She calling my phone like it wasn't enough You bitches is sluts I call up D30 he slide with that mac and that .50 No second thought he gone buss Like Don't trip get hit in your gut She a freak out my thumb in her butt Big .45 and you know this shit tucked Dick on the clip and you know i'm gon buss Like, lil nigga talk tuff but he ran Lean in my gut, ian popping no Xan Calling me broke, can you show me a band? Dissing the wood, you ain't spin for your mans Goofy ain't spin for his mans Spin on they block and I'm flocking like ten Drop a fake check imma grab 8 bands Givenchy my shoes, Amiri my pants Geeking off Wock I barely can stand We fucking dese bitches you know that they fans I'm smoking exotic I'm looking Japan The wood be the gang you know that's my clan Uh, I'm feeling woozy Catch an Opp n Im upping The Toolie Money longer just copped a Lil Uzi Drop da lo we gone slide like it's tootsie Shorty thick yea I'm grabbing her booty Take a flick, yeah, we making a movie Talkin shit and I knocked off his du-wee Wanna feat pay the fee but it better not be dookie Got a freak hoe at cooper she giving me Slurpee Got yo bitch bussing wide Tellin you she ain't heard of me Can't fall in love with no bitch like my nigga low key I can fuck a thot but I will never marry Turn an opp SRT into a fuckin Chevy Cant up the score on us, yall ass sweet like sum cherry Ain't leave the crib in months man y'all niggas is scary Claiming Candlewood K now that bitch getting buried</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>B-B-B-Barlas on Astral AKDO Grr Kafa dert, yanna gelemem Grr Ben, tavrlar derbeder Hâlimden anlamazsn sen Grr Dalgamz çok özel Çavo'ya döndür de gelsin ki dumana pert Srtr bana nedensiz Grr Yklma, yok kimseye iltimas, ha Yok stisnasz da kader dedi maske, bok gibi intibahn Grr Ortamda iktidar biz, Tuborg ve viski var Midede üç Lyrica Açln sahneden kaarlar Bizi sor, hep bilir babanlar Riziko, her zaman yakamda Telefondan konuma mal mal Dosyam patlar sanki mermi Yine de tutm'u'ca'm güvenlik Grr Sana da kukum var, tamam m? Uzak ol, öyle bak süpersin Grr You might also like Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çk, çek Bu bildiin deil, ha Grr Smoke weed, shisha Pa-pah Bir kre uyarrm olmaz Bir daha patlar ieler, yanar villa Woah Bu sokaklar ring Ring Havalar karardnda Grr-pah E-e-e-elmas parlar bling bling VVS bro, maallah Woah Tek kuralm, mert olalm, olsun tüm götler uza' Sert duralm cam gibi, krlrsak basmaktan korkarlar Ey Dik ölelim, net görelim, olmam kahpelere tutsak Pa-pah Drill gelenek, tek seçenek basmak her bir omuza Phew Kahverengi kat rollin' Klcm salladm sana, Shaolin Param zulamda, her gün katlanr yeni aldm Bitcoin Eskiden güzel triptin, imdi sktn ite bro, n'ap'im? Big money, ah, flippin' Çkardm ömrüm boyunca tatil' Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, wow Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr, Batuflex, Batuflex Dert sanki kehribar Çek, çek Ati, UZI El Chavo, Lil Murda Heh Lvbel, Batuflex, Moti Gang Hepimizin ortak noktas dip Dip Bugünse yapyoruz cash stream Cash Baby, gel izle, her eyi yaptm kendim Yokluk ne? desem sen bilmezsin Yokluk ne? Life is shit, yeah, keyifsiz eklim ler'de olucak çocuunla derdim Dramam gerçek, gerisi hayaldi Heh Bo konuan çok H, tek direnendim Yaarken küfret, sakn geri kalma Ölünce belki takdir edersin He Bur'da sevgi yok, her ey ticari Yeah Ama satmadm kimseyi elhamdülillah Yeah Hastalmdn, he, oldum tedavi Yeah, suratm gülmedi ondan beri bak AMCAS, AMCAS yani yaptk festival 50K yetti, bak, çektik bankadan Ya Yapardm geceleri teslimat falan Eh Harbiden hustle'la geçti, bak zaman Ya Taaklar doksan, koydum kantara Yeah Dalgalar tüter, al dumanlara C5 tatlm bu, harbi manzara Bizden gerisi bo, harbi maskara Ya Flow'lar sek sek dört, Golf'üm Hatchback Üstümde mavi bi' tech baba, Mad Max Amcas bo ver, bize paf'lyo' herkes Es baba, es, C-Class Mercedes Normal taklyo'z hep bi' tatbikat u anda siklemem tabii tatlm bak Taklalar salam, harbiden silah Woo Unutma, bu dünya ölümlü baba Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek Ba-ba-ba-ow Siktir lan, üstüne yrtk don giymiken vazgeçmem eklimden Ba-ba-ba-ow Bilmem kaç bin desibele yazsam bile kovulmam evimden Prr, prr, prr Denedim Love me, please, like me de n'apyim? Olmad hiç sevilmem Ba-ba-ow Vurulsan kaç kii gel'cek ki peinden? Ba-ba-ow stanbul city, ben sapmadm map'imden Yeah, gangsta rap denedin, yazp, çizip oyna, o bile feminen çtim, sçtm geçene kadar kendimden, JB, Jacky viski, otuz dak'ka dinlen Bi' miyavlamadn kald, daha kedisin evde koltuktaki kedinden Pa-pa-ow Hayat serttir, vurdu bizlere kick ilen Pa-pa-ow, yaklama, bu sabah uyandm tersimden Grr Baclar, stanbul Eh Mahalle, dön tam tur Prr Patlamadk babacm daha, dur Ya Ka-Ka-Kaldk zindan' mahsur, paf küf Kaltaklarla dans, kalk bi' tatlm Paralar koydum, al, aldm altn Esir ol ya da öl, budur hakkn Bi' siren duydum, pat, yere yattm Pat Dinle ya da dinleme, siktir Çok yol gördüm, bu yüzden dimdik Duruyorum hâlâ gözlerimi diktim Baarl olmak budur tek bildiim GNG kartel, haram para, ben Düman atp tutar, gerçek bilmeden Kurun i yapar, ac dinmeden Yklmaz beden her ey bitmeden P Hortum gibi flow, içine çeker Ya Kilo kilo var, hepsine yeter Ya Iklar açk, öderim bedel Prr Bi' gerei var, ykar ve geçer Adamlnz bir kuru eder Yine de ecel hep bizi seçer Srtlarm yükünü kardeimin Gerek'se omuzlarmn üstünde gezer Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek16</t>
+          <t>B-B-B-Barlas on Astral AKDO Grr Kafa dert, yanna gelemem Grr Ben, tavrlar derbeder Hâlimden anlamazsn sen Grr Dalgamz çok özel Çavo'ya döndür de gelsin ki dumana pert Srtr bana nedensiz Grr Yklma, yok kimseye iltimas, ha Yok stisnasz da kader dedi maske, bok gibi intibahn Grr Ortamda iktidar biz, Tuborg ve viski var Midede üç Lyrica Açln sahneden kaarlar Bizi sor, hep bilir babanlar Riziko, her zaman yakamda Telefondan konuma mal mal Dosyam patlar sanki mermi Yine de tutm'u'ca'm güvenlik Grr Sana da kukum var, tamam m? Uzak ol, öyle bak süpersin Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çk, çek Bu bildiin deil, ha Grr Smoke weed, shisha Pa-pah Bir kre uyarrm olmaz Bir daha patlar ieler, yanar villa Woah Bu sokaklar ring Ring Havalar karardnda Grr-pah E-e-e-elmas parlar bling bling VVS bro, maallah Woah Tek kuralm, mert olalm, olsun tüm götler uza' Sert duralm cam gibi, krlrsak basmaktan korkarlar Ey Dik ölelim, net görelim, olmam kahpelere tutsak Pa-pah Drill gelenek, tek seçenek basmak her bir omuza Phew Kahverengi kat rollin' Klcm salladm sana, Shaolin Param zulamda, her gün katlanr yeni aldm Bitcoin Eskiden güzel triptin, imdi sktn ite bro, n'ap'im? Big money, ah, flippin' Çkardm ömrüm boyunca tatil' Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, wow Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr, Batuflex, Batuflex Dert sanki kehribar Çek, çek Ati, UZI El Chavo, Lil Murda Heh Lvbel, Batuflex, Moti Gang Hepimizin ortak noktas dip Dip Bugünse yapyoruz cash stream Cash Baby, gel izle, her eyi yaptm kendim Yokluk ne? desem sen bilmezsin Yokluk ne? Life is shit, yeah, keyifsiz eklim ler'de olucak çocuunla derdim Dramam gerçek, gerisi hayaldi Heh Bo konuan çok H, tek direnendim Yaarken küfret, sakn geri kalma Ölünce belki takdir edersin He Bur'da sevgi yok, her ey ticari Yeah Ama satmadm kimseyi elhamdülillah Yeah Hastalmdn, he, oldum tedavi Yeah, suratm gülmedi ondan beri bak AMCAS, AMCAS yani yaptk festival 50K yetti, bak, çektik bankadan Ya Yapardm geceleri teslimat falan Eh Harbiden hustle'la geçti, bak zaman Ya Taaklar doksan, koydum kantara Yeah Dalgalar tüter, al dumanlara C5 tatlm bu, harbi manzara Bizden gerisi bo, harbi maskara Ya Flow'lar sek sek dört, Golf'üm Hatchback Üstümde mavi bi' tech baba, Mad Max Amcas bo ver, bize paf'lyo' herkes Es baba, es, C-Class Mercedes Normal taklyo'z hep bi' tatbikat u anda siklemem tabii tatlm bak Taklalar salam, harbiden silah Woo Unutma, bu dünya ölümlü baba Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek Ba-ba-ba-ow Siktir lan, üstüne yrtk don giymiken vazgeçmem eklimden Ba-ba-ba-ow Bilmem kaç bin desibele yazsam bile kovulmam evimden Prr, prr, prr Denedim Love me, please, like me de n'apyim? Olmad hiç sevilmem Ba-ba-ow Vurulsan kaç kii gel'cek ki peinden? Ba-ba-ow stanbul city, ben sapmadm map'imden Yeah, gangsta rap denedin, yazp, çizip oyna, o bile feminen çtim, sçtm geçene kadar kendimden, JB, Jacky viski, otuz dak'ka dinlen Bi' miyavlamadn kald, daha kedisin evde koltuktaki kedinden Pa-pa-ow Hayat serttir, vurdu bizlere kick ilen Pa-pa-ow, yaklama, bu sabah uyandm tersimden Grr Baclar, stanbul Eh Mahalle, dön tam tur Prr Patlamadk babacm daha, dur Ya Ka-Ka-Kaldk zindan' mahsur, paf küf Kaltaklarla dans, kalk bi' tatlm Paralar koydum, al, aldm altn Esir ol ya da öl, budur hakkn Bi' siren duydum, pat, yere yattm Pat Dinle ya da dinleme, siktir Çok yol gördüm, bu yüzden dimdik Duruyorum hâlâ gözlerimi diktim Baarl olmak budur tek bildiim GNG kartel, haram para, ben Düman atp tutar, gerçek bilmeden Kurun i yapar, ac dinmeden Yklmaz beden her ey bitmeden P Hortum gibi flow, içine çeker Ya Kilo kilo var, hepsine yeter Ya Iklar açk, öderim bedel Prr Bi' gerei var, ykar ve geçer Adamlnz bir kuru eder Yine de ecel hep bizi seçer Srtlarm yükünü kardeimin Gerek'se omuzlarmn üstünde gezer Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek16</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Proof Full Discography List 1990 Bassmint Productions - Mic Check, One Two Bassmint Productions - Van Vs. Ham Bassmint Productions - We're Rockin' Babe Proof - First Recording Sessions 1 feat. Undertaka, K9, Lokee K-Dog Proof - First Recording Sessions 2 feat. Undertaka, K9, Lokee K-Dog 1991 Bassmint Productions - Artifical Flavor 1994 Wes Chill - Me My Niggas feat. Dog N Yard, Gangsta T., Jack Frost Proof 1995 DJ Head Funky Cowboys - Interlude 1 DJ Head Proof - Interlude 1 DJ Head Proof - Interlude 2 DJ Head Proof - Interlude 3 DJ Head Proof - Interlude 4 DJ Head Proof - Interlude 5 C.U.P. - Freestyle With Intro Funky Cowboys - Freestyle Funky Cowboys - Funky Latin Funky Cowboys - Vibe Session Part 1 Goon Sqwad - Good Lookin' Intro Roll Call Freestyle Mad Skillz - The Nod Factor With Outro Soul Intent - Fuckin' Backstabber The Alkaholiks - The Next Level Remix With Outro Proof Angie - Interlude Various Artists - ICP Riddle Box Release Party Freestyle You might also like1996 5 Elementz - Feed Back 5 Elementz - Janet Jacme 5 Elementz - Searchin' 5 Elementz - Sun Flower Bombshell - Introduction Bombshell - What U Talkin' 'Bout? feat. Proof Bombshell - You Can't Hide feat. Proof Tha' Murda' City Black Jack DJ Head Proof - Interlude 1 DJ Head Proof - Interlude 2 DJ Head Proof - Interlude 3 DJ Head Proof - Interlude 4 DJ Head Proof - Interlude 5 Eminem - Backstabber Eminem - It's O.K. feat. Eye-Kyu Eminem - Jealousy Woes II Eminem - W.E.G.O Kuniva Eminem - Rondell Vs. Eminem Rap Battle Proof - Anywhere! Proof - Lois Lane Proof - Why? feat. Treece 1997 5 Elementz - Either Or D12 - Filthy Goon Sqwad - Everywhere We Go Remix feat. The Detroit All-Stars Parts Unknown - Dumpin' feat. D12 Poe Whosaine - No Doubt feat. Notorious Steve Young Proof Proof - Freestyle Classic Slum Village - 5 Ela Remix feat. 5 Elementz 1998 4 Fathers - Motor City Anthem 5 Elementz - 98 Neva' Seen 5 Elementz - Bumpin' Sumtin 5 Elementz - Crazze 5 Elementz - Don't Start None Won't Be None 5 Elementz - E.G.O 5 Elementz - Get Off My Live Basement 5 Elementz - Hip-Hop Don't Stop feat. Hip-Hop G's Moody 5 Elementz - Mo News 3 5 Elementz - Party Groove No Hook 5 Elementz - Response To Madness 5 Elementz - Rockshows 5 Elementz - Tha' Elementz 5 Elementz - Whutchawant 5 Elementz - World Premier DJ Jewels - What's Dup Love feat. Philpot Proof Funky Cowboys - Interlude Goon Sqwad - Who Behind Me PMC - PMC Radio PMC - PMC Radio II PMC - PMC Radio Outro PMC - S.W.A.T.Proof Freestyle feat. S.W.A.T. Proof Proof - Something Going On feat. Greg C. Brown Doria Conner 1999 5 Elementz - Tha Ela 5 Elementz - Ultra-Magnus 5E-2001 feat. DJ Jewels 5 Elementz - You Ain't Fresh D12 - We Live This Shit Eminem Proof - Stereo Car Freestyle Eminem Proof - Tim Westwood Freestyle 1 New York Show Eminem Proof - Tim Westwood Freestyle 2 4, 3, 2, 1 Hate Me Now Eminem Proof - Tim Westwood Freestyle 3 4, 3, 2, 1 Alternate Eminem Proof - Tim Westwood Freestyle 4 Pick It Up Hate Me Now Alternate Proof - Da Science Proof - Dirty Harry Proof - Interlude Proof - Who Frontin' feat. Mister X. Proof - Wuch U No Mix 2000 D12 Almighty Dreadnaughtz - Desperados D12 - 6 Reasons D12 - Activity As Phuctivity D12 - Art Of War D12 - Bring Our Boys D12 - Chance To Advance D12 - Cock, Aim, Squeeze D12 - Derelict Theme D12 - Fuck Battlin D12 - Get Back D12 - Proof Freestyle D12 - Shit On You Snippet Eminem Proof - Tim Westwood Freestyle Eminem - Just Rhymin' With Proof feat. Proof Eminem - Quitter feat. D12 Eminem - Under The Influence feat. D12 Mountain Climbaz - Hostile Takeover feat. Proof Proof Bugz - Act A Fool Proof - The Greatest Emcee Interlude Proof - Up In Smoke Freestyle Strike - Da Four Horsemen feat. Proof, Bizarre Royce Da 5'9 Wesley Valentine Proof - All Star Game 2001 4 Fathers - Da Four Fathers 4 Fathers - Game 4 Fathers - Speed Of Thought Big Tigger - Rap City Freestyle feat. D12 D12 - 40 Minute Tim Westwood Freestyle D12 - Ain't Nuttin' But Music D12 - Blow My Buzz D12 - Fight Music D12 - Freestyle D12 - Freestyle Whether Or Not D12 - Instigator D12 - International Press Freestyle D12 - Obie Trice Skit D12 - Pimp Like Me feat. Dina Rae D12 - Pistol Pistol D12 - Purple Pills D12 - Revelation D12 - Shit On You Rock Remix D12 - Take Me Up D12 - That's How... D12 - These Drugs Da Omen - Kool Wit Me feat. Proof DJ King David - Proof Interlude feat. Proof Gorillaz D12 - 911 Livio - Udontwantnun feat. Proof Bizarre Paradime - Proof Interlude Promatic - Four Drunks And A 2way Promatic - Tear This Bitch Up Promatic - Waffle House Original Promatic - We Don't Like U Snippet Promatic - Where The Bitches At feat. Redbone Proof Philpot - Would U Ride Proof - Intro Proof - Shootacha feat. Dogmatic Proof - Tim Westwood Freestyle Proof - Whutz Love Proof, Jack Frost Wes Chill - Now Or Never Ron Dada - Lyrical Weapons feat. Proof, One Be Lo Miz Korona T-Stuckey Proof - Whut Would Life Be 2002 Big Tigger - Rap City Freestyle feat. D12 Bizarre Promatic - Process Of Elimination Brooklyn, Joe Beast, The Game Proof - We Coming D12 - Freestyle D12 - Purple Pills Remix 1 D12 - Purple Pills Remix 2 D12 - Rap Game feat. 50 Cent D12 - That's How... DJ Butter Remix Dina Rae - Daddy feat. Proof Eminem Proof - Freestyle Eminem - When The Music Stops feat. D12 Joey Zozza - Whirlwind feat. Proof Mr. Porter Lola Damone - Bounce Bounce Snippet feat. Proof Obie Trice - Unborn Soldiers feat. Proof Promatic - Bounce Bitch feat. Sicknotes Promatic - City Of Boom Promatic - Dirtiest Grimiest Promatic - Do What I Wanna Do Promatic - Ecstacy feat. Bizarre Promatic - Everyday Promatic - Feels Good feat. Big Kullaz Promatic - Got Yo Bitch feat. Lola Damone Promatic - Graduation feat. JUS Promatic - Interlude Promatic - Lesbian feat. Ghetto Child Promatic - Life feat. King Gordy Promatic - Long Road Promatic - Promatic Promatic - Serious Remix feat. Swifty McVay Eminem Promatic - Serious feat. Strike Promatic - Take No Shorts feat. Bakarak JUS Promatic - Tear This Bitch Up Original Promatic - Waffle House feat. JUS Promatic - Why Real Niggas Gotta Die Proof Philpot - Time Flies Proof - 1x1 feat. J-Hill Obie Trice Proof - Broken Original feat. Journalist 103 Mu Proof - Broken feat. Journalist 103 Mu Proof - Derty Harry Proof - Derty Promo Proof - Do You Snippet feat. J-Hill Proof - Dr. Darius Freestyle Proof - Ebonics Freestyle Proof - Freestyle Anger Management Proof - Freestyle Dirty World Proof - Freestyle Hip-Hop 70 Proof - Freestyle Invasion Proof - Freestyle Live At Butter's Crib Proof - Hitman 4 Hire Proof - I Don't Owe You feat. Helluva Proof - Interlude Proof - Intro Proof - Lil Tic Vs. B-Rabbit Proof - One Down Bust Shots Proof - One, Two feat. MC Breed Proof - Places I've Been feat. J-Hill Proof - RapIndustry.com Freestyle Proof - Ride Out feat. HNT Proof - Rob U N Da Club Snippet feat. 1st Born Proof - So Beautiful Proof - Streetflow Freestyle Proof - Time Passes Interlude Proof - Violence Proof - X-Fam feat. Marv Won, J-Hill Bareda Proof - Yzarc Proof, PMC Money Mogul - Stainless Raw Collection - We Here feat. Promatic Tech N9ne - She Devil feat. D12 The Relatives - A Real Woman feat. Eric Danell Proof Wesley Valentine - You Will Die Snippet feat. Proof White Boy Ric - No Announcement feat. Proof Paradime 2003 D12 D-Elite - Don't Try This At Home D12 - Commercial Break D12 - Doe Rae Me feat. Obie Trice D12 - I Ain't Trippin D12 - Keep Talkin' D12 - Kick The Door In D12 - My Life D12 - Ostrage Trot D12 - Swift Freestyle Dogmatic - Promatic feat. Proof Drunkenmaster - Freestyle feat. Proof Executive Board - This Will Offend U J-Hill - My Noccas feat. Proof J-Hill - Round 4 DJ Drop J-Hill - Round 5 Final Round J-Hill, Quest McCody Proof - Freestyle Outro Spit Ken Ring - Nothing feat. Swifty McVay Proof King Gordy - The Entity Obie Trice Proof - Detroit Obie Trice - Back To Back feat. Promatic Obie Trice - Outro feat. D12 Obie Trice - Spread Yo Shit feat. Mr. Porter Phat Kat Proof - Friday Night Cypher Picket Fence - Session 2 feat. Proof, Marv Won Supa Emcee Promatic - Come One Come All Promatic - Doce Doe feat. Bakarak Promatic - Grand Theft Auto feat. Kuniva J-Hill Original Promatic - NaNa Promatic - So High Original Promatic - The Kids Proof Purple Gang - Purple Gang Proof - And The Winner Is... Proof - Beef Is Ova feat. Purple Gang Proof - Cali Trip Proof - Cross Tha' Line Proof - Derty Promo Revisited Proof - Detroit Psycho Proof - Do Right feat. Baatin Proof - E.S.H.A.M Proof - Exclusive Clap Wit Me Original Proof - Exclusive Bonus Track Phat Kat Kiss Live Proof - Fall Back Proof - Freestyle Scratching Interlude Proof - Go Back Freestyle Proof - High! Proof - Illa Than Aids Patients Freestyle Proof - Interlude Proof - Intro Proof - Iron Fist Interlude feat. Dina Rae Proof - Iron Fist II Interlude Proof - Ja In A Bra Original Proof - Live Freestyle Proof - Many Men Remix Proof - Mom And Dad Proof - Motion Picture Let It Go feat. Dogmatic Proof - No Choice Proof - Old School Freestyle Proof - Pistol Pistol Freestyle Verse Proof - Saint Andrews Hall Freestyle Proof - Shake Dat Donkey Proof - Top Notch Proof, Big Dave Mu - Trife Niggas Quest McCody - Round 1 Accapella Quest McCody - Round 4 DJ Drop Quest McCody - Round 5 Final Round Madd Kapp, Thyme, Mudd, Dogmatic, Strike, Dirt Diggla, Lil Rucka, Proof, Obie Trice, Shim-E Bango, Undertaka, Wes Chill, King Gordy, Supa Emcee, Paradime P. Groove - Power Of The Underground Wesley Valentine - When We Ride feat. Proof 2004 Big Tigger - Rap City Freestyle feat. D12 D12 Stat Quo - 25 Minute Tim Westwood Freestyle D12 - 40 Oz Lil Jon Remix D12 - Auckland Live Freestyle D12 - 40 Oz D12 - BNU D12 - Barbershop D12 - Bitch D12 - Bizarre Skit D12 - D12 World D12 - Fuck Wit Us D12 - Get My Gun D12 - Good Die Young D12 - How Come D12 - How Come Extended D12 - Keep Talkin D12 - Let Me Spend This Money D12 - Lies Rumors D12 - Loyalty feat. Obie Trice D12 - My Band D12 - Slow Your Roll D12 - Tim Westwood Freestyle D12 - U R The One DJ Exclusive - B.N.U feat. D12 DJ Gori - Pong Freestyle feat. Proof DJ Jewels - The Last Song Pt. 2 feat. 87, Big Tone, Guilty Simpson, Journalist 103, Lo Louis, Remember, Mu, Proof Ty Farris Eminem Proof - I Like A Girl Freestyle Eminem Proof - Shade 45 Freestyle Eminem Proof- Got It Twisted Freestyle Guilty Simpson, Proof J-Hill - Guilty Simpson, Proof J-Hill Freestyle Kali Farm - My Manz feat. Proof Ken Ring - Vart E Du feat. Proof King Gordy - Momma feat. Proof Lola Damone - Bounce Bounce feat. Proof M-Duce - Get Dat Doe feat. Proof Menacide - All We Want Drugz Original feat. Proof McNastee Menacide - Drugz Rockwise Remix feat. Proof McNastee Menacide - Drugz feat. Proof McNastee Paradime - K.T.F.O. feat. Trick Trick, Proof Kuniva Proof Malaki - Wake Up Proof Mu - Exclusive Proof Swifty McVay - What People Do For Money Proof - Ain't No One Better Cuts by P-Dog Proof - Bring It 2 Me feat. Killa Kaunn Proof - By Myself Original feat. Mr. Porter Proof - By Myself feat. Mr. Porter Proof - Exclusive Freestyle Proof - In The Butter feat. Virginia Slim Proof - Interlude 1 Proof - Interlude 2 Proof - Intro Proof - Intro Luthaism Proof - It Ain't About Tha Proof - Ja In A Bra' P-Dog RMX Proof - Ja In Bra' Proof - Know Ya! Name feat. 1st Born Proof - Love Letters Proof - Neil Armstrong Proof - Nowhere Fast feat. Dogmatic Proof - Outro Proof - People Hi For Change Proof - Play With Myself Proof - Popov Freestyle Proof - Proof of D12 Proof - Proof of D12 DJ Red Interlude Proof - Rob U N Da Club feat. 1st Born, DU King Gordy Proof - Runnin' Yo Mouth feat. T-Flame Fatt Father Proof - Skit Dolo Speaks 2 'How A True Freak Supposed To Get Fucked And Bust Up' Proof - Tell Me Who's Fresh Outro Proof - The Boss Proof - The Negotiator Skit 1 Proof - The Negotiator Skit 2 Proof - The Negotiator Skit 3 Proof - Thought I Told You Proof - Welcome To The Pyrex Intro Proof - World Proof Proof - Y'all Gonna Make Me Get My Gun Proof - You Know How 2 feat. Famous Proof - You Know Who Did It Proof, T-Flame Supa Emcee - Shit Can Still Happen Purple Gang, Mountain Climbaz Proof - WHFR Dearbon Radio Freestyle Purple Gang Proof - Exclusive Purple Gang - Get Up Off Da Cash feat. Dina Rae Purple Gang - Purple Gang feat. Mu Mountain Climbaz Purple Gang - Slow Leak Intro Purple Gang - Toast Skit Purple Gang - Uzi Pop feat. Proof Purple Gang - Wot That Mean feat. Proof Strike - 4 Horsemen feat. Bizarre, Proof Royce Da 5'9 Supa Emcee Proof - Supa Emcee Vs. Proof T-Flame Famous - Big Proof of D12 Skit T-Flame, Banzi, Young Breed, Proof King Gordy - Run Up On Us Troy Garland - I Feel Good ft. Proof 2005 1st Dagree - Dial A Prayer feat. Proof Big Mook - Favorite Chick feat. Proof Ty Causey Big Mook - Hittum feat. Proof Biz - I'm Living Good feat. Proof Biz - The Movement feat. Tito 6, Proof Famous Bizarre - Nuthin' At All feat. D12 Brasco - Wildin' feat. Proof Wesley Valentine Chino XL - Our Time feat. Proof D12 - My Ballz D12 - Throw It Up EKO Fresh German Dream Allstars - Press Play feat. Proof Bizarre Figgkidd - Nuthin' Eva Worries Me feat. Proof Hæsta Hendin - Rautt Ljós Á Barnum feat. Proof Kasumi - About A Girl Remix feat. Proof Swifty McVay Killa Kaunn - Average Joe feat. Proof Killa Kaunn - Knock You Out feat. Purple Gang Killa Kaunn - Last Chance feat. 1st Born Supa Emcee Livio - Back 2 Reality feat. Proof Mr. Broham - 22's Candy feat. Proof, P. Money, Famous, Walk, Bone Man Philmo Pacman - Ningen No Shomei feat. Proof, Swifty McVay, 4WD U.S.Ke Proof - 72nd Central feat. J-Hill Obie Trice Proof - Album Launch Freestyle Proof - Ali feat. MC Breed Proof - Apollo G's Proof - Biboa's Theme Proof - Black Wrist Bro's feat. 1st Born Proof - Brick By Brick Proof - Can't Have A Moment Of Peace Proof - Clap Wit Me Proof - Commercial Break 1 Proof - Commerical Break 2 Proof - Define My Life Proof - Dream Killa Proof - Ease Up feat. Shock Wave Proof - Forgive Me feat. 50 Cent Proof - Gurls Wit Da Boom Proof - High Rollers feat. B-Real Method Man Proof - Hip-Hop Summit Documentary Freestyle Proof - HipHopBattle.com Detroit vs. New York Freestyle Proof - I Ain't Scared Oil Can Harry Untagged Proof - I.F Proof - J.F Proof - Jump Biatch Proof - Knice Proof - Kurt Kobain Proof - Live N Direct Proof - M.A.D. feat. Rude Jude Proof - My City Proof - My Dudey Proof - Next Morning Proof - No. T. Lose feat. King Gordy Proof - Nothing Proof - Oil Can Harry Proof - One, Two feat. MC Breed Purple Gang Proof - Ou, Ouuuuuuuuu Proof - Pimplikeness feat. D12 Proof - Pray For Me Proof - Proof For Mayor Intro Proof - Purple Gang Proof - Sammy Da Bull feat. Swifty McVay Nate Dogg Proof - Shade 45 Freestyle Proof - Slum Elementz feat. T3, Mudd Mr. Porter Proof - Smokenhagen Freestyle Interlude Proof - Sting Bling Proof - That's Wots Up feat. Mu Proof - Unreleased Bonus Track Proof - Waitin On Death Proof - When God Calls... Proof - Wots Up Purple Gang - Outro feat. Proof Purple Gang - Shade 45 Freestyle feat. Proof Purple Gang - What Should I Do feat. Proof Scarchild - Go Get Your Knife feat. Bizarre Supa Emcee - Average Flow feat. Killa Kaunn Proof Trick-Trick - No More To Say feat. Proof Eminem 2006 1st Dagree - Intro Al Nuke - I'ma Take It There feat. Big Dogg Proof Al Nuke - The Other Way feat. Dantana, Proof Big Dogg Araphat - Time B-Real - Lay U Flat feat. Proof Cop Heavy - Loose Wit Cannons D12 - Forgive Me Remix feat. 50 Cent DY - Str8 Gutta Darcey - Intro Esham - Detroit Stand Up Remix feat. Malik, Boss, Poe Whosaine, Big Herk, Al Nuke, Proof Hash - Talk It Over Headline - Take It Or Leave It feat. Proof Mr. Porter I.F. Soldiers - Times Up Intrinzik - Dead Or Alive Original Snippet feat. Proof Intrinzik - Dead Or Alive feat. Proof Intrinzik - My Favorite Song J-Hill - A.L. feat. Falonda Liv 'N Proof - Back 2 Reality Liv 'N Proof - 40 Oz. Remix feat. D12 Liv 'N Proof - Pray For Me Remix Liv 'N Proof - U R The One Remix feat. D12 Liv 'N Proof - Waitin' On Death Remix Liv 'N Proof - Wot's Up Remix Liv 'N Proof - Wreck Liv 'N Proof - You Know How 2 Remix McNastee - Drugz feat. Menacide Proof Moe Dirdee - Do Dat feat. Proof Proof Big Mook - Hittum Proof Chino XL - The Beats, The Rhymes Proof Royce Da 5'9 - Gurls Wit Da Boom Remix Proof Royce Da 5'9 - When I Was Young Proof - Addicted feat. D-Snipes Proof - Cap Session Proof - Comin' Up With Lent feat. Merciless Ameer Proof - Commerical Break Proof - DJ Booth Freestyle Proof - DJ Exclusive Freestyle Proof - Freestyling In Australia Proof - I Thought I Told You Proof - Interlude Proof RIP Proof - No Hoes Proof - One Way Or Another Proof - Respect feat. Hash K.B. Proof - Shout Out Proof - So Good Proof - Trapped Proof, Supa Emcee, Moe Dirdee Killa Kaunn - Stomp Proof, Young Breed T-Flame - Pass The Pussy Redrama - Move Back feat. Proof Slum Village Proof - Ez Up Remix Swifty McVay - Law Suit Woof Pac - 18 N Us Woof Pac - That's A Problem RMX feat. Proof Woof Pac - Wild Boys Anthem feat. Proof 2007 Bizarre - Spend The Night feat. Proof, DubMuzik Scarchild DJ Butter - Face In The Mirror feat. Proof Chino XL Dogmatic - Promatic Preview feat. Proof J-Hill Ken Ring - BB Intro feat. Proof Madd Kapp - Fork In The Road feat. Proof PG 13 Madd Kapp - Sneak Preview Power Of The Underground Original feat. Various Artists Menacide - Drugz Finale feat. B-Real Proof Merciless Ameer - Get This Paper feat. Proof Moe Dirdee - Drinkin' N Smokin' feat. HoStyle Proof Proof - 10 Acres Proof - Sincerely Proof feat. Big Dogg Twiztid - How I Live feat. Proof Woof Pac - Outro 2008 D12 - Freestyle On Foolish FM 98 D12 - If You Want It D12 - Suicide feat. Sindy Syringe D12 - Throw 'Em Up High D12 - Win Or Lose feat. King Gordy Dogmatic - Grand Theft Auto feat. Proof Kuniva Eko Fresh - D12 Original Freestyle feat. Proof Bizarre Figgkidd - Love And Understanding feat. Proof, Bishop Neho Foo - I Dare You feat. Lazarus Proof Intrinzik - Flow Is Timeless feat. Axe Murder Boyz, Liquid Assassin Proof Royce Da 5'9 - When I Was Young Unmastered feat. Proof Promatic - Doggs Promatic - Drugs Promatic - What's Up Proof - Behind the Music Proof - Crew Deep feat. J-Hill, The Young Truth, Cop Heavy Mudd Proof - Da Thong Song TnA Proof - Detroit Luv Proof - Diamond In The Ruff Proof - Do You feat. J-Hill Proof - Exclusive Mix 1 Proof - Exclusive Mix 2 Proof - Exclusive Mix 3 Proof - Exclusive Mix 4 Proof - Friends Ain't Really Friends Proof - I Love You Proof - Interlude 1 Proof - Interlude 1 Disc 2 Proof - Interlude 2 Proof - Interlude 3 Proof - Interlude 3 Disc 2 Proof - Interlude 4 Proof - Interlude 5 Proof - Interlude 5 Disc 2 Proof - Interlude 7 Proof - Interlude 8 Proof - Interlude 9 Disc 2 Proof - Intro Proof - Intro Disc 2 Proof - Long Road Proof - Old School Unreleased Proof - Priceless Freestyle Proof - Shady Proof - Space Odyssey Original Proof - Unknown Beat TV Snippet Proof - What U Say Proof - Why U Wanna Ras Kass - Ups Downs feat. Proof Terror Don - No Hoes feat. Proof Freddy Hatred Trick-Trick - 2getha 4 Eva!!! feat. Esham, Kid Rock Proof 2009 DJ Jewels - My Niggas feat. Killa Kaunn, D12 Mountain Climbaz Darkroom Familia - Words Of Prosperity Remix feat. Jason Porter Proof Proof - Uh Uh Alternate Snippet Spectecular - Parasites Mastered feat. Proof 2010 Funky Cowboys - Life Funky Cowboys - On The Go Keep It On The Low feat. Buddy Lee MC Breed - Focused feat. Proof Obie Trice Promatic - Doce Doe feat. Bakarak JUS Promatic - How To Do It Promatic - NaNa Promatic - So High feat. Guilty Simpson Proof - Addicted Alternate feat. Cop Heavy D-Snipes Proof - Back Where We Started feat. Mudd, Thyme, Rio Data Philpot Proof - Block Boys feat. C4 Joe Rizz Proof - Def 1 Def feat. Rio Data Proof - Esspionage Proof - Herman Keipher feat. HoStyle Proof - I Think Of You Proof - Iron Fist feat. Supa Emcee Proof - Jus' Fooling!! Proof - Living Proof feat. Taja Sevelle Proof - Pill Pop Proof - Private Dance feat. The Young Truth Tayaunna Proof - Verbal Spar feat. T-Flame, J. Kidd Moe Dirdee Proof - Whole New Beginning feat. Supa Emcee Proof - Yo Chick feat. Big Dogg Proof - You Heard Of Us feat. Killa Kaunn 1st Born 2011 Dogmatic - We Don't Like U feat. Proof Obie Trice Funky Cowboys - The Fizzo feat. T3 Hitbangaz - I Know You Love 'Em feat. Proof Kastro Tek-Neek - The Price U Pay With Proof Interlude feat. Proof Liquidsilva - Sick As They Come feat. Proof Mu - Broken Again feat. Journalist 103, Marv Won Proof Mu - Niggas Don't Want It feat. Marv Won Proof One Be Lo - Weapons feat. Apokalypse, Proof, Ron Dada Miz Korona Proof - Face In The Mirror feat. Chino XL Proof - Get High Snippet Proof - J. Dilla Tribute Proof - Leaked Track 2 Round Round Proof - Leaked Track 4 Proof - Leaked Track 5 Uh Uh Esham Diss Proof - Leaked Track 6 Crying Soul Supa Emcee - By Myself feat. Proof Mr. Porter Supa Emcee - We Do Dat feat. Killa Kaunn Proof 2012 Dogmatic - Beef feat. Proof K.B. FlossGenius - Vendetta feat. M.E. Proof Proof - It Was Me Ricky Rucker - Let Em Fly feat. Proof 2013 Proof - Exclusive Freestyle feat. Famo 2014 Proof - All My Life Swifty McVay - Lyrical Dedication Swifty McVay - Repercussions Freestyle 2015 D-Snipes, Proof Cop Heavy - The Pressure And The Pain Liquidsilva - Sick As They Come Remix feat. Proof 2016 Proof - The Pressure And The Pain Alternate 2017 5 Elementz - Clear Funky Cowboys - 1990 Basement Freestyle feat. T3 Proof - State Theatre Freestyle 2018 Funky Cowboys - Funky Cowboys feat. Buddy Lee Funky Cowboys - I Got You Stuck feat. Baby Phase Funky Cowboys - My Team Be Settin Niggas feat. Philpot, Bizarre, Mudd Baby Phase Funky Cowboys - What Part 1 Funky Cowboys - What!!! Pt. 2 Funky Cowboys - Whos That Bruce Lee Version Funky Cowboys - Yesterday Mourn feat. Mudd Proof - Unknown Snippet 2019 Joey B - Untitled Snippet feat. D12 MC Brainpower - Dangeous Man feat. D12 Menacide - Living Proof feat. Proof Proof - Finally The Real Niggas Than Got Together Proof - Switch Lanes With Me Shamarr DJ Truth - Wishing On A Star 2020 Bizarre - Spend The Night Untagged feat. Proof, DubMuzik Scarchild D12 - Bring Your Boys Alternate Snippet D12 - What's Beef? Snippet Da Ruckus - In The Air Snippet feat. Proof Proof Mr. Porter - 1998 Freestyle Battle Proof MsChief - Play Yo Postion! Snippet Proof - I Can Get You Snippet Proof - Unknown Snippet 1 Proof - Unknown Snippet 2 Unknown Artist - Man Hood feat. Proof 2021 Proof - Detroit's Finest Proof - Fuck Def Jam Supa Emcee Proof - ADD On Ration Supa Emcee Proof - Yoda Luke 2022 Killz AKA Killa Kaunn - 11pm Cool Azz Nighas Slum Village - 5 Ela Demo feat. 5 Elementz 2023 Proof - Say This Once And Never Again 2024 DJ Jewels - 04' Pick em Up Mess em Up feat. Big Tone, 87, Remember, Lo Louis, Guilty Simpson, Mu, Marv Won, Ty Farris, Proof Grindset - Just Won't Pop feat. Proof Proof - 1989 Mo Master Audition Proof - Freestyle Proof - Searching For Big Proof Freestyle Proof - Xylophone Freestyle Taja Sevelle - Living Proof feat. Proof1</t>
+          <t>Proof Full Discography List 1990 Bassmint Productions - Mic Check, One Two Bassmint Productions - Van Vs. Ham Bassmint Productions - We're Rockin' Babe Proof - First Recording Sessions 1 feat. Undertaka, K9, Lokee K-Dog Proof - First Recording Sessions 2 feat. Undertaka, K9, Lokee K-Dog 1991 Bassmint Productions - Artifical Flavor 1994 Wes Chill - Me My Niggas feat. Dog N Yard, Gangsta T., Jack Frost Proof 1995 DJ Head Funky Cowboys - Interlude 1 DJ Head Proof - Interlude 1 DJ Head Proof - Interlude 2 DJ Head Proof - Interlude 3 DJ Head Proof - Interlude 4 DJ Head Proof - Interlude 5 C.U.P. - Freestyle With Intro Funky Cowboys - Freestyle Funky Cowboys - Funky Latin Funky Cowboys - Vibe Session Part 1 Goon Sqwad - Good Lookin' Intro Roll Call Freestyle Mad Skillz - The Nod Factor With Outro Soul Intent - Fuckin' Backstabber The Alkaholiks - The Next Level Remix With Outro Proof Angie - Interlude Various Artists - ICP Riddle Box Release Party Freestyle 1996 5 Elementz - Feed Back 5 Elementz - Janet Jacme 5 Elementz - Searchin' 5 Elementz - Sun Flower Bombshell - Introduction Bombshell - What U Talkin' 'Bout? feat. Proof Bombshell - You Can't Hide feat. Proof Tha' Murda' City Black Jack DJ Head Proof - Interlude 1 DJ Head Proof - Interlude 2 DJ Head Proof - Interlude 3 DJ Head Proof - Interlude 4 DJ Head Proof - Interlude 5 Eminem - Backstabber Eminem - It's O.K. feat. Eye-Kyu Eminem - Jealousy Woes II Eminem - W.E.G.O Kuniva Eminem - Rondell Vs. Eminem Rap Battle Proof - Anywhere! Proof - Lois Lane Proof - Why? feat. Treece 1997 5 Elementz - Either Or D12 - Filthy Goon Sqwad - Everywhere We Go Remix feat. The Detroit All-Stars Parts Unknown - Dumpin' feat. D12 Poe Whosaine - No Doubt feat. Notorious Steve Young Proof Proof - Freestyle Classic Slum Village - 5 Ela Remix feat. 5 Elementz 1998 4 Fathers - Motor City Anthem 5 Elementz - 98 Neva' Seen 5 Elementz - Bumpin' Sumtin 5 Elementz - Crazze 5 Elementz - Don't Start None Won't Be None 5 Elementz - E.G.O 5 Elementz - Get Off My Live Basement 5 Elementz - Hip-Hop Don't Stop feat. Hip-Hop G's Moody 5 Elementz - Mo News 3 5 Elementz - Party Groove No Hook 5 Elementz - Response To Madness 5 Elementz - Rockshows 5 Elementz - Tha' Elementz 5 Elementz - Whutchawant 5 Elementz - World Premier DJ Jewels - What's Dup Love feat. Philpot Proof Funky Cowboys - Interlude Goon Sqwad - Who Behind Me PMC - PMC Radio PMC - PMC Radio II PMC - PMC Radio Outro PMC - S.W.A.T.Proof Freestyle feat. S.W.A.T. Proof Proof - Something Going On feat. Greg C. Brown Doria Conner 1999 5 Elementz - Tha Ela 5 Elementz - Ultra-Magnus 5E-2001 feat. DJ Jewels 5 Elementz - You Ain't Fresh D12 - We Live This Shit Eminem Proof - Stereo Car Freestyle Eminem Proof - Tim Westwood Freestyle 1 New York Show Eminem Proof - Tim Westwood Freestyle 2 4, 3, 2, 1 Hate Me Now Eminem Proof - Tim Westwood Freestyle 3 4, 3, 2, 1 Alternate Eminem Proof - Tim Westwood Freestyle 4 Pick It Up Hate Me Now Alternate Proof - Da Science Proof - Dirty Harry Proof - Interlude Proof - Who Frontin' feat. Mister X. Proof - Wuch U No Mix 2000 D12 Almighty Dreadnaughtz - Desperados D12 - 6 Reasons D12 - Activity As Phuctivity D12 - Art Of War D12 - Bring Our Boys D12 - Chance To Advance D12 - Cock, Aim, Squeeze D12 - Derelict Theme D12 - Fuck Battlin D12 - Get Back D12 - Proof Freestyle D12 - Shit On You Snippet Eminem Proof - Tim Westwood Freestyle Eminem - Just Rhymin' With Proof feat. Proof Eminem - Quitter feat. D12 Eminem - Under The Influence feat. D12 Mountain Climbaz - Hostile Takeover feat. Proof Proof Bugz - Act A Fool Proof - The Greatest Emcee Interlude Proof - Up In Smoke Freestyle Strike - Da Four Horsemen feat. Proof, Bizarre Royce Da 5'9 Wesley Valentine Proof - All Star Game 2001 4 Fathers - Da Four Fathers 4 Fathers - Game 4 Fathers - Speed Of Thought Big Tigger - Rap City Freestyle feat. D12 D12 - 40 Minute Tim Westwood Freestyle D12 - Ain't Nuttin' But Music D12 - Blow My Buzz D12 - Fight Music D12 - Freestyle D12 - Freestyle Whether Or Not D12 - Instigator D12 - International Press Freestyle D12 - Obie Trice Skit D12 - Pimp Like Me feat. Dina Rae D12 - Pistol Pistol D12 - Purple Pills D12 - Revelation D12 - Shit On You Rock Remix D12 - Take Me Up D12 - That's How... D12 - These Drugs Da Omen - Kool Wit Me feat. Proof DJ King David - Proof Interlude feat. Proof Gorillaz D12 - 911 Livio - Udontwantnun feat. Proof Bizarre Paradime - Proof Interlude Promatic - Four Drunks And A 2way Promatic - Tear This Bitch Up Promatic - Waffle House Original Promatic - We Don't Like U Snippet Promatic - Where The Bitches At feat. Redbone Proof Philpot - Would U Ride Proof - Intro Proof - Shootacha feat. Dogmatic Proof - Tim Westwood Freestyle Proof - Whutz Love Proof, Jack Frost Wes Chill - Now Or Never Ron Dada - Lyrical Weapons feat. Proof, One Be Lo Miz Korona T-Stuckey Proof - Whut Would Life Be 2002 Big Tigger - Rap City Freestyle feat. D12 Bizarre Promatic - Process Of Elimination Brooklyn, Joe Beast, The Game Proof - We Coming D12 - Freestyle D12 - Purple Pills Remix 1 D12 - Purple Pills Remix 2 D12 - Rap Game feat. 50 Cent D12 - That's How... DJ Butter Remix Dina Rae - Daddy feat. Proof Eminem Proof - Freestyle Eminem - When The Music Stops feat. D12 Joey Zozza - Whirlwind feat. Proof Mr. Porter Lola Damone - Bounce Bounce Snippet feat. Proof Obie Trice - Unborn Soldiers feat. Proof Promatic - Bounce Bitch feat. Sicknotes Promatic - City Of Boom Promatic - Dirtiest Grimiest Promatic - Do What I Wanna Do Promatic - Ecstacy feat. Bizarre Promatic - Everyday Promatic - Feels Good feat. Big Kullaz Promatic - Got Yo Bitch feat. Lola Damone Promatic - Graduation feat. JUS Promatic - Interlude Promatic - Lesbian feat. Ghetto Child Promatic - Life feat. King Gordy Promatic - Long Road Promatic - Promatic Promatic - Serious Remix feat. Swifty McVay Eminem Promatic - Serious feat. Strike Promatic - Take No Shorts feat. Bakarak JUS Promatic - Tear This Bitch Up Original Promatic - Waffle House feat. JUS Promatic - Why Real Niggas Gotta Die Proof Philpot - Time Flies Proof - 1x1 feat. J-Hill Obie Trice Proof - Broken Original feat. Journalist 103 Mu Proof - Broken feat. Journalist 103 Mu Proof - Derty Harry Proof - Derty Promo Proof - Do You Snippet feat. J-Hill Proof - Dr. Darius Freestyle Proof - Ebonics Freestyle Proof - Freestyle Anger Management Proof - Freestyle Dirty World Proof - Freestyle Hip-Hop 70 Proof - Freestyle Invasion Proof - Freestyle Live At Butter's Crib Proof - Hitman 4 Hire Proof - I Don't Owe You feat. Helluva Proof - Interlude Proof - Intro Proof - Lil Tic Vs. B-Rabbit Proof - One Down Bust Shots Proof - One, Two feat. MC Breed Proof - Places I've Been feat. J-Hill Proof - RapIndustry.com Freestyle Proof - Ride Out feat. HNT Proof - Rob U N Da Club Snippet feat. 1st Born Proof - So Beautiful Proof - Streetflow Freestyle Proof - Time Passes Interlude Proof - Violence Proof - X-Fam feat. Marv Won, J-Hill Bareda Proof - Yzarc Proof, PMC Money Mogul - Stainless Raw Collection - We Here feat. Promatic Tech N9ne - She Devil feat. D12 The Relatives - A Real Woman feat. Eric Danell Proof Wesley Valentine - You Will Die Snippet feat. Proof White Boy Ric - No Announcement feat. Proof Paradime 2003 D12 D-Elite - Don't Try This At Home D12 - Commercial Break D12 - Doe Rae Me feat. Obie Trice D12 - I Ain't Trippin D12 - Keep Talkin' D12 - Kick The Door In D12 - My Life D12 - Ostrage Trot D12 - Swift Freestyle Dogmatic - Promatic feat. Proof Drunkenmaster - Freestyle feat. Proof Executive Board - This Will Offend U J-Hill - My Noccas feat. Proof J-Hill - Round 4 DJ Drop J-Hill - Round 5 Final Round J-Hill, Quest McCody Proof - Freestyle Outro Spit Ken Ring - Nothing feat. Swifty McVay Proof King Gordy - The Entity Obie Trice Proof - Detroit Obie Trice - Back To Back feat. Promatic Obie Trice - Outro feat. D12 Obie Trice - Spread Yo Shit feat. Mr. Porter Phat Kat Proof - Friday Night Cypher Picket Fence - Session 2 feat. Proof, Marv Won Supa Emcee Promatic - Come One Come All Promatic - Doce Doe feat. Bakarak Promatic - Grand Theft Auto feat. Kuniva J-Hill Original Promatic - NaNa Promatic - So High Original Promatic - The Kids Proof Purple Gang - Purple Gang Proof - And The Winner Is... Proof - Beef Is Ova feat. Purple Gang Proof - Cali Trip Proof - Cross Tha' Line Proof - Derty Promo Revisited Proof - Detroit Psycho Proof - Do Right feat. Baatin Proof - E.S.H.A.M Proof - Exclusive Clap Wit Me Original Proof - Exclusive Bonus Track Phat Kat Kiss Live Proof - Fall Back Proof - Freestyle Scratching Interlude Proof - Go Back Freestyle Proof - High! Proof - Illa Than Aids Patients Freestyle Proof - Interlude Proof - Intro Proof - Iron Fist Interlude feat. Dina Rae Proof - Iron Fist II Interlude Proof - Ja In A Bra Original Proof - Live Freestyle Proof - Many Men Remix Proof - Mom And Dad Proof - Motion Picture Let It Go feat. Dogmatic Proof - No Choice Proof - Old School Freestyle Proof - Pistol Pistol Freestyle Verse Proof - Saint Andrews Hall Freestyle Proof - Shake Dat Donkey Proof - Top Notch Proof, Big Dave Mu - Trife Niggas Quest McCody - Round 1 Accapella Quest McCody - Round 4 DJ Drop Quest McCody - Round 5 Final Round Madd Kapp, Thyme, Mudd, Dogmatic, Strike, Dirt Diggla, Lil Rucka, Proof, Obie Trice, Shim-E Bango, Undertaka, Wes Chill, King Gordy, Supa Emcee, Paradime P. Groove - Power Of The Underground Wesley Valentine - When We Ride feat. Proof 2004 Big Tigger - Rap City Freestyle feat. D12 D12 Stat Quo - 25 Minute Tim Westwood Freestyle D12 - 40 Oz Lil Jon Remix D12 - Auckland Live Freestyle D12 - 40 Oz D12 - BNU D12 - Barbershop D12 - Bitch D12 - Bizarre Skit D12 - D12 World D12 - Fuck Wit Us D12 - Get My Gun D12 - Good Die Young D12 - How Come D12 - How Come Extended D12 - Keep Talkin D12 - Let Me Spend This Money D12 - Lies Rumors D12 - Loyalty feat. Obie Trice D12 - My Band D12 - Slow Your Roll D12 - Tim Westwood Freestyle D12 - U R The One DJ Exclusive - B.N.U feat. D12 DJ Gori - Pong Freestyle feat. Proof DJ Jewels - The Last Song Pt. 2 feat. 87, Big Tone, Guilty Simpson, Journalist 103, Lo Louis, Remember, Mu, Proof Ty Farris Eminem Proof - I Like A Girl Freestyle Eminem Proof - Shade 45 Freestyle Eminem Proof- Got It Twisted Freestyle Guilty Simpson, Proof J-Hill - Guilty Simpson, Proof J-Hill Freestyle Kali Farm - My Manz feat. Proof Ken Ring - Vart E Du feat. Proof King Gordy - Momma feat. Proof Lola Damone - Bounce Bounce feat. Proof M-Duce - Get Dat Doe feat. Proof Menacide - All We Want Drugz Original feat. Proof McNastee Menacide - Drugz Rockwise Remix feat. Proof McNastee Menacide - Drugz feat. Proof McNastee Paradime - K.T.F.O. feat. Trick Trick, Proof Kuniva Proof Malaki - Wake Up Proof Mu - Exclusive Proof Swifty McVay - What People Do For Money Proof - Ain't No One Better Cuts by P-Dog Proof - Bring It 2 Me feat. Killa Kaunn Proof - By Myself Original feat. Mr. Porter Proof - By Myself feat. Mr. Porter Proof - Exclusive Freestyle Proof - In The Butter feat. Virginia Slim Proof - Interlude 1 Proof - Interlude 2 Proof - Intro Proof - Intro Luthaism Proof - It Ain't About Tha Proof - Ja In A Bra' P-Dog RMX Proof - Ja In Bra' Proof - Know Ya! Name feat. 1st Born Proof - Love Letters Proof - Neil Armstrong Proof - Nowhere Fast feat. Dogmatic Proof - Outro Proof - People Hi For Change Proof - Play With Myself Proof - Popov Freestyle Proof - Proof of D12 Proof - Proof of D12 DJ Red Interlude Proof - Rob U N Da Club feat. 1st Born, DU King Gordy Proof - Runnin' Yo Mouth feat. T-Flame Fatt Father Proof - Skit Dolo Speaks 2 'How A True Freak Supposed To Get Fucked And Bust Up' Proof - Tell Me Who's Fresh Outro Proof - The Boss Proof - The Negotiator Skit 1 Proof - The Negotiator Skit 2 Proof - The Negotiator Skit 3 Proof - Thought I Told You Proof - Welcome To The Pyrex Intro Proof - World Proof Proof - Y'all Gonna Make Me Get My Gun Proof - You Know How 2 feat. Famous Proof - You Know Who Did It Proof, T-Flame Supa Emcee - Shit Can Still Happen Purple Gang, Mountain Climbaz Proof - WHFR Dearbon Radio Freestyle Purple Gang Proof - Exclusive Purple Gang - Get Up Off Da Cash feat. Dina Rae Purple Gang - Purple Gang feat. Mu Mountain Climbaz Purple Gang - Slow Leak Intro Purple Gang - Toast Skit Purple Gang - Uzi Pop feat. Proof Purple Gang - Wot That Mean feat. Proof Strike - 4 Horsemen feat. Bizarre, Proof Royce Da 5'9 Supa Emcee Proof - Supa Emcee Vs. Proof T-Flame Famous - Big Proof of D12 Skit T-Flame, Banzi, Young Breed, Proof King Gordy - Run Up On Us Troy Garland - I Feel Good ft. Proof 2005 1st Dagree - Dial A Prayer feat. Proof Big Mook - Favorite Chick feat. Proof Ty Causey Big Mook - Hittum feat. Proof Biz - I'm Living Good feat. Proof Biz - The Movement feat. Tito 6, Proof Famous Bizarre - Nuthin' At All feat. D12 Brasco - Wildin' feat. Proof Wesley Valentine Chino XL - Our Time feat. Proof D12 - My Ballz D12 - Throw It Up EKO Fresh German Dream Allstars - Press Play feat. Proof Bizarre Figgkidd - Nuthin' Eva Worries Me feat. Proof Hæsta Hendin - Rautt Ljós Á Barnum feat. Proof Kasumi - About A Girl Remix feat. Proof Swifty McVay Killa Kaunn - Average Joe feat. Proof Killa Kaunn - Knock You Out feat. Purple Gang Killa Kaunn - Last Chance feat. 1st Born Supa Emcee Livio - Back 2 Reality feat. Proof Mr. Broham - 22's Candy feat. Proof, P. Money, Famous, Walk, Bone Man Philmo Pacman - Ningen No Shomei feat. Proof, Swifty McVay, 4WD U.S.Ke Proof - 72nd Central feat. J-Hill Obie Trice Proof - Album Launch Freestyle Proof - Ali feat. MC Breed Proof - Apollo G's Proof - Biboa's Theme Proof - Black Wrist Bro's feat. 1st Born Proof - Brick By Brick Proof - Can't Have A Moment Of Peace Proof - Clap Wit Me Proof - Commercial Break 1 Proof - Commerical Break 2 Proof - Define My Life Proof - Dream Killa Proof - Ease Up feat. Shock Wave Proof - Forgive Me feat. 50 Cent Proof - Gurls Wit Da Boom Proof - High Rollers feat. B-Real Method Man Proof - Hip-Hop Summit Documentary Freestyle Proof - HipHopBattle.com Detroit vs. New York Freestyle Proof - I Ain't Scared Oil Can Harry Untagged Proof - I.F Proof - J.F Proof - Jump Biatch Proof - Knice Proof - Kurt Kobain Proof - Live N Direct Proof - M.A.D. feat. Rude Jude Proof - My City Proof - My Dudey Proof - Next Morning Proof - No. T. Lose feat. King Gordy Proof - Nothing Proof - Oil Can Harry Proof - One, Two feat. MC Breed Purple Gang Proof - Ou, Ouuuuuuuuu Proof - Pimplikeness feat. D12 Proof - Pray For Me Proof - Proof For Mayor Intro Proof - Purple Gang Proof - Sammy Da Bull feat. Swifty McVay Nate Dogg Proof - Shade 45 Freestyle Proof - Slum Elementz feat. T3, Mudd Mr. Porter Proof - Smokenhagen Freestyle Interlude Proof - Sting Bling Proof - That's Wots Up feat. Mu Proof - Unreleased Bonus Track Proof - Waitin On Death Proof - When God Calls... Proof - Wots Up Purple Gang - Outro feat. Proof Purple Gang - Shade 45 Freestyle feat. Proof Purple Gang - What Should I Do feat. Proof Scarchild - Go Get Your Knife feat. Bizarre Supa Emcee - Average Flow feat. Killa Kaunn Proof Trick-Trick - No More To Say feat. Proof Eminem 2006 1st Dagree - Intro Al Nuke - I'ma Take It There feat. Big Dogg Proof Al Nuke - The Other Way feat. Dantana, Proof Big Dogg Araphat - Time B-Real - Lay U Flat feat. Proof Cop Heavy - Loose Wit Cannons D12 - Forgive Me Remix feat. 50 Cent DY - Str8 Gutta Darcey - Intro Esham - Detroit Stand Up Remix feat. Malik, Boss, Poe Whosaine, Big Herk, Al Nuke, Proof Hash - Talk It Over Headline - Take It Or Leave It feat. Proof Mr. Porter I.F. Soldiers - Times Up Intrinzik - Dead Or Alive Original Snippet feat. Proof Intrinzik - Dead Or Alive feat. Proof Intrinzik - My Favorite Song J-Hill - A.L. feat. Falonda Liv 'N Proof - Back 2 Reality Liv 'N Proof - 40 Oz. Remix feat. D12 Liv 'N Proof - Pray For Me Remix Liv 'N Proof - U R The One Remix feat. D12 Liv 'N Proof - Waitin' On Death Remix Liv 'N Proof - Wot's Up Remix Liv 'N Proof - Wreck Liv 'N Proof - You Know How 2 Remix McNastee - Drugz feat. Menacide Proof Moe Dirdee - Do Dat feat. Proof Proof Big Mook - Hittum Proof Chino XL - The Beats, The Rhymes Proof Royce Da 5'9 - Gurls Wit Da Boom Remix Proof Royce Da 5'9 - When I Was Young Proof - Addicted feat. D-Snipes Proof - Cap Session Proof - Comin' Up With Lent feat. Merciless Ameer Proof - Commerical Break Proof - DJ Booth Freestyle Proof - DJ Exclusive Freestyle Proof - Freestyling In Australia Proof - I Thought I Told You Proof - Interlude Proof RIP Proof - No Hoes Proof - One Way Or Another Proof - Respect feat. Hash K.B. Proof - Shout Out Proof - So Good Proof - Trapped Proof, Supa Emcee, Moe Dirdee Killa Kaunn - Stomp Proof, Young Breed T-Flame - Pass The Pussy Redrama - Move Back feat. Proof Slum Village Proof - Ez Up Remix Swifty McVay - Law Suit Woof Pac - 18 N Us Woof Pac - That's A Problem RMX feat. Proof Woof Pac - Wild Boys Anthem feat. Proof 2007 Bizarre - Spend The Night feat. Proof, DubMuzik Scarchild DJ Butter - Face In The Mirror feat. Proof Chino XL Dogmatic - Promatic Preview feat. Proof J-Hill Ken Ring - BB Intro feat. Proof Madd Kapp - Fork In The Road feat. Proof PG 13 Madd Kapp - Sneak Preview Power Of The Underground Original feat. Various Artists Menacide - Drugz Finale feat. B-Real Proof Merciless Ameer - Get This Paper feat. Proof Moe Dirdee - Drinkin' N Smokin' feat. HoStyle Proof Proof - 10 Acres Proof - Sincerely Proof feat. Big Dogg Twiztid - How I Live feat. Proof Woof Pac - Outro 2008 D12 - Freestyle On Foolish FM 98 D12 - If You Want It D12 - Suicide feat. Sindy Syringe D12 - Throw 'Em Up High D12 - Win Or Lose feat. King Gordy Dogmatic - Grand Theft Auto feat. Proof Kuniva Eko Fresh - D12 Original Freestyle feat. Proof Bizarre Figgkidd - Love And Understanding feat. Proof, Bishop Neho Foo - I Dare You feat. Lazarus Proof Intrinzik - Flow Is Timeless feat. Axe Murder Boyz, Liquid Assassin Proof Royce Da 5'9 - When I Was Young Unmastered feat. Proof Promatic - Doggs Promatic - Drugs Promatic - What's Up Proof - Behind the Music Proof - Crew Deep feat. J-Hill, The Young Truth, Cop Heavy Mudd Proof - Da Thong Song TnA Proof - Detroit Luv Proof - Diamond In The Ruff Proof - Do You feat. J-Hill Proof - Exclusive Mix 1 Proof - Exclusive Mix 2 Proof - Exclusive Mix 3 Proof - Exclusive Mix 4 Proof - Friends Ain't Really Friends Proof - I Love You Proof - Interlude 1 Proof - Interlude 1 Disc 2 Proof - Interlude 2 Proof - Interlude 3 Proof - Interlude 3 Disc 2 Proof - Interlude 4 Proof - Interlude 5 Proof - Interlude 5 Disc 2 Proof - Interlude 7 Proof - Interlude 8 Proof - Interlude 9 Disc 2 Proof - Intro Proof - Intro Disc 2 Proof - Long Road Proof - Old School Unreleased Proof - Priceless Freestyle Proof - Shady Proof - Space Odyssey Original Proof - Unknown Beat TV Snippet Proof - What U Say Proof - Why U Wanna Ras Kass - Ups Downs feat. Proof Terror Don - No Hoes feat. Proof Freddy Hatred Trick-Trick - 2getha 4 Eva!!! feat. Esham, Kid Rock Proof 2009 DJ Jewels - My Niggas feat. Killa Kaunn, D12 Mountain Climbaz Darkroom Familia - Words Of Prosperity Remix feat. Jason Porter Proof Proof - Uh Uh Alternate Snippet Spectecular - Parasites Mastered feat. Proof 2010 Funky Cowboys - Life Funky Cowboys - On The Go Keep It On The Low feat. Buddy Lee MC Breed - Focused feat. Proof Obie Trice Promatic - Doce Doe feat. Bakarak JUS Promatic - How To Do It Promatic - NaNa Promatic - So High feat. Guilty Simpson Proof - Addicted Alternate feat. Cop Heavy D-Snipes Proof - Back Where We Started feat. Mudd, Thyme, Rio Data Philpot Proof - Block Boys feat. C4 Joe Rizz Proof - Def 1 Def feat. Rio Data Proof - Esspionage Proof - Herman Keipher feat. HoStyle Proof - I Think Of You Proof - Iron Fist feat. Supa Emcee Proof - Jus' Fooling!! Proof - Living Proof feat. Taja Sevelle Proof - Pill Pop Proof - Private Dance feat. The Young Truth Tayaunna Proof - Verbal Spar feat. T-Flame, J. Kidd Moe Dirdee Proof - Whole New Beginning feat. Supa Emcee Proof - Yo Chick feat. Big Dogg Proof - You Heard Of Us feat. Killa Kaunn 1st Born 2011 Dogmatic - We Don't Like U feat. Proof Obie Trice Funky Cowboys - The Fizzo feat. T3 Hitbangaz - I Know You Love 'Em feat. Proof Kastro Tek-Neek - The Price U Pay With Proof Interlude feat. Proof Liquidsilva - Sick As They Come feat. Proof Mu - Broken Again feat. Journalist 103, Marv Won Proof Mu - Niggas Don't Want It feat. Marv Won Proof One Be Lo - Weapons feat. Apokalypse, Proof, Ron Dada Miz Korona Proof - Face In The Mirror feat. Chino XL Proof - Get High Snippet Proof - J. Dilla Tribute Proof - Leaked Track 2 Round Round Proof - Leaked Track 4 Proof - Leaked Track 5 Uh Uh Esham Diss Proof - Leaked Track 6 Crying Soul Supa Emcee - By Myself feat. Proof Mr. Porter Supa Emcee - We Do Dat feat. Killa Kaunn Proof 2012 Dogmatic - Beef feat. Proof K.B. FlossGenius - Vendetta feat. M.E. Proof Proof - It Was Me Ricky Rucker - Let Em Fly feat. Proof 2013 Proof - Exclusive Freestyle feat. Famo 2014 Proof - All My Life Swifty McVay - Lyrical Dedication Swifty McVay - Repercussions Freestyle 2015 D-Snipes, Proof Cop Heavy - The Pressure And The Pain Liquidsilva - Sick As They Come Remix feat. Proof 2016 Proof - The Pressure And The Pain Alternate 2017 5 Elementz - Clear Funky Cowboys - 1990 Basement Freestyle feat. T3 Proof - State Theatre Freestyle 2018 Funky Cowboys - Funky Cowboys feat. Buddy Lee Funky Cowboys - I Got You Stuck feat. Baby Phase Funky Cowboys - My Team Be Settin Niggas feat. Philpot, Bizarre, Mudd Baby Phase Funky Cowboys - What Part 1 Funky Cowboys - What!!! Pt. 2 Funky Cowboys - Whos That Bruce Lee Version Funky Cowboys - Yesterday Mourn feat. Mudd Proof - Unknown Snippet 2019 Joey B - Untitled Snippet feat. D12 MC Brainpower - Dangeous Man feat. D12 Menacide - Living Proof feat. Proof Proof - Finally The Real Niggas Than Got Together Proof - Switch Lanes With Me Shamarr DJ Truth - Wishing On A Star 2020 Bizarre - Spend The Night Untagged feat. Proof, DubMuzik Scarchild D12 - Bring Your Boys Alternate Snippet D12 - What's Beef? Snippet Da Ruckus - In The Air Snippet feat. Proof Proof Mr. Porter - 1998 Freestyle Battle Proof MsChief - Play Yo Postion! Snippet Proof - I Can Get You Snippet Proof - Unknown Snippet 1 Proof - Unknown Snippet 2 Unknown Artist - Man Hood feat. Proof 2021 Proof - Detroit's Finest Proof - Fuck Def Jam Supa Emcee Proof - ADD On Ration Supa Emcee Proof - Yoda Luke 2022 Killz AKA Killa Kaunn - 11pm Cool Azz Nighas Slum Village - 5 Ela Demo feat. 5 Elementz 2023 Proof - Say This Once And Never Again 2024 DJ Jewels - 04' Pick em Up Mess em Up feat. Big Tone, 87, Remember, Lo Louis, Guilty Simpson, Mu, Marv Won, Ty Farris, Proof Grindset - Just Won't Pop feat. Proof Proof - 1989 Mo Master Audition Proof - Freestyle Proof - Searching For Big Proof Freestyle Proof - Xylophone Freestyle Taja Sevelle - Living Proof feat. Proof1</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok You might also likeOras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
+          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok Oras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ah Umursamazlna düen meteor Rap Yeah Dilein tam aksine çkan icraat demode Ah Biz bir avuç yalann ressamlarna insan Goethe Serseri aklarn hüsran dura Son model arabalar, para ve mutluluktan olutur bir Tetris Ey Altn fanustan dünya mavi, bo tabakta renksiz Ey Bir anlamda Matrix, hedeflere varamadan eksil Ha! Ynla baka parça birleip fazladan eksilt Pu pu pu! Onlarca gelecek hayalinden birini seç ve yapama Yalan hiper-reel resim ve peynir yok ki fare kapana ehir dütü, kral mazi, karanlk güçlerin buralar Ah Kurtulmann eiindeyken bile lein düer burada Masum yok, hep suçlu var, mermileri tetikler tercüman Zeytin dalnda umutsuz tüm güvercinler uçtular Bir kurban seç ve suçlu kal, gururlu cannn borcuna Bo ömrünün en vahim anndasn artk hayatn felç u an Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar You might also likeBir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Naho bi' kent, varo bi' rapçi, bo bir ev Yana temkinli, etkilen, bin farkl renk, büyümek için sulak yer Kaç uyak saydn dilimden? Düün, hatr için kulak ver Ha? Çocuk uyan! O saygdeer abiler hayatlarnz silerler Üstüne basp geçerler, sen bakasn der, seçerler Riyakâr suratlarndan yalnz sahtelik geçerken stemezsin uzak olsun senin sefalet gecende Sana sabah unuttursun garip anan reçelle Yeah syana tek bir insan deil binlerce ömür deer Esir almak filan yok, ölümlerden ölüm been Bu topran fidanysan hiç minnet duyma kahpeye Ah Sen can deil, nakitsin, sistem brakmtr vadeye Anla! Anla! Dütükçe artar zamanla Zamanla Küfürler, ziyânlar, suçun insan olmak Soru sorma! Ya esaretten mutluyuz milletçe ya da kafanda ciddi bir sorun var Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar1</t>
+          <t>Ah Umursamazlna düen meteor Rap Yeah Dilein tam aksine çkan icraat demode Ah Biz bir avuç yalann ressamlarna insan Goethe Serseri aklarn hüsran dura Son model arabalar, para ve mutluluktan olutur bir Tetris Ey Altn fanustan dünya mavi, bo tabakta renksiz Ey Bir anlamda Matrix, hedeflere varamadan eksil Ha! Ynla baka parça birleip fazladan eksilt Pu pu pu! Onlarca gelecek hayalinden birini seç ve yapama Yalan hiper-reel resim ve peynir yok ki fare kapana ehir dütü, kral mazi, karanlk güçlerin buralar Ah Kurtulmann eiindeyken bile lein düer burada Masum yok, hep suçlu var, mermileri tetikler tercüman Zeytin dalnda umutsuz tüm güvercinler uçtular Bir kurban seç ve suçlu kal, gururlu cannn borcuna Bo ömrünün en vahim anndasn artk hayatn felç u an Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Naho bi' kent, varo bi' rapçi, bo bir ev Yana temkinli, etkilen, bin farkl renk, büyümek için sulak yer Kaç uyak saydn dilimden? Düün, hatr için kulak ver Ha? Çocuk uyan! O saygdeer abiler hayatlarnz silerler Üstüne basp geçerler, sen bakasn der, seçerler Riyakâr suratlarndan yalnz sahtelik geçerken stemezsin uzak olsun senin sefalet gecende Sana sabah unuttursun garip anan reçelle Yeah syana tek bir insan deil binlerce ömür deer Esir almak filan yok, ölümlerden ölüm been Bu topran fidanysan hiç minnet duyma kahpeye Ah Sen can deil, nakitsin, sistem brakmtr vadeye Anla! Anla! Dütükçe artar zamanla Zamanla Küfürler, ziyânlar, suçun insan olmak Soru sorma! Ya esaretten mutluyuz milletçe ya da kafanda ciddi bir sorun var Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar1</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Yaza yaza getiririz hürriyeti, rahat ol Yediririm seviyesiz cüretini, kaybol Bu takm banko yaz Hip-Hop'un içine sçan heriflerin içini açaca'm, bu art oldu Brak, o jargon senin deil Mahallelere inemez hiçbiri En fazla balkonda sigara tellendirir keyif pezevengi Puh! Popüler diye görün zengin Hah Gucci mucci, Prada ve amck aznz Uyuturucu batana sapl aklnz Hehehe! Sanat sepet deme bana, yetti lan! Yoz bi' nesli var etti hepsi, bak! imdi bana gerici diyecek torbaclar Bizim mahallede gezemez o torbaclar Çünkü Ata'mn izinde uyuan bir gençlik deil Salam kafa olmal ya! Ya! Motherfucker digga, Santi, Boss Lig Kalk çiroz, yataa yat, bu tayfa zombi Ati tarzn çok pis, çavolarda yok pipi Bu King Kong deil diggi, bi' bomba, yok pimi Bi' tozla kompleniz dumana boul Makina dolu veremem poz, piyasa menopoz Brr! Çocuksan eve ko amck, atama post PMC sana boss Skrra! Tweet at Yabba-dabba doo! Buras digga baba crew Ah ey Deme bana Dur! Hevesim kaçana dek tur atarm Sana bu nasihat oul Ey Babas yapyo' flow'u Ey Yol al amna koduum, ko'dum karna çocuu Alr popodan soluu, bulur godaman yolunu Burun kokoman sorunu, kuruntularna sokaym Kurul, kurulma da demem Kurulmana yarat neden Digga haber yolla hemen You might also like Belimde silah, srtmda çanta pini koparan geliyo' kafamza aydan Siktiiminin parasn yanmda sayma Ghetto'mda yerin yok, yataca'n bagajma Kafanda mermiyle cesedin bayat Gidip edece'm tayfan sakat Kaç saklan ya da karakola sn Amna koduum beni de yok tandn Klibinde çete ii, evinde homo Benim tayfam stanbul'a dinamo Yürü diyo' bana Carlito Yolu Kim durdurabilir kafamdaki doruyu? Gökyüzü bugün bizim için kararyo' Hep Duisburg duvarndan dirilen Rap Kara kafa kanak homie AK-47 sokama melodi AK-47 sokama melodi, AK-47 sokama melodi Belki ben aklna gelen ilk rapçi deilim Ama manitan yerinden oynatr sex appeal'im Beni tanmadn, yllarca önemsemediydin Ama imdi karndaym, n'apca'n, söyle bana yiidim Ben altm hayatn Almanca'sna Her gün kramp girdi yazmaktan parmaklarma Seni bi' yumrukla gönderiyorum taaklarna babann Yaarm böyle afam atmazcasna Göüs gerdim sistemin paral yavaklarna Göüs gerdim kel kafal dazlaklarna Homie, dik durdum, kick vurdum, beat buldum, yazdm Ben bu kadarm. Sen ne yaptn? Anlatsana! Ha? Diskotekte çözülüyordun kaltaklara Ben ise dövüüyordum sokaklarda kanlar akana kadar Bana rakip deilsin moruk, çay koy ve yaylan Defkhan, Boss Lig, Eye of the Tiger Defkhan, Boss Lig, Eye of the Tiger, Defkhan, Boss Lig, Eye of the Tiger Tabutunun kapa tek, mezarda cannabis'le Huduni bi' sakz çine Vck bi' vakasn lan, her eyi arak ibne Tipik bir devinimde umumi bi' kelebeksin at sikinde Yalamalanma! Narsistlik akar iyice Paçandan definitely, n'apaca'n lan klon ite Huduni sakar- Rap, popüler bi' flow ite Harabe junkies, woo fuck it! zindeydi zinde zombi Yeniden dönüyo' ringe Marsiano gibi Dinle, dimdik horny, gelgitim, peki inanma Gerginim ve silahl gerzein teki, Rap'im deliler gibi stil hâlâ Boss Lig Hava koullar deil sert olan rüzgâr gibi dönüyorum boluun içinde Boss Lig sorry, partinizi bölüyorum vuh! Size Eddy Murphy gibi gülüyorum Bi' kartnn içindeyim. nsan için neyim? Soko Türkçe Rap bilei Hmm Richie Rich'i deil Hrrr Etraf vzr vzrken ben bar diley'im Çünkü elime kondu diye asla öldürmem sinei Sava iim deil En iyi insandan deerlidir sokak köpei Hip-Hop Per Metro Quadrato lle teke tek istiyo'san okay'im Benim derdim hayatla bebeim Senle ayn safta olmak m? Gözünü seveyim! Huy hâline getirdiniz özür dilemeyi u geldiiniz duruma üzülmedim deil nsanlar da yazar, basar tekmeyi Bölümeyi örenin az'ck ekmei Rap magazin oldu kavga, gürültü Siz aç kalmayn diye su bast tekneyi</t>
+          <t>Yaza yaza getiririz hürriyeti, rahat ol Yediririm seviyesiz cüretini, kaybol Bu takm banko yaz Hip-Hop'un içine sçan heriflerin içini açaca'm, bu art oldu Brak, o jargon senin deil Mahallelere inemez hiçbiri En fazla balkonda sigara tellendirir keyif pezevengi Puh! Popüler diye görün zengin Hah Gucci mucci, Prada ve amck aznz Uyuturucu batana sapl aklnz Hehehe! Sanat sepet deme bana, yetti lan! Yoz bi' nesli var etti hepsi, bak! imdi bana gerici diyecek torbaclar Bizim mahallede gezemez o torbaclar Çünkü Ata'mn izinde uyuan bir gençlik deil Salam kafa olmal ya! Ya! Motherfucker digga, Santi, Boss Lig Kalk çiroz, yataa yat, bu tayfa zombi Ati tarzn çok pis, çavolarda yok pipi Bu King Kong deil diggi, bi' bomba, yok pimi Bi' tozla kompleniz dumana boul Makina dolu veremem poz, piyasa menopoz Brr! Çocuksan eve ko amck, atama post PMC sana boss Skrra! Tweet at Yabba-dabba doo! Buras digga baba crew Ah ey Deme bana Dur! Hevesim kaçana dek tur atarm Sana bu nasihat oul Ey Babas yapyo' flow'u Ey Yol al amna koduum, ko'dum karna çocuu Alr popodan soluu, bulur godaman yolunu Burun kokoman sorunu, kuruntularna sokaym Kurul, kurulma da demem Kurulmana yarat neden Digga haber yolla hemen Belimde silah, srtmda çanta pini koparan geliyo' kafamza aydan Siktiiminin parasn yanmda sayma Ghetto'mda yerin yok, yataca'n bagajma Kafanda mermiyle cesedin bayat Gidip edece'm tayfan sakat Kaç saklan ya da karakola sn Amna koduum beni de yok tandn Klibinde çete ii, evinde homo Benim tayfam stanbul'a dinamo Yürü diyo' bana Carlito Yolu Kim durdurabilir kafamdaki doruyu? Gökyüzü bugün bizim için kararyo' Hep Duisburg duvarndan dirilen Rap Kara kafa kanak homie AK-47 sokama melodi AK-47 sokama melodi, AK-47 sokama melodi Belki ben aklna gelen ilk rapçi deilim Ama manitan yerinden oynatr sex appeal'im Beni tanmadn, yllarca önemsemediydin Ama imdi karndaym, n'apca'n, söyle bana yiidim Ben altm hayatn Almanca'sna Her gün kramp girdi yazmaktan parmaklarma Seni bi' yumrukla gönderiyorum taaklarna babann Yaarm böyle afam atmazcasna Göüs gerdim sistemin paral yavaklarna Göüs gerdim kel kafal dazlaklarna Homie, dik durdum, kick vurdum, beat buldum, yazdm Ben bu kadarm. Sen ne yaptn? Anlatsana! Ha? Diskotekte çözülüyordun kaltaklara Ben ise dövüüyordum sokaklarda kanlar akana kadar Bana rakip deilsin moruk, çay koy ve yaylan Defkhan, Boss Lig, Eye of the Tiger Defkhan, Boss Lig, Eye of the Tiger, Defkhan, Boss Lig, Eye of the Tiger Tabutunun kapa tek, mezarda cannabis'le Huduni bi' sakz çine Vck bi' vakasn lan, her eyi arak ibne Tipik bir devinimde umumi bi' kelebeksin at sikinde Yalamalanma! Narsistlik akar iyice Paçandan definitely, n'apaca'n lan klon ite Huduni sakar- Rap, popüler bi' flow ite Harabe junkies, woo fuck it! zindeydi zinde zombi Yeniden dönüyo' ringe Marsiano gibi Dinle, dimdik horny, gelgitim, peki inanma Gerginim ve silahl gerzein teki, Rap'im deliler gibi stil hâlâ Boss Lig Hava koullar deil sert olan rüzgâr gibi dönüyorum boluun içinde Boss Lig sorry, partinizi bölüyorum vuh! Size Eddy Murphy gibi gülüyorum Bi' kartnn içindeyim. nsan için neyim? Soko Türkçe Rap bilei Hmm Richie Rich'i deil Hrrr Etraf vzr vzrken ben bar diley'im Çünkü elime kondu diye asla öldürmem sinei Sava iim deil En iyi insandan deerlidir sokak köpei Hip-Hop Per Metro Quadrato lle teke tek istiyo'san okay'im Benim derdim hayatla bebeim Senle ayn safta olmak m? Gözünü seveyim! Huy hâline getirdiniz özür dilemeyi u geldiiniz duruma üzülmedim deil nsanlar da yazar, basar tekmeyi Bölümeyi örenin az'ck ekmei Rap magazin oldu kavga, gürültü Siz aç kalmayn diye su bast tekneyi</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Königliches Antlitz, unbrechbares Rückgrat Seh' die ganzen rumbettelnden, dumm schwätzenden Stricher Wie Sprungbretter erzittern Denn mit King ist das Album da, das die deutsche Szene in ihren Grundfesten erschüttert Unmengen von Müttern, die, nachdem sie den Boss einmal sah'n Zwecks Hochzeitsanfragen Tage vor sei'm Lofteingang warten Vor der Schlosseinfahrt warten, ich lass' sie den Cock einmal blasen Außer den fetten Hässlichen, die lass' ich von Rottweilern jagen Pffh Yo, mich stoppt keiner, Mann Eh-eh, mich toppt keiner, Mann Eh-eh Die Konkurrenz versucht mir zu folgen so wie Spotlight-Anlagen Es wird doch keiner schaffen Niemals Die Opfer werden wie im Block einst per Box-Fights zur Konsistenz von Softeis zerschlagen Yeah Yo, verneig dich vor dem Drogenboss Ah Sonst klatscht er dein'n Schädel auf die Eckkommode wie Designer das Rhinozeros Disch Dein Girl ist fett, doch hat nicht ma' dicke Titten Ich würd die Ische nicht ma' ficken, um dich damit zu dissen Und du sagst, sie hätt bloß schwere Knochen Yeah Doch sie ist bei all deinen Perlen noch am dünnsten wie'n Sternekoch Ich schreibe die Chart-Hits, krieg' bei Live-Gigs die Gage, reise nach Mali Lieg' im Sand am Strand, der weiß ist wie das Eis der Antarktis Heiz' in Ferraris, kicke die Lines, schreibe die Reime für Bares Steig' in den Jet, mach' bei Geschäften mit den Scheichs Abu Dhabis In 'nem einzigen Jahr bis zu dreißig Milliarden Bitch, die Welt von Kollegah besteht einzig aus Zahl'n, als sei sie die Matrix Einfach der Wahnsinn, dir steht der Mund auf wie Gummipuppen Während ich mich frag', warum sie überhaupt noch Hunnis drucken Warum? Die landen bei mir in Schreddern, die sie kleinmachen, damit Ich Füllmaterial hab', wenn ich ma' 'ne Weinflasche verschick' Sie zu Weihnachten verschick', ey, guck, dein'n Kleinwagen, Kid Den nehm' ich locker im Kofferraum meines Maybachs hier mit Ich bin einfach der Shit Jap, Punchlines, du kleiner Stricher Mich battlen geht ins Auge wie der Schwanz eines Leichenfickers Denn ich zieh' dich aus dei'm Haus Ah, geb' dir Hiebe mit der Faust Ah Klatsch' dich in den Boden und du kommst in China wieder raus Uhh Oder ich leer' auf dir Benzinkanister aus Nehme grinsend noch 'nen letzten Zug und schnipp' dann die Cohiba auf dich drauf Ah Und früher war es Weed kiffen statt Hanteln stemmen Früher war es Hoes auf die Street schicken wie Ampelmännchen Früher Speed ticken, heut Beats picken, MCs ficken und mies spitten Der Rest kann sich ins Knie ficken wie Schlangenmenschen Kein Respekt mehr, ich fick' ab heute alle Alle Guck, wie ich die Schädel deiner Kifferfreunde spalte Wenn ich im Café mein Mittagspäuschen halte Klatschen Leute Poster an mein'n Arm, weil sie ihn für 'ne Litfaßsäule halten Tze Guck, ich roll' auf Chromfelgen, 26 Zoll, du Bastard Hate nicht, Talent plus Disziplin ergibt Erfolg, du Bastard Taschen voll mit Zaster, ich hab' Häuser groß wie Wolkenkratzer Und sie sind mit Goldfliesen statt Holzdielen vollgepflastert Die schwerste Entscheidung ist heut, Beamer oder Benz zu nehm'n Oder Chicas, die ich bang' im Steh'n, lieber auf dem Bett zu nehm'n Ob ich Tequila oder Brandy nehm' Lisa oder Kelly, Alina, Mandy, Maria oder Sandy nehm' Heut könnt ihr die Diamanten glänzen seh'n Das' mein Lifestyle Yeah, den hab' ich mir trotz Widerstand erkämpft im Leben Und niemals wird's ein Ende geben Niemals Denn lässt der King sich mal geh'n, dann nur, wenn ihn seine Dienerschaft auf Sänften trägt Yeah Will ich relaxen in mei'm Wohnzimmer, dann kauf' ich circa Dreißig Pianisten, die auf Flügeln spiel'n wie Außenstürmer Yeah Und zwar Sinfonien Beethovens Ich bang' nur Hoes vom roten Teppich, denn ich bin oberflächlich wie Seerosen Was Charakter? Ich leb' nicht nach dem Leitmotiv Liebe Ah Bei Girls muss ich Body checken, als wärn's Eishockeyspiele Yeah Yo, seit ich das Game allein dominiere und mein Weißgold poliere Geht ihr auf die Knie wie Thaibox-Turniere Und Und winselt bloß um Gnade, weil euch klar ist, wer der King ist, ohne Frage Ihr seid sinnlos wie ein Pinsel ohne Farbe Seit ich euren Mums nur'n Mindestlohn bezahle Hab'n sie auf dem Strich mehr Laufkundschaft als eine Intersport-Filiale Kid, ich liefer' Texte wie ein Teleprompter Du willst hoch hinaus, doch wirst zerhäckselt von mei'm Helikopter Da liegst du blutrot im Matsch und Ich ersetz' deine paar verbliebenen Gesichtszüge durch meinen Schuhsohlenabdruck Ich seh' die Rapper, seh' ihren Angstschweiß, wie er fließt Doch baller' weiter erbarmungslos Punchlines durch den Beat Keine Gnade, Bitch, eyo, ich schlag' dich, bis die Nase bricht Ich zeig' dir, was 'ne Harke ist, und rede nicht von Gartentipps Guck, ich treff' die Crew dieses Smudos Tze Geb' ihnen Punches und sie fliegen auf den Mars Uhh wie die Groupies von Bruno Ich bin die Numero uno Baller' meine allerfeinsten Doubletimes und alle mein'n, da sei 'ne Uzi im Studio Das hier ist ein harter Diamant unter tausend Alben, die weichgespült sind Von Clowns, die alle kaum auszuhalten sind live auf Bühnen Ich seh' aus wie Hulk, diese Lauchgestalten sind klein und süß Und werden meist von Typen für Frau'n gehalten wie Einkaufstüten Bitch, hörst du den Selfmade-Boss im Ghettoblaster Ah Dann vibriert durch seine Stimme in deinen Zellen noch das Ektoplasma Yeah Ich muss sie nur kurz vibrieren lassen und Chicas erblassen Fangen an zu zittern und kriegen multiple Orgasmen, yeah Häng' ich nicht Zigarre qualmend am Pokertisch ab Ras' ich radikal vorbei an mannigfaltigen Großstadtlichtern Mit Party-Schnallen zur Nobelvilla Kid, mein Portemonnaie ist so schwer, das könnte sogar 'nen Kran nicht halten wie Vogelzüchter Und ich fahr' mit jedem Coup weiter Gewinne ein Fahr' bei Erdöl-Deals mit 'nem Kuwaiter Gewinne ein In Dubai, fahr' Gewinne ein, fahr' so viele Gewinne ein Es ist ein Ding der Unmöglichkeit für meine Buchhalter, sie mitzuschreiben Ich chill' an Ferienorten wie den Bahamas Hänge dort an aus Edelholz gezimmerten Bars ab Wo mir jeden Morgen hinkende Butler Seltene Tropfen bringen, yeah, wie Regenwolken in der Sahara Du behinderter Versager, Bitch, es ist der Pimp im Game Rap-Star und King im Game, jetzt ist wieder glänzendes Bling im Game Deine Schwester will ficken geh'n Es ist wie bei Frischeprodukten im Supermarkt Man sollte sie besser von hinten nehm'n Will man nicht ihr hässliches Grinsen seh'n, Bitch, ich trag' Platinumringe Denn ich mach' bei diversen Geschäften Milliardengewinne Die ich gründlich versteuer', doch bestimmt nicht in Deutschland Ah Sonst würd all mein Gewinn an den Staat geh'n wie olympische Läufer Mal ganz nüchtern geseh'n Glaubt ihr, das könnt man mit fairen Steuern verdien'n wie das Gehalt von Schiffskapitän'n? Ah? Das würd sicher nicht geh'n, ich mach' mein Business im Game Mit allen Mitteln, deswegen bin ich nun richer denn je Fick' auf den Fame, Stricher-Rapper weinen bittere Trän'n Wenn die Wichser mich seh'n, wie ich dabei bin, ihre Bitches zu nehm'n Die dann zittern und stöhn'n, yeah, ich bang' Weiber im Q-Dorf Die es gern im Doggystyle machen wie Biter von Snoop Dogg Von Mailand bis New York bis zu Thailands Küsten Warten Chicks auf mich mit geilen Titten und breiten Hüften Ich lass' Weiber strippen Die schüchtern sind, doch die man dann beim Tanzen auftauen sieht wie Seilartisten Ich reis' auf Tour weit hinaus über Germanys Staatsgrenzen Trete auf in Szeneclubs, Fans woll'n hör'n, wie ich Parts rappe Zwischen Girls, die mir nachsetzen Mois, du trittst in heruntergekommenen Schuppen auf wie Friseure nach Haarwäschen Ich gebe dir 'nen Punch wie Thaibox-Champs, jeder im Land hier weiß schon längst Ich hab' die Fäden in der Hand wie Spiderman Leg' dich nicht an mit meiner Gang, ich komm' mit mehreren Kanten Zu dir nach Hause und all deine Homies sterben als Schlampen Bevor wir deine Fam kill'n, auch entfernte Verwandte Sie sind dann allesamt vom Erdboden entfernte Verwandte Ich battle die Erzfeinde, sie könn'n mein Level nie erreichen Ihre Weiber machen die Beine breit wie Leggings mit Querstreifen Ständig lungern an meiner riesigen Landhausvilla Horden von Paparazzis und hoffen gespannt auf Bilder Ich hol' die AK raus und schieß' einfach Auf die Paparazzis drauf, jag' die Schweine aus dem Garten raus wie Viehtreiber Abertausend Teens feiern mein'n Hammer-Sound Während du armer Clown seit Jahren auf der Straße haust wie Street-Fighter Charter' ich an Wochenenden Segelboote Und hol' Szenedrogen von Gs, die an den Docks abhäng'n wie Stethoskope Ey Rapper zittern, wenn der Mac eben was kickt Mit sei'm neuen Album gleich die ganze Rapszene zerfickt Konsequent alle staun'n lässt Und sich in jedem Winkel des kontinentalen Raumes ein Bronzedenkmal erbau'n lässt Bis alle beginnen, ihm seiner Aura wegen zu huldigen Die Konkurrenz ist nicht mehr ausschlaggebend wie Nulllinien Guck, wie ich Rap regier', Rap definier' Der Boss, ich dulde keine anderen Kings of Rap neben mir Verdunkelte Stretchlimo-Tür, metergroße HD-Screens Block-Pate, Godfather, Player-Flows auf KD-Beatz Löwenpower, ich geh' nicht durch Türen, ich zerstöre Mauern K zum O, Besitzer der KönigsauraYou might also like32</t>
+          <t>Königliches Antlitz, unbrechbares Rückgrat Seh' die ganzen rumbettelnden, dumm schwätzenden Stricher Wie Sprungbretter erzittern Denn mit King ist das Album da, das die deutsche Szene in ihren Grundfesten erschüttert Unmengen von Müttern, die, nachdem sie den Boss einmal sah'n Zwecks Hochzeitsanfragen Tage vor sei'm Lofteingang warten Vor der Schlosseinfahrt warten, ich lass' sie den Cock einmal blasen Außer den fetten Hässlichen, die lass' ich von Rottweilern jagen Pffh Yo, mich stoppt keiner, Mann Eh-eh, mich toppt keiner, Mann Eh-eh Die Konkurrenz versucht mir zu folgen so wie Spotlight-Anlagen Es wird doch keiner schaffen Niemals Die Opfer werden wie im Block einst per Box-Fights zur Konsistenz von Softeis zerschlagen Yeah Yo, verneig dich vor dem Drogenboss Ah Sonst klatscht er dein'n Schädel auf die Eckkommode wie Designer das Rhinozeros Disch Dein Girl ist fett, doch hat nicht ma' dicke Titten Ich würd die Ische nicht ma' ficken, um dich damit zu dissen Und du sagst, sie hätt bloß schwere Knochen Yeah Doch sie ist bei all deinen Perlen noch am dünnsten wie'n Sternekoch Ich schreibe die Chart-Hits, krieg' bei Live-Gigs die Gage, reise nach Mali Lieg' im Sand am Strand, der weiß ist wie das Eis der Antarktis Heiz' in Ferraris, kicke die Lines, schreibe die Reime für Bares Steig' in den Jet, mach' bei Geschäften mit den Scheichs Abu Dhabis In 'nem einzigen Jahr bis zu dreißig Milliarden Bitch, die Welt von Kollegah besteht einzig aus Zahl'n, als sei sie die Matrix Einfach der Wahnsinn, dir steht der Mund auf wie Gummipuppen Während ich mich frag', warum sie überhaupt noch Hunnis drucken Warum? Die landen bei mir in Schreddern, die sie kleinmachen, damit Ich Füllmaterial hab', wenn ich ma' 'ne Weinflasche verschick' Sie zu Weihnachten verschick', ey, guck, dein'n Kleinwagen, Kid Den nehm' ich locker im Kofferraum meines Maybachs hier mit Ich bin einfach der Shit Jap, Punchlines, du kleiner Stricher Mich battlen geht ins Auge wie der Schwanz eines Leichenfickers Denn ich zieh' dich aus dei'm Haus Ah, geb' dir Hiebe mit der Faust Ah Klatsch' dich in den Boden und du kommst in China wieder raus Uhh Oder ich leer' auf dir Benzinkanister aus Nehme grinsend noch 'nen letzten Zug und schnipp' dann die Cohiba auf dich drauf Ah Und früher war es Weed kiffen statt Hanteln stemmen Früher war es Hoes auf die Street schicken wie Ampelmännchen Früher Speed ticken, heut Beats picken, MCs ficken und mies spitten Der Rest kann sich ins Knie ficken wie Schlangenmenschen Kein Respekt mehr, ich fick' ab heute alle Alle Guck, wie ich die Schädel deiner Kifferfreunde spalte Wenn ich im Café mein Mittagspäuschen halte Klatschen Leute Poster an mein'n Arm, weil sie ihn für 'ne Litfaßsäule halten Tze Guck, ich roll' auf Chromfelgen, 26 Zoll, du Bastard Hate nicht, Talent plus Disziplin ergibt Erfolg, du Bastard Taschen voll mit Zaster, ich hab' Häuser groß wie Wolkenkratzer Und sie sind mit Goldfliesen statt Holzdielen vollgepflastert Die schwerste Entscheidung ist heut, Beamer oder Benz zu nehm'n Oder Chicas, die ich bang' im Steh'n, lieber auf dem Bett zu nehm'n Ob ich Tequila oder Brandy nehm' Lisa oder Kelly, Alina, Mandy, Maria oder Sandy nehm' Heut könnt ihr die Diamanten glänzen seh'n Das' mein Lifestyle Yeah, den hab' ich mir trotz Widerstand erkämpft im Leben Und niemals wird's ein Ende geben Niemals Denn lässt der King sich mal geh'n, dann nur, wenn ihn seine Dienerschaft auf Sänften trägt Yeah Will ich relaxen in mei'm Wohnzimmer, dann kauf' ich circa Dreißig Pianisten, die auf Flügeln spiel'n wie Außenstürmer Yeah Und zwar Sinfonien Beethovens Ich bang' nur Hoes vom roten Teppich, denn ich bin oberflächlich wie Seerosen Was Charakter? Ich leb' nicht nach dem Leitmotiv Liebe Ah Bei Girls muss ich Body checken, als wärn's Eishockeyspiele Yeah Yo, seit ich das Game allein dominiere und mein Weißgold poliere Geht ihr auf die Knie wie Thaibox-Turniere Und Und winselt bloß um Gnade, weil euch klar ist, wer der King ist, ohne Frage Ihr seid sinnlos wie ein Pinsel ohne Farbe Seit ich euren Mums nur'n Mindestlohn bezahle Hab'n sie auf dem Strich mehr Laufkundschaft als eine Intersport-Filiale Kid, ich liefer' Texte wie ein Teleprompter Du willst hoch hinaus, doch wirst zerhäckselt von mei'm Helikopter Da liegst du blutrot im Matsch und Ich ersetz' deine paar verbliebenen Gesichtszüge durch meinen Schuhsohlenabdruck Ich seh' die Rapper, seh' ihren Angstschweiß, wie er fließt Doch baller' weiter erbarmungslos Punchlines durch den Beat Keine Gnade, Bitch, eyo, ich schlag' dich, bis die Nase bricht Ich zeig' dir, was 'ne Harke ist, und rede nicht von Gartentipps Guck, ich treff' die Crew dieses Smudos Tze Geb' ihnen Punches und sie fliegen auf den Mars Uhh wie die Groupies von Bruno Ich bin die Numero uno Baller' meine allerfeinsten Doubletimes und alle mein'n, da sei 'ne Uzi im Studio Das hier ist ein harter Diamant unter tausend Alben, die weichgespült sind Von Clowns, die alle kaum auszuhalten sind live auf Bühnen Ich seh' aus wie Hulk, diese Lauchgestalten sind klein und süß Und werden meist von Typen für Frau'n gehalten wie Einkaufstüten Bitch, hörst du den Selfmade-Boss im Ghettoblaster Ah Dann vibriert durch seine Stimme in deinen Zellen noch das Ektoplasma Yeah Ich muss sie nur kurz vibrieren lassen und Chicas erblassen Fangen an zu zittern und kriegen multiple Orgasmen, yeah Häng' ich nicht Zigarre qualmend am Pokertisch ab Ras' ich radikal vorbei an mannigfaltigen Großstadtlichtern Mit Party-Schnallen zur Nobelvilla Kid, mein Portemonnaie ist so schwer, das könnte sogar 'nen Kran nicht halten wie Vogelzüchter Und ich fahr' mit jedem Coup weiter Gewinne ein Fahr' bei Erdöl-Deals mit 'nem Kuwaiter Gewinne ein In Dubai, fahr' Gewinne ein, fahr' so viele Gewinne ein Es ist ein Ding der Unmöglichkeit für meine Buchhalter, sie mitzuschreiben Ich chill' an Ferienorten wie den Bahamas Hänge dort an aus Edelholz gezimmerten Bars ab Wo mir jeden Morgen hinkende Butler Seltene Tropfen bringen, yeah, wie Regenwolken in der Sahara Du behinderter Versager, Bitch, es ist der Pimp im Game Rap-Star und King im Game, jetzt ist wieder glänzendes Bling im Game Deine Schwester will ficken geh'n Es ist wie bei Frischeprodukten im Supermarkt Man sollte sie besser von hinten nehm'n Will man nicht ihr hässliches Grinsen seh'n, Bitch, ich trag' Platinumringe Denn ich mach' bei diversen Geschäften Milliardengewinne Die ich gründlich versteuer', doch bestimmt nicht in Deutschland Ah Sonst würd all mein Gewinn an den Staat geh'n wie olympische Läufer Mal ganz nüchtern geseh'n Glaubt ihr, das könnt man mit fairen Steuern verdien'n wie das Gehalt von Schiffskapitän'n? Ah? Das würd sicher nicht geh'n, ich mach' mein Business im Game Mit allen Mitteln, deswegen bin ich nun richer denn je Fick' auf den Fame, Stricher-Rapper weinen bittere Trän'n Wenn die Wichser mich seh'n, wie ich dabei bin, ihre Bitches zu nehm'n Die dann zittern und stöhn'n, yeah, ich bang' Weiber im Q-Dorf Die es gern im Doggystyle machen wie Biter von Snoop Dogg Von Mailand bis New York bis zu Thailands Küsten Warten Chicks auf mich mit geilen Titten und breiten Hüften Ich lass' Weiber strippen Die schüchtern sind, doch die man dann beim Tanzen auftauen sieht wie Seilartisten Ich reis' auf Tour weit hinaus über Germanys Staatsgrenzen Trete auf in Szeneclubs, Fans woll'n hör'n, wie ich Parts rappe Zwischen Girls, die mir nachsetzen Mois, du trittst in heruntergekommenen Schuppen auf wie Friseure nach Haarwäschen Ich gebe dir 'nen Punch wie Thaibox-Champs, jeder im Land hier weiß schon längst Ich hab' die Fäden in der Hand wie Spiderman Leg' dich nicht an mit meiner Gang, ich komm' mit mehreren Kanten Zu dir nach Hause und all deine Homies sterben als Schlampen Bevor wir deine Fam kill'n, auch entfernte Verwandte Sie sind dann allesamt vom Erdboden entfernte Verwandte Ich battle die Erzfeinde, sie könn'n mein Level nie erreichen Ihre Weiber machen die Beine breit wie Leggings mit Querstreifen Ständig lungern an meiner riesigen Landhausvilla Horden von Paparazzis und hoffen gespannt auf Bilder Ich hol' die AK raus und schieß' einfach Auf die Paparazzis drauf, jag' die Schweine aus dem Garten raus wie Viehtreiber Abertausend Teens feiern mein'n Hammer-Sound Während du armer Clown seit Jahren auf der Straße haust wie Street-Fighter Charter' ich an Wochenenden Segelboote Und hol' Szenedrogen von Gs, die an den Docks abhäng'n wie Stethoskope Ey Rapper zittern, wenn der Mac eben was kickt Mit sei'm neuen Album gleich die ganze Rapszene zerfickt Konsequent alle staun'n lässt Und sich in jedem Winkel des kontinentalen Raumes ein Bronzedenkmal erbau'n lässt Bis alle beginnen, ihm seiner Aura wegen zu huldigen Die Konkurrenz ist nicht mehr ausschlaggebend wie Nulllinien Guck, wie ich Rap regier', Rap definier' Der Boss, ich dulde keine anderen Kings of Rap neben mir Verdunkelte Stretchlimo-Tür, metergroße HD-Screens Block-Pate, Godfather, Player-Flows auf KD-Beatz Löwenpower, ich geh' nicht durch Türen, ich zerstöre Mauern K zum O, Besitzer der Königsaura32</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Life will get better I'm under pressure I don't wanna fall in love tonight, I just wanna be alone Life will get better Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar I'm under pressure Belki de sevgi gerçek ama ak yalan I don't wanna fall in love tonight Kalbimi harcar gerçek ve de parçalar I just wanna be alone Oldukça yalnzm u sralar Sen de bakmyo'sun telefona Gördüüm tek k pencerem, bak Gezdiim tek yr bu küçük odam Dinliyo'm müzik keyif almadan zliyo'm dizi bak anlamadan Geçiriyorum panikataklar Gecmle gündüzüm kalmad daha Sikilmi tüm hayatm burada Oynadm hepsini bi' kumara Krlm son kalan kumbaram da Olmuyo' çare bak para falan Olmad ilaçlar çare falan Almyo' bu boku koca kafam nsanlar brakp gidecekler ise neden kal'cakm gibi yaparlar ha? You might also like Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Kaplarm açk ama içer'de kaldm Darya gitmiyo' sesim artk Motivasyonum yok gibi tatlm Geceleri Teoman dinliyorum Kafamn içindeki gitmesi lazm stediimi söylemem lazm Konuamadm, arklar yazdm Geceleri Teoman dinliyorum Kalbim acyo' bazen, bunu bilmiyo'sun Evimi özledim çok uzakta kalnca Her ey daha kolay, biliyo' musun? Salonda uyuyup odanda kalknca Hevesim kaçyo' saate baknca Belki de olmas gereken budur Hatra olarak kalyo'sa herkes Belki de olmas gereken budur Bu baln gözyalar yoktur Denizlerde gözükmüyo'sundur Gözüksen de bi' önemin yoktur Sürüden ayrlsan fark edilmez Bunu bilmek sana kötü gelirken Yaanmlklardan verir ders Bildiin eyler ilham verirken Bunu yazmak için kalk yerinden Çoktan bitmi bi' ben kaldm Raydan çkm dünya artk Senden farkl deil eytan Sen de önceden melektin tatlm Bu dünya öyle bi' yer, ya Düündüün gibi deil ki etraf Bakasn deil, kendini suçla Kendinin katili sensin, ey Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar O-o-oh Ak yalan4</t>
+          <t>Life will get better I'm under pressure I don't wanna fall in love tonight, I just wanna be alone Life will get better Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar I'm under pressure Belki de sevgi gerçek ama ak yalan I don't wanna fall in love tonight Kalbimi harcar gerçek ve de parçalar I just wanna be alone Oldukça yalnzm u sralar Sen de bakmyo'sun telefona Gördüüm tek k pencerem, bak Gezdiim tek yr bu küçük odam Dinliyo'm müzik keyif almadan zliyo'm dizi bak anlamadan Geçiriyorum panikataklar Gecmle gündüzüm kalmad daha Sikilmi tüm hayatm burada Oynadm hepsini bi' kumara Krlm son kalan kumbaram da Olmuyo' çare bak para falan Olmad ilaçlar çare falan Almyo' bu boku koca kafam nsanlar brakp gidecekler ise neden kal'cakm gibi yaparlar ha? Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Kaplarm açk ama içer'de kaldm Darya gitmiyo' sesim artk Motivasyonum yok gibi tatlm Geceleri Teoman dinliyorum Kafamn içindeki gitmesi lazm stediimi söylemem lazm Konuamadm, arklar yazdm Geceleri Teoman dinliyorum Kalbim acyo' bazen, bunu bilmiyo'sun Evimi özledim çok uzakta kalnca Her ey daha kolay, biliyo' musun? Salonda uyuyup odanda kalknca Hevesim kaçyo' saate baknca Belki de olmas gereken budur Hatra olarak kalyo'sa herkes Belki de olmas gereken budur Bu baln gözyalar yoktur Denizlerde gözükmüyo'sundur Gözüksen de bi' önemin yoktur Sürüden ayrlsan fark edilmez Bunu bilmek sana kötü gelirken Yaanmlklardan verir ders Bildiin eyler ilham verirken Bunu yazmak için kalk yerinden Çoktan bitmi bi' ben kaldm Raydan çkm dünya artk Senden farkl deil eytan Sen de önceden melektin tatlm Bu dünya öyle bi' yer, ya Düündüün gibi deil ki etraf Bakasn deil, kendini suçla Kendinin katili sensin, ey Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar O-o-oh Ak yalan4</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Trop de médisance dans l'secteur Focus Beatz Trop de médisance dans le secteur Trop réticent à leur bon cur DA Uzi Yeah On est jamais réticent pour l'salaire, on est méfiant sur le corner Produit, stupéfiant dans l'grinder, j'fais des bangers, j'lève mon finger Connu depuis que j'ai seize piges, montagne de problèmes, j'ai pas d'vertige Je dérape, l'ESP me corrige, aucun dirigeant ne me dirige et puis mehlich T'aimes pas Papé, ça ne m'empêche pas de dormir, j'les ai pas vu dans mon avenir, j'les ai perdu dans mes souvenirs J'suis le Capo, je relève les compteurs, la Terre est ronde, y a pas d'cachette Tu es une copie de moi, mal faite, j'ai des tresses, de l'or comme un Aztèque, comme un Aztèque Sous ma casquette, j'regarde la ville qui s'endort, talents gâchés pleins les Baumettes, y en a combien qui s'en sortent ? Et ouais mec, c'est le bordel, en T-Max, je traverse le magma et ça depuis l'époque de Pac-Man On voulait tous baiser Bulma fuck La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah You might also like J'ai grandi à Sevran, près d'ma cité peut tout s'passer J'ai rempli des prisons avec mes collègues L'ambition d'avancer sans m'retourner, me permettra Oui, j'ai les mains sales quand j'dis qu'j'suis honnête vrai de vrai Connu depuis que j'suis sortis, le sourire j'le donne mais le cur s'est renfermé T'es malin, prépare ta guerre avec ton Famas Mais tombe pas amoureux d'une sorcière, chaque année, ça pleure quelques morts de l'an dernier Tout l'monde veut devenir chef comme Georges au Libéria ou comme Sergio Ramos au Réal de Madrid J'me cagoulerais comme tous mes senseis ah, vécu sur le papier ah, y a pas mieux ah Y a pas mieux, pour ça qu'y a l'Pack M c'est vrai, les p'tits d'la cité sous talkie ou bien sous Toka', ça pourrait t'choquer Ils voulaient nous donner des miettes mais j'veux pas d'assiette, j'vais prendre dans l'gâteau Ils feront pas les Gotti ils feront pas ou ils passeront pas la semaine à Gotham vrai de vrai La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Yeah, DA Uzi</t>
+          <t>Trop de médisance dans l'secteur Focus Beatz Trop de médisance dans le secteur Trop réticent à leur bon cur DA Uzi Yeah On est jamais réticent pour l'salaire, on est méfiant sur le corner Produit, stupéfiant dans l'grinder, j'fais des bangers, j'lève mon finger Connu depuis que j'ai seize piges, montagne de problèmes, j'ai pas d'vertige Je dérape, l'ESP me corrige, aucun dirigeant ne me dirige et puis mehlich T'aimes pas Papé, ça ne m'empêche pas de dormir, j'les ai pas vu dans mon avenir, j'les ai perdu dans mes souvenirs J'suis le Capo, je relève les compteurs, la Terre est ronde, y a pas d'cachette Tu es une copie de moi, mal faite, j'ai des tresses, de l'or comme un Aztèque, comme un Aztèque Sous ma casquette, j'regarde la ville qui s'endort, talents gâchés pleins les Baumettes, y en a combien qui s'en sortent ? Et ouais mec, c'est le bordel, en T-Max, je traverse le magma et ça depuis l'époque de Pac-Man On voulait tous baiser Bulma fuck La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah J'ai grandi à Sevran, près d'ma cité peut tout s'passer J'ai rempli des prisons avec mes collègues L'ambition d'avancer sans m'retourner, me permettra Oui, j'ai les mains sales quand j'dis qu'j'suis honnête vrai de vrai Connu depuis que j'suis sortis, le sourire j'le donne mais le cur s'est renfermé T'es malin, prépare ta guerre avec ton Famas Mais tombe pas amoureux d'une sorcière, chaque année, ça pleure quelques morts de l'an dernier Tout l'monde veut devenir chef comme Georges au Libéria ou comme Sergio Ramos au Réal de Madrid J'me cagoulerais comme tous mes senseis ah, vécu sur le papier ah, y a pas mieux ah Y a pas mieux, pour ça qu'y a l'Pack M c'est vrai, les p'tits d'la cité sous talkie ou bien sous Toka', ça pourrait t'choquer Ils voulaient nous donner des miettes mais j'veux pas d'assiette, j'vais prendre dans l'gâteau Ils feront pas les Gotti ils feront pas ou ils passeront pas la semaine à Gotham vrai de vrai La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Yeah, DA Uzi</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>La stereotipata Bulgaria dei luoghi comuni produce yoghurt, rose e virus informatici tutto questo, tuttavia, non corrisponde a completa verità o perlomeno non dà un'idea sufficientemente chiara di una nazione leader nel settore. Non a caso, Elio e le Storie Tese si sono rivolti ai loro colleghi balcanici - rappresentati in questo frangente dal Coro femminile di Stato della Radio e Televisione bulgara - per un ideale gemellaggio che avvicinasse due culture, differenti nella forma ma affini nella sostanza, sotto l'egidia dell'Istituto Superiore di Musicologia Loren di Sofia e l'alto patrocinio del Ministero degli Esteri della Repubblica Italiana. Accantonate le spiacevoli incomprensioni del periodo Antonov - Aga, ecco il PIPPPERO, il ballo più umano e più vero, che si può ballare seduti, che favorisce il dialogo, che riavvicina finalmente due popoli rimasti separati troppo a lungo. I umorismo I umorismo kusch umorismo Sdreveide! Mismese gatchetene boghers chetegossuvé. Pretzdavemivi Elio e le Storie Tese. Ha ha ha ha Grazie... Grazie al Coro Femminile di Stato della Radio e Televisione bulgara che ha portato in Italia finalmente un ballo a misura d'uomo, più umano, più vero Più umano, più vero Un ballo sincero È un ballo sincero Eh, certo, vista la situazione internazionale noi abbiamo dovuto promettergli Ramaya, Ramaya, però amici vi assicuro che ne è valsa la pena Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Diù diù diù diù diù diù, PippperoR diù diù diù diù diù diù. Zieoung. Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Atinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc. Pipppero Evviva l'Italia, evviva la Bulgaria che ci ha fatto dono del PIPPPERO Ruotiamo le dita e uniamo le falangi, questo è il ballo del PIPPPERO Amici servizi segreti bulgari, non sparate più al Papa, ma dedicatevi al PIPPPERO Popolo bulgaro - iù -. Popolo italiano Servizi segreti bulgari e italiani, via Sentite come pompa il Pipppero You might also likeDiù. Ruotate le dita. Unite le falangi Bene, ora ripetete con me Più umano più vero Più umano più vero È un ballo straniero È un ballo straniero Qui l'atmosfera sa di PIPPPERO Qui l'atmosfera sa di PIPPPERO Se in discuteca balli u Pippperupippero Se in discuteca balli u Pippperupippero Molto bene, ora da sole Più umano più vero. È un ballo sincero. E la tua estate sa di PIPPPERO - molto bene -. Non senti come pompa il PIPPPERO? Pompa. Pompa. Pompa. Pompa. A tinc etc. Dio bono come pompa il PIPPPERO Diù. Più umano, più vero. È un ballo sincero. A ba ba ba, a ba ba ba. Più umano, più vero. È un ballo sincero. Più umano, più vero State ruotando le dita? State unendo le falangi ? State stringendo amicizia con persone che hanno il colore della pelle diverso dal vostro ? Bravi. Ora è il momento di cantare a squarciagola Ramaya, Ramaya, Ramaya rarrà Il PIPPPERO è una ballo che io e te balliamo se l'amore c'è, e l'amore c'è se guardi me. Bugiardo io, bulgaro in te, bugiardi noi, sperando che l'amore c'è se ballo in te. Tu balla in me e saremo okay Più umano, più vero. È un ballo sincero Ehi, coro delle voci bulgare, io posso offrirvi qualcosa di molto meglio di un semplice Ramaya potrei darvi Kung fu fighting di Carl Douglas. Gnacchisnà. Fly robin fly ? Non vi interessa? Gnacchisnà. Voi forse preferite il meglio dei Tavares? Gnacchisnà. Ali shuffle? Niente? Gnacchisnà. Disco Inferno? Gnacchisnà. Qualcosa di Cerrone? Gnacchisnà. Oppure Boney M.. Gna. Tipo Ma Baker, Daddy Cool, Rasputin. Gnacchisnà. Niente? Disco Duck? No Gnacchisnà. Gimme Some? Gnacchisnà. Qualcosa degli Oliver Onions, tipo Sandokan, Orzowei? Niente? Cuba dei Gibson Brothers, dai</t>
+          <t>La stereotipata Bulgaria dei luoghi comuni produce yoghurt, rose e virus informatici tutto questo, tuttavia, non corrisponde a completa verità o perlomeno non dà un'idea sufficientemente chiara di una nazione leader nel settore. Non a caso, Elio e le Storie Tese si sono rivolti ai loro colleghi balcanici - rappresentati in questo frangente dal Coro femminile di Stato della Radio e Televisione bulgara - per un ideale gemellaggio che avvicinasse due culture, differenti nella forma ma affini nella sostanza, sotto l'egidia dell'Istituto Superiore di Musicologia Loren di Sofia e l'alto patrocinio del Ministero degli Esteri della Repubblica Italiana. Accantonate le spiacevoli incomprensioni del periodo Antonov - Aga, ecco il PIPPPERO, il ballo più umano e più vero, che si può ballare seduti, che favorisce il dialogo, che riavvicina finalmente due popoli rimasti separati troppo a lungo. I umorismo I umorismo kusch umorismo Sdreveide! Mismese gatchetene boghers chetegossuvé. Pretzdavemivi Elio e le Storie Tese. Ha ha ha ha Grazie... Grazie al Coro Femminile di Stato della Radio e Televisione bulgara che ha portato in Italia finalmente un ballo a misura d'uomo, più umano, più vero Più umano, più vero Un ballo sincero È un ballo sincero Eh, certo, vista la situazione internazionale noi abbiamo dovuto promettergli Ramaya, Ramaya, però amici vi assicuro che ne è valsa la pena Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Diù diù diù diù diù diù, PippperoR diù diù diù diù diù diù. Zieoung. Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Atinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc. Pipppero Evviva l'Italia, evviva la Bulgaria che ci ha fatto dono del PIPPPERO Ruotiamo le dita e uniamo le falangi, questo è il ballo del PIPPPERO Amici servizi segreti bulgari, non sparate più al Papa, ma dedicatevi al PIPPPERO Popolo bulgaro - iù -. Popolo italiano Servizi segreti bulgari e italiani, via Sentite come pompa il Pipppero Diù. Ruotate le dita. Unite le falangi Bene, ora ripetete con me Più umano più vero Più umano più vero È un ballo straniero È un ballo straniero Qui l'atmosfera sa di PIPPPERO Qui l'atmosfera sa di PIPPPERO Se in discuteca balli u Pippperupippero Se in discuteca balli u Pippperupippero Molto bene, ora da sole Più umano più vero. È un ballo sincero. E la tua estate sa di PIPPPERO - molto bene -. Non senti come pompa il PIPPPERO? Pompa. Pompa. Pompa. Pompa. A tinc etc. Dio bono come pompa il PIPPPERO Diù. Più umano, più vero. È un ballo sincero. A ba ba ba, a ba ba ba. Più umano, più vero. È un ballo sincero. Più umano, più vero State ruotando le dita? State unendo le falangi ? State stringendo amicizia con persone che hanno il colore della pelle diverso dal vostro ? Bravi. Ora è il momento di cantare a squarciagola Ramaya, Ramaya, Ramaya rarrà Il PIPPPERO è una ballo che io e te balliamo se l'amore c'è, e l'amore c'è se guardi me. Bugiardo io, bulgaro in te, bugiardi noi, sperando che l'amore c'è se ballo in te. Tu balla in me e saremo okay Più umano, più vero. È un ballo sincero Ehi, coro delle voci bulgare, io posso offrirvi qualcosa di molto meglio di un semplice Ramaya potrei darvi Kung fu fighting di Carl Douglas. Gnacchisnà. Fly robin fly ? Non vi interessa? Gnacchisnà. Voi forse preferite il meglio dei Tavares? Gnacchisnà. Ali shuffle? Niente? Gnacchisnà. Disco Inferno? Gnacchisnà. Qualcosa di Cerrone? Gnacchisnà. Oppure Boney M.. Gna. Tipo Ma Baker, Daddy Cool, Rasputin. Gnacchisnà. Niente? Disco Duck? No Gnacchisnà. Gimme Some? Gnacchisnà. Qualcosa degli Oliver Onions, tipo Sandokan, Orzowei? Niente? Cuba dei Gibson Brothers, dai</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>nsanlna kurban olaym hakim bey! Bu da m gol deil? Gol! You are high as a fuckin' kite! Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Uh, let's go Yok sana paf küf, eskidin hep küf Kokar çektim püf püf püf Eti Puf Puf gibiyim ben, uf uf Yüzüne tükürmem, anca sana tüf tüf Kiiliin kf kf, hava civa srf srf Parfümüm fs fs, koklym bi hmpphs hmpphs Karnm sana tok tok, olamam broke boys Benim havam Rolls Royce, seninkisi Tos Tos Dedi ''Mike Tyson'', dedim ''Einstein'm'' Morgenshtern'sn , dedim ''Nein, hayr'' Çok aalym biraz aalk Kzm hiç üzülme dile basal Vn vn vn Almam seni Porsche'a Sidikli Aye, benimki Natasha Vn vn vn Baktm göze kaa benimki biraz ey materyalist yaam Vn You might also like Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe, Mbappe Gol, gol!2</t>
+          <t>nsanlna kurban olaym hakim bey! Bu da m gol deil? Gol! You are high as a fuckin' kite! Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Uh, let's go Yok sana paf küf, eskidin hep küf Kokar çektim püf püf püf Eti Puf Puf gibiyim ben, uf uf Yüzüne tükürmem, anca sana tüf tüf Kiiliin kf kf, hava civa srf srf Parfümüm fs fs, koklym bi hmpphs hmpphs Karnm sana tok tok, olamam broke boys Benim havam Rolls Royce, seninkisi Tos Tos Dedi ''Mike Tyson'', dedim ''Einstein'm'' Morgenshtern'sn , dedim ''Nein, hayr'' Çok aalym biraz aalk Kzm hiç üzülme dile basal Vn vn vn Almam seni Porsche'a Sidikli Aye, benimki Natasha Vn vn vn Baktm göze kaa benimki biraz ey materyalist yaam Vn Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe, Mbappe Gol, gol!2</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>F-F-Flames Ya Tokatlyorum destelerle nefret edenleri Çünkü öhret ve para dnda sevme nedenleri yok Yerdeyken gördüm bütün tekmeleyenleri imdi ne söylesen de um'rumda olma ihtimali yok Bunlar m bu ilerin önde gelenleri? Daha neyin bekçiliini yaptndan haberleri yok Sikiyim kendini yukar'da görenleri Benim için parann belirledii bi' statü yok Dütük her gün baka bi' oyunun ortasna Hepsinin belliydi günah da tövbesi de En iyi silahtk ve döndük hedef tahtasna Zaten ihtiyacm yok kimsenin görmesine htiyacm var sadece gece olmasna Bütün bu gerçein karanla dönmesine arklar yazlr hep birinin ölmesine Bur'da ne arklar yazld öylesine Anlamam gibiler Bizler yokluktan çkan Anlattk sokan içinden Görmedin bu açdan Gösteremez TV'ler, bizden çok duman çkar Yani sahte reytingler, sanki ihtiyacm var Kendi kendime PR, asla olmadm yalan biri Harcayamam vaktimi, doldurdun hakkn Anca bakyo'sun mal gibi Tek beceriniz görünmek bi' sike yarar gibi You might also like Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar Boa harcamadm vaktimi Benim kanm buz, senin kalbin de kurak gibi nsanlktan uzak gibi Kader bizi keser ayn pasl bi' bçak gibi Verdim dostuma srtm Gerdim gösümü aileme sanki her an ölecek gibi Kendi dünyamda mutluyum yine doacak gibi Ya, kim olduunu hatrla Onca kii mazi oldu, kalamad aklmda nsan mym, robot mu? Baktm her sabah kalktmda Boa Makina demedik kendimize aslnda 2018 depo, imdi Gangsta Paradise Çardlar, geldik, yolla konum, hemen oradayz Rrr Uzun süredir bi' moladayz Rengimiz bellidir, aynen, siz'le takm olamayz Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, dur deseler de durmu'ca'm Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, Dur deseler de durmu'ca'm Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar</t>
+          <t>F-F-Flames Ya Tokatlyorum destelerle nefret edenleri Çünkü öhret ve para dnda sevme nedenleri yok Yerdeyken gördüm bütün tekmeleyenleri imdi ne söylesen de um'rumda olma ihtimali yok Bunlar m bu ilerin önde gelenleri? Daha neyin bekçiliini yaptndan haberleri yok Sikiyim kendini yukar'da görenleri Benim için parann belirledii bi' statü yok Dütük her gün baka bi' oyunun ortasna Hepsinin belliydi günah da tövbesi de En iyi silahtk ve döndük hedef tahtasna Zaten ihtiyacm yok kimsenin görmesine htiyacm var sadece gece olmasna Bütün bu gerçein karanla dönmesine arklar yazlr hep birinin ölmesine Bur'da ne arklar yazld öylesine Anlamam gibiler Bizler yokluktan çkan Anlattk sokan içinden Görmedin bu açdan Gösteremez TV'ler, bizden çok duman çkar Yani sahte reytingler, sanki ihtiyacm var Kendi kendime PR, asla olmadm yalan biri Harcayamam vaktimi, doldurdun hakkn Anca bakyo'sun mal gibi Tek beceriniz görünmek bi' sike yarar gibi Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar Boa harcamadm vaktimi Benim kanm buz, senin kalbin de kurak gibi nsanlktan uzak gibi Kader bizi keser ayn pasl bi' bçak gibi Verdim dostuma srtm Gerdim gösümü aileme sanki her an ölecek gibi Kendi dünyamda mutluyum yine doacak gibi Ya, kim olduunu hatrla Onca kii mazi oldu, kalamad aklmda nsan mym, robot mu? Baktm her sabah kalktmda Boa Makina demedik kendimize aslnda 2018 depo, imdi Gangsta Paradise Çardlar, geldik, yolla konum, hemen oradayz Rrr Uzun süredir bi' moladayz Rengimiz bellidir, aynen, siz'le takm olamayz Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, dur deseler de durmu'ca'm Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, Dur deseler de durmu'ca'm Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Herkes konuuyo' Taksim delisi gibi Tamam, anladk, artist hepiniz Lanet olas bi' narsist feminist Gibi beni darlyo' kaprisleriniz Wouh Baptist Kilisesi vaftizleri gibi Kutsanmamm, bahtsz biriyim Ah Rahatsz edici bi' asi lyricist Oldum diye bana kalpsiz dediniz I don't give a fuck hisleriniz Fuck Batsn pop'tan farksz pesimist Rap'lerinizden skldm, hepiniz Yobazsnz ve bi' Marksist, Leninist Wouh Gibi aranzda yabanclk çekiyo'm Hehe Fuck peace dediniz, harp istediniz Fan listenizi mi çaldm? Pardon Böyle iliyo' hip-hop sisteminiz Aha Okey tamam da yok keyfim, ha Bu Türk rapçilerinin yok beyni, mal Bi' complain'im var, yok teminat O yüzden bana deme Çok fame'im, ah Smoke motherfuckin', all day lave niyetine votkal kokteyl bira Bira Ben hepsini içtim, Uh Atmadan önce bi' konteynra Eskisi gibi ben beat'i Duyduum bu an Da Vinci gibi Onlar sanatla harcaynca beni Çekitiriyo'lar anca kinci gibi Huh Hepsi mahallenin amc dincileri Huh Gibi hor görüyo' ganja diyince beni Yeah Punch'la incitirim canlarn, mic'ta Saçma rapçileri parça pinçik edip Pinçik edip You might also like Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Va, har Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var Hangisi benim iim, hangisi deil? Ha Haddini bilirsen var nasibin Wouh Bu nas' bi' beat? dedim Emrah Türkan'a Kanka, dedi, bu beat biraz asabi Ha Ben de asabiyim Çünkü kepçeyle yerdik wasabi'yi Aha Ay'a ilk giden de NASA deil Bi' de bizi yönetirler adna yasa deyip imdi Benim iim müzik, müzik deli ii Ve sanki çocukluumdaki seviniim Wouh Yanmda Ceg var Bu Kobe'yle Shaq'n NBA'de potalar devirii Ah Gibi, sanma bu kibir Bu ikili en büyük ordunun en özel timi Ah Ne güzel, d'i' mi? Ah Bu ne düzen? deyip Ah Aryorum karmaada güzellii Bak, zaman zaman yalan da var Aldanma palavradan hayatlara Kanarlar bayat, yalan baharlara U-uh Sanarlar hayat kalan paran kadar, ah Tamam ama bana kadar pastada pay Bi' virüs gibisiniz rap'i hasta yapan Ya sokak ya otobüsteyim, rastla bana Rap sokan ii, sizinki fazla sanal Daha fazla para için daha fazla salak Ah Ulu TV diyo' Ko bankalara Yeah Borç katlayarak esir ol kartlara da Üzül borçtan parkta yatanlara da Bak, bak, paraya tapanlara fuck Dönütük insan kesen kasaplara da Bataa saplanarak o yükü saklar adam Masaldan hayatlara hayal saklayarak 'Rak Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Var Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var5</t>
+          <t>Herkes konuuyo' Taksim delisi gibi Tamam, anladk, artist hepiniz Lanet olas bi' narsist feminist Gibi beni darlyo' kaprisleriniz Wouh Baptist Kilisesi vaftizleri gibi Kutsanmamm, bahtsz biriyim Ah Rahatsz edici bi' asi lyricist Oldum diye bana kalpsiz dediniz I don't give a fuck hisleriniz Fuck Batsn pop'tan farksz pesimist Rap'lerinizden skldm, hepiniz Yobazsnz ve bi' Marksist, Leninist Wouh Gibi aranzda yabanclk çekiyo'm Hehe Fuck peace dediniz, harp istediniz Fan listenizi mi çaldm? Pardon Böyle iliyo' hip-hop sisteminiz Aha Okey tamam da yok keyfim, ha Bu Türk rapçilerinin yok beyni, mal Bi' complain'im var, yok teminat O yüzden bana deme Çok fame'im, ah Smoke motherfuckin', all day lave niyetine votkal kokteyl bira Bira Ben hepsini içtim, Uh Atmadan önce bi' konteynra Eskisi gibi ben beat'i Duyduum bu an Da Vinci gibi Onlar sanatla harcaynca beni Çekitiriyo'lar anca kinci gibi Huh Hepsi mahallenin amc dincileri Huh Gibi hor görüyo' ganja diyince beni Yeah Punch'la incitirim canlarn, mic'ta Saçma rapçileri parça pinçik edip Pinçik edip Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Va, har Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var Hangisi benim iim, hangisi deil? Ha Haddini bilirsen var nasibin Wouh Bu nas' bi' beat? dedim Emrah Türkan'a Kanka, dedi, bu beat biraz asabi Ha Ben de asabiyim Çünkü kepçeyle yerdik wasabi'yi Aha Ay'a ilk giden de NASA deil Bi' de bizi yönetirler adna yasa deyip imdi Benim iim müzik, müzik deli ii Ve sanki çocukluumdaki seviniim Wouh Yanmda Ceg var Bu Kobe'yle Shaq'n NBA'de potalar devirii Ah Gibi, sanma bu kibir Bu ikili en büyük ordunun en özel timi Ah Ne güzel, d'i' mi? Ah Bu ne düzen? deyip Ah Aryorum karmaada güzellii Bak, zaman zaman yalan da var Aldanma palavradan hayatlara Kanarlar bayat, yalan baharlara U-uh Sanarlar hayat kalan paran kadar, ah Tamam ama bana kadar pastada pay Bi' virüs gibisiniz rap'i hasta yapan Ya sokak ya otobüsteyim, rastla bana Rap sokan ii, sizinki fazla sanal Daha fazla para için daha fazla salak Ah Ulu TV diyo' Ko bankalara Yeah Borç katlayarak esir ol kartlara da Üzül borçtan parkta yatanlara da Bak, bak, paraya tapanlara fuck Dönütük insan kesen kasaplara da Bataa saplanarak o yükü saklar adam Masaldan hayatlara hayal saklayarak 'Rak Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Var Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var5</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Pensa como vais e como voltas Dizem puto tu dispensa quer atalhos, quer andaimes E entra logo é pela porta! Se não és convidado, tão a espera ou és da casa... E eu sou da casa dos 20 anos a puxar a corda! Mbora mano! Ninguém cai agora, ta seguro. Posso? Podes, é a resposta Dada pela minha tropa Saio da minha toca e tu nota que não me importa Quem ta no top a reinar meu reinado é de quem me topa E o scrah voca duma forma, de quem vem com uma fome Igual a quem bota o uniforme agora, e tá pronto p'rá Copa! Taças e Champagne....cada um com o seu lugar Desde que o valor não seja o valor de um polegar Há p'ra todos e há p'ra tantos Mas p'ra que desse fruto hoje aquilo que plantámos Foi indispensável antes Agora seguramos Paredes enquanto o resto Rui.... O Rock não rola mais como rolava E a Pop tá apaixonada por versos desta cambada... É karma meu camarada ou tem cara Repara que ele não pára e tu cara-a-cara com um gajo Que só traz clássicos atrás de clássicos atrás Repara, pára e sente! x8 You might also like Tu sente como assento e no futuro Eu sou exemplo de que tar ausente por um tempo curto Analisar sem forçar num tento prematuro Faz-te moldar parte homem parte sábio e partes tudo! De forma épica e singular Se te for similar é uma réplica boy aprende a assimilar Trepei p'ra estar aqui, tu trepas pelo trap p'ra ser MC Mas tropeças se de repente mudarem as peças do teu beat Não meças só por conversas vê os atos mano São factos exatos, não vivo por boatos não... Quem assim rima assim fala Não tem gaguez Não me calam... Tenta-me! Que vê eu tornar-me no que tu tentas... Sentas quando a malta vai a jogo Levantas voo, a malta senta porque das enjoos... A malta salta quando o instrumental te dá o show... Eu parto o palco em metade e num só bocado Te parto em dois... Repara com o a gente faz isto x4</t>
+          <t>Pensa como vais e como voltas Dizem puto tu dispensa quer atalhos, quer andaimes E entra logo é pela porta! Se não és convidado, tão a espera ou és da casa... E eu sou da casa dos 20 anos a puxar a corda! Mbora mano! Ninguém cai agora, ta seguro. Posso? Podes, é a resposta Dada pela minha tropa Saio da minha toca e tu nota que não me importa Quem ta no top a reinar meu reinado é de quem me topa E o scrah voca duma forma, de quem vem com uma fome Igual a quem bota o uniforme agora, e tá pronto p'rá Copa! Taças e Champagne....cada um com o seu lugar Desde que o valor não seja o valor de um polegar Há p'ra todos e há p'ra tantos Mas p'ra que desse fruto hoje aquilo que plantámos Foi indispensável antes Agora seguramos Paredes enquanto o resto Rui.... O Rock não rola mais como rolava E a Pop tá apaixonada por versos desta cambada... É karma meu camarada ou tem cara Repara que ele não pára e tu cara-a-cara com um gajo Que só traz clássicos atrás de clássicos atrás Repara, pára e sente! x8 Tu sente como assento e no futuro Eu sou exemplo de que tar ausente por um tempo curto Analisar sem forçar num tento prematuro Faz-te moldar parte homem parte sábio e partes tudo! De forma épica e singular Se te for similar é uma réplica boy aprende a assimilar Trepei p'ra estar aqui, tu trepas pelo trap p'ra ser MC Mas tropeças se de repente mudarem as peças do teu beat Não meças só por conversas vê os atos mano São factos exatos, não vivo por boatos não... Quem assim rima assim fala Não tem gaguez Não me calam... Tenta-me! Que vê eu tornar-me no que tu tentas... Sentas quando a malta vai a jogo Levantas voo, a malta senta porque das enjoos... A malta salta quando o instrumental te dá o show... Eu parto o palco em metade e num só bocado Te parto em dois... Repara com o a gente faz isto x4</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida i, i, i, RTF, uh Atmosfera Mobb Deep, da Brate, s glavom kroz zid, da Kroz zid Dalje s travom profit, uh S tvojom malom doggy Rest in peace Prodigy, i je on fleek Bolestan ko Taji, ne igram PUBG Vai igrai e izvu' krai obani leat ete u svojoj mokrai Da, Zeitgeist odvratni i pria ko da neto bolji si Da, Zeitgeist moderni, mon ami Lifestyle siromanih i opasnih, yeah Ladidadida, ladidadida Kaka je to na stolu praina? Uh Ladidadida ladidadida Razvuci tri crte, brate, Adidas, da Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida Ne pijem lean, pije se malina, uh You might also like Blaka, blaka AMG CLS, bolje FIFA nego PES Yeah Kupujmo hrvatsko, pitolj mi je HS Kada se savijem, vozim automatika Imam vie patika nego danki kaika Hodam po liniji ko Johnny Cash Perem te pare ko da perem ve Puim ha, Maroko, Marake Vrti, vrti, vrti dok ne padne Trim ove ulice kao Eros Grezda Teleskop mi ne slui za gledanje zvijezda esto sam u muriji, nikad ne druknem Savijen sam stalno, al' nikad ne puknem Jednom zabuni se arer puni se Vozim te u gepeku do umice, poni molit krunice Predstavljam ulice, motam frulice I fine curice pretvaram u kurvice Vinjevac i Retfala, desetka il' petarda? Pravim hrpu beatova, poznajem hrpu retarda Dandare-mandare, moje kmice mrze andare 1-3-1-2, jebo sam vam mater ja Nula, tri, jedan, jedan, jedan, dva, jedan, osam, sedam Brate nikom na ler ne dam Razvozim pakete ko DHL Bri nego Schumacher Michael Ako neto tre'a, brate, lagano rijeim Troim vie kea nego Emil Tedeschi Kao Milan Bandi, popiam te, jadnie Nosim Gucci papue, jebem Q-klabae Serem se na radio stanice Istina U autu mi pue konobarice Pue mi, pue mi Zna da uivam dok brojim parice Brojim pare I trpam u madrace i ladice Massimo, Massimo Massimo, Massimo Massimo Massimo Savage direktno iz geta U depu mi bereta kad ulicom etam Svi znaju ko je Massimo Oko iskopa ti kaikom Da l' si, brate, dobro shvatio? Pogled mi je tol'ko leden da si se prehladio Namignem ti staroj kad ide na zornicu Sestri popiam ti polja kada igra kolicu I na trap isto sjednem ko na stolicu Inae boom bap, ali novi crnci dobri su Rodit e mi sina, kralja kodeina Kodeina Rodit e mi sina, kralja prometazina Prometazina Massimo i bomba runa, znai tvoja, bam, kua Dok bam, bam, pucam pijem Fanta Bamboocha Tra- tra- travu ljutu, na ranu ljutu Okreem gutu, snimam trep, viem Skrrt, skrrt Iz Retfatlante Savage Massimo, skkrt, skrrt Beat zamastio, objasnio, brate, skrrt, skrrt Ispred vremena, a ti si zakasnio skrrt, skrrt Massimo Bacim bombu na vas jer ste pike, brate, skrrt, skrrt Massimo, Massimo Massimo, Massimo</t>
+          <t>Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida i, i, i, RTF, uh Atmosfera Mobb Deep, da Brate, s glavom kroz zid, da Kroz zid Dalje s travom profit, uh S tvojom malom doggy Rest in peace Prodigy, i je on fleek Bolestan ko Taji, ne igram PUBG Vai igrai e izvu' krai obani leat ete u svojoj mokrai Da, Zeitgeist odvratni i pria ko da neto bolji si Da, Zeitgeist moderni, mon ami Lifestyle siromanih i opasnih, yeah Ladidadida, ladidadida Kaka je to na stolu praina? Uh Ladidadida ladidadida Razvuci tri crte, brate, Adidas, da Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida Ne pijem lean, pije se malina, uh Blaka, blaka AMG CLS, bolje FIFA nego PES Yeah Kupujmo hrvatsko, pitolj mi je HS Kada se savijem, vozim automatika Imam vie patika nego danki kaika Hodam po liniji ko Johnny Cash Perem te pare ko da perem ve Puim ha, Maroko, Marake Vrti, vrti, vrti dok ne padne Trim ove ulice kao Eros Grezda Teleskop mi ne slui za gledanje zvijezda esto sam u muriji, nikad ne druknem Savijen sam stalno, al' nikad ne puknem Jednom zabuni se arer puni se Vozim te u gepeku do umice, poni molit krunice Predstavljam ulice, motam frulice I fine curice pretvaram u kurvice Vinjevac i Retfala, desetka il' petarda? Pravim hrpu beatova, poznajem hrpu retarda Dandare-mandare, moje kmice mrze andare 1-3-1-2, jebo sam vam mater ja Nula, tri, jedan, jedan, jedan, dva, jedan, osam, sedam Brate nikom na ler ne dam Razvozim pakete ko DHL Bri nego Schumacher Michael Ako neto tre'a, brate, lagano rijeim Troim vie kea nego Emil Tedeschi Kao Milan Bandi, popiam te, jadnie Nosim Gucci papue, jebem Q-klabae Serem se na radio stanice Istina U autu mi pue konobarice Pue mi, pue mi Zna da uivam dok brojim parice Brojim pare I trpam u madrace i ladice Massimo, Massimo Massimo, Massimo Massimo Massimo Savage direktno iz geta U depu mi bereta kad ulicom etam Svi znaju ko je Massimo Oko iskopa ti kaikom Da l' si, brate, dobro shvatio? Pogled mi je tol'ko leden da si se prehladio Namignem ti staroj kad ide na zornicu Sestri popiam ti polja kada igra kolicu I na trap isto sjednem ko na stolicu Inae boom bap, ali novi crnci dobri su Rodit e mi sina, kralja kodeina Kodeina Rodit e mi sina, kralja prometazina Prometazina Massimo i bomba runa, znai tvoja, bam, kua Dok bam, bam, pucam pijem Fanta Bamboocha Tra- tra- travu ljutu, na ranu ljutu Okreem gutu, snimam trep, viem Skrrt, skrrt Iz Retfatlante Savage Massimo, skkrt, skrrt Beat zamastio, objasnio, brate, skrrt, skrrt Ispred vremena, a ti si zakasnio skrrt, skrrt Massimo Bacim bombu na vas jer ste pike, brate, skrrt, skrrt Massimo, Massimo Massimo, Massimo</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kurt uluma sesi Köede bekliyo' canolar, her biri benimle can alr u anda hedefim araba, yukar kalkmal kaps Sürekli bahsettim paradan, sonunda açld çekmece Her zaman tek korku yaradan, can o verir, o alr yok endie Dibinden kesik bi' pet ie veriyo' yürei sana Motoru sürerim üstüne Ces ile, kapadm tas olan kafam aga Kolay m lan, telefon, trafik reislik taslamam homolara Eer ki bulcaksan belan, numaram yaz, cebinden beni ara Hanginiz reis, hanginiz kral, hanginiz yürekli, kaçnz var? Annemin pazarda tad torbalar bile bu müptezellerden ar nönü, Parseller, Çekmece Ghetto, Güngören, Baclar Ne zaman dinlendiysek yanmza geldi suratsz yanclar Kopar direkt semtte yaygara, büyükler laf konuur, halleder küçükler Davullarn içine döner, sote eder kardeler henüz ufak tefekler Ya deil i, bk lafn yemekten diler köpeim baldrn Seni aklma koyduysam bulurum, umrumda olmaz hakimin yaptrm Çavo! Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz You might also like Sürekli denedin, denedin, her zamanki gibi yaptn sadece laf Ondan da pimansn eminim ama maalesef her eyin bi' bedeli var Duymadm, ne dedin, ne dedin, ha? Buraya gelmiyo' sesin hiç kral Geldik, atamadn mermileri o yüzden biraz daha tweet at Anca bu gelir elinden, açlr dünyaya yeteneim Yetimez sesiniz zeminden, sikiyim bütün felsefenizi Çekin u klar gözümden, uzam hepinizden Bi' boka yarardnz belki tutsaydk elinizden Popüler konumlar, hepsi sert çocuklar Da biter sonunda, bize dert olursa Sürtükler kolumda, çktk tersoluktan Tüm iler yolunda, devirmez sorunlar Her zamankinden daha çok parlar kolyem, görmediini sanmam Onlar anlamaktan yanayken her düüncemiz vandal Kskan amck, evindesin bense izlediin ekranda Deiti bütün dünya, sen bildiini tekrarla ya, ya Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz</t>
+          <t>Kurt uluma sesi Köede bekliyo' canolar, her biri benimle can alr u anda hedefim araba, yukar kalkmal kaps Sürekli bahsettim paradan, sonunda açld çekmece Her zaman tek korku yaradan, can o verir, o alr yok endie Dibinden kesik bi' pet ie veriyo' yürei sana Motoru sürerim üstüne Ces ile, kapadm tas olan kafam aga Kolay m lan, telefon, trafik reislik taslamam homolara Eer ki bulcaksan belan, numaram yaz, cebinden beni ara Hanginiz reis, hanginiz kral, hanginiz yürekli, kaçnz var? Annemin pazarda tad torbalar bile bu müptezellerden ar nönü, Parseller, Çekmece Ghetto, Güngören, Baclar Ne zaman dinlendiysek yanmza geldi suratsz yanclar Kopar direkt semtte yaygara, büyükler laf konuur, halleder küçükler Davullarn içine döner, sote eder kardeler henüz ufak tefekler Ya deil i, bk lafn yemekten diler köpeim baldrn Seni aklma koyduysam bulurum, umrumda olmaz hakimin yaptrm Çavo! Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Sürekli denedin, denedin, her zamanki gibi yaptn sadece laf Ondan da pimansn eminim ama maalesef her eyin bi' bedeli var Duymadm, ne dedin, ne dedin, ha? Buraya gelmiyo' sesin hiç kral Geldik, atamadn mermileri o yüzden biraz daha tweet at Anca bu gelir elinden, açlr dünyaya yeteneim Yetimez sesiniz zeminden, sikiyim bütün felsefenizi Çekin u klar gözümden, uzam hepinizden Bi' boka yarardnz belki tutsaydk elinizden Popüler konumlar, hepsi sert çocuklar Da biter sonunda, bize dert olursa Sürtükler kolumda, çktk tersoluktan Tüm iler yolunda, devirmez sorunlar Her zamankinden daha çok parlar kolyem, görmediini sanmam Onlar anlamaktan yanayken her düüncemiz vandal Kskan amck, evindesin bense izlediin ekranda Deiti bütün dünya, sen bildiini tekrarla ya, ya Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bir, iki, üç, dört Bir elimde kahveyi tutuyorum bir yandan da kulakln öbür ucunu Rüzgar parmak uçlarna deerken ve beraber küçük eyler yaparken bana sarlyorsun Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Nakarat Sonras Jeonghan, Joshua Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Uzanmak veya oturmak güzel olur diye düünmütüm ama seni gördüüm anda bu düünceler çok aptalmm gibi hissettiedi Neredesin mutluluum? Tüm mutluluum burada ite Seni bulduum için çok mutluyum You might also like Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Madem ayn yere bakyoruz el ele tutumak ister miydin? Gözlerimiz bulusa skca sarlmak ister miydin? Seninleyken gelen güzel düünceler Seninleyken mutlu bir ekilde gülerken görünüümüz Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk</t>
+          <t>Bir, iki, üç, dört Bir elimde kahveyi tutuyorum bir yandan da kulakln öbür ucunu Rüzgar parmak uçlarna deerken ve beraber küçük eyler yaparken bana sarlyorsun Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Nakarat Sonras Jeonghan, Joshua Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Uzanmak veya oturmak güzel olur diye düünmütüm ama seni gördüüm anda bu düünceler çok aptalmm gibi hissettiedi Neredesin mutluluum? Tüm mutluluum burada ite Seni bulduum için çok mutluyum Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Madem ayn yere bakyoruz el ele tutumak ister miydin? Gözlerimiz bulusa skca sarlmak ister miydin? Seninleyken gelen güzel düünceler Seninleyken mutlu bir ekilde gülerken görünüümüz Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Neyin varsa kaldrp çöpe attm Saçlarm kestirdim hemen sarya boyattm Bitanem diye kaydetmitim ya hani telefonuma Sildim derhal, herkes gibi adn yazdm Sensizlik bana çok iyi geldi Ne kadar da ihmal etmiim kendimi Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Attm kendimi sokaklara Dokundum sarho yabanc ellere Üstelik de hiç piman olmadm Ama hâlimden de hiç memnun kalmadm Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki You might also like Aslnda iyiyim gerçekten Bir kere özgür hissediyorum kendimi Çapraz yatyorum yatakta Oh be diyorum, Her ey tamamen benim artk Canm ne isterse onu yapyorum Ama bazen Bilhassa akam olurken Bir tuhaflk olmuyor deil Szlyorum, özlüyorum Resimlerini atamyorum mesela Bakamyorum, kzyorum Çok kzyorum Üzmek istiyorum seni Cann yakmak istiyorum Sonra yatyorum Sana da üzülüyorum Ama iyileiyorum ya, iyileiyorum Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki</t>
+          <t>Neyin varsa kaldrp çöpe attm Saçlarm kestirdim hemen sarya boyattm Bitanem diye kaydetmitim ya hani telefonuma Sildim derhal, herkes gibi adn yazdm Sensizlik bana çok iyi geldi Ne kadar da ihmal etmiim kendimi Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Attm kendimi sokaklara Dokundum sarho yabanc ellere Üstelik de hiç piman olmadm Ama hâlimden de hiç memnun kalmadm Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Aslnda iyiyim gerçekten Bir kere özgür hissediyorum kendimi Çapraz yatyorum yatakta Oh be diyorum, Her ey tamamen benim artk Canm ne isterse onu yapyorum Ama bazen Bilhassa akam olurken Bir tuhaflk olmuyor deil Szlyorum, özlüyorum Resimlerini atamyorum mesela Bakamyorum, kzyorum Çok kzyorum Üzmek istiyorum seni Cann yakmak istiyorum Sonra yatyorum Sana da üzülüyorum Ama iyileiyorum ya, iyileiyorum Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Last yeast me got a honda sub in a singe week Last ear me manged 2 get myself in a bit of leaf Me maek song wit jamy ma came men And me join elite after leavin hype clan' Me done a challenge and it were literally Spricey And on my birthday it were anything but icy Least year me caused a bit of a catsatpatry And me say Weyal know da universe is bigger dan teh galaxie Last year me maek dat distrack And someone leaks on me And me learn t 2 tell no one my secretz Then me say fuck u way 2 much But it got me submarines Last year me hired and fired a untrustworthy manager Then she tried 2 diss me, armature Then me lost my thumb nail and logan poll stole it Then galaxy maek up a bunch of stupid b You might also likeYeah still famly frendy 2017 sigh 'right Last year Me maek a buncha mean a buncha mean friends And then last year ends Me mean There is allot of stuf me will say But me wrode this in half a hore So its teh best me will so Yeah so ill se u guys later G00dbye And happy birthday 2 my chanel</t>
+          <t>Last yeast me got a honda sub in a singe week Last ear me manged 2 get myself in a bit of leaf Me maek song wit jamy ma came men And me join elite after leavin hype clan' Me done a challenge and it were literally Spricey And on my birthday it were anything but icy Least year me caused a bit of a catsatpatry And me say Weyal know da universe is bigger dan teh galaxie Last year me maek dat distrack And someone leaks on me And me learn t 2 tell no one my secretz Then me say fuck u way 2 much But it got me submarines Last year me hired and fired a untrustworthy manager Then she tried 2 diss me, armature Then me lost my thumb nail and logan poll stole it Then galaxy maek up a bunch of stupid b Yeah still famly frendy 2017 sigh 'right Last year Me maek a buncha mean a buncha mean friends And then last year ends Me mean There is allot of stuf me will say But me wrode this in half a hore So its teh best me will so Yeah so ill se u guys later G00dbye And happy birthday 2 my chanel</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ruka Dodaj te pare vidi dinar ako fali Bato stici cu tu bulju bas ko jebeni rafali wo! Vi znate struku za moj drzak tonalitet Medju nogama kvantitet daj da uzmem parce pite Kinte vise od denira jebenog kazina Al opet ispadam iz shina gde god zgazim tu je mina bla! Moji poslovni partneri su tajkuni Pa kad svedu se racuni dzepovi ce biti puni Stize nam oluja tu je dok ja okom trenem Nema stajanja kad krenem pa pomoli se za mene Prave drugove drugove brojim na prste Delim ljude na vrste male djane i cvrte Udarce sam primo niko nikad nije pomogo Sada shvatam bato da to dosta mi je pomoglo Postao sam vojnik nosim se sa sranjem Nisam tanak sa kesom i sine nece biti tanje Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela You might also likeKes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Ii Lud Ja sam iz kraja iz kraja! Gde keve piju Ja sam iz kraja - iz kraja! Gde zenska deca shiju Gde rija zove riju Klinci potezu giju Pa kad su stuceni Biju sa kezom do usiju Tipa mi te bali je od centra pa do slavije Delim prijave onda mora da se zalije Tako je siggy vidi klince sta im je Ne vare da se navare Vec glume mangupe i varvare Huligani naduvani dobro uigrani Ujdomani lerdi i armani brte stani Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Iii Struka lud ???- a sta se stvarno desava!!! S- sta ima novo lud? L- sve po starom siggy stru Ulicu znam po zlu sad sam tu jer nemam kud S- dobro dosao u klub, imam wu imas zlu? L- vec si se naduvo brate znas da nevamdu S- sve je sve je kul sve je kul L- dodaj vodku vamo jer imam red bul S-cekiraj nam flow sine L-bas je old skul Sl- vidi ribu uuu, uu jebao bi nju L- jebao bi nju? S- da jebo bi tu chku L- ta riba striktno fura fazon seks u leksusu S- a ja vozim daewo koji nije nesto skup Mozda je to razlog zasto drkam svaki put L- prico sam ti kada sam zaglavio na sud Kuchka kaze da sam je primorao na blud S- seres brate ne, mojne da seres.. L- brateeeee Sl puno toplih pozdrava salju struka i lud !!!wooo Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela</t>
+          <t>Ruka Dodaj te pare vidi dinar ako fali Bato stici cu tu bulju bas ko jebeni rafali wo! Vi znate struku za moj drzak tonalitet Medju nogama kvantitet daj da uzmem parce pite Kinte vise od denira jebenog kazina Al opet ispadam iz shina gde god zgazim tu je mina bla! Moji poslovni partneri su tajkuni Pa kad svedu se racuni dzepovi ce biti puni Stize nam oluja tu je dok ja okom trenem Nema stajanja kad krenem pa pomoli se za mene Prave drugove drugove brojim na prste Delim ljude na vrste male djane i cvrte Udarce sam primo niko nikad nije pomogo Sada shvatam bato da to dosta mi je pomoglo Postao sam vojnik nosim se sa sranjem Nisam tanak sa kesom i sine nece biti tanje Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Ii Lud Ja sam iz kraja iz kraja! Gde keve piju Ja sam iz kraja - iz kraja! Gde zenska deca shiju Gde rija zove riju Klinci potezu giju Pa kad su stuceni Biju sa kezom do usiju Tipa mi te bali je od centra pa do slavije Delim prijave onda mora da se zalije Tako je siggy vidi klince sta im je Ne vare da se navare Vec glume mangupe i varvare Huligani naduvani dobro uigrani Ujdomani lerdi i armani brte stani Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Iii Struka lud ???- a sta se stvarno desava!!! S- sta ima novo lud? L- sve po starom siggy stru Ulicu znam po zlu sad sam tu jer nemam kud S- dobro dosao u klub, imam wu imas zlu? L- vec si se naduvo brate znas da nevamdu S- sve je sve je kul sve je kul L- dodaj vodku vamo jer imam red bul S-cekiraj nam flow sine L-bas je old skul Sl- vidi ribu uuu, uu jebao bi nju L- jebao bi nju? S- da jebo bi tu chku L- ta riba striktno fura fazon seks u leksusu S- a ja vozim daewo koji nije nesto skup Mozda je to razlog zasto drkam svaki put L- prico sam ti kada sam zaglavio na sud Kuchka kaze da sam je primorao na blud S- seres brate ne, mojne da seres.. L- brateeeee Sl puno toplih pozdrava salju struka i lud !!!wooo Ref Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela Kes klijentela kola gola zenska tela - shta Korak po korak od hotela do bordela - shta Shirimo biznis bassivity kartela Cela ekipa je tu svi furaju odela</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bu cann yakar verir adama ayar Suratna bakarsa düürür adamn Deli dolabn dolduramazsn Gözü yine bulank ya takm kalabalk Bu sonsuz teknik, this is means ficktir Karambol hala isimsiz piçlersiniz Nefret edip sevilmek istersiniz En fazla gelip uzaktan izlersiniz Sonu yok ama gel, gel gel gel gel Yolu yok hadi gel, hadi hadi hadi hadi Karakterin bozuk buddy adama benzesen bari Hep bizde yani bize her gün Paris Tek farksa bu laklakla yaklamadan kaçmak Uzaklamak her kapdan amaçszca çkmak Paraleli bulmak, ara beni kurnaz Si.... Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic You might also like Ben hayatmda Rap'i baka yerden geçirmedim Çok istedik gemilerle o sulardan geçilmedi Sonbahar akamlar hiç kimseye içirmedim Olanlar hatrlatan insanlar biçimlenir Var yok sanma, buralarda aslanlar Türkçe Rap'in her noktasnda rastlarlar Brak Mafsallar bu yüzden astar var Koza gerek yok batakta aslar var Adm Narkoz, bu Rap'in egzosisti Kondisyon için egzersizi Müzie egzoz sesi katan bu embesili Çok besili bi' ite atp kesin sesi Adm Giyotin kafama ermek için çok zehir Bir sigara için, kelime ekip de cümle biçin Ölünmez ki bi' bitch için, asp kesip de kelle biçin Adn kana da boyayan adama Merhaba demeden kayda alalm Buray bu kadar boyamak adamm Kolay m sandn, dene de bakalm Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Herkes farkl ama tek stil Bizim ekibe dikkat bizi tek geçin Konuur kimisi de bi' sikim bilmez Oluum kuranlar bi' sikim etmez Amatör porno yönetmeni gibi YÖK'ün emrindedir tüm fakülteler Bana rap, sana ne, bo koy bo t, bak bak farkl statüler Kimileri diyo bana Gökdeniz haval Krmz bandana suratma takarm Pislik gibiyim bu aralar adamm Osi'yle paslap doksana takarm Gökhan'dr adamm, Saye'yle taklr Genco'yu görünce selam çakarm Uur arad, Sansar da arad Stüdyoya geliyolar Rapozof'u çarn Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Senden benden farkl olmaz zaten Yerden kalk bak ... otur ören Bak bakim kalk ayaa kimmi o? Herkes yerinden kaçarm ovv Biz dilimize hakimdik Herkes kaçarken biz sakindik, kendimize hakimdik Apaçi taktii, deitirir sistemi Merdivenin takibi oynarken katili Bi' cümle, bi' ölü, bi' kelime yaradr Bizim takm taratr evini kendini tantr Aklm her verse yeni bi' canavar yaratr Elli frn ekmek yesen sanma bu aray kapatr Deme bunlar, kimdi gene bunlar Yine bize kini brakp dürüst olmay bi' dene Sekizinci sene saygn alnmdaki tere Tek trackte dokuz adamla birden serilirsin yere Dikta, Ortadou'nun en son diktatörü Batan aa deli ayn Muammer Kaddafi Merdiven Alcatraz kurt sürüsü imdi av vakti Kadköy en karanlk orman, kaçmalsn buradan Ate verip dönünce sadan her bir yan sarar duman Bir gün gelir beton duvarlar, gri sokaklar Caddeler, semtler bize dar gelir ve silah patlar Bu kurtlarn masas açld tüm kartlar Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic1</t>
+          <t>Bu cann yakar verir adama ayar Suratna bakarsa düürür adamn Deli dolabn dolduramazsn Gözü yine bulank ya takm kalabalk Bu sonsuz teknik, this is means ficktir Karambol hala isimsiz piçlersiniz Nefret edip sevilmek istersiniz En fazla gelip uzaktan izlersiniz Sonu yok ama gel, gel gel gel gel Yolu yok hadi gel, hadi hadi hadi hadi Karakterin bozuk buddy adama benzesen bari Hep bizde yani bize her gün Paris Tek farksa bu laklakla yaklamadan kaçmak Uzaklamak her kapdan amaçszca çkmak Paraleli bulmak, ara beni kurnaz Si.... Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Ben hayatmda Rap'i baka yerden geçirmedim Çok istedik gemilerle o sulardan geçilmedi Sonbahar akamlar hiç kimseye içirmedim Olanlar hatrlatan insanlar biçimlenir Var yok sanma, buralarda aslanlar Türkçe Rap'in her noktasnda rastlarlar Brak Mafsallar bu yüzden astar var Koza gerek yok batakta aslar var Adm Narkoz, bu Rap'in egzosisti Kondisyon için egzersizi Müzie egzoz sesi katan bu embesili Çok besili bi' ite atp kesin sesi Adm Giyotin kafama ermek için çok zehir Bir sigara için, kelime ekip de cümle biçin Ölünmez ki bi' bitch için, asp kesip de kelle biçin Adn kana da boyayan adama Merhaba demeden kayda alalm Buray bu kadar boyamak adamm Kolay m sandn, dene de bakalm Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Herkes farkl ama tek stil Bizim ekibe dikkat bizi tek geçin Konuur kimisi de bi' sikim bilmez Oluum kuranlar bi' sikim etmez Amatör porno yönetmeni gibi YÖK'ün emrindedir tüm fakülteler Bana rap, sana ne, bo koy bo t, bak bak farkl statüler Kimileri diyo bana Gökdeniz haval Krmz bandana suratma takarm Pislik gibiyim bu aralar adamm Osi'yle paslap doksana takarm Gökhan'dr adamm, Saye'yle taklr Genco'yu görünce selam çakarm Uur arad, Sansar da arad Stüdyoya geliyolar Rapozof'u çarn Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Senden benden farkl olmaz zaten Yerden kalk bak ... otur ören Bak bakim kalk ayaa kimmi o? Herkes yerinden kaçarm ovv Biz dilimize hakimdik Herkes kaçarken biz sakindik, kendimize hakimdik Apaçi taktii, deitirir sistemi Merdivenin takibi oynarken katili Bi' cümle, bi' ölü, bi' kelime yaradr Bizim takm taratr evini kendini tantr Aklm her verse yeni bi' canavar yaratr Elli frn ekmek yesen sanma bu aray kapatr Deme bunlar, kimdi gene bunlar Yine bize kini brakp dürüst olmay bi' dene Sekizinci sene saygn alnmdaki tere Tek trackte dokuz adamla birden serilirsin yere Dikta, Ortadou'nun en son diktatörü Batan aa deli ayn Muammer Kaddafi Merdiven Alcatraz kurt sürüsü imdi av vakti Kadköy en karanlk orman, kaçmalsn buradan Ate verip dönünce sadan her bir yan sarar duman Bir gün gelir beton duvarlar, gri sokaklar Caddeler, semtler bize dar gelir ve silah patlar Bu kurtlarn masas açld tüm kartlar Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic Oo kim, bunlar kim? Kandrr ruhunu sokaktaki Oo kim, bunlar kim? Merdiven, Alcatraz, Ultrasonic1</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için You might also like Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
+          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman zine alalm huyuna çalalm D buz içi balm, nerdesin ? O beni unutacak, birine alacak ki kez acnacak yerdesin Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn i abartmasnlar Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn Yeter uzatmasnlar You might also like Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman zine alalm huyuna çalalm D buz içi balm, nerdesin ? O beni unutacak, birine alacak ki kez acnacak yerdesin Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn i abartmasnlar Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn Yeter uzatmasnlar Takp o zilleri beline Atp kederleri derine Geçip güzellerin önüne O gül dudaktan öpmek lazm Giderse gitsin nereye Verip o günleri geriye Sabahtan akama rakya Girip bir uçtan çkmak lazm Takp o zilleri beline Atp kederleri derine Geçip güzellerin önüne O gül dudaktan öpmek lazm Giderse gitsin nereye Verip o günleri geriye Sabahtan akama rakya Girip bir uçtan çkmak lazm</t>
+          <t>Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman zine alalm huyuna çalalm D buz içi balm, nerdesin ? O beni unutacak, birine alacak ki kez acnacak yerdesin Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn i abartmasnlar Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn Yeter uzatmasnlar Bütün aclar yazyorum vasiyetime Sana yakan yapp onu oku o zaman Gram acmad kötü diye vaziyetime Sana yakan yapp onu koru o zaman zine alalm huyuna çalalm D buz içi balm, nerdesin ? O beni unutacak, birine alacak ki kez acnacak yerdesin Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn i abartmasnlar Yüzüme bakmasn ama brakmasn Onu ayartmasnlar Beni yakan güne onu da yakmasn Yeter uzatmasnlar Takp o zilleri beline Atp kederleri derine Geçip güzellerin önüne O gül dudaktan öpmek lazm Giderse gitsin nereye Verip o günleri geriye Sabahtan akama rakya Girip bir uçtan çkmak lazm Takp o zilleri beline Atp kederleri derine Geçip güzellerin önüne O gül dudaktan öpmek lazm Giderse gitsin nereye Verip o günleri geriye Sabahtan akama rakya Girip bir uçtan çkmak lazm</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ban man döner Gözlerin arlar Her eye ayksndr da insanlar tuhaflar Balar bahaneler, ey, palavrasn Tarihte yer alcaz, aman kimse uyanmasn Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, Woah, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ya Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya Grçekler um'rumda deil Bu smtten kurtulmam lazm Paçamz her zaman iyi Bktm lan, yoluma çkmaman lazm iimi bunlar dikkate alca'm lazm Bi' vakit krcam diimi Dem'ice'm bilesin konu kapand Ya, ya, ya UZI iimizi çöz, ah Kanka yarm kaldm, bu sonuncu söz, ah Haber bekliyorum, lütfen bizi gör, ah GNG, M.O.B, olsa ceset Murda Bi' yerinde dur diyo'lar, dinlemiyorum Sürekli ölüm kenarnda yatp dinleniyorum Çakm yanmda ve kafam güzel bilemiyorum Bi' ton kardeim var kendimde i göremiyorum, ya You might also like Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ya Tan evinden, ya, tan evinden Ban dertte çocuk hemen tan evinden, ya Gel, adm at, bi' kez geç sokamda Hangi varo çocuu veriyo' bi' buçuk kira? Sana sknt olurum eer kafam atarsa Tutarsa ne tutar tiner, mermi bi' buçuk lira Bu bi' tehtit deil ya, bu bi' tehtit deil akamz komik olur emin ol bak bu aka da deil Ne dediin önemli deil, hiç um'rumda da deil Asosyal yürek sokaktadr yorumlarda deil Saçm tuhaf, eofman takmm iyi Eofman takmm iyi Vücudum boyal Meksika stili Bekliyo' hepiniz ölmemi bilirim bi' daha deneyin Ama bi' denyo cann alacak bi' lambann altnda Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya</t>
+          <t>Ban man döner Gözlerin arlar Her eye ayksndr da insanlar tuhaflar Balar bahaneler, ey, palavrasn Tarihte yer alcaz, aman kimse uyanmasn Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, Woah, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ya Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya Grçekler um'rumda deil Bu smtten kurtulmam lazm Paçamz her zaman iyi Bktm lan, yoluma çkmaman lazm iimi bunlar dikkate alca'm lazm Bi' vakit krcam diimi Dem'ice'm bilesin konu kapand Ya, ya, ya UZI iimizi çöz, ah Kanka yarm kaldm, bu sonuncu söz, ah Haber bekliyorum, lütfen bizi gör, ah GNG, M.O.B, olsa ceset Murda Bi' yerinde dur diyo'lar, dinlemiyorum Sürekli ölüm kenarnda yatp dinleniyorum Çakm yanmda ve kafam güzel bilemiyorum Bi' ton kardeim var kendimde i göremiyorum, ya Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ya Tan evinden, ya, tan evinden Ban dertte çocuk hemen tan evinden, ya Gel, adm at, bi' kez geç sokamda Hangi varo çocuu veriyo' bi' buçuk kira? Sana sknt olurum eer kafam atarsa Tutarsa ne tutar tiner, mermi bi' buçuk lira Bu bi' tehtit deil ya, bu bi' tehtit deil akamz komik olur emin ol bak bu aka da deil Ne dediin önemli deil, hiç um'rumda da deil Asosyal yürek sokaktadr yorumlarda deil Saçm tuhaf, eofman takmm iyi Eofman takmm iyi Vücudum boyal Meksika stili Bekliyo' hepiniz ölmemi bilirim bi' daha deneyin Ama bi' denyo cann alacak bi' lambann altnda Tan evinden, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya Tan evinden, ya, tan evinden Yan daha küçük, yazk oldu imdiden, ey Tan evinden, tan evinden Ban dertte çocuk hemen tan evinden, ya</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Yeah Lan bir gün bir hrsz Joker mi sikti sizi amna koyim, bir yalanc Allame mi sikti apaçi, bir maymun isimlerini vermi'yim bir arada yayorlarm köpek almaya karar verir Siz yazdnz bunlar lla cevap geli'cek kanka kimse kusura bakmasn Ne hallere dütünüz reklam için olum yapmayn Uzatmasn, uzatmasn tamam da biz uzatmadk Anl gözlüünden daha yararl No.1'in kül tablas Adm geçmeseydi herey harikayd Yapm olmak için yapmak yapmamaktan hayli kolaydr Ve kesinlemek üzere dava kapanm'cak olaysz Bi' sussanz sekiz tepsi baklavayla apansz Kapnzda biterdim ve emin olun abisi Diss yerine spor yapn daha yararl kalp için Red abiniz falan deil lan Red, Keian'n eltisi Ben konusam bütün sekiz birbiriyle dissleir Bakyorum taktiiniz yine geri tepti Her arknz olay ama hepsi de boa tepki Yeni albüm çktnda koup hemen netten indir Beatleri kontrol et eer çalntysa Red'dir Reenkarne gerçekse ve maymun olup gel'ceksen Keianda insan olup gelsin moruk gelcekse Ve Ais sana bi' tavsiyem var be kanka Burnunu silip oyna bence bi' sonra ki klipte Rasta falan okey ama sümük hiç ho deil Açk etmem merak etme söylediin bi' çok eyi Alef kamilinin Erol Köse yolundaki çabalar Freestyle partisinde anlatmamla olur geyik Neyse devam etsin yalaklar senin kitlen Arslantürk a.k.a rapçi siken Hitler Nasl bi' hayalin ürünüdür çocuk senin cesaretin Sanki çkm o da ünün gibi küçük cipsten zmir bulvarda acapella atan biri var Anl rapin deil senin erkekliin minimal Gözlüünü çkar olum görsün herkes derstir Grogi bi' ey sor'cam sana o dilerin lens mi? You might also like Biz var ya niye kabadayyz? Düzenle uyum salayamadmz için, kimsenin iplerimizi oynatmasndan holanmadnz için, isyankâr olduumuz için sen çok büyüdün Niye? çimden öyle geldi, sevmedim söylediklerini Yani ben sigara brakmaktan kastm seni öyle feci sikerim ki bütün gün sigara yakar, anlatabiliyo' muyum? Yani h anladn zannetmiyorum ama öyle bi' e Gözlükleri çkar duymuyo'sun beni Hahaha olum Hahaha Ya çok komiksiniz lan harbi ben zekiyim olum siz malsnz amna koyim Hahaha Kapa ya</t>
+          <t>Yeah Lan bir gün bir hrsz Joker mi sikti sizi amna koyim, bir yalanc Allame mi sikti apaçi, bir maymun isimlerini vermi'yim bir arada yayorlarm köpek almaya karar verir Siz yazdnz bunlar lla cevap geli'cek kanka kimse kusura bakmasn Ne hallere dütünüz reklam için olum yapmayn Uzatmasn, uzatmasn tamam da biz uzatmadk Anl gözlüünden daha yararl No.1'in kül tablas Adm geçmeseydi herey harikayd Yapm olmak için yapmak yapmamaktan hayli kolaydr Ve kesinlemek üzere dava kapanm'cak olaysz Bi' sussanz sekiz tepsi baklavayla apansz Kapnzda biterdim ve emin olun abisi Diss yerine spor yapn daha yararl kalp için Red abiniz falan deil lan Red, Keian'n eltisi Ben konusam bütün sekiz birbiriyle dissleir Bakyorum taktiiniz yine geri tepti Her arknz olay ama hepsi de boa tepki Yeni albüm çktnda koup hemen netten indir Beatleri kontrol et eer çalntysa Red'dir Reenkarne gerçekse ve maymun olup gel'ceksen Keianda insan olup gelsin moruk gelcekse Ve Ais sana bi' tavsiyem var be kanka Burnunu silip oyna bence bi' sonra ki klipte Rasta falan okey ama sümük hiç ho deil Açk etmem merak etme söylediin bi' çok eyi Alef kamilinin Erol Köse yolundaki çabalar Freestyle partisinde anlatmamla olur geyik Neyse devam etsin yalaklar senin kitlen Arslantürk a.k.a rapçi siken Hitler Nasl bi' hayalin ürünüdür çocuk senin cesaretin Sanki çkm o da ünün gibi küçük cipsten zmir bulvarda acapella atan biri var Anl rapin deil senin erkekliin minimal Gözlüünü çkar olum görsün herkes derstir Grogi bi' ey sor'cam sana o dilerin lens mi? Biz var ya niye kabadayyz? Düzenle uyum salayamadmz için, kimsenin iplerimizi oynatmasndan holanmadnz için, isyankâr olduumuz için sen çok büyüdün Niye? çimden öyle geldi, sevmedim söylediklerini Yani ben sigara brakmaktan kastm seni öyle feci sikerim ki bütün gün sigara yakar, anlatabiliyo' muyum? Yani h anladn zannetmiyorum ama öyle bi' e Gözlükleri çkar duymuyo'sun beni Hahaha olum Hahaha Ya çok komiksiniz lan harbi ben zekiyim olum siz malsnz amna koyim Hahaha Kapa ya</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>'Bout that time They asked me where was I going you know I, said, well You have to be reasonable So you know I've never been away from home before And, uh, besides they gave me a good deal And I think that, uh Funkadelica is You know, the nation That, you know, I would like to, live under What in the world is this boy talking about? Pledge a groovallegiance to the funk The United Funk of Funkadelica Uh, dey funk, well dey funk, today funk Of da United Funk of Funkadelica Pledge a groovallegiance to the funk I pledge groovallegiance to the flag Of funky, funky, Funkadelica, yeah The United Funk of Funkadelica Uh, dey funk, well dey funk, today funk With the united funk we can fly! You might also like For if our cause was unjust We couldn't bring this funk to you So we feel that it's a must It is something we should do You know Let me take you by the hand And spread the funk across the land It's not hard to understand Headin' for the master plan Pledge a groovallegiance to the funk Oh yeah The United Funk of Funkadelica Oh Yea-Hoo Dey do do da funk Do da funk-de e de dee Pardon me, but I can tell We know each other very well Take my funk and let it grow And then we'll funk some more Please come on, come all to the funk Let your feelings grow as one Join this nation, you will see That we can make you free Dip-Dip de-diddy-de-dep-dee Pledge a groovallegiance to the funk Oh yeah The United Funk of Funkadelica Oh yeah Do dey, do dey funk? Oh yeah Do dey funk? Un, hum Do dey funk? So if you just take the time You'd see we need to draw the line When we do I'm sure you'll find That we come to free your mind Oh yeah Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do you promise to funk, the whole funk and Nothing but the funk Go forth and funk I am sorry I have but one funk to give to my nation One nation under a groove Think! it ain't illegal yet In funk we trust Do you pledge grooveallegiance to the funk? One nation under a groove It ain't illegal yet I believe in the funk!</t>
+          <t>'Bout that time They asked me where was I going you know I, said, well You have to be reasonable So you know I've never been away from home before And, uh, besides they gave me a good deal And I think that, uh Funkadelica is You know, the nation That, you know, I would like to, live under What in the world is this boy talking about? Pledge a groovallegiance to the funk The United Funk of Funkadelica Uh, dey funk, well dey funk, today funk Of da United Funk of Funkadelica Pledge a groovallegiance to the funk I pledge groovallegiance to the flag Of funky, funky, Funkadelica, yeah The United Funk of Funkadelica Uh, dey funk, well dey funk, today funk With the united funk we can fly! For if our cause was unjust We couldn't bring this funk to you So we feel that it's a must It is something we should do You know Let me take you by the hand And spread the funk across the land It's not hard to understand Headin' for the master plan Pledge a groovallegiance to the funk Oh yeah The United Funk of Funkadelica Oh Yea-Hoo Dey do do da funk Do da funk-de e de dee Pardon me, but I can tell We know each other very well Take my funk and let it grow And then we'll funk some more Please come on, come all to the funk Let your feelings grow as one Join this nation, you will see That we can make you free Dip-Dip de-diddy-de-dep-dee Pledge a groovallegiance to the funk Oh yeah The United Funk of Funkadelica Oh yeah Do dey, do dey funk? Oh yeah Do dey funk? Un, hum Do dey funk? So if you just take the time You'd see we need to draw the line When we do I'm sure you'll find That we come to free your mind Oh yeah Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do-doop--doop-do-wow Do you promise to funk, the whole funk and Nothing but the funk Go forth and funk I am sorry I have but one funk to give to my nation One nation under a groove Think! it ain't illegal yet In funk we trust Do you pledge grooveallegiance to the funk? One nation under a groove It ain't illegal yet I believe in the funk!</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Umut bitti gam, admz kan, soyadmz intikam Yazg bozdu dilimi, biz yontalm, elbet geçer zaman Korkmad dilim, kimi zaman neeyle sürçtü Kahpe bi' pusuda sana saldrgan cümleler kurdu, ilk bi'kaç cephede dütü Var msn yok yere kafa tutmaya kâinata? martalm nefretimizi artk elinden ne gelirse Kime ne cüret gösterebilirsek o kadar, ey, adna ne denirse Ettiim küfürden gurur duyarak bekledim, gelmedi, ya gelirse? Çünkü keder, gövdemde açlan kzl bayrak kant smin bir ylmn on iki kadn, öldüm kaç gece yataa yatp Sana bi' gün bi' szdan bahsetmitim o biçim kalayl Kirpiklerinle dinledin ama salt gözlerin belden yanayd Sen hangi corafyadan çekinsen gökyüzü nesnel Senin tenin lütuf, benimki derdimi anlatacak kadar esmer Ben hangi direni yüreklensem o zaman çiçeklendin Sen bekle bizi güne ülkesi hangi kanda temizlendiysen Derman yok, kaybetme istemi, üstüm bam kan Oysa dünyadan bana medet kalmad, umut bitti lan Sözcük cephane patlatan idem, denizin ortasnda duba O srada kentte ince bir mevsim yürür urtuba Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? You might also like Get slowed down like parachutes Get slowed down like parachutes Hani bi gelecek beklersin ya, Acaba? dedirtir hey'can Bu çabayla kalkarsan kucana düer haziran Hazinem vurursa neden bu ziyan? Adn çlklarma yakmayan aciz hezeyan Belki baka diyarda sevecek bir ey kalmtr Dibine biraz umut birikir diye duygularn kartr Uzun metraj aln yazl filmimsin Seni izlemek için göz kapaklarm kestim Akamdan hazr, akamdan ellerim de titrek Orada mezarlar beyaz, bur'da kaynar kurt, böcek Sanki güne bi' tek sana doar, ne vard sevecek? Gece, gündüze karar verirken iki kez düünecek Saniyeler hissedilir, kalpten kalkar tortu Saate bakmamtm, oysa cumalar konutu O gün cehennemden hamile melekler dourdu Yere söküp göe tükürsem zdraplar sour mu? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Get slowed down like parachutes Get slowed down like parachutes1</t>
+          <t>Umut bitti gam, admz kan, soyadmz intikam Yazg bozdu dilimi, biz yontalm, elbet geçer zaman Korkmad dilim, kimi zaman neeyle sürçtü Kahpe bi' pusuda sana saldrgan cümleler kurdu, ilk bi'kaç cephede dütü Var msn yok yere kafa tutmaya kâinata? martalm nefretimizi artk elinden ne gelirse Kime ne cüret gösterebilirsek o kadar, ey, adna ne denirse Ettiim küfürden gurur duyarak bekledim, gelmedi, ya gelirse? Çünkü keder, gövdemde açlan kzl bayrak kant smin bir ylmn on iki kadn, öldüm kaç gece yataa yatp Sana bi' gün bi' szdan bahsetmitim o biçim kalayl Kirpiklerinle dinledin ama salt gözlerin belden yanayd Sen hangi corafyadan çekinsen gökyüzü nesnel Senin tenin lütuf, benimki derdimi anlatacak kadar esmer Ben hangi direni yüreklensem o zaman çiçeklendin Sen bekle bizi güne ülkesi hangi kanda temizlendiysen Derman yok, kaybetme istemi, üstüm bam kan Oysa dünyadan bana medet kalmad, umut bitti lan Sözcük cephane patlatan idem, denizin ortasnda duba O srada kentte ince bir mevsim yürür urtuba Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Get slowed down like parachutes Get slowed down like parachutes Hani bi gelecek beklersin ya, Acaba? dedirtir hey'can Bu çabayla kalkarsan kucana düer haziran Hazinem vurursa neden bu ziyan? Adn çlklarma yakmayan aciz hezeyan Belki baka diyarda sevecek bir ey kalmtr Dibine biraz umut birikir diye duygularn kartr Uzun metraj aln yazl filmimsin Seni izlemek için göz kapaklarm kestim Akamdan hazr, akamdan ellerim de titrek Orada mezarlar beyaz, bur'da kaynar kurt, böcek Sanki güne bi' tek sana doar, ne vard sevecek? Gece, gündüze karar verirken iki kez düünecek Saniyeler hissedilir, kalpten kalkar tortu Saate bakmamtm, oysa cumalar konutu O gün cehennemden hamile melekler dourdu Yere söküp göe tükürsem zdraplar sour mu? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Anlat onlara hiç tamamlanmam öykülerimizi Anlat yars ark, yars çocuk insanlar Anlat, örselenmek ne demek? Yumruk skmak ne? Anlat onlara, yeniden yapmak için ykmak ne? Get slowed down like parachutes Get slowed down like parachutes1</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kaç adm kald günden güne Vedalatk dostlarla çoktan... Selam kestik gündüzlerle Geceler yaratld bize yoktan Unuttuk güzel günleri Zamansz gitti herkes aramzdan Krk yl hatr vardr mazinin çocuk Misafir olur mu dosttan? Dütüümde oldu kimi zaman Aksak yürürsün bu yollarda Terkedip gidersin bazen Gözleri yala dolar onlarda Arkandan krlr kalpler Vadedilmi umutlarla Derd-i Diyar olmu vatanm Kararr toprak yerin altnda Giderim zaman gelince çekilir fi I bitince kenara geçilir Bedenim bana emanet Göze göz die di! Yanarm atei kavurur beni bu son sis, duman Masallar anlatld dinledik biz hep yalan... Gelirim yanna yine çarsa gözlerin beni inan Susard Diller! Bilirim yeniden dirilir geride kalan ne varsa o zaman Dolard Gözler... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Paslanm beyinlerin kimyasal çözeltisi Parayla nispet yapan kars deil eltisi Zengin falan deilsen ilemez bürokrasi Bayat olur bizim burda meyhanenin meyvesi Gözlerimin içine bak! Bir yere kaybolma Kelimelerimin içine dal! Fazla dü kurma Yerim uzak, biraz tuzak Özgür düünce burada yasak Darda kar yayor Gerçekten de çok scak Sokaktadr hayatn En derin hikayesi Yürümek baya zordur Her taraf dikenli Sorsan herkes yalana kar Her zaman da yeminli Malzemeyi görene kadar insanln tövbesi Nedeni belli deil ama imdi bende yorgunum Keyfim yok bu ara inan ki Çok fena da durgunum Tüme varm Geri saym Balangca ilk adm Gökyüzün'den yere düen Yamur deil Yldrm! Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden...You might also like</t>
+          <t>Kaç adm kald günden güne Vedalatk dostlarla çoktan... Selam kestik gündüzlerle Geceler yaratld bize yoktan Unuttuk güzel günleri Zamansz gitti herkes aramzdan Krk yl hatr vardr mazinin çocuk Misafir olur mu dosttan? Dütüümde oldu kimi zaman Aksak yürürsün bu yollarda Terkedip gidersin bazen Gözleri yala dolar onlarda Arkandan krlr kalpler Vadedilmi umutlarla Derd-i Diyar olmu vatanm Kararr toprak yerin altnda Giderim zaman gelince çekilir fi I bitince kenara geçilir Bedenim bana emanet Göze göz die di! Yanarm atei kavurur beni bu son sis, duman Masallar anlatld dinledik biz hep yalan... Gelirim yanna yine çarsa gözlerin beni inan Susard Diller! Bilirim yeniden dirilir geride kalan ne varsa o zaman Dolard Gözler... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Paslanm beyinlerin kimyasal çözeltisi Parayla nispet yapan kars deil eltisi Zengin falan deilsen ilemez bürokrasi Bayat olur bizim burda meyhanenin meyvesi Gözlerimin içine bak! Bir yere kaybolma Kelimelerimin içine dal! Fazla dü kurma Yerim uzak, biraz tuzak Özgür düünce burada yasak Darda kar yayor Gerçekten de çok scak Sokaktadr hayatn En derin hikayesi Yürümek baya zordur Her taraf dikenli Sorsan herkes yalana kar Her zaman da yeminli Malzemeyi görene kadar insanln tövbesi Nedeni belli deil ama imdi bende yorgunum Keyfim yok bu ara inan ki Çok fena da durgunum Tüme varm Geri saym Balangca ilk adm Gökyüzün'den yere düen Yamur deil Yldrm! Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden... Gözlerim bakar uzaklara maziden Özlerim seni gece harbiden Sözlerin yakar beni sahiden Beklerim ya gelirsen aniden...</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP You might also likeFévrier - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. Odbussy 2509 JaySoCold - B.T.S - 2509 La Mano 1.9 - I'M SORRY - 2509 Mandyspie - Doberman - 2509 Yvnnis - PAULETA 2509 Squidji - No ft. 8ruki - 2609 Babz - Équilibre - 2609 FEDALL - PAS COMMUN - 2709 13 Organisé - Ment</t>
+          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. Odbussy 2509 JaySoCold - B.T.S - 2509 La Mano 1.9 - I'M SORRY - 2509 Mandyspie - Doberman - 2509 Yvnnis - PAULETA 2509 Squidji - No ft. 8ruki - 2609 Babz - Équilibre - 2609 FEDALL - PAS COMMUN - 2709 13 Organisé - Mental 13 ft. TK, So La</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>nsanlar mümma nsanlar sirli qutu Sevgiy oxad Sn dem, oyundur Trddüd çoxald Xyallar su oldu namda aldq Yalanda soyuduq Bak göz yalarna inanmr daha Üzrü qbahtindn d xeyli baha Ayrlrqsa, saxlamayaq sabaha in sonu bllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir Vüsaldan hsrt qdan zülmt Sevgidn nifrt Bir addm yetr You might also like Bak göz yalarna inanmr daha Üzrü qbahtindn d xeyli baha Ayrlrqsa, saxlamayaq sabaha in sonu bllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir</t>
+          <t>nsanlar mümma nsanlar sirli qutu Sevgiy oxad Sn dem, oyundur Trddüd çoxald Xyallar su oldu namda aldq Yalanda soyuduq Bak göz yalarna inanmr daha Üzrü qbahtindn d xeyli baha Ayrlrqsa, saxlamayaq sabaha in sonu bllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir Vüsaldan hsrt qdan zülmt Sevgidn nifrt Bir addm yetr Bak göz yalarna inanmr daha Üzrü qbahtindn d xeyli baha Ayrlrqsa, saxlamayaq sabaha in sonu bllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir Bak göz yalarna inanmr daha Ayrlqlar adilib, hr ey rahat Mn qalan yoldur, sürürm uzaa Gerisi tsllidir</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar Olan olsun artk Bi' maganda kurunuyum ansz yasn Yamur bana yasn Bahçem senle doldu tat Asma güzel yüzünü Shawty tüm güzel günümsün Eminim ölüm Alp götürcek hüznümü Ölüm alsn zaten Kar k ortasnda bi mabet ey Bana uzaksn halen manen Sen dil misin katilim aslen Beni yaktn eritin gülüm Diri diri gömülüp Uyanmak istiyorum Kollarna süzülüp Asma güzl yüzünü Shawty tüm güzel günümsün Eminim ölüm Alp götürcek hüznümü Eminim ölüm Alp götürcek hüznümü Eminim ölüm Shawty Eminim ölüm O gözlerin kalbime darbe gibi Vurur Atlatrm ama sallantl tavrn Eminim kokun senin annem gibi Ah sev bi' beni Güzel annem gibi You might also like Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar Anlalmak, elinde parlayanla Dilinde kan kalrsa Bil ki sorun yananda Elini daldrnca hepsi saf görünür kanma Gözlerinde büyüme var kan paraya damlaynca Gürültüler kafam dalyorken halim iyi saol Eksik olma renklerin binbirinde var ol da Az uzakta! Çünkü trip kanmda Beynimde dolanan bütün kemirgenler yanmda Anlalmak, kafanda delillerle Deliren zihinlerle, ölme bilmediin yerde Kendini kaybeden, sabrm bilmeden denerse Ona izah etmem, kalr kendi çamurlar içinde Kaderi kurcala, yaptn yorumu vurgula O gittiin yol boyunca bak han da benim yolcu da Atmosferin dnda bi rol bulup uyduna nce kuma altnda senaryonu kurgula Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar</t>
+          <t>Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar Olan olsun artk Bi' maganda kurunuyum ansz yasn Yamur bana yasn Bahçem senle doldu tat Asma güzel yüzünü Shawty tüm güzel günümsün Eminim ölüm Alp götürcek hüznümü Ölüm alsn zaten Kar k ortasnda bi mabet ey Bana uzaksn halen manen Sen dil misin katilim aslen Beni yaktn eritin gülüm Diri diri gömülüp Uyanmak istiyorum Kollarna süzülüp Asma güzl yüzünü Shawty tüm güzel günümsün Eminim ölüm Alp götürcek hüznümü Eminim ölüm Alp götürcek hüznümü Eminim ölüm Shawty Eminim ölüm O gözlerin kalbime darbe gibi Vurur Atlatrm ama sallantl tavrn Eminim kokun senin annem gibi Ah sev bi' beni Güzel annem gibi Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar Anlalmak, elinde parlayanla Dilinde kan kalrsa Bil ki sorun yananda Elini daldrnca hepsi saf görünür kanma Gözlerinde büyüme var kan paraya damlaynca Gürültüler kafam dalyorken halim iyi saol Eksik olma renklerin binbirinde var ol da Az uzakta! Çünkü trip kanmda Beynimde dolanan bütün kemirgenler yanmda Anlalmak, kafanda delillerle Deliren zihinlerle, ölme bilmediin yerde Kendini kaybeden, sabrm bilmeden denerse Ona izah etmem, kalr kendi çamurlar içinde Kaderi kurcala, yaptn yorumu vurgula O gittiin yol boyunca bak han da benim yolcu da Atmosferin dnda bi rol bulup uyduna nce kuma altnda senaryonu kurgula Anlat bana bi' kitap Bi' kitap daha Bkmam tatlm Bi' silah ya da bi umut lazm Yeter devir dönsün usandm Bak! Kara geceler Beni hiç eder yalan Diline yuva Sana gel diyemem Bi' kez daha Ah bi' kez daha Sol yanm kanar Gel bu kez bana Bunu sonu ne zaman? Ah Ölene kadar m ? Ölene kadar Ölene kadar Ölene ölene Shawty ölene kadar</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Da_Uzi_songs.xlsx
+++ b/data/02_intermediate/cleaned_Da_Uzi_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CINDY</t>
+          <t>International</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KHRBR</t>
+          <t>Hoş Geldin Mahalleme</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UZI - Umrumda Deil Lvbel C5 - ralli Batuflex - Dalga Muti - LE CANE UZI - CINDY cakal - Lütfen Ezhel - Bul Beni Motive - Ömrüm Murda - Gece Gündüz Batuflex - Dünya Hain UZI - Krvn Reckol - Perros Blancos Sefo - Bilmem Mi? Batuflex - AMCAS RMX Lvbel C5 - 10 NUMARA Tuhan - Yengen Kzar Reckol - Istediim Olucak Ati242 - KHRBR Batuflex - Duman Pasla Lil Zey - 1 gr eksik cakal - Mahvettim Ezhel - Sakatat Lil Zey - 80 Kere BEGE - GECELERN DERD Ati242 - GÜNE BEGE - B.S.G. Artz - Hayrola cakal - Glock Aspova - Kader Reckol - Sharingan Ben Fero - Üçe Bee Bakamam Canbay Wolker - ÇAKI UZI - Makina Luciano - ELMAS Ceg - Ölümün Kuzeni DJ Sivo - BASKIN ft. Gazapizm Critical - Milyoner Lil Zey - Olamam flah No.1 - Harikalar Diyarnda II Summer Cem - OHA Rmix ft. Luciano cakal - PMAN Lvbel C5 - Aynen Öyle Ati242 - Tiki Taka Flow Organiz - Bingo Patron - Yandrdn Beni Hypzex - Salam Alaykum Murda - Kafeste Anl Piyanc - Sushi Xir - H.A.L.O. Motive - Mektup GOKO! - O LA LA Eko Fresh - Turkish Nightmare ft. Motive Hayki Ali471 - ACAYP ft. UZI Ezhel - Mayrig Ati242 - NERDESN Patron - Slam Dunk Tepki - Meneke Zen-G - STANBUL Contra - pusu Patron - El Patron Sefo - toz duman Keian - yiyim yi Khontkar - SS No.1 - Kron1k ehinah - M.I. Xir - GELECEK STASYON MARS Heijan - Bi Bedeli Var Organize - SALAH BEGE - EKS GRiNGO - 50 Kilo Spade427 - MATRIX Organize - Ghetto Critical - KALE Melez - ANLAMAM ft. Scorpion Gang Aspova - TANIMIYORUM Patron - KISASA KISAS Lia Shine - Rol Faruk Sabanci - Bulamazdm Güne - Dua Rota - Ruh Orkundk - Merhamet Yok Sefo - YOUNGSTAR Hidra - Yarlamm ehinah - Samanyolu Khontkar - ANTEN FREESTYLE PLA4 INTRO Xir - METEOR Anl Piyanc - Gözlerim Seni Aryor Vio - Rolex Khontkar - Hic Ugrasma Rozz Kalliope - Deimem Hayki - Koma Beni El Yerine Da Poet - Dipsomani Ozbi - Gece Görüü Stabil - BILLBOARD Sagopa Kajmer - Onca eyin Ardndan Elanur - Tetik Güne - Dikenlerinle Baneva - Amigo Tanerman - Benden Uzak Kamufle - darda kal</t>
+          <t>Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Allak bullak kafam, odaklanamam öyle kolay Yeah, illegal laboratuvar Sistemin kölesi, seni küçük fare kobay Yeah, edildi olay tarumar Yanklanr sesim, mahallede döner ekolar Yeah, geni yüreime getto dar Beyaz çocuk sanki çkm gibi San Diego'dan Yeah, tüm olay ibaret egodan Golden age, yeah, fuckin' game change, yeah Konu dur, yeah, hiç sorun deil, yeah Cevap yok, ah, yeah, olumsuz, yeah Korkuyo'n, ah, yeah, koutur seni Seni küçük aslan, o yerin Madagaskar Palmiye altnda beslen bi' ananastan Yaradan'n istedii Fazla yarat azdan Ben yetinmedim asla, ne olmu yaramazsam? Sektörün içindeyim, panzehir aktif Ovalad sürtüün, çkt birden Aladdin, ah Tehlikeli derede yapyo'n raftin', ah Elli kere dedim Ne bakyo'n artist, ha? Çabuk, cebindekini öne dat Dracula V, vursan da etmez o vefat Milenyum rapçi getirdi geri rönesans Getirdi geri rönesans Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Kameray bize doru çevir sorunumuz sen deil, cebindekilerle Ya, ya UZI peine düer yolun yanndaki tipi bozuk seri katillerle Ya, ya Senin payna düen yok, yok, kemiini al ve ilerle Kovalardm semttekilerle, yayo'du üzerime mahalleden lanet Cehenneme davetliyiz, all eyez on me, çok sabrettik Haberini gelmeden aldk biz, çok daha zor deil, hemen hallederiz Ah Çekmece, Güngören fark etmez, her ner'de olursak rahat ederiz Ya, ya Her ner'de olursak yalan ederiz Ya, dostlarmn ald sadece risk Ah Suratnz beton, aklmdakilerle dolu getto Gözlerimi kamatrr rafmdaki retro Murda 212'deki bad boy Yakamzda cash yok ama ihtiyacm olan e dost Kapndaki Rolls-Royce çalnabilir bu gece Aklm havada bi'kaç doz, ya Prr Sahip olduklarm ne kadar, ah? Sizden aldklarm depoda Saklyorum bozuk-luk-lar Hatrlamak istiyorum bütün bunlar Öyle salam basyo' ayak-larm Sayyorum teker teker attm admlar Caddeleri turluyorum Bi' yoku durduramaz ki bizi hiç Hiç Kalmad üstümde bi' damla kan Bu sefer ellerim çok temiz, prr Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme Ya, ho geldin, buras bizim çöplük Bizim, bizim çöplük Bi'çou merak eder Biliyo'lar, köeyi nasl döndük? Dostlarmla yolun yanndaym her gün, ah, bi' sebebim var Evet, onun için nefes alyorum her gün, ah, sürtüklerin dilindeyiz Biliyorum, konuuluyoruz her gün, ah, gerçekten um'rumuzda m? Konuursak olur piyasanz ters düz Ters düz, ya, ters düz Henüz yok benim kçma göre taht, o yüzden olabilirsin istediin gibi kral Prr lgi alanmda olsayd u anda bamda parldyo'du azn sulandran o taç Hrsm andran krmz bi' Aventador, göz bebeklerimi kavuruyo' u fuego Ah, eh'rin gece güneleri biziz, teklif ediyorum bütün yldzlara yeni düello Bize nema problemo, Çekmece bizimle San Diego Dörtte iki deniz, dörtte iki kara beton Ya getto artlarn kabul et ya da usulca bizim caddemizden defol Bütün takm or'-jinal seni defo Bu yüzden bizim DNA'mzda bu lanet koor-dinat Çok zor bi' kart oynamak istediim ama vuramyo'san eer ki hedef ol Kumarn içindesin, welcome to my get-to, biziz bu yaka da trap lord Maalesef tenim dmda beni ben yapan bütün etkenlerim Neg-ro3</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Davetiye</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
+          <t>Ha, ha, ha-ha, hmm, yeah Segah En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Yapam'iy'caksan vazgeç Ey Varsa cesaret saldr Yes Celo harbici bro, aga savage Ya Özenle delinir baldr Ya, ya Bi' günde delirir akll geln hep Vallah bu cihaz jar'dr Allah yukar'da, kalmad ihsan Her gün çekrek tükendi sabr Tü-tü, tükürdüm üstlerine Pu Balanamam birine Artk yalarmn yerine Kanlar oturdu gözlerime Prr Güvenirim bi' tek gölgelere Arkamdayken bile klar kaybolmuken Ya Ih lan, ayk ol dükün Eh Üzerime on dört balanmken Prr E n'apalm, iler güçler Ha Ucuz fi, sahte gülüler Yes Ayarsz bizdeki güçler Sayarsnz yldzlar piçler Sabah manitalar, gece polisler Prr Kovalar ikisi de yormay ister Çkar makinalar, hani hasmlar? Pat Çok ciddisiniz siz ve ciciler Soldan kalktm, tersim He Taht m? Or'dan kalktm otursun, rahatm He Yoldan çktm, bozdum kendimi Allah versin bence belan Benden bulma, bizi bo yere yllara vurma Beni bitirdi bu Güngören usta ki yldr hiç uramasam da, da En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Madem kap açk, durma öyle, içeriye gir Karanlkta çtrt seni donuna ietir Verilmeyen hasarn stresi içte birikir Kendinle barmak için ate etmen gerekir Tabo, herkes gergin, di mi? Di mi? Çok ükür ki ksa, edebim, dinim Çok ateli bi' kap içinden geçtiimiz Belli gözümüzden seçtiimiz Kapmdan kapna on lira taksiyle indi bindimizin paras O yüzden temiz konu ki karmda kronik kekeme olmayasn Vardr o dümeye basasm, her eyi yok edip bitiren çimde sadece yaras, bi' ekilde beni bitiren Var bende kötü bi' köpek, kulübede durur yirmi iki kilo Köküne kanann vardr kolunda, bacanda diki yaras O yüzden sevimli kerata, kiloyla çözülmez baz meseleler lla ki çözülür dersen En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr1</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMCAS RMX</t>
+          <t>Mektup</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UZI - Umrumda Deil Lvbel C5 - ralli Batuflex - Dalga Muti - LE CANE UZI - CINDY cakal - Lütfen Ezhel - Bul Beni Motive - Ömrüm Murda - Gece Gündüz Batuflex - Dünya Hain UZI - Krvn Reckol - Perros Blancos Sefo - Bilmem Mi? Batuflex - AMCAS RMX Lvbel C5 - 10 NUMARA Tuhan - Yengen Kzar Reckol - Istediim Olucak Ati242 - KHRBR Batuflex - Duman Pasla Lil Zey - 1 gr eksik cakal - Mahvettim Ezhel - Sakatat Lil Zey - 80 Kere BEGE - GECELERN DERD Ati242 - GÜNE BEGE - B.S.G. Artz - Hayrola cakal - Glock Aspova - Kader Reckol - Sharingan Ben Fero - Üçe Bee Bakamam Canbay Wolker - ÇAKI UZI - Makina Luciano - ELMAS Ceg - Ölümün Kuzeni DJ Sivo - BASKIN ft. Gazapizm Critical - Milyoner Lil Zey - Olamam flah No.1 - Harikalar Diyarnda II Summer Cem - OHA Rmix ft. Luciano cakal - PMAN Lvbel C5 - Aynen Öyle Ati242 - Tiki Taka Flow Organiz - Bingo Patron - Yandrdn Beni Hypzex - Salam Alaykum Murda - Kafeste Anl Piyanc - Sushi Xir - H.A.L.O. Motive - Mektup GOKO! - O LA LA Eko Fresh - Turkish Nightmare ft. Motive Hayki Ali471 - ACAYP ft. UZI Ezhel - Mayrig Ati242 - NERDESN Patron - Slam Dunk Tepki - Meneke Zen-G - STANBUL Contra - pusu Patron - El Patron Sefo - toz duman Keian - yiyim yi Khontkar - SS No.1 - Kron1k ehinah - M.I. Xir - GELECEK STASYON MARS Heijan - Bi Bedeli Var Organize - SALAH BEGE - EKS GRiNGO - 50 Kilo Spade427 - MATRIX Organize - Ghetto Critical - KALE Melez - ANLAMAM ft. Scorpion Gang Aspova - TANIMIYORUM Patron - KISASA KISAS Lia Shine - Rol Faruk Sabanci - Bulamazdm Güne - Dua Rota - Ruh Orkundk - Merhamet Yok Sefo - YOUNGSTAR Hidra - Yarlamm ehinah - Samanyolu Khontkar - ANTEN FREESTYLE PLA4 INTRO Xir - METEOR Anl Piyanc - Gözlerim Seni Aryor Vio - Rolex Khontkar - Hic Ugrasma Rozz Kalliope - Deimem Hayki - Koma Beni El Yerine Da Poet - Dipsomani Ozbi - Gece Görüü Stabil - BILLBOARD Sagopa Kajmer - Onca eyin Ardndan Elanur - Tetik Güne - Dikenlerinle Baneva - Amigo Tanerman - Benden Uzak Kamufle - darda kal</t>
+          <t>Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima! Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima!</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hoş Geldin Mahalleme</t>
+          <t>Favela</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Allak bullak kafam, odaklanamam öyle kolay Yeah, illegal laboratuvar Sistemin kölesi, seni küçük fare kobay Yeah, edildi olay tarumar Yanklanr sesim, mahallede döner ekolar Yeah, geni yüreime getto dar Beyaz çocuk sanki çkm gibi San Diego'dan Yeah, tüm olay ibaret egodan Golden age, yeah, fuckin' game change, yeah Konu dur, yeah, hiç sorun deil, yeah Cevap yok, ah, yeah, olumsuz, yeah Korkuyo'n, ah, yeah, koutur seni Seni küçük aslan, o yerin Madagaskar Palmiye altnda beslen bi' ananastan Yaradan'n istedii Fazla yarat azdan Ben yetinmedim asla, ne olmu yaramazsam? Sektörün içindeyim, panzehir aktif Ovalad sürtüün, çkt birden Aladdin, ah Tehlikeli derede yapyo'n raftin', ah Elli kere dedim Ne bakyo'n artist, ha? Çabuk, cebindekini öne dat Dracula V, vursan da etmez o vefat Milenyum rapçi getirdi geri rönesans Getirdi geri rönesans Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Kameray bize doru çevir sorunumuz sen deil, cebindekilerle Ya, ya UZI peine düer yolun yanndaki tipi bozuk seri katillerle Ya, ya Senin payna düen yok, yok, kemiini al ve ilerle Kovalardm semttekilerle, yayo'du üzerime mahalleden lanet Cehenneme davetliyiz, all eyez on me, çok sabrettik Haberini gelmeden aldk biz, çok daha zor deil, hemen hallederiz Ah Çekmece, Güngören fark etmez, her ner'de olursak rahat ederiz Ya, ya Her ner'de olursak yalan ederiz Ya, dostlarmn ald sadece risk Ah Suratnz beton, aklmdakilerle dolu getto Gözlerimi kamatrr rafmdaki retro Murda 212'deki bad boy Yakamzda cash yok ama ihtiyacm olan e dost Kapndaki Rolls-Royce çalnabilir bu gece Aklm havada bi'kaç doz, ya Prr Sahip olduklarm ne kadar, ah? Sizden aldklarm depoda Saklyorum bozuk-luk-lar Hatrlamak istiyorum bütün bunlar Öyle salam basyo' ayak-larm Sayyorum teker teker attm admlar Caddeleri turluyorum Bi' yoku durduramaz ki bizi hiç Hiç Kalmad üstümde bi' damla kan Bu sefer ellerim çok temiz, prr Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Sorar herkes bize, köeleri nasl döndük? Peki sor bize, sor, kaç kere öldük? Ho geldin mahalleme, buras bizim çöplük Bi'çou merak eder, köeyi nasl döndük? Ho geldin mahalleme Ya, ho geldin, buras bizim çöplük Bizim, bizim çöplük Bi'çou merak eder Biliyo'lar, köeyi nasl döndük? Dostlarmla yolun yanndaym her gün, ah, bi' sebebim var Evet, onun için nefes alyorum her gün, ah, sürtüklerin dilindeyiz Biliyorum, konuuluyoruz her gün, ah, gerçekten um'rumuzda m? Konuursak olur piyasanz ters düz Ters düz, ya, ters düz Henüz yok benim kçma göre taht, o yüzden olabilirsin istediin gibi kral Prr lgi alanmda olsayd u anda bamda parldyo'du azn sulandran o taç Hrsm andran krmz bi' Aventador, göz bebeklerimi kavuruyo' u fuego Ah, eh'rin gece güneleri biziz, teklif ediyorum bütün yldzlara yeni düello Bize nema problemo, Çekmece bizimle San Diego Dörtte iki deniz, dörtte iki kara beton Ya getto artlarn kabul et ya da usulca bizim caddemizden defol Bütün takm or'-jinal seni defo Bu yüzden bizim DNA'mzda bu lanet koor-dinat Çok zor bi' kart oynamak istediim ama vuramyo'san eer ki hedef ol Kumarn içindesin, welcome to my get-to, biziz bu yaka da trap lord Maalesef tenim dmda beni ben yapan bütün etkenlerim Neg-ro3</t>
+          <t>Pra quem eu devo meu respeito Nossa missão é dedicada pra cada camarada Que não esconde a cara, na hora da batalha Ta junto, nunca dá falha, e não paga pau pra canalha Só tem idéia forte carregada de esperança Então, assim que consta, é hardcore com rap, é gangsta Foi feito nas ruas, e feito pras ruas... Hey boy, hey boy A nossa trilha sonora não é pras tuas De condomínios guardados por viaturas Minha realidade é cercada de sepultura De mano enterrado bem antes da formatura Jamais vou me esquecer daqueles que me forjaram Seja no ódio ou aqueles que me amaram Na caminhada com os manos na contenção Fiz cada pedra ser usada de munição Olho pro lado e vejo que tenho irmão Jamais me deixa perdido na multidão Na solidão de uma cela, pra cada beco e viela Se for ou não da favela, nós tamo junto no riso e na vela Então, vocês não disseram que era idéia de vagabundo Com o microfone conseguir mudar o mundo? Agora tenta parar o rojão com o peito, filho da puta Vejo minas e manos de todos os lados Alguns de milianos, outros novos aliados Se for pra somar, então pode encostar Se for pra atrasar é só no ra ta ta ta... Tristezas e mágoas são fitas de águas passadas Sei quem ta comigo na largada e na chegada Só é lamentável os que mudaram a caminhada Mas já não me espanto com os que encontro nesta estrada Família, falar é fácil, né tio? Sustentar é que é difícil E no caminho vários foi pro precipício Não tô julgando, até porque não tenho nada a ver com isso O foda é ver pilantra te dando tapinha nas costas Pra virar a esquina falando uma pá de bosta, é isso que dá revolta Lembra da cara dos vermes na minha bota Mas pode pá parasita que o globo roda... E cobra... Quem quis se jogar se jogou Ficou no moio quem sempre valorizou, então Fala pra mim, que vai ta até o fim na linha de frente Tomando soco na roda, perdendo os dentes Quem repentinamente não botou fé na gente Fazer o que zé povinho, se infelizmente não agrado a ateus e crentes Sobrevivente da selva é inteligente Se liga favela que a idéia é quente Lembro de antigamente, tudo era diferente Sobraram poucos mas reconheço cada elo que é forte em nossa corrente Trouxe na idéia só idéia fluente, e na memória a saudade latente irmão Onde estiver cuide sempre da gente, firmão? ... Seja no Brás, Brooklin, Glicério, Cambucí Guaianazes, Catumbí, Cangaíba, Sacomã Santo Amaro, Jaçanã, ahan, ahan Tem Talibã por ali, Vila Sabrina, Grajaú Noronha, Itapeví, Jardim Brasil, Jardim Perí, Lajeado, Mogí Campo Limpo, Diadema, Taboão Capão Redondo, salve Vila Fundão Da Espraiada até o Ipiranga, minha quebrada Periferia central, sem boi pra boy paga pau Vila Formosa, mantém o proceder Tiradentes, São Miguel, Jardim São Rafael Nós não vai pro céu só por causa de um papel, jamais Cursino, Cupecê, Caixa Dágua, Saúde, Água Funda, salve Vila Cisper Mandaqui, Brasilândia, Favela da União, é nós Aclimação Vila Matilde, Osasco, Cohab 5 Caracas Barueri, aí, lembrei de ti Ferraz, Paralheiros, Helipa, São Mateus, Cidade de Deus Favela da Mistral, satisfação total Pirituba, Jaraguá, Vila Santa Catarina Mooca, Lauzane, Pari, Pedreira, Jardim Ângela Parque São Lucas, São Judas Cohab II Lado Leste Itaquera Guarulhos, Jabaquara Pirajuçara, Mauá, então, é nós quebrada Aeroporto, só no rasante louco Aquele salve pro Climax Três Tombos, Favela Rua Alba! Boqueirão, Itaim, Imirim Quando puder lembra de mim... Aos moradores de rua da Sé, quem é, é No Tremembé nós vai na fé... ABC, São Bernardo, Santo André... Às cidades do Rio de Janeiro São José, Piracicaba, Taubaté Salve a todas as cidades do Vale Ibiúna, Santos, Curitiba, Praia Grande Salve, todos os mangues... Aquele salve pra todas as quebradas Pra cada periferia, pracada viela Pra cada escadão, pra cada função Se liga favela que a idéia é quente Sobrevivente é a gente nos corres Tenho nas veias o sangue corrente Filho de branco com preto, sou brasileiro Sou latino mestiço, sou guerrilheiro...</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Davetiye</t>
+          <t>Nedenini Sorma</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ha, ha, ha-ha, hmm, yeah Segah En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo, kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Yapam'iy'caksan vazgeç Ey Varsa cesaret saldr Yes Celo harbici bro, aga savage Ya Özenle delinir baldr Ya, ya Bi' günde delirir akll geln hep Vallah bu cihaz jar'dr Allah yukar'da, kalmad ihsan Her gün çekrek tükendi sabr Tü-tü, tükürdüm üstlerine Pu Balanamam birine Artk yalarmn yerine Kanlar oturdu gözlerime Prr Güvenirim bi' tek gölgelere Arkamdayken bile klar kaybolmuken Ya Ih lan, ayk ol dükün Eh Üzerime on dört balanmken Prr E n'apalm, iler güçler Ha Ucuz fi, sahte gülüler Yes Ayarsz bizdeki güçler Sayarsnz yldzlar piçler Sabah manitalar, gece polisler Prr Kovalar ikisi de yormay ister Çkar makinalar, hani hasmlar? Pat Çok ciddisiniz siz ve ciciler Soldan kalktm, tersim He Taht m? Or'dan kalktm otursun, rahatm He Yoldan çktm, bozdum kendimi Allah versin bence belan Benden bulma, bizi bo yere yllara vurma Beni bitirdi bu Güngören usta ki yldr hiç uramasam da, da En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr Madem kap açk, durma öyle, içeriye gir Karanlkta çtrt seni donuna ietir Verilmeyen hasarn stresi içte birikir Kendinle barmak için ate etmen gerekir Tabo, herkes gergin, di mi? Di mi? Çok ükür ki ksa, edebim, dinim Çok ateli bi' kap içinden geçtiimiz Belli gözümüzden seçtiimiz Kapmdan kapna on lira taksiyle indi bindimizin paras O yüzden temiz konu ki karmda kronik kekeme olmayasn Vardr o dümeye basasm, her eyi yok edip bitiren çimde sadece yaras, bi' ekilde beni bitiren Var bende kötü bi' köpek, kulübede durur yirmi iki kilo Köküne kanann vardr kolunda, bacanda diki yaras O yüzden sevimli kerata, kiloyla çözülmez baz meseleler lla ki çözülür dersen En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr En kralna gönder davetiye Yüz otuz kilo kaldrabilen kaldrr ki bilekte olsa kelepçe Fark etmez keke, saldrabilen saldrr1</t>
+          <t>Segah Hayat mn önünü kapattn Ha-ah-ah Nasl savayo' kalbim ile aklm? Büyükleri tarafndan hepsine yasaktm Gizli gizli izlediler, hep önüme baktm Nasl pencerenin arka taraf? Or'da olabilmek için bouna m dattm? Ah-ah Sanma darbelerin yakar canm Ha-ah-ah Kolumdaki yanklar ellerimle yaptm Ha-ah-ah Bana zarar veremezsin Düündüümü uygularsam inan Deli dersin Ya Hayat benden aldklarn götüne soksun Ya, ya, ya Biraz rahat versin, pis oluyo' tersim Kapmdan uzakla, artk dönemezsin Bizi bi' bunaltma, delirdik mi dersin? Bu saatten sonra bütün babalar gelsin Ya, ya Gücü yeten dostlarmla aramz bozsun Çok ayp! On beinde kzlarn peindeler Çok ayp! Yetnekli rap'çileri siktiler Çok ayp! irktlere esir ettiler, yazk ettiler Sonra Senle iim bitti der, çok ayp! Ya, ya, ya nandnz yalanlara sokaym, ah Küfür ettim ama buna demem Çok ayp!, ya Ya Biraz ben ileri zora sokaym, ha Gel, sinirimi sna bakaym Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben ükür, sevdiklerim güveniyo' bana Tabii üzerime düeni hep yapyorum, aga Getirmedim anam hiç karakola Düürmedim yüzünü ve bamz sokmadm dara Yeteneim güzellikler getirmiyo' u an Kötülükleri içimden atyorum ama Sahip çkyorum hâlâ anneme bu sahnede Bence sana benzemedim baba Yok sorunlu biri, açld bahtm Yanmda yoklarken yerinde aklm Bölük pörçüktüm, güçsüzdüm, büyüdüm Kanm da akt ve kan da döktüm imde tekim, taam tartn Onlara kyasla gerçekten rahatm Yam m küçük? Önemsiz artk Biz kime ne olduysa bilerek yaptk Saygszm, yanamayn, ha Kardeiniz yapamazsnz beni Sevmezsin internet sayesinde Tanrsan hastamz olursun hani Yaktm kafay ve deilim deli Sigara uzman bordo bereli Haksz kazanç, Tanr'nn eli Maalesef bu ite çok tecrübeli Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun sinemay gördüm ve de sustum, her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum yaptm yanl biliyordum Sadece sabrm deniyordum ben3</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAPARAZZI</t>
+          <t>Vur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Discographie - 13 Block Album Studio - 20190426 13 Block - BLO - 20191025 13 Block - BLO Réédition - 20201127 13 Block - BLO II Mixtape - 20140418 Block 13 - XIII - 20160304 13 Block - Violence urbaine émeute - 20160909 13 Block - ULTRAP - 20180406 13 Block - Triple S Single - 2014 Block 13 - 13 Block enfoiré - 2014 Block 13 - Ferrari - 2014 Block 13 - J't'avise - 20140306 Block 13 - On smoke - 20140811 Block 13 - Bulls - 20141031 13 Block - Slovaquie - 20150126 13 Block - Zéyo - 20150515 13 Block - Vegeta - 20150610 13 Block - Choochoo Gang - 20150722 13 Block - LKTEB - 20150904 13 Block - L'autre côté Freestyle - 20151106 13 Block - Olaskurt - 20151221 13 Block - Les gars d'la ville - 20160104 13 Block - LVDG Freestyle - 20160226 13 Block - 13 Block - 20160229 13 Block - Insomnie - 20160304 13 Block - Vers l'enfer - 20160307 13 Block - Freestyle OKLM - 20160520 13 Block - Vrai négro - 20160601 13 Block - DRUG'Z - 20160712 13 Block - Massacre - 20160722 13 Block - Ville - 20160817 13 Block - Griezmann - 20160819 13 Block - DIEZ - 20160905 13 Block - Mains sales - 20170203 13 Block - Gobelets - 20170317 13 Block - Brabus en esprit - 20170324 13 Block - R.S.A - 20170331 13 Block - Vous le savez - 20170501 13 Block - Kurama - 20170518 13 Block - Pay ou Key - 20170525 13 Block - Wario - 20170728 13 Block - Ville 2 - 20170830 13 Block - Essaye - 20171013 13 Block - Somme - 20171208 13 Block - Vide - 20180406 13 Block - Calibre - 20180420 13 Block - Bleck - 20180511 13 Block - A1 A3 - 20180606 13 Block - Freestyle Couvre Fu - 20180718 13 Block - Mood - 20180914 13 Block - Balayer - 20181116 13 Block - GTI Freestyle - 20181221 13 Block - Zidane - 20190213 13 Block - Faut que - 20190321 13 Block - Amis d'avant - 20190419 13 Block - Petit cur - 20190807 13 Block - CR - 20191101 13 Block - Fuck le 17 - 20200403 13 Block - BOÎTE 6 40 KIL - 20200806 13 Block - Tieks - 20201119 13 Block - Babi - 20201223 13 Block - Riina Toto Featuring - 20150330 Kaaris - Vie sauvage - 20150604 BMG - C.F.T.O - 20160118 Ninho - Verre - 20160616 Cheu-B - Pesos - 20160912 Alkpote - Ultrapute - 20170308 Lyrrix - Investir - 20171222 DA Uzi - C'est le même thème - 20180126 Alkpote - AR - 20180216 Ghost Killer Track - Neuf - 20180216 DJ Weedim - Mauvais Toy - 20180316 Dosseh - Papillon - 20180514 DJ Weedim - Mauvais Toy Heizenberg Remix - 20180622 Ikaz Boi - Ganja - 20180928 Dabs - Dinero - 20190125 Seth Gueko - Cookies - 20190315 Binks Beatz - Salam - 20190705 DJ Babs Jordan - 36 heures - 20190802 Hamza - Clic clac - 20200320 Twinsmatic - GROSLOT - 20200320 Soolking - On ira - 20201002 GLK - Grillé - 20201023 C.O.R - Jamais vu - 20210127 AP du 113 - Paparazzi - 20210618 Dabs - Du block aux loges - 20220622 Sale Epoque - VIE DE GANGSTER Discographie complémentaire - Discographie - OldPee - Discographie - Stavo - Discographie - Zed - Discographie - Zefor</t>
+          <t>Kendini sev Kendini sev Öyle bir ey yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn Sakn küçük görme kendini Çünkü çabalamann içindedir güzellik, zenci Hepinize gelsin bu Çabalamann içindedir güzellik, zenci Açklayaym Çabalamann içindedir güzellik , çirkinlikse baarnn Kulak ver sözlerime ya da üzüntü sinyallerimi dinle ehirde büyümeme ramen baz zamanlar az ey olurdu elimizde Mahalledeki dier dostlarmla kyaslarsak Adamm, biz resmen kutsanmtk Ve hayat olamaz bir peri masal, bir zamanlar yok Ama eer çabalamazsam lanet olsun bana Söylesene anne, neden sürekli içiyorsun? O herifin getirdii tüm ac hala kafann içinde mi yoksa? Çünkü o ac hala benimkinin içinde Zenginliklere giden yolda bulacan ey budur yi haber, baya bir yol aldn zenci Kötü haber, yanl yola gittin zenci Fakir olmann daha iyi olduunu düündün Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Mutluluk olmadan nedir ki para? Ya da sevdiklerin olmadan zor zamanlar? Sradaki olacak eyden emin olmamama ramen Yukardaki Tanr'dan istedim gücü Çünkü uzun zamandr güçlüyüm Ama hissedebiliyorum tutuumun gevediini Çabuk, bir eyler yap onu tamamen kaybetmeden Tekrar kazan ve onu iyi bir ey için kullan Ve insanlara dokun daha önce yaptn gibi Yoruldum ben eytanlarla yaamaktan çünkü sürekli daha fazlasn davet ediyorlar Fakirliin daha iyi olduunu düündün Bu cümleyi saygszlk yapmak için kurmadm Borç içinde yaayan dostlarma Düük maa alp televizyonu açnca zencinin tekinin Rolexini görenlere Ve stressiz hayat düleyenlere Bunu içtenlikle söylüyorum Bir zamanlar sizin durumunuzda olan biri olarak Kaybedecek hiçbir eyi olmadan yaayan biri olarak, umarm bir gün beni duyarsnz Darda bir yerde her zaman daha büyük bir ev olacak ama zenci anla beni Yürekten sevdiklerinin olduu olduktan sonra o lanet yeri sikeyim Her zaman seninkinden daha iyi bir araba olacak Her zaman senin giydiklerinden daha haval giysiler olacak Her zaman darda daha haval bir kaltak olacak Ama sen hiçbir zaman mutlu olamayacaksan ta ki kendini sevene kadar Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mektup</t>
+          <t>Zehirli Melodiler</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Moje su srce sahranili ljudi U svakom oku ja vidim mu grob Hladan mi kamen ispuni grudi Da gledam muke grobara svog Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima! Jo mrnja mojom duom koraa I para me sporo k'o otrica maa U mrtvoj tiini, gusta i slana Izvire mudrost iz svih mojih rana Ja nosim rane to krvare veno I prezir to se u meni koprca O noi, uvaj mi otrovne misli I slike lea mog zaklanog srca Ne mogu na ovom mestu da sakrijem uzdah Ima dana kada me obuzima oseanje Crnje nego najcrnja melanholija - prezir prema ljudima!</t>
+          <t>Zehirli Melodiler Zihnimin her tarafnda gezen Zehirli Melodiler ey Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Artk gülmek daha zor çten deil hiç dostum Ah Çok kotum çok bolua Dütüm, kalktm dostum Ya Sahip çktm aileme Durdum hep yolun yannda Braktm temiz gelecek Varoun çocuklarna Sensei, iz braktn gözümün tam altna Gösümün üzerine, yldzlarn tam ortasna Sabret bu kadar suç ardndan gelir bela Belki tek yol budur gelmek için kardeim yanna Denedim kendimi tutmay zorladm ama hiç baaramyorum Ah Güleriz her zaman bilirsin artk o günlere ulaamyorum Ah yi bi' nakarat yapnca fikrin için sana danamyorum Yanl anladlar anlatamyorum Ate altndaym savaamyorum hiç Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Zehirli melodiler Zihnimi deli eden Sarlr dört yanm tehlikeli kelimeler Gece biter ah Ve senin dostlarn der bi gün geçer Kaplanr dört yann dert brak yeter Sokaklar için öderiz bedel Geçinmek zor i bizi mahveder Güne açk ama söner klar için bu karanlklar Beklemek için sabrszm Kanmda zehirli melodiler Kanmda zehirli melodiler Kanmda zehirli melodiler Yolumuz toz dolu altk zorlu kavgalara da Bitmeyen gecelere hiç uyanamamaya da Sanki bu kumarn içinde son kozum müzik kabul ederim ama Sonunda kaydeden ben olursam herhalde çkamam bi yarna Bu yoku çok dik sanyorsunuz ben yapyorum makara Varotan kurtulmak isteyen ruhumu susturamyorum bu mu hata Savam kaderimle en dipten fazlasn yaamak Yoruldum bitmedi mi basamak açlsn artk çelik kasalar Her yolu dener Atlas Yannda 7 kii size el uzatmaz Hrsndan devriliyor tüm yüksek binalar Ellerim bal fakat dönemem plandan Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Hay! bilecektik nerden? Kaçamadk zehirli melodilerden Ah! gör beni bi yerden Düen hayalleri topluyorum yerden Zehirli melodiler beynimi deli eden Gözlerim kapansa da kafamn içindeler Denedim 50 sefer bitiremedim ki ben Ölümle kavgamz var devir deiti Vio bak Deil ki yalnzca melodiler zehirli Sevimli gözüken sahtelikler gerçek istein mi? What you sayin' B? anlardn dinleseydin bi' Ne filmler dönüyor sen kalma seyirci Artk içimdeki ses benim deil senin V Belirsizlik deiti, kesin ki olamam daha da uysal Alacak sorunlar, sanclar varolusal Çklacak dar yokular, hazrlan daha yolun var Dü kalk yok durmak görünce bile dibi Ghetto için panzehir zehirli melodimiz Artk dayanamadmda bana güç veriyor Biggie Tpk Prodigy, 2Pac ve Vio gibi Aklm bodu sonras yoktu Dönüyor dünya bir yln doldu Suretin her yer kapma komu imdi hayallerin gece güneim oldu Anlatamam yok yok hecelerini Kaplyor bu varo lo gecelerimi Çkarz bu ateten bo ellerimiz Kalr zehirli melodiler, zehirli melodiler5</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Favela</t>
+          <t>Hızlı Sokaklar</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pra quem eu devo meu respeito Nossa missão é dedicada pra cada camarada Que não esconde a cara, na hora da batalha Ta junto, nunca dá falha, e não paga pau pra canalha Só tem idéia forte carregada de esperança Então, assim que consta, é hardcore com rap, é gangsta Foi feito nas ruas, e feito pras ruas... Hey boy, hey boy A nossa trilha sonora não é pras tuas De condomínios guardados por viaturas Minha realidade é cercada de sepultura De mano enterrado bem antes da formatura Jamais vou me esquecer daqueles que me forjaram Seja no ódio ou aqueles que me amaram Na caminhada com os manos na contenção Fiz cada pedra ser usada de munição Olho pro lado e vejo que tenho irmão Jamais me deixa perdido na multidão Na solidão de uma cela, pra cada beco e viela Se for ou não da favela, nós tamo junto no riso e na vela Então, vocês não disseram que era idéia de vagabundo Com o microfone conseguir mudar o mundo? Agora tenta parar o rojão com o peito, filho da puta Vejo minas e manos de todos os lados Alguns de milianos, outros novos aliados Se for pra somar, então pode encostar Se for pra atrasar é só no ra ta ta ta... Tristezas e mágoas são fitas de águas passadas Sei quem ta comigo na largada e na chegada Só é lamentável os que mudaram a caminhada Mas já não me espanto com os que encontro nesta estrada Família, falar é fácil, né tio? Sustentar é que é difícil E no caminho vários foi pro precipício Não tô julgando, até porque não tenho nada a ver com isso O foda é ver pilantra te dando tapinha nas costas Pra virar a esquina falando uma pá de bosta, é isso que dá revolta Lembra da cara dos vermes na minha bota Mas pode pá parasita que o globo roda... E cobra... Quem quis se jogar se jogou Ficou no moio quem sempre valorizou, então Fala pra mim, que vai ta até o fim na linha de frente Tomando soco na roda, perdendo os dentes Quem repentinamente não botou fé na gente Fazer o que zé povinho, se infelizmente não agrado a ateus e crentes Sobrevivente da selva é inteligente Se liga favela que a idéia é quente Lembro de antigamente, tudo era diferente Sobraram poucos mas reconheço cada elo que é forte em nossa corrente Trouxe na idéia só idéia fluente, e na memória a saudade latente irmão Onde estiver cuide sempre da gente, firmão? ... Seja no Brás, Brooklin, Glicério, Cambucí Guaianazes, Catumbí, Cangaíba, Sacomã Santo Amaro, Jaçanã, ahan, ahan Tem Talibã por ali, Vila Sabrina, Grajaú Noronha, Itapeví, Jardim Brasil, Jardim Perí, Lajeado, Mogí Campo Limpo, Diadema, Taboão Capão Redondo, salve Vila Fundão Da Espraiada até o Ipiranga, minha quebrada Periferia central, sem boi pra boy paga pau Vila Formosa, mantém o proceder Tiradentes, São Miguel, Jardim São Rafael Nós não vai pro céu só por causa de um papel, jamais Cursino, Cupecê, Caixa Dágua, Saúde, Água Funda, salve Vila Cisper Mandaqui, Brasilândia, Favela da União, é nós Aclimação Vila Matilde, Osasco, Cohab 5 Caracas Barueri, aí, lembrei de ti Ferraz, Paralheiros, Helipa, São Mateus, Cidade de Deus Favela da Mistral, satisfação total Pirituba, Jaraguá, Vila Santa Catarina Mooca, Lauzane, Pari, Pedreira, Jardim Ângela Parque São Lucas, São Judas Cohab II Lado Leste Itaquera Guarulhos, Jabaquara Pirajuçara, Mauá, então, é nós quebrada Aeroporto, só no rasante louco Aquele salve pro Climax Três Tombos, Favela Rua Alba! Boqueirão, Itaim, Imirim Quando puder lembra de mim... Aos moradores de rua da Sé, quem é, é No Tremembé nós vai na fé... ABC, São Bernardo, Santo André... Às cidades do Rio de Janeiro São José, Piracicaba, Taubaté Salve a todas as cidades do Vale Ibiúna, Santos, Curitiba, Praia Grande Salve, todos os mangues... Aquele salve pra todas as quebradas Pra cada periferia, pracada viela Pra cada escadão, pra cada função Se liga favela que a idéia é quente Sobrevivente é a gente nos corres Tenho nas veias o sangue corrente Filho de branco com preto, sou brasileiro Sou latino mestiço, sou guerrilheiro...</t>
+          <t>Buras benim çöplüüm, yalnzca benim öttüüm Korkarak zehir çözdüün, bugün tüm devir götlüün Delirdin seyir kördüüm, peinden gelir örttüün Kör olsam ne fark eder? her ey kirli, rezil gördüüm Çk dünyaya caddeden bar, edemem kahpeden kar Yaamak kumara benzer her eyi mahveden zar Kusura bakmayn hocam sizleri bekletirdim Ilk derse gelemezdim, sabah 9 mahkemem var! Ya, sokaa ekil veririz Bataklktan çkp da geldim dedim çekinme pisim bu kadar yeter artk dedi geri çekilmelisin Öyle yaamalsn ki deli denilmelisin Harman hamleler, peti permatik deler Sirenler kol gezer, rol keser hepsi panikteler Son umut ne, sonumuz mu? sorma bize Paso bize çalr narkotik, organize! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar! Hayat ya bu ite, savuturur vay haline Hzl admlar seni kavuturur hayaline Ben de kotururum bulana dek ta ki neden Hzl yaantm admlarm takip eder Sanki bedel ödüyosun pahas ar Henüz hiçbir ey görmedin ki sen dahas var Dümesin azna, iyiyse haslat Azraille yirmi birinci round buna raz kal Emin ol korkarsn, kl ol, çetemle bone thugsm'dr O bu fark etmez gören der kafadan kontaksn bro Bomayla bong kastk pro-mil Durur hep belimde krom kapl brow-ning Bu gece fazla sisliyim çekiyim biraz daha Bu müzik hayatmda çizdiim tek iyi resim Diz trip teknii iyi kissliyip tekliyi Benden uzak dur, çünkü ben bi' pisliin tekiyim! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar!</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Caney</t>
+          <t>UNUTTUM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans edemedik üphem yok sevgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans demedik üphem yok svgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nedenini Sorma</t>
+          <t>Bi’ Kereden Bi’ Şey Olur (Serbest Stil)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Segah Hayat mn önünü kapattn Ha-ah-ah Nasl savayo' kalbim ile aklm? Büyükleri tarafndan hepsine yasaktm Gizli gizli izlediler, hep önüme baktm Nasl pencerenin arka taraf? Or'da olabilmek için bouna m dattm? Ah-ah Sanma darbelerin yakar canm Ha-ah-ah Kolumdaki yanklar ellerimle yaptm Ha-ah-ah Bana zarar veremezsin Düündüümü uygularsam inan Deli dersin Ya Hayat benden aldklarn götüne soksun Ya, ya, ya Biraz rahat versin, pis oluyo' tersim Kapmdan uzakla, artk dönemezsin Bizi bi' bunaltma, delirdik mi dersin? Bu saatten sonra bütün babalar gelsin Ya, ya Gücü yeten dostlarmla aramz bozsun Çok ayp! On beinde kzlarn peindeler Çok ayp! Yetnekli rap'çileri siktiler Çok ayp! irktlere esir ettiler, yazk ettiler Sonra Senle iim bitti der, çok ayp! Ya, ya, ya nandnz yalanlara sokaym, ah Küfür ettim ama buna demem Çok ayp!, ya Ya Biraz ben ileri zora sokaym, ha Gel, sinirimi sna bakaym Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben ükür, sevdiklerim güveniyo' bana Tabii üzerime düeni hep yapyorum, aga Getirmedim anam hiç karakola Düürmedim yüzünü ve bamz sokmadm dara Yeteneim güzellikler getirmiyo' u an Kötülükleri içimden atyorum ama Sahip çkyorum hâlâ anneme bu sahnede Bence sana benzemedim baba Yok sorunlu biri, açld bahtm Yanmda yoklarken yerinde aklm Bölük pörçüktüm, güçsüzdüm, büyüdüm Kanm da akt ve kan da döktüm imde tekim, taam tartn Onlara kyasla gerçekten rahatm Yam m küçük? Önemsiz artk Biz kime ne olduysa bilerek yaptk Saygszm, yanamayn, ha Kardeiniz yapamazsnz beni Sevmezsin internet sayesinde Tanrsan hastamz olursun hani Yaktm kafay ve deilim deli Sigara uzman bordo bereli Haksz kazanç, Tanr'nn eli Maalesef bu ite çok tecrübeli Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun Sinemay gördüm ve de sustum Her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum Yaptm yanl biliyordum Sadece sabrm deniyordum ben Silahm yoktu, buldum Yine ans verdim, vurdun sinemay gördüm ve de sustum, her gece kendimi sana kurdum ben Nedenini sorma, vurdum lk kendimden emin oldum yaptm yanl biliyordum Sadece sabrm deniyordum ben3</t>
+          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vur</t>
+          <t>Paranoya</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kendini sev Kendini sev Öyle bir ey yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn Sakn küçük görme kendini Çünkü çabalamann içindedir güzellik, zenci Hepinize gelsin bu Çabalamann içindedir güzellik, zenci Açklayaym Çabalamann içindedir güzellik , çirkinlikse baarnn Kulak ver sözlerime ya da üzüntü sinyallerimi dinle ehirde büyümeme ramen baz zamanlar az ey olurdu elimizde Mahalledeki dier dostlarmla kyaslarsak Adamm, biz resmen kutsanmtk Ve hayat olamaz bir peri masal, bir zamanlar yok Ama eer çabalamazsam lanet olsun bana Söylesene anne, neden sürekli içiyorsun? O herifin getirdii tüm ac hala kafann içinde mi yoksa? Çünkü o ac hala benimkinin içinde Zenginliklere giden yolda bulacan ey budur yi haber, baya bir yol aldn zenci Kötü haber, yanl yola gittin zenci Fakir olmann daha iyi olduunu düündün Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Mutluluk olmadan nedir ki para? Ya da sevdiklerin olmadan zor zamanlar? Sradaki olacak eyden emin olmamama ramen Yukardaki Tanr'dan istedim gücü Çünkü uzun zamandr güçlüyüm Ama hissedebiliyorum tutuumun gevediini Çabuk, bir eyler yap onu tamamen kaybetmeden Tekrar kazan ve onu iyi bir ey için kullan Ve insanlara dokun daha önce yaptn gibi Yoruldum ben eytanlarla yaamaktan çünkü sürekli daha fazlasn davet ediyorlar Fakirliin daha iyi olduunu düündün Bu cümleyi saygszlk yapmak için kurmadm Borç içinde yaayan dostlarma Düük maa alp televizyonu açnca zencinin tekinin Rolexini görenlere Ve stressiz hayat düleyenlere Bunu içtenlikle söylüyorum Bir zamanlar sizin durumunuzda olan biri olarak Kaybedecek hiçbir eyi olmadan yaayan biri olarak, umarm bir gün beni duyarsnz Darda bir yerde her zaman daha büyük bir ev olacak ama zenci anla beni Yürekten sevdiklerinin olduu olduktan sonra o lanet yeri sikeyim Her zaman seninkinden daha iyi bir araba olacak Her zaman senin giydiklerinden daha haval giysiler olacak Her zaman darda daha haval bir kaltak olacak Ama sen hiçbir zaman mutlu olamayacaksan ta ki kendini sevene kadar Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Seninkinden daha iyi bir hayat yok Öyle bir ey yok, öyle bir ey yok Kalp çarpyor hzl hzl, bildiriyor zenciye hayatta olduunu Sahte herifler, kuduz ylanlar Sinsi herifler bildiriyor zencinin hedefine ulatn</t>
+          <t>Gözümü açtm bu alemde Yaadm kendi halimde Çalnt yüzlere baktm her gün Hepsi hayallere sürgün Kime baksam dertlere tutsak Bi tek ben miyim aksak ? Haykrsam desem herkese Bover elen delice Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun Skldm artk kalplardan Çünkü hepsi büyük bi yalan Snrlarm ben çiziyorum artk Darda kalanlara yaktk Kime baksam kendinden çok uzak Sanki biraz da paranoyak Nasl anlatsam ben herkese Uyansa herkes keke Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zehirli Melodiler</t>
+          <t>ZOR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zehirli Melodiler Zihnimin her tarafnda gezen Zehirli Melodiler ey Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Artk gülmek daha zor çten deil hiç dostum Ah Çok kotum çok bolua Dütüm, kalktm dostum Ya Sahip çktm aileme Durdum hep yolun yannda Braktm temiz gelecek Varoun çocuklarna Sensei, iz braktn gözümün tam altna Gösümün üzerine, yldzlarn tam ortasna Sabret bu kadar suç ardndan gelir bela Belki tek yol budur gelmek için kardeim yanna Denedim kendimi tutmay zorladm ama hiç baaramyorum Ah Güleriz her zaman bilirsin artk o günlere ulaamyorum Ah yi bi' nakarat yapnca fikrin için sana danamyorum Yanl anladlar anlatamyorum Ate altndaym savaamyorum hiç Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Zehirli melodiler Zihnimi deli eden Sarlr dört yanm tehlikeli kelimeler Gece biter ah Ve senin dostlarn der bi gün geçer Kaplanr dört yann dert brak yeter Sokaklar için öderiz bedel Geçinmek zor i bizi mahveder Güne açk ama söner klar için bu karanlklar Beklemek için sabrszm Kanmda zehirli melodiler Kanmda zehirli melodiler Kanmda zehirli melodiler Yolumuz toz dolu altk zorlu kavgalara da Bitmeyen gecelere hiç uyanamamaya da Sanki bu kumarn içinde son kozum müzik kabul ederim ama Sonunda kaydeden ben olursam herhalde çkamam bi yarna Bu yoku çok dik sanyorsunuz ben yapyorum makara Varotan kurtulmak isteyen ruhumu susturamyorum bu mu hata Savam kaderimle en dipten fazlasn yaamak Yoruldum bitmedi mi basamak açlsn artk çelik kasalar Her yolu dener Atlas Yannda 7 kii size el uzatmaz Hrsndan devriliyor tüm yüksek binalar Ellerim bal fakat dönemem plandan Zehirli Melodiler Ey Peimden sürükleniyorlar Kafamn içindeki tüm zehirli melodiler Ey Uyanmak zor yarna Gelemedim üstesinden Kaçamam bu sefer, yeter be yeter Elimdekiler döküldü birer birer Yine yere yeniden Hay! bilecektik nerden? Kaçamadk zehirli melodilerden Ah! gör beni bi yerden Düen hayalleri topluyorum yerden Zehirli melodiler beynimi deli eden Gözlerim kapansa da kafamn içindeler Denedim 50 sefer bitiremedim ki ben Ölümle kavgamz var devir deiti Vio bak Deil ki yalnzca melodiler zehirli Sevimli gözüken sahtelikler gerçek istein mi? What you sayin' B? anlardn dinleseydin bi' Ne filmler dönüyor sen kalma seyirci Artk içimdeki ses benim deil senin V Belirsizlik deiti, kesin ki olamam daha da uysal Alacak sorunlar, sanclar varolusal Çklacak dar yokular, hazrlan daha yolun var Dü kalk yok durmak görünce bile dibi Ghetto için panzehir zehirli melodimiz Artk dayanamadmda bana güç veriyor Biggie Tpk Prodigy, 2Pac ve Vio gibi Aklm bodu sonras yoktu Dönüyor dünya bir yln doldu Suretin her yer kapma komu imdi hayallerin gece güneim oldu Anlatamam yok yok hecelerini Kaplyor bu varo lo gecelerimi Çkarz bu ateten bo ellerimiz Kalr zehirli melodiler, zehirli melodiler5</t>
+          <t>YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal Bizde dersler zevkli, hepsi YouTube'dan yes Mert Hoca'nn anlatm biçilmi kaftan Matematik sorun deil, antioksidan dan Sk çal, kazanmak yok karalamadan Kamp kitab açn bakn hepsi full ilem ilem Olaslk zorda deil uzay örneklem Anlamadm diyorsan kur ksa denklem yes TYT mi AYT mi büyük ikilem yes Baba dedim Dershane?, dedi çok para çok para YouTube'dan izle bakan, hemen açsana alo Sivaslyz ama doum yri Ankara ate Ödevlerin yoksa yrsin salam papara azar YouTube kapal of, kitap karal çiz Derse bak hemen, açklamal yes Video hemen x2, baba bural nefis Derste patlat bi' kahve, hem de çikolatal Türev napcaz kanka, trigo da biraz zor zor Üçgen aç bünye için tam bir antikor üf Limit yaklam sanki bize metafor big Doksan günde bitir ii, ol bir matador ko Hocam netler sabit, sorun sanki bende mi? yok Üç senedir vard burda ar pandemi covid Kazanrsan alcam sana civanperçemi thanks Ara snf, Discord koun Mert Hoca Akademi Eitsizlik sevmez içler dlar çarpm üf EBOB-EKOK soru gelmez ayaktakm Parabolü sevmem, kollar hep yukar m? Düzen için print'le kamp program Mert Hoca devam ko Aleyküm selam lan Derse baktm, yine zordu alad anam çü Kazanmadan gezmek bana gerçekten haram çk Patlatsana Mert Hoca'm edelim kelam yes YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal hem de çikolatal, hem de çikolatal3</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hızlı Sokaklar</t>
+          <t>Serseriler</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Buras benim çöplüüm, yalnzca benim öttüüm Korkarak zehir çözdüün, bugün tüm devir götlüün Delirdin seyir kördüüm, peinden gelir örttüün Kör olsam ne fark eder? her ey kirli, rezil gördüüm Çk dünyaya caddeden bar, edemem kahpeden kar Yaamak kumara benzer her eyi mahveden zar Kusura bakmayn hocam sizleri bekletirdim Ilk derse gelemezdim, sabah 9 mahkemem var! Ya, sokaa ekil veririz Bataklktan çkp da geldim dedim çekinme pisim bu kadar yeter artk dedi geri çekilmelisin Öyle yaamalsn ki deli denilmelisin Harman hamleler, peti permatik deler Sirenler kol gezer, rol keser hepsi panikteler Son umut ne, sonumuz mu? sorma bize Paso bize çalr narkotik, organize! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar! Hayat ya bu ite, savuturur vay haline Hzl admlar seni kavuturur hayaline Ben de kotururum bulana dek ta ki neden Hzl yaantm admlarm takip eder Sanki bedel ödüyosun pahas ar Henüz hiçbir ey görmedin ki sen dahas var Dümesin azna, iyiyse haslat Azraille yirmi birinci round buna raz kal Emin ol korkarsn, kl ol, çetemle bone thugsm'dr O bu fark etmez gören der kafadan kontaksn bro Bomayla bong kastk pro-mil Durur hep belimde krom kapl brow-ning Bu gece fazla sisliyim çekiyim biraz daha Bu müzik hayatmda çizdiim tek iyi resim Diz trip teknii iyi kissliyip tekliyi Benden uzak dur, çünkü ben bi' pisliin tekiyim! Hzl admlar kirli sokaklarda Hzl admlar bu kaldrmlarda Hrsl kadnlar ssz adamlar Szd hasmlar at hzl admlar!</t>
+          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turkish Nightmare</t>
+          <t>Gecenin İçine Gir</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UZI - Umrumda Deil Lvbel C5 - ralli Batuflex - Dalga Muti - LE CANE UZI - CINDY cakal - Lütfen Ezhel - Bul Beni Motive - Ömrüm Murda - Gece Gündüz Batuflex - Dünya Hain UZI - Krvn Reckol - Perros Blancos Sefo - Bilmem Mi? Batuflex - AMCAS RMX Lvbel C5 - 10 NUMARA Tuhan - Yengen Kzar Reckol - Istediim Olucak Ati242 - KHRBR Batuflex - Duman Pasla Lil Zey - 1 gr eksik cakal - Mahvettim Ezhel - Sakatat Lil Zey - 80 Kere BEGE - GECELERN DERD Ati242 - GÜNE BEGE - B.S.G. Artz - Hayrola cakal - Glock Aspova - Kader Reckol - Sharingan Ben Fero - Üçe Bee Bakamam Canbay Wolker - ÇAKI UZI - Makina Luciano - ELMAS Ceg - Ölümün Kuzeni DJ Sivo - BASKIN ft. Gazapizm Critical - Milyoner Lil Zey - Olamam flah No.1 - Harikalar Diyarnda II Summer Cem - OHA Rmix ft. Luciano cakal - PMAN Lvbel C5 - Aynen Öyle Ati242 - Tiki Taka Flow Organiz - Bingo Patron - Yandrdn Beni Hypzex - Salam Alaykum Murda - Kafeste Anl Piyanc - Sushi Xir - H.A.L.O. Motive - Mektup GOKO! - O LA LA Eko Fresh - Turkish Nightmare ft. Motive Hayki Ali471 - ACAYP ft. UZI Ezhel - Mayrig Ati242 - NERDESN Patron - Slam Dunk Tepki - Meneke Zen-G - STANBUL Contra - pusu Patron - El Patron Sefo - toz duman Keian - yiyim yi Khontkar - SS No.1 - Kron1k ehinah - M.I. Xir - GELECEK STASYON MARS Heijan - Bi Bedeli Var Organize - SALAH BEGE - EKS GRiNGO - 50 Kilo Spade427 - MATRIX Organize - Ghetto Critical - KALE Melez - ANLAMAM ft. Scorpion Gang Aspova - TANIMIYORUM Patron - KISASA KISAS Lia Shine - Rol Faruk Sabanci - Bulamazdm Güne - Dua Rota - Ruh Orkundk - Merhamet Yok Sefo - YOUNGSTAR Hidra - Yarlamm ehinah - Samanyolu Khontkar - ANTEN FREESTYLE PLA4 INTRO Xir - METEOR Anl Piyanc - Gözlerim Seni Aryor Vio - Rolex Khontkar - Hic Ugrasma Rozz Kalliope - Deimem Hayki - Koma Beni El Yerine Da Poet - Dipsomani Ozbi - Gece Görüü Stabil - BILLBOARD Sagopa Kajmer - Onca eyin Ardndan Elanur - Tetik Güne - Dikenlerinle Baneva - Amigo Tanerman - Benden Uzak Kamufle - darda kal</t>
+          <t>Geceler uzun, bamda bi' dert Kosam da kaçamam peimdekinden Ya, ya Yldzm parlar, sanma ki söner Gün olur bu devran bize de döner Ya, ya Uydururum ii kitabna Çok fazla güvenme fiyatna Harcanr gençliin bi' çrpda Ya, ya Yayo'm, kardeim, inadna Ey, ey Yayo'm kardeimin adna Kayan tüm yldzlar aramzdan Uzaktan bakmak tabii ki kolay Gel içine de gir, nedir olay? Burann suyunu içen bilir Gençleri tehlike seviyo'lar Yüzümüz is, içimiz temiz Ya, ya Hakikati onlar biliyo'lar Ya En güzel arklar varotan çkar Çakal Mercedes, içinde sistem Onunsa içinde arkmz çalar Yükselir vites, toz olur gider Ey Dik dur ve hayatn tadn çkar Prr Yok gibi ölüm, yok ki bi' keder Bi' çkar salamam dostlarmdan Yüzünü güldürmk houma gider Dar'dan serseri damgas, ah Haklsn aslnda, yaptk biraz Ya, ya Tatlsn ama bn acym, bak Ey Sksaydn kalbimin ortasna Ya, ya Severim tehlike, severim silah Neleri geldi bu bama, inan Her yolu denedim, sözümü yemedim Saklanmam yalann arkasna Prr Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le Kaybedicek hiçbi' eyim yok Ya Of çekecek bi' cier bile Ya, ya Kapld herkes rüzgârma Silkelendi, hemen de geldi kendine Gülü seven çok dostlarm oldu Ey Gösümü gerdim hep dikenlere Ey Çkmaz sokakta kaybolduk biz Ey Hayran kaldk lüks caddelere Ya, ya Seneler kanser, seneler Her ehirde konser Gördüm her gerçei ve çok sertti Bur'daym her eyimle gençler Ya Keneler cebimde boy gösterdi Seninse var cebinde akrep Meselem dürüst olmakt en bandan Sen anlamadn, bo ver, ya Bo duranlar Allah sevmez Wouh Koturanlar memurlar Ya, ya Sokaklar âk serserilere Bo kalmyo' hiç karakollar Holanmyorum cvklktan Ve lütfen benimle inatlama Ya, ya Boulursun açklarda Sen kendini kurtar, beni kurtarma Ya, ey, gecenin içine gir, ya Bulat elime kir Kimse diyemez Denemedin Ya, ey, artk yok bi' seçenein Buras güvenli deil, ya Gecenin içine gir Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UNUTTUM</t>
+          <t>Yengen Kızar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans edemedik üphem yok sevgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Çok ksayd akmz, sürdüremedik stedik, gönlümüzce dans demedik üphem yok svgilim senden yana Beklerim, bir tango borcun var bana Ayrlsak, deisek, uzak kalsak da Unuttuk desek de biz, vazgeçsek de Zarar yok sevgilim birlemesek de Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana Saçlarn kar gibi beyazlasa da Vücudun yorulsa, yavalasa da Geçmile dansn hatrlatsa da Beklerim, bir tango borcun var bana</t>
+          <t>Pu, pu, pu, pu Segah Pu, pu Siyah tayt neon Nike Ih Ylan type, bu kz Hype Fenalar, fenalar Prr Tk follow, tk like Woo Yürürüz imkân varsa, ksmet iirme kendini kasma, az dur Fenomen Instagram'da Akln varsa kendine sakla, sakla Pu, pu Komalarda, baba komalarda Grr lla alrm seni kovalarsam Woo, woo Localarda, suit odalarda Prr, prr Cin çkar üç kere iyi ovalarsam Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar Üzülme canm, denk geliriz yine Ver numaran diyip biz sizi ararz Belki bir kaç beden büyük geliriz Ey, ey Size uymuyorsa erkenden kaçarz Kotur kurtardn paçan Bize dert deil cidden baar Yeah Bana gel seni her ekil tarm Yeah Para biter tabii her eyin ar Brr Gitceksem hz 180 Woo Hissettiririm hissetsem Ey Sus ben bilirim her dilden Ey Söz konuucam hep kalbimden Ya, ya Takvimime bakp dönücem Woo Ama sessiz ol görmesin yengen Bina giriini hâlledelim ilk Brr Sonra komular olmasn engel Renkler, bozuk ekran Ya Gitti resmen Ya kzm valla billa' Ya Esmer ya da sarn Ya Fark ederse Ya inan ki Kuran çarpsn Ya, ya Renkler bozuk ekran Ya Gitti resmen Ya kzm valla' billa' Ya, ya Esmer ya da sarn Ya Fark ederse inan ki Kuran çarpsn Ya, ey, brr Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar1</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bi’ Kereden Bi’ Şey Olur (Serbest Stil)</t>
+          <t>Bedel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
+          <t>Seni cierlerimde ve damarlarmda hissediyorum Kan dolammdasn ve bu beynime ulaabilmenin tek yolu Dierlerini de denedim ama onlar senin kadar iyi deillerdi Deliriyorum çünkü sadece seninleyken böyle hissediyorum Belki de eskiden olduu kadar güçlü deilimdir artk Son zamanlarda artk bam döndürmüyorsun Buna tpk ar bir uyuturucuymuum gibi balmlym Nikki bebeim, seni seviyorum ama imdi gitmem lazm Çünkü bu iin sonu nereye varr biliyorsun Muhtemeln nerde olduumu merak diyor Bense gözden uzam, düünüyorum da bunun bedeli ne? Dier tüm hatunlar kucamda ama umrumda deil Sen ihtiyacm olan tek kadnsn, seni geri kazanmam gerek Hem de cierimi siyaha çevirmene ramen Bana nerde olduunu söyle? Ah, ad Mary olan hatunu biliyorum Her eyden bi' haberken onu becerirdim Dostlarmla beraber okulu asardk Mary ile iim bitince sadece sen ve ben kaldk Beni iyi hissetiriyorsun, ilk düüncelerim böyleydi Sen ve ben beraberken, Tanr ahidim olsun iyiydik Senden uzaklanca ilerimi yapmam pek zor oluyor Ah, bu kalbimin de daha sk çalmasn gerektiriyor Yaklak on yldr beraberiz Lanet olsun, ben gençken beni tavlad Her gün kim olduumu, kim olacam, nereye gideceimi Ve mezar tama ne yazacaklarn düünüyorum Kral olarak domu özgür bir adam, köle olarak ölen Yine de onun için yaptklar bir hiç urunayd Ah hayr yavaça brkamam, hemen kurtulmalym senden Beni Vegas'a uçuyormuum gibi trip'lendiriyorsun Tüm bu bana yaptklarn acmaszca Tek bildiim hiç yaayamayacam bir hayat yaadm Sonunda senden kurtuldum, hiç yapamayacam sanardm Yanl anlama, paylatmz o anlar unutamam Gittiim her yerde, senin de orda olduunu biliyorum Kaçmaya çaltm ama ayaklarm izin vermedi Yüzümü çeviriyorum ama bam izin vermiyor Seni tazeyken seviyorum Seni alyorum ve ayn nefesi paylayoruz Sana ihtiyacm olmasndan nefret ediyorum, Nikki Ama seni doyurmay seviyorum, Nikki Senin için üzülmekten nefret ediyorum Ah, sana hasretim ve sana ihtiyacm var Senin tadn almay seviyorum Hiçbir ey senin yerini alamaz Keke seni silebilsem, gittiim her yerdesin Ama olmak istediim her yerdesin Ve dier insanlar bunu anlamyor gibi gözükmüyor Ben her zaman herkesin skntn ne diye sorduu adamm Sen arzuladm her eysin Sen beni mezara sokmasna izin verebileceim tek eysin Ben kralm, sen de benim Corettamsn Ama son zamanlarda kendimi nikotinin kölesiymi gibi hissediyorum Kölesi Dedim ki, nikotinin kölesiyim Senin kölen oldum Senin sikik bir kölenim Nikotinin kölesi Nikki, Nikki, kölenim Senin kölenim Nikki Senin sikik bir kölenim</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Paranoya</t>
+          <t>Siz Sevmeyin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gözümü açtm bu alemde Yaadm kendi halimde Çalnt yüzlere baktm her gün Hepsi hayallere sürgün Kime baksam dertlere tutsak Bi tek ben miyim aksak ? Haykrsam desem herkese Bover elen delice Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun Skldm artk kalplardan Çünkü hepsi büyük bi yalan Snrlarm ben çiziyorum artk Darda kalanlara yaktk Kime baksam kendinden çok uzak Sanki biraz da paranoyak Nasl anlatsam ben herkese Uyansa herkes keke Sen durma oyna An yaa doya doya Bundan sonra böyle Kendini kaptr delice Haydi anla imdi Baksana zaman durmuyor Her ey bir oyun Elen artk buras acun</t>
+          <t>Seninle görüeceiz, dünya orospusu Senden alacaklarm çok, ben de alacama pisim Kol krld yen içinde kald için için yandm Tanr beni sevmediinden mapushuna hapisim Herkesin dilinde bir dert pozitif düün Halbuki gerçek u ki kafan bozuk düündüün muur Mutlu insanlar oturup da halvetimek dinlemez Dinlese de inan bana sözlerinden anlamaz Derdine ortam diyenler aslnda sallamaz Akacak ya gözde durmaz ha bide damarda kan Bir eyi anlamak için ayn olmak gerekli Ben bir bunu bilir bunu söylerim baka laftan anlamam Aklm gezer hir ehir kulaklarmda tambur Kardelerimi sir alm beli kambur stanbul Bellemisiniz gözden rak olan gönülden atmaya Bizi yarm brakan da bir gün gelir tam bulur Hayatm siktiniz lan, brakn da 2 cümle küfredeyim Ben olunu hiç sevmeyen bir adamn nefretiyim Bir kavgada nasl oluk oluk kan yutulur Benim dünyamda ay tutulmaz kin tutulur Bir alemde bir baba nasl sikilir göreceksiniz Bu açk tehdit olaylar geliince çözeceksiniz Bitirdiniz lan beni, tam tamna 10 ayda Ölmü eek kurttan korkmaz adamn amna koyarlar Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Yeen dizlerine uzanp da, saatlerce alamak Bu öyle romantik bir ey de deil ha nsan kadn erkek bir kucaa ihtiyaç duyar Bazen en olmad bir kaldrm ta bile uyar Çaresi olmayan bir derde alamak adama koyar Ve bu çaresiz bir alar ki sar sultan duyar Ne manzaral bir da ba, ne çarnn tam ortas Gören bakar geçer sana ac olan da bu ya Balarm ulan imdi felein süslü çarkna Artk yapmyorum ben de böyle hisli arklar Var artk sen de u talihsizliinin farkna Puslu havann isli kaderimden ne fark var Karnm aç azmda kürdan hadi oradan Ayakkabm yrtk üstü boyal buyur buradan Bu dünya benim hakkmda ne bilir ha? Bir k vakti hayallerimin üstü delik deik yorgan Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Gözlerim telal Yorgunluktan, belki uykusuzluktan Bazen de takldmzdan Dertlerden yakndmzdan Pislie yaknlmzdan Çekiyor bizi her an ondan sakndmzda Kafan atar bir cami avlusunda kal Yat kalk hadi na git okula imdi Uyukla anlatrsn hocalar anlarsa yorgun halini Sen anca notlarnla korkular indir Gömleime pis kokular sindi Henüz atarl çocukluum üstümde o zamanlar Hayat tanmam etmem, tanrm para bozanlar Siz anlatn biz hattayz Kederli yazyor bak ehrinde kara ozanlar Hiç mi düüp baylmam lan Hiç mi ölüm kokan hanelerde hastalarca saylmam Bir amin diyemedin u kanser olup gebermeme Ha gayret sinirlenip beddualar sayar annem Ama onlar saylmaz Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu..</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZOR</t>
+          <t>SIMARIK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal Bizde dersler zevkli, hepsi YouTube'dan yes Mert Hoca'nn anlatm biçilmi kaftan Matematik sorun deil, antioksidan dan Sk çal, kazanmak yok karalamadan Kamp kitab açn bakn hepsi full ilem ilem Olaslk zorda deil uzay örneklem Anlamadm diyorsan kur ksa denklem yes TYT mi AYT mi büyük ikilem yes Baba dedim Dershane?, dedi çok para çok para YouTube'dan izle bakan, hemen açsana alo Sivaslyz ama doum yri Ankara ate Ödevlerin yoksa yrsin salam papara azar YouTube kapal of, kitap karal çiz Derse bak hemen, açklamal yes Video hemen x2, baba bural nefis Derste patlat bi' kahve, hem de çikolatal Türev napcaz kanka, trigo da biraz zor zor Üçgen aç bünye için tam bir antikor üf Limit yaklam sanki bize metafor big Doksan günde bitir ii, ol bir matador ko Hocam netler sabit, sorun sanki bende mi? yok Üç senedir vard burda ar pandemi covid Kazanrsan alcam sana civanperçemi thanks Ara snf, Discord koun Mert Hoca Akademi Eitsizlik sevmez içler dlar çarpm üf EBOB-EKOK soru gelmez ayaktakm Parabolü sevmem, kollar hep yukar m? Düzen için print'le kamp program Mert Hoca devam ko Aleyküm selam lan Derse baktm, yine zordu alad anam çü Kazanmadan gezmek bana gerçekten haram çk Patlatsana Mert Hoca'm edelim kelam yes YouTube kapal, kitap karal Derse bak hemen, açklamal Video hemen x2, baba bural Derste patlat bi' kahve, hem de çikolatal hem de çikolatal, hem de çikolatal3</t>
+          <t>Ege Qimptoven, let's go Ayo, cvctus, where you at? Uzaya da çksan Yok bendeki vizyon sende Bulamazsn, arama yaknda Dudaklarmn tam arasnda Daha yakn ah damarndan Aykana kadar hepsini siktim bile Sana düer arta kalanlar Duyulas pembe yalanlar Balant sorunlarm var Slatt Sürtük, senin için deiemem Gang Hepinizle seviemem Ah Flow gibi dei hemen Dönüyo' bam, azm pis utanmam Wha'? Bayld arkadan içmese de dumandan Adm Loki, yok hiçbi' kumandan Slatt Ban çkartma zulandan Lig üst katman, aldm üst kattan What? Ben renk katmam thank God, prega What? Chrome Hearts pijama Gang, adm LOKIBOI Slatt, slatt, slatt Kzm, gelir çaramba, bana masal anlatma Diz hepsini art arda Bunlar bizim, sanki jandarma Bunlar bizim komutanm Para bankamda Grr, koarlar adm atmamla Bana masal anlatma Ah Uzaya da çksan Perfect Semtinde atyo'm tur, wha'? Bulamazsn, arama yaknda Kalpleri et tuzla buz, wha'? Dudaklarmn tam arasnda Bilmiyo'san bnce sus, rrah Daha yakn ah damarndan Duyulas pembe yalanlar Arkadamd, o bnim arkadam Yabancym, buralara nasl geldi mevzu? Nasl anlamadm? Silahmn namlusunda ban darmadan arkadam canlanmad, kaçn O benim en sk td, en azndan artk benim mal Iklar evimin içinde krmz, yldzlar yanm Tüm birimler ylm, vzldar ekip Her birinde sniper Kzmda tetik var, bende de grinder Çkp da dedim ki Skyo'sa indir, mermiler kafam krmyo' Kadim bir adamm, ykmyo' Sarssa da yklmam, slanyo' kzlarnn oras Kralnn kral, yannda kar nasl mark? Uzaya da çksan Arkadan yanl trpanmn ucunda kafas Uzaya da çksan Slatt, wha'? Yok bendeki vizyon sende Slatt, wha'? Bulamazsn, arama yaknda Slatt, wha'? Dudaklarmn tam arasnda Daha yakn ah damarndan Wha', wha', wha'? Aykana kadar hepsini siktim bile Sana düer arta kalanlar Uh Duyulas pembe yalanlar Pembe yalanlar4</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Serseriler</t>
+          <t>Dennis Rodman</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
+          <t>Ayy, what's up What up, what up Chilling Kako si, ta ima sine? We are shooting the Drogba video right now Alright, let me hear it U rukavu imam keca Tebi fali mnogo herca Naa fora svaka peca Tvoja hrabrost - olienje zeca Srpsko-crnogorska eca Za trep smo to za folk Ceca Gledaj kako rolam Benza Ide gas, prva pa trea All in - ne izdaje me srea Do zore gori moja svjea Mora da ima dobra lea Pucam ka Stojakovi Pea ta? Pucam ka Stojakovi Pea Pa-pa-pa-pa Pucam ka Stojakovi Pea Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Svi 'oe slavu, svi 'oe ke Stvari su skupe, markiran ve To mi se ne da, to uzmem sama Zasto se stidi? Nema tu blama U posjetu bratu do Roterdama Zastiena vie no prva dama Zastiena kao sibirski tigar Ne moe me nai - u sijeno igla Stigli na scenu, praina se digla Sad se gradimo, cigla po cigla Rrra Sad slavimo, krigla po krigla Rrra Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gecenin İçine Gir</t>
+          <t>Aynen Öyle (Demo)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Geceler uzun, bamda bi' dert Kosam da kaçamam peimdekinden Ya, ya Yldzm parlar, sanma ki söner Gün olur bu devran bize de döner Ya, ya Uydururum ii kitabna Çok fazla güvenme fiyatna Harcanr gençliin bi' çrpda Ya, ya Yayo'm, kardeim, inadna Ey, ey Yayo'm kardeimin adna Kayan tüm yldzlar aramzdan Uzaktan bakmak tabii ki kolay Gel içine de gir, nedir olay? Burann suyunu içen bilir Gençleri tehlike seviyo'lar Yüzümüz is, içimiz temiz Ya, ya Hakikati onlar biliyo'lar Ya En güzel arklar varotan çkar Çakal Mercedes, içinde sistem Onunsa içinde arkmz çalar Yükselir vites, toz olur gider Ey Dik dur ve hayatn tadn çkar Prr Yok gibi ölüm, yok ki bi' keder Bi' çkar salamam dostlarmdan Yüzünü güldürmk houma gider Dar'dan serseri damgas, ah Haklsn aslnda, yaptk biraz Ya, ya Tatlsn ama bn acym, bak Ey Sksaydn kalbimin ortasna Ya, ya Severim tehlike, severim silah Neleri geldi bu bama, inan Her yolu denedim, sözümü yemedim Saklanmam yalann arkasna Prr Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le Kaybedicek hiçbi' eyim yok Ya Of çekecek bi' cier bile Ya, ya Kapld herkes rüzgârma Silkelendi, hemen de geldi kendine Gülü seven çok dostlarm oldu Ey Gösümü gerdim hep dikenlere Ey Çkmaz sokakta kaybolduk biz Ey Hayran kaldk lüks caddelere Ya, ya Seneler kanser, seneler Her ehirde konser Gördüm her gerçei ve çok sertti Bur'daym her eyimle gençler Ya Keneler cebimde boy gösterdi Seninse var cebinde akrep Meselem dürüst olmakt en bandan Sen anlamadn, bo ver, ya Bo duranlar Allah sevmez Wouh Koturanlar memurlar Ya, ya Sokaklar âk serserilere Bo kalmyo' hiç karakollar Holanmyorum cvklktan Ve lütfen benimle inatlama Ya, ya Boulursun açklarda Sen kendini kurtar, beni kurtarma Ya, ey, gecenin içine gir, ya Bulat elime kir Kimse diyemez Denemedin Ya, ey, artk yok bi' seçenein Buras güvenli deil, ya Gecenin içine gir Güçleniyorum her gün, elimde deil kontrol Her gündüz gece, hece hece yandm ateimle Güçleniyo' her gün nefretim, son kez kafesini krd Gündüz gece Hece hece ben yandm ateimle-le-le2</t>
+          <t>Jeg forguder din øyne, dine hender, dine lår Jeg kysser jorda der du står, der du sitter Du ser stjernestøv og glitter Som hos Peter Pan og Tingeling Letter jeg og flyr omkring Over byene, over skyene Som ingenting lenger betyr noe Jeg er blitt et dyr nå, jeg flyr nå Som et deilig eventyr og Alle masker har jeg tatt av meg Jeg er betatt av av deg Shit, rett og slett besatt av deg Husker natta jeg fikk lov å følge deg hjem Fra en fest hos en venn Vi hadde sitti igjen og bare prata Nå gikk vi sammen midt i gata Husker godt hva du sa da vi kom dit du bodde Du spurte om jeg trodde På kjærlighet ved første blikk Og det sa klikk inni huet mitt Og like romantisk som i Romeo og Julie Så skjedde det umulige Du kyssa meg, jeg prøvde å si noe Men du hysja meg Det neste jeg husker var at du hadde pysj på deg Nettene ble lange, dagene var fine Hvis kulda satte inn, fant vi varmen med å kline Vi levde og svevde som blomster og bier Men alt har en ende, det er som folk sier Shit, hvor lenge var Adam i Paradiset? Det blei krise, og enden på min vise Mine tanker, mine ord og mine gjerninger Ble borte i et spill som om alt var styrt av terninger Og når det spilles høyt så er fallet verre Og sånn ble det for meg Denne dagen òg dessverre Det jeg trodde jeg vant, det jeg fant, det tok slutt Da jeg hørte om deg og en annen gutt Det var en kar jeg ikke visste hvem var Jeg visste bare jeg skulle finne han Ta han med og binde han til et tre Knuse ballene hans med et kne Jeg skulle nikke han Ta en kniv og stikke han Men det han ikke kan Det er å stoppe tårene Som fyller salt i sårene Jeg ligger skada som skutt av en Uzi Jeg henger med gutta, med Dane og med Susi Prøver å tenke med huet, ikke hjertet mitt Men det er ikke så lett eller så smertefritt Du veit jeg har noen i meg, en glemt Don Juan Som en dag kommer fram igjen Gjør meg til en mann igjen Blåser støv av triksa som forfører og forleder deg Huh, jeg både gruer meg og gleder meg Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Det går aldri en dag uten at jeg tenker På hva framtida bringer og på hva som venter Er jeg kald om hjertet? Er jeg hard til beinet? Er jeg dømt til å være aleine? Vel, noen av grunnene hvor jeg kanskje selv har skylda Likte ikke å binde meg, så knulla på fylla En evig jakt etter kjærlighet, fant jeg meg en frekk en Var det ned på alle fire og så fikk'a smake kjeppen Hadde tre på en gang og da var det fett Men i ettertid blir jeg svett Når jeg tenker på hvor lett det var den gangen Da det største var å være den første Var man kongen, tok man dongen Hengte svinet i et tre Lot den fryse sånn at alle kunne se At det var MC Dane som hadde fått'a ned på kne Men alle blir vi eldre og tidene forandrer seg Og jeg veit at flere gamle flammer fortsatt klandrer meg For tapet av dyden, som en greker i Syden Er jeg frampå, sikkert som du veit jeg hater lyden Av karer som klager over draget Skriker og de bærer seg Drag er noe man har, ikke noe som man lærer seg Det er ikke dermed sagt at livet mitt er Nirvana Jeg mangler ikke jenter, men den riktige dama Piker som spriker og skriker er det nok av Men jeg savner en jeg kan elske og ære Sånn har det alltid vært og sånn vil det alltid være Men jeg slapper av for hvis jeg spiller korta riktig Kommer'a en vakker dag Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem?</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yengen Kızar</t>
+          <t>Semt Çocukları</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pu, pu, pu, pu Segah Pu, pu Siyah tayt neon Nike Ih Ylan type, bu kz Hype Fenalar, fenalar Prr Tk follow, tk like Woo Yürürüz imkân varsa, ksmet iirme kendini kasma, az dur Fenomen Instagram'da Akln varsa kendine sakla, sakla Pu, pu Komalarda, baba komalarda Grr lla alrm seni kovalarsam Woo, woo Localarda, suit odalarda Prr, prr Cin çkar üç kere iyi ovalarsam Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar Üzülme canm, denk geliriz yine Ver numaran diyip biz sizi ararz Belki bir kaç beden büyük geliriz Ey, ey Size uymuyorsa erkenden kaçarz Kotur kurtardn paçan Bize dert deil cidden baar Yeah Bana gel seni her ekil tarm Yeah Para biter tabii her eyin ar Brr Gitceksem hz 180 Woo Hissettiririm hissetsem Ey Sus ben bilirim her dilden Ey Söz konuucam hep kalbimden Ya, ya Takvimime bakp dönücem Woo Ama sessiz ol görmesin yengen Bina giriini hâlledelim ilk Brr Sonra komular olmasn engel Renkler, bozuk ekran Ya Gitti resmen Ya kzm valla billa' Ya Esmer ya da sarn Ya Fark ederse Ya inan ki Kuran çarpsn Ya, ya Renkler bozuk ekran Ya Gitti resmen Ya kzm valla' billa' Ya, ya Esmer ya da sarn Ya Fark ederse inan ki Kuran çarpsn Ya, ey, brr Koy bi' duble daha, koy Yavrum Sar bi' tane daha, sar Prr Çok güzelsin ama yengen kzar A-uu Çok güzelsin ama yengen kzar Falanlar filanlar Prr Sal beni bi', sal, sal Woo Çok güzelsin ama yengen kzar Çok güzelsin ama yengen kzar1</t>
+          <t>Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel Tüm semt bizim mm Telefonda aga nerdesin mm Whatsapptan konum at seri ha ha Hatun dr dr gerçekten tek miyim? Bebeim kalbimin için tekin deil Yaadm yer gibi Buz gibi içi bak boynumdaki gibi Telefonda hatun o da at gibi Küçük yata yaptm ilk soygunu lk tokatta daha 17 çocuktum lk satta daha liseli çocuktum uh uh Kimine göre iyi çocuktum Kimine de birazck uyumsuz Buldumu paralar doyumsuz Daha önce de görmedi napsn? E tabi ceplri dolunca mard 100 lük ama üstü kanl Eskiden zordu cidden imdiyse borçtan kurtul kurtul Önmli deil nas yaptm sonunda paralar buldum buldum It is what it is fam ay Tranquille ma gueule Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bedel</t>
+          <t>Mahalle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Seni cierlerimde ve damarlarmda hissediyorum Kan dolammdasn ve bu beynime ulaabilmenin tek yolu Dierlerini de denedim ama onlar senin kadar iyi deillerdi Deliriyorum çünkü sadece seninleyken böyle hissediyorum Belki de eskiden olduu kadar güçlü deilimdir artk Son zamanlarda artk bam döndürmüyorsun Buna tpk ar bir uyuturucuymuum gibi balmlym Nikki bebeim, seni seviyorum ama imdi gitmem lazm Çünkü bu iin sonu nereye varr biliyorsun Muhtemeln nerde olduumu merak diyor Bense gözden uzam, düünüyorum da bunun bedeli ne? Dier tüm hatunlar kucamda ama umrumda deil Sen ihtiyacm olan tek kadnsn, seni geri kazanmam gerek Hem de cierimi siyaha çevirmene ramen Bana nerde olduunu söyle? Ah, ad Mary olan hatunu biliyorum Her eyden bi' haberken onu becerirdim Dostlarmla beraber okulu asardk Mary ile iim bitince sadece sen ve ben kaldk Beni iyi hissetiriyorsun, ilk düüncelerim böyleydi Sen ve ben beraberken, Tanr ahidim olsun iyiydik Senden uzaklanca ilerimi yapmam pek zor oluyor Ah, bu kalbimin de daha sk çalmasn gerektiriyor Yaklak on yldr beraberiz Lanet olsun, ben gençken beni tavlad Her gün kim olduumu, kim olacam, nereye gideceimi Ve mezar tama ne yazacaklarn düünüyorum Kral olarak domu özgür bir adam, köle olarak ölen Yine de onun için yaptklar bir hiç urunayd Ah hayr yavaça brkamam, hemen kurtulmalym senden Beni Vegas'a uçuyormuum gibi trip'lendiriyorsun Tüm bu bana yaptklarn acmaszca Tek bildiim hiç yaayamayacam bir hayat yaadm Sonunda senden kurtuldum, hiç yapamayacam sanardm Yanl anlama, paylatmz o anlar unutamam Gittiim her yerde, senin de orda olduunu biliyorum Kaçmaya çaltm ama ayaklarm izin vermedi Yüzümü çeviriyorum ama bam izin vermiyor Seni tazeyken seviyorum Seni alyorum ve ayn nefesi paylayoruz Sana ihtiyacm olmasndan nefret ediyorum, Nikki Ama seni doyurmay seviyorum, Nikki Senin için üzülmekten nefret ediyorum Ah, sana hasretim ve sana ihtiyacm var Senin tadn almay seviyorum Hiçbir ey senin yerini alamaz Keke seni silebilsem, gittiim her yerdesin Ama olmak istediim her yerdesin Ve dier insanlar bunu anlamyor gibi gözükmüyor Ben her zaman herkesin skntn ne diye sorduu adamm Sen arzuladm her eysin Sen beni mezara sokmasna izin verebileceim tek eysin Ben kralm, sen de benim Corettamsn Ama son zamanlarda kendimi nikotinin kölesiymi gibi hissediyorum Kölesi Dedim ki, nikotinin kölesiyim Senin kölen oldum Senin sikik bir kölenim Nikotinin kölesi Nikki, Nikki, kölenim Senin kölenim Nikki Senin sikik bir kölenim</t>
+          <t>Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Funk'd Up'a dek, bitirim ikili bitirir hevesi Ah be canm sene iki bin on iki ve hala gerici beynin Ki derdim, deil ki tatlm beni de beenin Ben kapadm artk girmek için kr kepengi Bas, play piç böyle olmazdn Nas bileydin Arabesk rapçilerin müziime kast neydi Yeni nesil geliyo' full cap'i çkartp kask deneyin Bu boktan hep iç, boktan herif bok deil de Katk diyelim Farkl gelir, arttr geliri üç be tebrik tevik primi O kotuunuz yolu trnakla etik gelirim iyi Geriden iz süren de braksn deliremeyip Beenme piç, beenme, sçsam da benim emeim Müziin u anki hali için edebil'cein tek ey Tebrik Ve üretilen her i resmen hit ve resmen kliplik Durum buyken bile herkes tripli ve ibirlikçi Bi' ben içten ve gerisi fuck you, siktir, fick dich Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Kaçmz kurulmak istedikçe, üç kurula ve izbelik rap Hedefin uçkurunsa Uçkun'un da ibnelii tek Amck azl var m akln? VooDoo'nun stili mantk ayr O gururu piç edip ald payn, bu duruma içiyo'm alt aydr Al bakaym dedi bi' bebe ve seneler yere ben gerilip hedefe Saplanaym, denedim bedenen yüzerek geçtim Ankara'y Ah Kalan iç, bu iyi bi' derman kafamz piç mi Deil mi yelman para pis itir, iyi bi' yer var o da müzik De ti'ye almaz niye saman var, öküzü bol piyasam aptal Çözümü yok fiyat amdan ucuz mic gözünü tok Tut lan ite, hip-hoptan iler yi deil mangr kitaptan ile Ampulü yak ve de birandan iç hemen Al beni oldu bu imam da Nietzsche Hiç noksan deilim, benim hep doksan teybim Sana hip-hop'tan peynir, unut her boktan keyfi Yine de kvrp oynarsan eskorttan iyisin Hele bi' cvr tavlarsan pet shop'tan giydir Hip-hop'a funk' kattm, fark tattn deil mi tatlm Üstten attk seni de ah be güzelim biz gelene dek pek rahattn Vasfn vasfszlk, ondan hasmn hasmszdr Sorsan hazmszdr çünkü çoktan kadnszdr Çok yazk, sorsan bebede kitle vardr ancak o da bi' memede Yine de erken tehis koyduk, VooDoo bu lazm her eve Azck ark yaptm senede, yine de hitap ettim genele Sen hadi git eve boktan rapini dinletirsin anca dedene Sizde ekipman var kafa tam takr Fark anlamak için açn Funk'd Up' Bize laf atman gereksiz bi' de amak gibi Sanki birazck maksad Doru dedi ki hip-hop bi' pastadr Ama henüz onu sen hiç tatmadn Konser diye çktn mekan aslnda Bir düün salonunun alt kat! Aga B, Funk'd Up, Ais Ezhel ve Ankara imdi daha güzel Bu durum bi' çounu daha üzer ve gelip o tavan daa küser Kiilik bozulmasna, düzene ayak uydurmak da desen Hayat acmaszdr ondan ne kadar kaçsanz da düzer Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Dediler ki abi sakin, nere gitti sakin halim? Amna koydum sinirimi bozan her herifin ama ta ki halim Bitene kadar, Bi' nefes alak diyo'dum taa ki cahil artist Hip-hop' eletirene dek Sen of ne kadar marjinalsin Saldraman lafla bana pek dikkatini bu parçalara çek Hip-hop, hiphop kalacak, iki bebe görüp hip-hop' sanma arabesk Ya da uzakla arkalara geç, bana bulama takla sana rap atarm Kimine kova özentilikse bizde ganja hareket imdi Ezhel, Aga B parazit, kafan bo tut ya da sigara iç Cannabis sarak bi' mahalle basl bul onu yine de baba fizana git Geveze beyne ne desek elenecek, tezek deme emeime Çözeriz ama biz mesele neyse, Aga B, Funk'd Up, E-z-he-le Martaval atar, anca yazarak, sanma kafadan, aptal adam az Parça yapamaz, arkada kalan, harcanan adam, Ankara'da var Maksat adamak, karna bakarak, anlatan adam, baksan alamaz Rap için yemei, bu bebe Aralk ortasndan Mart'a kadar aç Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Siz Sevmeyin</t>
+          <t>PARA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Seninle görüeceiz, dünya orospusu Senden alacaklarm çok, ben de alacama pisim Kol krld yen içinde kald için için yandm Tanr beni sevmediinden mapushuna hapisim Herkesin dilinde bir dert pozitif düün Halbuki gerçek u ki kafan bozuk düündüün muur Mutlu insanlar oturup da halvetimek dinlemez Dinlese de inan bana sözlerinden anlamaz Derdine ortam diyenler aslnda sallamaz Akacak ya gözde durmaz ha bide damarda kan Bir eyi anlamak için ayn olmak gerekli Ben bir bunu bilir bunu söylerim baka laftan anlamam Aklm gezer hir ehir kulaklarmda tambur Kardelerimi sir alm beli kambur stanbul Bellemisiniz gözden rak olan gönülden atmaya Bizi yarm brakan da bir gün gelir tam bulur Hayatm siktiniz lan, brakn da 2 cümle küfredeyim Ben olunu hiç sevmeyen bir adamn nefretiyim Bir kavgada nasl oluk oluk kan yutulur Benim dünyamda ay tutulmaz kin tutulur Bir alemde bir baba nasl sikilir göreceksiniz Bu açk tehdit olaylar geliince çözeceksiniz Bitirdiniz lan beni, tam tamna 10 ayda Ölmü eek kurttan korkmaz adamn amna koyarlar Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Yeen dizlerine uzanp da, saatlerce alamak Bu öyle romantik bir ey de deil ha nsan kadn erkek bir kucaa ihtiyaç duyar Bazen en olmad bir kaldrm ta bile uyar Çaresi olmayan bir derde alamak adama koyar Ve bu çaresiz bir alar ki sar sultan duyar Ne manzaral bir da ba, ne çarnn tam ortas Gören bakar geçer sana ac olan da bu ya Balarm ulan imdi felein süslü çarkna Artk yapmyorum ben de böyle hisli arklar Var artk sen de u talihsizliinin farkna Puslu havann isli kaderimden ne fark var Karnm aç azmda kürdan hadi oradan Ayakkabm yrtk üstü boyal buyur buradan Bu dünya benim hakkmda ne bilir ha? Bir k vakti hayallerimin üstü delik deik yorgan Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu.. Gözlerim telal Yorgunluktan, belki uykusuzluktan Bazen de takldmzdan Dertlerden yakndmzdan Pislie yaknlmzdan Çekiyor bizi her an ondan sakndmzda Kafan atar bir cami avlusunda kal Yat kalk hadi na git okula imdi Uyukla anlatrsn hocalar anlarsa yorgun halini Sen anca notlarnla korkular indir Gömleime pis kokular sindi Henüz atarl çocukluum üstümde o zamanlar Hayat tanmam etmem, tanrm para bozanlar Siz anlatn biz hattayz Kederli yazyor bak ehrinde kara ozanlar Hiç mi düüp baylmam lan Hiç mi ölüm kokan hanelerde hastalarca saylmam Bir amin diyemedin u kanser olup gebermeme Ha gayret sinirlenip beddualar sayar annem Ama onlar saylmaz Umuda gidem dedim, yolumda pusu Efkarm çelik gibi hiç gelmiyor uykusu Önümüzden gülüp gülüp arkamzdan oynuyorsun Seninle görüeceiz, dünya orospusu..</t>
+          <t>Aigo Aigo beats Pavnieku Tlavas bloks Nahuj 02 un opps Es labk sev noprku Gloku N, es labk noperku stockus Js Es nevaru paciest tos lohus Tev netikt klub, maks par su Es stu shot'us Menti uz astes, jo masa Neraksti man, jo szias lasa Nezinu versiju, ja vii man prasa Japu slampas, Paemu naudu, jo va ir kase Pullupo troikas, spljam basi Mtjam apkrt, padodu passu Neprkp robeas, pardi pasi Rollojam sdu, rokojam rotas Nedodu sdu, esmu skops Mainojam crypto koinu Naiks ir netrs, mazgju rokas Turu uz mles, hitojam lickus Lai ice Nemetu rindas, es hitoju splifus Padod man , naiks ir netrs, bet paeko kickus Pulti kicki, nevajag vasku quick, Elon Musk SpaceX flovs, nevajag nastu Tu esi neglta, uzvelc masku Vajag pakas, nevajag pastu Trippo? mrci, nevajag pastu Vajag Bnz, nevajag pastu Palg, palg, nevajag rstu Aika de, uh-uh pamua sd uh-uh Repa sple, ma-na, man ira la, pa-ga uh-huh IC k slpe uh-huh Repa sple, ma-na, man ira la, a-ha Zmjam shmu, runa ir lta uh-huh Nemet man nu huh, nemaini tmu huh Nu jau par vlu huh, lrum es mu, j Tie zdi izauga sjum, no grama brl' uz grmatm No pard uz palg uz padod ksi Tagad ir labi, tas ir fakts Nomet to maizi, tas ira pakts Necep nodoki, braucu ar Taxi Kontakts, o, man piezvana plags Doubloju pakas, doubloju krapsi Doubloju, doubloju, tas ir dubs Tmju walking, nabaga kaps? Man tavs sds k nabagam lats Nahuj opps, vi man dod top 2 slampas uz kameras Tas nav vlogs, pc tam vajag Veuk, stop, Aigo, Marko, Drake un Josh Jimmy Neutron, blastoju off Timmy Turner, es gribu savu Gloku Servjam nahuj vius k Aigo, Marko, Drake un Josh</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIMARIK</t>
+          <t>LE CANE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ege Qimptoven, let's go Ayo, cvctus, where you at? Uzaya da çksan Yok bendeki vizyon sende Bulamazsn, arama yaknda Dudaklarmn tam arasnda Daha yakn ah damarndan Aykana kadar hepsini siktim bile Sana düer arta kalanlar Duyulas pembe yalanlar Balant sorunlarm var Slatt Sürtük, senin için deiemem Gang Hepinizle seviemem Ah Flow gibi dei hemen Dönüyo' bam, azm pis utanmam Wha'? Bayld arkadan içmese de dumandan Adm Loki, yok hiçbi' kumandan Slatt Ban çkartma zulandan Lig üst katman, aldm üst kattan What? Ben renk katmam thank God, prega What? Chrome Hearts pijama Gang, adm LOKIBOI Slatt, slatt, slatt Kzm, gelir çaramba, bana masal anlatma Diz hepsini art arda Bunlar bizim, sanki jandarma Bunlar bizim komutanm Para bankamda Grr, koarlar adm atmamla Bana masal anlatma Ah Uzaya da çksan Perfect Semtinde atyo'm tur, wha'? Bulamazsn, arama yaknda Kalpleri et tuzla buz, wha'? Dudaklarmn tam arasnda Bilmiyo'san bnce sus, rrah Daha yakn ah damarndan Duyulas pembe yalanlar Arkadamd, o bnim arkadam Yabancym, buralara nasl geldi mevzu? Nasl anlamadm? Silahmn namlusunda ban darmadan arkadam canlanmad, kaçn O benim en sk td, en azndan artk benim mal Iklar evimin içinde krmz, yldzlar yanm Tüm birimler ylm, vzldar ekip Her birinde sniper Kzmda tetik var, bende de grinder Çkp da dedim ki Skyo'sa indir, mermiler kafam krmyo' Kadim bir adamm, ykmyo' Sarssa da yklmam, slanyo' kzlarnn oras Kralnn kral, yannda kar nasl mark? Uzaya da çksan Arkadan yanl trpanmn ucunda kafas Uzaya da çksan Slatt, wha'? Yok bendeki vizyon sende Slatt, wha'? Bulamazsn, arama yaknda Slatt, wha'? Dudaklarmn tam arasnda Daha yakn ah damarndan Wha', wha', wha'? Aykana kadar hepsini siktim bile Sana düer arta kalanlar Uh Duyulas pembe yalanlar Pembe yalanlar4</t>
+          <t>La gente lotta e si sbatte fino alle 5 del venerdì Io lotto ogni giorno, ma con l'Enalotto così forse cambio il PC Dai follow for follow così un po' di follower mi offrono qualche free drink Anche se faccio la fame e ho le orecchie da cane What do you think? Migliaia di anni di storia per farci votare i governi migliori Adesso votiamo ad Amici, sul calcio e i sondaggi nelle Instagram Stories Dovrei lavorare, pagare le tasse per 35 anni d'amore Ma se mia moglie è lo Stato, io sto fidanzato e basterà un fiore Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sarò fuori corso, ma zero soccorso, mi piace l'università Wow Seguendo i miei piani una volta finita c'è quella della terza età Andiamo in vacanza da giugno a settembre, una volta deciso si va Che sia mare, montagna, campagna o città tanto paga papà Il babbo ha un amico che forse ha un amico che ha un bar dove cerca baristi Ma se la sera io faccio il Mojito, alla Play chi sconfigge i nazisti? Nonno a 30 anni sgobbava da 20 e ogni volta lui ce lo racconta Io dipendo da mamma anche per gli alimenti A proposito, la cena è già pronta? Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Non c'è trucco, mammalucco Nasco ricco, mi ci impicco Faccio l'uomo, dai ci provo Spicco il volo, sto da solo Sushi bar con champagne Sono a secco, fai prosecco Sotto sfratto, notte brava Sono sfatto, torno a casa Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare, sempre meglio che lavorare</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dennis Rodman</t>
+          <t>Replika</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ayy, what's up What up, what up Chilling Kako si, ta ima sine? We are shooting the Drogba video right now Alright, let me hear it U rukavu imam keca Tebi fali mnogo herca Naa fora svaka peca Tvoja hrabrost - olienje zeca Srpsko-crnogorska eca Za trep smo to za folk Ceca Gledaj kako rolam Benza Ide gas, prva pa trea All in - ne izdaje me srea Do zore gori moja svjea Mora da ima dobra lea Pucam ka Stojakovi Pea ta? Pucam ka Stojakovi Pea Pa-pa-pa-pa Pucam ka Stojakovi Pea Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Svi 'oe slavu, svi 'oe ke Stvari su skupe, markiran ve To mi se ne da, to uzmem sama Zasto se stidi? Nema tu blama U posjetu bratu do Roterdama Zastiena vie no prva dama Zastiena kao sibirski tigar Ne moe me nai - u sijeno igla Stigli na scenu, praina se digla Sad se gradimo, cigla po cigla Rrra Sad slavimo, krigla po krigla Rrra Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca Didier, Didier, Didier Drogba Frizura nova kô Denis Rodman Priu vam spakujem, pa vam je prodam U desnu stranu ga dodam Pazim e gazim, e hodam Crni kô iz Maroka Living la vida loca</t>
+          <t>Ko je prio, tu sa mojima trim za kintom Neu preko, jer ovde sam odrasto mlad I ovde u umrem sa istom Oduvek tu sam sa istom ekipom A da se takmie gistro Vadi papire da vidimo ishod Ko' te slago da jo smo tu ispod nule Nule aj Nismo mi isti ni kriminali, malo kea uzmem, cela pria eto Export import ljakamo ko pezos, trcim brzo kad cujem evro Hodam spretno, piim samo napred nee stii onaj ni sa plavim svetlom Svri icu ako batre nesto, moji spremni bodu bayonetom Alo ko je, treba ti komad bani za dva Dole, putam im poruke stigo, Dragan Pogasim repere, Flow je tata Ubijem svakog ko marmelada Igram dva plesa sa flowom i avolom A vi ste mali i preslabi s karikom Stanemo pravo i to je tematika Dodam pa oduzmem ko matematikom Magijos, ima da broji se noima Lovu da brojim sam naviko Jer gilje su brze ko Forest Gang Ostavim lovu za sebe, ostavim lovu za svoje Ovi moji e ii, ii e gde i ja odem Brau odveli su ve, braa opet sa nama Mene jure milioni, ja, ja Ne znam gde sam, sve sam za sebe video i sve sam odma za sebe uzo Moj fratelo, nisi vie drug moj, sad si taster, sad sve je skupo Ne nisu sa nama Boga mole da im ostavimo barem neki ulog Sve je ovde sada naa mapa, sada ima soma jedan uslov Hou da budemo bogati puni ba kao to puna je pakla E to je poso kada napunim dzepove, vi ste obuli kao Barcelona S firmom do miliona mestu sa mojima, tvojima trosit u pare Jer eno ba donose novu, otvori stotku i pravim komade Mi chiami fenomeno Hteo bi da bude replika, svi poslovi su mi trovano Poruke salju na telegram, kada ? moze samo govorom Da ne bi me uzela celija, jer trening mi je kad potrcimo Medelja me ceka i premija Lova me zove, nije teko Na treningu smo tu, jer istrimo ko Benz-om My, my god, da me zoves my svetlo Dostupno je stalno kada pozove neko My uno, due, tre, quattro Uno, due, tre, yeah</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aynen Öyle (Demo)</t>
+          <t>Milyoner</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jeg forguder din øyne, dine hender, dine lår Jeg kysser jorda der du står, der du sitter Du ser stjernestøv og glitter Som hos Peter Pan og Tingeling Letter jeg og flyr omkring Over byene, over skyene Som ingenting lenger betyr noe Jeg er blitt et dyr nå, jeg flyr nå Som et deilig eventyr og Alle masker har jeg tatt av meg Jeg er betatt av av deg Shit, rett og slett besatt av deg Husker natta jeg fikk lov å følge deg hjem Fra en fest hos en venn Vi hadde sitti igjen og bare prata Nå gikk vi sammen midt i gata Husker godt hva du sa da vi kom dit du bodde Du spurte om jeg trodde På kjærlighet ved første blikk Og det sa klikk inni huet mitt Og like romantisk som i Romeo og Julie Så skjedde det umulige Du kyssa meg, jeg prøvde å si noe Men du hysja meg Det neste jeg husker var at du hadde pysj på deg Nettene ble lange, dagene var fine Hvis kulda satte inn, fant vi varmen med å kline Vi levde og svevde som blomster og bier Men alt har en ende, det er som folk sier Shit, hvor lenge var Adam i Paradiset? Det blei krise, og enden på min vise Mine tanker, mine ord og mine gjerninger Ble borte i et spill som om alt var styrt av terninger Og når det spilles høyt så er fallet verre Og sånn ble det for meg Denne dagen òg dessverre Det jeg trodde jeg vant, det jeg fant, det tok slutt Da jeg hørte om deg og en annen gutt Det var en kar jeg ikke visste hvem var Jeg visste bare jeg skulle finne han Ta han med og binde han til et tre Knuse ballene hans med et kne Jeg skulle nikke han Ta en kniv og stikke han Men det han ikke kan Det er å stoppe tårene Som fyller salt i sårene Jeg ligger skada som skutt av en Uzi Jeg henger med gutta, med Dane og med Susi Prøver å tenke med huet, ikke hjertet mitt Men det er ikke så lett eller så smertefritt Du veit jeg har noen i meg, en glemt Don Juan Som en dag kommer fram igjen Gjør meg til en mann igjen Blåser støv av triksa som forfører og forleder deg Huh, jeg både gruer meg og gleder meg Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Det går aldri en dag uten at jeg tenker På hva framtida bringer og på hva som venter Er jeg kald om hjertet? Er jeg hard til beinet? Er jeg dømt til å være aleine? Vel, noen av grunnene hvor jeg kanskje selv har skylda Likte ikke å binde meg, så knulla på fylla En evig jakt etter kjærlighet, fant jeg meg en frekk en Var det ned på alle fire og så fikk'a smake kjeppen Hadde tre på en gang og da var det fett Men i ettertid blir jeg svett Når jeg tenker på hvor lett det var den gangen Da det største var å være den første Var man kongen, tok man dongen Hengte svinet i et tre Lot den fryse sånn at alle kunne se At det var MC Dane som hadde fått'a ned på kne Men alle blir vi eldre og tidene forandrer seg Og jeg veit at flere gamle flammer fortsatt klandrer meg For tapet av dyden, som en greker i Syden Er jeg frampå, sikkert som du veit jeg hater lyden Av karer som klager over draget Skriker og de bærer seg Drag er noe man har, ikke noe som man lærer seg Det er ikke dermed sagt at livet mitt er Nirvana Jeg mangler ikke jenter, men den riktige dama Piker som spriker og skriker er det nok av Men jeg savner en jeg kan elske og ære Sånn har det alltid vært og sånn vil det alltid være Men jeg slapper av for hvis jeg spiller korta riktig Kommer'a en vakker dag Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer at jeg kunne skrevet bok om dem Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem? Jeg har hatt så mange damer, men jeg blir nok aldri klok på dem Jeg har hatt så mange damer at jeg kunne skrevet bok om dem I over tjue år har vi prøvd oss på dem, prøvd å få dem Men vil vi noen gang forstå dem?</t>
+          <t>Ta-Ta-Ta-Tanerman E hadi sevdik, peki sonra? Hep ayn son geliyo' Her gecenin sonu karakolda ya da kapnda bitiyo' Hiç u hâlimi kendine yorma Bu gönül hep birini seviyo' Belki çektiim her bi' dumanla nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece Yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Bi' kre de sen ara, hâlimi sor Bi' kre de sen ara, hat'rm sor Muhtemelen sen güller, ben anason Yeah kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden, çabalyorum da keyfekeder Keyfekeder Bi'kaç milyon dert dolu Louis Duffle çantam Yolun çok bandaym da uzy'can sanmam Yüzünde bi' maske, bana geçmiimden bahsetme Ben temiz olmak uruna kaldm içinde kan ter Pes etsem ne geç'cek elime, devam etsem nolur? Bi' ses versen derinlerden kalmy'cak bi' sorun Yaamay istiyo'm da kolay modu yok mu? Hiçbi' kza güvenmemek yeni motto oldu Yâr sev beni yâr Ya da sar, yak iç küllerimi Kaç yl yaadk yetmedi mi, yetmedi mi? Va-va-varsn acmaszm Vicdan brakmadlar Bo ver, tut elimi, sen tut elimi nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Keyfekeder Yeah, keyfekeder Keyfekeder</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Semt Çocukları</t>
+          <t>MOB Cypher</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel Tüm semt bizim mm Telefonda aga nerdesin mm Whatsapptan konum at seri ha ha Hatun dr dr gerçekten tek miyim? Bebeim kalbimin için tekin deil Yaadm yer gibi Buz gibi içi bak boynumdaki gibi Telefonda hatun o da at gibi Küçük yata yaptm ilk soygunu lk tokatta daha 17 çocuktum lk satta daha liseli çocuktum uh uh Kimine göre iyi çocuktum Kimine de birazck uyumsuz Buldumu paralar doyumsuz Daha önce de görmedi napsn? E tabi ceplri dolunca mard 100 lük ama üstü kanl Eskiden zordu cidden imdiyse borçtan kurtul kurtul Önmli deil nas yaptm sonunda paralar buldum buldum It is what it is fam ay Tranquille ma gueule Bakalm harbiden Dediin gibi misin? Yapcan m Sözünün eri misin? Birazck erkek ol Ya da uzak dur Ya da 5 kii getir Aga bize say fark etmez stersen al mahalleni gel Unuttum ayn mahalleden çocuklarz Tüm tayfan topla gel</t>
+          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mahalle</t>
+          <t>Hızlı Sokaklar (Demo)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Neymi VooDoo Senin ben amna goyaym Funk'd Up'a dek, bitirim ikili bitirir hevesi Ah be canm sene iki bin on iki ve hala gerici beynin Ki derdim, deil ki tatlm beni de beenin Ben kapadm artk girmek için kr kepengi Bas, play piç böyle olmazdn Nas bileydin Arabesk rapçilerin müziime kast neydi Yeni nesil geliyo' full cap'i çkartp kask deneyin Bu boktan hep iç, boktan herif bok deil de Katk diyelim Farkl gelir, arttr geliri üç be tebrik tevik primi O kotuunuz yolu trnakla etik gelirim iyi Geriden iz süren de braksn deliremeyip Beenme piç, beenme, sçsam da benim emeim Müziin u anki hali için edebil'cein tek ey Tebrik Ve üretilen her i resmen hit ve resmen kliplik Durum buyken bile herkes tripli ve ibirlikçi Bi' ben içten ve gerisi fuck you, siktir, fick dich Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Kaçmz kurulmak istedikçe, üç kurula ve izbelik rap Hedefin uçkurunsa Uçkun'un da ibnelii tek Amck azl var m akln? VooDoo'nun stili mantk ayr O gururu piç edip ald payn, bu duruma içiyo'm alt aydr Al bakaym dedi bi' bebe ve seneler yere ben gerilip hedefe Saplanaym, denedim bedenen yüzerek geçtim Ankara'y Ah Kalan iç, bu iyi bi' derman kafamz piç mi Deil mi yelman para pis itir, iyi bi' yer var o da müzik De ti'ye almaz niye saman var, öküzü bol piyasam aptal Çözümü yok fiyat amdan ucuz mic gözünü tok Tut lan ite, hip-hoptan iler yi deil mangr kitaptan ile Ampulü yak ve de birandan iç hemen Al beni oldu bu imam da Nietzsche Hiç noksan deilim, benim hep doksan teybim Sana hip-hop'tan peynir, unut her boktan keyfi Yine de kvrp oynarsan eskorttan iyisin Hele bi' cvr tavlarsan pet shop'tan giydir Hip-hop'a funk' kattm, fark tattn deil mi tatlm Üstten attk seni de ah be güzelim biz gelene dek pek rahattn Vasfn vasfszlk, ondan hasmn hasmszdr Sorsan hazmszdr çünkü çoktan kadnszdr Çok yazk, sorsan bebede kitle vardr ancak o da bi' memede Yine de erken tehis koyduk, VooDoo bu lazm her eve Azck ark yaptm senede, yine de hitap ettim genele Sen hadi git eve boktan rapini dinletirsin anca dedene Sizde ekipman var kafa tam takr Fark anlamak için açn Funk'd Up' Bize laf atman gereksiz bi' de amak gibi Sanki birazck maksad Doru dedi ki hip-hop bi' pastadr Ama henüz onu sen hiç tatmadn Konser diye çktn mekan aslnda Bir düün salonunun alt kat! Aga B, Funk'd Up, Ais Ezhel ve Ankara imdi daha güzel Bu durum bi' çounu daha üzer ve gelip o tavan daa küser Kiilik bozulmasna, düzene ayak uydurmak da desen Hayat acmaszdr ondan ne kadar kaçsanz da düzer Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym VooDoo, VooDoo Ey, ney senin ben amna goyaym Dediler ki abi sakin, nere gitti sakin halim? Amna koydum sinirimi bozan her herifin ama ta ki halim Bitene kadar, Bi' nefes alak diyo'dum taa ki cahil artist Hip-hop' eletirene dek Sen of ne kadar marjinalsin Saldraman lafla bana pek dikkatini bu parçalara çek Hip-hop, hiphop kalacak, iki bebe görüp hip-hop' sanma arabesk Ya da uzakla arkalara geç, bana bulama takla sana rap atarm Kimine kova özentilikse bizde ganja hareket imdi Ezhel, Aga B parazit, kafan bo tut ya da sigara iç Cannabis sarak bi' mahalle basl bul onu yine de baba fizana git Geveze beyne ne desek elenecek, tezek deme emeime Çözeriz ama biz mesele neyse, Aga B, Funk'd Up, E-z-he-le Martaval atar, anca yazarak, sanma kafadan, aptal adam az Parça yapamaz, arkada kalan, harcanan adam, Ankara'da var Maksat adamak, karna bakarak, anlatan adam, baksan alamaz Rap için yemei, bu bebe Aralk ortasndan Mart'a kadar aç Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym VooDoo, VooDoo Ey, ney, senin ben amna goyaym Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo Ey, ey, senin ben amna goyaym VooDoo, VooDoo2</t>
+          <t>Hayatm stanbul gibi skk Skk Ah, her yeri trafik Bu kz sevmedim, tarz bi' ylk Ylk, serseri dinamit Açk aryo', bu gece beni patlatcak Ha Akl sra Piyanc'y atlatcak Hahaha Piyasa hzl, birileri harcancak Rap'i seviyo'sak dikenine katlanca'z Katlanca'z Biri birine, biri dierine Gelicek üstün, sen elime dütün Bak, ortama gelince seviye dütü Ne diye yüzsüz gibi peime dütün? Ama benden uzak durun Kuralm bu, kesilecek suratn buz Görünce beni deitir yolunu ve çeneni kapal tut Sana göre fazla gelir Anl haval, cool Hayallerimin en büyüünü yarattm Rap Hep keyfimi bozmaya çaltlar Tek kelimesi bile bana varmadan dütü Onu gören akbabalar bana üütü Bence piyasa bugün hasta Korkacak bi' ey yok tarzda Rap'in ad hepimizden büyük bugün çindeki, dndaki kahpeler' hepsine ölüm Ta-ta, ta-ta, ta-ta tararken Yüreimizden kopan bu atei salarken Tekrar ayaa kalkan pop deil olum, rap'im Bur'da çldran beni gören, sevenlerim Beni yobazlar dinlesin kanka Wuh Seni yobazlar dinliyo' kanka Hahah Hayk dönüürken Immanuel Kant'a Sana düen onun mirasn satmak Fino fenolarn götlerini koklaynca olucak m sanyo'sun hiç? Uh Biliyo'sun, dü bu Senin azndan dökülen dk Cesaret sandn eyin ad kuku, putsun Geberirken viskine ve kokainine sarl Söylesene, neyi koyabiliyo'sun para yerine? Brr Pelerine taklnca deliler ard bu, kime ta atcak alp eline? Ne tuhaf? Dönütünüz bataa Benim her kavgamda kaçtnz uzaa Sandnz ki susarm, dütünüz tuzaa Benzediniz tüccara, hepinizden uzam Hey Herkesin derdi, derdi kendine Siktir et Cüno derdim kendime Ar gelebilir sana baz rhyme'lar Yeah Sen git al abini, getir semtime Hehehehe Gelen görür, sakat gider Kan kokar her bi' kavgam Londra'da bu ara tek bi' kral var Sen bi' de git sor abilerine ngilizce'n bombok Hahahaha, rap'ini kçna sok Bok.com, bok torbas bok atma bana, bak, krarm kafan Katliam annda bana gider yapma Ah, ha Tekmill, Massaka harbi damardan patlar kafan Kzaran gözlerim kirpik alt Dalgadan deil birader, souk aldm Ya günümde hediyemi kendim aldm Yazdm satrlar da yara bandm Martlar atlan simit sand Var evde bir bekleyenim, Safir ad Dilek diliy'ce'm de yldz m kald? Okuduum her eyi sen yaz m sandn? Dütüyse kaldr dülerin dalmadan Kazanmak isteyen sabretsin yorulmadan Duvar deilsin, yaayasn yklmadan Kimse ak demesin hasretle yanmadan Sormadan gitmeyin, aklm kalacak sonra Uyanr uyanmaz sütünden sofra Bi' dara dü, kalabalklar yoklar Bu ara bamda bi' bela llegali brak olum, nasibini ara h Düüyoruz arada bi' dara Hayat, güler misin bana da bi' bana? Bana bi' tek kelime verin, bak, evin içinde bi' deli Yeri gelir, bizim için Neyin peindesin? dedi Çöpe giden bi' ton hayal, hiçbirisi bizim deil Yarna yarn inann sokak benim, evimdeyim Gözünü kapat, hadi Allah'a ükret Bu yol kime kader, kime ksmet? Bo lafa nispet, kalmad kimse Korkuyorsan olanlar izle Diyo'lar Canbay'la Wolker bi' keco Siktir git, yolumdan defol olsan da ileriniz defo Yeni baladk hani, gördüklerin demo O yüzden efor, görünmez bu yol Ah Tarama la beyni, beyni Yok bize geri Yok, simsiyah deri Deri Dümanma tattrdm yeri Maskeye aktn altnda benim Haha Kerhanede takl, ekilsin Karda hep izin Yah, sokaklar bizim Yah O adam, bu adam ama sen deilsin Hayr Dinle Türkçe rap kahpe, çok iyisin Ah Gö-gökte hilal, hapisten firar Üç kere zpladn, patlad villan Zrhl aracna bombal pilav Ya, ya, ya, ya Cotun, n'oldu? Sonucu viran Be-be-belde alet, yanl ticaret Gece ziyaret, kurun isabet Pa-pa-pa-pat Üç-alt cehennem, yanyo' vilayet Ruh hastasyz moruk, bunu idare et Bankaya gir, soy, yüzümde çorap Ah Gir tekme tokat Ney?, boalsn dolap Oh Çantalar dolsun, dolsun hep dolar -ar Ufaktan mola ya da bi' soda Ah Güvenlik, yol al siktir git, domal Hasiktir lan Ortalk duman, yanmda kovam Kçna sahip çk, arlar sokar Yabani dünyada kaptn kopar Boynuna kablo, gelsin tüm kadro Buras tehlikeli, yoktur tiyatro Ya, ya Ne yeter Polat, ne de bi' Pablo Massaka'nn en irenç taraf Diablo Yeah Türkçe rap giydi kefen Oh Diablo Blood gelir gece Oh Pembe etei giydi çeten Ha Üç yerden k-rld çenen Deutsche rap ve doy er'e Dolce gang yok kot, ceket Soruyo'sun çok sebep yo-yok yere Soluyo'sun bok bebek, yok ot ve meth Dinliyo'sun Gucci Gang, mucci gang Bu cidden yaralyo', hoca, beni, yapyo'sun çok çene Diyo'sun Ot çekek be bo bele Müziinse komple le ve bo gebe, yürü git Yürü git Yürütürüm, al, türlü türlü mal Gürültülü saçmalklar ünlü münlü deil Dikka, mikrofonu koy yere Sizin sikik Auto-Tune'nunuz pop ve wack Sesin kötü diye koyuyo'sun, havan olsun Birisi mana sorsa sklp Aman dersin Yediin paralar hep haram olsun Adam gibi bi' eyde bi' davan olsun Yapt bou ka, yara hounuza gidiyo' ya Bamza yeni bela, hadi ya Saptn sapam, sapm, kopuum, krm Kolunu krarm, ko'du'mun yllar zarar Kaçt kou kiminin evimin lou Duyduun huu, baar ehrimin k Bulduum a ucuza alyo'm ama Kimisine kayyo', gidiyo' yine para Gece dolamaya korktuun sokaklarda notalar çalar yeraltndan benim melodimin Dedi ki Def, kar, para, araba var, yalakalar, mavi mor lambalar ama ben o deilim No Hep ayn rayda Def, pure rap motherfucker moruk, yllar önce ayaklarma beton giydim Sen bugün varsn, yarn yoksun küçük kz çocuklarn peinden koan motherfucker pedofilisin Kafana cap, beline Colt, eline mikrofon geçirmekle hiçbi' zaman getto deilsin No Durma, benim adm sil playlist'inden homie eer hakkn veremiyo'sam ben o beat'in Baz satrlar eskilerden hatrlarsn bile, bu shit katk katlmam hâli heroin'in Bu flow tiki taka, de ki Ne çabuk bitti sekiz satr? Ustalarn beni tanr DefEasy imdi sanat için soyunanlar Bi' de Türkçe rap'in her tarafta aslanlar Bizi gördüünde, inan, iner kalkanlar Bi' de hatrlatr sana bura Balkanlar' imdi üçten geri say hadi, kankanz high Bu da bilim tezi, eekten olmuyo' tay Sana sorunlarn en güzeli ama Senin Dik gelir dediklerin hepsi yatay Gözümü kapatr, bi' de dalarm içeri Hadi hesabn ver bana olann bitenin Geri kafalsn ama, evet, dönemedi geri Beni tanyo'sun, emin ol bulurum o evi Beni duyuyo'sun, de' mi? Krarm o beli Testereyle gelir, keserim o uzam o dili Bana sormasn o, küllerimden oluuruz geri Yaplan bu iler elimizin kiri Panik yok animal, bu rap sürekli chemical Benimle tand Silivri Hannibal Wonder Woman'n saçsn öfkesiyken Venom'un Liriklerim katlediyo' hepsini Sorry mama, I'm a criminal Bilirsin, Rota tür-lü sorunun ad Hür oldukça rap'im onlarn hayat bi' zulüm içinde O yüzden atarm suratlarna külü Bizim çete deitirir suyun ak yönünü Bitch, yeah Yerimden oynatamaz vinç Ordum eder piçlerini linç Çünkü karaladm verse'lerimi sen uyurken geblo Sudan çkm balksnz, bizim için denk yok Tünelisin bu bokun, ben içindeki metro Delip geçiyoruz, bu piyasadaki tek lord biziz Küçücüksün, biz hep yannda deviz Hip-hop'la ben ayn Tiësto'yla techno21</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PARA</t>
+          <t>Evine Dön</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aigo Aigo beats Pavnieku Tlavas bloks Nahuj 02 un opps Es labk sev noprku Gloku N, es labk noperku stockus Js Es nevaru paciest tos lohus Tev netikt klub, maks par su Es stu shot'us Menti uz astes, jo masa Neraksti man, jo szias lasa Nezinu versiju, ja vii man prasa Japu slampas, Paemu naudu, jo va ir kase Pullupo troikas, spljam basi Mtjam apkrt, padodu passu Neprkp robeas, pardi pasi Rollojam sdu, rokojam rotas Nedodu sdu, esmu skops Mainojam crypto koinu Naiks ir netrs, mazgju rokas Turu uz mles, hitojam lickus Lai ice Nemetu rindas, es hitoju splifus Padod man , naiks ir netrs, bet paeko kickus Pulti kicki, nevajag vasku quick, Elon Musk SpaceX flovs, nevajag nastu Tu esi neglta, uzvelc masku Vajag pakas, nevajag pastu Trippo? mrci, nevajag pastu Vajag Bnz, nevajag pastu Palg, palg, nevajag rstu Aika de, uh-uh pamua sd uh-uh Repa sple, ma-na, man ira la, pa-ga uh-huh IC k slpe uh-huh Repa sple, ma-na, man ira la, a-ha Zmjam shmu, runa ir lta uh-huh Nemet man nu huh, nemaini tmu huh Nu jau par vlu huh, lrum es mu, j Tie zdi izauga sjum, no grama brl' uz grmatm No pard uz palg uz padod ksi Tagad ir labi, tas ir fakts Nomet to maizi, tas ira pakts Necep nodoki, braucu ar Taxi Kontakts, o, man piezvana plags Doubloju pakas, doubloju krapsi Doubloju, doubloju, tas ir dubs Tmju walking, nabaga kaps? Man tavs sds k nabagam lats Nahuj opps, vi man dod top 2 slampas uz kameras Tas nav vlogs, pc tam vajag Veuk, stop, Aigo, Marko, Drake un Josh Jimmy Neutron, blastoju off Timmy Turner, es gribu savu Gloku Servjam nahuj vius k Aigo, Marko, Drake un Josh</t>
+          <t>Menfhi Zaman geçer tik tak, yaant spin off Sokak ara zikzak, agalarm Pink Floyd aka gibi, gangimiz mamboi Sesim olur big mic', günahlarm hell boy Alay da Brak dedi, içim dedi Duraksama Herkese food, bro, yok babe, drug sana çeriden plug summer, yanmzda biblo, taptn newcomer çeriden baktnda hepsi de fake ama Onlar hep çok kii gangimiz tek ama Sandlar iyisiniz hepsi de kek ama Üstümdeki kuma hepsine denk ama Yorumlar siksok, alay da iyidir Salaklara pinpon, yudumladm teami Hatal bu pin kod, çetemizden deilsin Dolapdere, win boy, dengimiz deilsin Ya, duman dolu vücut tka basa Kasap diyet, hayat helal hesap Kelim, uzat onu, eline salk Yangn yeri içim, k uzak Tolerans yok, ya sabr, meditasyon Tansiyon geriliyo', dön evine, naylon eytan dolu pansiyon gibi, baba Size up ya da uzatmadan kaybol Köpekleri ham yapar, ehrimin insan bin kat Pislii zihnimin her yeri kaynyo' Genç giriim ii, tam gaz, keke Pedal basan ayak edemiyo' paydos Be senedir atyo' manzara takla Sokak aralar, keke, rampa atakta Sava cepheleri evim, kusuruma bakma Ve sorun önerilerini WhatsApp'a aktar Dü, kalk, geri dü, kalk Dirili biz, inaat gibi hissiyat Yeniliksiz, Risk al dedi eytan Yerin esiz, peyzaj gerek, insan, seni pislik Yakaladm ensesinden salaklar Havamz hep fresh, güneli, kararmad Konutular çok, kafama takmadm Azmda kan tad, sr'cak kalmad Ov Yanl hesapladn Geçemezsin buradan, sana yasakladm Kaypaklardan deiliz, Circle' satmadm Çemberi daralttk, artk daha da rahatm Ne bakyo'n hâlâ? Favorini ben var ettim, yalansa Yalan de Ne konuuyo'n hâlâ? En son konuanlar u an tannm'cak Ne dersen de, sikimde mi, hayr Trmanyo'z durmadan dere, tepe, bayr E, dost, akrabadan görmedim hayr Eskisinden daha iyi hissettim, fenaym, wow Menfhi</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LE CANE</t>
+          <t>SENIN UGRUNA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La gente lotta e si sbatte fino alle 5 del venerdì Io lotto ogni giorno, ma con l'Enalotto così forse cambio il PC Dai follow for follow così un po' di follower mi offrono qualche free drink Anche se faccio la fame e ho le orecchie da cane What do you think? Migliaia di anni di storia per farci votare i governi migliori Adesso votiamo ad Amici, sul calcio e i sondaggi nelle Instagram Stories Dovrei lavorare, pagare le tasse per 35 anni d'amore Ma se mia moglie è lo Stato, io sto fidanzato e basterà un fiore Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sarò fuori corso, ma zero soccorso, mi piace l'università Wow Seguendo i miei piani una volta finita c'è quella della terza età Andiamo in vacanza da giugno a settembre, una volta deciso si va Che sia mare, montagna, campagna o città tanto paga papà Il babbo ha un amico che forse ha un amico che ha un bar dove cerca baristi Ma se la sera io faccio il Mojito, alla Play chi sconfigge i nazisti? Nonno a 30 anni sgobbava da 20 e ogni volta lui ce lo racconta Io dipendo da mamma anche per gli alimenti A proposito, la cena è già pronta? Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Non c'è trucco, mammalucco Nasco ricco, mi ci impicco Faccio l'uomo, dai ci provo Spicco il volo, sto da solo Sushi bar con champagne Sono a secco, fai prosecco Sotto sfratto, notte brava Sono sfatto, torno a casa Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio che lavorare, sempre meglio che lavorare Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare Buona vita a scrocco, Adidas tarocco Sempre meglio che lavorare, sempre meglio che Sempre meglio Sempre meglio che lavorare, sempre meglio che lavorare</t>
+          <t>Yine odamda bir bama sensiz uyandm Uyanmaz olaydm Yan bamda bir fotoraf, gülen bir kadn Ah o kadn Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Beni hatrla Senin uruna niceler yandm Daha da yanardm Ben unutmam Her yanm bana seni hatrlatan yanklarm Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm1</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Replika</t>
+          <t>ŞAMPİYON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ko je prio, tu sa mojima trim za kintom Neu preko, jer ovde sam odrasto mlad I ovde u umrem sa istom Oduvek tu sam sa istom ekipom A da se takmie gistro Vadi papire da vidimo ishod Ko' te slago da jo smo tu ispod nule Nule aj Nismo mi isti ni kriminali, malo kea uzmem, cela pria eto Export import ljakamo ko pezos, trcim brzo kad cujem evro Hodam spretno, piim samo napred nee stii onaj ni sa plavim svetlom Svri icu ako batre nesto, moji spremni bodu bayonetom Alo ko je, treba ti komad bani za dva Dole, putam im poruke stigo, Dragan Pogasim repere, Flow je tata Ubijem svakog ko marmelada Igram dva plesa sa flowom i avolom A vi ste mali i preslabi s karikom Stanemo pravo i to je tematika Dodam pa oduzmem ko matematikom Magijos, ima da broji se noima Lovu da brojim sam naviko Jer gilje su brze ko Forest Gang Ostavim lovu za sebe, ostavim lovu za svoje Ovi moji e ii, ii e gde i ja odem Brau odveli su ve, braa opet sa nama Mene jure milioni, ja, ja Ne znam gde sam, sve sam za sebe video i sve sam odma za sebe uzo Moj fratelo, nisi vie drug moj, sad si taster, sad sve je skupo Ne nisu sa nama Boga mole da im ostavimo barem neki ulog Sve je ovde sada naa mapa, sada ima soma jedan uslov Hou da budemo bogati puni ba kao to puna je pakla E to je poso kada napunim dzepove, vi ste obuli kao Barcelona S firmom do miliona mestu sa mojima, tvojima trosit u pare Jer eno ba donose novu, otvori stotku i pravim komade Mi chiami fenomeno Hteo bi da bude replika, svi poslovi su mi trovano Poruke salju na telegram, kada ? moze samo govorom Da ne bi me uzela celija, jer trening mi je kad potrcimo Medelja me ceka i premija Lova me zove, nije teko Na treningu smo tu, jer istrimo ko Benz-om My, my god, da me zoves my svetlo Dostupno je stalno kada pozove neko My uno, due, tre, quattro Uno, due, tre, yeah</t>
+          <t>Ey Cehennem bura, çkarz tura Neresi fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra RaRa told me, Bring the drama, pull up with that guru-gurra This that Who Shot Ya? 2Pac Ya, crush ya lil' cookaracha, who got you gassed up? Boy, do stop or end on crew necks, boy, you next The bitch fly, then I'm probably paintin' her face like grischa I was running these plays and hittin' my lick up Pushin' start on the auto, you startin' you gettin' lift up Nettin' numbers like Harden, that rocket come out that bitch, bruh Yeah, run up if you wanna then you all fin' die Really with the scheiße put ya life on line We are not playin' no baseball, you do not wanna pop fly I'm really doin' it 'bout to ruin ya whole top-five Poppin' I probably be knockin', I don't do no drive-bys Always doin' it bigger than them, and it's no bite-size Mines come through, and we do not comply Mob with the killers, nigga, mines got ties Xternational, Trip stanbul Huh Syrldk, var ettik yoktan Ya Hatrlatr sana kim olduumu Huh, huh Allah var, yok gam Ya Son gaz Huh, avlan Huh Uzanr açklarna oltam Huh Voltran California, Berlin Bütün maçlar derbi, lig ampiyonda XX bu çift yldz hit business, bir sfr Öndeyiz rfnt, Lucifer ok Ya Suikastim lirikal, müzikal bi' tlsm Yklsn kaleler, bomba hip-hop Bana para konuma seni kaar Bu durumann size göre davas baka X hâlâ savata, yardrrz canla bala Sakn dalama Cehennem bura, çkarz tura Neresi? Fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra Kille paar Bars und ich bleibe aktiv Hurra, hurra Straßenbandit Hurra, hurra, immer noch mies Kiss im-kun kullkum, Berliner Der Krieger, ich zahle mit Visa La viva la vida, von wegen nur Spieler Kein Dreamer, Habiba, ein Realer, kein FIFA Ja, mieser, du Typ, und ich ficke dein'n Fame Fame Der King Kong ist back und ich baller' paar Parts Die GLOCK in der Hand, Müslüm Baba -ba Ist doch egal Alles ist da Alles ist nah Langsam wissen sie Bescheid, was passiert ZZ, er kommt über Nacht, Schüsse aus Schiebedach Wie gesagt, ist egal, was sie sagt Bleibe Star, zero-one Adana Adana I know you need people like me Sie tappen voll in die Falle, werden high von dem Haze Undercover, Doppel-Zer, meine Zeil'n sind safe Alles legal I come to your party when you pay</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Milyoner</t>
+          <t>HER YER FAVELA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ta-Ta-Ta-Tanerman E hadi sevdik, peki sonra? Hep ayn son geliyo' Her gecenin sonu karakolda ya da kapnda bitiyo' Hiç u hâlimi kendine yorma Bu gönül hep birini seviyo' Belki çektiim her bi' dumanla nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece Yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Bi' kre de sen ara, hâlimi sor Bi' kre de sen ara, hat'rm sor Muhtemelen sen güller, ben anason Yeah kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden, çabalyorum da keyfekeder Keyfekeder Bi'kaç milyon dert dolu Louis Duffle çantam Yolun çok bandaym da uzy'can sanmam Yüzünde bi' maske, bana geçmiimden bahsetme Ben temiz olmak uruna kaldm içinde kan ter Pes etsem ne geç'cek elime, devam etsem nolur? Bi' ses versen derinlerden kalmy'cak bi' sorun Yaamay istiyo'm da kolay modu yok mu? Hiçbi' kza güvenmemek yeni motto oldu Yâr sev beni yâr Ya da sar, yak iç küllerimi Kaç yl yaadk yetmedi mi, yetmedi mi? Va-va-varsn acmaszm Vicdan brakmadlar Bo ver, tut elimi, sen tut elimi nat etme Bi' kere de sen ara, hâlimi sor Bi' kere de sen ara, hat'rm sor Muhtemelen sen güller, ben anason kokuyoruz Bu gece yanyorum yine hasretine Bulamyorum baka neden Çabalyorum da keyfekeder Keyfekeder Yeah, keyfekeder Keyfekeder</t>
+          <t>Mhm-haha, TRVMEN Etki on the track Biraz yattm Yeah, zorundaydm harbiden Braktm ceketimi, tatil uzun süre yattm Yeah Yatmasam kurul'caktm Haha Aniden vurul'caktn Yeah Tabutuma bir çivi çaktm ans sigaram bile tersten yaktm Sadece bad trip yaatyo' aklm Baow-baow-baow Be sene her gün soldan kalktm, tersim Konuma, dayak yersin Yemekler frnda, Allah versin Bu prlantalar ner'den? Sorma, param bitsin istersin Olmaz Mafyalara gidersin Olmaz Yeni grup istersin Olmaz Groupie'ler istersin, yetmez Baban da diss'lersin belki Arabam hzl tank Yatarm, yeter lan tek bi' bank Sizin arklar Çilli bom Ama biziz, bak, hababam Sizde yat kalk ye, babam Dostlarm gelir Dou'dan, Bat'dan Birinizi görsek atlarz çatdan Bakyoruz her eye farkl bi' açdan Ya, ya Hem sahne hem sokak sold out, kalabalk çete gibi Az konuur, soru sormam, KKM gang, fam' GNG Size müzik, para, öhret, bizde biraz tehlikeli Bütün yollar bana çkar, tüm stanbul bilir beni Kaplar bamz dimdik geçtik Bilmeyen bilsin, hepsini seçtik Ya Bataklkta cahildik, gençtik Kim eytan, kim dosttur bildik Bi' cezam varsa çekice'm Sonu var, gam yok, bunu bildik Pasaport, kimlik Bi' neden bulduk, defterleri çizdik Ah-ah Ate etmek ve saklanmak yok Gö-gördün ihanet silahlardan Çktn o alçak sokaklardan Dütün bu yüksek binalardan Ah-ah, bak sen u finale Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah Laklak, vak vak Konusa âlem, dinlese milyonlar Bana çat-çat, taak Olmam sen gibi serilse trilyonlar spatlar sana one day, benim Herkese selam dönülmez bir yoldan Krk bir zarf, küçücük bir not Celo one shot, one bang, mm-mm Her eyi bo ver, paray çok sev Akln kurcalasn kombinin Bu silah esmer, cildim tersi Amacm varmak, var son güne Tavuu besler cani eller Kaçman için artlar çok bile Helikopter al, sana bu tavr çok Maan sabitleyin on bine Ne biliyo' hakkmda bu tipler? Yanp sönen pahal suit'ler Ate eden korkak tweet'ler Arabadan pahal tripler Mm, mm-mm Yere düüren boa beni, yetien dua Bum-bum, bum-bum, bum-bum Yüksek puan, bu fam big plan Bu squa' Squa' Anadolu'dan, Dou Anadolu'dan Müzik babadan miras, asalet gelir soyumdan Tatil için deil Bodrum, telefon gelir bana Van'dan Anam okur Kur'an, korur kazadan, beladan Boyna köçek gibi, para için onlar kdm, kdm kdm Zenne gibi krtrlar onlar kdm, kdm Loca sokak deil, bur'da öyle taklamazsnz Olaynz fiskos, kdm, kdm Tü-tü maallah Siz gibi deilim, yürüyorum dimdik bu sokaklarda Her gün yeni dert, tasalar birikir, çok çektik valla Yasa milyonlar, dese kurunlar Deiir yamz, çatlr kamz, tavrmz asla Elhamdülillah Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah1</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mortal Kombat</t>
+          <t>Yıldızlara Doğru</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Discographie - Ninho Album Studio - 20170908 Ninho - Comme prévu - 20190322 Ninho - Destin - 20211203 Ninho - Jefe Mixtape - 20140217 Ninho DJ Quick - Ils sont pas au courant, Vol. 1 - 20141110 Ninho DJ Quick - ENATTENDANTISPAC2 - 20160118 Ninho DJ Quick - I.S.P.A.C 2 - 20161021 Ninho - M.I.L.S - 20180330 Ninho - M.I.L.S 2.0 - 20200307 Ninho - M.I.L.S 3 - 20201030 Ninho - M.I.L.S 3 Réédition Compilation - 20200608 Ninho - Destin Comme prévu Single - 20120421 Ninho - Capuché - 20130301 Ninho - N.I.N Freestyle 2 - 20140106 Ninho - Ginger Winnie - 20140124 Ninho - N.I.N Freestyle 3 - 20140314 Ninho - N.I.N Freestyle 4 - 20140616 Ninho - Médicaments - 20140627 Ninho - N.I.N Freestyle 5 - 20140901 Ninho - Niño - 20140915 Ninho - Chamak - 20140929 Ninho - 3ème guerre mondiale - 20141012 Ninho - En attendant ISPAC 2 - 20141027 Ninho - 18 - 20141121 Ninho - Qu'est ce que tu va faire ? - 20150501 Ninho - Intro - 20150610 Ninho - Charly Delta Remix - 20150708 Ninho - Peugeuff - 20150730 Ninho - Nae Nae - 20150817 Ninho - Mal luné - 20150929 Ninho - Miroir - 20150930 Ninho - Booska Pop-corn - 20151009 Ninho - Nae Nae 2.0 - 20151030 Ninho - À 100 à l'heure - 20151120 Ninho - Temps plein - 20151207 Ninho - Cash Money Kilo Gramme - 20151221 Ninho - Malsain - 20160118 Ninho - Bloqués en bas - 20160123 Ninho - Booska Pays-Bas - 20160212 Ninho - In My Cup - 20160219 Ninho - Verre - 20160406 Ninho - Temps plein 2.0 - 20160601 Ninho - Bitch Dab - 20160701 Ninho - Binks to Binks Part. 1 - 20160721 Ninho - Crésus - 20160815 Ninho - Binks to Binks Part. 2 - 20160907 Ninho - Pour nous - 20160921 Ninho - OKLM Freestyle - 20160929 Ninho - Binks to Binks Part. 3 - 20161003 Ninho - Freestyle Couvre Feu - 20161012 Ninho - Freestyle M.I.L.S - 20161018 Ninho - Tout ira mieux - 20161025 Ninho - Booska MILS - 20161104 Ninho - Légende - 20161121 Ninho - Freestyle Couvre Feu 2 - 20161207 Ninho - Dis-moi que tu m'aimes - 20170126 Ninho - Binks to Binks Part. 4 - 20170224 Ninho - Malcolm - 20170421 Ninho - Roro - 20170628 Ninho - Binks to Binks Part. 5 - 20170706 Ninho - Mamacita - 20170818 Ninho - Chino - 20170905 Ninho - Booska Comme prévu - 20170908 Ninho - Hall - 20170909 Ninho - Freestyle Comme prévu - 20170926 Ninho - OKLM Freestyle Part. 2 - 20171006 Ninho - Laisse pas traîner ton fils - 20171227 Ninho - Dita - 20180117 Ninho - Rose - 20180309 Ninho - Bénéfice - 20180328 Ninho - Coffrer - 20180404 Ninho - Boîte auto - 20180425 Ninho - Un Poco - 20180919 Ninho - Fendi - 20181114 Ninho - Toutes options - 20190101 Ninho - Binks to Binks 6 - 20190221 Ninho - Goutte d'eau - 20190321 Ninho - Paris c'est magique - 20190319 Ninho - Booska Destin - 20190524 Ninho - Maman ne le sait pas - 20190619 Ninho - Kim Jong-il - 20190920 Ninho - Putana - 20200227 Ninho - M.I.L.S 3 - 20200320 Ninho - Zipette - 20200320 Ninho - Pirate - 20200527 Ninho - Lettre à une femme - 20201002 Ninho - Problèmes du matin - 20201030 Ninho - Sur Paname - 20201216 Ninho - Tout en Gucci - 20211130 Ninho - Binks to Binks 7 - 20220209 Ninho - Jefe Featuring - 20140627 Sadek - Jamais - 20151215 Sazamyzy - Braquage à lafricaine 4 Part. 1 - 20160502 Sofiane - Mortal Kombat - 20160708 Sadek - C'est trop - 20160826 Douma Kalash - IGO 10 - 20160905 13 Block - Mains sales - 20170113 Sirsy - Refait - 20170224 Médine - Grand Paris - 20170608 Blasko - RAS - 20170908 Rentre dans le Cercle - Rentre dans le Cercle - Épisode 1 - 20170915 Sadek - Madre Mia - 20171117 Lacrim - Veux-tu ? - 20180108 Sofiane - Longue vie - 20180126 Yaro - Casa de Papel - 20180223 YL - Sicario - 20180324 Leto - Avon Barksdale - 20180504 Naza - À midi - 20180511 Yaro - Bucci Night - 20180608 4Keus Gang - Midi dans le ghetto - 20180725 Rim'K - Air Max - 20180727 KPoint - Ma 6t a craqué - 20180905 DA Uzi - Entre les murs - 20180921 Mac Tyer - 20 ans - 20180921 Hornet La Frappe - Sheitana - 20181019 SCH - Prêt à partir - 20181130 Capo Plaza - Billets - 20181130 GLK - Mauvais - 20181207 JuL - Et je deviens fou - 20190111 4Keus Gang - Vida Loca - 20190405 Zola - Papers - 20190412 Alonzo - C'est elle - 20190419 Hiro - À découvert - 20190531 Vegedream - Elle est bonne sa mère - 20190606 Kingzer - Gaine 'D 2.0 - 20190614 JuL - Tel Me - 20190705 Leto - Tes parents - 20190719 Hös Copperfield - Ma Guapa - 20190906 Niska - Méchant - 20190927 Amy - Mauvais côté - 20191108 Soprano - Musica - 20191129 SCH - Mayday - 20191129 Gradur - BLH - 20191220 Maes - Distant - 20200207 Yaro - Mec de cité - 20200220 Naps - 6.3 - 20200403 DA Uzi - Crois-moi - 20200417 Leto - Double Binks - 20200619 Dadju - Grand bain - 20200717 Mac Tyer - Moto - 20200731 Yaro - Dios mio - 20200828 Leto - Macaroni - 20200911 Carbozo - Carbozo 2.0 - 20201002 91 All Stars - La zone - 20201016 Lacrim - Dadinho - 20201023 Koba LaD - Encore - 20201127 Fally Ipupa - Likolo - 20201203 KeBlack - Je fais ma vie - 20201218 Landy - Enfants terribles - 20210101 DA Uzi - La vie du binks - 20210101 Leto - Vie de star - 20210226 Serge Ibaka - Champion - 20210312 Kore - Mon poto - 20210409 Sadek - Kimono - 20210602 DJ Quick - Elle m'a dit - 20210611 Dadinho - Mendosa - 20210625 Hös Copperfield - Incertain - 20210718 No Limit - Millions - 20210827 Hornet La Frappe - Gasolina - 20210903 Koffi Olomidé - Hercule - 20211103 Niska - N.I - 20211105 Gianni - La Calle - 20211119 Gazo - MAUVAIS 2X - 20220128 Kaneki - Jules César - 20220128 Ronisia - Suis-moi - 20220311 Lamatrix - 11H - 20220325 Yaro - Dernier étage - 20220401 DA Uzi - Kongolais mauvais - 20220520 Alonzo - TOUT VA BIEN - 20221021 Redvolution - Carolina - 20221028 Franglish - Sécu - 20221104 Heuss L'enfoiré - La Marseillaise - 20221104 Dinos - Portes suicide - 20221118 Graya - Coucou - 20221125 Kalash - Tennessee - 20230113 GAULOIS - Jolie</t>
+          <t>Her sabah bi' ölü Vidos Kurunlar saçlr Vidos Ölüme yaknz trafikteyiz Memurla aramz limoni cano Arayn Mami'yi yannda Mako nönü hzldr evine ko Uzi'yi bilirsin lakabm Çavo Vido La Coka stil, arazi ol Çakn beline koy Sokarm götüne çevirip onu Yine bebeler aranyor Bizimle yaran evinden olur Karakol önünde duman uurum yerinde deil Anamz okuyo' dua, korur o, mevzular sknt deil Gücünüz kime yeter ki, tokatlar bi' çocuk kendine gelir Bok atar herkese semtinin dnda bi' mevzu yapamaz ve baba denir Deli bilir kime sataacan aykr ar, hafifi bilir Eve tek dönüyo'm, gece bo üzerim Kelime yapmayn bi' yara verin Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Ghettonun içinde her biri peimde, bi' türlü veremedi ki bi' rahat Demitim ikile büyüdü korkun hep içinde, deneme beni bi' daha Kirlenmez elim bile, bur'da cann almama yetiyo' iki bira Ki sana benzemem, öyle bi' tweetle bi' anda soumaz içim inan Konuur konuur ama bi' zarar yok, her sözü içinde kalr Yüzüme konuacak bi' cesareti yok, o Vidos'u çok iyi tanr Müziinizin her notas çöp, dinleyicilerin hepsi mi sar? O elit semtin büyük abisi sadece metin belgesine döküyor kan ya, ya Sokan denklemi basit, tek bi' seçenein var Ya düündüünü kazan ya da kazandn düün Seninle uramak için hiç vaktimiz yok, o yüzden birinden birini yap Ya tükürdüünü yala ya da yaladna tükür Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos, vidos Iklar kapal bi' araç yanar yanmza Para döndürüyo' bütün olay, farkna varmadan kar kanmza Karanlk olmadan uza, biz seni bulmadan uza Cennet ve Cehennem yakn, sevgi ve adalet uzak Korkuyo' bütün gençleriniz, gelirse biliyo' sadece yara alr Karard ksk gözlerimiz, çekmecem açlsa piyasa bize kalr Yolum yönüm belli, yldzlara doru kaldrdm Katanam Üstümdeki kan lekeleri yanmad Gör kayboldu bütün dostlarm ortadan bro Polis yok ortada bro Sonunda hiç geçmediin bi' sokakta karlayoruz, yolun sonu bro Senin için ama benim için deil, kaplar kapanyo' Benim için ama senin için deil, kaplar açlyo' Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOB Cypher</t>
+          <t>İntikam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
+          <t>Evet Bebeim Bebeim, hepsinin sebebi bendim Kusurlarm kabul etmeliyim Geçmiimde sçtm, duygusal açdan hala yaralym Öyle Umarm unutmadan önce affedersin beni Ve biliyorum ki reddedeceksin beni fakat meleklerim cevaplayacak beni Sorduum tek ey Eer bitirdiysen, söyle bana bebeim Ah, ah Günahlarnla Miami'ye uçtun Tüm arkadalarn takip etmiyorum Kzm, tekrar oraya gitmek istemiyorum Evet, çok zor Benden istediinde bu Beni fena istiyorsun, sana gelmemi de Beni üzgün görmek istiyorsun, intikam almay da Ah, ah Oh, ooh woah, oh-oh Bebeim sana yaattm eyleri hak etmedin Senin yerinde olsaydm ben de bitirebilirdim Kaldryorsun beni Dibe çekiyorsun beni bebeim, dibe çekiyorsun Galiba benden istediinde bu Benden istediinde bu Olmaya çaltm kii bu deildi Evet, olmam istediin kii bu Yalan söyleme bana Çünkü eer söylersen, benim için hava ho çimden bir ses daha yavatan almamz söylüyor Ah, bebeim Gençtik, Sikerler, yaa gitsin dedik Bu konuda hiç konumadk dersem yalan söylemi olurum Evet, o eytanlarla dolu odada ki bir melek Bugünün erken geleceini biliyorduk Kim biliyordu, bebeim, kim biliyordu? Sen biliyordun Affedersin Kaybetmi olmalym onu Sense unutmu olmalsn Sana kalbimi verdim ve sen onu düürmeye karar verdin Kes unu, ahh kes unu Evet Bebeim, ah bebeim</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hızlı Sokaklar (Demo)</t>
+          <t>Biz</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hayatm stanbul gibi skk Skk Ah, her yeri trafik Bu kz sevmedim, tarz bi' ylk Ylk, serseri dinamit Açk aryo', bu gece beni patlatcak Ha Akl sra Piyanc'y atlatcak Hahaha Piyasa hzl, birileri harcancak Rap'i seviyo'sak dikenine katlanca'z Katlanca'z Biri birine, biri dierine Gelicek üstün, sen elime dütün Bak, ortama gelince seviye dütü Ne diye yüzsüz gibi peime dütün? Ama benden uzak durun Kuralm bu, kesilecek suratn buz Görünce beni deitir yolunu ve çeneni kapal tut Sana göre fazla gelir Anl haval, cool Hayallerimin en büyüünü yarattm Rap Hep keyfimi bozmaya çaltlar Tek kelimesi bile bana varmadan dütü Onu gören akbabalar bana üütü Bence piyasa bugün hasta Korkacak bi' ey yok tarzda Rap'in ad hepimizden büyük bugün çindeki, dndaki kahpeler' hepsine ölüm Ta-ta, ta-ta, ta-ta tararken Yüreimizden kopan bu atei salarken Tekrar ayaa kalkan pop deil olum, rap'im Bur'da çldran beni gören, sevenlerim Beni yobazlar dinlesin kanka Wuh Seni yobazlar dinliyo' kanka Hahah Hayk dönüürken Immanuel Kant'a Sana düen onun mirasn satmak Fino fenolarn götlerini koklaynca olucak m sanyo'sun hiç? Uh Biliyo'sun, dü bu Senin azndan dökülen dk Cesaret sandn eyin ad kuku, putsun Geberirken viskine ve kokainine sarl Söylesene, neyi koyabiliyo'sun para yerine? Brr Pelerine taklnca deliler ard bu, kime ta atcak alp eline? Ne tuhaf? Dönütünüz bataa Benim her kavgamda kaçtnz uzaa Sandnz ki susarm, dütünüz tuzaa Benzediniz tüccara, hepinizden uzam Hey Herkesin derdi, derdi kendine Siktir et Cüno derdim kendime Ar gelebilir sana baz rhyme'lar Yeah Sen git al abini, getir semtime Hehehehe Gelen görür, sakat gider Kan kokar her bi' kavgam Londra'da bu ara tek bi' kral var Sen bi' de git sor abilerine ngilizce'n bombok Hahahaha, rap'ini kçna sok Bok.com, bok torbas bok atma bana, bak, krarm kafan Katliam annda bana gider yapma Ah, ha Tekmill, Massaka harbi damardan patlar kafan Kzaran gözlerim kirpik alt Dalgadan deil birader, souk aldm Ya günümde hediyemi kendim aldm Yazdm satrlar da yara bandm Martlar atlan simit sand Var evde bir bekleyenim, Safir ad Dilek diliy'ce'm de yldz m kald? Okuduum her eyi sen yaz m sandn? Dütüyse kaldr dülerin dalmadan Kazanmak isteyen sabretsin yorulmadan Duvar deilsin, yaayasn yklmadan Kimse ak demesin hasretle yanmadan Sormadan gitmeyin, aklm kalacak sonra Uyanr uyanmaz sütünden sofra Bi' dara dü, kalabalklar yoklar Bu ara bamda bi' bela llegali brak olum, nasibini ara h Düüyoruz arada bi' dara Hayat, güler misin bana da bi' bana? Bana bi' tek kelime verin, bak, evin içinde bi' deli Yeri gelir, bizim için Neyin peindesin? dedi Çöpe giden bi' ton hayal, hiçbirisi bizim deil Yarna yarn inann sokak benim, evimdeyim Gözünü kapat, hadi Allah'a ükret Bu yol kime kader, kime ksmet? Bo lafa nispet, kalmad kimse Korkuyorsan olanlar izle Diyo'lar Canbay'la Wolker bi' keco Siktir git, yolumdan defol olsan da ileriniz defo Yeni baladk hani, gördüklerin demo O yüzden efor, görünmez bu yol Ah Tarama la beyni, beyni Yok bize geri Yok, simsiyah deri Deri Dümanma tattrdm yeri Maskeye aktn altnda benim Haha Kerhanede takl, ekilsin Karda hep izin Yah, sokaklar bizim Yah O adam, bu adam ama sen deilsin Hayr Dinle Türkçe rap kahpe, çok iyisin Ah Gö-gökte hilal, hapisten firar Üç kere zpladn, patlad villan Zrhl aracna bombal pilav Ya, ya, ya, ya Cotun, n'oldu? Sonucu viran Be-be-belde alet, yanl ticaret Gece ziyaret, kurun isabet Pa-pa-pa-pat Üç-alt cehennem, yanyo' vilayet Ruh hastasyz moruk, bunu idare et Bankaya gir, soy, yüzümde çorap Ah Gir tekme tokat Ney?, boalsn dolap Oh Çantalar dolsun, dolsun hep dolar -ar Ufaktan mola ya da bi' soda Ah Güvenlik, yol al siktir git, domal Hasiktir lan Ortalk duman, yanmda kovam Kçna sahip çk, arlar sokar Yabani dünyada kaptn kopar Boynuna kablo, gelsin tüm kadro Buras tehlikeli, yoktur tiyatro Ya, ya Ne yeter Polat, ne de bi' Pablo Massaka'nn en irenç taraf Diablo Yeah Türkçe rap giydi kefen Oh Diablo Blood gelir gece Oh Pembe etei giydi çeten Ha Üç yerden k-rld çenen Deutsche rap ve doy er'e Dolce gang yok kot, ceket Soruyo'sun çok sebep yo-yok yere Soluyo'sun bok bebek, yok ot ve meth Dinliyo'sun Gucci Gang, mucci gang Bu cidden yaralyo', hoca, beni, yapyo'sun çok çene Diyo'sun Ot çekek be bo bele Müziinse komple le ve bo gebe, yürü git Yürü git Yürütürüm, al, türlü türlü mal Gürültülü saçmalklar ünlü münlü deil Dikka, mikrofonu koy yere Sizin sikik Auto-Tune'nunuz pop ve wack Sesin kötü diye koyuyo'sun, havan olsun Birisi mana sorsa sklp Aman dersin Yediin paralar hep haram olsun Adam gibi bi' eyde bi' davan olsun Yapt bou ka, yara hounuza gidiyo' ya Bamza yeni bela, hadi ya Saptn sapam, sapm, kopuum, krm Kolunu krarm, ko'du'mun yllar zarar Kaçt kou kiminin evimin lou Duyduun huu, baar ehrimin k Bulduum a ucuza alyo'm ama Kimisine kayyo', gidiyo' yine para Gece dolamaya korktuun sokaklarda notalar çalar yeraltndan benim melodimin Dedi ki Def, kar, para, araba var, yalakalar, mavi mor lambalar ama ben o deilim No Hep ayn rayda Def, pure rap motherfucker moruk, yllar önce ayaklarma beton giydim Sen bugün varsn, yarn yoksun küçük kz çocuklarn peinden koan motherfucker pedofilisin Kafana cap, beline Colt, eline mikrofon geçirmekle hiçbi' zaman getto deilsin No Durma, benim adm sil playlist'inden homie eer hakkn veremiyo'sam ben o beat'in Baz satrlar eskilerden hatrlarsn bile, bu shit katk katlmam hâli heroin'in Bu flow tiki taka, de ki Ne çabuk bitti sekiz satr? Ustalarn beni tanr DefEasy imdi sanat için soyunanlar Bi' de Türkçe rap'in her tarafta aslanlar Bizi gördüünde, inan, iner kalkanlar Bi' de hatrlatr sana bura Balkanlar' imdi üçten geri say hadi, kankanz high Bu da bilim tezi, eekten olmuyo' tay Sana sorunlarn en güzeli ama Senin Dik gelir dediklerin hepsi yatay Gözümü kapatr, bi' de dalarm içeri Hadi hesabn ver bana olann bitenin Geri kafalsn ama, evet, dönemedi geri Beni tanyo'sun, emin ol bulurum o evi Beni duyuyo'sun, de' mi? Krarm o beli Testereyle gelir, keserim o uzam o dili Bana sormasn o, küllerimden oluuruz geri Yaplan bu iler elimizin kiri Panik yok animal, bu rap sürekli chemical Benimle tand Silivri Hannibal Wonder Woman'n saçsn öfkesiyken Venom'un Liriklerim katlediyo' hepsini Sorry mama, I'm a criminal Bilirsin, Rota tür-lü sorunun ad Hür oldukça rap'im onlarn hayat bi' zulüm içinde O yüzden atarm suratlarna külü Bizim çete deitirir suyun ak yönünü Bitch, yeah Yerimden oynatamaz vinç Ordum eder piçlerini linç Çünkü karaladm verse'lerimi sen uyurken geblo Sudan çkm balksnz, bizim için denk yok Tünelisin bu bokun, ben içindeki metro Delip geçiyoruz, bu piyasadaki tek lord biziz Küçücüksün, biz hep yannda deviz Hip-hop'la ben ayn Tiësto'yla techno21</t>
+          <t>Boli sve, od due junije Traimo biser od ivota ta je tunije od nae sudbine? Al' ti se boji da Izgoreemo mi pre smrti Pa zaboravlja, dok se borim ja Meseina puna mana Opet ja mislim o nama Al' ove noi pleem sama Pleem sama ja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Budim se, kraljica pustinje Sino su se sene ljubile Al' zora zarudi, zaboli I mui me od due junije Dalje se borim ja, ne postoji niko bolji ta je tunije od nae sudbine? Jer ti se boji da, izgoreemo mi pre smrti Pa zaboravlja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Beimo u mrak, beimo u mrak Sklopi oi, pomisli na nas Beimo u mrak, noas budi jak Sklopi oi, zamiljaj Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Meseina sja Meseina zna Meseina ta i ja</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Evine Dön</t>
+          <t>Pisko*</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Menfhi Zaman geçer tik tak, yaant spin off Sokak ara zikzak, agalarm Pink Floyd aka gibi, gangimiz mamboi Sesim olur big mic', günahlarm hell boy Alay da Brak dedi, içim dedi Duraksama Herkese food, bro, yok babe, drug sana çeriden plug summer, yanmzda biblo, taptn newcomer çeriden baktnda hepsi de fake ama Onlar hep çok kii gangimiz tek ama Sandlar iyisiniz hepsi de kek ama Üstümdeki kuma hepsine denk ama Yorumlar siksok, alay da iyidir Salaklara pinpon, yudumladm teami Hatal bu pin kod, çetemizden deilsin Dolapdere, win boy, dengimiz deilsin Ya, duman dolu vücut tka basa Kasap diyet, hayat helal hesap Kelim, uzat onu, eline salk Yangn yeri içim, k uzak Tolerans yok, ya sabr, meditasyon Tansiyon geriliyo', dön evine, naylon eytan dolu pansiyon gibi, baba Size up ya da uzatmadan kaybol Köpekleri ham yapar, ehrimin insan bin kat Pislii zihnimin her yeri kaynyo' Genç giriim ii, tam gaz, keke Pedal basan ayak edemiyo' paydos Be senedir atyo' manzara takla Sokak aralar, keke, rampa atakta Sava cepheleri evim, kusuruma bakma Ve sorun önerilerini WhatsApp'a aktar Dü, kalk, geri dü, kalk Dirili biz, inaat gibi hissiyat Yeniliksiz, Risk al dedi eytan Yerin esiz, peyzaj gerek, insan, seni pislik Yakaladm ensesinden salaklar Havamz hep fresh, güneli, kararmad Konutular çok, kafama takmadm Azmda kan tad, sr'cak kalmad Ov Yanl hesapladn Geçemezsin buradan, sana yasakladm Kaypaklardan deiliz, Circle' satmadm Çemberi daralttk, artk daha da rahatm Ne bakyo'n hâlâ? Favorini ben var ettim, yalansa Yalan de Ne konuuyo'n hâlâ? En son konuanlar u an tannm'cak Ne dersen de, sikimde mi, hayr Trmanyo'z durmadan dere, tepe, bayr E, dost, akrabadan görmedim hayr Eskisinden daha iyi hissettim, fenaym, wow Menfhi</t>
+          <t>Traim prave rei priam u prazno sa sobom Dok gledam kako su sreni, moda oseam prezir Nita tenzija jo jedan dan dok se stresiram Al nita sa drugima jer pria u prazno se ponavlja Izgubim sve, a nisam nita ni imao Gde stojim tu je klimavo jo me vide ko klinju Ba divno to, ali nemam gde da ekam voz I da imam, ba i ne znam gde bi otio Dosta sam se naviko da ne ide sve po planu Pa stavim sebe na stranu, to je sranje stvarno Jo me grize savest stalno, to je zajebano Al moram sve sam da reim znam to Jo me jebe muzika, trudim se da sam unikat Pisao bi reperima ali uvek bude kurina Zato razoaran u mnoge, mogu rei idole, pa me povue jo dole Veruj mi, ne zna ta je industrija, naravno muzika Mada moe da se povee sa hranom, jer svi potajno znamo da je govno Al opet idemo u to i kao nema veze sa lovom Ali pazi ovo, na instagramu piso njima trideset ta mislis ko je odgovorio, samo Iskaz je I tu treba da istrajem, zar ne, ali odma vidi se Ko je to zaradio a ko je imo sree Troim sebi nerve zbog tebe, omiljeno mesto mi postaje krevet Jer se krijem od sebe Za mene tek je poetak, ostajem umoran valjda uskoro e petak Polako pada elja, polako brate ne znam Pa kako nisi trezna, a opet treba tog kea Od danas sam sjeban Od danas priam sa sobom Od danas nema nikog, ostaje mi sav prostor I na kraju ko smo?</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SENIN UGRUNA</t>
+          <t>RUN RUN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yine odamda bir bama sensiz uyandm Uyanmaz olaydm Yan bamda bir fotoraf, gülen bir kadn Ah o kadn Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Beni hatrla Senin uruna niceler yandm Daha da yanardm Ben unutmam Her yanm bana seni hatrlatan yanklarm Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm Ve yine yandm, ama yine yandm Biri ruhumu söndürür sandm Ve buna inandm ama yine yandm Kimin uruna? Ne uruna? Yangn, yine bamda Yine bir sabah bile bile atee uyandm Yangn, dört yanmda Tutuacam bile bile atee uzandm1</t>
+          <t>CÜNDÖ RÏSÄË DÏNSÄË Hidden, empty, i collect myself ÜNDÄ ÜRÏ CÖÏ ÜNDÄRÏ Perverse world, forced to disconnect me to him MÏ ËÜRT ÜRTÄ My heart brutalized ÜNTÄ CÖ ÜNDÏ Chasm linked of my past MÏMÄË ÜNDÄTÏ My eternal companions FÜR ÜNDÄTÄ So as to treat ÜNTÄ ÏRÏN SÜN FÜR SÜN TÜ Ï SÜN TÜRÜN DÄRÜN DÄRÏ I looking for the Sun in my hell, this sick inner Sun, calm, connection to my torrent of rose Ä ÜRÏ YÜMTÄ YÜMTÄ ÜNDÏ I am united with the universe, an innocent and sensitive human FÜRÏ ÜNTÄ YÜMDÄ Without hate, i'm an another man Ä Ü RÜNDÄ SÄË MÄR SÜTCHÄË United to you i sculpt my spirit, enought pain FÜR RÜNDÄ Ü TÜVÏ For raise me and advance awake Ä YÜMÄ SÜTCHÄË The original consciousness that forgive YÜMÄ RÜNDÄ ÜNDÄTÏ The original consciousness that rises to infinity ÄÜÄ ÜVÏ Ä ÜRÏ ÜNDÄ Fusion with nature, grow in this unlivable world KÄ LÄLÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÄ LÄ LÏÜNDÄ LÄ LÄ LÏÜNDÄ Now, this mental illusion, now, this mental illusion KÄ LÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÏ LÏ Ä LÄ LÏ Ä LÄ LÄ LÏ Ä LÄ Narcissistic civilization of material, lies and ego ÜNDÜ ÏLÏS ÜNDÜLÏ ÏLÏS ÜNDÜLÏ ÜNDÜLÏS Essential creativity, understanding by creating, understanding by imagining ÜNTÄ ÏLÏ CÜN TÄ ÏLÏ SÜN FÜR ÏLÜNDÏLÏ SÄË FÜRÏ ÜNDÏ I fall in my sibyllin fears, find my Sun, for issuing my spirit of this deep anger CÖ ÏLÏ RÜNTÄË ÏLÏ SÜN FÜR ÏLÜNDÏLÏ Condemned in this artificial prison, issue this Sun SÄË MÏ ËÜRT SÄÏR Spirit, my heart bleeds RËVËÜRT Revolt of the heart BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long ÜRÏ CÖSÄ ÜRÏ Ä CÖSTÄË ÜNDÄ The cosmos is opposed to this corrupt and inhuman world TÄË FÜRÏ CÖSTÄË ÜNDÏ ÄË YÜMDÄ YÜMDÄ The anger damages the stars, and the beings suffer ÄYÄ ÜNDÄ ÄYÄ ÜNDÄ ÜRÏ ÜNDÄ ÄYÄ ÜNDÄ Sob unlivable, sob unlivable, trampled cosmos, sanglot invivable ÜNTÖ LÏDÏ YÜM SÄË YÜM DÄË The spirit of man that he was part of a whole, humanity dies YÜM LËFÜ YÜM LÄ YÜM DÄË Mankind be are misplace, mankind of now, mankind dies ÜTÄ LËÏ ÜR TÄË FÜR LÄNDÄ FÜR LÄNDÄË SÜ YÜMÄ The Earth is a living being sensitive to energy, it's a paradise, a paradise lost, fight of beautiful mankind ÜNDÄ LËÄ FÜR SÄ ÜRÏ ÜNDÄ Ü FÜR Ü ÜLI LÄNDÄ SÜDJÏ I tear this mask for issuing the cosmos of hell, and it's you, under the abomination there is an beautiful world of peace Ü FÜ ÜLÏ SÄN LÄNDÄ LÄNDÄTÏ Under the alienation planted in our flesh, there is a imperishable beautiful world Ö LÄË ËLËÏ ÜNDÏ LÜNDÄTÏ Soul, the living suffers because there is monstrous negatives energies CÖ ÜLÏ CÖ Ï ÜNDÏ CÖ ÏLÏ SÖ ÏLÏ SÜDJÏ Enchaine to the depths, enchaine to our suffering, enchaine in this prison, beyond of she there is the peace ÜNDÄ LËÄ SÜ FÜ ÜRÏ Ö YÜM I tear the mask, unnecessary armed conflict in the world, man ÏNTÖ LÏÜM SÄË SÄË Ï ÜNDÄTÏ VÏ TÄË RÏ TÄË SÄË In the light of intuition, each spirit is eternal, Earth of duality, the spirit of the Earth eviscerate SÄN SÄË ÜN RÜN SÄË Ï SÄ ÜDÏ YÜM SÄË ÜNDÄTÏ The flesh crushes the spirit, i break the chains of the spirit, the spirit of mankind is eternal ÜTÄ Ï ÜNDÖRÏ We are amorphous creatures MÄ ÏÜN SÄTÄ ÏÜN LÄNDÄ SÜDJÜTÏ The evil inside, the devil inside, it's an infernal paradise YÜM ÜR TÄË ÜNTÖ ÜRË ÜNDÖ MÏ LÄË ÜNDÄTÏ Man of the earth, everything is reborn obviously, our spirits are eternals LÄNDÄ Paradise MÏ ËÜRT My heart MÏ SÄË My spirit MÏ TÄË My Earth CRÏ ÜNDÄTÏ Constantly crying FÜR YÜM For mankind FÜR ÄMÄ For love FÜR LÏNÏ For the tree of life VÖÏCÏS MÏ LÄË This is my life soul</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ŞAMPİYON</t>
+          <t>Elhamdulillah</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ey Cehennem bura, çkarz tura Neresi fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra RaRa told me, Bring the drama, pull up with that guru-gurra This that Who Shot Ya? 2Pac Ya, crush ya lil' cookaracha, who got you gassed up? Boy, do stop or end on crew necks, boy, you next The bitch fly, then I'm probably paintin' her face like grischa I was running these plays and hittin' my lick up Pushin' start on the auto, you startin' you gettin' lift up Nettin' numbers like Harden, that rocket come out that bitch, bruh Yeah, run up if you wanna then you all fin' die Really with the scheiße put ya life on line We are not playin' no baseball, you do not wanna pop fly I'm really doin' it 'bout to ruin ya whole top-five Poppin' I probably be knockin', I don't do no drive-bys Always doin' it bigger than them, and it's no bite-size Mines come through, and we do not comply Mob with the killers, nigga, mines got ties Xternational, Trip stanbul Huh Syrldk, var ettik yoktan Ya Hatrlatr sana kim olduumu Huh, huh Allah var, yok gam Ya Son gaz Huh, avlan Huh Uzanr açklarna oltam Huh Voltran California, Berlin Bütün maçlar derbi, lig ampiyonda XX bu çift yldz hit business, bir sfr Öndeyiz rfnt, Lucifer ok Ya Suikastim lirikal, müzikal bi' tlsm Yklsn kaleler, bomba hip-hop Bana para konuma seni kaar Bu durumann size göre davas baka X hâlâ savata, yardrrz canla bala Sakn dalama Cehennem bura, çkarz tura Neresi? Fark etmez, at yaz tura X affetmez, bilirsin kasatura Biat etmez, asla bitch, hiç para pula Piyasa çok ucuz, sanki Kara Cuma Yalan yapm huy aznda yuva X çk hücuma, kopsun curcuna Hazrm buna, karde-lerim hurra Hurra, hurra, hurra, hurra, hurra Hurra, hurra, hurra, hurra, hurra Kille paar Bars und ich bleibe aktiv Hurra, hurra Straßenbandit Hurra, hurra, immer noch mies Kiss im-kun kullkum, Berliner Der Krieger, ich zahle mit Visa La viva la vida, von wegen nur Spieler Kein Dreamer, Habiba, ein Realer, kein FIFA Ja, mieser, du Typ, und ich ficke dein'n Fame Fame Der King Kong ist back und ich baller' paar Parts Die GLOCK in der Hand, Müslüm Baba -ba Ist doch egal Alles ist da Alles ist nah Langsam wissen sie Bescheid, was passiert ZZ, er kommt über Nacht, Schüsse aus Schiebedach Wie gesagt, ist egal, was sie sagt Bleibe Star, zero-one Adana Adana I know you need people like me Sie tappen voll in die Falle, werden high von dem Haze Undercover, Doppel-Zer, meine Zeil'n sind safe Alles legal I come to your party when you pay</t>
+          <t>Atalarm Tuareg, baladm do-rag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh Cahile söylemem bi' ey No Hepsiyle sohbeti kesmemi istedi Veysel, Çal, dedim, DJ Çal Bu ak satmyo' eBay Oh, my nigga Mahallede yeni adm CJ Ey Gitgide benziyo'z iyice Flex Planl vukuat zekice Tertemiz kudurduk ite Hrr Bix gecede bi' gölge, African ninja Kabile çocuuyum, Libya Sah Kariyerimi ediyo'm inaa nallah Sam solum Alicia, Keisha Luis V' Semtimi sanrsn Crenshaw Suu, whoop Görevimi etmiim ifa Ha Bizde kelimenin arkas icraat Ha Daha nas' edebilirim izah? Bütün semt bizim, deil ev kira Çaltm yllarca, dönütüm silaha Gidiyo'm ortamdan, oluyo' killa Dönersem annda oluruz viral Yepyeni botlarm iki bin dinar Basarm lavuun üstüne bi' daha Bismillah, bizi edemezler istila Bad decision Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh deolojim çok sakat Yeah Just like Moustapha Akkad That's me Çkyoruz binay kat kat Kat kat Klca'm tepede iki rakad Bi' gün Michael Myers gibi kasap Kasap Bugün Hamza vibe'm da tamam Elhamdülillah Opp'lara veremem aman Nah Tükeniyo', kalmad zaman Sürtük, bitmiyo' draman Aalk hayatn ucuz bi' roman Syrdm klcm knndan Conan Naslsa kalmad arayan, soran Ah Sevdiklerim cennette ulan O.G. Arama dünyada, görmedim bulan O.G. Gün gelir, yavatan yükselir sular Yanl rota nigga, yank pusula Çetem Plus my baby, looks like Aaliyah Taktm peime bi' tarikat Her ey sürdü birkaç dakika Baktm, yol da zaten patika Herkes ahit, hepsi hakikat On God Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HER YER FAVELA</t>
+          <t>Vidos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mhm-haha, TRVMEN Etki on the track Biraz yattm Yeah, zorundaydm harbiden Braktm ceketimi, tatil uzun süre yattm Yeah Yatmasam kurul'caktm Haha Aniden vurul'caktn Yeah Tabutuma bir çivi çaktm ans sigaram bile tersten yaktm Sadece bad trip yaatyo' aklm Baow-baow-baow Be sene her gün soldan kalktm, tersim Konuma, dayak yersin Yemekler frnda, Allah versin Bu prlantalar ner'den? Sorma, param bitsin istersin Olmaz Mafyalara gidersin Olmaz Yeni grup istersin Olmaz Groupie'ler istersin, yetmez Baban da diss'lersin belki Arabam hzl tank Yatarm, yeter lan tek bi' bank Sizin arklar Çilli bom Ama biziz, bak, hababam Sizde yat kalk ye, babam Dostlarm gelir Dou'dan, Bat'dan Birinizi görsek atlarz çatdan Bakyoruz her eye farkl bi' açdan Ya, ya Hem sahne hem sokak sold out, kalabalk çete gibi Az konuur, soru sormam, KKM gang, fam' GNG Size müzik, para, öhret, bizde biraz tehlikeli Bütün yollar bana çkar, tüm stanbul bilir beni Kaplar bamz dimdik geçtik Bilmeyen bilsin, hepsini seçtik Ya Bataklkta cahildik, gençtik Kim eytan, kim dosttur bildik Bi' cezam varsa çekice'm Sonu var, gam yok, bunu bildik Pasaport, kimlik Bi' neden bulduk, defterleri çizdik Ah-ah Ate etmek ve saklanmak yok Gö-gördün ihanet silahlardan Çktn o alçak sokaklardan Dütün bu yüksek binalardan Ah-ah, bak sen u finale Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah Laklak, vak vak Konusa âlem, dinlese milyonlar Bana çat-çat, taak Olmam sen gibi serilse trilyonlar spatlar sana one day, benim Herkese selam dönülmez bir yoldan Krk bir zarf, küçücük bir not Celo one shot, one bang, mm-mm Her eyi bo ver, paray çok sev Akln kurcalasn kombinin Bu silah esmer, cildim tersi Amacm varmak, var son güne Tavuu besler cani eller Kaçman için artlar çok bile Helikopter al, sana bu tavr çok Maan sabitleyin on bine Ne biliyo' hakkmda bu tipler? Yanp sönen pahal suit'ler Ate eden korkak tweet'ler Arabadan pahal tripler Mm, mm-mm Yere düüren boa beni, yetien dua Bum-bum, bum-bum, bum-bum Yüksek puan, bu fam big plan Bu squa' Squa' Anadolu'dan, Dou Anadolu'dan Müzik babadan miras, asalet gelir soyumdan Tatil için deil Bodrum, telefon gelir bana Van'dan Anam okur Kur'an, korur kazadan, beladan Boyna köçek gibi, para için onlar kdm, kdm kdm Zenne gibi krtrlar onlar kdm, kdm Loca sokak deil, bur'da öyle taklamazsnz Olaynz fiskos, kdm, kdm Tü-tü maallah Siz gibi deilim, yürüyorum dimdik bu sokaklarda Her gün yeni dert, tasalar birikir, çok çektik valla Yasa milyonlar, dese kurunlar Deiir yamz, çatlr kamz, tavrmz asla Elhamdülillah Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, her yer favela Oh-oh-oh-oh, her yer favela Ah-ah-ah-ah, elhamdülillah1</t>
+          <t>Alo brat' dospi mi jo jednu rakiju Slabije da radi me na mafiju Sabijemo topa ili paliju Vie lii na oklagiju Huu Prirodu izdahnem Pukne me fle iz detinjstva Lupanje o erpe i pitaljke Rat, sankcije, kriza Al' ovaj bit je veseo-od toga nita Danas je dan kada ide mi sve Boje Majamija uz zvuk ovog bita Bita Ko da je GrandMaster Flash Imam svoj trip i to je dobro Ne idemo kontra, plovimo sa flow-om Imamo ene najlepe, bogu hvala Vidi da kuliramo sada, nemoj da me smara Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Ugh Ponekad kao da je dungla Nekad kao da je svuda urka Malo smo umorni za hajp Al' danas je neki drugi dan Sve mi je lepo, ak mirie grad, zato Samo u ti rei-don't kill my vibe-bitch! Vidi da uivam u radu Gledam okolo, vidi da uivam u gradu Ugh Vidi da uivam u danu Sutra e problemi da me zgranu Zato nemoj da ponavljam dvaput Nego se opusti i odmori glavu Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Jer dobar je bio dananji dan Jeaa Opet sam preiveo, naravno, jer sam furao gun Aha Jer ovo ispaljivam, kao loptu Thomson Clay And all I'm gonna say is Damn right, it was a good day Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CINDY (Demo)</t>
+          <t>Sizin Gibi Olmak</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Projects2007 Tyler, The Creator - Eargasm Unknown Date Tyler, The Creator - Stereotype Unknown Date2008 Tyler, The Creator - At Your Own Risk Unknown Date I Smell Panties - I Smell Panties June 28th Odd Future - The Odd Future Tape November 16th2009 Tyler, The Creator - Bastard December 25th2010 Odd Future - Radical May 7th2011 Tyler, The Creator - Goblin May 10th Odd Future - 12 Odd Future Songs October 3rd2012 Odd Future - The OF Tape Vol. 2 March 20th2013 Tyler, The Creator - Wolf April 1st2015 Tyler, The Creator - Cherry Bomb April 13th2017 Tyler, The Creator - Flower Boy July 21st2018 Tyler, The Creator - Cherry Bomb Instrumentals October 13th Tyler, The Creator - Music Inspired by Illumination Dr. Seuss' The Grinch November 16th2019 Tyler, The Creator - IGOR May 17th2021 Tyler, The Creator - CALL ME IF YOU GET LOST June 25th2023 Tyler, The Creator - CALL ME IF YOU GET LOST The Estate Sale March 31st Tyler, The Creator - Wolf Instrumentals April 7thTracks2008 Casey Veggies - I Don't Know Skit ft. Tyler, The Creator Anwar Carrots March 29th Casey Veggies - Why Don't We Fall In Love? ft. Tyler, The Creator March 29th I Smell Panties - Bapes Freestyle ft. Tyler, The Creator Jasper Dolphin June 28th I Smell Panties - Bapes ft. Tyler, The Creator Jasper Dolphin June 28th I Smell Panties - Bring The Hi Hat In ft. Tyler, The Creator Jasper Dolphin June 28th I Smell Panties - Hi To Me ft. Tyler, The Creator Jasper Dolphin June 28th I Smell Panties - Lilo Fucks Stitch ft. Tyler, The Creator Jasper Dolphin June 28th I Smell Panties - Lisa ft. Tyler, The Creator Jasper DolphinLeft Brain, Hodgy Casey Veggies June 28th Odd Future - The Tape Intro ft. Tyler, The Creator November 15th Odd Future - Odd Toddlers ft. Tyler, The Creator Casey Veggies November 15th Odd Future - Back for Another One ft. Casey Veggies Tyler, The Creator November 15th Odd Future - Bubble Gum ft. Hodgy, Casey Veggies Tyler, The Creator November 15th Odd Future - Fucking Lame ft. Tyler, The Creator November 15th Odd Future - Pimp Slap ft. MellowHype Tyler, The Creator November 15th Odd Future - Bitches Brewin' ft. Tyler, The Creator November 15th Odd Future - Slow It Down ft. Tyler, The Creator Hodgy November 15th Odd Future - Remember Me ft. Casey Veggies, Tyler, The Creator Hodgy November 15th Odd Future - Fin ft. Tyler, The Creator November 15th Odd Future - Commercial ft. Tyler, The Creator Casey Veggies November 15th Odd Future - Dracula ft. Tyler, The Creator November 15th Tyler, The Creator - Fuck Santa December 17th November 15th2009 brandUn DeShay - What's So Fucking Funny ft. Tyler, The Creator February 23rd Tyler, The Creator - Bastard December 25th Tyler, The Creator - Seven December 25th Tyler, The Creator - French! ft. Hodgy December 25th Tyler, The Creator - Blow December 25th Tyler, The Creator - Pigs Fly ft. Domo Genesis December 25th Tyler, The Creator - Parade December 25th Tyler, The Creator - Slow It Down ft. Hodgy December 25th Tyler, The Creator - AssMilk ft. Earl Sweatshirt December 25th Tyler, The Creator - VCR Wheels December 25th Tyler, The Creator - Session ft. Mike G, brandUn DeShay Hodgy December 25th Tyler, The Creator - Sarah December 25th Tyler, The Creator - Jack and the Beanstalk December 25th Tyler, The Creator - Tina ft. Jasper Dolphin Travis Bennett December 25th Tyler, The Creator - Inglorious December 25th2010 MellowHype - Polyurthane ft. Tyler, The Creator February 24th MellowHype - BlaccFriday ft. Tyler, The Creator Mike G February 24th MellowHype Rasta ft. Tyler, The Creator February 24th, 2010 Earl Sweatshirt - Couch ft. Tyler, The Creator March 31st Earl Sweatshirt - Pigions ft. Tyler, The Creator March 31st Mike G - Timeless ft. Tyler, The Creator April 13th The Jet Age of Tomorrow - Good Knight ft. Tyler, The Creator April 19th Odd Future - Intro ft. Tyler, The Creator Odd Future - Splatter ft. Tyler, The Creator Odd Future - Double Cheeseburger ft. Jasper Dolphin, Tyler, The Creator Domo Genesis Odd Future - Ugly Girls ft. Tyler, The Creator Odd Future - Orange Juice ft. Tyler, The Creator Earl Sweatshirt Odd Future - Oblivion ft. Tyler, The Creator Odd Future - Leather Head ft. Tyler, The Creator Odd Future - Up ft. Tyler, The Creator, Domo Genesis Hodgy Odd Future - Swag Me Out ft. Jasper Dolphin, Left Brain, Hodgy, Earl Sweatshirt, Mike G, Travis Bennett, Syd Tyler, The Creator Domo Genesis - Rolling Papers ft. Tyler, The Creator August 30th Domo Genesis - Super Market ft. Tyler, The Creator August 30th brandUn DeShay - Rest Stop Flow ft. Casey Veggies Tyler, The Creator September 5th Tyler, The Creator - Sandwitches ft. Hodgy October 8th MellowHype - Chordaroy ft. Tyler, The Creator Earl Sweatshirt October 31st N.E.R.D. - Inside of Clouds Remix November 3rd Odd Future - Fuck This Christmas ft. Tyler, The Creator, Earl Sweatshirt Hodgy December 21st The Jet Age of Tomorrow - Welcome Home Son ft. Tyler, The Creator Casey Veggies December 25th2011 Lykke Li - I Follow Rivers Tyler, The Creator Remix ft. Tyler, The Creator January 21st Tyler, The Creator - Yonkers February 10th Tyler, The Creator - Goblin May 10th Tyler, The Creator - Radicals May 10th Tyler, The Creator - She ft. Frank Ocean May 10th Tyler, The Creator - Transylvania May 10th Tyler, The Creator - Nightmare May 10th Tyler, The Creator - Tron Cat May 10th Tyler, The Creator - Her May 10th Tyler, The Creator - Fish Boppin' Bitch May 10th Tyler, The Creator - Analog ft. Hodgy May 10th Tyler, The Creator - Bitch Suck Dick B.S.D. ft. Jasper Dolphin Travis Bennett May 10th Tyler, The Creator - Window ft. Mike G, Hodgy, Frank Ocean Domo Genesis May 10th Tyler, The Creator - AU79 May 10th Tyler, The Creator - Golden May 10th Tyler, The Creator - Burger ft. Hodgy May 10th Tyler, The Creator - Untitled 63 May 10th Tyler, The Creator - Steak Sauce May 10th Hodgy - Game ft. Tyler, The Creator July 12th The Game Martians vs. Goblins ft. Lil Wayne Tyler, The Creator August 19th Tyler, The Creator - Odd and Twisted ft. Domo Genesis Peter Rosenberg September 7th Casey Veggies - DTA ft. Tyler, The Creator September 20th Domo Genesis - Whole City Behind Us ft. Tyler, The Creator September 20th Young Nigga - Come Threw Looking Clean September 23rd Pusha T - Trouble on My Mind ft. Tyler, The Creator November 8th Pusha T Oooh ft. Ab-Liva, Hodgy Tyler, The Creator November 30th2012 Odd Future - Rella ft. Hodgy, Domo Genesis Tyler, The Creator February 20th Odd Future - NY Ned Flander ft. Hodgy Tyler, The Creator March 5th Odd Future - Analog 2 ft. Syd, Frank Ocean Tyler, The Creator March 20th Odd Future - P ft. Tyler, The Creator Hodgy March 20th Odd Future - Hcapd ft. Tyler, The Creator, Domo Genesis Hodgy March 20th Odd Future - Sam Is Dead ft. Tyler, The Creator Domo Genesis March 20th Odd Future - We Got Bitches ft. Tyler, The Creator, Travis Bennett Jasper Dolphin March 20th Odd Future - Oldie ft. Tyler, The Creator, Hodgy, Left Brain, Mike G, Domo Genesis, Frank Ocean, Jasper Dolphin Earl Sweatshirt March 20th Casey Veggies - PNCINTLOFWGKTA ft. Tyler, The Creator, Earl Sweatshirt, Hodgy Domo Genesis April 9th Frank Ocean - EndGolden Girl ft. Tyler, The Creator July 10th Domo Genesis The Alchemist - No Idols ft. Tyler, The Creator July 31st Waka Flocka Flame - I'm a Hater ft. Derez DeShon Tyler, The Creator September 13th Trash Talk - Blossom Burn ft. Tyler, The Creator Hodgy October 9th2013 Tyler, The Creator - Domo23 February 14th Earl Sweatshirt - Whoa ft. Tyler, The Creator March 12th Young Nigga - She Won't a Young Nigga ft. L-Boy March 25th Tyler, The Creator - WOLF April 1st Tyler, The Creator - Jamba ft. Hodgy April 1st Tyler, The Creator - Cowboy April 1st Tyler, The Creator - Awkward April 1st Tyler, The Creator - Answer April 1st Tyler, The Creator - Slater ft. Frank Ocean April 1st Tyler, The Creator - 48 April 1st Tyler, The Creator - Colossus April 1st Tyler, The Creator - PartyIsntOverCampfireBimmer ft. Frank Ocean Lætitia Sadier April 1st Tyler, The Creator - IFHY April 1st Tyler, The Creator - Pigs April 1st Tyler, The Creator - Parking Lot ft. Casey Veggies Mike G April 1st Tyler, The Creator - Rusty ft. Earl Sweatshirt Domo Genesis April 1st Tyler, The Creator - Trashwang ft. Lee Spielman, Left Brain, Travis Bennett, L-Boy, Nakel Smith, Lucas Vercetti Jasper Dolphin April 1st Tyler, The Creator - Treehome95 ft. Erykah Badu Coco O. April 1st Tyler, The Creator - Tamale April 1st Tyler, The Creator - Lone April 1st Mac Miller - O.K. ft. Tyler, The Creator June 18th Earl Sweatshirt - Sasquatch ft. Tyler, The Creator August 20th Tyler, The Creator - Garbage September 17th Odd Future - Look ft. Tyler, The Creator, Hodgy, Domo Genesis Earl Sweatshirt October 7th2014 ScHoolboy Q - The Purge ft. Tyler, The Creator Kurupt February 25th Tyler, The Creator - Daisy Bell Bicycle Built For Two May 3rd Young Nigga - I Just Bought a Bugatti I'm Happy ft. IceJJFish Jasper Dolphin June 6th Tyler, The Creator - Diaper November 18th2015 Tyler, The Creator - DEATHCAMP ft. Cole Alexander April 13th Tyler, The Creator - BUFFALO ft. Shane Powers April 13th Tyler, The Creator - PILOT ft. Syd April 13th Tyler, The Creator - RUN ft. Toro y Moi ScHoolboy Q April 13th Tyler, The Creator - FIND YOUR WINGS ft. Roy Ayers, Kali Uchis Syd April 13th Tyler, The Creator - CHERRY BOMB April 13th Tyler, The Creator - BLOW MY LOAD ft. Syd, DM FunK, Austin Anderson Wanyá Morris April 13th Tyler, The Creator - 2SEATER ft. Austin Anderson, Samantha Nelson Aaron Shaw April 13th Tyler, The Creator - THE BROWN STAINS OF DARKEESE LATIFAH PART 6-12 Remix ft. ScHoolboy Q April 13th Tyler, The Creator - FUCKING YOUNG PERFECT ft. Toro y Moi, Kali Uchis, Syd Charlie Wilson April 13th Tyler, The Creator - SMUCKERS ft. Lil Wayne Kanye West April 13th Tyler, The Creator - KEEP DA O'S ft. Coco O. Pharrell Williams April 13th Tyler, The Creator - OKAGA, CA ft. Leon Ware, Clementine Creevy Alice Smith April 13th Tyler, The Creator - YELLOW April 13th The Internet - PalaceCurse ft. Tyler, The Creator Steve Lacy June 27th Casey Veggies - RIP ft. Tyler, The Creator September 25th Tyler, The Creator - FUCK IT October 12th2016 Tyler, The Creator - WHAT THE FUCK RIGHT NOW ft. AAP Rocky March 3rd Domo Genesis - Go Gas ft. Tyler, The Creator, Juicy J Wiz Khalifa March 17th AAP Mob - Telephone Calls ft. Yung Gleesh, Playboi Carti, Tyler, The Creator AAP Rocky October 27th2017 Frank Ocean - Biking ft. JAY-Z Tyler, The Creator April 8th Tyler, The Creator - Who Dat Boy ft. AAP Rocky June 29th Tyler, The Creator 911 Mr. Lonely ft. Steve Lacy Frank Ocean June 30th Tyler, The Creator - Boredom ft. Anna of the North Rex Orange County July 11th Tyler, The Creator - I Ain't Got Time! July 19th Tyler, The Creator - Foreword ft. Rex Orange County July 21st Tyler, The Creator - Where This Flower Blooms ft. Frank Ocean July 21st Tyler, The Creator - Sometimes... July 21st Tyler, The Creator - See You Again ft. Kali Uchis July 21st Tyler, The Creator - Pothole ft. Jaden July 21st Tyler, The Creator - Garden Shed ft. Estelle July 21st Tyler, The Creator - Droppin' Seeds ft. Lil Wayne July 21st Tyler, The Creator - November July 21st Tyler, The Creator - Glitter July 21st Tyler, The Creator - Enjoy Right Now, Today July 21st Tyler, The Creator - Ziploc August 23rd2018 Kali Uchis - After the Storm ft. Tyler, The Creator Bootsy Collins January 12th Tyler, The Creator - OKRA March 29th Tyler, The Creator - BRING IT BACK remix April 11th Tyler, The Creator - ROSE TINTED CHEEKS April 18th Tyler, The Creator - 435 May 22nd Tyler, The Creator - CRUST IN THEIR EYES June 15th Tyler, The Creator - GELATO June 25th Tyler, The Creator - Peach Fuzz June 26th Tyler, The Creator - BRONCO July 18th ilkMoney - Naga ft. Tyler, The Creator July 23rd Tyler, The Creator AAP Rocky - Potato Salad July 24th Tyler, The Creator - TIPTOE July 26th Tyler, The Creator - QUARTZ July 26th Tyler, The Creator - PUFF September 3rd Tyler, The Creator - BUCKET September 4th Tyler, The Creator - SPRINT September 5th Tyler, The Creator - FAWN September 6th Tyler, The Creator - You're a Mean One, Mr. Grinch October 24th Tyler, The Creator - I Am the Grinch ft. Fletcher Jones November 9th Tyler, The Creator - Whoville November 16th Tyler, The Creator - Lights On ft. Santigold Ryan Beatty November 16th Tyler, The Creator - Hot Chocolate ft. Jerry Paper November 16th Tyler, The Creator - Big Bag November 16th Tyler, The Creator - When Gloves Come Off ft. Ryan Beatty November 16th Tyler, The Creator - Cindy Lou's Wish November 16th ilkMoney - Kitt-Katt ft. Tyler, The Creator December 12th2019 Tyler, The Creator - EARFQUAKE ft. Playboi Carti Charlie Wilson May 7th Tyler, The Creator - IGOR'S THEME ft. Lil Uzi Vert Solange May 17th Tyler, The Creator - I THINK ft. Solange May 17th Tyler, The Creator - EXACTLY WHAT YOU RUN FROM YOU END UP CHASING ft. Jerrod Carmichael May 17th Tyler, The Creator - RUNNING OUT OF TIME May 17th Tyler, The Creator - NEW MAGIC WAND ft. Jerrod Carmichael, Santigold Jessy Wilson May 17th Tyler, The Creator - A BOY IS A GUN May 17th Tyler, The Creator - PUPPET ft. Kanye West Jerrod Carmichael May 17th Tyler, The Creator - WHAT'S GOOD May 17th Tyler, The Creator - GONE, GONE THANK YOU ft. CeeLo Green Jerrod Carmichael May 17th Tyler, The Creator - I DON'T LOVE YOU ANYMORE May 17th Tyler, The Creator - ARE WE STILL FRIENDS? ft. Pharrell Williams May 17th GoldLink - U Say ft. Tyler, The Creator Jay Prince June 6th Jaden - NOIZE ft. Tyler, The Creator July 5th Yuna - Castaway ft. Tyler, The Creator July 12th Tyler, The Creator - BOYFRIEND ft. Charlie Wilson, Santigold Jerrod Carmichael August 23rd IDK - I Do Me . . . You Do You ft. Tyler, The Creator September 4th Tyler, The Creator - EARFQUAKE Channel Tres Remix ft. Channel Tres Charlie Wilson October 4th Tyler, The Creator - BEST INTEREST December 23rd Tyler, The Creator - GROUP B December 23rd2020 Westside Gunn Joey Bada - 327 ft. Billie Essco Tyler, The Creator April 17th La Roux Tyler, The Creator - Automatic Driver Tyler, The Creator Remix April 17th Lil Yachty Tierra Whack - T.D ft. Tyler, The Creator AAP Rocky May 29th Freddie Gibbs The Alchemist - Something to Rap About ft. Tyler, The Creator May 29th Channel Tres - fuego ft. Tyler, The Creator December 10th2021 Brent Faiyaz DJ Dahi - GRAVITY ft. Tyler, The Creator January 28th Tyler, The Creator - Tell Me How Coca-Cola Commercial March 5th Tyler, The Creator - LUMBERJACK June 16th Tyler, The Creator - SIR BAUDELAIRE ft. DJ Drama Tyler, The Creator - CORSO Tyler, The Creator - LEMONHEAD ft. 42 Dugg Tyler, The Creator - WUSYANAME ft. YoungBoy Never Broke Again Ty Dolla ign Tyler, The Creator - HOT WIND BLOW ft. Lil Wayne Tyler, The Creator - MASSA Tyler, The Creator - RUNITUP ft. Teezo Touchdown Tyler, The Creator - MANIFESTO ft. Domo Genesis Tyler, The Creator - SWEET I THOUGHT YOU WANTED TO DANCE ft. Fana Hues Brent Faiyaz Tyler, The Creator - MOMMA TALK ft. Louisa Whitman Tyler, The Creator - RISE! ft. DAISY WORLD Tyler, The Creator - BLESSED Tyler, The Creator - JUGGERNAUT ft. Pharrell Williams Lil Uzi Vert Tyler, The Creator - WILSHIRE Tyler, The Creator - SAFARI Tyler, The Creator - FISHTAIL June 28th Snoh Aalegra - NEON PEACH ft. Tyler, The Creator July 9th Snoh Aalegra IN THE MOMENT ft. Tyler, The Creator July 9th Maxo Kream - BIG PERSONA ft. Tyler, The Creator September 7th Westside Gunn - The Fly who couldn't Fly straight ft. Tyler, The Creator September 24th Kanye West - Come to Life ft. Tyler, The Creator November 14th2022 The Weeknd - Here We Go... Again ft. Tyler, The Creator January 7th Rex Orange County - OPEN A WINDOW ft. Tyler, The Creator March 9th AAP Rocky, Tyler, The Creator Nigo - Lost and Found Freestyle 2019 March 25th Tyler, The Creator Nigo - Come On, Let's Go March 25th Pharrell Williams - Cash In Cash Out ft. Tyler, The Creator 21 Savage June 10th2023 Tyler, The Creator - DOGTOOTH March 27th Tyler, The Creator - SORRY NOT SORRY March 29th DJ Drama - Legendary ft. Tyler, The Creator March 31st Tyler, The Creator - EVERYTHING MUST GO March 31st Tyler, The Creator - STUNTMAN ft. Vince Staples March 31st Tyler, The Creator - WHAT A DAY March 31st Tyler, The Creator - WHARF TALK ft. AAP Rocky March 31st Tyler, The Creator - HEAVEN TO ME March 31st Tyler, The Creator - BOYFRIEND, GIRLFRIEND 2020 Demo ft. YG March 31st2024 Maxo Kream - Cracc Era ft. Tyler, The Creator September 25th Pharrell Williams - VIRGINIA Boy Remix ft. Tyler, The Creator October 11th</t>
+          <t>Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Sadece siktiimin bunalmndaym Bu çöküten çkyor gibi görünmüyorum Bu tepeyi aabilsem de Bu çöplükten beni çekebilecek bir eye ihtiyacm var Yaralarm aldm, darbelerimi aldm Dütüm ve hemen toparlandm Ama psikolojimi toplamak için bu kvlcma ihtiyacm vard Benim mikrofonu geri almam için Bilmiyorum nasl, neden ya da ne zaman Bulunduum yere geldiimi lgisiz hissetmeye balyorum Bu yüzden kalemi elime almaya karar verdim Ve da vurmay denedim Ama kabullenemiyorum Ya da Rap ile iimin bitmi olabilecei gerçeinin üstesinden gelemiyorum Yeni bir yola ihtiyacm var Biliyorum baz eyleri kabullenmek zor Ama sadece arkama yaslanp debelenemem Kendi kederimin içinde, ama bir gerçek biliyorum Devam ettirilmesi zor bir hareket olacam Devam ettirilmesi zor bir hareket, devam ettirilmesi zor bir hareket olacam Bugün burada, yarn gidecek Ama bin mil yürümelisin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Sanrm mizah anlaym kaybetmeye balyorum Her ey çok gergin ve kasvetli Neredeyse scakln kontrol etmek zorunda hissediyorum Odann, hemen Odaya girdiim gibi, tüm gözler bende gibi Bundan herhangi bir göz temasndan kaçnmaya çalyorum Çünkü eer yaparsam sonradan kaps açlyor Konumann tam da istediim gibi! Ekstra ilgi aramyorum, sizin gibi olmak Odann kalanyla karp Belki de en yakn tuvalete götürmesini istiyorum u siktiim erkek uaa ihtiyacm yok Beni takip etmeye ve kçm toplamaya çalp Patlattm her bir akaya gülüp Yars komik bile olmasa da Hah! Marshall çok komiksin adamm Sen bir komedyen olmalsn, kahretsin! Maalesef öyleyim Sadece bir palyaçonun gözyalarnn arkasna saklanyorum Yani neden hepiniz oturmuyorsunuz? Anlatmak üzere olduum hikayeyi dinleyin Lanet, ayakkablar deitirmek zorunda deiliz Ve bin mil yürümek zorunda deilsin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Kimse hayatn bize Bu saçma kartlar vermesini istemedi Kartlar kendimiz alp Yardm beklemeden açmak zorundayz imdi kçmn üstüne oturarak sarho olup inleye de bilirim Ya da içine koyulduum olay anlayarak Ayaa kalkp kendiminkini alabilirim Hiç kapnn yannda bekleyip çantasn toplayan Verandaya oturup asla görünmeyen babasn görünmesi için Umut edip dua eden bir çocuk olmadm Sadece bulunduum her yere uymak istedim, her gittiim okula O haval çocuk olmay hayal ettim Bu aptal davranmak anlamna gelse bile Edna Teyze bana hep derdi Bu surat yapadur, öyle kalacak Bu srada urada oturup Dilimi tutarak böyle konumay denerdim Ta ki 8 yamda donmu DUR levhasnn direine dilimi sktrana dek Sonra dersimi aldm Çünkü artk arkadalarm etkilemeye çalmyordum Ama zaten sana tüm hayat hikayemi anlattm Sadece benim açklamama dayal deil Çünkü oturduun yerden görünen Muhtemelen 110 farkl Sanrm birbirimizin ayakkablarnda en azndan bir mil yürümeliyiz Kaç numara giyiyorsun? Ben 10'larda giyiyorum Bakalm ayan sdrabilecek misin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Bebeklerime, güçlü kaln Baba yaknda evde olacak Ve dünyann geri kalan Tanr size sdnz ayakkaby verdi Onlar aln ve giyin. Kendiniz olun adamm Kim olduunuzla gururlann, klie olsa bile Kimsenin size güzel olmadnz söylemesine izin vermeyin1</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Yıldızlara Doğru</t>
+          <t>Mis Gibi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Her sabah bi' ölü Vidos Kurunlar saçlr Vidos Ölüme yaknz trafikteyiz Memurla aramz limoni cano Arayn Mami'yi yannda Mako nönü hzldr evine ko Uzi'yi bilirsin lakabm Çavo Vido La Coka stil, arazi ol Çakn beline koy Sokarm götüne çevirip onu Yine bebeler aranyor Bizimle yaran evinden olur Karakol önünde duman uurum yerinde deil Anamz okuyo' dua, korur o, mevzular sknt deil Gücünüz kime yeter ki, tokatlar bi' çocuk kendine gelir Bok atar herkese semtinin dnda bi' mevzu yapamaz ve baba denir Deli bilir kime sataacan aykr ar, hafifi bilir Eve tek dönüyo'm, gece bo üzerim Kelime yapmayn bi' yara verin Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Ghettonun içinde her biri peimde, bi' türlü veremedi ki bi' rahat Demitim ikile büyüdü korkun hep içinde, deneme beni bi' daha Kirlenmez elim bile, bur'da cann almama yetiyo' iki bira Ki sana benzemem, öyle bi' tweetle bi' anda soumaz içim inan Konuur konuur ama bi' zarar yok, her sözü içinde kalr Yüzüme konuacak bi' cesareti yok, o Vidos'u çok iyi tanr Müziinizin her notas çöp, dinleyicilerin hepsi mi sar? O elit semtin büyük abisi sadece metin belgesine döküyor kan ya, ya Sokan denklemi basit, tek bi' seçenein var Ya düündüünü kazan ya da kazandn düün Seninle uramak için hiç vaktimiz yok, o yüzden birinden birini yap Ya tükürdüünü yala ya da yaladna tükür Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos, vidos Iklar kapal bi' araç yanar yanmza Para döndürüyo' bütün olay, farkna varmadan kar kanmza Karanlk olmadan uza, biz seni bulmadan uza Cennet ve Cehennem yakn, sevgi ve adalet uzak Korkuyo' bütün gençleriniz, gelirse biliyo' sadece yara alr Karard ksk gözlerimiz, çekmecem açlsa piyasa bize kalr Yolum yönüm belli, yldzlara doru kaldrdm Katanam Üstümdeki kan lekeleri yanmad Gör kayboldu bütün dostlarm ortadan bro Polis yok ortada bro Sonunda hiç geçmediin bi' sokakta karlayoruz, yolun sonu bro Senin için ama benim için deil, kaplar kapanyo' Benim için ama senin için deil, kaplar açlyo' Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Bordo ve beyaz, Vidos Döner ve sallama, Vidos Yürürken arkana bak Karanlk her yeri tehlike, Vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos Vidos vidos, ya ya Vidos vidos</t>
+          <t>Sava korkak izleyen bi' kargasn sen Ve maddiyatç kayglara bir çözümse Rap hitaben Damaklarmda donuk odada kalmsa geceden Bil ki yanndayd muz kokulu rapper nebyA Sanki rap'te on ya alt beyinlerdesin Kiminlesin bu yolda, söyle kimle dalaa girersin? Kes sesini, kulakta Disstortion'un nedeni Ve sözlerinin bedeli, bu Kuvvetmira daimi Galibi belli bu düellonun Diss çöplüünde pislik istiyorsan Mozo kâbusun Sonun sahte plaka, konun ki uyduruksa kefet Bil ki rolün yalnzca reklam panolarnda Kafanda çok çeitli fitneler, fesatlk adamn kanna iler Zevzekler keke kekeler, bu bahçelerde taklit sözler, ineler Kuvvetmira, harp okulundan çkt en baba rap'ler Yaptn ey sanat m, azna lolipopu alarak, para kazanmak uruna? Ceyhun'un kucanda gördüm seni kendi ovunda Ya Metaforlarnn anaforunda kaçak elektrik kullandn Hzl konucam, Diss'ci olcam. derken ne di'ce'ni ardn Alkolikle Ne oldu? Özür dilemeye altn, kandn Basit sözlere kaçtn Filozofiye el attn Anlamn bilmeden metafizikten bahis açtn Onun bunun hareketlerini çalp sahnede tiyatro yaptn Hepsini geçtim, sen yanl insanlara bok attn Yazamadn rhyme'lar dinlemek arna m gitti lan? Bitch Techno trance bir müzik türü, kimdi burcu burcu Rap yapan? Pardon sen deil miydin askerdeki arkadan satan? Her verdii röportajda kralm diye götü klç kalkan Açk seçik ol biraz, çarptma kelimelerini Keke Küfür suratna pek yakmad, ah bitirdin kendini Sen Kolera, Sago, Sitem, Mozo, Raffine krd kalemini Cart Kuvvetmira karargâhnda gerçekletiririm eylemimi Yaplan eylem çok komikti, güldük geçtik hâline Ha Gel de konuk ol bahçeme, beat verece'm sahtene Ay-ben mi rapçi oldum? Bilmem Pardon abi Rap'ini öncelerden Fu-Schnickens, duydum sanki Sahi, taklit ettin, sen de buralara geldin Kzm Diss'lerin basit kaçard, her seferde söyledim Ben Gözledim yalanlar, sahtekâr yarnlara Lolipop yalamak senin iin, altk artk bunlara Biz Namelerdi inleyen kafanda Güm Ba ucunda nefretin kaçakt, duygularsa çok krkt Ya Güçlü gördün kendini Sen Lakin çok bitiktin Sen Roka vermi beat'ini, hadi ya? Çok komiksin Sen Kayglar yazld kaç kere, içimde sakl nefretim Beslemek kolayd, gözümde söndü deerin Fos Özverimle yazdm her bi' cümlemi, çok kolayd Gücümü ondan aldm Kuvvet'im Mira'yd Denge sala düme, uçurum öldürür Ve kelle koydu yoluna eytan, ban döndürür Ve saf niyetli sömürülür Ve Vesvas Hannas, mumunu söndürür Çakallarn da gözü de kördür Çok ekerli Rap'lerinde di çürür Ne olacak yarnn sminin bir hasmnn Toplamam yerde kalr krntn Seni sen yapana ödedin son kiran Ve ayn hep anlam bo cümlelerin kimin tarz? Senin mi? Halkn talebi arzu üzerine yazdn sözlerinde para m arzun? Cevap ver Bo geri vokalin dahto kara, yklr yedi katl binan Nedir bu sendeki hnç Hnç Bo sal yine tek nefesle sç Sç Ya da kr kçn, kaldran zaman am Sç Gerçekleri beynine sok da art kaln kafan Patlat Kimlerin eline dümü, can çekimekte iyi-kötü kavram Hayat Ve yaptn iin anlam kalmad, ettiim en ar küfürler yüzüne sakl Kan bozuk, seni kurbaa suratl Kuak-uak Çeliki satt Sat, Bar diyen yayvan azn yrtmal Cart Bir Çapanolu sen mi çktn memlekette At suratl Bu aalk duygusuna nasl alabildin Nasl Bu kaarlk olgusunu bünyende nasl tayabildin Ha Bence sen rap'ine, al da elektrik kablosunu bala Tak fii Ala, buras Kuvvetmira, cebinde krk ayna Dikkat ele batmasn Sen misali u anda, sen misali alamal, sen u anda Ha Kin güder, çomak biler ben bu anda Yeah Bi' yerini mi kestin acaba? Mis gibi hyar koktu da Sahnede sözleri unuttun, adasz bacaklarnla Ay Salaa yatma lan, götürecektin Tuçe'yi, olmasayd ot kokan Ah, ne fark eder ki çald zaten seni bir hanmdan Lütfen srar etme artk, öretemem sana rap'i Of Çekitirme kolumdan, aln lan sunu bamdan Yeter Nursuz anmasn veliyi çinde fitne olan garip, buras srr- imtihan, tek hükümran Bilgin'in cahil kardei, ksaca Miss Kompleks Ha Gerçekten sen eskidendin, kul gözünde oldun ex Ha Salla kafana baltay, oyna evinde Golden Axe Hh Ekle süte olur hemen kalorisiz bir Corn Flakes Sen benim mymy rap'ime kes de kafan kurban et Rap senin neyine kz, gel de karantinam tavaf et çinde yanar küfrettiin, hak aklar dikkat et Kula zulüm, Rabb'a küfür, sonun adn tövbe et Yedi sene topa tuttuun Kolera, hem de hiç tanmadan Bu ne hiddet, bu ne celal, elimi dahi skmadan? B.P.G. 2004, rahmet diler, uyan lan Kimdi 2005'te para için kemik szlatan? Koyaym senin yazacan lirie, iki adet has kafiye Yüzün kara, için fesat, prim verdim zilline Nenen örnek versin yandan ipi sarkan takkene Cehennem olsun her iki cihan, küfür ettin Rabb'ime Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Eilimi, eilimi, eilimi Yo! Yo, Sago kastr! Elinden tutmasayd elim, Bosphorus'dan atlayacaktn Köeye çekilip yaktn osuruunun aleviyle yanacaktn Gurbet elde Allah'ma küfredip, ele elini açtn Ne yazk ki bir plak dolumu için kçn sattn Hey Rap'in star kayd, bundan iyi cevap am'da kays rem'in bahçesinde güller açt, çekiç kafana çakt Hayatta bir kez dürüst olun, taktir bilmez insan domuz Nöbetteyken de dinamiti ateler Yunus Özyavuz Yarattn kâbusu, kirlettin mahrem namusu Açtrdn ya kutunu, söylettin u Yunus'u Diss piriyle ak atarsan verilir hicvin kursu Unutma Bilgin dingil Fazla kurcalarsan yklr Sago'nun tabusu Ve Allah iyiliini versin, felek cezan kesmesin Kuvvetmira Kalem Harp Okulu'ndan kovulan ilk emeklisin En çömezimle sahnelerde Keke Flex halindesin Unuttuun tüm sözlerini Tanr sana geri versin Beat banda küfredersin, sonra kankardeim dersin, ne i? En yakn zamanda bir psikoloa görünmelisin Bar deil savala sahnelerdesin, bebeksin Hayatta karma çkan en zavall döneksin Kuvvetmira üzerine yakan giymektir Yakmayan def etmek hobilerimdendir, bu ben demektir Benimle sidik yar yapan ancak kektir Bilirsiniz Sessiz atn çiftesi deve teper ki pektir! Dünya'nn en iyi prodüktörlerinden Mic Check selam eder Geçmiine küfreden tarihi acmaszdr, kolay siler kinci arkn benim için olacaksa kulaa varmadan düer Kalbim eski dosta küser, bu diss bur'da biter</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>İntikam</t>
+          <t>Düş Yakamdan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Evet Bebeim Bebeim, hepsinin sebebi bendim Kusurlarm kabul etmeliyim Geçmiimde sçtm, duygusal açdan hala yaralym Öyle Umarm unutmadan önce affedersin beni Ve biliyorum ki reddedeceksin beni fakat meleklerim cevaplayacak beni Sorduum tek ey Eer bitirdiysen, söyle bana bebeim Ah, ah Günahlarnla Miami'ye uçtun Tüm arkadalarn takip etmiyorum Kzm, tekrar oraya gitmek istemiyorum Evet, çok zor Benden istediinde bu Beni fena istiyorsun, sana gelmemi de Beni üzgün görmek istiyorsun, intikam almay da Ah, ah Oh, ooh woah, oh-oh Bebeim sana yaattm eyleri hak etmedin Senin yerinde olsaydm ben de bitirebilirdim Kaldryorsun beni Dibe çekiyorsun beni bebeim, dibe çekiyorsun Galiba benden istediinde bu Benden istediinde bu Olmaya çaltm kii bu deildi Evet, olmam istediin kii bu Yalan söyleme bana Çünkü eer söylersen, benim için hava ho çimden bir ses daha yavatan almamz söylüyor Ah, bebeim Gençtik, Sikerler, yaa gitsin dedik Bu konuda hiç konumadk dersem yalan söylemi olurum Evet, o eytanlarla dolu odada ki bir melek Bugünün erken geleceini biliyorduk Kim biliyordu, bebeim, kim biliyordu? Sen biliyordun Affedersin Kaybetmi olmalym onu Sense unutmu olmalsn Sana kalbimi verdim ve sen onu düürmeye karar verdin Kes unu, ahh kes unu Evet Bebeim, ah bebeim</t>
+          <t>Mesnetsiz mi bu yaklam? yo Bana ykc felaket yaklar Buna hazr olamam ben, yazk olamaz yine ters gider iler, bir anda karr Her eyden geçtim geçtim, sana ait olan bir kalp var elimde Bu sonum olamaz, buna hazr olamam ay tutulmaz ki günein yerine Tutulur dilim kalmaz hiç kelime Cebimde bozukluklar bana bozulur derecede kzgn kzgn Öfkeli ve de krgn lham tersleyip kalemimi krdm krdm Admma göre adam aradm Denize düene göre menzili taradm Hadi gir kabuuna, seni yllarca tadm Dü yakamdan da rahatma bakaym nan ki yo olsaydn, ben bn yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göl maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Laf gediine koyup ilerledim Bak, lam cimi yok bunun biter dedim bitti Kap dar itekledim gitti, yap ta bile gerekmedi Yarndan tezi yok ''söver.'' dedim ben Yerine seven biri gelir dedim yo Ku olup uçarken dileklerim piman olup da hiç üzülmedim Konuur dilim susmamak için Snrn koru nefreti kusmamak için hey Zor olan yapp yine uratn kalbna göre bir adam olmamak için olamadn Oluruna brak olmas için Say yerinde zamann dolmas için ''Ölmek var dönmek yok mu?'' demeli ok yayndan tez çkmas için nan ki olsaydn, ben ben yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Biz</t>
+          <t>SEVGİ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Boli sve, od due junije Traimo biser od ivota ta je tunije od nae sudbine? Al' ti se boji da Izgoreemo mi pre smrti Pa zaboravlja, dok se borim ja Meseina puna mana Opet ja mislim o nama Al' ove noi pleem sama Pleem sama ja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Budim se, kraljica pustinje Sino su se sene ljubile Al' zora zarudi, zaboli I mui me od due junije Dalje se borim ja, ne postoji niko bolji ta je tunije od nae sudbine? Jer ti se boji da, izgoreemo mi pre smrti Pa zaboravlja Meseina sja Meseina zna Meseina ta i ja Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Beimo u mrak, beimo u mrak Sklopi oi, pomisli na nas Beimo u mrak, noas budi jak Sklopi oi, zamiljaj Budi blizu, budi pored mene Ajde vodi me u mrak Opet biu blizu, biu pored tebe Da ti dignem okean Sve to mogu dati, dau samo sebe Zato vodi me u mrak Sve to bi' da uzmem, to je samo tebe Budi moja obala Meseina sja Meseina zna Meseina ta i ja</t>
+          <t>Hyata glmiik, sevk, sevilk Sevinci yaadaq, qmi itirk Sevgi bdidir, bilinmir ya Yasn ömrümüz sevgi ya Ömür bir nmdir, dünya tamaa Dymsin sevgimiz, dymsin daa Göylr l açb, sevgi dilyk Gülsün üzümüz hr arzu, dilk Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Eqin nsindn dadaq doyunca Ona könül verk illr boyunca Ürklr birls, alm nurlanar Mhbbtdn gözl hyatda n var? Kimins ilk eqi dalara dyr Kimins sevgisi dillrd gzr Hr ksin sevgid bir qismti var Leyliy, Mcnuna bnzyin, dostlar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pisko*</t>
+          <t>Hala Bir Umut Var</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Traim prave rei priam u prazno sa sobom Dok gledam kako su sreni, moda oseam prezir Nita tenzija jo jedan dan dok se stresiram Al nita sa drugima jer pria u prazno se ponavlja Izgubim sve, a nisam nita ni imao Gde stojim tu je klimavo jo me vide ko klinju Ba divno to, ali nemam gde da ekam voz I da imam, ba i ne znam gde bi otio Dosta sam se naviko da ne ide sve po planu Pa stavim sebe na stranu, to je sranje stvarno Jo me grize savest stalno, to je zajebano Al moram sve sam da reim znam to Jo me jebe muzika, trudim se da sam unikat Pisao bi reperima ali uvek bude kurina Zato razoaran u mnoge, mogu rei idole, pa me povue jo dole Veruj mi, ne zna ta je industrija, naravno muzika Mada moe da se povee sa hranom, jer svi potajno znamo da je govno Al opet idemo u to i kao nema veze sa lovom Ali pazi ovo, na instagramu piso njima trideset ta mislis ko je odgovorio, samo Iskaz je I tu treba da istrajem, zar ne, ali odma vidi se Ko je to zaradio a ko je imo sree Troim sebi nerve zbog tebe, omiljeno mesto mi postaje krevet Jer se krijem od sebe Za mene tek je poetak, ostajem umoran valjda uskoro e petak Polako pada elja, polako brate ne znam Pa kako nisi trezna, a opet treba tog kea Od danas sam sjeban Od danas priam sa sobom Od danas nema nikog, ostaje mi sav prostor I na kraju ko smo?</t>
+          <t>Dardan size ne kadar sessiz, hiç konumuyor derlerken Kafanzdaki seslerden sar olduunuz oldu mu hiç? Her gün kabustan uyanr gibi uyanp Bunun bir kabus deil Hayatnzn kendisi olduunu anladnz m hiç? Kalp ritimlerim yavalyor yavaça Artk beni kurtaracak biri yok Biliyorsun zaten deiim yok Hâlâ aynym, iyileesim yok Kafamdaki düünceleri anlatamam Anlatsam bile anlayamazlar Biliyorum aslnda her eyi ben Açtklar bu yaralar kapanmyor Gözlerimde kayboluyor hayat, bilmeseler de Kendimi attm uçurumlar bir tek ben hissettim gösümde Bçak gibiydi her ayrl, bilmediler ne kadar söyleseler d Binler de gelir, milyonlar da Ama bnim gösterdiim semptomlarda Bir deiiklik olmuyor artk yi gelmeyecek hiç bir ey bana Deitirmiyor hayaller artk, gerçek olsalar bile Bir kalbim vard ve artk yok Onu attm, geçti uzun zaman üstünden Tandm, kurtuldum dedim ama travmalar öyle demiyor bana ntihar mektubu yazdm yeniden, baka bir çarem var m ki? bilemem Kapat beni bir odaya izle Sence içimde hâlâ bir umut var m? Gözlerim kzark her gün, neden? Aslnda hiçbir madde kullanmadm Hep alamaktan bunlar, bilemezsin Yaattklarn unutamamaktan Kafamdakinden kurtulamamaktan ntihar hâlâ benim yanmda Bileimde ne var, söyle bana? Uyumak istiyorum artk geceleri alamadan Yarn umudum olacak m? bunu bile bilmiyorum ben laçlar fayda etmiyor bana Aslnda hiç bir ey iyi gelmiyor anlasana Ölüyorum her gün biraz daha Hissediyorum her saniye daha fazla nsanlar beni anlayamazlar Çünkü ben onlara hiç bir zaman kendimi anlatmayacam Kalbim krk gözümde yalar gidiyorum yavaça buralardan Öldüümde sadece bir kelime çkacak o kanl dudaklarmdan Kaybettim tüm gerçei zihnimle olan bu savamda Tanrm duy sesimi bu sefer bitirebilirim her eyi Tanrm duy sesimi delirmek üzereyim yemin ederim ki Duy sesimi, duy sesimi, duy sesimi Peki siz hayattaki tek umudunuzu Sizi kurtaracak olana Srtnz dönüp gitmek zorunda kaldnz m hiç? Ksaca doktor siz hiç kendi kendinizin cehennemi oldunuz mu?</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RUN RUN</t>
+          <t>Düşerim Ağır Ağır</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CÜNDÖ RÏSÄË DÏNSÄË Hidden, empty, i collect myself ÜNDÄ ÜRÏ CÖÏ ÜNDÄRÏ Perverse world, forced to disconnect me to him MÏ ËÜRT ÜRTÄ My heart brutalized ÜNTÄ CÖ ÜNDÏ Chasm linked of my past MÏMÄË ÜNDÄTÏ My eternal companions FÜR ÜNDÄTÄ So as to treat ÜNTÄ ÏRÏN SÜN FÜR SÜN TÜ Ï SÜN TÜRÜN DÄRÜN DÄRÏ I looking for the Sun in my hell, this sick inner Sun, calm, connection to my torrent of rose Ä ÜRÏ YÜMTÄ YÜMTÄ ÜNDÏ I am united with the universe, an innocent and sensitive human FÜRÏ ÜNTÄ YÜMDÄ Without hate, i'm an another man Ä Ü RÜNDÄ SÄË MÄR SÜTCHÄË United to you i sculpt my spirit, enought pain FÜR RÜNDÄ Ü TÜVÏ For raise me and advance awake Ä YÜMÄ SÜTCHÄË The original consciousness that forgive YÜMÄ RÜNDÄ ÜNDÄTÏ The original consciousness that rises to infinity ÄÜÄ ÜVÏ Ä ÜRÏ ÜNDÄ Fusion with nature, grow in this unlivable world KÄ LÄLÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÄ LÄ LÏÜNDÄ LÄ LÄ LÏÜNDÄ Now, this mental illusion, now, this mental illusion KÄ LÄLÄLÄ LÏÜNDÄ Refuse, now, this mental illusion LÏ LÏ Ä LÄ LÏ Ä LÄ LÄ LÏ Ä LÄ Narcissistic civilization of material, lies and ego ÜNDÜ ÏLÏS ÜNDÜLÏ ÏLÏS ÜNDÜLÏ ÜNDÜLÏS Essential creativity, understanding by creating, understanding by imagining ÜNTÄ ÏLÏ CÜN TÄ ÏLÏ SÜN FÜR ÏLÜNDÏLÏ SÄË FÜRÏ ÜNDÏ I fall in my sibyllin fears, find my Sun, for issuing my spirit of this deep anger CÖ ÏLÏ RÜNTÄË ÏLÏ SÜN FÜR ÏLÜNDÏLÏ Condemned in this artificial prison, issue this Sun SÄË MÏ ËÜRT SÄÏR Spirit, my heart bleeds RËVËÜRT Revolt of the heart BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long BÄBÏLÜN DÄË YÜÜNDÄTÏ Babylon kills mankind since long ÜRÏ CÖSÄ ÜRÏ Ä CÖSTÄË ÜNDÄ The cosmos is opposed to this corrupt and inhuman world TÄË FÜRÏ CÖSTÄË ÜNDÏ ÄË YÜMDÄ YÜMDÄ The anger damages the stars, and the beings suffer ÄYÄ ÜNDÄ ÄYÄ ÜNDÄ ÜRÏ ÜNDÄ ÄYÄ ÜNDÄ Sob unlivable, sob unlivable, trampled cosmos, sanglot invivable ÜNTÖ LÏDÏ YÜM SÄË YÜM DÄË The spirit of man that he was part of a whole, humanity dies YÜM LËFÜ YÜM LÄ YÜM DÄË Mankind be are misplace, mankind of now, mankind dies ÜTÄ LËÏ ÜR TÄË FÜR LÄNDÄ FÜR LÄNDÄË SÜ YÜMÄ The Earth is a living being sensitive to energy, it's a paradise, a paradise lost, fight of beautiful mankind ÜNDÄ LËÄ FÜR SÄ ÜRÏ ÜNDÄ Ü FÜR Ü ÜLI LÄNDÄ SÜDJÏ I tear this mask for issuing the cosmos of hell, and it's you, under the abomination there is an beautiful world of peace Ü FÜ ÜLÏ SÄN LÄNDÄ LÄNDÄTÏ Under the alienation planted in our flesh, there is a imperishable beautiful world Ö LÄË ËLËÏ ÜNDÏ LÜNDÄTÏ Soul, the living suffers because there is monstrous negatives energies CÖ ÜLÏ CÖ Ï ÜNDÏ CÖ ÏLÏ SÖ ÏLÏ SÜDJÏ Enchaine to the depths, enchaine to our suffering, enchaine in this prison, beyond of she there is the peace ÜNDÄ LËÄ SÜ FÜ ÜRÏ Ö YÜM I tear the mask, unnecessary armed conflict in the world, man ÏNTÖ LÏÜM SÄË SÄË Ï ÜNDÄTÏ VÏ TÄË RÏ TÄË SÄË In the light of intuition, each spirit is eternal, Earth of duality, the spirit of the Earth eviscerate SÄN SÄË ÜN RÜN SÄË Ï SÄ ÜDÏ YÜM SÄË ÜNDÄTÏ The flesh crushes the spirit, i break the chains of the spirit, the spirit of mankind is eternal ÜTÄ Ï ÜNDÖRÏ We are amorphous creatures MÄ ÏÜN SÄTÄ ÏÜN LÄNDÄ SÜDJÜTÏ The evil inside, the devil inside, it's an infernal paradise YÜM ÜR TÄË ÜNTÖ ÜRË ÜNDÖ MÏ LÄË ÜNDÄTÏ Man of the earth, everything is reborn obviously, our spirits are eternals LÄNDÄ Paradise MÏ ËÜRT My heart MÏ SÄË My spirit MÏ TÄË My Earth CRÏ ÜNDÄTÏ Constantly crying FÜR YÜM For mankind FÜR ÄMÄ For love FÜR LÏNÏ For the tree of life VÖÏCÏS MÏ LÄË This is my life soul</t>
+          <t>Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç, hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak düüp durur masama Kaderin elindeki zar Gökler hapis, kimisi mezara firar Etti senide sonunda canavar Sistem bitik, senin tasman ufak paradan Kirli sesim çarpsa duvarlara ya Kaplarn ardnda saklanamam Krar basamaklar ayaklarm risk al, dur Kafam kalabalk stanbul gibi Gezip gördüm hiç vaktim yok, hiç Dönüp durur bam hiç halim yok, hiç Sabahlarm yarm ah Krlyor zaman Giderim bu defa, sokaklar yakarak Ya varm ya yokum, kalamam hiç arada Ölüm bi' tandm gelir gider yanma Her gün her gün daha da Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Tüm üstüm bam çamur, yürüdüm her gün yolu lek bi' cadde gibi görmüken onca yüzü Bardaklar hala dolu içimse alev dolu Olsam da buz bi' cehennem çok uzak çk yolu Bi' sonu yok Yürüdük epey uzun yol Günler haftalar ölüm gibi kovalyor 5 kii arabam yine deliyle doluyor Telefon çalyor ama boa çalyor Ürkek admlarla kaç uçurumdan uzakla Yüksek binalar alçak insanlara kar ancak Hesap kitap yapar zamandan onca çalan saf Ve dat kafan dat yarn yokmucasna Kanmdaki zehir yenilenir ah Yenemedi ehir yenilmedim daha Eritir asit kurallarn Devirmek basit duvarlar ya Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>Trap House</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Discographie - Maes Album Studio - 20181130 Maes - Pure - 20200117 Maes - Les Derniers Salopards - 20211126 Maes - Réelle vie 3.0 Mixtape - 20170110 Maes - Réelle vie - 20180302 Maes - Réelle vie 2.0 Single - 20120108 Maestro - Solo masacreur - 20140708 Maestro - Ceux qui mènent la danse - 20141122 Maes - Zemel - 20150107 Maes - Off - 20150916 Maes - Sacré colis - 20151012 Maes - Si tu savais - 20151109 Maes - Tu connais - 20151218 Maes - La stup - 20160205 Maes - FQSB - 20160330 Maes - LibérezMaes - 20160514 Maes - 42 by Night - 20171018 Maes - Libérabl - 20171117 Maes - Dans le tiek's - 20171208 Mas - T-max 530 - 20171225 Maes - RS6 - 20180130 Maes - Booska Professeur - 20180223 Maes - Réelle vie 2.0 Freestyle Rapelite - 20180301 Maes - Sur moi - 20180319 Maes - Freestyle FMRS - 20180321 Maes - Freestyle OKLM - 20180405 Maes - Sale histoire - 20180406 Maes - Tokarêve - 20180502 Maes - Switch Up - 20180727 Maes - Billets verts - 20180927 Maes - Pack M - 20181012 Maes - Avenue Montaigne - 20181026 Maes - Madrina - 20181116 Maes - Booska Pure - 20181210 Maes - Pure Freestyle Rapelite - 20190123 Maes - Mama - 20190207 Maes - Gorille - 20190318 Maes - Platine - 20190426 Maes - NWR - 20191031 Maes - Street - 20191010 Maes - Freestyle Sale Époque - 20191213 Maes - Liquide rouge - 20191220 Maes - Distant - 20200103 Maes - Booska C - 20200305 Maes - Blanche - 20200423 Maes - Dragovic - 20200623 Maes - Dybala - 20200717 Maes - Prioritaire - 20210405 Maes - Elle - 20211124 Maes - T-max 560 - 20211126 Maes - 10 Janvier - 20211222 Maes - Kalenji - 20220121 Maes - Faux amis - 20221109 Maes - Fetty Wap - 20230106 Maes - Galactic Featuring - 20150320 Dixane - Machiavélique - 20180418 DA Uzi - Nounou - 20190301 Dabs - Tes rêves - 20190308 Benab - Rude - 20190419 Koba LaD - Matin - 20190628 Dosseh - L'odeur du charbon - 20190913 PLK - Cartelo - 20191011 Niro - Stupéfiant - 20191011 Vald - ASB - 20191108 Goulag - Mentalité 93 - 20200221 Dosseh - L'odeur du charbon Remix - 20200221 DA Uzi - Le dire - 20200228 Naps - Pourcent - 20200228 Timal - Ailleurs - 20200306 Kaza - Béni - 20200529 Bolémvn - 10K - 20200612 Benab - Sourire - 20200626 RK - Euros - 20201016 Lacrim - Boston George - 20201016 Timal - Ailleurs Oliver Ryon Remix - 20201022 Koba LaD - Coffre plein - 20201127 13 Block - Riina Toto - 20210219 Benab - Andale - 20210305 Booba - VVV - 20210430 Kaza - N26 - 20210514 Bramsito - MPLT - 20210702 RK - Petit cur - 20210709 Bolémvn - Dis pas mon nom - 20210805 Hornet La Frappe - Maison d'arrêt - 20210917 Leto - Derrière nos tours - 20211029 Larry - Colis - 20211029 Benab - Faya - 20211105 Niska - Blue Magic - 20211110 Ziak - Rhum machette - 20211112 Pico - Symphonie - 20211210 SDM - Passat - 20220610 Soso Maness - Parapluie - 20220705 Booba - Pablo Remix - 20220918 Sotof - R1T - 20220923 Werenoi - Selfie - 20230120 Fresh LaDouille - Bénéfice Discographie complémentaire - Discographie - MSR</t>
+          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Lispo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Não há nada que eu sinta desses rappers mofinos Só escrevem é rimas 'pa pussy Só causam sarilhos Não investem nos filhos mas mandam calinas da gucci Tão perco o meu juízo Entro no circo onde atuam os filhos do Luci Sem sequer um aviso Liberto o meu skill e aperto o gatilho da Uzi De volta ao ativo de novo 'Tou a seguir o meu sonho Mas não 'tou ao Dormes Tenho apetite de lobo Aviso te, jantas comigo não comes Rappers só escalam 'po top yah Sem escrever nada que incomode yah Fuckit eu fodo os a todos sem esforço Dou lhes motivo p'ra me odiar Venho da zona do Sam Da zona do Snake Tão não dá 'pa ser average Só dá p'ra ser great Tão toma o meu rap da cá o teu respeito Não sei se 'tou cego, não vejo outro jeito Não sei se é do ego, não sei se é defeito Ver tanto boneco a querer ser aceite Com rimas sem nexo, a verter azeite Eu fico perplexo, e insa-tisfeito 'Tão não tenho outra opção Sem ser maléfico enérgico quando pego no rap 'Tou tipo em battle com o devil Sozinho em guerra na selva Faço isto, no matter the weather Boy tchecka bem o meu level Tou sem conversa 'pa gellous Sou mais um puleka de Chelas Dum tipo que apela à cautela Meu estilo é Bera confere O poder que fere o teu ser Manka que a barraca Abana enquanto Eu tiver ao ponta pé na parede 'Tão espera 'pa veres Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos Bué patetas à má fila A fazer birra 'Pa ter guita, sem rimar um peido Eu na minha a montar dicas 'pa acabar C'a competition e tirar respeito Não é a fame nem o hate Por ninguém 'Tou apenas avisar o game Nenhum rapper me intimida Se tiver de haver uma briga para ocupar um space 'Inda te aleijo Porque eu posso Rapper Quando duvidas do meu skill Boy não gosto népia Quem és tu? Puto eu rimo até c'a tosse seca Fuck you Tu não rimas nem que dropes merdas no sumo Cada um mais estúpido cu último Sem terem consciência fazem absurdos num estúdio Pseudo-vedetas com bué da bullshit music E eu quero entender é, como é que o público curte disso Boy és wack, queres o quê? Já és rico Queres chatice, Caga nisso, se tens um filho Pega o guito e põe num buiz quick Antes que eu te afunde a carreira e tu fiques liso Levanta a bunda da cadeira let me sit please Mano a cultura tá cheia de tanto pique nique Da para ver que a tua plateia 'tá deep sleep É quando abro a torneira patdar o big drip Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Elhamdulillah</t>
+          <t>FLEX SO HARD RMX</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Atalarm Tuareg, baladm do-rag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh Cahile söylemem bi' ey No Hepsiyle sohbeti kesmemi istedi Veysel, Çal, dedim, DJ Çal Bu ak satmyo' eBay Oh, my nigga Mahallede yeni adm CJ Ey Gitgide benziyo'z iyice Flex Planl vukuat zekice Tertemiz kudurduk ite Hrr Bix gecede bi' gölge, African ninja Kabile çocuuyum, Libya Sah Kariyerimi ediyo'm inaa nallah Sam solum Alicia, Keisha Luis V' Semtimi sanrsn Crenshaw Suu, whoop Görevimi etmiim ifa Ha Bizde kelimenin arkas icraat Ha Daha nas' edebilirim izah? Bütün semt bizim, deil ev kira Çaltm yllarca, dönütüm silaha Gidiyo'm ortamdan, oluyo' killa Dönersem annda oluruz viral Yepyeni botlarm iki bin dinar Basarm lavuun üstüne bi' daha Bismillah, bizi edemezler istila Bad decision Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh deolojim çok sakat Yeah Just like Moustapha Akkad That's me Çkyoruz binay kat kat Kat kat Klca'm tepede iki rakad Bi' gün Michael Myers gibi kasap Kasap Bugün Hamza vibe'm da tamam Elhamdülillah Opp'lara veremem aman Nah Tükeniyo', kalmad zaman Sürtük, bitmiyo' draman Aalk hayatn ucuz bi' roman Syrdm klcm knndan Conan Naslsa kalmad arayan, soran Ah Sevdiklerim cennette ulan O.G. Arama dünyada, görmedim bulan O.G. Gün gelir, yavatan yükselir sular Yanl rota nigga, yank pusula Çetem Plus my baby, looks like Aaliyah Taktm peime bi' tarikat Her ey sürdü birkaç dakika Baktm, yol da zaten patika Herkes ahit, hepsi hakikat On God Atalarm Tuareg, baladm durag On dört buçukla çektik aduket Yoktu, çiçekte yapaym bi' buket Sahra'da hayat, böyle bi' gurbet Ama bir ans var ans var, ans var Çkca'z tam gaz Tam gaz, tam gaz Yükselir Anka yine yanyoruz, anla Bur'da da tarih yazld kanla Hardcore party her 17 ubat'ta Vatikan deil tabii, yok bizde Papa Bi' Omar Mukhtar var elde valla Yeah Görüyo'sun, uzun yaad cellattan Young boy Kaçmadk hiç savatan Miras nesil balar en batan hlas, irade salam tatan O-oh</t>
+          <t>Ayy, it was so hard writin for my dawg I said damn, where am I gonna start? I know to yall, he appear a pair a animal like Noahs Ark But I know he soft You try anything on this stage tonight, and Ima throw you off And have Rock on his back like a hot stone massage Yeah, I know you fraud I know he fraud He aint never take no trips for them long plays I told Shine, Its a different typa butter in the park, K Parkay I put soda on the water, make a crystal out of soft clay Watch it sizzle in the pan, thats somethin you never saw, Tay sautée I had them shootin up every night, man my scale was jumpin I gave them straps, spoons, needles, anything that could help wit somethin We aint even know the police was there, sometimes you could just tell they comin Its like Midnight Madness, everybody left and had me givin out belts for nothin Shells is dumpin Yeah, I just talked to my plug last week and he told me that some bales is comin And if he throw you work youll snitch, yeah you could tell he frontin Big blade, from the side of your ribcage to yo belly button Or I could make him sit wit a thirty, I R. Kelly somethin Tell me somethin Why you aint never learn nothin from what the staff offer I mean, even when yo career was bad, awful All we heard was, Get that nigga Roc!, and you aint see how it was bad for ya But now do the inflation, we see how much that gas cost ya They put Roc in front of a Tank, boy this sound like Donte vers Gervonta Im on your lawn, Tay Wit a long K Bout to pick a bitch up in front of the crib, its a prom date You know why we dont get along, Tay? Cause I know you never gave a shit After the fight, I was on the line everyday wit Brizz Like- like where you wanna take it, kid Yeah, we kept watchin the footage back tryna see who on stage and shit I seen yo man jump front line, yeah he always down to take a risk I guess Chess was just a pawn that take a risk Why you aint jump in that brawl? Oh its makin sense Its like the police breakin up a catfight Tays tase a bitch But do you know the real part that kept makin me sick? Its how we said a line about a nigga moms and you screamed out, Say it again! Bro it was regular shit But you put so much emphasis on it, you made it a magnificent moment Mook thought we was tryna diss while he mournin Then some fists got to throwin Boy you moonwalked yo skinny ass to the back stage Put glasses on and was back laid Makes sense to me, cause we know he met his baby mother on backpage Why you aint tell em that, Tay? I guess I gotta be the shit-starter Tell em how you was scrollin online tryna skip the gays and she became a list-crawler And had the bitch daughter Look look look loook look Ill hit all ya, Im rollin through ya neighborhood wit two straps wit me The sign say 35 but I dont do that limit Im creepin in a car wit no tints, they like who that wit me? All they see is me smokin Rock through a fishbowl like New Jack City And he a bitch We aint never seen him swing a bit Joe Dirt we found out Rock was a piece of shit And yall wanna know why Ima end Titles too? Cause Im entitled to A real nigga like Nas album wit the N title too I heard you had a love triangle, and had two men fight for you Then got mad when they aint wanna come and spend nights witchu See, I got a invite for dude from like midnight to 2 I slide on a Street Fighter, thats a M. Bison move Smack, why you been payin this nigga pennies bruh You know he just now gettin his own car? I mean you made Roc see rentals Roxy Reynolds his whole fuckin career like the pornstar Who knew Id be a mogul? I was stuck on my trappin shit I started on the corner then moved up to traffickin We was broke wit cocaine dreams, nigga that was it I learned from Craig, when life beatin you up, you grab a brick Ayy Roc, we aint have us shit, bro I really had to pitch these dimes I had the border locked down on my Brittney grind Grin You wanna tempt me? Fine Ill make this bitch recline I had the chop in the corner like Ric Flair, and I done hit the Title 16 times Bitch Bro I done been to Edgewood nigga, I seen yall world Niggas press, yall fold, I done seen yall curl Chess cant even hold his liquor, we done seen yall hurl They had to hold the Title up like a ring card girl Ayy, but I do thank you For comin to see me as a man, Im too grateful Cause for years he been runnin his lips but let his crew save you Ave, Surf, Chess, I made a few angels Wit bullets the size of Belaire bottles, the blue labels You lost over half your members and now your crew hate you So all Top see is a autopsy, yeah thats the closest hell ever make it to a cool table First Ave and Kannon left, I said, Damn, what the fuck is this? And then Brizz left the group after he seen he was a fuckin bitch We watched you change Chef for Chess and a buncha other Crips Like if he kept the Wave around, we wouldnt know this nigga jumpin ship You dumb as shit Thats why my careers outlastin ya Im outclassin ya My gun got probable cause, so whoever ridin wit him, itll takeout passengers Slowly, we seen your fangs comin out you bit everybody that was down bad for ya Accusation after accusation, you know how many we can Count, Dracula The coroner gotta yo shit, I had the White mixed wit the Brown South Africa I heard you got wit a tranny, then kissed your baby moms afterwards They say you made him a bubble bath wit a little bit of lavender You nasty, bruh Concrete Yall niggas aint fuckin wit me Concrete They aint fuckin wit me Ever since you tried make it known that you want take the throne Vibes between us aint been similar since scents, we aint usin the same cologne Night Of Main Events I chiseled this date in stone N-O-M-E this card wit no me, it aint a NOME Change your tone Theres no chance for you They wanna know, if Brizz was cool wit the both of us then where he stand loyal? I like surprises, dont let the plan spoil But I aint one of Bizzy busy friends, its nothin but Thom time on my hands for you Blam on you Special beam on the cannon Piccolo Bangin it, hangin it over Top mistletoe Unload those I used to sell whole Os Even fake white and in the glass like all the official snowglobes The coke sold, I had packs there for me And I sold dope, it was always some kinda Smack there for me Back then, you couldnt trap where we be Niggas wouldve took your herb, honey, and your Blackberry, T tea Who brought this fat Bear to me? No Grizzly, I see cubs I let a shotgun lick out a shell, youll see slugs Fuckin wit Roc, I wanna see blood Lemon squeeze, thisll hit his lip then Lipton sink inside T tea mu- You didnt know? You standin in your very own plot Imagine the pallbearers tryna carry yo box Imagine Hes heavy as fuck Ayy, imagine the pallbearers tryna carry yo box You gon end up the one they carry home shot Get the red beam on his forehead thats the cherry on Top We at war Whatchu thought I brought this mask for Rappin bout drugs, til I crack Top in his glass jaw jar I pop and thats when somethin collide A casket is what they had to build the Bear Build-A-Bear to stuff him inside Youll get beat and battered Upside your skull, til pieces shatter Inf beam charge up wit a USB adapter A vest wont even matter Squeeze the ladder Kings vs. Queens these Clips spit, and you gon see Jesus after Heater clap ya Send a fragment through they shirt Remington shell look like a mini Kool-Aid Burst Im that hostile When you battled Charron, that cat fried you And you lost against EK, G EKG he flatlined you Question is you high off E or Eeyore a fent Perc Bounce like Tigger, I pull this trigger, your head burst And I could see I hit the Bear when he Winnie got a red shirt I said Eeyore, Tigger, the Bear Winnie got a red shirt Semisll pop If he survive, his weight vividly drop Yall aint gon know that it really is Top Hell get out the hospital skinny as Roc Like Tommy from Martin yall gon look at him, and yall aint gon know if he Bizzy busy or not Youll really get shot in this out of town arena Or pistol-whipped, get blood on something I copped out the Houston Galleria Ayy, Top You play today, split his shit, grab a heater Top fadeaway Jada Pinkett-Smith, alopecia Middleman actin like he the head of a cartel He done signed up for this, and that shit wasnt thought well This 30 curl but it dont be a barbell Duck your taco, if I catch him on tour, Tll tortilla get a hard she- Your skull s- Its me Im chillin right now Im tryna chill Ayy Your skull swell The body rot, harsh smell I just caught the Bear in a trap from a trail of some Lets see if he still talkin in that freshly built coffin Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight- Youre dead nigga Fuck outta here nigga Its me, nigga Fuck is wrong witchu nigga I said Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight shots, speed past him Graze grays Top Sheed Happens BITCH, BITCH, BITCH, BITCH, BITCH ITS ME ITS ME IT IS ME THATS LIGHT Bitch Fuck wrong wit niggas Ayy Graze grays Top Sheed Happ- Boy, yall see how I beat the hell out my kid? Summer Impact, your fat ass fell on us, and thats the only time I fell out wit Brizz Bitch, youll get hit wit every shell out the SIG He aint keep his eye on the baby, then Bizzy busy body fell out the crib Peep, in battle rap, Im action packed You aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All yall see is the bottom of Top, read the Snapple Fa- I pack a strap- Thats liiight This shit easy I swear to God on my fuckin kids Its easy Peep, in battle rap, Im action packed He aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All you see is the bottom of Top, read the Snapple- I pack a strap wit 30 R.I.P. Bernie the Mac is Black Grab a gat 8 throwin bullets Matt Hasselbeck Casket nap Kick in the door where he trappin at Have him pourin all his Os out his bag it look like Apple Jacks Bitch Its me Hold up Im on you nigga You got me fucked up Im on you Im not done nigga Yall thought I was done? Im not Ayy Have him pourin all the Os out his bag it look like Apple Jacks Thats a fact We dont even know what tier he is Outta you and Rawsteen, all we wanna hear is Brizz Wit the suppression, you could still hear the SIG Noisy ass shot, point it pointed at Top like Egyptian pyramids Here it is You fake showed me props You phony, stop I used to think that we was homies, Top Now I know we not You trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Bitch Easy, Beasley Nah, Im not done I used to think that we was homies, Top Now I know we not Trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Watch what you say, I know a lot Rawsteen used to roll wit the Cave, you roll wit opps When you battle me, you get straight bars cause my flow is hot I dont dig up dirt, I make sure the dirt go over Top Thats liiiight This bitch is dead Easy, nigga I said yo Bro, now when I first heard you was fuckin wit trannies dawg, I said, Come on, Tay I was more disappointed than mad, I made the palm face The nigga said you tried to take him to your moms crib that was the wrong place Told his wifey he was chillin wit the guys he made a strong case Now I dont know if the nigga name was Fred and shit But you definitely was askin that nigga for some head and shit He had blue hair like your baby mom, thats when your lil fetish hit Makeup wit the painted on reddish lips He said, Nah, nah, it aint what it look like, family Yall know how I say its coke but it cook like candy Well I believe the accusations, and it took light plannin Cause both his baby moms and his girlfriend look like trannies So I believe it Now when you first started fuckin wit that bitch, bro, I bet you thought that it was all terrific New tricks in the bedroom, she was awesome, gifted All submissive But since the footage got released out by all them critics We cant even call her sister We dont know who balls she lickin Hypochondria we startin to look at Caution different This aint at all a gimmick Cause when we want a quick visit, we just call a name Bro you married a slut, a who- a- boy its all the same But you think the shit is all a game Got robbed for your fake jewelry then went and got a ball and chain Whats up wit this fella? Bro you was supposed to hit it then quit it, but you cuffed it and settled Why buy the cow when you could have the milk for free, you coulda upped and just left her Now I dont know what Roc owe Rocko in this Modern Life, but now he stuck wit that Heffer Bruh they aint gotta like it nigga Shut up But now you stuck wit that Heffer Just do your thing, just make sure you can handle it first Cause I see you tryna make a family work And you even put a ring on Caution like a Amber Alert But I guess that was the love in the air Bruh we told you she was the biggest slut of the year And you had the nerve to s- What the fuck i-, it was us tryna put a bug in your ear Stupid Stupid You fuckin idiot We told you Ayy, but he aint wanna listen, I guess know hes hearin it Yeah, everytime she get her ass beat, he responds wit arrogance I done been through baby mama allegations, I coulda showed you how to handle it But it cant come from Bizzy the Bear, you gotta talk to Bizzy the therapist T-Top puts on glasses and holds a clipboard Okay, now Accordin to my notes, you been like this since a boy Seein pictures of your wife bent over was somethin you was tryin to avoid She said he had her lips out wit cum stains, you shouldntve wifed that bitch at all You mean to tell me you run the Cave and didnt see the writin on her walls Nigga naw Nah nah nah nah hold on, hold on The second thing it say, right It say you cant get mad when niggas say that they had her, too Yeah nigga dont be showin no attitude You cant let them niggas know that they damaged you Its the evolution charts you supposed to walk away as a man, but you start by actin like a animal Thats totally different The third point, stop contactin niggas askin, Did you have my girl? Di- did you have my girl? Nigga you done lost your mind You up there late night arguin wit niggas, thats what put you off your grind But we all know Scorpios is freaky, and you shouldve paid more attention to Caution sign I said ahh See, thats why your bars no longer move me Your whole crew remind me of YSL, right, but that was all part of the movie Cause come to find out, she started givin up the coochie to a nigga named Lucci Oh my God Yeah thats why you shouldntve never wifed the bitch You got him sendin threatenin messages online like we aint just watch that indictment hit Yeah, sometimes your pride get in the way and we can die as men So if you aint got real beef wit Lucci then why offend YFN? Im just askin, and I hope you could set the record straight You tried to send that man to Heaven gates Was ready to kill Lucci like he was beatin on Reginae You gotta do better, Tay Audience member says, Fire I know it was nigga Dont say none Ayo, you gotta do better Tay See, sometimes you gotta make sure your friends head is straight and that they headin straight Cause you was back catchin for a tranny tryna make it to second base Do better, Tay I take Caution, give her saltfish til her eggs separate That bitch a breakfast See, and one of yo best mistakes Was when you grabbed Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Huh? Why you do that? Why you do that? Bro Yo best mistake Was grabbin Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Do you know what fraud you have to be To clown a man about his chain when yours cost half the piece Thats why you do not got my respect Cause two weeks later, you let niggas take what you rock round your neck And come back wit an even faker chain that say Roc round your neck I come wit a Glock 9 and a chop round my neck Give him 23 and 1, thats that lockdown effect Bloo blaka from this T is not sound effects I understand you cool wit him like But sometimes you good wit him, then you not down wit Rex You came in the game screamin how Dot Mob the best So it confused me when everyone in Dot Mob had left All that drama round this set It was Roc in this and then Roc in that Niggas took your shit, they had em rockin this and Rockin that Bro why Surf and them Crips aint never ride behind that Somethings odd behind that All them GunTitles but the story red read, nobody died behind that And I know you and Surf honor them things The designers and chains Thats why you stole Brizz battle, cause your loyaltys overridden by your desire for fame Concrete I technically dont need a team, I came in this shit dolo, the big Cave Who put in more work than me on the big stage? He would go on strike again if he knew what I just made You dont get paid I cut up Top, like a temp fade Switchblade Split Top down the middle French braids Whatever bitch fuckin you got some sick ways You look like a orangutan wit clothes on, how you get laid? Fat stupid bitch I can call you that in a slick way Or in pig Latin you at-fay upid-stay itch-bay You aint alert? You knew not to upset me and make it worse Tay is cursed Like June sixth 06 is my date of birth I came to work You shouldve dressed up like you came for church Aim and burst Put the Bear on a tee Palm Angels merch We militant Shit gon get a little vigilant, ignorant Split your shit over a simple incident Pistol whip I will dent your shit wit the pistol grip Spit the clip Big rounds clappin like cymbal instrum- I dont care if Haymakers your weed spot If I was Piru in his Fruit Town, I still aint buyin your Tree, Top Please stop When I cop ammo, they gotta restock I like G-locks Spot him, got him SpotemGottem Beat Bo- The aftermath, you gon see Dots You like a deal on the table, they puttin you in a scope to see shots Listenin for sounds and they think the beat stop They dont know if its The Chronic or they need to Detox Look, theres no drop tops or any kinda cars in this chop shop You wanna see ARs C-A-Rs? Well look, heres a chop Top If he play wit him, he better keep Ks wit him I be ridin round up North, Wess West on my lap Pete Davids- Heat stay wit him Just for the fuck of it, no reasonin You only safe if the police wit him So make a choice chicken or shrimp? Dont beef wit him You missin the flavourin packet? Cause when Top rhymin Ramen, theres no seasonin I have to get at you I know I have to get at you Thats light Thats light, I gotchu though He dont rap like this You dont I have to get at you Rappin pitiful thats your typical Gon make a nigga smack and spit on you Leave a cat in critical wit the ratchet Drive by the candlelight, hit every individual at the vigil Crack the head of you Thats the only shit thats respectable Show up where you live, your kids gon have to ask for medical Ill pull somethin foul out and catch a technical We can start oldest to youngest or alphabetical Thats acceptable Ice pick stab the neck of you Drag the flesh of you Turn you to a actual vegetable Broke chest plate, crack your pectoral Flatten your lung, puncture your heart, slash the ventricle In the hospital, staff is checkin you Bout your pain like, Did it kick in?, but he dont know if its workin like he had a edible Oh you half-man, half-bear? Thats incredible Ill leave you hooked to machines youll be half-man, half-electrical Whats up wit this? I aint the one that you wanna diss This a ass-whoopin back in the 90s I brung a switch Pistol whip, itll hit you hard as a ton of bricks Bust your lips FN a fin in a Bear mouth he huntin fish Fuckin bitch And you talkin bout Caution, some sucka shit Cause that video wit the mother of your child is some other shit But like that video, Ill have a BM pull up, glizzy hang out sound just like your baby mother suckin dick Bitch I will have Caution bust your shit What this faggot thought? Shell stomp you out in slides if you actually fought Yall seen Waterboy, when his girl and his mom had to sit and have a talk? He get a mouthful of Crocs, like Vicky Vallencourt Clap the torch Shoot through you and who standin by ya Smack, he dont want smoke, he Smokey the Bear, he scared of fires In the trap, I used to scam wit buyers and handle liars I swear shit was a battle every week, like Danny Mye- Boy I thought you knew that this kid is an elite It look like you say fuck the company and this the misery you keep This tool buck, put you infinitely to sleep Ill pull up like a food truck and leave Bizzy busy in the street Hit you wit the heat Clap up whatever he whip today Thisll leave all your tires flat, Top flattop. You think Im kiddin, play Kid n Play You in the way Lift and spray Clock you out, put this 9 to 5 and end Bizzy busy day I bring a Glock Or a big nose King of Pop Pull somethin from the side and Top gon drop, like Jenga blocks Niggas play and wanna call out me End up in a morgue tryna figure out how he died, and thats all Top see autopsy R.I.P Bitch Blade to his face, push force through Then right through the stomach, shuttin down a organ or two Then right through his foot, steel in his heel like a horseshoe Whippin a lot, I twist it in Top like a corkscrew I warned you Now Ima show you how the shit goes .38 big nose Double barrel Swiss rolls Catch him in traffic, TEC wit the Swiss holds If you dont have a MAC Mac on your lap, Top laptop, thisll hit your Apple through the Windows Fuck this battle Thats light I say yo Yall wanted to talk about the strike, right? You and your man Yall wanted to talk about the strike, right? See what I tried to do was take battle rappers from makin regular bread to really seein em checks Shit, I was really believin in that We all put our contracts in a group chat just to see who would rat And Rain told me everything we put in that muthafucka he was feedin to Smack Thats a fact Thats when I found out the hate was real Cause he kept sayin, It gotta be Suge, it- it gotta be Suge, and then we found out it was Tay that squealed So when yall say the strike ended too fast, I was feelin the same way for real But you know when your co-de start snitchin, shit you might as well take the deal He been top coppin Yeah if he had a kilo in front of the boys, they would not lock him And I done gave the people L bowls elbows, but I can never tell Roc bout em Rock Bottom You wanted a rematch? Cool, my nigga, I put the grips on him I heard he Rollin wit 60s, well hats off to tha- I put the Brims on him Nigga, stomp him out, yall gon see double soles I put the Timbs on him Take his daughter, she been gone so long, the milk carton say Brizz on it Ill put a knife in his ribs then put a spin on it The slab so big, Houston, I put rims on it Yeah, and if we was locked in a room wit no cops, I get it poppin wit dude Solitary confinement is what we not gonna do Cause Im a sneakerhead, it would hurt my soul sole to have Rock in the shoe But you know the point when I stopped rockin witchu? When you told the world, Ill be back Ave, and then you left that man to die in the hospital COVID-19, ventilations, we couldnt even see his vitals move Then you hung yourself marryin Caution, she just wanted to tie the knot witchu Ayy look, ayy look All that gang gang shit tonight, you better stand on it Gun Bar King? When you had a Calicoe in your face, nigga you aint put a hand on it This your damn warnin All that almost about to fight, nigga knock it off Or its docs involved, bandages and cotton balls Swellin here, lumps is there, a whole bunch of knots involved Caution tryna get the swellin down, Ice Cube and Rock like Ride Along Yeah, I got the call Not from Smack, from Baltimore They say he do not be wit k- I know, Shine I know, Shine Yeah, I got the call Not from Smack, from Baltimore They said he do not be wit killers His gun bars is just bars, he will not pull a trigger They tried to give me dirt on you for a whole lotta figures I said he the little bitch followin Wave, I dont need no mo on a Moana nigga I got a whole lotta hittas And when you see em, boy they loadin Rugers You said somethin bout on sight wit the MAC, well they dont own computers I dont care if you got Eazy or Chess witchu, Im still sendin over shooters And whatevers under Rock get ate, like Timon and Pumbaa Bitch, bitch, bitch Okay, we got some math to do Bruh tell me how the fuck I came in after you and still end up passin you Crowd affirms, yelling, Facts. Big cap The biggest cap They said facts They said facts Yo, ayy ayy How the fuck did I come in after you and still end up passin you I mean that might not seem right to the masses, cool But dont act confused Nigga my first year in it I did the BET Awards, and then came back for two Yeah, rapid moves They never asked for you Netflix specials, I be actin too Yeah, Funk Flex Freestyle aight yeah, that was a nasty move But I still got business ventures, different avenues A record label that I own all the masters to A studio, big artists be passin through I got Kids World Giveaway, yeah thats a app we use to help kids after school Yeah, I got classic 2-on-2 wit Brizz then after that, Jerooz Yeah, yeah, Haymaker, Unbearable, thats two weed companies Im established through Im not sayin this for no braggin tools Im just mad at you And Im mad confused You been in this culture 15 years on average, dude I mean a star online, aint even got a website we could tap into Huh? See, I paid attention to everything you was attachin to The Aves, the Mooks the Smacks, the groups Feel me? You been in this game 15 years on average, dude I mean a star online, and you aint even got a website we could tap into I mean the most you can talk about in battles you done grabbed a boo Nah nah, thats actually cute You know what, from now on in battle rap, thats the move You leave your BM for a chick not even half as cute and get married too Cause thats somethin you been chasin your whole fuckin career, to find out it wasnt worth it like dragonfruit Yeah, I got two nicknames for him in this battle, yeah drag and fruit Or passionfruit They been wanted me to kick yo ass, I just aint have the passion to Concrete Them fake personals can put you in a lotta danger That shit fuels a lotta anger You really be bendin and stretchin angles like usin a wire hanger You not a gangsta Two 9s, both got a laser They look related but aint the same they doppelgängers Free Twork It was somethin I said to him in our rounds It was, You the reason niggas like me gotta battle Swamp now That really go for you, you aint seein the light? If yall niggas wouldve shut him down then, he wouldnt be here tonight Speakin of Swamp, where is that T.I. voice havin ass nigga? Soon as I see the man Get the whole clip a Tiny Tips, the heater blam Run up wit the chopper out, he like, Is we beefin? Damn Then put the sticks on Swamp, look like a beaver dam Back to you, we miss you beein the coke-sellin fat nigga We miss the fake drug bars from this fake crack dealer Now he got all these angles, when you become that nigga? Bill Collector voice we liked you better as the trap nigga Im mad witcha Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef That was cold Bitch ass nigga that was fire You bitch ass nigga Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef, you should diet wit grapes Fuck I need to put it in Gun Titles or somethin? I call the Locs if its beef, you gon die, its wit Grapes This fat nigga wont survive in this place You aint know we got the same jean size .45 on the waist Take this time to think, cause you aint never thought like Your fat ass cant slide down a slidin board or sit on a swing set and be alright Spendin all this time witcha kids at the playground and somehow you still cant enjoy the park life ParkLyfe Boy, I bet your back hurt cause your titties too big for your body, bitch Yeah You bout to body-bitch me? Yeaaah Yeaaaaaah Yeaah Ayy I bet your back hurt cause your titties too big for your body, bitch That third round I had for Official can get remixed for your body, bitch Ima cook him Ima remi- Ima cook him That third round I had for Official can get remixed for your body, bitch You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin Crowd chants 3-0 Ayy T-Top says something to Tay Roc Thats fucked up Im tryna remember where Im at, thats fucked up Ayy You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin You got a bad health body, bitch You got a its a buffet, help yourself body, bitch Extra mayo, extra bacon, turkey melt body, bitch You got a stomach overlappin the belt body, bitch Him wanted? Picture that, itll be a large type photo You a soft type bozo But that is somethin that yall all might know though My nigga Crip, dont think my dawg ride dolo A callll have a Bear surrounded in blue, look like a Klondike logo Thats light Now Ima kill him for real Now Ima really kill him Im not even done Ayy Look like a Klondike logo Ayy, Top That Summer Impact shit is old, wit no meanin into it But when you threw that bottle, you shouldve tried leanin into it You aint battle Cal? You could easily do it Ill put a Calicoe in your face before Smack and Beasley do it Honestly I pull a switchblade from the side of me My girl called, I said, When I get Bizzy busy, dont bother me She think I aint got time for her, and thats silly as it gets Ill bring him back split in half thats two Bizzy too busy for my bitch 50 wit the stick And I could silencer the shit If I look and happen to notice him drivin in his whip Like any other hunter that survived in this event If you see the Bear in the field, then fire through the tint I start a riot in this bitch if I grip my tool I aint got it all, you know my mind miss out screws Right, left, the big guy snooze Top floored in the building, gon sound like I get penthouse views You a jokin nigga, you be laughin a lot I pull out one 911 911, somethin fly and crash into Top Your shit split Stand over him til it click click The Bear laid on his back Yogi after the picnic Run your mouth, til its your mouth where a gun is put Son get took to a bridge, and the drop is a hunnid foot They dont know what happened, and they dont wanna look They just know some cat attacked the Bear Shere Khan in Jungle Book You not a fuckin crook Why you keep talkin like you somebody I will tie you up, make you watch, view the body Your bitch take a shot right through the body Then Top the next person, Im always tryn outdo somebody Hes talkin clever Til a boxcutter hit him and carve a letter Like that movie Ted wit Wahlberg, leave the bear wit a Mark forever Sever shit He get hit wit the edge of it Youll be dead as shit Knife in the Bear neck like Im Leo in The Revenant Devilish This murder-for-hire Dior runners, Balenciaga mask, I could purge in designer Pick through his ribcage, turn it behind ya Then let it spin around his neck give him a Hurricanrana Bitch You see it slicin Oh he aint know that Ill kill people like him Skin the Bear then wear him look like a Medieval Viking We is triflin Cuttin ya Leave it stuck in ya Like a circus act how I go for the Bear jugular juggler Im a hustler And he dont know what this element bring I spent a lot on a necklace to bling I copped a orange Charger last year, this year I might do a Tesla in green Or a Porsche, maybe matte mat white like a wrestling ring Youll never be king As long as long as Im here on this damn scene The loyalty I bring in this shit is a rare thing I told Brizz when he was on my damn team Just because he cool witchu, dont mean I gotta fuck wit the Bear, Steen Berenstain Fuck this man mean? I call a gatherin This wha</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Vidos</t>
+          <t>Telefonum Çalıyor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Alo brat' dospi mi jo jednu rakiju Slabije da radi me na mafiju Sabijemo topa ili paliju Vie lii na oklagiju Huu Prirodu izdahnem Pukne me fle iz detinjstva Lupanje o erpe i pitaljke Rat, sankcije, kriza Al' ovaj bit je veseo-od toga nita Danas je dan kada ide mi sve Boje Majamija uz zvuk ovog bita Bita Ko da je GrandMaster Flash Imam svoj trip i to je dobro Ne idemo kontra, plovimo sa flow-om Imamo ene najlepe, bogu hvala Vidi da kuliramo sada, nemoj da me smara Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Ugh Ponekad kao da je dungla Nekad kao da je svuda urka Malo smo umorni za hajp Al' danas je neki drugi dan Sve mi je lepo, ak mirie grad, zato Samo u ti rei-don't kill my vibe-bitch! Vidi da uivam u radu Gledam okolo, vidi da uivam u gradu Ugh Vidi da uivam u danu Sutra e problemi da me zgranu Zato nemoj da ponavljam dvaput Nego se opusti i odmori glavu Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac A danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac Jer dobar je bio dananji dan Jeaa Opet sam preiveo, naravno, jer sam furao gun Aha Jer ovo ispaljivam, kao loptu Thomson Clay And all I'm gonna say is Damn right, it was a good day Danas, nemoj da me smara Priaemo sutradan A danas, nemoj da me smara Ovo-ono, kurac-palac</t>
+          <t>u stanbul tam yedi tepedir Bunlardan biri de Cihangir Yollar kark,bir labirent gibi Sokakta dolr kurnaz tilki Cihangir de tek kapl evde Yedi kii alemde Dalr tayfa,çkarlar sokaa Elli türlü tehdit,elli türlü takla Rasta babay koparmlar On adam evini basmlar Biz orda deildik,olay görmedik Orda olsaydk,müdahale ederdik Cihangir den aaya kaçm Kazanc da sktrmlar Üç el havaya atp,gerisini bacana skmlar Al..al..al.. bi de bunu al Taklaya getirmiler,kafas pek bir güzel Haylazlara kzyor,rastalarn babas Sigaras elinde,palamutu cebinde Her kadna saldrr,rastalarn babas Seni haylaz,seni gidi yaramaz Seni yaramaz,seni gidi afacan Seni hnzr,seni gidi yaramaz Kafas güzel,kendi güzel Ruhu güzel,mevzu özel Ama ona yine tuzak kuruyorlar Yine ona çakallk yapyorlar Orospunun teki peine taklm Bunu bir güzel kafakola alm Bizim rasta ,olmu ona hasta Ona sorarsan ,kar on numara LAN,yola yola yola bir eyi brakmadlar Lan,ne varsa elinden aldlar Bir deil,iki deil,üç deil oldu Bu yollar hayatna mal oldu Iklar kapannca,müzikler susunca Ulumaya balar,rastalarn babs Telefonu çalyor,telefonu açyor Yine dümen peinde,rastalarn babas Rastalarn babas,babalarn babas Çevremizde tam tedi gezegen var Bir güne,bir ay,bir de o var Rastalarn babas evrene smaz Gezer,gelir,koar,yine yorulmaz Cihangir de bir gece oldu Gecenin adn rasta baba koydu Allem kullem,haytalk peinde Önemli deil,rasta hep bizimle Rastalarn babas,babalarn babas Sen bizi sevmeseydin,biz seni sever miydik Gözün gönlün önünde,gözümüz üzerinde Sen bizi sormasaydn,biz seni sorar mydk</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>Geri Ver</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sizin Gibi Olmak</t>
+          <t>MAGAZIN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Sadece siktiimin bunalmndaym Bu çöküten çkyor gibi görünmüyorum Bu tepeyi aabilsem de Bu çöplükten beni çekebilecek bir eye ihtiyacm var Yaralarm aldm, darbelerimi aldm Dütüm ve hemen toparlandm Ama psikolojimi toplamak için bu kvlcma ihtiyacm vard Benim mikrofonu geri almam için Bilmiyorum nasl, neden ya da ne zaman Bulunduum yere geldiimi lgisiz hissetmeye balyorum Bu yüzden kalemi elime almaya karar verdim Ve da vurmay denedim Ama kabullenemiyorum Ya da Rap ile iimin bitmi olabilecei gerçeinin üstesinden gelemiyorum Yeni bir yola ihtiyacm var Biliyorum baz eyleri kabullenmek zor Ama sadece arkama yaslanp debelenemem Kendi kederimin içinde, ama bir gerçek biliyorum Devam ettirilmesi zor bir hareket olacam Devam ettirilmesi zor bir hareket, devam ettirilmesi zor bir hareket olacam Bugün burada, yarn gidecek Ama bin mil yürümelisin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Sanrm mizah anlaym kaybetmeye balyorum Her ey çok gergin ve kasvetli Neredeyse scakln kontrol etmek zorunda hissediyorum Odann, hemen Odaya girdiim gibi, tüm gözler bende gibi Bundan herhangi bir göz temasndan kaçnmaya çalyorum Çünkü eer yaparsam sonradan kaps açlyor Konumann tam da istediim gibi! Ekstra ilgi aramyorum, sizin gibi olmak Odann kalanyla karp Belki de en yakn tuvalete götürmesini istiyorum u siktiim erkek uaa ihtiyacm yok Beni takip etmeye ve kçm toplamaya çalp Patlattm her bir akaya gülüp Yars komik bile olmasa da Hah! Marshall çok komiksin adamm Sen bir komedyen olmalsn, kahretsin! Maalesef öyleyim Sadece bir palyaçonun gözyalarnn arkasna saklanyorum Yani neden hepiniz oturmuyorsunuz? Anlatmak üzere olduum hikayeyi dinleyin Lanet, ayakkablar deitirmek zorunda deiliz Ve bin mil yürümek zorunda deilsin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Kimse hayatn bize Bu saçma kartlar vermesini istemedi Kartlar kendimiz alp Yardm beklemeden açmak zorundayz imdi kçmn üstüne oturarak sarho olup inleye de bilirim Ya da içine koyulduum olay anlayarak Ayaa kalkp kendiminkini alabilirim Hiç kapnn yannda bekleyip çantasn toplayan Verandaya oturup asla görünmeyen babasn görünmesi için Umut edip dua eden bir çocuk olmadm Sadece bulunduum her yere uymak istedim, her gittiim okula O haval çocuk olmay hayal ettim Bu aptal davranmak anlamna gelse bile Edna Teyze bana hep derdi Bu surat yapadur, öyle kalacak Bu srada urada oturup Dilimi tutarak böyle konumay denerdim Ta ki 8 yamda donmu DUR levhasnn direine dilimi sktrana dek Sonra dersimi aldm Çünkü artk arkadalarm etkilemeye çalmyordum Ama zaten sana tüm hayat hikayemi anlattm Sadece benim açklamama dayal deil Çünkü oturduun yerden görünen Muhtemelen 110 farkl Sanrm birbirimizin ayakkablarnda en azndan bir mil yürümeliyiz Kaç numara giyiyorsun? Ben 10'larda giyiyorum Bakalm ayan sdrabilecek misin Kendini benim yerime koy Ben olmak nasl bii görmek için Bende sen oluca'm, hadi yer deitirelim Sadece n'olacan görmek için Acn hissediyorum, sende hisset benimkini Birbirimizin zihnine girelim Ne bulacamz görmek için Birbirimizin gözüyle bakalm hayata Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Ama sana güzel olmadn söylemelerine izin verme Hepsi siktirebilir, sadece kendine sadk ol Son zamanlarda bana ulamak zor Uzun süredir kendi bamaym Herkesin özel bir dünyas var Yalnz olabilecekleri Beni mi aryorsun? Geçmeye mi çalyorsun? Bana m ulayorsun? Öyleyse sana ulayorum Bebeklerime, güçlü kaln Baba yaknda evde olacak Ve dünyann geri kalan Tanr size sdnz ayakkaby verdi Onlar aln ve giyin. Kendiniz olun adamm Kim olduunuzla gururlann, klie olsa bile Kimsenin size güzel olmadnz söylemesine izin vermeyin1</t>
+          <t>Ye-yeah Ye-yeah Ok, ok Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah A te non penso più ho detto basta Ste cose ho detto basta Lo so non tutto passa Non mi interessa più cos'hai da dire su sta faccia Cosa vuoi che faccia o un lieto fine o una finaccia Però no non credo bro io no non credo Sono sotto il cielo ho perso ciò che avevo Io che ho finito la scuola e non mi vedo da adulto Non ho una vita nuova anche se è cambiato tutto Quassù si sentivano le urla da giù Poi le porte sbattute le battute non più Ho mollato storie concluse Lasciato donne confuse Ora sono io confuso Che non ho orari dormo col fuso Che mi addormento in stanza col fumo Lansia nella pancia mangia lo scudo Ma esce dalle labbra quando la sputo E rientra dalle labbra quando la assumo Yeah Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah E non finisce la noia Ma finisce il presente E ti ritrovi con niente, yeah E non finisce la noia Ma finisce il presente, yeah Andare via un pensiero costante Pace mia cercami costantemente In caso mi arrendessi me ne andrei, giuro Qua alle sei fa già buio Perdo ciò che trascuro, non ci penso e la chiudo No non lo so che cosa dirò a questi Da un po' non siamo gli stessi Ci amiamo solo distesi Non ci sentiamo da mesi Magari vieni da me, sì Magari vieni da me se Usiamo la scusa di Netflix</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mis Gibi</t>
+          <t>ACAYİP</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sava korkak izleyen bi' kargasn sen Ve maddiyatç kayglara bir çözümse Rap hitaben Damaklarmda donuk odada kalmsa geceden Bil ki yanndayd muz kokulu rapper nebyA Sanki rap'te on ya alt beyinlerdesin Kiminlesin bu yolda, söyle kimle dalaa girersin? Kes sesini, kulakta Disstortion'un nedeni Ve sözlerinin bedeli, bu Kuvvetmira daimi Galibi belli bu düellonun Diss çöplüünde pislik istiyorsan Mozo kâbusun Sonun sahte plaka, konun ki uyduruksa kefet Bil ki rolün yalnzca reklam panolarnda Kafanda çok çeitli fitneler, fesatlk adamn kanna iler Zevzekler keke kekeler, bu bahçelerde taklit sözler, ineler Kuvvetmira, harp okulundan çkt en baba rap'ler Yaptn ey sanat m, azna lolipopu alarak, para kazanmak uruna? Ceyhun'un kucanda gördüm seni kendi ovunda Ya Metaforlarnn anaforunda kaçak elektrik kullandn Hzl konucam, Diss'ci olcam. derken ne di'ce'ni ardn Alkolikle Ne oldu? Özür dilemeye altn, kandn Basit sözlere kaçtn Filozofiye el attn Anlamn bilmeden metafizikten bahis açtn Onun bunun hareketlerini çalp sahnede tiyatro yaptn Hepsini geçtim, sen yanl insanlara bok attn Yazamadn rhyme'lar dinlemek arna m gitti lan? Bitch Techno trance bir müzik türü, kimdi burcu burcu Rap yapan? Pardon sen deil miydin askerdeki arkadan satan? Her verdii röportajda kralm diye götü klç kalkan Açk seçik ol biraz, çarptma kelimelerini Keke Küfür suratna pek yakmad, ah bitirdin kendini Sen Kolera, Sago, Sitem, Mozo, Raffine krd kalemini Cart Kuvvetmira karargâhnda gerçekletiririm eylemimi Yaplan eylem çok komikti, güldük geçtik hâline Ha Gel de konuk ol bahçeme, beat verece'm sahtene Ay-ben mi rapçi oldum? Bilmem Pardon abi Rap'ini öncelerden Fu-Schnickens, duydum sanki Sahi, taklit ettin, sen de buralara geldin Kzm Diss'lerin basit kaçard, her seferde söyledim Ben Gözledim yalanlar, sahtekâr yarnlara Lolipop yalamak senin iin, altk artk bunlara Biz Namelerdi inleyen kafanda Güm Ba ucunda nefretin kaçakt, duygularsa çok krkt Ya Güçlü gördün kendini Sen Lakin çok bitiktin Sen Roka vermi beat'ini, hadi ya? Çok komiksin Sen Kayglar yazld kaç kere, içimde sakl nefretim Beslemek kolayd, gözümde söndü deerin Fos Özverimle yazdm her bi' cümlemi, çok kolayd Gücümü ondan aldm Kuvvet'im Mira'yd Denge sala düme, uçurum öldürür Ve kelle koydu yoluna eytan, ban döndürür Ve saf niyetli sömürülür Ve Vesvas Hannas, mumunu söndürür Çakallarn da gözü de kördür Çok ekerli Rap'lerinde di çürür Ne olacak yarnn sminin bir hasmnn Toplamam yerde kalr krntn Seni sen yapana ödedin son kiran Ve ayn hep anlam bo cümlelerin kimin tarz? Senin mi? Halkn talebi arzu üzerine yazdn sözlerinde para m arzun? Cevap ver Bo geri vokalin dahto kara, yklr yedi katl binan Nedir bu sendeki hnç Hnç Bo sal yine tek nefesle sç Sç Ya da kr kçn, kaldran zaman am Sç Gerçekleri beynine sok da art kaln kafan Patlat Kimlerin eline dümü, can çekimekte iyi-kötü kavram Hayat Ve yaptn iin anlam kalmad, ettiim en ar küfürler yüzüne sakl Kan bozuk, seni kurbaa suratl Kuak-uak Çeliki satt Sat, Bar diyen yayvan azn yrtmal Cart Bir Çapanolu sen mi çktn memlekette At suratl Bu aalk duygusuna nasl alabildin Nasl Bu kaarlk olgusunu bünyende nasl tayabildin Ha Bence sen rap'ine, al da elektrik kablosunu bala Tak fii Ala, buras Kuvvetmira, cebinde krk ayna Dikkat ele batmasn Sen misali u anda, sen misali alamal, sen u anda Ha Kin güder, çomak biler ben bu anda Yeah Bi' yerini mi kestin acaba? Mis gibi hyar koktu da Sahnede sözleri unuttun, adasz bacaklarnla Ay Salaa yatma lan, götürecektin Tuçe'yi, olmasayd ot kokan Ah, ne fark eder ki çald zaten seni bir hanmdan Lütfen srar etme artk, öretemem sana rap'i Of Çekitirme kolumdan, aln lan sunu bamdan Yeter Nursuz anmasn veliyi çinde fitne olan garip, buras srr- imtihan, tek hükümran Bilgin'in cahil kardei, ksaca Miss Kompleks Ha Gerçekten sen eskidendin, kul gözünde oldun ex Ha Salla kafana baltay, oyna evinde Golden Axe Hh Ekle süte olur hemen kalorisiz bir Corn Flakes Sen benim mymy rap'ime kes de kafan kurban et Rap senin neyine kz, gel de karantinam tavaf et çinde yanar küfrettiin, hak aklar dikkat et Kula zulüm, Rabb'a küfür, sonun adn tövbe et Yedi sene topa tuttuun Kolera, hem de hiç tanmadan Bu ne hiddet, bu ne celal, elimi dahi skmadan? B.P.G. 2004, rahmet diler, uyan lan Kimdi 2005'te para için kemik szlatan? Koyaym senin yazacan lirie, iki adet has kafiye Yüzün kara, için fesat, prim verdim zilline Nenen örnek versin yandan ipi sarkan takkene Cehennem olsun her iki cihan, küfür ettin Rabb'ime Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Senin neyine Neyzen? Neyzen bilir ii, ate yakmaz brahim'i Sonun adn olacak tut kendini eytanlk lugatte ba çekme eilimi Eilimi, eilimi, eilimi Yo! Yo, Sago kastr! Elinden tutmasayd elim, Bosphorus'dan atlayacaktn Köeye çekilip yaktn osuruunun aleviyle yanacaktn Gurbet elde Allah'ma küfredip, ele elini açtn Ne yazk ki bir plak dolumu için kçn sattn Hey Rap'in star kayd, bundan iyi cevap am'da kays rem'in bahçesinde güller açt, çekiç kafana çakt Hayatta bir kez dürüst olun, taktir bilmez insan domuz Nöbetteyken de dinamiti ateler Yunus Özyavuz Yarattn kâbusu, kirlettin mahrem namusu Açtrdn ya kutunu, söylettin u Yunus'u Diss piriyle ak atarsan verilir hicvin kursu Unutma Bilgin dingil Fazla kurcalarsan yklr Sago'nun tabusu Ve Allah iyiliini versin, felek cezan kesmesin Kuvvetmira Kalem Harp Okulu'ndan kovulan ilk emeklisin En çömezimle sahnelerde Keke Flex halindesin Unuttuun tüm sözlerini Tanr sana geri versin Beat banda küfredersin, sonra kankardeim dersin, ne i? En yakn zamanda bir psikoloa görünmelisin Bar deil savala sahnelerdesin, bebeksin Hayatta karma çkan en zavall döneksin Kuvvetmira üzerine yakan giymektir Yakmayan def etmek hobilerimdendir, bu ben demektir Benimle sidik yar yapan ancak kektir Bilirsiniz Sessiz atn çiftesi deve teper ki pektir! Dünya'nn en iyi prodüktörlerinden Mic Check selam eder Geçmiine küfreden tarihi acmaszdr, kolay siler kinci arkn benim için olacaksa kulaa varmadan düer Kalbim eski dosta küser, bu diss bur'da biter</t>
+          <t>Daha ileri gidemem ki, benim gördüüm rüya bu kadar... Seni çok uzaa saklasam Böylece ruhumu aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Söyle bana ölüme uzak msn? Geçip gittiim sokak msn? Beni bulur canm alr msn, kendimi uzaa saklasam? Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Binlerce hali var, döner durur benimle Ne acayip ayar var kaçverir seni görünce çinde binbir umut var hepsi tuzak insana Sonunda bir tek huzur huzur var O da uzak, sana bana... Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Seni çok uzaa saklasam, böylece kendimi aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Benim bildiim çözüm bu kadar...</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Düş Yakamdan</t>
+          <t>DENE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mesnetsiz mi bu yaklam? yo Bana ykc felaket yaklar Buna hazr olamam ben, yazk olamaz yine ters gider iler, bir anda karr Her eyden geçtim geçtim, sana ait olan bir kalp var elimde Bu sonum olamaz, buna hazr olamam ay tutulmaz ki günein yerine Tutulur dilim kalmaz hiç kelime Cebimde bozukluklar bana bozulur derecede kzgn kzgn Öfkeli ve de krgn lham tersleyip kalemimi krdm krdm Admma göre adam aradm Denize düene göre menzili taradm Hadi gir kabuuna, seni yllarca tadm Dü yakamdan da rahatma bakaym nan ki yo olsaydn, ben bn yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göl maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Laf gediine koyup ilerledim Bak, lam cimi yok bunun biter dedim bitti Kap dar itekledim gitti, yap ta bile gerekmedi Yarndan tezi yok ''söver.'' dedim ben Yerine seven biri gelir dedim yo Ku olup uçarken dileklerim piman olup da hiç üzülmedim Konuur dilim susmamak için Snrn koru nefreti kusmamak için hey Zor olan yapp yine uratn kalbna göre bir adam olmamak için olamadn Oluruna brak olmas için Say yerinde zamann dolmas için ''Ölmek var dönmek yok mu?'' demeli ok yayndan tez çkmas için nan ki olsaydn, ben ben yanmazdm Artk güvenmek yok, inanmak da bundan sonra Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz Burada öyle olmaz, olmaz Göle maya tutmaz, tutmaz Kalp boa dolmaz, dolmaz Yllara sorma Zorla güzellik olmaz, olmaz Salam iradeli birini her terazi tartmaz</t>
+          <t>On a grandi salement salement, salement On n'est pas les mêmes, eux et nous, selon moi hein, hein Fini salement, Fini salement, plein de nous seuls au monde seul au monde, seul au monde C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'ai vu tellement, que Dieu m'épargne des flammes, moi, j'voulais ma part J'suis jeune d'en bas qu'a compris qu'la réussité passait par l'effort, faut en faire En vrai, les faux diront qu'ils sont vrais Patience est clé d'la réussite, j'me trouverai derrière la porte Toujours bouillant pour ma part, vous, c'est comment ? J'paye le loyer en rigolant, mes potes viennent d'ici ou bien d'Conakry On roule, on coupe le collant, j'pars en guerre sans treillis kaki La France, c'est mon pays mais pour les keufs j'ai pas la bonne peau J'm'habille pas chez Label Peaux, j'ai ma marque, ça passera pe-pro J'crois pas qu'on est les mêmes parce qu'à seize ans, j'avais un pe-pom Pilly, pilly, pour qu'ça pique et quand t'es placé sur sa gratte J'ai vu tellement d'trucs en vrai, j'vais prendre ma daronne et m'barrer Tous les jours, j'suis d'attaque comme Monkey D Luffy J'rencontre que des lles-fo mais pour l'amour, c'est pile ou face J'écrivais sur des prods YouTube, j'avais même pas d'WiFi J'suis l'chef d'en bas qui rappe mais bon, j'peux t'aider s'il faut J'suis jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand ils serrent la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'aime la pudeur et la pitié, pas la laideur et le spectacle On n'a plus l'temps nan, quand j'suis au Japon, j'dors chez l'habitant Le Halloumi dans la pita eh, la balle dans le pétard ouh Le tir dans l'habitacle, noyau d'olive qui casse tes chicots en quatre ah Et les dollars, ça sera jamais de l'or jamais J'crois pas qu'on est les mêmes parce qu'à dix-sept, j'dormais dehors jamais Crapuleux, coïncidence che-lou, leurs mains sont granuleuses, cramées on croit aux canulars, on craint aucun nullard J'ai des poids sur le cur, j'sais pas comment les aborder Quand j'ai des sautes d'humeur, j'suis obligé d'me saborder Ça vient d'Paname, ici, on a le savoir-faire J'ai des ennemis mais j'aimerai pas les savoir deads Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA J'prie pas que quand c'est dur, laisse-nous gérer la D.A Les miens priaient pour toi les miens prieront pour toi Les miens priaient pour nous les miens priaient pour nous Les miens priaient pour DA, priaient pour ceux d'en bas J'suis l'jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand il sert la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi On a grandi salement On n'est pas les mêmes, eux et nous, selon moi C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi1</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEVGİ</t>
+          <t>Gnghetto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hyata glmiik, sevk, sevilk Sevinci yaadaq, qmi itirk Sevgi bdidir, bilinmir ya Yasn ömrümüz sevgi ya Ömür bir nmdir, dünya tamaa Dymsin sevgimiz, dymsin daa Göylr l açb, sevgi dilyk Gülsün üzümüz hr arzu, dilk Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Eqin nsindn dadaq doyunca Ona könül verk illr boyunca Ürklr birls, alm nurlanar Mhbbtdn gözl hyatda n var? Kimins ilk eqi dalara dyr Kimins sevgisi dillrd gzr Hr ksin sevgid bir qismti var Leyliy, Mcnuna bnzyin, dostlar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Sevin, ey insanlar, hyat gözldir Sevin, ey insanlar, sevgi zldir Yolunda olsa da uzun ayrlqlar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar Mhbbt hr zaman bizi yaadar</t>
+          <t>34 yamda al bamda Götürdüm mn yen rep qlmini Uzaqlan burdan, yaxn durmayn Dümyin tsirin zlzlmin Sim salabm, vur tbilin ver Zmannin tlbini Msti-xumar, bsdir burax Gl zirvd olan qara bir bax Ala, intibahdr, el indi vaxtdr Rep demir Ülkr gör neç vaxtdr 10 il fasilnin özü bir taktdr Aktlar braktr, buraxmr vaxt Takt qurub özün, buna bir bax Mikrofonda Ülkr Repd çoxdan sgr mn shndir Sngr güllm, stirim qulaq gzr Klmm kimins xtrini zr Biri xeyrini görr blk meylin çkr Danma mniml jarqonla Yorularsan shr qdr pardondan Slow motion, this is fashion My emotion is microphone-da action Holy! Holy goddamn Who mama? Yen, yen mn geri glirm, ya, ya ya ey Dli-dolu bnd mnim olur, h, ya ya, ya ey Hr iponum srt tlf olur rqiblr ey I'm mama boss, bilirlr zldn, ey' Yen mn mama Qorxulu yuxunuz yerindym, mama Shnlriniz glirm, mama Mnalarm düür drin, mama Mama-mama-mama-mama Kim indi qul? Kim indi cool? De Sn n qdr lazmdr pul? Ki verim kin qusan azn yum Mni danann yaralarna basram duz Bulanq sularda üzmürm tk, bu ii lazmdr düz elmk Mn oyundayam, bil sonunadk Sonunda sonuncu gülndk llrdir mn oyunda ey, çox otardm qoyunlar ey Dyiir zamanla qaydalar, amma mn ölrm, yorulmam Kim kimdir indi bildim, mn gör kim ki indi dindi El özün tsdiq v n stil, etsn d Mndn on qat skiksn, sn bitch Çk, çk slowly Tk-tk show me Rng-rng wholly Ya, cash only Bacs baxr hr gün Paxllq edirlr dörd gün Says çoxald düzgün Gncliyi keçirir üzgün Sayloony rep gtirir db Tomiris-m, parlayr zr Ssim de, brk Taxtaya nrd Cypher srt, my flow, glow, mrd Trzimd cool, tk-tk brk Baku on the map, I put that Bitch mad, suck my gat Rich fat, i got that Eat work, keep work Sn bir, mn sot Beat drop, smoke crop Klm flip-flop, budur hip-hop Geclr treklri yazram, h Görürm qlblri, vururam mn Girl MC, n dbli modellrdn Olmad bu gün göstriln Uuu yeah, mn n var? Bu aralar gözlr çarpar Uuu yeah, biz n var? Birlir axrda uzun yollar Ya bitch Ghetto-da böyüyn bblr, ey Küçd döyülür gdy, ey Bouna Bia-n hdl, ey Hdl, gör bi' bdlini, ey Bahal söz ya bahal chain Brain empty, bahal yin Drain dodaa, bahal mey Daha female, daha bi' male Hdfi blli, sbbi deyil Küçd gey, bu evin by Küçd sakit, evin deyinir Küçd paylayr, evin vermir Bunlar uaqdr, bu da fing Bel bir eydir, el qng Bia bi' irs, bura me Ssi d n duyub ek Blunt, bass sanki lava Cash, drip, balaklava Bsdir bu qdr drama Coco qarb qana Fuck the fake Fuck the fame Ya so lame Taxmayacam saxta chain Frqlnirm, istmirm saxta gang Necsn? Bilirm, deyilsen loyal Vaxtm yoxdur elyim holla Hold on! Çhray saçlarm sol qolda AP parldayr, çox zordur Yerini bil Gimme the loot Saf edir stil Hamya cool olan Mn üçün shit Dyi düüncni Mni eit</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hala Bir Umut Var</t>
+          <t>Sorun Var</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dardan size ne kadar sessiz, hiç konumuyor derlerken Kafanzdaki seslerden sar olduunuz oldu mu hiç? Her gün kabustan uyanr gibi uyanp Bunun bir kabus deil Hayatnzn kendisi olduunu anladnz m hiç? Kalp ritimlerim yavalyor yavaça Artk beni kurtaracak biri yok Biliyorsun zaten deiim yok Hâlâ aynym, iyileesim yok Kafamdaki düünceleri anlatamam Anlatsam bile anlayamazlar Biliyorum aslnda her eyi ben Açtklar bu yaralar kapanmyor Gözlerimde kayboluyor hayat, bilmeseler de Kendimi attm uçurumlar bir tek ben hissettim gösümde Bçak gibiydi her ayrl, bilmediler ne kadar söyleseler d Binler de gelir, milyonlar da Ama bnim gösterdiim semptomlarda Bir deiiklik olmuyor artk yi gelmeyecek hiç bir ey bana Deitirmiyor hayaller artk, gerçek olsalar bile Bir kalbim vard ve artk yok Onu attm, geçti uzun zaman üstünden Tandm, kurtuldum dedim ama travmalar öyle demiyor bana ntihar mektubu yazdm yeniden, baka bir çarem var m ki? bilemem Kapat beni bir odaya izle Sence içimde hâlâ bir umut var m? Gözlerim kzark her gün, neden? Aslnda hiçbir madde kullanmadm Hep alamaktan bunlar, bilemezsin Yaattklarn unutamamaktan Kafamdakinden kurtulamamaktan ntihar hâlâ benim yanmda Bileimde ne var, söyle bana? Uyumak istiyorum artk geceleri alamadan Yarn umudum olacak m? bunu bile bilmiyorum ben laçlar fayda etmiyor bana Aslnda hiç bir ey iyi gelmiyor anlasana Ölüyorum her gün biraz daha Hissediyorum her saniye daha fazla nsanlar beni anlayamazlar Çünkü ben onlara hiç bir zaman kendimi anlatmayacam Kalbim krk gözümde yalar gidiyorum yavaça buralardan Öldüümde sadece bir kelime çkacak o kanl dudaklarmdan Kaybettim tüm gerçei zihnimle olan bu savamda Tanrm duy sesimi bu sefer bitirebilirim her eyi Tanrm duy sesimi delirmek üzereyim yemin ederim ki Duy sesimi, duy sesimi, duy sesimi Peki siz hayattaki tek umudunuzu Sizi kurtaracak olana Srtnz dönüp gitmek zorunda kaldnz m hiç? Ksaca doktor siz hiç kendi kendinizin cehennemi oldunuz mu?</t>
+          <t>Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet sorun var Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da Skldm, saydm, hep yalan artk Skldm bütün her eyden Boktan fikirlerden Bktm her eyinizden Her ehirden Skldm senden Skldm her eyimden Doldu kadehler kendinden kendinden Kendimi esir almken, sorun var Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasamda, zorlama ama Kalmasamda, arama beni bir daha Yoktu zaman, yok Yoktu para falan Çoktu acm çok Bastn yarama bana inat Bastn bana inat, ya Döndüm geri sana ya Sövdüm sana biraz ya Kzdn kara mizah ya Salma ona bir daha ya çtim durmadan ya Sardm oumu, yak-a durdum susmadan Evet 'sorun var' Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasanda, özledim seni ama Yoksun artk yanmda Bakalarnn lafndan lafndan Yanmda bi' gece kal kna etmekten oldum bi' hal ki kadeh de yanmda var Naz yapma kendini bana bi' sal Yeni masal Saçma gelir yeni bi' ak Sen yokken her ey uzak stediim tek ey seni duymak Telefon elimde keke arasam Kalmad cesaret ben darmadan Halimle nasl yazaym sana Böyleyken evet 'sorun var' Evet, sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada1</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Düşerim Ağır Ağır</t>
+          <t>NEYSE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç, hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak düüp durur masama Kaderin elindeki zar Gökler hapis, kimisi mezara firar Etti senide sonunda canavar Sistem bitik, senin tasman ufak paradan Kirli sesim çarpsa duvarlara ya Kaplarn ardnda saklanamam Krar basamaklar ayaklarm risk al, dur Kafam kalabalk stanbul gibi Gezip gördüm hiç vaktim yok, hiç Dönüp durur bam hiç halim yok, hiç Sabahlarm yarm ah Krlyor zaman Giderim bu defa, sokaklar yakarak Ya varm ya yokum, kalamam hiç arada Ölüm bi' tandm gelir gider yanma Her gün her gün daha da Her gün daha da her gün daha da Düerim yukardan ar ar Gücüm tükenemez hiç hafzam yarm ah Ne kalr elinde bütün geceleri yak Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Tüm üstüm bam çamur, yürüdüm her gün yolu lek bi' cadde gibi görmüken onca yüzü Bardaklar hala dolu içimse alev dolu Olsam da buz bi' cehennem çok uzak çk yolu Bi' sonu yok Yürüdük epey uzun yol Günler haftalar ölüm gibi kovalyor 5 kii arabam yine deliyle doluyor Telefon çalyor ama boa çalyor Ürkek admlarla kaç uçurumdan uzakla Yüksek binalar alçak insanlara kar ancak Hesap kitap yapar zamandan onca çalan saf Ve dat kafan dat yarn yokmucasna Kanmdaki zehir yenilenir ah Yenemedi ehir yenilmedim daha Eritir asit kurallarn Devirmek basit duvarlar ya Bu geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak Geceleri yak, geceleri yak</t>
+          <t>B-B-Bugy Bi'takm tipik tip bölgemde Bi'takm talihsiz söylemde Tümünün tüm ipliini pazara çkartp Açk açk göstercez Neyse ne ki bi de deyse neyse Bi kyas bi kuple bi piyez Gri bulut ve boz bayku Ne niyetle istendiyse öyle Kin sandnsa hayr rutin kaygdan böyle Yine de ruhuna salk paam Tabi, bi tk daha fazla shat di mi Aar, yine de sen ya adabnla baar Ya aalkça yaa Bilirsin çardkça baa bela Ki belki daha daha fenas tepende her an Ben almym aga desem de yine bana çatar, yeter Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin Pek içime sinmi de deil hani fikir Beyin, beyin ile düün Deiimin için tek çözüm Tek gözü görür onun dier gözü özür Çözülüp uzla, ya da yine neyse ne Israra kzmam da paam aha,aha,aha Ölücez hrstan, sen sal keke sar Aga hepsini öder hesap ne kadarsa Ve bende ite neyse kalan Kimine ilah kimine maskara falan Felakete dair fena bi' plan bu lk bi belirip pei sra kaybolduk E, kimimiz haketti de kimimize ayp oldu Ve bu meseleyi iyice bil diye öyle diyim Kenevirin yannda naylonsun Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Trap House</t>
+          <t>Serbest Stil</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unuttum seni Edokaleen Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Lütfen uzatma, ey Gülün, yokmu gibi yarn, sanki yokmu gibi ölüm Tokmu gibi karnn, solmu sanki çiçeklerin Doluyo'sa iki cümleye de iki gözün Nefretini yen, dön'cein kap da benim Hayatmda yalnz olmak kalc tek çözüm Ama u an ihtiyacm olan para deil Hayatmz dizi madem, bu kaçnc bölüm? Silahn orospu çocuklarna çevir Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Uh, u-uh Gelme, bana istediimi verme Derme çatma hayallerimize perde çektim Yayorum mutlu olduumuz günlerde Madem böyle oluca'z o zaman hiç güvenme bana ve dütüm sana Bi' kez daha valla kaçar giderim birden bire Kader sorarsa sana görmedin beni, düemem daha dilden dile Büyüdüm, dert ekledikçe izledim ve güldüm Utandm iyice, Dur, dedim, be Chavo büyüdün Umarm seni beyazlar içinde görürüm O zaman gerçekleir beklediin ölümüm Allah'nz para, cierlerim is, cierlerim kara Yanlmadm çünkü harbi güvenmedim sana Umut deil, lütfen artk silah verin bana Gözlerim kara Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Yabanclatm resmen, braktm kadere, inanrm, elbet gelir Çok yorgun dütüm Ya, bir gece karmda belir Ya Arasan da beni çok geç Kald heveslerim kursamda Lütfen uzatma, yolum yol deil Ölüm on be admlk uzakta Arasan da beni, yok yüzüm Söyliy'cek sözüm, artk çok geç Lütfen uzatma, ya Lütfen uzatma, ey Karlamak çok zor, gördüün aynadan kaçmak, daha fazla delir Elbet gelir, bir gece karmda belir Uh, u-uh5</t>
+          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lispo</t>
+          <t>Bağımlılar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Não há nada que eu sinta desses rappers mofinos Só escrevem é rimas 'pa pussy Só causam sarilhos Não investem nos filhos mas mandam calinas da gucci Tão perco o meu juízo Entro no circo onde atuam os filhos do Luci Sem sequer um aviso Liberto o meu skill e aperto o gatilho da Uzi De volta ao ativo de novo 'Tou a seguir o meu sonho Mas não 'tou ao Dormes Tenho apetite de lobo Aviso te, jantas comigo não comes Rappers só escalam 'po top yah Sem escrever nada que incomode yah Fuckit eu fodo os a todos sem esforço Dou lhes motivo p'ra me odiar Venho da zona do Sam Da zona do Snake Tão não dá 'pa ser average Só dá p'ra ser great Tão toma o meu rap da cá o teu respeito Não sei se 'tou cego, não vejo outro jeito Não sei se é do ego, não sei se é defeito Ver tanto boneco a querer ser aceite Com rimas sem nexo, a verter azeite Eu fico perplexo, e insa-tisfeito 'Tão não tenho outra opção Sem ser maléfico enérgico quando pego no rap 'Tou tipo em battle com o devil Sozinho em guerra na selva Faço isto, no matter the weather Boy tchecka bem o meu level Tou sem conversa 'pa gellous Sou mais um puleka de Chelas Dum tipo que apela à cautela Meu estilo é Bera confere O poder que fere o teu ser Manka que a barraca Abana enquanto Eu tiver ao ponta pé na parede 'Tão espera 'pa veres Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos Bué patetas à má fila A fazer birra 'Pa ter guita, sem rimar um peido Eu na minha a montar dicas 'pa acabar C'a competition e tirar respeito Não é a fame nem o hate Por ninguém 'Tou apenas avisar o game Nenhum rapper me intimida Se tiver de haver uma briga para ocupar um space 'Inda te aleijo Porque eu posso Rapper Quando duvidas do meu skill Boy não gosto népia Quem és tu? Puto eu rimo até c'a tosse seca Fuck you Tu não rimas nem que dropes merdas no sumo Cada um mais estúpido cu último Sem terem consciência fazem absurdos num estúdio Pseudo-vedetas com bué da bullshit music E eu quero entender é, como é que o público curte disso Boy és wack, queres o quê? Já és rico Queres chatice, Caga nisso, se tens um filho Pega o guito e põe num buiz quick Antes que eu te afunde a carreira e tu fiques liso Levanta a bunda da cadeira let me sit please Mano a cultura tá cheia de tanto pique nique Da para ver que a tua plateia 'tá deep sleep É quando abro a torneira patdar o big drip Eu conto os dias, bruh Já tenho um filho, bruh 'Tou de volta ao activo, bro Tanta energia 'pa dar E tu só me querias parado Got the power Got the juice Eu tenho a fórmula 'Pa te dar o teu consumo Eu tenho a escola Paguei caro O meu percurso Eu tenho a aura 'Tá na cara Que eu sou puro, yah Palavras 'pa graúdos</t>
+          <t>Bu, bu yol yaamn ba Her gecenin sonunda aryo' ban prrr! Üstümde kapon, bere ve de bol pantol Çavo eklim nasl? Keyfim yerinde kur kumpas Bize denk deil her biri çöp torbas Her gün hustle, bizi göster basn Ölüyo' çocuklar sen bardasn Belimde kütem, çakm bakn, bakn ya, ya, ya, ya Yeni bi' akm ve GNG zirvede Bakn topland takm Torbada bakr, külüstür araba, aküyü kapn Sakncal ghetto, yakn tenekeleri, bir adm prrr! göz parldasn Daha zaman var Kapal kaplar biz açcaz t, t Duymadlar, bu gece kurala uymadlar Patrt var, Ose gel parann kokusu geliyo burnumuza Çabuk uza kes, kes Zulala tulann arasna Yaknda kokusu çkacak acaba ne ki? Bu çocuklara batacak ucu Yakacak inini ekibim, onlarn suçu bulaacak elime tozu Sorun ne ki? Boyun deil dengim elbette ki Derdim ne mi? Derdim göremi'cem o güzeli cennetteki Bu sokaklar dar dar Her yerde bamllar lar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar ah Bu sokaklar dar Her yerde bamllar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar Sokakta bu gece bamllar, ah Bu, bu yol ölümün ba Duruyor köede bamllar Kaçnz kurtuldu bu bokun içinden Yakandan tutuyo' skntlar Ölümün nefesi ensene deer Bi' gün yakalar Bi' gün bitecek bütün tasalar Bizi balamyo' sizin yasalar Nasld bu? imdi tek tek oturdu talar Gökyüzü dolu tüm sevdiklerimle Hiçbir yldz kaymaz da oradan ya prrr! Yasan tut hadi, kustum dün aslma dur Çoktandr içindeyiz sokan, deli deilsen yerinde dur dur Biz her gün öldük, doduk, içinde batan gördük gerçei Sen nereden bileceksin? Bu durumda olmak kendi tercihi mi? Yok oldu gençliin gerçi, dönmeyecek bugün bu devran Kurtulacak bütün çocuklar, ölmeyecek sokak banda Sanrm anladn bizi, GNG, narkotik, Murda ve Uzi ya Vidos ayltr adam uzaktan duyulur ''hayrdr? sesi Her sokak bi' film karesi ya, kanna giriyorlar Gençlerin tedavi çaresi ya, anneler alyorlar</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FLEX SO HARD RMX</t>
+          <t>Tehlike</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ayy, it was so hard writin for my dawg I said damn, where am I gonna start? I know to yall, he appear a pair a animal like Noahs Ark But I know he soft You try anything on this stage tonight, and Ima throw you off And have Rock on his back like a hot stone massage Yeah, I know you fraud I know he fraud He aint never take no trips for them long plays I told Shine, Its a different typa butter in the park, K Parkay I put soda on the water, make a crystal out of soft clay Watch it sizzle in the pan, thats somethin you never saw, Tay sautée I had them shootin up every night, man my scale was jumpin I gave them straps, spoons, needles, anything that could help wit somethin We aint even know the police was there, sometimes you could just tell they comin Its like Midnight Madness, everybody left and had me givin out belts for nothin Shells is dumpin Yeah, I just talked to my plug last week and he told me that some bales is comin And if he throw you work youll snitch, yeah you could tell he frontin Big blade, from the side of your ribcage to yo belly button Or I could make him sit wit a thirty, I R. Kelly somethin Tell me somethin Why you aint never learn nothin from what the staff offer I mean, even when yo career was bad, awful All we heard was, Get that nigga Roc!, and you aint see how it was bad for ya But now do the inflation, we see how much that gas cost ya They put Roc in front of a Tank, boy this sound like Donte vers Gervonta Im on your lawn, Tay Wit a long K Bout to pick a bitch up in front of the crib, its a prom date You know why we dont get along, Tay? Cause I know you never gave a shit After the fight, I was on the line everyday wit Brizz Like- like where you wanna take it, kid Yeah, we kept watchin the footage back tryna see who on stage and shit I seen yo man jump front line, yeah he always down to take a risk I guess Chess was just a pawn that take a risk Why you aint jump in that brawl? Oh its makin sense Its like the police breakin up a catfight Tays tase a bitch But do you know the real part that kept makin me sick? Its how we said a line about a nigga moms and you screamed out, Say it again! Bro it was regular shit But you put so much emphasis on it, you made it a magnificent moment Mook thought we was tryna diss while he mournin Then some fists got to throwin Boy you moonwalked yo skinny ass to the back stage Put glasses on and was back laid Makes sense to me, cause we know he met his baby mother on backpage Why you aint tell em that, Tay? I guess I gotta be the shit-starter Tell em how you was scrollin online tryna skip the gays and she became a list-crawler And had the bitch daughter Look look look loook look Ill hit all ya, Im rollin through ya neighborhood wit two straps wit me The sign say 35 but I dont do that limit Im creepin in a car wit no tints, they like who that wit me? All they see is me smokin Rock through a fishbowl like New Jack City And he a bitch We aint never seen him swing a bit Joe Dirt we found out Rock was a piece of shit And yall wanna know why Ima end Titles too? Cause Im entitled to A real nigga like Nas album wit the N title too I heard you had a love triangle, and had two men fight for you Then got mad when they aint wanna come and spend nights witchu See, I got a invite for dude from like midnight to 2 I slide on a Street Fighter, thats a M. Bison move Smack, why you been payin this nigga pennies bruh You know he just now gettin his own car? I mean you made Roc see rentals Roxy Reynolds his whole fuckin career like the pornstar Who knew Id be a mogul? I was stuck on my trappin shit I started on the corner then moved up to traffickin We was broke wit cocaine dreams, nigga that was it I learned from Craig, when life beatin you up, you grab a brick Ayy Roc, we aint have us shit, bro I really had to pitch these dimes I had the border locked down on my Brittney grind Grin You wanna tempt me? Fine Ill make this bitch recline I had the chop in the corner like Ric Flair, and I done hit the Title 16 times Bitch Bro I done been to Edgewood nigga, I seen yall world Niggas press, yall fold, I done seen yall curl Chess cant even hold his liquor, we done seen yall hurl They had to hold the Title up like a ring card girl Ayy, but I do thank you For comin to see me as a man, Im too grateful Cause for years he been runnin his lips but let his crew save you Ave, Surf, Chess, I made a few angels Wit bullets the size of Belaire bottles, the blue labels You lost over half your members and now your crew hate you So all Top see is a autopsy, yeah thats the closest hell ever make it to a cool table First Ave and Kannon left, I said, Damn, what the fuck is this? And then Brizz left the group after he seen he was a fuckin bitch We watched you change Chef for Chess and a buncha other Crips Like if he kept the Wave around, we wouldnt know this nigga jumpin ship You dumb as shit Thats why my careers outlastin ya Im outclassin ya My gun got probable cause, so whoever ridin wit him, itll takeout passengers Slowly, we seen your fangs comin out you bit everybody that was down bad for ya Accusation after accusation, you know how many we can Count, Dracula The coroner gotta yo shit, I had the White mixed wit the Brown South Africa I heard you got wit a tranny, then kissed your baby moms afterwards They say you made him a bubble bath wit a little bit of lavender You nasty, bruh Concrete Yall niggas aint fuckin wit me Concrete They aint fuckin wit me Ever since you tried make it known that you want take the throne Vibes between us aint been similar since scents, we aint usin the same cologne Night Of Main Events I chiseled this date in stone N-O-M-E this card wit no me, it aint a NOME Change your tone Theres no chance for you They wanna know, if Brizz was cool wit the both of us then where he stand loyal? I like surprises, dont let the plan spoil But I aint one of Bizzy busy friends, its nothin but Thom time on my hands for you Blam on you Special beam on the cannon Piccolo Bangin it, hangin it over Top mistletoe Unload those I used to sell whole Os Even fake white and in the glass like all the official snowglobes The coke sold, I had packs there for me And I sold dope, it was always some kinda Smack there for me Back then, you couldnt trap where we be Niggas wouldve took your herb, honey, and your Blackberry, T tea Who brought this fat Bear to me? No Grizzly, I see cubs I let a shotgun lick out a shell, youll see slugs Fuckin wit Roc, I wanna see blood Lemon squeeze, thisll hit his lip then Lipton sink inside T tea mu- You didnt know? You standin in your very own plot Imagine the pallbearers tryna carry yo box Imagine Hes heavy as fuck Ayy, imagine the pallbearers tryna carry yo box You gon end up the one they carry home shot Get the red beam on his forehead thats the cherry on Top We at war Whatchu thought I brought this mask for Rappin bout drugs, til I crack Top in his glass jaw jar I pop and thats when somethin collide A casket is what they had to build the Bear Build-A-Bear to stuff him inside Youll get beat and battered Upside your skull, til pieces shatter Inf beam charge up wit a USB adapter A vest wont even matter Squeeze the ladder Kings vs. Queens these Clips spit, and you gon see Jesus after Heater clap ya Send a fragment through they shirt Remington shell look like a mini Kool-Aid Burst Im that hostile When you battled Charron, that cat fried you And you lost against EK, G EKG he flatlined you Question is you high off E or Eeyore a fent Perc Bounce like Tigger, I pull this trigger, your head burst And I could see I hit the Bear when he Winnie got a red shirt I said Eeyore, Tigger, the Bear Winnie got a red shirt Semisll pop If he survive, his weight vividly drop Yall aint gon know that it really is Top Hell get out the hospital skinny as Roc Like Tommy from Martin yall gon look at him, and yall aint gon know if he Bizzy busy or not Youll really get shot in this out of town arena Or pistol-whipped, get blood on something I copped out the Houston Galleria Ayy, Top You play today, split his shit, grab a heater Top fadeaway Jada Pinkett-Smith, alopecia Middleman actin like he the head of a cartel He done signed up for this, and that shit wasnt thought well This 30 curl but it dont be a barbell Duck your taco, if I catch him on tour, Tll tortilla get a hard she- Your skull s- Its me Im chillin right now Im tryna chill Ayy Your skull swell The body rot, harsh smell I just caught the Bear in a trap from a trail of some Lets see if he still talkin in that freshly built coffin Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight- Youre dead nigga Fuck outta here nigga Its me, nigga Fuck is wrong witchu nigga I said Unload a shot, open up top its a milk carton Real Spartans, we spazzin Still sharp then keep slashin Feel heart then keep stabbin Wheels parkin, he dashin Steel sparkin, heat clappin Bang Glocks, see action Eight shots, speed past him Graze grays Top Sheed Happens BITCH, BITCH, BITCH, BITCH, BITCH ITS ME ITS ME IT IS ME THATS LIGHT Bitch Fuck wrong wit niggas Ayy Graze grays Top Sheed Happ- Boy, yall see how I beat the hell out my kid? Summer Impact, your fat ass fell on us, and thats the only time I fell out wit Brizz Bitch, youll get hit wit every shell out the SIG He aint keep his eye on the baby, then Bizzy busy body fell out the crib Peep, in battle rap, Im action packed You aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All yall see is the bottom of Top, read the Snapple Fa- I pack a strap- Thats liiight This shit easy I swear to God on my fuckin kids Its easy Peep, in battle rap, Im action packed He aint even half of that Who want smoke wit the Titles? We can have a ladder match Matter fact, Magnum clap His upper half detach from that All you see is the bottom of Top, read the Snapple- I pack a strap wit 30 R.I.P. Bernie the Mac is Black Grab a gat 8 throwin bullets Matt Hasselbeck Casket nap Kick in the door where he trappin at Have him pourin all his Os out his bag it look like Apple Jacks Bitch Its me Hold up Im on you nigga You got me fucked up Im on you Im not done nigga Yall thought I was done? Im not Ayy Have him pourin all the Os out his bag it look like Apple Jacks Thats a fact We dont even know what tier he is Outta you and Rawsteen, all we wanna hear is Brizz Wit the suppression, you could still hear the SIG Noisy ass shot, point it pointed at Top like Egyptian pyramids Here it is You fake showed me props You phony, stop I used to think that we was homies, Top Now I know we not You trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Bitch Easy, Beasley Nah, Im not done I used to think that we was homies, Top Now I know we not Trollin Roc? Grab a clip, start loadin shots Pop up in the Bear crib unannounced its Goldilocks This ho forgot Watch what you say, I know a lot Rawsteen used to roll wit the Cave, you roll wit opps When you battle me, you get straight bars cause my flow is hot I dont dig up dirt, I make sure the dirt go over Top Thats liiiight This bitch is dead Easy, nigga I said yo Bro, now when I first heard you was fuckin wit trannies dawg, I said, Come on, Tay I was more disappointed than mad, I made the palm face The nigga said you tried to take him to your moms crib that was the wrong place Told his wifey he was chillin wit the guys he made a strong case Now I dont know if the nigga name was Fred and shit But you definitely was askin that nigga for some head and shit He had blue hair like your baby mom, thats when your lil fetish hit Makeup wit the painted on reddish lips He said, Nah, nah, it aint what it look like, family Yall know how I say its coke but it cook like candy Well I believe the accusations, and it took light plannin Cause both his baby moms and his girlfriend look like trannies So I believe it Now when you first started fuckin wit that bitch, bro, I bet you thought that it was all terrific New tricks in the bedroom, she was awesome, gifted All submissive But since the footage got released out by all them critics We cant even call her sister We dont know who balls she lickin Hypochondria we startin to look at Caution different This aint at all a gimmick Cause when we want a quick visit, we just call a name Bro you married a slut, a who- a- boy its all the same But you think the shit is all a game Got robbed for your fake jewelry then went and got a ball and chain Whats up wit this fella? Bro you was supposed to hit it then quit it, but you cuffed it and settled Why buy the cow when you could have the milk for free, you coulda upped and just left her Now I dont know what Roc owe Rocko in this Modern Life, but now he stuck wit that Heffer Bruh they aint gotta like it nigga Shut up But now you stuck wit that Heffer Just do your thing, just make sure you can handle it first Cause I see you tryna make a family work And you even put a ring on Caution like a Amber Alert But I guess that was the love in the air Bruh we told you she was the biggest slut of the year And you had the nerve to s- What the fuck i-, it was us tryna put a bug in your ear Stupid Stupid You fuckin idiot We told you Ayy, but he aint wanna listen, I guess know hes hearin it Yeah, everytime she get her ass beat, he responds wit arrogance I done been through baby mama allegations, I coulda showed you how to handle it But it cant come from Bizzy the Bear, you gotta talk to Bizzy the therapist T-Top puts on glasses and holds a clipboard Okay, now Accordin to my notes, you been like this since a boy Seein pictures of your wife bent over was somethin you was tryin to avoid She said he had her lips out wit cum stains, you shouldntve wifed that bitch at all You mean to tell me you run the Cave and didnt see the writin on her walls Nigga naw Nah nah nah nah hold on, hold on The second thing it say, right It say you cant get mad when niggas say that they had her, too Yeah nigga dont be showin no attitude You cant let them niggas know that they damaged you Its the evolution charts you supposed to walk away as a man, but you start by actin like a animal Thats totally different The third point, stop contactin niggas askin, Did you have my girl? Di- did you have my girl? Nigga you done lost your mind You up there late night arguin wit niggas, thats what put you off your grind But we all know Scorpios is freaky, and you shouldve paid more attention to Caution sign I said ahh See, thats why your bars no longer move me Your whole crew remind me of YSL, right, but that was all part of the movie Cause come to find out, she started givin up the coochie to a nigga named Lucci Oh my God Yeah thats why you shouldntve never wifed the bitch You got him sendin threatenin messages online like we aint just watch that indictment hit Yeah, sometimes your pride get in the way and we can die as men So if you aint got real beef wit Lucci then why offend YFN? Im just askin, and I hope you could set the record straight You tried to send that man to Heaven gates Was ready to kill Lucci like he was beatin on Reginae You gotta do better, Tay Audience member says, Fire I know it was nigga Dont say none Ayo, you gotta do better Tay See, sometimes you gotta make sure your friends head is straight and that they headin straight Cause you was back catchin for a tranny tryna make it to second base Do better, Tay I take Caution, give her saltfish til her eggs separate That bitch a breakfast See, and one of yo best mistakes Was when you grabbed Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Huh? Why you do that? Why you do that? Bro Yo best mistake Was grabbin Jakkboy Maine chain like, What the fuck is this?, knowin the one around yo neck was fake Do you know what fraud you have to be To clown a man about his chain when yours cost half the piece Thats why you do not got my respect Cause two weeks later, you let niggas take what you rock round your neck And come back wit an even faker chain that say Roc round your neck I come wit a Glock 9 and a chop round my neck Give him 23 and 1, thats that lockdown effect Bloo blaka from this T is not sound effects I understand you cool wit him like But sometimes you good wit him, then you not down wit Rex You came in the game screamin how Dot Mob the best So it confused me when everyone in Dot Mob had left All that drama round this set It was Roc in this and then Roc in that Niggas took your shit, they had em rockin this and Rockin that Bro why Surf and them Crips aint never ride behind that Somethings odd behind that All them GunTitles but the story red read, nobody died behind that And I know you and Surf honor them things The designers and chains Thats why you stole Brizz battle, cause your loyaltys overridden by your desire for fame Concrete I technically dont need a team, I came in this shit dolo, the big Cave Who put in more work than me on the big stage? He would go on strike again if he knew what I just made You dont get paid I cut up Top, like a temp fade Switchblade Split Top down the middle French braids Whatever bitch fuckin you got some sick ways You look like a orangutan wit clothes on, how you get laid? Fat stupid bitch I can call you that in a slick way Or in pig Latin you at-fay upid-stay itch-bay You aint alert? You knew not to upset me and make it worse Tay is cursed Like June sixth 06 is my date of birth I came to work You shouldve dressed up like you came for church Aim and burst Put the Bear on a tee Palm Angels merch We militant Shit gon get a little vigilant, ignorant Split your shit over a simple incident Pistol whip I will dent your shit wit the pistol grip Spit the clip Big rounds clappin like cymbal instrum- I dont care if Haymakers your weed spot If I was Piru in his Fruit Town, I still aint buyin your Tree, Top Please stop When I cop ammo, they gotta restock I like G-locks Spot him, got him SpotemGottem Beat Bo- The aftermath, you gon see Dots You like a deal on the table, they puttin you in a scope to see shots Listenin for sounds and they think the beat stop They dont know if its The Chronic or they need to Detox Look, theres no drop tops or any kinda cars in this chop shop You wanna see ARs C-A-Rs? Well look, heres a chop Top If he play wit him, he better keep Ks wit him I be ridin round up North, Wess West on my lap Pete Davids- Heat stay wit him Just for the fuck of it, no reasonin You only safe if the police wit him So make a choice chicken or shrimp? Dont beef wit him You missin the flavourin packet? Cause when Top rhymin Ramen, theres no seasonin I have to get at you I know I have to get at you Thats light Thats light, I gotchu though He dont rap like this You dont I have to get at you Rappin pitiful thats your typical Gon make a nigga smack and spit on you Leave a cat in critical wit the ratchet Drive by the candlelight, hit every individual at the vigil Crack the head of you Thats the only shit thats respectable Show up where you live, your kids gon have to ask for medical Ill pull somethin foul out and catch a technical We can start oldest to youngest or alphabetical Thats acceptable Ice pick stab the neck of you Drag the flesh of you Turn you to a actual vegetable Broke chest plate, crack your pectoral Flatten your lung, puncture your heart, slash the ventricle In the hospital, staff is checkin you Bout your pain like, Did it kick in?, but he dont know if its workin like he had a edible Oh you half-man, half-bear? Thats incredible Ill leave you hooked to machines youll be half-man, half-electrical Whats up wit this? I aint the one that you wanna diss This a ass-whoopin back in the 90s I brung a switch Pistol whip, itll hit you hard as a ton of bricks Bust your lips FN a fin in a Bear mouth he huntin fish Fuckin bitch And you talkin bout Caution, some sucka shit Cause that video wit the mother of your child is some other shit But like that video, Ill have a BM pull up, glizzy hang out sound just like your baby mother suckin dick Bitch I will have Caution bust your shit What this faggot thought? Shell stomp you out in slides if you actually fought Yall seen Waterboy, when his girl and his mom had to sit and have a talk? He get a mouthful of Crocs, like Vicky Vallencourt Clap the torch Shoot through you and who standin by ya Smack, he dont want smoke, he Smokey the Bear, he scared of fires In the trap, I used to scam wit buyers and handle liars I swear shit was a battle every week, like Danny Mye- Boy I thought you knew that this kid is an elite It look like you say fuck the company and this the misery you keep This tool buck, put you infinitely to sleep Ill pull up like a food truck and leave Bizzy busy in the street Hit you wit the heat Clap up whatever he whip today Thisll leave all your tires flat, Top flattop. You think Im kiddin, play Kid n Play You in the way Lift and spray Clock you out, put this 9 to 5 and end Bizzy busy day I bring a Glock Or a big nose King of Pop Pull somethin from the side and Top gon drop, like Jenga blocks Niggas play and wanna call out me End up in a morgue tryna figure out how he died, and thats all Top see autopsy R.I.P Bitch Blade to his face, push force through Then right through the stomach, shuttin down a organ or two Then right through his foot, steel in his heel like a horseshoe Whippin a lot, I twist it in Top like a corkscrew I warned you Now Ima show you how the shit goes .38 big nose Double barrel Swiss rolls Catch him in traffic, TEC wit the Swiss holds If you dont have a MAC Mac on your lap, Top laptop, thisll hit your Apple through the Windows Fuck this battle Thats light I say yo Yall wanted to talk about the strike, right? You and your man Yall wanted to talk about the strike, right? See what I tried to do was take battle rappers from makin regular bread to really seein em checks Shit, I was really believin in that We all put our contracts in a group chat just to see who would rat And Rain told me everything we put in that muthafucka he was feedin to Smack Thats a fact Thats when I found out the hate was real Cause he kept sayin, It gotta be Suge, it- it gotta be Suge, and then we found out it was Tay that squealed So when yall say the strike ended too fast, I was feelin the same way for real But you know when your co-de start snitchin, shit you might as well take the deal He been top coppin Yeah if he had a kilo in front of the boys, they would not lock him And I done gave the people L bowls elbows, but I can never tell Roc bout em Rock Bottom You wanted a rematch? Cool, my nigga, I put the grips on him I heard he Rollin wit 60s, well hats off to tha- I put the Brims on him Nigga, stomp him out, yall gon see double soles I put the Timbs on him Take his daughter, she been gone so long, the milk carton say Brizz on it Ill put a knife in his ribs then put a spin on it The slab so big, Houston, I put rims on it Yeah, and if we was locked in a room wit no cops, I get it poppin wit dude Solitary confinement is what we not gonna do Cause Im a sneakerhead, it would hurt my soul sole to have Rock in the shoe But you know the point when I stopped rockin witchu? When you told the world, Ill be back Ave, and then you left that man to die in the hospital COVID-19, ventilations, we couldnt even see his vitals move Then you hung yourself marryin Caution, she just wanted to tie the knot witchu Ayy look, ayy look All that gang gang shit tonight, you better stand on it Gun Bar King? When you had a Calicoe in your face, nigga you aint put a hand on it This your damn warnin All that almost about to fight, nigga knock it off Or its docs involved, bandages and cotton balls Swellin here, lumps is there, a whole bunch of knots involved Caution tryna get the swellin down, Ice Cube and Rock like Ride Along Yeah, I got the call Not from Smack, from Baltimore They say he do not be wit k- I know, Shine I know, Shine Yeah, I got the call Not from Smack, from Baltimore They said he do not be wit killers His gun bars is just bars, he will not pull a trigger They tried to give me dirt on you for a whole lotta figures I said he the little bitch followin Wave, I dont need no mo on a Moana nigga I got a whole lotta hittas And when you see em, boy they loadin Rugers You said somethin bout on sight wit the MAC, well they dont own computers I dont care if you got Eazy or Chess witchu, Im still sendin over shooters And whatevers under Rock get ate, like Timon and Pumbaa Bitch, bitch, bitch Okay, we got some math to do Bruh tell me how the fuck I came in after you and still end up passin you Crowd affirms, yelling, Facts. Big cap The biggest cap They said facts They said facts Yo, ayy ayy How the fuck did I come in after you and still end up passin you I mean that might not seem right to the masses, cool But dont act confused Nigga my first year in it I did the BET Awards, and then came back for two Yeah, rapid moves They never asked for you Netflix specials, I be actin too Yeah, Funk Flex Freestyle aight yeah, that was a nasty move But I still got business ventures, different avenues A record label that I own all the masters to A studio, big artists be passin through I got Kids World Giveaway, yeah thats a app we use to help kids after school Yeah, I got classic 2-on-2 wit Brizz then after that, Jerooz Yeah, yeah, Haymaker, Unbearable, thats two weed companies Im established through Im not sayin this for no braggin tools Im just mad at you And Im mad confused You been in this culture 15 years on average, dude I mean a star online, aint even got a website we could tap into Huh? See, I paid attention to everything you was attachin to The Aves, the Mooks the Smacks, the groups Feel me? You been in this game 15 years on average, dude I mean a star online, and you aint even got a website we could tap into I mean the most you can talk about in battles you done grabbed a boo Nah nah, thats actually cute You know what, from now on in battle rap, thats the move You leave your BM for a chick not even half as cute and get married too Cause thats somethin you been chasin your whole fuckin career, to find out it wasnt worth it like dragonfruit Yeah, I got two nicknames for him in this battle, yeah drag and fruit Or passionfruit They been wanted me to kick yo ass, I just aint have the passion to Concrete Them fake personals can put you in a lotta danger That shit fuels a lotta anger You really be bendin and stretchin angles like usin a wire hanger You not a gangsta Two 9s, both got a laser They look related but aint the same they doppelgängers Free Twork It was somethin I said to him in our rounds It was, You the reason niggas like me gotta battle Swamp now That really go for you, you aint seein the light? If yall niggas wouldve shut him down then, he wouldnt be here tonight Speakin of Swamp, where is that T.I. voice havin ass nigga? Soon as I see the man Get the whole clip a Tiny Tips, the heater blam Run up wit the chopper out, he like, Is we beefin? Damn Then put the sticks on Swamp, look like a beaver dam Back to you, we miss you beein the coke-sellin fat nigga We miss the fake drug bars from this fake crack dealer Now he got all these angles, when you become that nigga? Bill Collector voice we liked you better as the trap nigga Im mad witcha Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef That was cold Bitch ass nigga that was fire You bitch ass nigga Your friends, you should try and replace Theyll tell your fat ass that youre losin weight and lie to your face An entree already comes wit one or two sides wit the plate Why would you order another side wit the plate thats the same size as the plate? You dont want beef, you should diet wit grapes Fuck I need to put it in Gun Titles or somethin? I call the Locs if its beef, you gon die, its wit Grapes This fat nigga wont survive in this place You aint know we got the same jean size .45 on the waist Take this time to think, cause you aint never thought like Your fat ass cant slide down a slidin board or sit on a swing set and be alright Spendin all this time witcha kids at the playground and somehow you still cant enjoy the park life ParkLyfe Boy, I bet your back hurt cause your titties too big for your body, bitch Yeah You bout to body-bitch me? Yeaaah Yeaaaaaah Yeaah Ayy I bet your back hurt cause your titties too big for your body, bitch That third round I had for Official can get remixed for your body, bitch Ima cook him Ima remi- Ima cook him That third round I had for Official can get remixed for your body, bitch You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin Crowd chants 3-0 Ayy T-Top says something to Tay Roc Thats fucked up Im tryna remember where Im at, thats fucked up Ayy You fat body bitch You chicken snack wrap body bitch You got a C cup on the front and on the back body bitch Confused body bitch Pregnant in middle school body bitch You got that wear yo T-shirt in the pool body, bitch Ima keep it goin You got a bad health body, bitch You got a its a buffet, help yourself body, bitch Extra mayo, extra bacon, turkey melt body, bitch You got a stomach overlappin the belt body, bitch Him wanted? Picture that, itll be a large type photo You a soft type bozo But that is somethin that yall all might know though My nigga Crip, dont think my dawg ride dolo A callll have a Bear surrounded in blue, look like a Klondike logo Thats light Now Ima kill him for real Now Ima really kill him Im not even done Ayy Look like a Klondike logo Ayy, Top That Summer Impact shit is old, wit no meanin into it But when you threw that bottle, you shouldve tried leanin into it You aint battle Cal? You could easily do it Ill put a Calicoe in your face before Smack and Beasley do it Honestly I pull a switchblade from the side of me My girl called, I said, When I get Bizzy busy, dont bother me She think I aint got time for her, and thats silly as it gets Ill bring him back split in half thats two Bizzy too busy for my bitch 50 wit the stick And I could silencer the shit If I look and happen to notice him drivin in his whip Like any other hunter that survived in this event If you see the Bear in the field, then fire through the tint I start a riot in this bitch if I grip my tool I aint got it all, you know my mind miss out screws Right, left, the big guy snooze Top floored in the building, gon sound like I get penthouse views You a jokin nigga, you be laughin a lot I pull out one 911 911, somethin fly and crash into Top Your shit split Stand over him til it click click The Bear laid on his back Yogi after the picnic Run your mouth, til its your mouth where a gun is put Son get took to a bridge, and the drop is a hunnid foot They dont know what happened, and they dont wanna look They just know some cat attacked the Bear Shere Khan in Jungle Book You not a fuckin crook Why you keep talkin like you somebody I will tie you up, make you watch, view the body Your bitch take a shot right through the body Then Top the next person, Im always tryn outdo somebody Hes talkin clever Til a boxcutter hit him and carve a letter Like that movie Ted wit Wahlberg, leave the bear wit a Mark forever Sever shit He get hit wit the edge of it Youll be dead as shit Knife in the Bear neck like Im Leo in The Revenant Devilish This murder-for-hire Dior runners, Balenciaga mask, I could purge in designer Pick through his ribcage, turn it behind ya Then let it spin around his neck give him a Hurricanrana Bitch You see it slicin Oh he aint know that Ill kill people like him Skin the Bear then wear him look like a Medieval Viking We is triflin Cuttin ya Leave it stuck in ya Like a circus act how I go for the Bear jugular juggler Im a hustler And he dont know what this element bring I spent a lot on a necklace to bling I copped a orange Charger last year, this year I might do a Tesla in green Or a Porsche, maybe matte mat white like a wrestling ring Youll never be king As long as long as Im here on this damn scene The loyalty I bring in this shit is a rare thing I told Brizz when he was on my damn team Just because he cool witchu, dont mean I gotta fuck wit the Bear, Steen Berenstain Fuck this man mean? I call a gatherin This wha</t>
+          <t>Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Hadi bulualm undergroundumun lk 'rap' bayra diktii yerde At bakalm Disse Diss, görelim kim Battle Winner, sözün 'beat'tii yerde Çakal m iyi, Uzi kullanyor Uzimi yapyor Çakallarla dans Hodri meydan, bak, yukarlar makam Yeter artk, akt sokaklarda kan Durma, durma, gönder mermi Kuru sk mermiyi Ben Fero yer mi? Ezhel mi hakl, ya Norm Ender mi? Bu El Classico deil, normal derbi Farz et, Türkçe rapte ben Franszm, ama Macron deilim Hayki 2 sene Base mode-dayken Kaybedecek bir Patron deilim Eskiehir rap derken akla gelen Allame mi, Joker mi, bilemem Rap silahorunun hakkna giremem Söz sahibiysen, hakkn ver hemen Nedense herkes rapin sahibi Göz ya dökersin bir timsah gibi Hatan anlar Khontkar-dan gidip Özür dilersin ehinah gibi Yakr, Freestyle-a Hidra anere Sokrat ST, Mero-ya Murda Ceza, Turkish Rap God Go home hip-hop, underworld up Soruyorum eski okuldan Salam rap yapan kaç kii kald? Grogi, Kamufle, Defkhan, Aga B Sansar Salvo, Sayedar alt Türk rapi devlet olursa Gazapizm olur müzik bakan Fuat Erkin olur d iler bakan Sagopa Kajmer cumhurbakan Aln teri yerine aksa kanm Gangster rap Killa Hakan fan Ghetto-da tehlike 36 boys Ordusu yeterli Massaka-nn, ey Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Kim? Kim söz sahibi? Söz sahibi Kim söz sahibi? Söz sahibi Kim söz sahibi? Gel, gör, kim 'battle'' rapte söz sahibi?</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Telefonum Çalıyor</t>
+          <t>Ateş Ediyo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>u stanbul tam yedi tepedir Bunlardan biri de Cihangir Yollar kark,bir labirent gibi Sokakta dolr kurnaz tilki Cihangir de tek kapl evde Yedi kii alemde Dalr tayfa,çkarlar sokaa Elli türlü tehdit,elli türlü takla Rasta babay koparmlar On adam evini basmlar Biz orda deildik,olay görmedik Orda olsaydk,müdahale ederdik Cihangir den aaya kaçm Kazanc da sktrmlar Üç el havaya atp,gerisini bacana skmlar Al..al..al.. bi de bunu al Taklaya getirmiler,kafas pek bir güzel Haylazlara kzyor,rastalarn babas Sigaras elinde,palamutu cebinde Her kadna saldrr,rastalarn babas Seni haylaz,seni gidi yaramaz Seni yaramaz,seni gidi afacan Seni hnzr,seni gidi yaramaz Kafas güzel,kendi güzel Ruhu güzel,mevzu özel Ama ona yine tuzak kuruyorlar Yine ona çakallk yapyorlar Orospunun teki peine taklm Bunu bir güzel kafakola alm Bizim rasta ,olmu ona hasta Ona sorarsan ,kar on numara LAN,yola yola yola bir eyi brakmadlar Lan,ne varsa elinden aldlar Bir deil,iki deil,üç deil oldu Bu yollar hayatna mal oldu Iklar kapannca,müzikler susunca Ulumaya balar,rastalarn babs Telefonu çalyor,telefonu açyor Yine dümen peinde,rastalarn babas Rastalarn babas,babalarn babas Çevremizde tam tedi gezegen var Bir güne,bir ay,bir de o var Rastalarn babas evrene smaz Gezer,gelir,koar,yine yorulmaz Cihangir de bir gece oldu Gecenin adn rasta baba koydu Allem kullem,haytalk peinde Önemli deil,rasta hep bizimle Rastalarn babas,babalarn babas Sen bizi sevmeseydin,biz seni sever miydik Gözün gönlün önünde,gözümüz üzerinde Sen bizi sormasaydn,biz seni sorar mydk</t>
+          <t>Gelen fantastik ürperdi sende beden kaltak piç üzmezdim Kimliinde müslim yazan ergen kz neden takmaz ki tülbenti Gel kerem bak justin ünlendi rapçi yer kinder ver güçlensin arklarnla deil koç vajinanla sen dillerden dümezsin Zayfm kilo sorunum olabilir ama bak kaytta vokalle iti kabin Söz yazma yok artk bitti vakit, takma diin yapmaz dili rakip Ak parças tarzn benimsesem emin ol tavlar her barm amck Siktir olun piyasada wack kaynar biz yok lan piç ben varm artk ben varm artk pelteksin, yarrak verelim sen erkek sik Kalemini silah sanp ate ediyon da tutturamazsn merceksiz Pert ettim, söyler tam be kere ve anan manitam, manitan tek gecelik yeeaaah Arkadan karde geneli bu yeralt p bize kan le gerekir Bizim bi' bu kadar daha yeraltnda, arkada bekliyo' yüz tekne Fame olmaya bi' baar dersen, Arsz Bela'ya sakn ha küfretme! Tek tük besteee bulunca yetenek belgesi gösterir aç karnl Rap müsveddeme yazl bi'kaç sözle anlatlan bir bayapttr al! Ol'cak tabii göt birazck kibir vodka bitince biramdr fitil Kendini önemse fakat çocuk seni douma sürükledi bi' anlk sinir Kim arsz kimin namusuyla yaadn bilemez ilahsz biri Her yerden gelen o muhabbetlere kar manitana inandn sikik En azndan sigaran var üstünsün ama aç bir adamdan Üstüne kadn deil bira damlar, albümün alnm'cak DR'dan Vardiyalar var kan bi' yalanla lan kim ararsa dersin inanandan Feyz al tek peace at hit atam san onu bana gelin hatun tip ararsa Seç arkadan çek fark atmz bu kan yaz adm bak var tarafmz aga Bil ki kimse örenemezdi jurassic olmasayd punch kafasn Tut al kafasn tutkal yaratrz ud çal parasn tut kasma kasn Pus tat makasm prim alcaksan ergen hiç brakma vuslat yakasn Rhyme hastasym bu da göstergem, Enes Alper'i herkese göstercem Gene kan verin elzeme dön dersem, bere tak geri kerkenez özlen'ce'n Yere punch atarm karmaann içinden, kurtuldun mu lan ölmekten Peygamberimiz bir harf öretene kul, ona ramen sen öretmen kes</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Geri Ver</t>
+          <t>Gece Sokaklarda*</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
+          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAGAZIN</t>
+          <t>HARAM HELAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ye-yeah Ye-yeah Ok, ok Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah A te non penso più ho detto basta Ste cose ho detto basta Lo so non tutto passa Non mi interessa più cos'hai da dire su sta faccia Cosa vuoi che faccia o un lieto fine o una finaccia Però no non credo bro io no non credo Sono sotto il cielo ho perso ciò che avevo Io che ho finito la scuola e non mi vedo da adulto Non ho una vita nuova anche se è cambiato tutto Quassù si sentivano le urla da giù Poi le porte sbattute le battute non più Ho mollato storie concluse Lasciato donne confuse Ora sono io confuso Che non ho orari dormo col fuso Che mi addormento in stanza col fumo Lansia nella pancia mangia lo scudo Ma esce dalle labbra quando la sputo E rientra dalle labbra quando la assumo Yeah Ye-ah Vorrei fumarmi una cima e tuffarmi li in mezzo No-no, no-no Di stare bene faccio finta ma poi ci ripenso No-no, no-no Ti senti ancora una bambina davanti allo specchio No-no, no-no La strada continua pure se mi sono perso Yeah, yeah, yeah E non finisce la noia Ma finisce il presente E ti ritrovi con niente, yeah E non finisce la noia Ma finisce il presente, yeah Andare via un pensiero costante Pace mia cercami costantemente In caso mi arrendessi me ne andrei, giuro Qua alle sei fa già buio Perdo ciò che trascuro, non ci penso e la chiudo No non lo so che cosa dirò a questi Da un po' non siamo gli stessi Ci amiamo solo distesi Non ci sentiamo da mesi Magari vieni da me, sì Magari vieni da me se Usiamo la scusa di Netflix</t>
+          <t>Grr Para sayan deil, Era7 para yapan bi' makina Pow Belde emanet, el'de Bodrumun harita Konuma be dakika, buluuruz patika Neden istek kutumda, kekem, senin manita? Pow Bilmeden matematik Glock otomatik, iler sistematik, n'apiyim? Yeah Olmuyo' para yapmadm tek bi' saatim Yeah Son icraatim engelledi yurtd seyahatimi Pow stedim beraatimi, vermiyorum i Veriyorum avukat eliinde ifademi Ey, ey, ey Era7capone, evet, bi' çetenin hakimi Bilir misin, bu hayat nelere oldu mal? Yeah, tkr tkr devam Uyurken bile benim bütün iim faal Bu çocuk gangsta, Bodrum Block orkestra Haram ya da helal, bebek, iim illegal Araba üstü açk, gez göz arpack Yerime yatar benim karde Götün yerse arka çk Sardk sarmak gibi, dedim Ate La vida loca, kuliste koka' Verdim srtm duvara ya da Bodrum Block'a Çiziyorum tabaklarn üzerine rota Bilmeden tek bi' nota, Spotify artist Era7capone birazck narsist Pow, pow, pow Delil toplar peimden Asayi Ödediin hesab veriyorum bahi Çekemiyo'm kapris çünkü param var Ey, ya Sürtüklerle aram ama hepsinde farkl numaram var K-K-K-KERO</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ACAYİP</t>
+          <t>1 NUMARA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Daha ileri gidemem ki, benim gördüüm rüya bu kadar... Seni çok uzaa saklasam Böylece ruhumu aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Söyle bana ölüme uzak msn? Geçip gittiim sokak msn? Beni bulur canm alr msn, kendimi uzaa saklasam? Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Binlerce hali var, döner durur benimle Ne acayip ayar var kaçverir seni görünce çinde binbir umut var hepsi tuzak insana Sonunda bir tek huzur huzur var O da uzak, sana bana... Daha uzaa kaçamam ki, benim bildiim dünya bu kadar... Seni çok uzaa saklasam, böylece kendimi aklasam Yine bana uzak durur musun, kendimi sana yasaklasam? Benim bildiim çözüm bu kadar...</t>
+          <t>Kalemi kada hadi dilime bala Snrlarm zorla mürekkebimi boma Benim adm sorma bak neydim noldu vah Gözde kald taht leyli leyli lom Puan 10 ama bana 1 numara dedi Yeteneimi ölçemez cüretkar jüri Duygularm kadar bi' geçmi Kalp mantnn önüne geçmi Birden akl dengelerimi bozdu bi' kozdu bana bi' toz gibi bonzai Rap akli dengelerimi bozdu rap bi' madde çekmeyince zordu Hayalci derler uyku bilmem yazmadm gün içimde bi' dert var Rap olmadan var depremler Rap tahtmn altnda neler var Ben bilemedim ama kim bilir bunu bi' ben bilir rapime can denir Canma can gelir bunu yazan bilir bu yüzden bana hayat hep leyli leyli lom Ve neydin noldun lan ylanlarm attm koynumdan Uykularm bölemezsiniz artk geçtim ben kabuslardan Rap özgürlük yaradan bounam dil verdi Yalvarrm kalemi eline her alan yazmasn bak bu rap piç edildi Özüne dön geri de sayma geri kafal gözünü aç ileri Bi kulaç hadi bu dalgalara güvenme bu dalgalar limana götürmez Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Bi' derde bay bay bi' derde gel gel, derdini senden alana yer ver Bi' derde goy goy gidene bi' yol ver, dert verene de leylide ley lom Krsan kalemimi krlr kalpler Kalbimi kran da üzdü kalemler Kelamlar yeter dil uzatsam evet çünkü dilimin ucu bi' hançer Sapl kalbe bi' rap sevdas rapin belas rapin cezas Üretirim ama dilime bi' laf ver rapin sevab bu rapin mirand Dualarm olur hadi bi' can ver kstlar sesimi sesime bi' ses ver Leyli leyli lom neydi nolacak kurtarmazsan dertde boulacak Dur dedim biraz duy dedim emei sarfedin rapimi kefedin Beni bi' test edin yada bi' ses verin türkçe raplerine leyli leyli lom Leyli leyli lom leyli leyli lom leyli leyli lom leyli leyli lom Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer1</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DENE</t>
+          <t>Çete İşi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>On a grandi salement salement, salement On n'est pas les mêmes, eux et nous, selon moi hein, hein Fini salement, Fini salement, plein de nous seuls au monde seul au monde, seul au monde C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'ai vu tellement, que Dieu m'épargne des flammes, moi, j'voulais ma part J'suis jeune d'en bas qu'a compris qu'la réussité passait par l'effort, faut en faire En vrai, les faux diront qu'ils sont vrais Patience est clé d'la réussite, j'me trouverai derrière la porte Toujours bouillant pour ma part, vous, c'est comment ? J'paye le loyer en rigolant, mes potes viennent d'ici ou bien d'Conakry On roule, on coupe le collant, j'pars en guerre sans treillis kaki La France, c'est mon pays mais pour les keufs j'ai pas la bonne peau J'm'habille pas chez Label Peaux, j'ai ma marque, ça passera pe-pro J'crois pas qu'on est les mêmes parce qu'à seize ans, j'avais un pe-pom Pilly, pilly, pour qu'ça pique et quand t'es placé sur sa gratte J'ai vu tellement d'trucs en vrai, j'vais prendre ma daronne et m'barrer Tous les jours, j'suis d'attaque comme Monkey D Luffy J'rencontre que des lles-fo mais pour l'amour, c'est pile ou face J'écrivais sur des prods YouTube, j'avais même pas d'WiFi J'suis l'chef d'en bas qui rappe mais bon, j'peux t'aider s'il faut J'suis jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand ils serrent la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi J'aime la pudeur et la pitié, pas la laideur et le spectacle On n'a plus l'temps nan, quand j'suis au Japon, j'dors chez l'habitant Le Halloumi dans la pita eh, la balle dans le pétard ouh Le tir dans l'habitacle, noyau d'olive qui casse tes chicots en quatre ah Et les dollars, ça sera jamais de l'or jamais J'crois pas qu'on est les mêmes parce qu'à dix-sept, j'dormais dehors jamais Crapuleux, coïncidence che-lou, leurs mains sont granuleuses, cramées on croit aux canulars, on craint aucun nullard J'ai des poids sur le cur, j'sais pas comment les aborder Quand j'ai des sautes d'humeur, j'suis obligé d'me saborder Ça vient d'Paname, ici, on a le savoir-faire J'ai des ennemis mais j'aimerai pas les savoir deads Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA J'prie pas que quand c'est dur, laisse-nous gérer la D.A Les miens priaient pour toi les miens prieront pour toi Les miens priaient pour nous les miens priaient pour nous Les miens priaient pour DA, priaient pour ceux d'en bas J'suis l'jeune d'en bas, j'peux tout faire selon moi Y a qu'la folie qui m'sollicite, les sous, il faut quitte à t'salir les mains On s'sent tous seuls au monde, on braque avec une main On prie, on plie les genoux, les poumons encrassés, le cur comme un cratère J'écrivais sur le Alcatel, jamais les miens diront Ah l'bâtard, j'partage mes humeurs à la Terre Et j'prie, pourvu qu'ça dure, moi, ils s'rappelleront d'DA On a grandi salement Du 7.5 à Sevran, jusqu'en Seine-et-Marne On n'est pas les mêmes, eux et nous, selon moi Le regard n'est pas franc quand il sert la main Fini salement, plein de nous seuls au monde À chacun sa souffrance, pas de cinéma C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi On a grandi salement On n'est pas les mêmes, eux et nous, selon moi C'est normal, ça fait mal, c'est l'enseignement Caché dans le cratère, mon cur saigne en moi1</t>
+          <t>Sert adamlar size göre deil di mi Ghetto sokaklar size zor gelir di mi Kolluyoruz Adanay çekil bas geri Back to back bu çete ii çete ii Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Uyan bahçende asl bara Güçlü ol ki iin gitsin rast Yine de gez dolu, kafa rahat Kafa bozduuyla kafa dat Kurdun ini, sfr bir Birlikte koparr yeriz bir Sokaklar dar, evler bir Bir yaarz biz, ölürüz bir ç karartr tablo, gösümde logo Benim Picasso'm, Escobar Pablo ç dünyam öldürür, d sebep buna kork Hayatlar bok, düler bizim, Van Gogh rendin çulsuzdu, söylüyordu Müslüm Çekince smokini, dediniz baba te bu yüzden akl deil istiyorum para Uçan bar güvercini deil mahalleye alarm Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Kalarmz çatk gözlerimiz kara Uzaklasak da çeker bizi bela Nasl edek okunuyor sela Cinayetler kol gezer hepsi müptela Mevzuyu abart, elemanlar sakat Bu gece sokaklardayz baba kaplar kapat Rahat uyu, tehlikede güvenlikte Bizde ak atyoruz sadece sizle Yadrgama bizi olmas gerekli böyle Çakallar öterdi yoksa reis bizde böyle Hatrla tipinden dolay mekandan attlar Taramad m hangover kalanikof ile Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Bugün ghetto yarn çkmalsn oradan ghetto Banka soyup para bulsam dahi yerim ghetto Sikim fame size beyin kafa krk Sanki onun peindeyim peindeyim Sicildeki kirin suçun hepsi bizim Mahalleye girin mevzular kesin Çetenize tehdit adanadan kesit Piyasana asit lamborghini M.O.B Mahallenin içi yerin dibi elin kiri Psikopat yarat minimal taliban çete tehlikeli Evden çkt bu çocuklar çok küçüktü Dokunsan ölürdü imdi dokunma ölürsün Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GNG Freestyle 1</t>
+          <t>CEHENNEM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Maes - Booska C - 0601 Kekra - Booska Césarienne - 0601 Max Paro - Critical 0801 Elams - Elams et les 40 voleurs - Épisode 2 - Lyon ft. ISKA, Pouya ALZ, Big Ben, Sasso Miro Starf - 0801 Hornet La Frappe - C'est mort ft. Leto RK - 0901 Leonis - Apollo - 0901 Les Alchimistes - Personne - 1001 Luv Resval - Side - 1001 Scridge - Ghetto ft. Landy - 1501 Doni M - Zig Zag - 1701 AM La Scampia - Fais-le - 1701 Gambi - Dans l'espace ft. Heuss L'enfoiré - 2201 La Fouine - Première fois - 2201 S.Pri Noir - Dystopia - 2301 Captaine Roshi - Opération CDL ft. Black D - 2301 Chily - Tout est calé ft. Koba LaD - 2301 D.Ace - La vérité - 2301 ISK - Garantie - 2301 Josman - Petite Bulle - 2301 Le Club - La maille - 2401 Benab - J'ai demandé à la rue - 2401 Damso - veillé - 2401 DTF - Baida - 2401 DTF - Maria - 2401 Laylow - TRINITYVILLE - 2401 LMB - Ça dit quoi poto - 2401 Timal - Routine - 2701 Naza - Souris verte 2901 Hache-P - Arès - 2901 Dika - Cur glacé ft. Sadek - 2901 Shotas - Compton - 2901 7 Jaws Seezy - Turbo S - 3001 Bolemvn - Frappe atomique - 3101 Bosh - Cur noir - 3101 Chily - Booska KushCoffee - 3101 Driks - Couleur ébène - 3101 Dry - Atlantis 1 - 3101 Graya - Dans la Cristaline ft. Naps - 3101 Hugo Nogam - Histoire sans fin ft. Dadju - 3101 Jok'Air - Jok'Chirac - 3101 Jok'Air - Sa mère aux mères ft. Diddi Trix, Sadek, Luv Resval Alkpote 3101 Kader Diaby 4real - Venez voir - 3101 Kekra - Comment on fait là ? - 3101 Kofs - Santé Bonheur - 3101 Marwa Loud - Allez les gros ft. Naza - 3101 Paolo - Comme un glaçon - 3101 Seizur - Ma gow - 3101 Vin's - Égalité - 3101 2zer - Balle perdue 5 - Blood Diamonds Février - 0202 Kikesa - Elle sait - 0302 Liim's - Favelas - 0502 USKY - Douce folie ft. Doxx - 0602 CG6 - Bizness - 0602 Sofiane - Training Day - 0702 Brvmsoo - Sale boulot ft. 4Keus - 0702 David Okit - Belek 0702 Gato da Bato - Ma vie - 0702 GLK - Maudit - 0702 Kaza - 3.5.7 - 0702 Meryl - TCQDOF - 0702 Soolking - Meleim ft. Dadju - 0702 YL - Larlar 2 Tennessee - 1002 Landy - Brave III Freestyle - 1202 ZKR - On se comprend ft. DA Uzi - 1402 Eden Seven - Dîner ft. Zed - 1402 Kofs - Embourgeoisé ft. Kaaris - 1402 Lujipeka - Palapalaba - 1402 TK - Benalla - 1402 T2R Minissia - Mariage 1 - 1402 Popey - Tchop ft. Sadek - 1402 Savage Toddy - AHAH ! - 1402 Zoupouti - Lolipop - 1602 Balao - Or brut - 1702 Sneazzy - Feu régulier - 1902 Barack Adama - Sirène - 2002 Naps - 6.3 ft. Ninho - 2002 Sofiane - Des malades - 2102 Abou Debeing - Meilleurs ft. Tayc - 2102 DA Uzi - Le dire ft. Maes - 2102 Dosseh - L'odeur du charbon Remix ft. Maes Dinos - 2102 Jok'Air - Ne pleure pas 2102 K.R.K - La maille - 2102 Sifax - Reste un bandit - 2102 Soolking - Marilyne ft. SCH - 2102 Timal - Week-end ft. Leto - 2102 ZeGuerre - Freestyle SixNueve 2102 2zé - Zézon - 2602 Soso Maness - DDD ft. Hornet La Frappe - 2702 Bekar - Aléas - 2702 Ninho - M.I.L.S 3 - 2702 Senyss - Bad Mama Jama - 2702 - Sneazzy - À quoi tu joues ? - 2802 Alonzo - Freestyle GG - 2802 ALP - Dernier vol ft. Niro - 2802 DJ Erise - TECO ft. Franglish 2802 Dry - Atlantis 2 - 2802 Green Montana - 6AM - 2802 Gros Mo - Rouler GZSC - 2802 Hatik - Encore - 2802 Sam's - Validé ft. Lacrim - 2802 SDM - La zone ft. Booba - 2802 Yanslo - Oublier Mars - 0103 Balao - 9 carats 37,5 ft. Salek - 0403 Shotas - GF - 0403 ZeGuerre - Corsé 7 - 0503 Dika - Enfant du block ft. Naps AM La Scampia - 0603 Rim'K - Valise ft. SCH Koba La D - 0603 GLK - Mauve - 0602 Haristone - Overdose 0603 K.R.K - Saint-Honoré - 0603 Kekra - Putain de salaire - 0603 LMB - La bringue 1 Plan B - 0603 Nseven7 - OTT2 - 0603 Onze - 11.2 - 0603 R.E.D.K. - Le Block - 0603 Soso Maness - So Maness - 0603 YL - Larlar 3 Copenhague - 0603 Zoupouti - Lollipop Remix ft. Diddi Trixx, NoName Laskiiz - 0903 Booba - CAVALIERO - 0903 Hös Copperfield - La route est longue - 1103 PSO Thug - Ça parle mal - 1103 4Keus - Wakztoubi 3 - 1203 Abou Tall - Bosser 1203 Elams - Elams et les 40 voleurs - Épisode 3 - Paris ft. The S, Mamso, Mous-K, OR, ALP, Bosh Dabs - 1303 Brvmsoo - Bénéf ft. Dinor Rdt - 1303 Denzo - La sacoche ft. Koba La D - 1303 La Malfrappe - Dans ma folie ft. Timal 1303 Le R - Moon ft. Brvmsoo - 1303 Shro - Tout va bien - 1303 Tuerie - Low - 1403 L'Allemand - Hors série C - Bizarre - 1503 Balao - 14 carats 58,4 - 1603 Big Ben - Petit bateau - 1703 Dinor Rdt - Minimum ft. Naza - 1803 Barack Adama - Vu - 1803 Guette l'ascension - Porte tes Couilles 3 ft. Tisco, Kenedy, Tvmo Nesko - 1903 Bosh - Business ft. SCH - 1903 Kalash Criminel - Pronostic - 2003 DA Uzi - Booska New York - 2003 Key Largo - Comme un ouf - 2003 Liims - Dans la tess - 2003 L'As - Distances ft. Lacrim - 2003 Max D. Carter - Yvng Læn - 2003 Rohff - T'as capté TCT - 2003 Twinsmatic - GROSLOT ft. 13 Block Koba LaD - 2303 Big Ben - Palerme - 2403 Benab - Kif Kif - 2503 Hugo TSR - Périmètre - 2503 Leto - Double Bang 9 - 2603 Bosh - Défilé - 2603 Keblack - De quoi tu parles - 2603 JuL - Sousou - 2603 Savage Toddy - Règlement Gang Freestyle - 2603 26 Keuss - Levi Strauss - 2703 DA Uzi - Autre part - 2703 Diddi Trix - Quoi d'neuf - 2703 Green Montana - Séquelles - 2703 Gros Mo - Résistance GZSC - 2703 Les Frères Lumières - Adal 2 - 2703 Koba La D - Ça ira mieux demain - 2703 Rohff - Solo - 2703 Yanslo - Ntiya ma vie - 2803 Hös Copperfield - Libanda - 3003 Doria - Calcul - 3103 Zoupouti - Oulalala Avril 0104 Dr Yaro La Folie - Je deviens fou Freestyle - 0104 Fetiche - Freezer - 0304 A2H - Angoisse - 0304 Luv Resval - 696 - 0304 Rohff - Tous à labri - 0304 Shro - Yankée Öko - 0304 Vin's - Sur mon trottoir - 0304 13 Block - BOÎTE 6 40 KIL - 0504 Young Tomy - L'hiver arrive - 0804 Zesau - Dans le noir - 0604 DA Uzi - Flashback - 0904 DJ Erise - Monte en lair ft. Naza - 1004 Bolemvn - Comment ça va ? - 1004 Gros Mo - Maria GZSC - 1004 Moha La Squale - On roule - 1004 Mister You - Casanostra ft. 3robi - 1004 S.Pri Noir - T'as capté ft. Sneazzy Alpha Wann - 1104 Naps - KNK ft. Kalif Hardcore Kikou - 1604 Didi B - Assinie Remix ft. H Magnum Lefa - 1604 Hoos - Allô - 1604 Médine - EXOMÉDINE - 1704 Alrima - Tcha tcha tcha - 1704 Elams - Bandida - 1704 Guizmo - Lamine - 1704 Kalash Criminel - Dans tous les sens - 1704 KPoint - Boule magique - 1704 L'Algérino - La vida ft. Soprano 1704 NoName - Bah oui Anoname 5 - 1704 Onze - Tout va bien - 1704 RK - F.A.C - 2204 Sifax - Charlemagne ft. TK - 2204 Skaodi - Que des mots 2204 The S - Old Up 3 ft. Popey, Key Largo, Dika, ISK, COR, Cheu-B, Moha K, Kazmi, Decimo, SLK, NKD, BKL, RBK - 2204 2zer - Balle perdue 6 - NMI - 2304 Tayc - Léwé - 2404 Bramsito - Medusa - 2404 Oboy - Rémus - 2604 Big Ben - Comprends-moi - 2804 Marty de Lutece - Brûler ft. Brö - 2804 Naps - Il rôde - 2904 Bekar - Soleil s'allume - 2904 Lossa2squa - Hinata - 2904 OM La Compo - cOMbat quotidien ft. Kemmler, Hatik, Zamdame, Relo, Saïd, DRIME, AM La Scampia R.E.D.K. 3004 ALP feat. Yaro Graya - Ganté - 3004 Klub des Loosers - Battre - 3004 La Cour de Récré - Règlement Fitness Freestyle Mai - 0105 Big Dada - Tout va bien ft. Noxious - 0105 Bolémvn - Prends ta monnaie ft. RK - 0105 LMB - Ice Vision - 0105 Michel - Tejla 0305 Beeby - Répondeur - 0305 Narkonic - Malabar - 0505 Soso Maness - Mistral - 0605 Kodes - William Thomas Freestyle - 0605 The Hop - Berline noire ft. Jazzy Bazz Krisy - 0705 Ashkidd - HOLÀ - 0705 Chanje - Casper - 0705 Naps - Fais le bisou - 0705 Naps - Poropop Remix ft. Soolking, Sofiane Kliff - 0705 PLK - Hot16Challenge2 - 0705 San-Nom - Barbapapa - 0705 SDM - À l'affût - 0705 Youri - Règlement Gosse Freestyle - 0805 Chilly - Dans mon barrio - 0805 Larry - Routine - 0805 Luv Resval - Thor ft. Diddi Trix - 0805 Lyonzon - Confinato - 0805 Max Paro - Ma belle - 0805 OldPee - FER - 0805 Yuzmv - L'exil - 0805 Zola - Bro Bro - 0905 JuL - Fait d'or - 1205 Booba - Jauné ft. Zed - 1405 Abou Tall - Mona Moore 1405 B-NØM - Règlement Bêta Nu Freestyle - 1505 Artik - Netflix - 1505 Beny - Antipop - 1505 Bolémvn - Sentiments 1505 Hamza - 140 BPM - 1505 Hooss - Vie de rue - 1505 Kalash - Toujou la - 1505 Matou - Grosses sommes ft. PLK - 1505 OBOY - Kenzo ft. Harley Moko - 1505 Scylla - Sales mômes ft. Furax - 1505 ZeGuerre - Shoot 1505 Zidi - PASSÉ - 2105 Huntrill - Fk La Drill - 2205 Amin - Elle 2205 Bolémvn - Booskateuf Freestyle - 2205 Bramsito - Criminel ft. Niska - 2205 Diddi Trix - Toujours - 2205 Gros Mo - Minuit pile - 2205 Guti Gutss - Gutti World Non - 2205 Marty de Lutece - Nudes - 2205 Zed Yun Pavarotti - Lalaland 2305 Guy2Bezbar - La callé - 2405 Abdxxl - Planète - 2405 Kikesa - Je danse comme ça 2405 Moha La Squale - Paris 2705 Badjer - CestCarre Dans laxe - 2705 EDGE - Obsolète 2705 H Magnum - Gatement - 2705 JuL - Folie 2705 Petit Voyou - C'est l'été - 2805 Dajak - Phonecall 2805 Richi - Règlement TLJ Freestyle 2905 ALP - Police - 2905 Denza - Audemars Piguet - 2905 Franglish - Biberon ft. Leto Tiakola 2905 Goulag - OPOP - 2905 Green Montana - Les ennuis - 2905 Hatik - Ali - 2905 Krisy - Je t'aime encore - 2905 L2B Gang - Trahison - 2905 Moubarak - En Clio - 2905 RK - SOS - 2905 Soso Maness - BOOSK'AAARAH - 2905 Vin's - PCGPCP 3105 Moha La Squale - Basta - 3105 Sese Kepler - Gang Shit 7 Guantanamo ft. Leto Juin 0106 Worbhé - Dowpe 0306 Djalito - Virage - 0306 Luv Resval - Molly - 0406 La Cour de Récré - Speed 0506 A2H - Aime-moi encore - 0506 B-NØM - Ce soir - 0506 Chily - Bendo - 0506 DJ Weedim - Je vous aime ft. Reta - 0506 Lacrim - Booska R4 - 0506 Le Juiice - MATIN 0506 Nino B - Millions - 0506 RK - Freestyle Neverland 1 - 0506 TK - Salam - 0506 Zikxo - Tout ou rien 0506 K.R.K - Tous les jours - 0606 Ziak - Quatre 0806 Juicy P - NLBLB - 0806 Moha La Squale - Chez Babou - 0906 Yannou JR - OG - 1006 Guette l'ascension - Porte tes Couilles 4 ft. Poulaxe, Skodri, Biscuit Tisco 1006 Joysad - Booska Périgueux - 1006 Sifax - Mecs de cités - 1106 Lujipeka - Booska Ozone - 1106 Norsacce - 4 saisons ft. Freeze Corleone - 1206 Benab - Sourire ft. Maes - 1206 Coyote Jo Bastard - Hoodboy - 1206 Doria - Tempo - 1206 F430 - California - 1206 ISK - Fazer ft. YL 1206 Juicy P - Piloter ft. KPoint - 1206 Kalash Criminel - Écrasement de tête - 1206 Klem Schen - Vision différente - 1206 Lacrim - Allez nique ta mère ft. Soso Maness - 1206 Landy - Aucune limite - 1206 Le Sid - Bouré.e ft. Nelick - 1206 Lpee - London - 1206 Mister You - Pénurie - 1206 Nahir - Fin de partie - 1206 RK - Freestyle Neverland 2 - 1206 Slim Lessio - Ah fou - 1206 Tovaritch - Booska Poutine - 1506 Moha La Squale - Amsterdam - 1506 Vendredi 13 - Second psaume - 1706 Biwaï - Awe - 1706 Gazo - Drill FR 4 ft. Freeze Corleone 1706 Jo Le Phéno - Bavure 3.0 - 1706 Sotof - BST 1806 Fiji God - Règlement PLM Freestyle - 1806 Gambi - MACINTOSH - 1906 DIL - Vengeance - 1906 HZY - Jack Sparrow - 1906 Jewel Usain - CTRL - 1906 Klem Schen - Vision claire - 1906 LauCarré - Dans le game - 1906 Le Juiice - MIDI - 1906 LMB - La bringue 2 LVDLF - 1906 San-Nom - Saucisse - 1906 Savage Toddy - Décisions - 1906 thaHomey - Lundi Mardi 1906 Tisco - Mascarade ft. Biscuit - 1906 Toma - Parcours 1906 YKM - Pochtar 2006 Almeida - Iceberg - 2106 Ibrak - GAVA 2106 Rouhnaa - Twitter 2106 TiiwTiiw - FOLLE DE LUI ft. Lacrim - 2106 TripleGo - BRRR 2206 KLN 93 - À 200 - 2206 Senamo - 7Up 2206 Shro - Inshro - 2306 TK - Premier pas - 2406 DJ Weedim - Rends l'argent ft. Stxck Mv, A2H, Youri San-Nom 2406 Jaekers - Vaisseau 2406 Popey - Besoin d'elle ft. Dabs 2506 ALP - Boosk'ALP 2506 Tonio le Vakeso - Pirogue - 2606 Dabs - STOP - 2606 Dante Sito - Johnny Interlude - 2606 Doxx - Ailleurs - 2606 Eden Seven - Trashboy - 2606 Elh Kmer - Cours - 2606 Franglish - Mauvais garçon Remix ft. Kaaris - 2606 HMZ - Choupetta ft. Sofiane Heuss L'enfoiré - 2606 Hös Copperfield - Léwé - 2606 Joysad - Californie - 2606 Key Largo - M'en sortir ft. 4Keus - 2606 Kikesa - Mort de rire 2606 Lasco - Funk petit - 2606 Les Frères Lumières - Si si si ft. Bosh - 2606 Leto - Paris c'est magique - 2606 Lord Esperanza - Couronné - 2606 Paolo - AQB - 2606 RK - Euros ft. Maes 2606 Swift Guad - Habité par le Diable - 2606 Zefor - L'Homme Mystère - 2606 ZKR - Freestyle 5min 8 - 2806 Django - À l'envers - 2806 Moha La Squale - Bébé de Bogota - 2806 Swift Guad - Épicurien 2906 KRK - Ohoh 3006 Bayssou - Coup de girafe - 3006 Bekar - En principe 3006 Niaks - Drilluminati, Pt.1 Juillet 0107 2CheeseMilkShake - Croix rouge ft. Biffty, Julius On The Wave 21Souyard 0107 S.Téban - Le Code ft. JMKS 0107 Souri B - Quedlabonne 4 0107 TK - Dans la gova 2.0 0107 ZeGuerre - Zé ft. Sofiane 0207 Kalash - Plus de love 0207 Lartiste - La chanson 0307 2TH - Solo - 0307 AM La Scampia - Bingo ft. Hatik 0307 B2L - PTD 0307 C.O.R - Pas net ft. Sofiane - 0307 Kaaris - Goulag - 0307 Kalash Criminel - Peur de personne - 0307 Koba LaD - Laisse tomber - 0307 Lyonzon - Flamengo - 0307 SDM - Yakalélo 0307 Souli - L.S.O.L.A ft. Diddi Trix - 0307 Yanso - Everyday - 0307 YL - J'me casse ft. Naps - 0607 Alkpote - Booska'Pétrole 0607 Worbhé - Dans le bat' - 0807 MS13 - Fait monter la bête - 0807 SEB - Flemme 0907 L'Allemand - C'est chaud - 1007 A2H - Hors de ma vue - 1007 Jolly - KATANA ft. Kpri - 1007 Kanoé - Mouv' du boug - 1007 Krilino - Habibi - 1007 Michel - Ouais c'est grave ft. Hatik - 1007 Niska - Bandit chef ft. Madrane - 1007 Noname - Ice - 1007 PLK - C'est mort - 1207 Deeloc - JACKIE ft. Key Largo - 1207 Moha MMZ - Paranoïack 1407 BFG - Makossa - 1407 Booba - Dolce Vita 1507 2CheeseMilkShake - Pourquoi ? 1507 Djadja Dinaz - Freestyle Pays-Bas 1507 Djalito - En règle 5 1507 TK - La night ft. JuL - 1507 Naza - La musique est bonne ft. Heuss L'enfoiré - 1607 Denzo - Booska Atroce - 1607 Leonis - Freestyle Blue 1 - 1707 Alonzo - OOP - 1707 Benab - RS3 ft. Timal 1707 Chily - Complètement rebanav 4 - 1707 Dabs Fashion ft. Kaza 1707 D4R - Teudger 3 1707 Guti - Gutti world 2 - 1707 Jolly - Zone 51 ft. Freeze Corleone - 1707 Mac Tyer - Moto ft. Ninho - 1707 Norsacce - Headshot 1707 Popey - Loin - 1707 Vendredi 13 - Kaiju 1707 Youboy - Mal luné 1 - 1907 LVZ - Meda - 2007 eden dillinger - FREESTYLE 2Ø2Ø 2007 Hermano Salvatore - Abuela 2207 Koba LaD - Freestyle Quartier - 2207 Squidji - Feeling 2407 100 Blaze - Dans le club 2407 Amar Makaveli - Sky ft. Chilla 2407 Arma Jackson - La boussole - 2407 Cheu-B - B.S.E Le Sky 5 2407 Dinero - Faut consommer ft. 4Keus - 2407 Doria - Pas le choix - 2407 GLK - Maracanã 2407 King Doudou - Sous les balles ft. Marty de Lutece 2407 Lacraps - Tah les bombes - 2407 L'As - Hôtel 2407 Lord Gasmique - 1 000 000 2407 Momsii - Tard la night ft. Timal 2407 Nahir - Danilo 2407 Rim'K - Warning - 2407 Sam's - Mec de mon bâtiment ft. Aboudou - 2407 Savage Toddy - Hood ft. Luv Resval 2407 Slimka - Slide 2407 Vegedream - Marchand de sable Part.6 Gestuelle 2407 Zidi - Toxic ft. Assy - 2407 Zoupouti - Tempête - 2607 Kikesa - Toujours en retard 2707 Freeze Corleone - Desiigner 2707 Key Largo - Miam miam 2707 RK - Booska 1H - 2807 Makala - M30 2907 2CheeseMilkshake - J'ouvre une cagnotte 2907 Black D - GESTU - 2907 Djadja Dinaz - Féfé lambo 2907 Djalito - En règle 6 2907 Frigun - Voyoucratie 2 2907 Kekra - Twisted 2907 D2T - Le sang 2907 Lazer MMZ - Jungle 2907 Sese Kepler - Gang Shit 8 - 2907 Shotas - Jaloux - 2907 Siriki - Présentation 2907 - Vin's - PCGPCP Remix ft. Demi Portion, Melan Les Frères Scotch - 3007 Deen Burbigo - Tout dedans - 3007 La F - Appel Masqué 6 - 3007 YL - Larlar 4 Air Bel Gang - 3107 Alonzo - Toi, t'es chelou ft. Landy 3107 Costa Lumni - Vérité 3107 Jaekers - Vert sachet - 3107 Kaaris - NRV - 3107 Larsé - Couronne - 3107 Lasco - Dis-le moi 3107 Leto - Nouveaux riches ft. Niska - 3107 Lorenzo - Fonsdé toute la night - 3107 Luv Resval - Smith Wesson - 3107 Michel - Je m'en ballek 3107 Nyda - Ghetto Août - 0108 Lucio Bukowski - Road Runner - 0308 Hatik - West Indies - 0308 Kanoé - Freestyle Orochimaru 0508 Kader Diaby 4real - Go 0508 Rowjay - ASTRAL DRILL - 0508 The S - Pupetta 0508 YZLA - Orage d'été I - 0608 13 Block - Tieks ft. Niska - 0608 Le Nine - FTB 7 ft. Abou Tall - 0708 C.O.R - La cité 0708 Josué - La jambe - 0708 Richi - Chorale ft. Youri - 0708 Sadek - Y en a - 0708 VSO - Dans le cur - 0708 Zesau - Anarchie ft. Freeze Corleone Stavo - 0908 Afro S - Cartouche 6 - 1108 F430 - Guap Summer - 1208 LuXe - Du Seigneur - 1208 Still Fresh - Tête-à-tête 1308 Jarod - Plus qu'avant - 1408 A2H - OG - 1408 Kaaris - Freestyle 2.7.0 1408 Lyms - Teaser 1408 Primero - Promenades 1408 Yanso Tawsen - La vida - 1508 JuL - Bande organisée ft. Elams, Ghetto Phénomène, Kofs, Naps, SCH Soso Maness - 1608 Shotas - La famille 1708 Leto - Booska 100 visages 1808 Kalash Criminel - A.D.N 1808 Kekra - Rolex HLM 2108 Sizlac - 45 ft. Dosseh - 2608 Petit Voyou - Immortel - 2708 Gazo - Inceste - 2808 Elh Kmer - Béni ft. Captaine Roshi - 2808 Heuss L'enfoiré - BX Land 5 - 2808 Jarod - 80's - 2808 Klem Schen - Mano 2 2808 Lacraps - Guerrier ft. Polva - 2808 VSO - Midi Mode - 2808 YL - Tout laisser 3008 Tonio le Vakeso - Orageux ft. Cenza - 3108 LuXe - La vie que t'aimes Septembre - 0209 Dosseh - Propagande 1 A 45 - 0209 Guizmo - Maman m'a dit ft. Nekfeu - 0309 Afro S - Woo ft. Kaki Santana - 0309 Frenetik - Infrarouge - 0409 Green Montana - Sale tchoin - 0409 Koba LaD - Beldia - 0409 Lyms - ISS - 0409 ZKR - Romance criminelle - 0409 Zuukou Mayzie - Survet Bayern Doc ft. Di-Meh - 0809 eden dillinger - OUIJA - 0909 Gringe - On aboie en silence - 0909 Ormaz - NOIR Freestyle 2 - 1009 Guirri Mafia - Comme un dream ft. SCH - 1009 Soolking - Rockstar 2 - 1109 2CheeseMilkshake - J'envoie des cheese - 1109 C.O.R - Clio - 1109 Harley - S.O.U.S - 1109 Maka - Etoile Makavelax 1 1109 Max Paro - Douane volante - 1109 Naza - Joli bébé ft. Niska - 1109 Ninho - Carbozo 2.0 - 1109 SDM - Titulaires ft. Koba LaD - 1109 SONBEST - Sad Love 1509 Graya - C'est la guerre ft. ZeGuerre - 1509 Niaks - Drilluminati Pt. 2 - 1609 7 Binks - Booska Bât 7 - 1609 A2H - Le cur des filles - 1609 Djalito - En règle 7 ft. Cheu-B - 1609 Makala - Hitman Go 1709 2G - Ma vérité ft. Mac Tyer 1709 Geeeko - Drunk ft. Coyote Jo Bastard - 1709 Jewel Usain - Bruce Lee - 1709 Spider ZED - C'est pas bien ft. Bigflo Oli - 1709 YG Pablo - Pandore ft. Tsew The Kid - 1809 Bosh - Trixma 1809 Elh Kmer - Rescapé Punition3 - 1809 GLK Pas sommeil - 1809 Hayce Lemsi Volts Face - Comme dit maman - 1809 Heuss L'enfoiré - L'ancien - 1809 La F - La violence ft. Freeze Corleone - 1809 Le A - Pas là ft. OldPee - 1809 Médine - Grand dla tess ft. Hatik 1809 Samy Ceezy - Cup ft. Tortoz - 1809 Samy Ceezy - S.A.M.Y - 1809 Sifax - Affranchis 1809 Sultan - L'amour n'est pas un jeu - 1809 Vendredi 13 - Majora 1809 Venlo - Là - 1909 Les Anticipateurs - SAPOUD 2020 - 2109 Hotel Paradisio - Cobra - 2109 LuXe - Circuit ft. Raptor X - 2209 1PLIKÉ140 - BATARD 4 - 2309 4keus - Tu nous connais - 2309 Bekar - Destinée - 2309 Hooss - Paid In Full 7 - 2309 Lacrim - Jacques Chirac - 2309 Rounhaa - Chromatyk 2309 ZeGuerre - Bolide - 2409 BKL - Gâchette R8 ft. Cheu-B - 2409 Dosseh - Place de l'étoile ft. Gazo - 2409 Hunter - Dessine - 2409 Koba LaD - 7 sur 7 ft. Freeze Corleone - 2409 Petit Voyou - En terrasse - 2409 Swift Guad - Anti-social ft. Cenza, Souffrance, Deadi, Davodka, Original Tonio Daddy Mory - 2509 DA Uzi - Boys Band - 2509 Gims - Immortel - 2509 Grems - HOSTEL PLAZA - 2509 Illustre - Type chelou - 2509 JNR - Une vie - 2509 Kobo - Barry White - 2509 Landy - Filon 2509 LauCarré - T'as compris l'truc ? - 2509 Lestin - Sunday Afternoon ft. Zed Yun Pavarotti - 2509 Matou - Neptune ft. Kikesa - 2509 Nahir - Fin de couplet 8 - 2509 Nusky - Naïf ft. Poupie - 2509 Rémy - Booska Sale - 2509 Roms - Roule - 2509 TLZ Clan - Monde onirique - 2509 Vegedream - Pour nous ft. Tayc - 2509 Zuukou Mayzie - Spike - 2709 Kikesa - Rêve encore - 2809 Criminls - War ft. Mezgo, Slim C, Freeze Corleone, RAS Power Genius - 2809 Hös Copperfield - Après la pluie ft. Leto - 2809 Népal - Dans le fond - 2909 Népal - Cheddar - 3009 Kekra - Manu milli HLM - 3009 Le Club - Coloré ft. Key Largo 3009 Max Paro - OMG - 3009 Népal - Coach K Octobre - 0110 Le Juiice - O NONO ft. Meryl - 0110 Népal - Même vie - 0210 Benab - Dounia - 0210 Chanceko - Malaboy 0210 Chicaille Argentée - Freestyle Signature 0210 Denzo - Bad Woo 0210 Dinaro - Fumette - 0210 DJ Kayz - Monte le son ft. Niska - 0210 Gazo - Drill FR 5 ft. Hamza - 0210 Guizmo - Enfumé ft. Soso Maness - 0210 Kaza - Pare-balles - 0210 Lycos - Dimension - 0210 Mous-K - Fais ta money - 0210 Népal - Benji - 0210 Ninho - La zone - 0210 Ninho - Problèmes du matin - 0210 Noname - SLT - 0210 Sid les 3 éléments - Shit - 0210 Soolking - Booboo - 0410 Luni - Sous ma veste - 0410 Rifa Samb - Danse avec les loups - 0510 Guy2Bezbar - La callé Part. 2 Remontada 0510 Hash24 - En plein cur - 0510 Popey - Imbécile ft. Dosseh - 0710 eden dillinger - BLESS - 0710 RK - Billie Jean Remix ft. Alonzo Timal 0710 Younès - Bientôt à la mode - 0810 Alkpote - Freestyle Règlement Baltimore - 0810 Deen Burbigo - Cerle vertueux - 0810 Médine - FC Grand Médine - 0910 Bigflo Oli - Au revoir 0910 Black-D - Fortnite - 0910 Chily - Téléphone 0910 Elh Kmer - Mélodie glorieuse - 0910 ISHA - Une maman qui pleure ft. Key Largo Jok'Air - 0910 ISK - Dans le réseau 0910 Lacraps - Ma noirceur 2 0910 Leonis - Méga - 0910 Max D. Carter - Hikikomori 0910 N'Seven7 - Skoll - 0910 Senyss - Spirit of Ecstasy 0910 Shotas - J'marche - 0910 Sper-K - Cash - 0910 ZKR - Poursuite ft. Koba LaD - 1110 Kanoé - BIZNESS - 1110 Lazer MMZ - Amore - 1310 RTT Clan - Travail d'ekip ft. Freeze Corleone, Norsacce, Doc OVG, Shaka, Kpri Black Jack - 1410 Captaine Roshi - BooskAttaque - 1410 Sofiane - American Airlines ft. SCH 1510 Geeeko - Rodéo - 1510 InnossB - Best ft. Damso 1510 Kenzy - Numéro 10 - 1510 Spider ZED - Overdose - 1510 Zuukou Mayzie - Règlement L.O.T.R. Freestyle - 1610 100Blaze - Ganja ft. 4Keus - 1610 4Keus - Sportback ft. Hornet La Frappe - 1610 AM La Scampia - Je m'isole - 1610 Doxx - Comme avant - 1610 Green Montana - TOUT GÂCHER ft. Booba - 1610 Guizmo - J'fais du rap - 1610 Kalash Criminel - But en or ft. Damso - 1610 Kemmler - Je veux tout - 1610 Klem Schen - Triste - 1610 K.S.A - CDN Freestyle ft. Alpha Wann - 1610 Lorage - Quelque part - 1610 Makala - Sergueï Diop - 1610 Noname - Train de vie ft. Key Largo - 1610 Rohff - G.O.A.T - 1610 Tayc - Ride ft. Leto - 1810 Kozi - Unstoppable ft. Freeze Corleone - 1910 A2H - Booska Rédemption - 1910 Alonzo L'Algérino - Faim d'Europe - 1910 Ziak - Fixette - 2110 Bolémvn - Couler - 2110 Chicaille Argentée - Bails noirs - 2110 Poupie - Feux ft. JuL - 2110 Simony - Boucle - 2110 Shotas - Code S7 - 2210 1PLIKÉ140 - Tranquillement - 2210 Captaine Roshi - Molotov 2210 - Julius - Quoi d'neuf docteur ? - 2210 Lujipeka - Putain d'époque - 2210 Meryl - Règlement Toutdedans Freestyle - 2210 Youri - Cur - 2310 Bosh - Slide - 2310 C.O.R - Jamais vu ft. 13 Block - 2310 DA Uzi - WeLaRue 5 - 2310 Dr. Yaro La Folie - Papa fait du sale ft. Hornet La Frappe - 2310 Enfantdepauvres - DIX - 2310 Gims - ORIGAMI - 2310 Jok'Air - Clic Clac Bang Bang ft. Laylow - 2310 Kaaris - IRM ft. Freeze Corleone - 2310 LMB - Innocent - 2310 Moha - CZ 75 2310 Theorem de Gama - Rêverie - 2310 Toma - La dalle ft. Hatik 2510 Tonio Le Vakeso - Monnaie ft. Davodka - 2710 Frenetik - Booska'Peinture - 2810 La Fouine - Millions - 2810 YZLA - PASSWORD ft. 2zer - 2910 47Ter - Vivre 2910 L'Allemand - MINGUETTES - 2910 Youv Dee - Règlement Spaceship Freestyle 3010 La F - 691 Part.2 - 3010 PRIME - Canon long - 3010 Taïro - Révolution Part. 2 Oublié - 3010 Uzi - Violet ft. RK - 3110 T.I.S - Folie humaine Novembre - 0111 Ashe 22 - Booska PDP - 0311 Koba LaD - Booska 1H - 0411 AM La Scampia - ZIP - 0411 AnNie.Adda - Si je quitte les Enfers - 0411 Coyote Jo Bastard - Fusil - 0411 Nahir - Moneygram ft. Freeze Corleone - 0511 Spider ZED - Règlement Politique Freestyle - 0511 Zola - Booska'Sten 0611 4Keus - Bosse comme un boss - 0611 Booba - 5G 0611 Dika - Descente - 0611 Django - Pyramide ft. Osirus Jack 0611 Leonis - Charbonner - 0611 Mous-K - On part à la guerre ft. Bosh - 0611 OBOY - Cruel - 0611 Norsacce - GOSPEL BROLIK ft. Ashe 22 - 0611 S-Pion - 100 G - 0611 sean - Le bon, la brute et le truand - 0611 Zikxo - 32 temps - 0711 Hugo TSR - Senseï - 0811 DJ Titaï - 5 étoiles ft. Lefa - 0811 Kekra - Swish HLM - 1111 Kodes - Code La B du 7 - 1111 Onze - Minerai 1111 Rounhaa - R sans R - 1211 Captaine Roshi - Champions - 1211 EDGE - Kylie Jenner ft. Esso Luxueux - 1211 Georgio - Les anges dans des robes rouges - 1211 H-Tône - Incendie 1211 Simony - J'rentre défoncé - 1211 Tawsen - La météo - 1211 TLZ Clan - C'est nous ft. Dosseh - 1211 Zuukou Mayzie - Le Mayz - 1311 Cinco - Four ft. Leto - 1311 Frenetik - Chaos 1311 Joysad - PLDM 1 - 1311 Mister You - Ça se fait pas ft. JuL - 1311 Niaks - Dame blanche - 1311 Prototype - Triste drame - 1311 Senyss - Tyana - 1511 Kalash Criminel - Booska Sauvage 3 1611 C.O.R - Booska RDM - 1711 Naza - Booska Bébé - 1711 Elams - La vida ft. Hatik - 1811 Doria - Booska Do - 1811 eden dillinger - 3-6 RHAPSODIE - 1811 Guy2Bezbar - TPM ft. Freeze Corleone - 1811 Kekra - Business HLM - 1911 13 Block - Babi 1911 Guirri Mafia - Booska Guirri - 2011 Ajar - Pire que la mort - 2011 Denzo - Cramé ft. Bramsito 2011 Mous-K - Booska Bogota 2011 SDM - Prince de la Calle - 2011 TripleGo - Maladresse - 2011 Unité - Unité ft. Dadju, Hatik, Imen Es Soolking - 2011 Youv Dee - De toi - 2311 1PLIKÉ140 - Booska Bâtard 2411 TK - Booska Sang-Froid - 2511 Keusty - Code PAL 7 - 2511 Landy - Millions d'euros ft. Niska 2511 Zikxo - Temps 33 - 2511 ZKR - Freestyle 5min 10 - 2611 Captaine Roshi - Pigalle - 2611 Coelho - ACTION - 2611 DJ Roc-J - Pas Patek ft. YL - 2711 Achile - Ça veut rien dire ft. Oxmo Puccino - 2711 Ashkidd - NOVEMBRE - 2711 Benab - En bas - 2711 Joysad - PLDM 2 - 2711 Nahir - Paris-BX ft. Frenetik - 2711 Negrito - Purge 5 ft. Freeze Corleone 2711 Saamou Skuu - French Drill 4 - 2711 Tedax Max - Drillotière - 2911 Krilino - Patate 4 - 3011 M Le Maudit - Sex focus Décembre - 0212 Hayce Lemsi - Medley 2020 - 0212 Hippocampe Fou - La thune de ma femme - 0212 Seth Gueko - Kratos - 0312 Elengi Ya Trafic - Dangereux - 0312 Heuss L'enfoiré Vald - Guccisima - 0312 Heuss L'enfoiré Vald - Matrixé - 0412 47Ter - Sommeil noir 0412 Blam's - La sape - 0412 Chiloo - Vilain - 0412 JSX - Pompéi ft. Booba - 0412 Keny Arkana - Avant l'exode 1 J'sais pas faire autrement - 0412 Koba LaD - Code La D du 7 - 0412 La F - Appel Masqué 9 - 0412 L'As - Nadine - 0412 Liim's - Mood ft. Tiakola - 0412 Luv Resval - Kurt ft. Zefor - 0412 Madrane - El Patron - 0412 R.E.D.K. - SQOSLF 2 - 0412 The S - Ça pue la rue ft. Leto - 0412 Tovaritch - Révolution - 0412 Zamdane - La fête ft. Hatik 0812 Souffrance - Opération Dragon - 0912 Twinsmatic - VILLE ft. Box Frenetik - 1012 Djadja Dinaz - Perdu - 1012 eden dillinger - TRAUMA - 1012 ISK - Où je suis 1012 Jarod - Kaioken 3 - 1012 La Cour de Récré - XPLIQUE - 1012 Zuukou Mayzie - Victorinox ft. Black Jack - 1112 Ateyaba - Moonwalk - 1112 Hornet La Frappe - 69.93 ft. Ashe 22 1112 Joysad - PLDM 3 - 1112 JuL - Mother Fk ft. SCH 1112 Les Frères Scotch - Zone - 1112 Lucio Bukowski - 4-2-4 Freestyle ft. Nedelko - 1112 Michel - Appel manqué - 1112 Pakigo - Mutation 1112 Pirate 182 - Grincheux 5 Purge - 1112 Rémy - Sur la côte - 1112 Sheldon - AGRABAH 1112 Youri - Comment - 1112 Zikxo - 34 Temps - 1412 Klem Schen - Solitaire 1512 D4R - Booska Quattro - 1512 Dinero - Zipette ft. Leto 1612 Biwaï - Kakashi - 1612 Dosseh - Famiglia è grande 1612 H-LO - Tu piges 1612 Lemon Haze - A2L - 1612 Nahir - Ça va bien se passer - 1612 rad cartier - VT ZOOM V - 1612 Wallace Cleaver - 45Camo 1612 Zeguerre - GTA 4 - 1612 ZKR - J'ai fait le tour 1712 Petit Voyou - Prosecco - 1712 RILESUNDAYZ - Clique 1712 Squidji - Melancholia 1812 Abdxxl - BILLET 1812 Chaman Sully - GG BOY - 1812 Deadi - Le voisin du 4ème - 1812 Doria - Paris - 1812 Frenetik - Blanche Neige - 1812 Joysad - 2020 - 1812 Kaaris - Five-0 ft. Gazo - 1812 M Le Maudit - Crack Poésie - 1812 Savage Toddy - Mc Gregor - 1812 SOPA - TLMR - 1812 Todd - Travaux 1912 Gambino - Quartier Nord 1912 Gutti - Gutti world 3 - 2012 Black Jack - Sournois ft. La F - 2112 Kekra - Dréel HLM - 2212 Booba - AZERTY - 2412 Dinos - Juste un clou, - 2512 Bekar - 98 2512 Shro - Pump it up - 2612 Kims La Rafale - LAMBO - 2712 Black M - Black Shady 4 - 2712 L'As - Mercedes 2812 Lasco - SO - 3112 Alonzo - Freestyle Divo Massacre de la Saint-Sylvestre 3112 Jarod - Termine 2020</t>
+          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HESAP</t>
+          <t>Çete Kontak</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>Svako malo mi se javljaju reperi pikice I mole da ih malo proguram, pa ih gurnem sa litice Glazba ko hrana, jebe noeve, vilice Dobar tek, do kraja pjesme imate slomljene vilice Ti si biznismen? Zakon bro, svako dobro esto putuje svijetom i sreli smo se napokon Dam ti Tram 11 album s eksplozivnom napravom I shvate tajnu crne kutije kad lociraju zrakoplov Treba blagoslov? Tog svetog dodira nema Ostaje glava obitelji, na zidu sobe trofeja Korpulentan fella, jedva smo se rijeili tijela Rambo sranje, ne zbog miia, ve zbog etiri dijela U peini repam, ubio sam Mamuta nedavno Dobar glas daleko se uje, drim kljove ko megafon Mrzim mekano govno, kad takva muzika krene Buim bubnjie, obeajem Vie nee uti za mene. Vrati se kui na vrijeme, gibaj natrag u sobicu itaj Auto Klub, broji suze koje teku po licu eli BMW? Nema pinke za policu Vodim te na otpad, skupa s autom pretvorim u kockicu... Piim katamaranom u Guantanamo S matrama vadim dva MC-a koji igraju biljar s granatama Igra s vatrama, nikad na Jantara jer nastrada kompa Siguran sam, ko u Siriji svinja na ramadam Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Bacim prvu lajnu, a mikrofon ve je satran ak mi Kolak veli da sam nevjero-Jantar Unikatniji od unikata, ti si Drake, ja sam Nathan Satan Panonski, deveta vrata Uvijek biti ete drugi i trei ko Sprite i Fanta Koljem wack MC-e dok svira Mjeseeva sonata Zna ono, kad ti je Broz tata Pa ti kae Daj pogledaj, mui me prostata. Imam bolestan dodir, al nisam Cobran i Mlata Imam ujaka shizofreniara, ima bombe jo od rata I ne kaem to tek tako, mi smo sekta ko likovi kaj dre Pentagon Diem embargo ak ima mekani rep kod Richard GiR je hip-hop dekan i lektor Nekad zvao sam se niko, danas me zovu netko To jest, drugi me zovu, sam sebe zovem rijetko Kakvi su vam utisci? Jednostavne lajne mi kolju ko da su multi-si Spavam dvanaest sati dnevno, to se zove beauty sleep I opet ubio sam i beat, i mic, i studio skroz rutinski off-beat Ljudi me kue ko da sam Josip Ovo sranje vozi, kroz zid, Boe pomozi Punch za punchem, di su stomatolozi ek, ek, ek sekundu, imam poziv Ey yo, Richard GiR, wassup? Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je striktno droga, rep mi sjedi tik do Boga Tintu tvojeg pera prepoznam kad ujem hit iz bonga Dim i smog na traci, kad bacim zapalim svaki beat Ko zlatni pirov novim i podarim zadnji ir Tvrd ko titan, bacim vers ko vrlo bitna karika U dobrom repu kad dotaknem rukom ritam Svako uho titra kad probijam zvuni zid Struni drift na beatu kojeg ne moe nauiti Nedokuiv skill, besprijekorno rutinski Iznesem svaki puta kad u gluhoj sobi sruim zid Tui zvunici izgaraju ko gorivo Tvoj spori flow nikad ne prelazi korito Koridor u kojem vladam okruen je bedemima Svako se sjeme prima, pa uberem emdem rima Nikakva preventiva ne postoji protiv ovog Zarobim slovo i natjeram ga da tvori novo Jebe akciju, strahuju kad kontra krene Obrambene tehnike pamte ko Nota bene Note okamene, tvore krut u metriku Poinju repere vezane uz etiku Sveti krug rijei neprestano krui matrom Kljuni faktor uim ak se slue tuim aktom Runim taktom navigiram let raketa Permanentna strofa, reperi su smijena meta Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je, ovo je ve esti jebote. Nita od one take-a</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gnghetto</t>
+          <t>VAMPIR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>34 yamda al bamda Götürdüm mn yen rep qlmini Uzaqlan burdan, yaxn durmayn Dümyin tsirin zlzlmin Sim salabm, vur tbilin ver Zmannin tlbini Msti-xumar, bsdir burax Gl zirvd olan qara bir bax Ala, intibahdr, el indi vaxtdr Rep demir Ülkr gör neç vaxtdr 10 il fasilnin özü bir taktdr Aktlar braktr, buraxmr vaxt Takt qurub özün, buna bir bax Mikrofonda Ülkr Repd çoxdan sgr mn shndir Sngr güllm, stirim qulaq gzr Klmm kimins xtrini zr Biri xeyrini görr blk meylin çkr Danma mniml jarqonla Yorularsan shr qdr pardondan Slow motion, this is fashion My emotion is microphone-da action Holy! Holy goddamn Who mama? Yen, yen mn geri glirm, ya, ya ya ey Dli-dolu bnd mnim olur, h, ya ya, ya ey Hr iponum srt tlf olur rqiblr ey I'm mama boss, bilirlr zldn, ey' Yen mn mama Qorxulu yuxunuz yerindym, mama Shnlriniz glirm, mama Mnalarm düür drin, mama Mama-mama-mama-mama Kim indi qul? Kim indi cool? De Sn n qdr lazmdr pul? Ki verim kin qusan azn yum Mni danann yaralarna basram duz Bulanq sularda üzmürm tk, bu ii lazmdr düz elmk Mn oyundayam, bil sonunadk Sonunda sonuncu gülndk llrdir mn oyunda ey, çox otardm qoyunlar ey Dyiir zamanla qaydalar, amma mn ölrm, yorulmam Kim kimdir indi bildim, mn gör kim ki indi dindi El özün tsdiq v n stil, etsn d Mndn on qat skiksn, sn bitch Çk, çk slowly Tk-tk show me Rng-rng wholly Ya, cash only Bacs baxr hr gün Paxllq edirlr dörd gün Says çoxald düzgün Gncliyi keçirir üzgün Sayloony rep gtirir db Tomiris-m, parlayr zr Ssim de, brk Taxtaya nrd Cypher srt, my flow, glow, mrd Trzimd cool, tk-tk brk Baku on the map, I put that Bitch mad, suck my gat Rich fat, i got that Eat work, keep work Sn bir, mn sot Beat drop, smoke crop Klm flip-flop, budur hip-hop Geclr treklri yazram, h Görürm qlblri, vururam mn Girl MC, n dbli modellrdn Olmad bu gün göstriln Uuu yeah, mn n var? Bu aralar gözlr çarpar Uuu yeah, biz n var? Birlir axrda uzun yollar Ya bitch Ghetto-da böyüyn bblr, ey Küçd döyülür gdy, ey Bouna Bia-n hdl, ey Hdl, gör bi' bdlini, ey Bahal söz ya bahal chain Brain empty, bahal yin Drain dodaa, bahal mey Daha female, daha bi' male Hdfi blli, sbbi deyil Küçd gey, bu evin by Küçd sakit, evin deyinir Küçd paylayr, evin vermir Bunlar uaqdr, bu da fing Bel bir eydir, el qng Bia bi' irs, bura me Ssi d n duyub ek Blunt, bass sanki lava Cash, drip, balaklava Bsdir bu qdr drama Coco qarb qana Fuck the fake Fuck the fame Ya so lame Taxmayacam saxta chain Frqlnirm, istmirm saxta gang Necsn? Bilirm, deyilsen loyal Vaxtm yoxdur elyim holla Hold on! Çhray saçlarm sol qolda AP parldayr, çox zordur Yerini bil Gimme the loot Saf edir stil Hamya cool olan Mn üçün shit Dyi düüncni Mni eit</t>
+          <t>I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Misli ti uzima kada ju gleda s drugima sad Dok luta noima grad, Zagreb iam te rad Vodio bi je u ir, a mala oe safir Da sjaji kao vampir, da sjaji kao vampir Mala ou je bila aye, feelaj hit do beata je Ko uspinjaa te podie, kad sputa sputa jos nie Ona bi htjela jo blie, da joj doe blie Gori umom pitanja, emu sva ova shvikanja I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Ne zanima me, ne zanima me Kae bilo bilo je, vie ne zanima me U glavi borba TNT 4 zida nisam free Oe vie uzmi si Pa se onda nosi s tim Sve je kao neki film aye ivim scenu trei dim aye Ak si s nama, nisi s njim ay Neu leana ou green aye Traku skombam dvij min aye Sori mala dobi seen aye Nisi prva niti zadnja bitch Swana ludi laser beam yeah I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sorun Var</t>
+          <t>Ne Gereği Var</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet sorun var Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da Skldm, saydm, hep yalan artk Skldm bütün her eyden Boktan fikirlerden Bktm her eyinizden Her ehirden Skldm senden Skldm her eyimden Doldu kadehler kendinden kendinden Kendimi esir almken, sorun var Evet sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasamda, zorlama ama Kalmasamda, arama beni bir daha Yoktu zaman, yok Yoktu para falan Çoktu acm çok Bastn yarama bana inat Bastn bana inat, ya Döndüm geri sana ya Sövdüm sana biraz ya Kzdn kara mizah ya Salma ona bir daha ya çtim durmadan ya Sardm oumu, yak-a durdum susmadan Evet 'sorun var' Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada Evet 'sorun var' Anlamasan da, kalmad zaman Yazdm hep sana, durmadn ama Yanmda falan, bak Saydm hep yalan nanmasan da nanmasanda, özledim seni ama Yoksun artk yanmda Bakalarnn lafndan lafndan Yanmda bi' gece kal kna etmekten oldum bi' hal ki kadeh de yanmda var Naz yapma kendini bana bi' sal Yeni masal Saçma gelir yeni bi' ak Sen yokken her ey uzak stediim tek ey seni duymak Telefon elimde keke arasam Kalmad cesaret ben darmadan Halimle nasl yazaym sana Böyleyken evet 'sorun var' Evet, sorun var Anlamasam da, ay Benim yanmda, ya Zafer sonunda Farkm uyar Birkin için yatar Umrunda deil para Kandrma beni burada1</t>
+          <t>KISIM I 530 Bebeim, uh Oha, bebeim, aradnda telefonu kim açacak? Evet, evet 530, araba kayp Ne bir cevap var ne de geri arama, hepimiz madurmuuz gibi hissediyorum Limanlar daha da uzamaya balyor Sarhoken mesaj atyorum, Patrón içmemeliyim Telefonu elime alyorum, müziimi açyorum, alanma giriyorum Sarhoken mesaj atyorum, Patrón'a dava açmalym Sana doru bir ekilde yaklamak için yanl admlar atmak zorunda kaldm Bütün bu admlardan geçmelisin ki tavsiye verebilesin O elenceli gecelerin bedeli, likörün vurduunu hissdebiliyorum Neden birisi snin kalbini krdnda, görüünü düzeltmene yardmc oluyor? Eer bir eytana ya da divaya ak olursan Ruh ikizinle bulutuunda, onun ruha sahip olmas için, dua et Kristal top, onlarn beni tekrar terk edip etmeyeceklerini söyleyemedi Problemler orta boyla paylamak için fazla büyük Bu seviyede, et ve kan için savamyoruz Ve eytann avukat, eytana avukatlk yapyor Ak tamamen akp gidiyor, durmas gerek, hepsi soluyor Eskiden gizli davranrdk, ama imdi, her ey çok bariz Hepsi kayp, deil mi? Her eyin çöküünü izliyoruz Konumann ana konusu biziz 530, araba kayp Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Oyun vakti, aslnda, Ye vakti Geçen yl garip geçti Çocuklarmla FaceTime üzerinden görütüm Ve kim ilk önce kimin kalbini kracak? Hep benimkini kryorlar Tanrnn bana verecei kutsamay bekliyorum Ben burada bir aile yetitirmeye çalyorum, nineyi de bakalar yetitirmeli Seni yalnz brakmaya çalyorum Ama son mesaj Patrón'un yüzündendi 530, araba kayp Duygularmdan uzaklatm Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Ksm II Dear Summer Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum 530, araba kayp Mesafe dediin ey bu mu? Biraz, camdan hapishanenin içinde Duh-duh, son görümemizden önce Bu i tamamdr, evet, umarm i görmütür Bu i görür, hayr, i gördü Bu konuya çok sinirliyim, yaptmz sanmtm Herkes, hepimizin çok fazlasn istiyor, biz hariç herkes Geriye kalanlarn daha az ne bilmiyorum, daha az olmadan uzakla ve kaç Bizden geri kalanlar yazmaya çalyorum, bizden geri kalanlar yazmaya çalyorum Baka bir ey yazamyorum, yazarn ne yaptn merak ediyorum Söyledikleri her ey yaand, ön gördükleri her ey yaand Ne kadar kötü olduunu bilmiyorum, bunu nasl unutacam bilmiyorum Bunu nasl unutacam bilmiyorum Ne olduunu biliyordun, ne olduunu biliyorsun, çocuklar biliyorsun Yaptmz biliyorsun ve ben de yaptmz biliyorum unu bil, kabul edeceim, devam edeceim çimdeki duygular dar çkarttm ve içeri giriyoruz Bütün listeyi tek bir telefonla hallederim ve yldrmla yüksee çkarm Dayanamyorum, dayanamyorum Sen sahte bir orospusun Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu O arklarn içinde yaamyorsun, nasl bir düünce, orospu Git Lil Baby dinle, git Future dinle, orospu Yumuak ol, gelecein hakknda düünmüyorsun, orospu Sa-fah-na-da yapma, bunda yeniyim Da-da, na-dana, bunlarn da üstesinden geleceim Pa-da-la, fa-na-dan, bunu düünme Senin için en tepeden düemem, orospu Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu Young Thug, Thug, Gunna Wunna, orospuya yap Git Lil Baby dinle, git Future dinle, orospu Bir kaçak için huy olmadan önce Wunna-tunna-dunna-dunna, ve ben orospular sevmiyorum Sen Ye'yi sevmiyorsun, sen Moneybagg Yo'yu seviyorsun Sözlemeyi imzaladn yeri imzaladm? O ne için kötü? O neye kzgn? Sen sahte bir orospusun Beni dinleme, dinlemene gerek yok, git Drake dinle, orospu Git Lil Baby dinle, git Future dinle, orospu Ama eer ben senin için geleceindeki nunna-dunna isem, orospu Umarm ki bebeinin babas kaçaktr Ve umarm çocuu kaybettiinde, sanna-danna yaparsn Ve umarm ki, bununla danna-danna yapmak istersin Bu son cümleler yaland Son mesaj Patrón yüzündendi Bir eyler balattm m? Kalp krkl yok, bunlarn da üstesinden geleceim</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NEYSE</t>
+          <t>MUFASA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B-B-Bugy Bi'takm tipik tip bölgemde Bi'takm talihsiz söylemde Tümünün tüm ipliini pazara çkartp Açk açk göstercez Neyse ne ki bi de deyse neyse Bi kyas bi kuple bi piyez Gri bulut ve boz bayku Ne niyetle istendiyse öyle Kin sandnsa hayr rutin kaygdan böyle Yine de ruhuna salk paam Tabi, bi tk daha fazla shat di mi Aar, yine de sen ya adabnla baar Ya aalkça yaa Bilirsin çardkça baa bela Ki belki daha daha fenas tepende her an Ben almym aga desem de yine bana çatar, yeter Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin Pek içime sinmi de deil hani fikir Beyin, beyin ile düün Deiimin için tek çözüm Tek gözü görür onun dier gözü özür Çözülüp uzla, ya da yine neyse ne Israra kzmam da paam aha,aha,aha Ölücez hrstan, sen sal keke sar Aga hepsini öder hesap ne kadarsa Ve bende ite neyse kalan Kimine ilah kimine maskara falan Felakete dair fena bi' plan bu lk bi belirip pei sra kaybolduk E, kimimiz haketti de kimimize ayp oldu Ve bu meseleyi iyice bil diye öyle diyim Kenevirin yannda naylonsun Makul bi ba kafi ve Mesafemiz hayli harika Ya da,yani fena deil Neyse helal edin Makul bi ba kafi ve Mesafemiz hayli harika Ya da, yani fena deil Neyse helal edin</t>
+          <t>Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home Altro che Freud o Platter, è questa musica che cura bene Ricuce tagli al cuore in extrasistoli leggere Ridona il fuoco a chi oramai s'è perso dentro al ghiaccio E in un abbraccio che ricevo l'assaporo e taccio Lei è catarsi, infuocarsi ed acquietarsi Fra 'sti falsi pazzi, ma con lei non temo passi falsi Lei è casa, mano tesa, luce accesa nell'intesa Di due cuori che perseguono la stessa meta Consuetudini da cui scappo come Houdini Perché a fatica reggo il peso di certe incudini Colpa degli sbagli miei che non rifarei e per i miei Delusioni e fori al cuore come Dorian Gray Vorrei trovarti al pianoforte come Ray Con te sulle mie orecchie piano o forte correrei Tu c'eri in quelle notti fredde, ci scommetterei Che eri l'unica ad udire le mie urla, tu sei Oda Mae Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home È tra le guerre di Ungaretti e Bukowski Che cammino e scosto fumi dentro boschi nascosti Mostri dentro mostrano 'sti volti loschi E appena mostri loro inchiostri Fanno tanto i tosti e dopo scappano scomposti Anima e musica sono unite da una musa Che canta mentre incanta, m'accompagna e non comunica Le chiedo Dove sono?, o meglio Dove ero? Lei si avvicina e dice Benvenuto nel Locus Ameno Sorpreso temo, mentre scorgo il sole e il cielo tremo All'improvviso odo un riso, è questo il paradiso Serenità ma non nell'aldilà, il mio Amon Ra È dentro cuffie mezze rotte Proseguo per 'ste rotte, fra cuori rotti e botte Fra botti, fischi e intoppi, qua siamo troppi Ci dividiamo fra chi cerca il sole solo se vicini E quelli che son forti solo soli, come Pasolini Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home1</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Serbest Stil</t>
+          <t>GNG Klan*</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Transcriptions Achievements 100,000 Views mdat by Cakal ARASAN DA by UZI International by Russ Millions ft. UZI 50,000 Views SUBMARINER by Lvbel C5 Bi Kereden Bi ey Olur Serbest Stil by UZI Trip attm by ALIZADE Caney by UZI AFFETMEM by BLOK3 BABA by Lvbel C5 GÖNDER GELSN by Lvbel C5 ft. Batuflex 2T1BB by BEGE ft. Yung Ouzo UNUTTUM by UZI Feragât by Reckol ft. BEGE Yallah by Montiego, Lvbel C5 ft. Batuflex 10 NUMARA by Lvbel C5 Shawty by Shawty TUR Piman Deilim by Semicenk ft. Dou Swag 25,000 Views Cuma by Cakal Suçlarmdan Biri by Güne Aynen by Heijan Muti KIRIK by Motive VUR by BLOK3 25 by Ati242 Dier Yarm by ATE GELMEZSEN GELME by Lvbel C5 yok muydu vaktin bana? by Güne TOTEM by Motive FESTVAL by Ati242 ft. Organize Alo Baby Big Shark by RECO Affettim by Sefo D.H.S by Melfete Zenti by Ex</t>
+          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bağımlılar</t>
+          <t>TURKISH BOY</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bu, bu yol yaamn ba Her gecenin sonunda aryo' ban prrr! Üstümde kapon, bere ve de bol pantol Çavo eklim nasl? Keyfim yerinde kur kumpas Bize denk deil her biri çöp torbas Her gün hustle, bizi göster basn Ölüyo' çocuklar sen bardasn Belimde kütem, çakm bakn, bakn ya, ya, ya, ya Yeni bi' akm ve GNG zirvede Bakn topland takm Torbada bakr, külüstür araba, aküyü kapn Sakncal ghetto, yakn tenekeleri, bir adm prrr! göz parldasn Daha zaman var Kapal kaplar biz açcaz t, t Duymadlar, bu gece kurala uymadlar Patrt var, Ose gel parann kokusu geliyo burnumuza Çabuk uza kes, kes Zulala tulann arasna Yaknda kokusu çkacak acaba ne ki? Bu çocuklara batacak ucu Yakacak inini ekibim, onlarn suçu bulaacak elime tozu Sorun ne ki? Boyun deil dengim elbette ki Derdim ne mi? Derdim göremi'cem o güzeli cennetteki Bu sokaklar dar dar Her yerde bamllar lar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar ah Bu sokaklar dar Her yerde bamllar Her yerde bamllar Her yerde, her yerde bamllar Kafam güzel, kafam güzel Sokan banda bamllar Yine mi torbac çardlar Sokakta bu gece bamllar Sokakta bu gece bamllar, ah Bu, bu yol ölümün ba Duruyor köede bamllar Kaçnz kurtuldu bu bokun içinden Yakandan tutuyo' skntlar Ölümün nefesi ensene deer Bi' gün yakalar Bi' gün bitecek bütün tasalar Bizi balamyo' sizin yasalar Nasld bu? imdi tek tek oturdu talar Gökyüzü dolu tüm sevdiklerimle Hiçbir yldz kaymaz da oradan ya prrr! Yasan tut hadi, kustum dün aslma dur Çoktandr içindeyiz sokan, deli deilsen yerinde dur dur Biz her gün öldük, doduk, içinde batan gördük gerçei Sen nereden bileceksin? Bu durumda olmak kendi tercihi mi? Yok oldu gençliin gerçi, dönmeyecek bugün bu devran Kurtulacak bütün çocuklar, ölmeyecek sokak banda Sanrm anladn bizi, GNG, narkotik, Murda ve Uzi ya Vidos ayltr adam uzaktan duyulur ''hayrdr? sesi Her sokak bi' film karesi ya, kanna giriyorlar Gençlerin tedavi çaresi ya, anneler alyorlar</t>
+          <t>Ey, what's up? Here's the kid, 50 Cent! You're now tuned in to my man, Kool Savas! Optik Boom, destroy the German Dream, you heard?! You've made it, Eko, people are talking about you again After they thought you were gone, up and away, and dead Shit, this is too emotional, I keep my calm, I'm rational I go back to the beginning and tell you once again Remember Ekrem, you invited me to a jam My biggest fan alive, my personal stan You still were Ekrem Bora, sexy wog, not Eko Freezy The stu-stu-stu-stuttering boy, the shoe salesman from Gleezy Whatever I took you to Berlin and Mel gave you the right beats Suddenly you were a real rapper with a real EP Took you to gigs, gave you this, gave you that, gave you money Gave you what you needed, thought this boy is going to be an MC Left Put Da Needle, talked to EastWest and Universal No one wanted you, I renounced 170 000 Euro I'd promised you, If I get a deal, you get a deal A month later you have your deal with BMG 50 000 Euro, you take it for granted, you were A good person and then the cash started changing you You wanted everything, up, out, as fast as possible Because you were stupid, young, and needed as much money as possible You wanted a song with Trooper, one with Jeanette and Vanessa S I had to convince you to not do it Valezka merely said, Ekrem is slowly getting weird Crazy, a week later I learn that she sleeps with Ekrem She makes a record with him, shortly before the one with Mel is done After she's been living with us and taken advantage of us She wants us to pay for everything, but now it no longer matters You're broke and alone, what a pity, it's all fucked now Success is more important to you than realness, it's cash over friends Eko takes lyrics of Killa Cam and translates them to German I loved you but not like a gay one loves another man Like a brother who does everything for his brother But you're not loyal, not normal You are the fan, Amar isn't Unfortunately, I turned a blind eye to you but it won't happen again Eko, you and me, we were always on an equal footing But your career moves are always calculating You wanted to say bullshit and pointless stuff Spreading lies to Mel because you thought you could ruin my life You didn't want to leave the house any more Because you were scared of Bushido waiting outside I had to talk to him, work this out before it gets out of hands He and I, we had no beef, didn't hate each other But just because of you our relationship is a bit strained now Ek, I don't have to bite like you because everything I rap flows You're a guy who spreads lies like Hannes Loh You notice, it's slowly going down and darker And quick, quick - back to the Bunker Shit, everything you do is a strategic and calculated plan But here are 10 years of experience rapping right now I was like a father to you, as if you came from my semen And now you want to rebel against me? But why? Son, not like this, sorry you're dead This battle won't push your career And you are right - I'm almost 30 years old But how's that a diss now? I don't even get it Where would you be today without Optik? Think hard Now the German Dream turns into a nightmare, sucks, huh? Come to me, I clear your view with a hot needle Just a few more bars and you're lying still and quiet Now the little one has a beard and thinks he's hard as iron You and Valezka are a good match, you're both out of breath live onstage And Eko, are you listening to this? How I'm bombing you to pieces with each line Your eye brows turn into the McDonald's M Little Eko, there's no point in this beef This is the king versus a child This track is like a weapon pressed on your chin The judgment and your ruin, over and out I'm flowing like the wind, let it out like a pint I'm not a hater, you know me, but you're faker than Sentence S is like the sun, you get closer and burn yourself You won't survive this flood, look, I'm too much for you to deal with Your flow won't ever be better than mine, after this part you'll vomit What you do isn't right like joking about disabled people Whatever you write, it's nothing more than child's scribble to me Listen to what you're saying in interviews, people don't hate you Because they love me but because of your manners Not just because you're shit but you're immodest Player, lover, Turkish rap or gangster - decide You can't because you have no identity As if your eyes were closed You don't know where you're standing now And you don't know what you're saying The game makes you sick, huh? Come, I'll turn you off like a bedside lamp And you think you brought our boys to Optik Why does your label then not have one track on Optik-level? My friend, you're dreaming, turned crazy from coke, crazy from Ecstasy This is a phenomenon - what's happening inside the skull of E? You're doomed to die, your Mum said, Don't do anything to my son I didn't want to but the boy is too spoilt, too dishonest What? I fucked our future? There is no future for you At least not as a rapper in this business And all of this is true, you can put me under oath This part here are the facts but the next one is going to be very insulting No, you don't have to defend me I'm doing it for the kids out there who're waiting and who Want to know the truth, here's your report Report me because this track is like murder You're listening to the best, the king, the rapping Tony Hawk You want to sneak up from behind the throne, but no, hypocrite I spit and spread more panic than Robert Steinhäuser You crave my title like boys crave the hole of J.Lo You pretend to be man and suddenly you have more beef than Maredo But I've made you like Puffy Da Band And if you want, I'll dissolve you again - click, click bang! But please tell me one thing, Eko, what's up with you? You're not Mr Hankey - how do you get out of the toilet? You were gone, far away to the pop world The rapper who holds Dieter Bohlen's cock Soon there'll be head money You're crazy, you want to come back - who are you? You were L.O.V.E. and now HipHop again, you freak You're one of them Nina MC, Reen, Cappuccino Aleksey, der Wolf, Eko and Fettes Brot, they're all dead Rest in peace! This is a new era And I'm your teacher and shoot like rifles And you're softer than soft, softer than velvet Annoy the fuck out of me and I'll kick your ass, destroy you completely Ek, suck my dick!</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tehlike</t>
+          <t>KURSUN DELIKLERI</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Hadi bulualm undergroundumun lk 'rap' bayra diktii yerde At bakalm Disse Diss, görelim kim Battle Winner, sözün 'beat'tii yerde Çakal m iyi, Uzi kullanyor Uzimi yapyor Çakallarla dans Hodri meydan, bak, yukarlar makam Yeter artk, akt sokaklarda kan Durma, durma, gönder mermi Kuru sk mermiyi Ben Fero yer mi? Ezhel mi hakl, ya Norm Ender mi? Bu El Classico deil, normal derbi Farz et, Türkçe rapte ben Franszm, ama Macron deilim Hayki 2 sene Base mode-dayken Kaybedecek bir Patron deilim Eskiehir rap derken akla gelen Allame mi, Joker mi, bilemem Rap silahorunun hakkna giremem Söz sahibiysen, hakkn ver hemen Nedense herkes rapin sahibi Göz ya dökersin bir timsah gibi Hatan anlar Khontkar-dan gidip Özür dilersin ehinah gibi Yakr, Freestyle-a Hidra anere Sokrat ST, Mero-ya Murda Ceza, Turkish Rap God Go home hip-hop, underworld up Soruyorum eski okuldan Salam rap yapan kaç kii kald? Grogi, Kamufle, Defkhan, Aga B Sansar Salvo, Sayedar alt Türk rapi devlet olursa Gazapizm olur müzik bakan Fuat Erkin olur d iler bakan Sagopa Kajmer cumhurbakan Aln teri yerine aksa kanm Gangster rap Killa Hakan fan Ghetto-da tehlike 36 boys Ordusu yeterli Massaka-nn, ey Silah yok, sokak yok yok, yok Kavga yok, dayak yok yok, yok Kanka yok, kyak yok Gel teke-tek, görelim, kim söz sahibi? Kim kimin Azraili? Buralar mezbaha gibi Söz okyanus, rap sahili Gel teke-tek, görelim, kim söz sahibi? Kim? Kim söz sahibi? Söz sahibi Kim söz sahibi? Söz sahibi Kim söz sahibi? Gel, gör, kim 'battle'' rapte söz sahibi?</t>
+          <t>Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Odamda fazla durma duman seni yorar Yetmez ba arma oxy falan Tükense de sabrm onu aramam Elbet bana kalr benim olan Aramam gideni yutarm xanny Mistik biriyim ama etmem dua Unutturdu seni dün gece biri Kocaman götü salland bu duvar Deilim Romeo bekleme çiçekler Kalbim krk ve peimde tourneo Bekleme desem de tüm gece bekler At gibiyse tamam ado rodeo Kasklarndaki ya kalbe seker Yarn unuturum olsan da eker Designer zip ve kurun delikleri Ölümden korkmam giderim tek teker Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Kark kafam yüklüce param var benim Harcarm sana Hem unutamam hem unutulamam yah Deli ediyor xannx Bembeyaz k kocaman kç Akldan ald götürdü bu ba Bugün ayn kaç? Yitirdim algm kalmad ac Var biraz sigara üzerimde Sdramam onu ceplerime neler dolar bedenimde Rastlayamaz artk izlerine Çok güvendim hislerime Zirveye yol kestirme Yenik dütüm nefretime Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PİRANA</t>
+          <t>GUCCI BAG</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 1 Ok, eu sou o tipo de nigga que não gostas E se tu me abusas eu vou logo contar aos cotas Poxas, olha para quanto tenho na minha conta Todo meu sucesso dizem que é graças aos cotas Opah, todas pitas da praça comi Podem até falar e dizer que não tenho pila big Mas o txi fala foi assim que aprendi E Deus não dá tudo tenham piedade Man eu vivo como rei, há que respeitar Faço merdas e tenho os cops para acobertar De 10 moçambicanos 9 queriam essa Life Essa good life de nunca ter de esperar na line oh E sei que tens falado mal de mim Mas enfim, eu tou em Pari a gastar vosso txi Com bué de europeias se aproveitando de mim Tirando fotos com famosos man olha só pra mim Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço douro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 2 De volta a Moz com uma bag da Lui V Nem tudo que comprei coube na bag da Gucci I been killing everybody you can catch up my uzi I been feeling like Pablo when I'm rocking my uzi Dá licença !? Tu não vês quem o nigga é Provavelmente vais me ver a andar com monhés Porque falamos a mesma língua, money-mula-monhés I got this feeling que o resto só quer tirar meu pé E agora mandei vir um novo Ferrari Meu papi, nós vamos fazer barulho na cidade Mugabe, nós estamos aqui para eternidade Não vale, juntarem-se para tirar-nos do comando, we got this Ah, enquanto continuas a falar É o teu trabalho que tem me ajudado a pagar Carros que nem mais o bem pago pode pagar E se fores a fazer algo sabes como vai acabar Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ateş Ediyo</t>
+          <t>VUR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gelen fantastik ürperdi sende beden kaltak piç üzmezdim Kimliinde müslim yazan ergen kz neden takmaz ki tülbenti Gel kerem bak justin ünlendi rapçi yer kinder ver güçlensin arklarnla deil koç vajinanla sen dillerden dümezsin Zayfm kilo sorunum olabilir ama bak kaytta vokalle iti kabin Söz yazma yok artk bitti vakit, takma diin yapmaz dili rakip Ak parças tarzn benimsesem emin ol tavlar her barm amck Siktir olun piyasada wack kaynar biz yok lan piç ben varm artk ben varm artk pelteksin, yarrak verelim sen erkek sik Kalemini silah sanp ate ediyon da tutturamazsn merceksiz Pert ettim, söyler tam be kere ve anan manitam, manitan tek gecelik yeeaaah Arkadan karde geneli bu yeralt p bize kan le gerekir Bizim bi' bu kadar daha yeraltnda, arkada bekliyo' yüz tekne Fame olmaya bi' baar dersen, Arsz Bela'ya sakn ha küfretme! Tek tük besteee bulunca yetenek belgesi gösterir aç karnl Rap müsveddeme yazl bi'kaç sözle anlatlan bir bayapttr al! Ol'cak tabii göt birazck kibir vodka bitince biramdr fitil Kendini önemse fakat çocuk seni douma sürükledi bi' anlk sinir Kim arsz kimin namusuyla yaadn bilemez ilahsz biri Her yerden gelen o muhabbetlere kar manitana inandn sikik En azndan sigaran var üstünsün ama aç bir adamdan Üstüne kadn deil bira damlar, albümün alnm'cak DR'dan Vardiyalar var kan bi' yalanla lan kim ararsa dersin inanandan Feyz al tek peace at hit atam san onu bana gelin hatun tip ararsa Seç arkadan çek fark atmz bu kan yaz adm bak var tarafmz aga Bil ki kimse örenemezdi jurassic olmasayd punch kafasn Tut al kafasn tutkal yaratrz ud çal parasn tut kasma kasn Pus tat makasm prim alcaksan ergen hiç brakma vuslat yakasn Rhyme hastasym bu da göstergem, Enes Alper'i herkese göstercem Gene kan verin elzeme dön dersem, bere tak geri kerkenez özlen'ce'n Yere punch atarm karmaann içinden, kurtuldun mu lan ölmekten Peygamberimiz bir harf öretene kul, ona ramen sen öretmen kes</t>
+          <t>Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Sonunu düünmeden yayo'sun Bi' nevi teoride sen de u an ölümden kaçyo'sun Yolunu bilmiyo'sun, yine de gidiyo'sun Çkmaz bi' sokaktan çkmay diliyo'sun Umarm baarl oluca'm ve varca'm bi' sonuca Yaamm boyunca seninle yaranlar olacak Önüne konul'cak hedefler, hadi çanta dolacak Ve paran olursa kaplar manitayla dolacak Malesef denklem bu, güç eittir para Ben de bazen diyorum inan Bu ne çeit bi' kafa!? Belki cebimiz dolunca bi' gün eriiriz ama u an yeterli deil, o yüzden her iimiz yalan Yine de mücadeleye devam, buluruz elbet deva O güne kadar yaamn tadn çkar her an Çünkü geçmiin uzaklard bi' kare daha Bi' bakmn evinde sadece bi' kanepe var Onun da üzerinde yatas yok Pencereden darya bugün bakas yok, havamz bok u an dülerinden çok uzaktasn O yüzden çok normal hayatn gelip sana bi' omuz atmas Ykldn yerdesin, yine de kalkp direnmelisin Bu son ansn olabilir, gidenleri sil Sfrdan bala, yldzlar aka gelir Belki mucizeler balar, mucizeler balar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Ner'de kaldk devam, ne müzik oldu deva Çaresizlik veba gibi, paran varsa kebap Çektirdiler cefa, hep sürmedik ki sefa Bi' defadan n'olur? deyip içtik bin defa Ve devam Projeyle gittim Anl'a kanka dedim toparlanp stanbul'da çekelim bak sokakl Klip sonu lokantann birinde biz yemek yerken söyleseler inanmazdk Dört milyon tokatladk Bok atmayn boa yani gezdik çou illeri biz Sahneleri inlettik de sahnelerden inmedik Kahpelerin sistemi bak mahvederler hisleri Ve hayat Otur yerinde! der zahmet eden pislenir Risk deyip de ilerledik yaptk imdi biri bin ri bi' adamn önünde oturmas tribi gibidir Bilirim kskannca birini dirilip Nefsine Güç Ver'le yaptm bak hayalimin birini Gerilin, unutmadm yerimi Terinizin kokusu kadar iticiydi Rap'iniz Ve evini ykan bir belediye ekibine kafa tutan ev sahibi kadar sinirliyim imdi çekilin Çekici bir kadn kadar fetiist bu Rap ii Tek iim onunla tepiip dourtmakt bebii Her iim geliir sonra deiir eriim Ben de büyüdüm bir ylan gibi derimi deiip Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Rap Genius Türkiye</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gece Sokaklarda*</t>
+          <t>Neyin Nesi</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
+          <t>Deli ii gibi bii deil bu neyin nesi bilmiyorum Sürekli deliriyo'm yaptklarm tek tek unutuyorum Bi' sen aklmdan çkamadn seni braktm yerdesin hala Yönetiyo' eytan beni gitmeme izin vermiyo' asla Gel kendine beni takip et gücüm bitmicek yine geri gelicek eytan bana olur hayran hiro Ömer Hayyam daralyo zaman Yok inanamam harbiden yaptna Senin fanlarn taklyo altmda Aç azn al bunu azna Alrm akln varamazsn farkna Yarasalar etrafmda dans eder kanm için arszca Tepeden trnaa deiecek dünya Fayda etmiyo' ganimetler altnlar Aklnza yazn bunu yazlan hep yazlarn hepsini ifa edicez ansm dönecek bu bana zevk verecek O küçük bi' çiçek ben çirkin dev Koca adam oldum Hala yok gözümde korku Korkun benden korkunç bir dev Koca adam oldum Hala yok gözümde korku Kimseden, hepsine tepkim net Fuck peace, hiro sanki batista Tatbikat yaparm kal aykta narsist bi' stil tarz aykmaz Der bu ne drill falan yapsana sende Siktir ordan Drillci bebelerden olmam Biz dinazorlar Sürtük lirikle oynar Kanlar akar Azn balarm kimse duymaz Yakarm gemide asitin filika stili etkisi gecene kadar da yanmda kal Zaten hep aklmdalar Bunlarn farkndalar ya ya eytanlar yani bamzda kendine gel ya da uzayalm burdan Real phonk, real shit You know what the fuck I'm talkin' about</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HARAM HELAL</t>
+          <t>AĞZI BOZUK</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Grr Para sayan deil, Era7 para yapan bi' makina Pow Belde emanet, el'de Bodrumun harita Konuma be dakika, buluuruz patika Neden istek kutumda, kekem, senin manita? Pow Bilmeden matematik Glock otomatik, iler sistematik, n'apiyim? Yeah Olmuyo' para yapmadm tek bi' saatim Yeah Son icraatim engelledi yurtd seyahatimi Pow stedim beraatimi, vermiyorum i Veriyorum avukat eliinde ifademi Ey, ey, ey Era7capone, evet, bi' çetenin hakimi Bilir misin, bu hayat nelere oldu mal? Yeah, tkr tkr devam Uyurken bile benim bütün iim faal Bu çocuk gangsta, Bodrum Block orkestra Haram ya da helal, bebek, iim illegal Araba üstü açk, gez göz arpack Yerime yatar benim karde Götün yerse arka çk Sardk sarmak gibi, dedim Ate La vida loca, kuliste koka' Verdim srtm duvara ya da Bodrum Block'a Çiziyorum tabaklarn üzerine rota Bilmeden tek bi' nota, Spotify artist Era7capone birazck narsist Pow, pow, pow Delil toplar peimden Asayi Ödediin hesab veriyorum bahi Çekemiyo'm kapris çünkü param var Ey, ya Sürtüklerle aram ama hepsinde farkl numaram var K-K-K-KERO</t>
+          <t>TRVMEN Ya Yeah, yeah Etki on the track Yeah, para, susmadm valla eminsem Ya, ya Sizden iyiyim pistte deilken bile, hâlâ rezilsiniz Ya, ya Dütüm fazla uzun süre kalktm, hâlâ tedirginim Eh, eh Kimse görmemitir gereinden fazla sevindiimi Eh, eh, ya, ya Bilirim, istersin dümemi azlardan Ah, ah Düersem daha beter olur, beslendim hep hrslardan Ah, ah Karma geç, karma geç harcarm, bak, bozarsam Ya, ya, ah-ah Komik olur bana kar saygn bozarsan Eh, eh, eh-eh Evet, VIP simsiyah bi' araba Uçular business class, kardeler bi' arada Evet, GNG ghetto'dan villalara Mm-mm Chavo kolye ald hem de yetmi bin dolara Mm, mm, mm-mm Yetimi mi gangsta mutfak parasna hiç? Yeah, yeah Pembe götlü asosyaller eder kariyeri linç Yeah, yeah Ben baardm, onlar dedi Ner'den çkt lan bu piç? Yeah, ye-yeah Yaadm yer hakknda bi' bilginiz var m hiç? Az bozuk Az bozuk, bu az bozuk da kim lan? Eh, eh Dövme faça, kral benim, baka yok ki bi' iddiam Youngsta, frenle, hayatn koca bi' imtihan Ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya, ya, ya Az bozuk Az bozuk, bu az bozuk da kim lan? Ya-ya, ya, ya Dövme faça, kral benim, baka yok ki bi' iddiam Ya-ya, ya, ya Youngsta, frenle, hayatn koca bi' imtihan Ya-ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya-ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya TRVMEN</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1 NUMARA</t>
+          <t>Criminal*</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kalemi kada hadi dilime bala Snrlarm zorla mürekkebimi boma Benim adm sorma bak neydim noldu vah Gözde kald taht leyli leyli lom Puan 10 ama bana 1 numara dedi Yeteneimi ölçemez cüretkar jüri Duygularm kadar bi' geçmi Kalp mantnn önüne geçmi Birden akl dengelerimi bozdu bi' kozdu bana bi' toz gibi bonzai Rap akli dengelerimi bozdu rap bi' madde çekmeyince zordu Hayalci derler uyku bilmem yazmadm gün içimde bi' dert var Rap olmadan var depremler Rap tahtmn altnda neler var Ben bilemedim ama kim bilir bunu bi' ben bilir rapime can denir Canma can gelir bunu yazan bilir bu yüzden bana hayat hep leyli leyli lom Ve neydin noldun lan ylanlarm attm koynumdan Uykularm bölemezsiniz artk geçtim ben kabuslardan Rap özgürlük yaradan bounam dil verdi Yalvarrm kalemi eline her alan yazmasn bak bu rap piç edildi Özüne dön geri de sayma geri kafal gözünü aç ileri Bi kulaç hadi bu dalgalara güvenme bu dalgalar limana götürmez Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Bi' derde bay bay bi' derde gel gel, derdini senden alana yer ver Bi' derde goy goy gidene bi' yol ver, dert verene de leylide ley lom Krsan kalemimi krlr kalpler Kalbimi kran da üzdü kalemler Kelamlar yeter dil uzatsam evet çünkü dilimin ucu bi' hançer Sapl kalbe bi' rap sevdas rapin belas rapin cezas Üretirim ama dilime bi' laf ver rapin sevab bu rapin mirand Dualarm olur hadi bi' can ver kstlar sesimi sesime bi' ses ver Leyli leyli lom neydi nolacak kurtarmazsan dertde boulacak Dur dedim biraz duy dedim emei sarfedin rapimi kefedin Beni bi' test edin yada bi' ses verin türkçe raplerine leyli leyli lom Leyli leyli lom leyli leyli lom leyli leyli lom leyli leyli lom Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer Gözyam yamur olur günahlarm ykar Topran kokusudur yamura avuç açar Ya yakar ya ykar yapram dala küser Gökyüzüm bana küser küskünlük çok mu sürer1</t>
+          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Çete İşi</t>
+          <t>PALAVRA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sert adamlar size göre deil di mi Ghetto sokaklar size zor gelir di mi Kolluyoruz Adanay çekil bas geri Back to back bu çete ii çete ii Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Uyan bahçende asl bara Güçlü ol ki iin gitsin rast Yine de gez dolu, kafa rahat Kafa bozduuyla kafa dat Kurdun ini, sfr bir Birlikte koparr yeriz bir Sokaklar dar, evler bir Bir yaarz biz, ölürüz bir ç karartr tablo, gösümde logo Benim Picasso'm, Escobar Pablo ç dünyam öldürür, d sebep buna kork Hayatlar bok, düler bizim, Van Gogh rendin çulsuzdu, söylüyordu Müslüm Çekince smokini, dediniz baba te bu yüzden akl deil istiyorum para Uçan bar güvercini deil mahalleye alarm Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Kalarmz çatk gözlerimiz kara Uzaklasak da çeker bizi bela Nasl edek okunuyor sela Cinayetler kol gezer hepsi müptela Mevzuyu abart, elemanlar sakat Bu gece sokaklardayz baba kaplar kapat Rahat uyu, tehlikede güvenlikte Bizde ak atyoruz sadece sizle Yadrgama bizi olmas gerekli böyle Çakallar öterdi yoksa reis bizde böyle Hatrla tipinden dolay mekandan attlar Taramad m hangover kalanikof ile Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii Bugün ghetto yarn çkmalsn oradan ghetto Banka soyup para bulsam dahi yerim ghetto Sikim fame size beyin kafa krk Sanki onun peindeyim peindeyim Sicildeki kirin suçun hepsi bizim Mahalleye girin mevzular kesin Çetenize tehdit adanadan kesit Piyasana asit lamborghini M.O.B Mahallenin içi yerin dibi elin kiri Psikopat yarat minimal taliban çete tehlikeli Evden çkt bu çocuklar çok küçüktü Dokunsan ölürdü imdi dokunma ölürsün Sokak aralar çete ii çete ii Pata küteler çete ii çete ii Mevzular derin çete ii çete ii Adana AC çete ii çete ii</t>
+          <t>Desde tempos remotos europeus construíram impérios Pela glória verdes prados tornaram-se cemitérios Séculos de tortura, genocídio e violações Extinção de populações com diferentes visões Diferentes religiões, valores e culturas Foram exterminadas por civilizações brutas Supostamente mais maduras e mais desenvolvidas Com agricultura, escrita e tecnologias Monarquias e a religião católica Que assassinava mentes independentes de forma diabólica E assim fomos na rota dos descobrimentos Registamos a maior genocídio de todos os tempos Transformamos homens livres em escravos Violamos mulheres indígenas e doenças, propagamos Encontramos terras ricas em matérias-primas E iniciamos as primeiras iniciativas capitalistas Em plantações de açúcar e minas de metais Exploramos sem medida todos os recursos naturais Sem raízes culturais, americanos viraram índios O chicote da civilização tornou-os submissos Enquanto na Europa desenvolvemos a indústria Na América deixamos a miséria e a angústia A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer O imperialismo continua, não pára nem recua Em pleno século XXI, mantém-se a escravatura Obscura, dissimulada, mas em plena acção Agora vulgarmente chamada de Globalização Século XVIII, colónias conquistam independência Mas já com europeus como líderes da resistência Surge uma falsa nação com prepotência e sem ética São fundados os Estados Unidos da América Terra dos homens corajosos e livres Para determinar à força a maneira como vives Recomeça a exploração, corrupção e as guerras Roubam ao México a Califórnia e o Texas Nicarágua, República Dominicana, Filipinas São invadidas e instituídas ditaduras repressivas Ao serviço exclusivo do capital estrangeiro Nativos ficam com fome, empresas, com o bolso cheio A meio veio a infame Revolução de Outubro Sistema novo onde o povo controlaria o lucro É claro que as empresas reconheceram o perigo Por isso, o comunismo tornou-se no grande inimigo E a desculpa para mais invasões Controlo dos recursos e bombardeamento das populações 2 Grande Guerra, surge o Banco Mundial A C.I.A. e o Fundo Monetário Internacional Mercenários económicos em várias nações Corrompem líderes em prol das grandes corporações Assassinatos, ocupações, privatizações Aumento da dívida externa em galopantes proporções No Irão, Guatemala, Panamá, Equador Ainda sofrem os efeitos deste esquema opressor Na Guerra do Vietname lançam o agente laranja Apoiam ditadores no Chile, Argentina e Uganda Financiam os crimes dos Contras na Nicarágua Com os lucros obtidos na disputa armada Entre Irão e Iraque, armam ambos os lados Armamentos para a destruição maciça entram no mercado Ajudam os talibãs a combaterem o Soviéticos Através de novos métodos bélicos sem exércitos A Perestroika, a queda do Muro de Berlim A lucrativa Guerra Fria chega ao seu fim Surge um novo inimigo, filho de imperialismo Como é que pensas que nasceu o Terrorismo? Começa a obsessão pelo petróleo do Médio Oriente Na Guerra do Golfo conquistam os poços do Kuwait Criam a NAFTA por pura avidez Permitem o feminicídio na cidade de Juarez A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer! Janeiro de 2001, Bush torna-se presidente Eterno servente de uma elite prepotente Empresários da máquina da guerra e do petróleo Adquirem o total controlo do monopólio Preparam um acto ilusório para enganar todo o globo O 11 de Setembro não passou de um engodo Uma ferida auto infligida Com vista a uma alta margem lucrativa Clima de pânico perpetuado pelos média Ossama é o falso alvo para mais uma guerra Invasão e destruição do Afeganistão São dados contractos milionários a empresas de construção Colocação de bases militares Com poder para mandar o Médio Oriente pelos ares Próximo passo, expansão do ataque Criação de propaganda para a conquista do Iraque A ligação à Al-Queida, afirmação falsa A ameaça de armas de destruição de massas Mentiras, farsas, noticiadas na televisão Dão origem a uma invasão sem justificação Eles não querem libertar nem desenvolver é cómico Mas subjugar países ao poder económico No meio do drama surge um tal Obama Toda a gente aclama, mas as empresas fazem-lhe a cama Muitas promessas e retórica eloquente Escondem somente mais um impotente presidente Ele chega ao poder e envia mais tropas E a Fundação Nobel lambe-lhe as botas Novas mentiras já estão em circulação Presta atenção à preparação da próxima invasão A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer A questão é a seguinte, à cerca de 5 séculos que os países mais evoluídos tendo os Estados Unidos da América como cabeça vivem à Custa dos países menos evoluídos. Os países da América do Sul, África e Ásia são países riquíssimos em recursos, mas estes Recursos são todos explorados por grandes empresas estrangeiras, que têm o F.M.I e o Banco Mundial como utensílios para Corromperem governos, criarem dívidas externas astronómicas impossíveis de serem pagas e criarem sistemas de autêntica Escravidão e miséria para alimentarem os mais poderosos. Todas as guerras que tu vês a serem anunciadas, têm todos por trás Interesses económicos. Eles não estão interessados na liberdade e na democracia! Estão apenas interessados em alargar o seu Império e a maximizarem lucros, provocando a morte a milhões de inocentes e a destruição da Natureza. Fecha os livros de História Que te dão na escola e não acredites numa única palavra da comunicação social. Todas as notícias que tu vês na televisão são Controladas também por grandes grupos económicos que continuam a ver o lucro como o único objectivo para a humanidade. Os Impérios continuam a ser construídos secretamente e fazem tudo o que podem para destruir os seus oponentes. Sejam Muçulmanos, comunistas, índios ou organizações contra a globalização. Seja quem for que queira distribuir a riqueza das terras pela População ou seja quem for que não concorde com os valores ocidentais, é visto como inimigo a abater. Abre os olhos e antes de Falares acerca destes assuntos, informa-te convenientemente. Investiga e procura informação em fontes independentes Nunca é tarde para mudar, mas o nosso tempo começa-se a esgotar</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CEHENNEM</t>
+          <t>Düzgün Kal</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bizde sabr bu kadard daha da uzun sürmez ulan Çakal, senin yaamann dada uzun sürmez Aslnda bunu bitirmek bu kadar da kolaydr Ah ulan bamzda Atatürk olayd! Kimi kandryorsunuz bu sitemdir! steseydiniz terör de çoktan biterdi imdi mi akla geldi ha, göstermelik muharebe uan ne iktidar umrumuz da ne de muhalefet Köy kasaba il ilçe bin tane ehir Görmedik biz o saraydan bir tane ehit! Dediimi beenmez, halka biraz deer ver Ate dütüü yeri yakyorsa Türkiye cehennem! Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Kaç terörist indirildi saf deiir geriye Bir de ben öldürem seni kahpe lei geri gel! Padiahm susarsak kan deilir yeniden Seçimde buzdolab deil kardeimi geri ver! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr Sekiz aylk karnda, yetim yanan bir düün Hala tiraj peinde bugün kanallar büyü! Yava yava sindirdiniz baardnz artk Kimi Face'ten Twitter'a anca sanaldan yürür! Susmamz bekleyene kabul etmez özverim Sakin olmalymz yapmayalm gösteri! ehit yakn isyan ama TV sadece 'Vatan Saolsun' diyenleri gösterir! Terörist sadece terör yapana denmez Göz yumup da susana da hain derim ben Terör terördür kafan yorma Terörün dousu bats olmaz Biz asla ölmeyiz yldramaz bunlar! Nazilli Piyade er Mehmet Çetin BURDA! Bizi kimse bölemez, defol git burdan Memleketin her yan, her Mehmet BURDA! Padiah fetvayla sakinlik datr Bizde Mehmet çok ya ondan bu rahatlk! En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr En iyi savunma saldrdr</t>
+          <t>Yeter, çabalar, aclar, yaralar Bo sorular, yanlsamalar Kantlamalar, o hatrlamalar Aldramam, hatrlayamam, hatrlayamam Hissiyatsz bir oyun bu, ben kazandm nedense Bir alr, bir verirse ner'de benim sfrm? Bindim arabaya zencilerle kvrp Bu ileri geziyoruz yalandan srtp Ah Sanatçlar Siyonik, algoritma eridi Piyon ektiler topraa ve zombiler dirildi Neye fayda eder ki? Hepsi de delirdi Ah Doktorum bi' torbacdan daha fazla verimli Tekme atar bebekler, imdiden sinirliler Ben kronik vakaym, Fuck you, motherfucka'!ym Param var mutlu deil, tripteyim, bu ipteyim Cambazlara öretiyo'm Ulan, bak, bu ip dil La-la, la-la-la-la Sanki sirktesiniz, ner'de alknz? Hayatn sikr bizim yerde kalmmz La-la, la-la-la-la Sahil esintisi burada reyonlarda Kamera beni çekerken yönetmen hep uykuda Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Birlikte kazanana irket, kaybedene Aile denir Bana öyle bakma, ben de sizin mahalledenim Hâl ve gidi sfr fakat sknt yok, hallederiz Elli metre mesafeden fark ederim kaybedeni ehrin en ilek caddesinde tiner çeker çocuklar Gel de imdi afiyetle scak çorba iç Herkesin bi' mazareti vardr elbet moruk Fakat bir gün olsun hiç unutma, biz hep bur'dayz Ah Sormadm sorularn cevaplaryla megulüm Ve rehberimde ölülerin de numaralar var hâlen Hiç düünme, kaç pis sularda yüzme, kirletir seni Öldürür beni bu duruma düüren alem nsan ömrü pisuvarda izmarit Sen hayatta kal da pembe hayallerin az uzakta dursun Balistik bir detaydr en sonunda kurun Arkadana söyle, ben'le göz temas kursun Ah Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir6</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Çete Kontak</t>
+          <t>Tanrı Korusun</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Svako malo mi se javljaju reperi pikice I mole da ih malo proguram, pa ih gurnem sa litice Glazba ko hrana, jebe noeve, vilice Dobar tek, do kraja pjesme imate slomljene vilice Ti si biznismen? Zakon bro, svako dobro esto putuje svijetom i sreli smo se napokon Dam ti Tram 11 album s eksplozivnom napravom I shvate tajnu crne kutije kad lociraju zrakoplov Treba blagoslov? Tog svetog dodira nema Ostaje glava obitelji, na zidu sobe trofeja Korpulentan fella, jedva smo se rijeili tijela Rambo sranje, ne zbog miia, ve zbog etiri dijela U peini repam, ubio sam Mamuta nedavno Dobar glas daleko se uje, drim kljove ko megafon Mrzim mekano govno, kad takva muzika krene Buim bubnjie, obeajem Vie nee uti za mene. Vrati se kui na vrijeme, gibaj natrag u sobicu itaj Auto Klub, broji suze koje teku po licu eli BMW? Nema pinke za policu Vodim te na otpad, skupa s autom pretvorim u kockicu... Piim katamaranom u Guantanamo S matrama vadim dva MC-a koji igraju biljar s granatama Igra s vatrama, nikad na Jantara jer nastrada kompa Siguran sam, ko u Siriji svinja na ramadam Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Bacim prvu lajnu, a mikrofon ve je satran ak mi Kolak veli da sam nevjero-Jantar Unikatniji od unikata, ti si Drake, ja sam Nathan Satan Panonski, deveta vrata Uvijek biti ete drugi i trei ko Sprite i Fanta Koljem wack MC-e dok svira Mjeseeva sonata Zna ono, kad ti je Broz tata Pa ti kae Daj pogledaj, mui me prostata. Imam bolestan dodir, al nisam Cobran i Mlata Imam ujaka shizofreniara, ima bombe jo od rata I ne kaem to tek tako, mi smo sekta ko likovi kaj dre Pentagon Diem embargo ak ima mekani rep kod Richard GiR je hip-hop dekan i lektor Nekad zvao sam se niko, danas me zovu netko To jest, drugi me zovu, sam sebe zovem rijetko Kakvi su vam utisci? Jednostavne lajne mi kolju ko da su multi-si Spavam dvanaest sati dnevno, to se zove beauty sleep I opet ubio sam i beat, i mic, i studio skroz rutinski off-beat Ljudi me kue ko da sam Josip Ovo sranje vozi, kroz zid, Boe pomozi Punch za punchem, di su stomatolozi ek, ek, ek sekundu, imam poziv Ey yo, Richard GiR, wassup? Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je striktno droga, rep mi sjedi tik do Boga Tintu tvojeg pera prepoznam kad ujem hit iz bonga Dim i smog na traci, kad bacim zapalim svaki beat Ko zlatni pirov novim i podarim zadnji ir Tvrd ko titan, bacim vers ko vrlo bitna karika U dobrom repu kad dotaknem rukom ritam Svako uho titra kad probijam zvuni zid Struni drift na beatu kojeg ne moe nauiti Nedokuiv skill, besprijekorno rutinski Iznesem svaki puta kad u gluhoj sobi sruim zid Tui zvunici izgaraju ko gorivo Tvoj spori flow nikad ne prelazi korito Koridor u kojem vladam okruen je bedemima Svako se sjeme prima, pa uberem emdem rima Nikakva preventiva ne postoji protiv ovog Zarobim slovo i natjeram ga da tvori novo Jebe akciju, strahuju kad kontra krene Obrambene tehnike pamte ko Nota bene Note okamene, tvore krut u metriku Poinju repere vezane uz etiku Sveti krug rijei neprestano krui matrom Kljuni faktor uim ak se slue tuim aktom Runim taktom navigiram let raketa Permanentna strofa, reperi su smijena meta Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón Nebi uli u igru ni kad bi imali eton Ovo je armirani beton Proo vam je voz dok ste birali peron Juan Sebastián Verón, Le Bron Ovo je, ovo je ve esti jebote. Nita od one take-a</t>
+          <t>Daha yazdklarm bence cansz Magazin herkesin dilinde bence çou da kansz Yazdklarm diline yapr kulaklarn yansn Ne kadar urasan da gözümde yktm bir kuralsn dinle sterler seni geri çekmek Hepsini vurmak bana yarm ekmek vermeyen sektörü geri tepmek Herkesten bunu bekleme çünkü bunlarn derdi bu prim etmek Seni kullanmak sektirmek headline MCler bunu yazmaz Sen gerçekleri gör beni dinle Kör gözleri lazm atman, dünyana düzgün bakman Rüyan düzgün anla bünyem psikopat bi' aslan Ezelden beri rap yazmam beni kurtarmaz ben piyasay sarsarm Mcler dinler zehirlendikleri kafiyeden beni suçlarlar takmam Epidemik hayatn kurtarmaz Bi' insan böyle gazlanmak Kald ki epidemik hayatm kurtarmasn beni satcak kadar alçalmaz Davalarla uratm her ie kendim bulatm Yalnz kalmakta çr açsam da ben fetvadan feyz almam Özgürlük ner'de tanr bizi korusun bu yerden Ölüm korkusuyla yaamak genç yamda benden çok ey götürdü Söyle kim kurtaracak bizi bizden Daha önemli bir ey yok sokakta neenden Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden Yaran somuyor oynarsn kapal tribün Rapçiler herkesin dilinde bence çou da üzgün Para kazanmasakta hiphoptan vazgeçmemek mümkün Naslsa ülkemin çölünde domuyor gün dinle Tech N9ne çakmas MC bak çkmad asla menzilden Bok gibi sound yaptklar popçular oynatmaz beni yerimden Gülmekten baka bi' çarem yok saygszlk etmem çünkü Saygszlk onlarn yapt arklard bilmem öyle deil mi? Önemsemiyorum tavsiye arkadalar bile desteklemez ederdi tasfiye Boktan MCleri yutturmanz mars diye Marsn içindeki nükleer bomba benim patlarm pat diye Bi' günde yaamak seni bomasn Nefretin domasn MCler bouna saçn ban yolmasn Ne varsa yollasn urasn beni sollasn Yok çaresi ve kumpas bulama bana tüy sikletin ustas Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden hahahah scratch Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VAMPIR</t>
+          <t>ILERLE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Misli ti uzima kada ju gleda s drugima sad Dok luta noima grad, Zagreb iam te rad Vodio bi je u ir, a mala oe safir Da sjaji kao vampir, da sjaji kao vampir Mala ou je bila aye, feelaj hit do beata je Ko uspinjaa te podie, kad sputa sputa jos nie Ona bi htjela jo blie, da joj doe blie Gori umom pitanja, emu sva ova shvikanja I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima Ne zanima me, ne zanima me Kae bilo bilo je, vie ne zanima me U glavi borba TNT 4 zida nisam free Oe vie uzmi si Pa se onda nosi s tim Sve je kao neki film aye ivim scenu trei dim aye Ak si s nama, nisi s njim ay Neu leana ou green aye Traku skombam dvij min aye Sori mala dobi seen aye Nisi prva niti zadnja bitch Swana ludi laser beam yeah I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima I ta kosa yuh, njena kosa yuh Njoj si dosada, nisi dosta Nisi dosta yuh, jer nea dolara U glavi iluzija misli ti uzima</t>
+          <t>K geceleri alkol alanlarn yanna oturdum Kendi tarzm beenmezdim ama her parçamn sonunda kendimi bulurdum Çekilen aclar tatmak için bi' bama rak sofrasna kuruldum Bana gerekli olan iki sahte dost deil de sevdiim kadna Geri dön. Demeyecek gururdur Vaktinde hiç iyi anlaamazdk annemle imdiyse çok iyi biliyorum Babam ölünce kymete binecek Bense hiç yazamayacam onlarla yaadm mutlu anlarm bu deftere Çektiim Çileler kalbimi söktü çkard zaten Artk gerek yok içimi demek için ameliyathanede kör bi' netere Defterimi doldurduum kalemin ucu krk Gittiim yolun yok ucu buca nsanlar istemiyo' sayfalar karalamam Neden bu hrsnz? Yoksa sebebi alamamak m intikamnz? Haline otur da ükret. Çünkü Sokakta karn ackm çocuklar dileniyo' hallerine yazk Yan daha 15 lerde görü'cen mutluluu imdiyse rahatla Sigaraya baladn. Biliyorum. Çünkü Oturupta 2 kelam edemiyo'sun babanla Anan da üzülür sen kötü ilere bulatkça Kendine öyle bir dost edin ki Yüzün hâlâ gülüyor olsun Onunla sohbetin son bulmu olsada</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ne Gereği Var</t>
+          <t>AİLEM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KISIM I 530 Bebeim, uh Oha, bebeim, aradnda telefonu kim açacak? Evet, evet 530, araba kayp Ne bir cevap var ne de geri arama, hepimiz madurmuuz gibi hissediyorum Limanlar daha da uzamaya balyor Sarhoken mesaj atyorum, Patrón içmemeliyim Telefonu elime alyorum, müziimi açyorum, alanma giriyorum Sarhoken mesaj atyorum, Patrón'a dava açmalym Sana doru bir ekilde yaklamak için yanl admlar atmak zorunda kaldm Bütün bu admlardan geçmelisin ki tavsiye verebilesin O elenceli gecelerin bedeli, likörün vurduunu hissdebiliyorum Neden birisi snin kalbini krdnda, görüünü düzeltmene yardmc oluyor? Eer bir eytana ya da divaya ak olursan Ruh ikizinle bulutuunda, onun ruha sahip olmas için, dua et Kristal top, onlarn beni tekrar terk edip etmeyeceklerini söyleyemedi Problemler orta boyla paylamak için fazla büyük Bu seviyede, et ve kan için savamyoruz Ve eytann avukat, eytana avukatlk yapyor Ak tamamen akp gidiyor, durmas gerek, hepsi soluyor Eskiden gizli davranrdk, ama imdi, her ey çok bariz Hepsi kayp, deil mi? Her eyin çöküünü izliyoruz Konumann ana konusu biziz 530, araba kayp Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Oyun vakti, aslnda, Ye vakti Geçen yl garip geçti Çocuklarmla FaceTime üzerinden görütüm Ve kim ilk önce kimin kalbini kracak? Hep benimkini kryorlar Tanrnn bana verecei kutsamay bekliyorum Ben burada bir aile yetitirmeye çalyorum, nineyi de bakalar yetitirmeli Seni yalnz brakmaya çalyorum Ama son mesaj Patrón'un yüzündendi 530, araba kayp Duygularmdan uzaklatm Mesajlama deil, sadece arama eksik Kavga ediyoruz ama sen dinlemiyorsun Evet haklsn, ikimiz de saçmalyoruz Ksm II Dear Summer Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum Zar zor dayanyorum 530, araba kayp Mesafe dediin ey bu mu? Biraz, camdan hapishanenin içinde Duh-duh, son görümemizden önce Bu i tamamdr, evet, umarm i görmütür Bu i görür, hayr, i gördü Bu konuya çok sinirliyim, yaptmz sanmtm Herkes, hepimizin çok fazlasn istiyor, biz hariç herkes Geriye kalanlarn daha az ne bilmiyorum, daha az olmadan uzakla ve kaç Bizden geri kalanlar yazmaya çalyorum, bizden geri kalanlar yazmaya çalyorum Baka bir ey yazamyorum, yazarn ne yaptn merak ediyorum Söyledikleri her ey yaand, ön gördükleri her ey yaand Ne kadar kötü olduunu bilmiyorum, bunu nasl unutacam bilmiyorum Bunu nasl unutacam bilmiyorum Ne olduunu biliyordun, ne olduunu biliyorsun, çocuklar biliyorsun Yaptmz biliyorsun ve ben de yaptmz biliyorum unu bil, kabul edeceim, devam edeceim çimdeki duygular dar çkarttm ve içeri giriyoruz Bütün listeyi tek bir telefonla hallederim ve yldrmla yüksee çkarm Dayanamyorum, dayanamyorum Sen sahte bir orospusun Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu O arklarn içinde yaamyorsun, nasl bir düünce, orospu Git Lil Baby dinle, git Future dinle, orospu Yumuak ol, gelecein hakknda düünmüyorsun, orospu Sa-fah-na-da yapma, bunda yeniyim Da-da, na-dana, bunlarn da üstesinden geleceim Pa-da-la, fa-na-dan, bunu düünme Senin için en tepeden düemem, orospu Sen gerçekten Ye'yi sevmiyorsun, git Drake dinle, orospu Young Thug, Thug, Gunna Wunna, orospuya yap Git Lil Baby dinle, git Future dinle, orospu Bir kaçak için huy olmadan önce Wunna-tunna-dunna-dunna, ve ben orospular sevmiyorum Sen Ye'yi sevmiyorsun, sen Moneybagg Yo'yu seviyorsun Sözlemeyi imzaladn yeri imzaladm? O ne için kötü? O neye kzgn? Sen sahte bir orospusun Beni dinleme, dinlemene gerek yok, git Drake dinle, orospu Git Lil Baby dinle, git Future dinle, orospu Ama eer ben senin için geleceindeki nunna-dunna isem, orospu Umarm ki bebeinin babas kaçaktr Ve umarm çocuu kaybettiinde, sanna-danna yaparsn Ve umarm ki, bununla danna-danna yapmak istersin Bu son cümleler yaland Son mesaj Patrón yüzündendi Bir eyler balattm m? Kalp krkl yok, bunlarn da üstesinden geleceim</t>
+          <t>'Cê vai pra sempre estar em mim Diz que a história não acabou Que depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah Ainda te sinto nos meus sonhos Toda noite eu te encontro nas estrelas Pra dançar nossa canção Lembro da sua boca no meu rosto Na última noite de agosto 'Cê já sabia que ia levar meu coração E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois 'Cê vai pra sempre estar em mim Diz que a história não acabou E depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, e eu te vejo lá Ah, ah, ah, ah E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois E eu te vejo lá6</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SÜR</t>
+          <t>BUL AGLAMAYA BAHANE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2010Finale Første Runde - Oslo Spektrum, Oslo 04.09.2010Alexandra - Det vi vil SuperfinaleMurphys Law - Åbbår SuperfinaleJulie - Berømt SuperfinaleTorstein - Svikter aldri igjen SuperfinaleSara - Utfordring UteEmilie - Hvorfor skal det være sånn? UteArbaz - Dans jente, dans UteMaria - På grunn av deg UteBasic Warning - Kom til oss UteJohanna - Følg din drøm UteSuperfinale - Oslo Spektrum, Oslo 04.09.2010Torstein - Svikter aldri igjen 1. plassAlexandra - Det vi vil NAMurphys Law - Åbbår NAJulie - Berømt NA2011Finale Først Runde - Oslo Spektrum, Oslo 03.09.2011Sol - Kom tilbake SuprfinaleSeven B - Et fett liv SuperfinaleSval - Trenger deg SuperfinaleKristin - Alltid være barn SuperfinaleThe Sugarsmokers - Fåkke lov UteLina - Klatre steg for steg UteNordlyset - Ikke gå i fra meg UteEmma - Don UteTiril - Du planter et smil UteErlend - Ta det som det kommer UteSuperfinale - Oslo Spektrum, Oslo 03.09.2011Sval - Trenger deg 1. plassSol - Kom tilbake NASeven B - Et fett liv NAKristin - Alltid være barn NA2012Finale Første Runde - Oslo Spektrum, Oslo 01.09.2012Berge - På vent SuperfinaleBeat Track - Drømmer SuperfinaleVicky - Skate SuperfinaleMarcus Martinus - To dråper vann SuperfinaleMina - Mas UteJulie - Bare vær dæ sjøl UteSebastian - Hekta UteMy brother Me - Gi aldri opp UteNina - La meg forstå UteFrida - Du kan stole på meg UteSuperfinale - Oslo Spektrum, Oslo 01.09.2012Marcus Martinus - To dråper vann 1. plassBerge - På vent NABeat Track - Drømmer NAVicky - Skate NA2013Finale Første Runde - Oslo Spektrum, Oslo 31.08.2013Henrik - Når jeg ser på deg Superfinalea-stream - På vei SuperfinaleSynne Ingrid - Superdeal SuperfinaleUnik 4 - Så sur da SuperfinaleUzia - Stjerner UteMaud Kornelia - Skjera baggera UteIda - Lev ut drømmen idag UteThale Henriette - Ikke snu UteDaniel - Tiden går fort UteSuperfinale - Oslo Spektrum, Oslo 31.08.2013Unik 4 - Så sur da 1. plassHenrik - Når jeg ser på deg NAa-stream - På vei NASynne Ingrid - Superdeal NA2014Finale Første Runde - Oslo Spektrum, Oslo 30.08.2014Dråkmat - Æ ane itj æ SuperfinaleAksel - Ingenting å tape SuperfinaleMathea-Mari - online SuperfinaleVanja - Du stod der og lo SuperfinaleThea Sofie - Jentekveld UteTyra - Det e hælg UteUR - Hadde det vært no'? UteDisel - Stopp UteMonkey'Boy - Som en ørn UteTuva - Diva UteSuperfinale - Oslo Spektrum, Oslo 30.08.2014Mathea-Mari - online 1. plassDråkmat - Æ ane itj æ NAAksel - Ingenting å tape NAVanja - Du stod der og lo NA2015Finale Første Runde - Oslo Spektrum, Oslo 07.11.2015Espen Fernando - Vær deg selv SuperfinaleThea - Du gjør mæ så glad SuperfinaleHenrik - Kan det bli du og jeg? SuperfinaleEmmy - Aiaiaiai SuperfinaleEmma Noor - Hjerterytmen UteKaroline - Supergutt UteTorunn - Åpent hav UteNora - Gi slipp på alt stress UteEllen - Drømmeland UteGeneral Chesz - Redd meg UteSuperfinale - Oslo Spektrum, Oslo 07.11.2015Thea - Du gjør mæ så glad 1. plassEspen Fernando - Vær deg selv NAHenrik - Kan det bli du og jeg? NAEmmy - Aiaiaiai NA2016Finale Første Runde - Oslo Spektrum, Oslo 05.11.2016Dina - Sterk og rå SuperfinaleTobine - Halloween SuperfinaleVilde og Anna - Vestlandet SuperfinaleNoah - Sterk SuperfinaleEmma R. - Unik UteJørgen - Vi to? UteEmma S. - Reis dæ opp UteRebecca - Den gangen UteBeat2Fire - Gode minner UteAlma - Annerledes UteSuperfinale - Oslo Spektrum, Oslo 05.11.2016Vilde og Anna - Vestlandet 1. plassDina - Sterk og rå NATobine - Halloween NANoah - Sterk NA2017Finale Første Runde - Telenor Arena, Fornebu 04.11.2017Magnus - Alt er herlig SuperfinaleOselie - Verda vår SuperfinaleElla - Pop drop dab SuperfinaleEirik - Her for deg SuperfinaleIris - Hjem UteSolmaz - Jeg har en drøm UteF5 - Generasjon prestasjon UteElida - Framtid UteEdvard - Bare 11 år UteVeronika - Æ må reis mæ opp UteSuperfinale - Telenor Arena, Fornebu 04.11.2017Oselie - Verda vår 1. plassMagnus - Alt er herlig NAElla - Pop drop dab NAEirik - Her for deg NA2018Finale Første Runde - Telenor Arena, Fornebu 03.11.2018Indiana - Følg hjertet SuperfinaleNolea - Bare du og jeg Superfinale4everU - Forandring SuperfinaleFredrik - Je vil værræ en venn SuperfinaleAda Frekk UteTwilight - Fortapt i skumringen UteNameless 5 - God nok UteAmmy - Trenger ikke UteFyah Yardie - Lære UteUnknown - Bussen heim UteFinale Første Runde - Telenor Arena, Fornebu 03.11.20184everU - Forandring 1. plassIndiana - Følg hjertet NANolea - Bare du og jeg NAFredrik - Je vil værræ en venn NA2019Finale Første Runde - Telenor Arena, Fornebu 25.05.2019Stone Heart - Ække så kul som deg SuperfinaleHedvig - Du SuperfinaleAnna Emma - Kloden er syk SuperfinaleMaria - Musikkens budskap SuperfinaleEmsen - Jeg tror på dere UteCAOS - Aldri gi opp! UteMikkel - Redde verden UteEmma - Lyset inni meg UteAlfred - Du e så fin UteAnine - Hundrevis av år UteSuperfinale - Telenor Arena, Fornebu 25.05.2019Anna Emma - Kloden er syk 1. plassStone Heart - Ække så kul som deg NAHedvig - Du NAMaria - Musikkens budskap NA</t>
+          <t>K ritmin içine gökyüzünden dalan bir ahin kadar sinirliydi Bu ghetto'da isim yapmak kadar zor fakat bir o kadar sevinçliydi Nefesimi bugün de kesemediniz ben hayallerim kadar dirençliydim Olmak zorunda deilsin kafam mahallen kadar geni miydi Geni miydi ha geni miydi belki de bir anda deimeliydim Ritim ve natoyla ayn yataktaym hiç durmadan da sevimeliydim Gevi getirdi ve geli dedirtti Takale kendini fazla belirtti Üstüme gelen bu ehri umursamaz bir tavr içinde ve kendi delirdi Bana hala yeti diyorlar çünkü bu ormandaki tek kral benim Bana benden bakas dost olamaz egom fazla yüksekte krar zemin Saçlarn sarya boyatp Raponza gibi yapacaksn melankolik Harcamalarna kz avlamaya devam önüne alrsn birkaç kemik Ayn basamakta deiliz yorulduun an durup da bir sigara yakarsn Takale tasman sald korunmak için de hançeri o götüne takarsn Ilham gelince sol eline bak kek, duygusal bir parça yaparsn Sabah kahvaltsnda kaar görsen eski sevgiline mesaj atarsn Neyse siktir et, belki de bundan daha fazlasn hak ediyorum olsun Kimi kendini fazla kandrd kimin amac da sadece cüzdan dolsun Dolsun tabii niye dolmasn ki bo kalan yerlerine Kürat koysun apka ve sakal bu ehirde çakalm bazen emanet bazen kurun Hadi anlat x7 Hadi anlat, anlat, dinle gölgem siyahi ama gece rahatna bakmadm Mahallemdeyim ve etiketin düük ama ben dostumu asla satmadm Aslan kesildi tayfan gerildi kangren olacak o mic tuttuun el Herkes merak etti ama hiçbiri yaktrp o capi kafasna takmad Sanki bir Harlem mantk arar, övdüün o burjuvaya pandik atar Göl, köprü tepe üstü üzerine birden korku salar Bunu anlatmak isterdim ama yaamadan örenemeyeceksin Çekmecedeki tek safkan biziz ve bunu asla göremeyeceksin Ama neden neden kafam ar basar bu bedel kadar ar yaantlar Bir düzen kuruldu ve ykld kumar gözaltlarmdaki o ahane duvar Bahane bulan bir kerhane bul al kendine bir hatun elalem u'lar Bu kaçnc sunan karanlk sular punchline o zihne dinamini kurar Bu terapi stili senin eline verir o kç krk mikrofonu sana deneme dedim Ne geri ne ileri Hiphop için elemedeyim o zaman ele bebeim hadi be unu göreyim Elime tekila shot verip tuzum kuru demeyin veyahut kuru deneyin bu sorunlu bir deneyim Bir kere de brakn emeinizi kenara o zaman müzik nasl yaplyormu sizi göreyim Bekle sorun deil bekle, bekle sorun deil K34 yakana yapacak bu sorun beyim Ben zaten zirvedeyim, Aras yeni bir deneyim Beni de deneyin o sabrnz bir göreyim x21</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MUFASA</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home Altro che Freud o Platter, è questa musica che cura bene Ricuce tagli al cuore in extrasistoli leggere Ridona il fuoco a chi oramai s'è perso dentro al ghiaccio E in un abbraccio che ricevo l'assaporo e taccio Lei è catarsi, infuocarsi ed acquietarsi Fra 'sti falsi pazzi, ma con lei non temo passi falsi Lei è casa, mano tesa, luce accesa nell'intesa Di due cuori che perseguono la stessa meta Consuetudini da cui scappo come Houdini Perché a fatica reggo il peso di certe incudini Colpa degli sbagli miei che non rifarei e per i miei Delusioni e fori al cuore come Dorian Gray Vorrei trovarti al pianoforte come Ray Con te sulle mie orecchie piano o forte correrei Tu c'eri in quelle notti fredde, ci scommetterei Che eri l'unica ad udire le mie urla, tu sei Oda Mae Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home È tra le guerre di Ungaretti e Bukowski Che cammino e scosto fumi dentro boschi nascosti Mostri dentro mostrano 'sti volti loschi E appena mostri loro inchiostri Fanno tanto i tosti e dopo scappano scomposti Anima e musica sono unite da una musa Che canta mentre incanta, m'accompagna e non comunica Le chiedo Dove sono?, o meglio Dove ero? Lei si avvicina e dice Benvenuto nel Locus Ameno Sorpreso temo, mentre scorgo il sole e il cielo tremo All'improvviso odo un riso, è questo il paradiso Serenità ma non nell'aldilà, il mio Amon Ra È dentro cuffie mezze rotte Proseguo per 'ste rotte, fra cuori rotti e botte Fra botti, fischi e intoppi, qua siamo troppi Ci dividiamo fra chi cerca il sole solo se vicini E quelli che son forti solo soli, come Pasolini Oh, you can't hear me cry See my dreams all die From where you're standing On your own It's so quiet here And I feel so cold This house no longer Feels like home1</t>
+          <t>Çok track var Gösündeki kllarn says Aaa Pit10! Naber verseümdeki yllarn hasm Ego biter ses ver be ksmayn atnz eyho siker, cCc skmayn cann Szlanr yaras kskanmayn hrslanp yaznz z kalr atnz skaladn sklr kalbn Iskartalk maln ilk yaprana slatp yatrn Ismarlarz canm spanamz rzladr sanrm Küsemiyorum kadere hatalar benim Sövemiyorum felee hatalar benim Göremiyorum nerede hatam var benim Hatalar satr aralarnda yatarlar enik Atta gidelim hey hatta ce-ee fucked up bebe Takm taklavat takn alt kat yere Ma'fucka rakm underground muhatap ve de Ala nigga yakn aklar mal fuck rape Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Ver Bat'dan melodimi ve tempomu diz Tarlama haseti çaktrmadan eker koku pis Top triple bozuk yap seker çou bir Türkçe Rap'e biber lazm homie çocuk deil stanbul'da homosun Japonya'da geya Uzi bana pussy gibi bazookada ehinah Nolursa eklin gel mason ya da petemal Ama bana deil yani mal olmadan geç pas Haclar ac verir açk elim kaçn geri Kçn yeri öper benim ilhamn kasl beyim Hiphop akl seli moron tti fasl ezik Meydanmda asl ezip kasl delir ba eim Egomu saf d brakmak egonu katleder Meteor gibi gelen nesiliz def olun sahneden Ne konum fark eder ne ya bir olup harp eder- -Sek birinci nesil biz gelince Zyon'u kaybeder Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil imdi bu adamlar birbirlerine bu kadar diss yaptlar, küfrettiler yani bu tükürdüünü yalamak oluyor biraz, gel sen o kadar birbirine küfret sonra gel beraber ark yap yani nerede kald sizin gururunuz onurunuz yani ................................... özet geç piç3</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GNG Klan*</t>
+          <t>Backflips</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
+          <t>Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks Skatoties apkrt ko adrenalns veic Kaepe tu i' traks, t man imaks teica Ms baudam dienu, bet dados veidos Dzima baudt dzvi, ne lai par to steigtos Man mzika , kam ritenis, kam bikes Patrinjums apstdina, apstjas laiks Un vl kad mljies adrenalns sprgst Klausoties mziku, maigums un Te pki kds uzmet skaistu triku Easy Saldus saldo backflipu Nemaz jau nav traki ar izpletni vai gumiju Daivot oken, bt biznes ar uzviju Splm piesdies, atslbis sabijies Sportam jtot ldzi pacilts, aizdedzies Kam man apstties, viss notiek pats no sevis Adrnalns visiem reizi biki kaut ko devis Tu rdzi to visur, tas scs tev t k mitrums To tev prass, kad tav dzv iestjies kritums Tas tav galv kp k kaln kpa alpnists Kas nebaids krist, izejot uz risku Tav prt nav viss kas parasti iet tev pretdabisks Gatavs esi raut, plst, lkt un krist, kam tev tas viss? Jaunb viss iet jaudgks, tur jau tas triks Ms visi esam dzves baudtji, nav jau tik slikti Vairk draudgs nek draudzgs is bts tav playlist nekad nebs saudzgs Pa ausm dauzs k pa spaini, paem pauzti Trausl vainas apzia ir ierakusies kaudz Adrenalns, ko izjt daudzi, risku raudz Aveu vns, izjti baudu, visu zaud Nesakrist var manas domas ar tavjm Tomr pie tmas s, ts mazliet kavjs ljos es, savienojot punktus galjos Apvienot te, visus tuvjos un tljos Rga, Saldus izkliedjot visus maldus Skanot im te, neviens neteiks vrdus saldus Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Her Gece (Remix)</t>
+          <t>LE CANE (RMX)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>31 6LACK - Since I Have A Lover Apel8 - Wednesday ft. SosMula Arlo Parks - Impurities boygenius - Not Strong Enough Dende Eimaral Sol - Swerve Elita - It's a Joke Fontaines D.C. - 'Cello Song James Arthur - Say You Won't Let Go Sped-Up Joyce Cheng - Believe Us Katie Melua - Quiet Moves Matt Citron - 2 Another Time Metallica - If Darkness Had a Son Milky Chance - Living In A Haze Portugal. The Man - Dummy Puppet - Ignorant Fool Wiz Khalifa - Little Do They Know 32 Anuel AA, Mambo Kingz DJ Luian - Más Rica Que Ayer Ashnikko - Worms Brevin Kim - Ghost Cub Sport - Songs About It Gareth.T - loner anthem King Princess - The Bend Lunay - Ronca M Huncho - Conspiracy Charges Maldy - Tiempos de Plan B Matt Citron - Heart Like Stars Peach PRC - F U Goodbye Pink Sweat - Aint No Sunshine Royel Otis - Sofa King Simply Red - Better With You TEDDYYBEARR - RED! RED! RED! The Weeknd Ariana Grande - Die For You Remix Acapella Valley - Good, But Not Together Walker Hayes - 6 string american dream Zelos Wong - Beautiful Bitchy Bros 33 AK - Lemme Find Out Anne-Marie - SAD B!TCH IVY Remix Arizona Zervas - BIG BUCKS Arlissa - Hard To Be Austin Millz Sabrina Claudio - Inhale Exhale BIA - SIXTEEN BIBI - BIBI Vengeance Remix ft. Princesa Alba Baby Tate Big Boss Vette - Pretty Girls Walk Remix ft. Coi Leray Birdy - Raincatchers Busy Signal Crawba Genius - Party Nice Charmaine Fong - Vanish Mode Citizen Queen - So Special Demi Lovato - Still Alive Derivakat - Nightmare Dimitri Vegas Like Mike, Ne-Yo Danna Paola - Mexico EMELINE - feelings Emma Steinbakken - Parents Frank Walker - I Go Dancing Joel Corry Remix ft. Ella Henderson guardin - it lives where i live Gus Dapperton - Horizons Hotboy Wes - WWDY ILLENIUM - Insanity ft. American Teeth James TW - Another Heart Jax USA - Cinderella Snapped Jon Wayne Hatfield - Tell Me Ray Kacey Musgraves Mark Ronson - Can't Help Falling in Love Leland MUNA - Bad At Letting Go Lindsey Lomis - This Time I Don't Wanna Loren Gray - Told You So Lukas Graham - Home Movies Acoustic mansonvibes - ONE WAY TICKET Maja Francis - Saturn Masked Wolf - 6ft Deep Matt Citron - Let It Fly Miley Cyrus - Flowers Demo Milow - Christina's Eyes Mitchell Tenpenny - We Got History Acoustic Miya Folick - Mommy Nicki Minaj - Red Ruby Da Sleeze Now United - Holiday Skytech Remix ft. Skytech Now United - Rodeo in Tokyo Oliver Tree David Guetta - Here We Go Again Owl City - Vitamin Sea Pap Chanel - Left Right Rawayana Danny Ocean - Binikini RichyRanger - Hill-Billy RMR Ryan Lewis - Crazy Ruben - Easier Sam Ryder - Put A Light On Me Stripped Sigala Mae Muller - Feels This Good ft. Stefflon Don Sonny Fodera Lewis Thompson - Shadow ft. MORGAN Steve Aoki, Galantis Hayley Kiyoko - Hungry Heart Suki Waterhouse - To Love THEY. - In The Mood ft. Yung Bleu Tom Grennan - Here Acoustic Triple G - Hill Voda Fuji - Fair Enough Vybz Kartel - About Last Night Vybz Kartel - Shootaz ft. Masicka Walk Off the Earth Lauv - My Stupid Heart 34 Matt Citron - Jaguars 35 6LACK - A Letter To My Fans Give Heart Productions - Colors of the Heart From Blood Matt Citron - Diamonds Girls Mili - Between Two Worlds Preston Duffee - Something to Write About 36 Barrie - Empty Billie Marten - I Can't Get My Head Around You Jeremy Lee - CLOSER Lil Zay - Too Playa Matt Citron - Believe in Ghosts Sammi Cheng - Love is 2.0 SBTRKT - Waiting ft. Teezo Touchdown Telenova - Lost in the Rush The Tallest Man On Earth - Henry St. 37 Alaska Reid - Back to This Angel Olsen - Nothing's Free Li Rye - Outta Town Lul Bob - Just Friends Matt Citron - Southern Grange Miles Chancellor - TSK TSK Peter Gabriel - Playing for Time Dark-Side Mix 38 Christine and the Queens - To be honest Duncan Laurence - Skyboy Hatchie - Rooftops ft. Liam Benzvi Indigo De Souza - Smog joan - loner Lauren Daigle - Thank God I Do Lil Keed - Self Employed Matt Citron - Garage Moli - Bring on the Rain Rob49 Peezy - Let Me Know Róisín Murphy - CooCool Overcoats - New Suede Shoes The Jungle Giants - Trippin Up Valiant - Expensive 39 Anne-Marie MINNIE - Expectations BigWalkDog - Worldwide Depeche Mode - My Cosmos Is Mine Florence the Machine - Just a Girl GAYLE - everybody hates me KATO2X - Global Lau Heung King - As If Lily Moore - Beautiful Lie Mae Muller - I Wrote A Song Maluma - La Reina Matt Citron - So I Told Jamie NF - MOTTO Nicki Minaj - Red Ruby Da Sleeze A Cappella NICKI NICOLE - NO voy a llorar Sophia Scott Zack Dyer - Getting Over You Thing Yaya Bey - on the pisces moon 310 6LACK - Talkback angelus - FERRARI Anthem Lights - Surrounded Augustine - Mary Cookins Bebe Rexha - Heart Wants What It Wants MK Remix Becky G. - Arranca ft. Omega Call Me Loop - Butterflies Calvin Harris Ellie Goulding - Miracle Camylio - leaving home Carrie Underwood - Out Of That Truck Chelsea Cutler - Stay Anything Chromeo - Words With You Claire Rosinkranz - Never Goes Away Cuco - Si Me Voy ft. The Marías Danielle Bradbery - A Special Place Acoustic D Sturdy Fivio Foreign - Against The World Eason Chan - Lightly Echosmith - Hindsight Godfather of Harlem Swizz Beatz - Street Opera ft. SAINt JHN, Fivio Foreign BIA Gorgon City - Voodoo Hannah Grae - Hell Is A Teenage Girl Hotboy Wes - Reaper Joyner Lucas - Devil's Work 2 Juhn, Miky Woodz Luar La L - Soldados jungle bobby - at the rave with my friends Kanii - I Know Karen Harding - Back to You Maria Mena - Not Worth It Marina Kaye - Heavenbound Matt Citron - Step That Step Yep Megan Moroney - Lucky Meghan Trainor - Mother Morgan Myles - Hallelujah Mr. Vegas Yemi Alade - Bright Future Navvy - Till You're Ready Nicky Romero Nico Vinz - Forever NLE Choppa - MO UP FRONT Now United R3HAB - Run Till Dark Marf Yau - SilencioShh Parker McCollum - Speed Phillip Phillips - Love Come Back To Me PNAU Khalid - The Hard Way Quin NFN Money Man - Revenue Rae Sremmurd - Tanisha Pump That Rich Amiri - Salty RichyRanger - Spinning in a whip 4 Rival Sons - Bird in the Hand Rvssian, Danny Ocean Sean Paul - No Me Controles Saadi Four Baby Money - FWM Sam Hunt - Outskirts Sam Ryder - You've Got The Love SASH - THIN ICE Seeb, BANNERS SUPER-Hi - Submarine SIIGHTS - Late Nights in Soho Sophie and the Giants - DNA ft. MEARSY Straight No Chaser - Heart to Heart T.I. - Active ft. Kevin Gates Tame Impala - Wings of Time Tiësto - All Nighter Tom Grennan - Here The Magician Remix Torren Foot - New Bottega ft. Azealia Banks tuv - cold ft. funeral Waterparks - BRAINWASHED WINKA - Its Me Zak Abel - What Love Is Syn Cole Remix Zara Larsson - Can't Tame Her Acoustic 311 DAGames - Return to the Motherland ft. Elsie Lovelock Kevin Gates - Trying 2 Forgive Matt Citron - Won't You Answer Me 312 Matt Citron - Cherry Pie Victor Vernicos - What They Say 313 JPEGMAFIA Danny Brown - Lean Beef Patty Matt Citron - Same Old Same Old Sett - Switches Tash Sultana - James Dean 314 Avenged Sevenfold - Nobody Baby Rose - Stop the Bleeding EST Gee - 25 MIN FREESTYLE Everything But The Girl - Run A Red Light JOSEPH - The Sun Lana Del Rey - The Grants Matt Citron - Dwells On Devotion M.E.D - Friend Serrini - Into the Forest 315 Alex Vaughn Ari Lennox - Demon Time Remix Dan Croll - Talk To You Eloise - Therapist Fenne Lily - In My Own Time Mac Critter - Nightmare Matt Citron - Wind In My Sails Nothing But Thieves - Welcome to the DCC ODESZA - To Be Yours ft. Claud Phoenix - After Midnight Remix ft. Clairo The Lemon Twigs - In My Head 316 6LACK - Fatal Attraction Alison Goldfrapp - So Hard So Hot Belinda Carlisle - Big Big Love BigWalkDog - Protect Me From Evil boyband - FRONTO!! Feist - Borrow Trouble Kamal. - white wine Matt Citron - Misplaced Scene Queen - 18 Snakehips Tkay Maidza - Show Me The Money venbee - gutter 317 AK - Relentless Ali Gatie - Seasonal Love Aluna TSHA - Killing Me Amaarae - Reckless Sweet Astrid S - Fuck Off Azure Ryder - Angel Bailey Zimmerman - Religiously Bea Miller - jealous of my friends BEKA - Tears BIGBABYGUCCI - RED ft. Fijimacintosh BlueBucksClan - Legendary Byron Messia - Moca Desiigner - PMR ft. A Boogie wit da Hoodie Doechii - What It Is Block Boy ft. Kodak Black Doechii - What It Is Solo Version Elaine Blxckie - Loving You Elley Duhé Teddy Swims - FACE MYSELF Felix Cartal Daya - Love You More Fred again.., Skrillex Four Tet - Baby again.. Good Kid - Mimi's Delivery Service Greyson Chance - Herringbone Gryffin - Dreams ILIRA - YOU INNA - My Crystal Nails Jason Derulo - It's Your Thing Jax Jones Calum Scott - Whistle Acoustic Jessica Mauboy - Right Here Right Now Joy Oladokun Noah Kahan - Were All Gonna Die Julie Bergan - Diamonds JVKE - this is what losing someone feels like K. Michelle - YOU Kodie Shane - Break Me KYLE - Movin' Lewis Capaldi - How I'm Feeling Now LOVA - And The Oscar Goes To Luke Combs - 5 Leaf Clover Matchbox Twenty - Wild Dogs Running in a Slow Dream Matt Citron - Falling Faster Melanie Martinez - DEATH Metro Boomin, The Weeknd Diddy - Creepin' Remix ft. 21 Savage MIRROR - RUMOURS Morgan Evans - On My Own Again Moyka - Rear View Natalie Jane - seeing you with other girls Nico Santos - Number 1 Nightly - Radiohead NOAHFINNCE Bears in Trees - NO POINT PRETENDING SONG FOR TOUR Picture This - Song To Myself Regard Ella Henderson - No Sleep Russ - NASTY Ryan Beatty - Ribbons Sam Feldt, Jonas Blue, Endless Summer Violet Days - Crying On The Dancefloor Seafret - Wonderland Sheppard - Good Time Spencer Coyle - Castaway ft. Drax Project Taleban Dooda - Come After Me Tamar Braxton - Changed Tayla Parx - Dream Hotel Taylor Swift - All Of The Girls You Loved Before Taylor Swift - Eyes Open Taylors Version Taylor Swift - If This Was a Movie Taylors Version Taylor Swift, Joy Williams John Paul White - Safe Sound Taylors Version The Chemical Brothers - No Reason Tom Grennan - Here Punctual Remix Tony K - No Problem Tori Kelly - missin u Usher - GLU Vybz Kartel - Boo Him Walker Hayes - if father time had a daughter Wee2Hard - Say Gang ft. Anti Da Menace Woodes - Lifetime Yuna - Menanti 318 Matt Citron - Damages 319 Matt Citron - Totally Rad 320 Amelia Moore jxdn - FUMD Mac Critter - Cake Matt Citron - Drinking The Ocean Peter Gabriel - Playing For Time Bright-Side Mix RNS - Fovou to Crew The Japanese House - Boyhood 321 Bully - Days Move Slow Charley - Worst Taste In Girls JPEGMAFIA Danny Brown - SCARING THE HOES Let's Eat Grandma - From the Morning Li Rye - Broken Heart LØLØ girlfriends - 5,6,7,8 LP Giobbi - If Love Is A Skill ft. SOFI TUKKER Matt Citron - Hot Like A Sauna Shygirl - Woe I See It From Your Side ft. Björk Tessa Violet - You Are Not My Friend Valiant - Motorcade 322 Brevin Kim - The Poison's The Weather Daft Punk - The Writing of Fragments of Time ft. Todd Edwards Ellie Goulding - By the End of the Night Hannah Jadagu - Warning Sign Harriette - bc i love you Kiri T - Dear Kiwi Matt Citron - Climbing Things poptropicaslutz! aldrch - ready set go Rina Sawayama - Eye For an Eye The National - Eucalyptus Wednesday - TV in the Gas Pump 323 AGA - MIZU Big Boss Vette - Problem FLO - Fly Girl ft. Missy Elliott GROUPLOVE - All GROUPLOVE - Hello Hazel English - Slide Hooverphonic - Don't Think Jake Shears - Devil Came Down the Dance Floor ft. Amber Martin Juice WRLD - The Light Lil Darius - DOG SHIT ft. Baby Money Maluma Anuel AA - Diablo, Qué Chimba Matt Citron - Cut Loose Mikolas Josef - Boys Don't Cry NLE Choppa - AIN'T GONNA ANSWER ft. Lil Wayne One Way Sky - Must Be True Sabrina Carpenter Coi Leray - Nonsense Remix Sett - South Vegas Drive Sophie Ellis-Bextor - Everything is Sweet SoulJase - To Artemis The Temper Trap - Under the Milky Way Vybz Kartel - Jersey Party 324 Amaria - Secrets Amy Grant - Trees We'll Never See Arctic Lake - Are You Okay? Baby Tate Saweetie - Hey, Mickey! Bakermat Rhys Lewis - Good Feeling Bassjackers - Wrong or Right The Riddle Bebe Rexha Nicky Romero - Heart Wants What It Wants Nicky Romero Remix BIA Timbaland - I'M THAT BITCH BigWalkDog - Whole Nother League Billy Porter - Baby Was a Dancer Bimini - Rodeo Bloxx - Television Promises Catie Turner - Hyperfixations CG5 - Out of My Mind Chlöe - Body Do Christian French - Lonely Ciara - Da Girls Coi Leray - Players DJ Saige Remix ft. Busta Rhymes Conor Maynard - By Your Side Connie diiamond-and Ken the Man - Move Remix Dami Im - Collide Dave East - Above Water Derek Austin - Stoned Delacey - One Mississippi Demi Lovato - Heart Attack Rock Version Donna Missal - Flicker Ed Sheeran - Eyes Closed Elijah Blake - More Elli Moore - Moonshine Flo Milli - Bed Time Remix ft. Monaleo Gloss Up Forest Claudette - Mess Around ft. EARTHGANG Freya Ridings - Can I Jump? Hailee Steinfeld - SunKissing iann dior - do it all IDK - 850 ft. Rich The Kid ILLENIUM JVKE - With All My Heart Jain - Take a Chance James Arthur - A Thousand Years JESSIA - Serotonin Kari Faux - Turnin' Heads ft. Big K.R.I.T. Katherine Li - If I Weren't Me Keke Palmer - Standards LAVIH - We Make Sense Lindsay Ell - Sweet Spot Lindsey Lomis - Bad News Good News Linkin Park - Fighting Myself Lil Nuu - Wicked Inna RaQ 2 ft. G Herbo Lloyd Banks - 101 Razors ft. Methad Man Lola Brooke - Don't Play With It Remix ft. Latto Yung Miami Madeline Merlo - Same Car Maude Latour - Lunch MAY-A - Your Funeral Michael Schulte R3HAB - Waterfall Nia Sultana - Some Feelings Never Go Away NOTD Maia Wright - AMPM Omarion - Big Vibez otuka - open your eyes Paul Woolford, Lewis Thompson MNEK - 16 Again Popcaan - Bend It Over RIMON - I Choose U ft. RINI Ryan Stevenson - Closer Saucy Santana - 1-800-Bad-Bxtch Shania Twain Malibu Babie - Giddy Up! Malibu Babie Remix Slatt Zy - First Day Out Spice - Spice Marley The Regrettes - Dancing on My Own The Shindellas - Last Night Was Good For My Soul Tom Speight - Let Go Trevor Daniel - SYL Victoria Monét - Smoke ft. Lucky Daye Vybz Kartel - Playboy Bunny Wrabel - one drink away 327 Crawlers - That Time Of Year Always IVE - Kitsch Jungle - Candle Flame ft. Erick the Architect Tyler, The Creator - DOGTOOTH V V Brown - Black British Vybz Kartel - Mankind Has No Love 328 Hannah Georgas - This Too Shall Pass Jesse - Joker Jesse - Rainbow Lil Zay - Up Da Score Olivia Dean - Dive Shay Lia - TAKUTÁ The Beths - Watching the Credits 329 Anna Shoemaker - I Think I Chase Icon - Club Cooter Chlöe - In Pieces Dizzy - Open Up Wide Georgia - It's Euphoric Hot Milk - HORROR SHOW Jason Mraz - You Might Like It Jenny Lewis - Psychos Mac Critter - Lay Low Melanie Martinez - VOID Puppet - Best Alone Royel Otis - Going Kokomo spill tab - Window The Smashing Pumpkins - Spellbinding Thomas Headon - i loved a boy Tyler, The Creator - SORRY NOT SORRY Weathers - She Hates Me 330 ABRA - FKA MESS Aitana - Los Ángeles Alex Lahey - They Wouldn't Let Me In Becky G Peso Pluma - Chanel Charlie Bennett - I'll Give You The Moon Daisy Jones - It Was Always You Flo Rida - Good Girls on Vacation G-Eazy - Tulips Roses Jayda G - Blue Lights Jean Deaux - Zodiac Killa Jer - Salted Fish Game Kian Kova - Party De Gangster Lastlings - Noise Lauren Daigle - Waiting Metallica - 72 Seasons MisterWives - Out Of Your Mind PVRIS - GOOD ENEMY salvia - Going Away 331 AK - Long Distance Alexander 23 - I Wanna Live Forever ALMA - Tell Mama ALTÉGO - Bling Bling AMAKA - Cruisin' Andy Grammer - I Need A New Money Anna of The North - Try My Best Annalisa - Mon Amour Anson Seabra - Kryptonite Bebe Rexha - Call On Me Brandon Kai - Nuff Said Britt Nicole - Gold Acoustic Cat Burns - live more love more Chappell Roan - Kaleidoscope Charlie Puth - That's Not How This Works ft. Dan Shay Charlotte Lawrence - Bodybag Cian Ducrot - Part Of Me Daniel Caesar - Valentina Darius Rucker - Fires Dont Start Themselves Dimitri Vegas, Steve Aoki Chapter Verse - Friends Ellie Goulding - Cure for Love Ellie Goulding - Higher Than Heaven Ellie Goulding - Love Goes On Ellie Goulding - Midnight Dreams Fivio Foreign - Hot Sauce GIRLI - Cheap Love Gucci Mane- '06 Gucci ft. DaBaby 21 Savage Hot Chelle Rae - Kids HunterGirl - Lonely Outta You HYRA - Mary, Jane and Me Icona Pop - Faster Jessie Ware - Pearls Pabllo Vittar Brabo Remix ft. Pabllo Vittar Jhené Aiko - calm patient JVKE - golden hour Leon Leiden Remix Kendy Suen - Flow Khalid - Softest Touch Kygo - Say Say Say ft. Paul McCartney Michael Jackson Lauren Jauregui - Trust Issues Lola Young - What Is It About Me Maddie Poppe - Screw You A Little Bit Maisie Peters - Lost The Breakup Marshmello - Grown Man ft. Polo G Southside McFly - Where Did All the Guitars Go? MOGUAI, VIZE Anna Grey - You're Not Alone Morray High Price ft. Lil Tjay Nardo Wick - Hotboy ft. Lil Baby Phillip Phillips - Before I Loved You PRETTYMUCH - Excited PRETTYMUCH - Maria Purple Disco Machine Kungs - Substitution Quavo - Honey Bun Ricki Lee - On My Own Rosa Linn - Never Be Mine salem ilese - PainHub Sara Kays - Bored Sigala, Mae Muller Caity Baser - Feels This Good Jodie Harsh Remix ft. Stefflon Don Smallpools American Authors - Island in the Sun Stacey Ryan - Bad For Me Talia Mar - Self-Portrait Taylor Swift - Lavender Haze Acoustic Version TEDDYYBEARR - N U M B The Aces - Solo THE BLSSM - WHO'S TO SAY THEY. - Riptide Tones and I - I Am Free Topic - Saving Me ft. Sasha Alex Sloan Vybz Kartel Valiant - Time Heals1</t>
+          <t>Guarda che più partecipi più vinci meno Mo pedali, volevi la bici vero? Lazza fai cagare come dici, prego? A lavare i vetri come ti ci vedo Ti faccio urlare Zzalando, Don Lazza è l'anagramma La tua tipa di dietro ne ha presi talmente Che adesso c'ha il buco del mmh che parla, analgrammar Chiudo queste bocche tipo Saratoga Palle in faccia alla tua tipa, arapova Spiegami com'è che parla sempre di piccioni O sarà troia o sarà Povia Ho una barra nuova Quando faccio un live ti porti le casse, la prendi per gioco Non ti do ascolto, fra' se faccio un live Ti porti le casse da morto per dopo C'ho un botto di fotta, tu infottati troppo Fra' sotto a chi tocca, tu toccati sotto qua Lo sai perché qui meno te? Sei troppo stupido, QI -3 Qui meno tre scemi Che fanno la gara a chi ce l'ha più duro fra' Se fossi Neri Parenti voi sareste i protagonisti Per fare Natale a fanculo, fra' Bella Real Talk, sono un tipo fresh Sì ma fresh troppo Tu trash, goffo Cash troppo, quando stappo il G sono Flash Gordon Voi troppo babbi, troppo scarsi Bosca al beat, faccio un morto sappi Che non vado in tele perché se ci andassi Tirerei bestemmie frate' Gordon Ramsay Chi lo sa come va a finire Kilocal, peso queste rime Rapper ballerini con le ballerine Chi ti Kledi per capire eh? I tuoi cazzi li vieni a dire a me Che nemmeno ti sto ascoltando Ho preso un palo, Cristiano Ronaldo Sei tutto fumo, ti stiamo rollando Boy, fatti da parte se passa il mio team Frate' hai i minuti contati Come se ti scade la promo di Tim Fra' sei giù con la police, Sting Non sentirmi che ci rimani Lanci i sassi, nascondi mani Vedo un sacco di questi tali geni Incollati ai miei genitali E la giro e la fumo e non gioco a PES Sei sbirro, sei cane, fra' come Rex Mi puoi presentare, sì, come guest Anche come Dio, sì, alla Kanye West 'Sti rapper li usiamo da anti stress Si sa che sono così avanti che Se apri la rubrica dentro al mio cell La mia nuova tipa è salvata ex Metticeli in tasca che fatichiamo Mangiare una pasta, mi è capitato Se un fra' dice basta, decapitiamo Ce l'hai in bocca fra', Pasta del Capitano Io sto in gara ma mica per partecipare Non accetto le sconfitte Mischio le carte, fumo due jolle Pesco due Jolly e ti lascio il due di picche Ho un tattoo sulla mano con scritto odio Così sai cosa provo se te la stringo Rido quando fate Bang bang con la gang gang Sì ma il ferro è finto E il live è free Ma se vieni insieme alla tua tipa vai tra' lei paga lo stesso Il mio cachet è un po' meno di un palo Lei ci dà due gambe con la figa in mezzo Crudo, crudo, crudo come il sushi Frate' crudo, crudo come il Pata Negra Crudo frate' come i Vaffanculo Che ti prendi quando mi scrivi in bacheca Maledetto il giorno che hai scoperto il web Fra' spero che ti ripigli Sono tutto ttofa che scrivo sul sofà Quanto è figa Sabrina Ferilli Scarto rapper come Zanzibar Muori tu scemo che zanzi barre I tuoi frate' non hanno le palle I miei scroccano paglie per far le canne Hey hey, stai buono Che sei lì che cerchi di fare il pazzo Facci una sega con due mani Ti sblocchiamo l'iPhone col cazzo Sai come mi chiamano da me? Giovane Chopin Perché prima mi siedo a suonare il piano Dopo mi alzo per scrivere e suono te Sto tra i pazzi da legare, con i cazzi da levare Qua ci girano le palle, playmaker Li ho schivati tutti, Mayweather Non stare a sentire me o ti chiudi I miei frate' fanno Metro Boomin Sì ma frate' in cinque metri cubi Odio se mi crolla il mondo addosso Odio se passo momenti bui Odio per tanto perché non posso dire Che sto crollando io addosso a lui Bello il tuo discorso, ti giuro che è stato interessante Vorrei un portafoglio così gonfio Che sembra sia in stato interessante Fra', sono uno per cento come se ho il telefono scarico Fanculo il coltello, il flow è Hattori Hanz Con la katana dalla parte del manico Ho una bandana in testa come De Niro ne Il Cacciatore La faccia da Goodfellas e le scarpe da spacciatore Una schiera di groupie intorno e non capisco come Sto senza sentimenti ma è aperta la caccia al cuore Neanche un bisturi in pancia mi ha tolto la voglia di vivere Di scrivere, di tagliare la testa a queste vipere Bastoni tra le ruote ma non mollo, col cazzo 'Sti rapper deepthroat senza collo, Costanzo E ho vinto ancora io, non pari Perché ho sempre suonato i tasti giusti, Bollani È inutile, non puoi farmi fuori se non bari Mi han chiesto chi mi fa le scarpe, ho detto nobody E la tua scopa amica non ti scopa mica Sembri tutto gay, è come se scopa Mika Fra' mi mandi un pezzo che hai fatto la strofa fica Non lo apro nemmeno, boy, risparmia la fatica E sono giù con pochi, il resto è tutta scena Giso, Tela, Gimmy, Vegas, Mirko, Tedua Ghali, Killa e tutto il resto della cricca La tua crew fa ridere, Premiata Ditta Il tuo flow non prende come il cell in galleria Metto 'sti soldi da parte per andare via Torno e mi fanno una statua in mezzo alla mia via Maria io non esco, no, io esco la maria Il fatto che la terra è rotonda fra' è una cazzata Finché ci sono infami ad ogni angolo di strada Qua sfondano gli scemi perché la gente è distratta Non c'hai la credibilità ma te la sei comprata E manco vai a tempo, cazzo rappi? Stai perdendo Tempo, boy, fazzoletti Io sui tuoi progetti non investirei Investirei te e gli scemi con cui sei Se vuoi glielo dimostro a questi Quanto sono ancora sempre un mostro a testi In giro così fake che piuttosto il wrestling Il flow fra' non è tosto, frate', è Dosto-evskij E quindi frate' riempimi di fresca quella vasca Chi ti vende questa ha la tua cresta nella tasca Non dimenticarti mai di questa bella faccia Ho perle per le orecchie, tu una perla per la nasca È tutto uguale, droghe a puttane Poi il flow è da buttare Magari con me perdi ma prova a puntare Non puoi fare il sudoku se non fai i numeri a chiuderle E non puoi fare Goku finché vivi tra le nuvole, boy Quale strage di stato? Tu fai strage di stati Incapace a distrarmi, alla brace 'sti infami Vi rispedisco a casa al volo, viziati A cazzo bello forte in culo, colonizzati Ce ne avreste di storie da raccontare, ma forse Ve le siete perse in mezzo a puttanate più grosse Le domande che mi fate non avranno risposte Fra' al massimo sì con la testa più qualche colpo di tosse Oh mio Dio, oh mio Dio, muoio, sono leggenda Qualcosa del tipo Sarà mai esistito davvero? I miei numeri parlano, ma fa niente, che c'entra Per te sarò sempre un genio travestito da scemo, boy Ho nemici fra', un sacco di nemici fra' E più ne stai parlando più mi chiedo Cazzo dici?, fra' Amici, amici, fra' e ti fottono la bici, fra' 'Sti qua sono comparse, manco buoni a far le attrici, fra' Voglio il grano come Dandi di Romanzo Criminale Non ho fame, oggi il mio pranzo lì rimane Cerco calma, ma lo scazzo mi risale Fino al giorno che esco con un mitra in mano E faccio il pazzo al Quirinale, boy Questi rapper quando entro si danno l'addio Sai che c'ho il flow di Cristo però Cristo non ha il mio Cento passi indietro e non sono manco d'impegno Inginocchiati e poi slaccia 'sta lampo di genio, boy Volete fottere? Testate! Calderone, con il flow Mr. Lazzino rapper Fra', tu sei un coglione Il flow ti fa di brutto, vuoi fare il calderone La Pozione Polisucco, fammi un poli-risucchio Ye, come fossi Harry Potter Faccio girare i coglioni, tipo globetrotter Porto questa storia, quando arrivo vai sicuro Vuoi fare il maghetto ma c'hai la bacchetta nel culo Ye, Brexit, quando arrivo io è B-Rex it Sai come funziona, faccio flexing Come fossi Meek Mill che scopa Nicki Quando rappo fra' ho i tuoi versi preferiti Ye, laptop, quando arrivo Lazzino fra' sono là al top Porto questa storia, non ce n'è Fresh metrico, Crash Bandicoot Ti chiudo in due come un Macintosh Ye, hai presente com'è C'ho roba seria quando te ne droppo un paio col rap Ye, c'ho le robe fra' e non si discute Fai Biancaneve ma dai un morso alla mela del tuo computer! Yeah2</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TURKISH BOY</t>
+          <t>Fatality</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ey, what's up? Here's the kid, 50 Cent! You're now tuned in to my man, Kool Savas! Optik Boom, destroy the German Dream, you heard?! You've made it, Eko, people are talking about you again After they thought you were gone, up and away, and dead Shit, this is too emotional, I keep my calm, I'm rational I go back to the beginning and tell you once again Remember Ekrem, you invited me to a jam My biggest fan alive, my personal stan You still were Ekrem Bora, sexy wog, not Eko Freezy The stu-stu-stu-stuttering boy, the shoe salesman from Gleezy Whatever I took you to Berlin and Mel gave you the right beats Suddenly you were a real rapper with a real EP Took you to gigs, gave you this, gave you that, gave you money Gave you what you needed, thought this boy is going to be an MC Left Put Da Needle, talked to EastWest and Universal No one wanted you, I renounced 170 000 Euro I'd promised you, If I get a deal, you get a deal A month later you have your deal with BMG 50 000 Euro, you take it for granted, you were A good person and then the cash started changing you You wanted everything, up, out, as fast as possible Because you were stupid, young, and needed as much money as possible You wanted a song with Trooper, one with Jeanette and Vanessa S I had to convince you to not do it Valezka merely said, Ekrem is slowly getting weird Crazy, a week later I learn that she sleeps with Ekrem She makes a record with him, shortly before the one with Mel is done After she's been living with us and taken advantage of us She wants us to pay for everything, but now it no longer matters You're broke and alone, what a pity, it's all fucked now Success is more important to you than realness, it's cash over friends Eko takes lyrics of Killa Cam and translates them to German I loved you but not like a gay one loves another man Like a brother who does everything for his brother But you're not loyal, not normal You are the fan, Amar isn't Unfortunately, I turned a blind eye to you but it won't happen again Eko, you and me, we were always on an equal footing But your career moves are always calculating You wanted to say bullshit and pointless stuff Spreading lies to Mel because you thought you could ruin my life You didn't want to leave the house any more Because you were scared of Bushido waiting outside I had to talk to him, work this out before it gets out of hands He and I, we had no beef, didn't hate each other But just because of you our relationship is a bit strained now Ek, I don't have to bite like you because everything I rap flows You're a guy who spreads lies like Hannes Loh You notice, it's slowly going down and darker And quick, quick - back to the Bunker Shit, everything you do is a strategic and calculated plan But here are 10 years of experience rapping right now I was like a father to you, as if you came from my semen And now you want to rebel against me? But why? Son, not like this, sorry you're dead This battle won't push your career And you are right - I'm almost 30 years old But how's that a diss now? I don't even get it Where would you be today without Optik? Think hard Now the German Dream turns into a nightmare, sucks, huh? Come to me, I clear your view with a hot needle Just a few more bars and you're lying still and quiet Now the little one has a beard and thinks he's hard as iron You and Valezka are a good match, you're both out of breath live onstage And Eko, are you listening to this? How I'm bombing you to pieces with each line Your eye brows turn into the McDonald's M Little Eko, there's no point in this beef This is the king versus a child This track is like a weapon pressed on your chin The judgment and your ruin, over and out I'm flowing like the wind, let it out like a pint I'm not a hater, you know me, but you're faker than Sentence S is like the sun, you get closer and burn yourself You won't survive this flood, look, I'm too much for you to deal with Your flow won't ever be better than mine, after this part you'll vomit What you do isn't right like joking about disabled people Whatever you write, it's nothing more than child's scribble to me Listen to what you're saying in interviews, people don't hate you Because they love me but because of your manners Not just because you're shit but you're immodest Player, lover, Turkish rap or gangster - decide You can't because you have no identity As if your eyes were closed You don't know where you're standing now And you don't know what you're saying The game makes you sick, huh? Come, I'll turn you off like a bedside lamp And you think you brought our boys to Optik Why does your label then not have one track on Optik-level? My friend, you're dreaming, turned crazy from coke, crazy from Ecstasy This is a phenomenon - what's happening inside the skull of E? You're doomed to die, your Mum said, Don't do anything to my son I didn't want to but the boy is too spoilt, too dishonest What? I fucked our future? There is no future for you At least not as a rapper in this business And all of this is true, you can put me under oath This part here are the facts but the next one is going to be very insulting No, you don't have to defend me I'm doing it for the kids out there who're waiting and who Want to know the truth, here's your report Report me because this track is like murder You're listening to the best, the king, the rapping Tony Hawk You want to sneak up from behind the throne, but no, hypocrite I spit and spread more panic than Robert Steinhäuser You crave my title like boys crave the hole of J.Lo You pretend to be man and suddenly you have more beef than Maredo But I've made you like Puffy Da Band And if you want, I'll dissolve you again - click, click bang! But please tell me one thing, Eko, what's up with you? You're not Mr Hankey - how do you get out of the toilet? You were gone, far away to the pop world The rapper who holds Dieter Bohlen's cock Soon there'll be head money You're crazy, you want to come back - who are you? You were L.O.V.E. and now HipHop again, you freak You're one of them Nina MC, Reen, Cappuccino Aleksey, der Wolf, Eko and Fettes Brot, they're all dead Rest in peace! This is a new era And I'm your teacher and shoot like rifles And you're softer than soft, softer than velvet Annoy the fuck out of me and I'll kick your ass, destroy you completely Ek, suck my dick!</t>
+          <t>Jahlil Beats, holla at me It's time to eat The Unit is back Them niggas is back, the real is back, the streets is back Shooters on deck nigga, yeah Got keys twinklin', pianos in the next apartment Safe house when the narcs hit I give rap critics verbal bouquets about AKs Foolish rappers in my rearview, far away Ferragamo dreams, the bitch lipstick on my cigarette M4 Carbine, aim for your neck Got that wavy work, Ryan Seacrest Forgi's on the foreign and they deep dish Kill a mink to make a mink My jacket in the weasel family Luxurious furs, pull an eagle swammy New Tahoe, 27Z New grill on that bitch looks so mean Dog food call it Arabian coffee Good connect, don't ask what it cost me I got undetected explosives in my floor Got me in Vera Wang clothes, ya feel me? Fatality, fatality, fatality My brother been dippin' his fuckin' face in the powder Fuckin' up ours We supposed to be in this together but you done with sour Cash money brothers, remember money and power A little paper'll get a nigga knocked down like the Towers I spend hours in the kitchen standin' over the stove Put too much time in finer places to put niggas in holes I got my son froze cold, baggin' up O's He said he want him a Phantom before he's 14 years old I told him he can do it if he don't open his nose Like my nigga Louis ask him where most of his go I'm a bad influence to broke niggas Encourage 'em to the pull up, hop out and smoke niggas Yeah, marinated the bullets in body fluids And if my weapon don't kill 'em, the infection gon' do it Every nigga standin' in my section goin' through it We gon' get the money, you ain't gotta help us to it, yeah Fatality, fatality, fatality Kidd nigga, uhh HUH? Watchin' my OG whip it, I learned how to remix it Turn the pigeons to a chicken, four piece and a biscuit Bodies come up missin' get found by someone fishin' Long nose, Scottie Pippen, Glock 40 extension If I'm broke I fix it but that ain't nobody business They comin' for my head I hope my nigga don't start bitchin' Gotta thank the Lord I ain't get a life sentence 'Fore my name end up in a rest in peace sentence Boy I say sumthin' I meant it Start sumthin' I finish it If I spray sumthin' it's head shots, you can't say I'm attemptin' Y'all niggas keep dissin' I hear 'em talkin' this and that But don't confuse this with that I put a hole in your inner tube car fixed or flat Realest niggas in the game man you gotta give us that I hold it down I'll bust your head for the right amount Six shots, every bullet gotta count1</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KURSUN DELIKLERI</t>
+          <t>Cevap Ver</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Odamda fazla durma duman seni yorar Yetmez ba arma oxy falan Tükense de sabrm onu aramam Elbet bana kalr benim olan Aramam gideni yutarm xanny Mistik biriyim ama etmem dua Unutturdu seni dün gece biri Kocaman götü salland bu duvar Deilim Romeo bekleme çiçekler Kalbim krk ve peimde tourneo Bekleme desem de tüm gece bekler At gibiyse tamam ado rodeo Kasklarndaki ya kalbe seker Yarn unuturum olsan da eker Designer zip ve kurun delikleri Ölümden korkmam giderim tek teker Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Kark kafam yüklüce param var benim Harcarm sana Hem unutamam hem unutulamam yah Deli ediyor xannx Bembeyaz k kocaman kç Akldan ald götürdü bu ba Bugün ayn kaç? Yitirdim algm kalmad ac Var biraz sigara üzerimde Sdramam onu ceplerime neler dolar bedenimde Rastlayamaz artk izlerine Çok güvendim hislerime Zirveye yol kestirme Yenik dütüm nefretime Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk Güzel çiçeklerin hepsi soldu ey Kalbim krk Güvenim yoktu ve çkt doru eh Attn kazk Aklmda büyülü suratn pürüzsüz kçn Kafam epey kark ah Yok hiç k yeah Kalbim buna alk</t>
+          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GUCCI BAG</t>
+          <t>Kanıtlandık</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 1 Ok, eu sou o tipo de nigga que não gostas E se tu me abusas eu vou logo contar aos cotas Poxas, olha para quanto tenho na minha conta Todo meu sucesso dizem que é graças aos cotas Opah, todas pitas da praça comi Podem até falar e dizer que não tenho pila big Mas o txi fala foi assim que aprendi E Deus não dá tudo tenham piedade Man eu vivo como rei, há que respeitar Faço merdas e tenho os cops para acobertar De 10 moçambicanos 9 queriam essa Life Essa good life de nunca ter de esperar na line oh E sei que tens falado mal de mim Mas enfim, eu tou em Pari a gastar vosso txi Com bué de europeias se aproveitando de mim Tirando fotos com famosos man olha só pra mim Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço douro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania Verso 2 De volta a Moz com uma bag da Lui V Nem tudo que comprei coube na bag da Gucci I been killing everybody you can catch up my uzi I been feeling like Pablo when I'm rocking my uzi Dá licença !? Tu não vês quem o nigga é Provavelmente vais me ver a andar com monhés Porque falamos a mesma língua, money-mula-monhés I got this feeling que o resto só quer tirar meu pé E agora mandei vir um novo Ferrari Meu papi, nós vamos fazer barulho na cidade Mugabe, nós estamos aqui para eternidade Não vale, juntarem-se para tirar-nos do comando, we got this Ah, enquanto continuas a falar É o teu trabalho que tem me ajudado a pagar Carros que nem mais o bem pago pode pagar E se fores a fazer algo sabes como vai acabar Coro Cheio de não me toques não aceito barbatiça Filho de Ministro num Bima Esse puto tá cheio de mania Esse puto tá cheio de mania Vim do berço d'ouro para cama de platina Durmo olhando para Mona Lisa Esse puto tá cheio de mania Esse puto tá cheio de mania</t>
+          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok Oras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VUR</t>
+          <t>Pisko 2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Sonunu düünmeden yayo'sun Bi' nevi teoride sen de u an ölümden kaçyo'sun Yolunu bilmiyo'sun, yine de gidiyo'sun Çkmaz bi' sokaktan çkmay diliyo'sun Umarm baarl oluca'm ve varca'm bi' sonuca Yaamm boyunca seninle yaranlar olacak Önüne konul'cak hedefler, hadi çanta dolacak Ve paran olursa kaplar manitayla dolacak Malesef denklem bu, güç eittir para Ben de bazen diyorum inan Bu ne çeit bi' kafa!? Belki cebimiz dolunca bi' gün eriiriz ama u an yeterli deil, o yüzden her iimiz yalan Yine de mücadeleye devam, buluruz elbet deva O güne kadar yaamn tadn çkar her an Çünkü geçmiin uzaklard bi' kare daha Bi' bakmn evinde sadece bi' kanepe var Onun da üzerinde yatas yok Pencereden darya bugün bakas yok, havamz bok u an dülerinden çok uzaktasn O yüzden çok normal hayatn gelip sana bi' omuz atmas Ykldn yerdesin, yine de kalkp direnmelisin Bu son ansn olabilir, gidenleri sil Sfrdan bala, yldzlar aka gelir Belki mucizeler balar, mucizeler balar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Ner'de kaldk devam, ne müzik oldu deva Çaresizlik veba gibi, paran varsa kebap Çektirdiler cefa, hep sürmedik ki sefa Bi' defadan n'olur? deyip içtik bin defa Ve devam Projeyle gittim Anl'a kanka dedim toparlanp stanbul'da çekelim bak sokakl Klip sonu lokantann birinde biz yemek yerken söyleseler inanmazdk Dört milyon tokatladk Bok atmayn boa yani gezdik çou illeri biz Sahneleri inlettik de sahnelerden inmedik Kahpelerin sistemi bak mahvederler hisleri Ve hayat Otur yerinde! der zahmet eden pislenir Risk deyip de ilerledik yaptk imdi biri bin ri bi' adamn önünde oturmas tribi gibidir Bilirim kskannca birini dirilip Nefsine Güç Ver'le yaptm bak hayalimin birini Gerilin, unutmadm yerimi Terinizin kokusu kadar iticiydi Rap'iniz Ve evini ykan bir belediye ekibine kafa tutan ev sahibi kadar sinirliyim imdi çekilin Çekici bir kadn kadar fetiist bu Rap ii Tek iim onunla tepiip dourtmakt bebii Her iim geliir sonra deiir eriim Ben de büyüdüm bir ylan gibi derimi deiip Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Geçen yllar Aynaya her bakta biraz daha deiiriz Geçen yllar Suratna çarpar her hata, bu da seni sen yapar Rap Genius Türkiye</t>
+          <t>Tu gde svako petlja Gde civilna su svetla Proe speksi proe meta Dok tke, svoja plua eka Cuki bio tu sa 15 Znai iveo taj matching Pivo, trava, muter, trei Tu u kraju sedi s' neim Moja upra dalu, znai nije normal Tenzija me pukne, kada vidim loma Motaj jo, znai sve u topa Mora budem smiren, ako vidim drota Tu u kraju i dalje traju Znai radi amne, to je moj kblo Samo uti i ako znaju Mogu pue kurac i to grubo Reperi gde ste Cuki sklapa die beste Uivo da pisne ne sme Gistro ljava kao koji kerme Dobrodoao u Rbo Kriminal jai nego svuda duplo Samo pDo lobe vutra nita drugo Budi tu na zive samo vidim s drugom 'a je piko oe da se snima A vamo maska, ivi se kriminal Imam stila svaka glava klima Nastavljam rimu iz prolog singla Nisam lerdi ali uvek imam Samo motam samo neto dimRa Imam priu koja uvek prodje Mala mi u stau stavlja groe I tako dalje eto mene opet Krimi pria ti je moj domen Oko love, tu su moja braa I gedore velike ko praka ta god hoce bato uvek moe Samo skank nista bobe roze Pukne jako promeni ti boje Pod lampom tu neke biljke stoje Kesu cepaj stavi sve u ndla Tu te iza eka moj bruda Ovi smeni malo fale muda A fali glavi malo je i uplja mekeri a runi kao bulja Fanfa sve dobra je i sulja A moja plua vole samo unka Do muzike bato preko ugla Svi su tvrdi ubio ih kompleks Nita ne znam to je moj kodeks Tu u kraju 2 da li moe? Ne zna nita tako je i bolje Znaju ljudi koji ovo vode Znaju ljudi koji ovo rade Cukela u kui care Za ispravnost vadite medalje Alo Kad je trebalo bio sam Kad nije trebalo i'o sam Zipu uvao, nije sam Dvojku stavim i nije gram I moe stvarno kae ko ta hoe Svojim delima sam bato vodjen 22. Blok tu sam roen Daj mi neto vie, neu vie gloem</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Neyin Nesi</t>
+          <t>Yeniyorum İstanbul’u</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Deli ii gibi bii deil bu neyin nesi bilmiyorum Sürekli deliriyo'm yaptklarm tek tek unutuyorum Bi' sen aklmdan çkamadn seni braktm yerdesin hala Yönetiyo' eytan beni gitmeme izin vermiyo' asla Gel kendine beni takip et gücüm bitmicek yine geri gelicek eytan bana olur hayran hiro Ömer Hayyam daralyo zaman Yok inanamam harbiden yaptna Senin fanlarn taklyo altmda Aç azn al bunu azna Alrm akln varamazsn farkna Yarasalar etrafmda dans eder kanm için arszca Tepeden trnaa deiecek dünya Fayda etmiyo' ganimetler altnlar Aklnza yazn bunu yazlan hep yazlarn hepsini ifa edicez ansm dönecek bu bana zevk verecek O küçük bi' çiçek ben çirkin dev Koca adam oldum Hala yok gözümde korku Korkun benden korkunç bir dev Koca adam oldum Hala yok gözümde korku Kimseden, hepsine tepkim net Fuck peace, hiro sanki batista Tatbikat yaparm kal aykta narsist bi' stil tarz aykmaz Der bu ne drill falan yapsana sende Siktir ordan Drillci bebelerden olmam Biz dinazorlar Sürtük lirikle oynar Kanlar akar Azn balarm kimse duymaz Yakarm gemide asitin filika stili etkisi gecene kadar da yanmda kal Zaten hep aklmdalar Bunlarn farkndalar ya ya eytanlar yani bamzda kendine gel ya da uzayalm burdan Real phonk, real shit You know what the fuck I'm talkin' about</t>
+          <t>Yürüyorum Eskiehir'in karanlk sokaklarnda Ne gam ne kasvet var aklm oyunlarmda Babamn yanndaym, yokular çkyoruz Minibüsten iniyoruz, eve doru kouyoruz Annem evde bekliyor hep, koltukta szyorum Küçük bir üçgenim var içinde yayorum Hep ayn eyden korkuyorum, ayn soka arnlayp Ayn odaya kapanyor ve ayn derdi tayorum Plakalar deiiyor zmir'de uyuyorum Uyanmak istemiyor planlarm erteliyorum Üstüm bam pislik içinde, saç sakal karyor Bir gün saçm olmayacak, o günlerde bilmiyorum Ev nedir? Bam sokacak bir çat deil çinde uyuduum be admlk odam deil Kesin karar veriyorum, kendimi uyutuyorum Nereye ev dendiini yava yava unutuyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan... Talih yüzüme gülüyor tren garnda bekliyorum stanbul yolunda ellerini tutuyorum Yanamda bir öpücük, dizlerim titriyor Ben ne yaptm bilmiyorum, yerden yüksek süzülüyorum Her güzel ey kirlenirmi, stanbul da öyle Sokaklarda be parasz sabah, akam, öle Meydanlarda sinir stres, politikayla iç içe Bir baka ehir olmuyor, bu kez bir baka ülke lk kez ayak basyorum bilmediim bu diyara Annem babam uzakta, sevdiklerim uzakta lk kez gerçekten tek bana Berlin sokaklarnda Bir özgürlük türküsü var çatlak dudaklarmda Hüzün çöküyor akam olunca kendimi dinliyorum Yazdkça yazyorum, yazdm silmiyorum Yazdkça yazyorum, yazdkça uyanyorum Nereye ev dendiini artk hiç hatrlamyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AĞZI BOZUK</t>
+          <t>Alem Buysa Kral Biziz</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TRVMEN Ya Yeah, yeah Etki on the track Yeah, para, susmadm valla eminsem Ya, ya Sizden iyiyim pistte deilken bile, hâlâ rezilsiniz Ya, ya Dütüm fazla uzun süre kalktm, hâlâ tedirginim Eh, eh Kimse görmemitir gereinden fazla sevindiimi Eh, eh, ya, ya Bilirim, istersin dümemi azlardan Ah, ah Düersem daha beter olur, beslendim hep hrslardan Ah, ah Karma geç, karma geç harcarm, bak, bozarsam Ya, ya, ah-ah Komik olur bana kar saygn bozarsan Eh, eh, eh-eh Evet, VIP simsiyah bi' araba Uçular business class, kardeler bi' arada Evet, GNG ghetto'dan villalara Mm-mm Chavo kolye ald hem de yetmi bin dolara Mm, mm, mm-mm Yetimi mi gangsta mutfak parasna hiç? Yeah, yeah Pembe götlü asosyaller eder kariyeri linç Yeah, yeah Ben baardm, onlar dedi Ner'den çkt lan bu piç? Yeah, ye-yeah Yaadm yer hakknda bi' bilginiz var m hiç? Az bozuk Az bozuk, bu az bozuk da kim lan? Eh, eh Dövme faça, kral benim, baka yok ki bi' iddiam Youngsta, frenle, hayatn koca bi' imtihan Ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya, ya, ya Az bozuk Az bozuk, bu az bozuk da kim lan? Ya-ya, ya, ya Dövme faça, kral benim, baka yok ki bi' iddiam Ya-ya, ya, ya Youngsta, frenle, hayatn koca bi' imtihan Ya-ya, ya, ya Youngsta, direnme, sürekli seninle eytan Ya-ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya, ya, ya Ya-ya TRVMEN</t>
+          <t>Çabuk souttun beni Kanm akar akar deli Yeah Bilekleri kelepçeli deil Çkartrdm biladerimi Dollar dollar Richard Mille Beni deil param sevdi Konutum kznla kirli Sonuçta isteyerek içeri girdi Benimse bayadr içimde özgüven vard Bir anda sokana mermiler yad blaka stanbul küçük bizde iki yaka Çln duyabilen var m aka Ölmemisin hâlâ, ölemezsin ezmediyse 34 GNG plaka Benim ismim bile büyük fiyaka Bum bum bum asl glock'a kisi bacaktan, biri kafa U-uf Kötü aka, GNG kartel tiki taka Voom voom voom, hemen uza 1000RR kurtarr ya da Hayabusa Hemen satldn gittin ucuza Tek kral biziz alem buysa Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o Zarlar attm, küstah tavrm Kanla kazandm düman artt Susmam artk sana yer yok tatlm Kapkara bahtm bataklkta kaldm Sanma çiçek açtn, sarmaksn Yollar karmakt ama atm Giyerim Prada, artk bi' eytan Toplanr familia, dersin eyvah Çoald kopyalar, hepsi evlat Bd bd, biraz mermi patlat Srtrm ama yok hiç efkat Krntlar senin, hepsini topla Yorum yok, geri çekil beni izle Sonra bok gibi öl sahte yetenekle Ya da terk et buralar bi' valizle Atyo'z fark, otur üç kat yap rap'i sikme Kapmda krallk, turistler Fransz Yaadk kuralsz, olduk bak suratsz Kötü ans urasn, yine de baardk Didindik uratk, orospu sus artk Sus, sus, sus Soru sorma yoksa kumar oyna Kurtuldum derin orman Beni bozmaz senin ölmen Full, full, full fulle jeton Oyna oyun yada defol Kazan say yutar beton Abartmadk krdk rekor Kara gözüm sakat bi rol Kapla özüm yarat bi son Ya da ölüm dönmez bu yol Para çözüm olmaz bro'm Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Criminal*</t>
+          <t>Alman Rüyası*</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
+          <t>Yeah, yeah Es ist K-U, der Typ in 'nem Brabus, Kennzeichen Kabul Kahbas auf Sarruch, Airmax, Tattoos, piep-piep, allu, allu? K-K-K-Therapie, schmuggel' Ware in Radio, Tajil So wie Abdel Khalil auf der Flucht vor Police, Treffpunkt Zentrum Berlin im gepanzerten Q7 hört ganz laut Almaz Musiq Bewaffnet mit Uzi, die Sprache Russi Da, Blajd im Privatjet, Alpha-Jacket, Gepäck eingecheckt Kein Scheck, sondern Bargeld, die Kahba in Latex wartet in 'nem A6 In der Hand ein Baguette, Afiyet, Schwarzgeld Auf dem Rücksitz gestapelt, nebendran ein RPG-Raket', ey, psscht, saket Gangbang mit Scarlett in 'nem BM-Double-W und sie atmet Wooh wooh wooh woooh wooh-wooh-wooh wooh Ganz schnell, ganz tief, in Handschell'n der Bandit, mitternachtsaktiv In die Bank zieh'n, der Diamantdieb, wer? Er, der Diamantdieb Gebor'n zwischen Landmin'n, hatte nichts zum Anzieh'n, heute in 3-0 matt Frees Ich chill' mit Gan-G und du nur mit Junkies, chrt pfu Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Mein Anwalt heißt Tino, sieht aus wie Al Pacino fährt ein Lamborghini Innenfarbe Cappucino, wäscht Geld in Casinos, plus oder minus Beats von Zino, Almaz Niveau, Fantastico Yallah, yallah, ich baller' mit der Kalash, khalas, rauch' nur Marlboro-Tabak Ganz locker, Gawad trag' Zahnstocher, wowa, denn der Transport dauert Geld hisab zählen, während mich deine Schwestern massier'n, erpress' dein Patient Gangster-Aktien in Westkroatien, im Benzer maskiert, ständig Razzien Rap läuft parallel, check' Madame Annabelle, Hautfarbe Karamell Chillt in 'nem Panamera, Alfa Omega, 9 mm, Import Teheran Illegal? Der Täter hat Appetit, so wie Aladdin Gaza, Falastin, live aus dem Satallite, die Tattoos sind arabi Kurdo, der Typ mit dem Baghdad-Akzent, klau' von deiner Kahba Batzen Im schwarzen Mercedes, ich mein', im schwarzen matt CLS Der Typ in helle Jeans, der mit gefälschte Pässe dealt, non-stop auf Tilidin Boxe den Pressedienst, ich chill' mit Yezidis bald auf Television Plasma HD, Halabja, Café mit Uasta Waleh, Salamo Aleik Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali19</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PALAVRA</t>
+          <t>Asi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Desde tempos remotos europeus construíram impérios Pela glória verdes prados tornaram-se cemitérios Séculos de tortura, genocídio e violações Extinção de populações com diferentes visões Diferentes religiões, valores e culturas Foram exterminadas por civilizações brutas Supostamente mais maduras e mais desenvolvidas Com agricultura, escrita e tecnologias Monarquias e a religião católica Que assassinava mentes independentes de forma diabólica E assim fomos na rota dos descobrimentos Registamos a maior genocídio de todos os tempos Transformamos homens livres em escravos Violamos mulheres indígenas e doenças, propagamos Encontramos terras ricas em matérias-primas E iniciamos as primeiras iniciativas capitalistas Em plantações de açúcar e minas de metais Exploramos sem medida todos os recursos naturais Sem raízes culturais, americanos viraram índios O chicote da civilização tornou-os submissos Enquanto na Europa desenvolvemos a indústria Na América deixamos a miséria e a angústia A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer O imperialismo continua, não pára nem recua Em pleno século XXI, mantém-se a escravatura Obscura, dissimulada, mas em plena acção Agora vulgarmente chamada de Globalização Século XVIII, colónias conquistam independência Mas já com europeus como líderes da resistência Surge uma falsa nação com prepotência e sem ética São fundados os Estados Unidos da América Terra dos homens corajosos e livres Para determinar à força a maneira como vives Recomeça a exploração, corrupção e as guerras Roubam ao México a Califórnia e o Texas Nicarágua, República Dominicana, Filipinas São invadidas e instituídas ditaduras repressivas Ao serviço exclusivo do capital estrangeiro Nativos ficam com fome, empresas, com o bolso cheio A meio veio a infame Revolução de Outubro Sistema novo onde o povo controlaria o lucro É claro que as empresas reconheceram o perigo Por isso, o comunismo tornou-se no grande inimigo E a desculpa para mais invasões Controlo dos recursos e bombardeamento das populações 2 Grande Guerra, surge o Banco Mundial A C.I.A. e o Fundo Monetário Internacional Mercenários económicos em várias nações Corrompem líderes em prol das grandes corporações Assassinatos, ocupações, privatizações Aumento da dívida externa em galopantes proporções No Irão, Guatemala, Panamá, Equador Ainda sofrem os efeitos deste esquema opressor Na Guerra do Vietname lançam o agente laranja Apoiam ditadores no Chile, Argentina e Uganda Financiam os crimes dos Contras na Nicarágua Com os lucros obtidos na disputa armada Entre Irão e Iraque, armam ambos os lados Armamentos para a destruição maciça entram no mercado Ajudam os talibãs a combaterem o Soviéticos Através de novos métodos bélicos sem exércitos A Perestroika, a queda do Muro de Berlim A lucrativa Guerra Fria chega ao seu fim Surge um novo inimigo, filho de imperialismo Como é que pensas que nasceu o Terrorismo? Começa a obsessão pelo petróleo do Médio Oriente Na Guerra do Golfo conquistam os poços do Kuwait Criam a NAFTA por pura avidez Permitem o feminicídio na cidade de Juarez A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer! Janeiro de 2001, Bush torna-se presidente Eterno servente de uma elite prepotente Empresários da máquina da guerra e do petróleo Adquirem o total controlo do monopólio Preparam um acto ilusório para enganar todo o globo O 11 de Setembro não passou de um engodo Uma ferida auto infligida Com vista a uma alta margem lucrativa Clima de pânico perpetuado pelos média Ossama é o falso alvo para mais uma guerra Invasão e destruição do Afeganistão São dados contractos milionários a empresas de construção Colocação de bases militares Com poder para mandar o Médio Oriente pelos ares Próximo passo, expansão do ataque Criação de propaganda para a conquista do Iraque A ligação à Al-Queida, afirmação falsa A ameaça de armas de destruição de massas Mentiras, farsas, noticiadas na televisão Dão origem a uma invasão sem justificação Eles não querem libertar nem desenvolver é cómico Mas subjugar países ao poder económico No meio do drama surge um tal Obama Toda a gente aclama, mas as empresas fazem-lhe a cama Muitas promessas e retórica eloquente Escondem somente mais um impotente presidente Ele chega ao poder e envia mais tropas E a Fundação Nobel lambe-lhe as botas Novas mentiras já estão em circulação Presta atenção à preparação da próxima invasão A exploração continua, dê por onde der Tu abre os olhos pois só não vê quem não quer A questão é a seguinte, à cerca de 5 séculos que os países mais evoluídos tendo os Estados Unidos da América como cabeça vivem à Custa dos países menos evoluídos. Os países da América do Sul, África e Ásia são países riquíssimos em recursos, mas estes Recursos são todos explorados por grandes empresas estrangeiras, que têm o F.M.I e o Banco Mundial como utensílios para Corromperem governos, criarem dívidas externas astronómicas impossíveis de serem pagas e criarem sistemas de autêntica Escravidão e miséria para alimentarem os mais poderosos. Todas as guerras que tu vês a serem anunciadas, têm todos por trás Interesses económicos. Eles não estão interessados na liberdade e na democracia! Estão apenas interessados em alargar o seu Império e a maximizarem lucros, provocando a morte a milhões de inocentes e a destruição da Natureza. Fecha os livros de História Que te dão na escola e não acredites numa única palavra da comunicação social. Todas as notícias que tu vês na televisão são Controladas também por grandes grupos económicos que continuam a ver o lucro como o único objectivo para a humanidade. Os Impérios continuam a ser construídos secretamente e fazem tudo o que podem para destruir os seus oponentes. Sejam Muçulmanos, comunistas, índios ou organizações contra a globalização. Seja quem for que queira distribuir a riqueza das terras pela População ou seja quem for que não concorde com os valores ocidentais, é visto como inimigo a abater. Abre os olhos e antes de Falares acerca destes assuntos, informa-te convenientemente. Investiga e procura informação em fontes independentes Nunca é tarde para mudar, mas o nosso tempo começa-se a esgotar</t>
+          <t>G-G-G-Good work, Charlie, hahaha Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Count something bitch, ho just count some money I just sold a zone, spent half the profit on Givenchy I got plenty shit, out your rim my nigga you can't find it Oh you came wit' her If I pull out my dick she top it And my bitch be rollin', and rollin' off xanny pill I look at that bitch like she crazy cuz Purple shit just be the concoction And my body filled up with toxins My niggas wild out every day moshin' Got dark skin, got light skin, got Puerto Rican bitch I got options I'm eatin' good, nigga, that's kosher Chopper real big fuck a holster And if that bitch all on me I give her D except Felecia And Lil Uzi just gettin' older, and Lil Uzi just gettin' wiser And Lil Uzi just gettin' money, shit my pockets gettin' wider Pray everyday cause you never know when its your time to go Rest in peace my nigga Chico Strong pockets but not stocky though This bitch all on my dick stop it hoe Know everybody u fuckin' hoe, Know everybody u toppin' hoe So don't act different 'round me, just know you gotta go Yes I coulda hit it but I turned it down you gotta go Your shit so wide like hockey puck and a hockey goal Or like spottin' my ass probably up in Montreal Pussy wider than a god damn three day obstacle Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit you can't afford for some blonde dikes Ok it's going down ? Got white got black got Puerto Rican got Asian nigga Got a lot of whores I be ballin' heavy, nigga talking final four I'm riding clean, 2014 Why you riding that dinosaur Promethazine connoisseur All I smoke is that good shit I'm the king in my city sitting good bitch I'm a young black nigga and I'm hood rich10</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Düzgün Kal</t>
+          <t>BEBEK*</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yeter, çabalar, aclar, yaralar Bo sorular, yanlsamalar Kantlamalar, o hatrlamalar Aldramam, hatrlayamam, hatrlayamam Hissiyatsz bir oyun bu, ben kazandm nedense Bir alr, bir verirse ner'de benim sfrm? Bindim arabaya zencilerle kvrp Bu ileri geziyoruz yalandan srtp Ah Sanatçlar Siyonik, algoritma eridi Piyon ektiler topraa ve zombiler dirildi Neye fayda eder ki? Hepsi de delirdi Ah Doktorum bi' torbacdan daha fazla verimli Tekme atar bebekler, imdiden sinirliler Ben kronik vakaym, Fuck you, motherfucka'!ym Param var mutlu deil, tripteyim, bu ipteyim Cambazlara öretiyo'm Ulan, bak, bu ip dil La-la, la-la-la-la Sanki sirktesiniz, ner'de alknz? Hayatn sikr bizim yerde kalmmz La-la, la-la-la-la Sahil esintisi burada reyonlarda Kamera beni çekerken yönetmen hep uykuda Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Birlikte kazanana irket, kaybedene Aile denir Bana öyle bakma, ben de sizin mahalledenim Hâl ve gidi sfr fakat sknt yok, hallederiz Elli metre mesafeden fark ederim kaybedeni ehrin en ilek caddesinde tiner çeker çocuklar Gel de imdi afiyetle scak çorba iç Herkesin bi' mazareti vardr elbet moruk Fakat bir gün olsun hiç unutma, biz hep bur'dayz Ah Sormadm sorularn cevaplaryla megulüm Ve rehberimde ölülerin de numaralar var hâlen Hiç düünme, kaç pis sularda yüzme, kirletir seni Öldürür beni bu duruma düüren alem nsan ömrü pisuvarda izmarit Sen hayatta kal da pembe hayallerin az uzakta dursun Balistik bir detaydr en sonunda kurun Arkadana söyle, ben'le göz temas kursun Ah Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? Uçurumlara ittim kendimi kaç kere ben? Yaprak döker gibi yazdm her sene ben Ate yaktm gerçee ben, ate yaktm her gece ben Belirsiz hak hangi cephede? La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir La-la-la, la-la-la, la-la, No.1 La-la-la, la-la-la, la-la, on bir6</t>
+          <t>Nisam bogat, al' bih se radije provozao U kolima na manuelnim bih probao Pored nje bih oti'o toliko daleko Da nas ne nae, aman ba niko Sat otkucava, a jo si pored mene eno moja hoe li da se uda za mene Kai mi, reci mi, da bebo staviu ti prsten Ne bih voleo kad bih bio poniten Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno Konano sam van sela Za men tamo vie nema mesta Staro drutvo s odavno raspalo Budunost zajedno zapisujemo Trud i gas bez fleksa To je samo ako sme radit' bez seksa Samo vi radite va ou biz Ja u sa svojom dragom radit' svoj stil Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Risk</t>
+          <t>Bizim Savaşımız Asla Bitmez</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Yeah, bak hele sakara, uyanm aya Yememi baya, güzelim daya Burdadr saf, görünür kap te köpee yutturur sap Baka bak baktn, baka da kaldn Yanla taktn, ataa kalktn Kaymsa gözün, yanltr sözün Satmsan özünü, yersin sen sözünü Sra da alr, bana da kalr Sana da dalar, iti de salar Yeri de yalar, geçmez dak'kalar Bitmez vakalar, bekleme gülüm Saniyeler zulüm, yakmaz ölüm Sokakta dölüm, çkmad falm Hapise saln, öcümü aln Kelepçem kaln, maske ile daln Biri satar, biri atar, biri katar, biri yatar Gündüz içinde uyumalar, uyuma yâr Zamann var, zaman kar, hatralar Geride dur, uzan uzan Kuzu kuzu, tuzu buza Yanmda durma git, uzak uzaa Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Alright Karanlk yollardan geldim Gürçeme, Kreuzberg, zmir, Berlin, ja Korkmadan çok yol geçtik Savan içinden çktm geldim, yeah Ateim sönmez asla Derine dütün çkman zor biraz Çukurun dibini gördük Gel de gör sen gözlerin kanar Palavra budala çok bak Bizde her yol tuttuk yok sçan Rats Kafas ezilir onlarn Ner'de bana gönder bir sopa Bat Adresler nette apaçk Girme hiç ner'desin falan Facts Kafalar bizde bi' tk kaçk Sen misin semtte fink atan? Tekilat salam düümü bala Kaçamaz asla, yeltenmen saçma Gözlerim kan bak, sebebi sakla Bizde yok inkar, gerçek hep or'da Zekâlar kvrak, yemezler sorma Dolambaç oyna, etraf kolla Düzene uyma, düzensiz olma Skarsak korkma, mertliini bozma Hrra, hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hayata bakn, güçlü duruun Kallee vuruun, gda ve bakm Psikopat takm, sokaa yaknz Underground akmz, parlar hep çakmz tedebilir, yakadabilir, hayatn önünde akadabilir Bir kalle sana bakadabilir, ak bela olup çkadabilir Mücadele et diren, polis ve siren Narkoza balanma, hayat bir tren Radar hep açk, gözler hep açk Bir gün yakar enfeksiyon arpack Hayatta kutun, yaama tutun Her eye sabr, baka bir tavr Gözlerim kanl, gömüldüm canl Varsa bir katm, terlidir atm Arkamda gözlerim var gibi Medusa üstümde parlyor yok geri Sokaktan dönütüm Sükse mi? Bak dedim Her türlü delikte telefon çak derim En azndan, yar'cak var biri size Bizim kulvarlar ta gibi, saatimiz belli hep tan yeri Hepinizin vaktine dank dedim Bile bile kal dedim Bile bile lades Belliydi yapacan kahpelik Sokak benim hep evim Heh Geldiim yere bak daha ne di'yim Daha neyim bak Ykk dökük her yeri Git gör Onarmadk deitirdik yepyeni Gel gör çimdeki cehennemin ateini Nhfff Dengeler kolyelerim buz gibi Yeah, ice Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang5</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tanrı Korusun</t>
+          <t>Bu Gece Vibe*</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Daha yazdklarm bence cansz Magazin herkesin dilinde bence çou da kansz Yazdklarm diline yapr kulaklarn yansn Ne kadar urasan da gözümde yktm bir kuralsn dinle sterler seni geri çekmek Hepsini vurmak bana yarm ekmek vermeyen sektörü geri tepmek Herkesten bunu bekleme çünkü bunlarn derdi bu prim etmek Seni kullanmak sektirmek headline MCler bunu yazmaz Sen gerçekleri gör beni dinle Kör gözleri lazm atman, dünyana düzgün bakman Rüyan düzgün anla bünyem psikopat bi' aslan Ezelden beri rap yazmam beni kurtarmaz ben piyasay sarsarm Mcler dinler zehirlendikleri kafiyeden beni suçlarlar takmam Epidemik hayatn kurtarmaz Bi' insan böyle gazlanmak Kald ki epidemik hayatm kurtarmasn beni satcak kadar alçalmaz Davalarla uratm her ie kendim bulatm Yalnz kalmakta çr açsam da ben fetvadan feyz almam Özgürlük ner'de tanr bizi korusun bu yerden Ölüm korkusuyla yaamak genç yamda benden çok ey götürdü Söyle kim kurtaracak bizi bizden Daha önemli bir ey yok sokakta neenden Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden Yaran somuyor oynarsn kapal tribün Rapçiler herkesin dilinde bence çou da üzgün Para kazanmasakta hiphoptan vazgeçmemek mümkün Naslsa ülkemin çölünde domuyor gün dinle Tech N9ne çakmas MC bak çkmad asla menzilden Bok gibi sound yaptklar popçular oynatmaz beni yerimden Gülmekten baka bi' çarem yok saygszlk etmem çünkü Saygszlk onlarn yapt arklard bilmem öyle deil mi? Önemsemiyorum tavsiye arkadalar bile desteklemez ederdi tasfiye Boktan MCleri yutturmanz mars diye Marsn içindeki nükleer bomba benim patlarm pat diye Bi' günde yaamak seni bomasn Nefretin domasn MCler bouna saçn ban yolmasn Ne varsa yollasn urasn beni sollasn Yok çaresi ve kumpas bulama bana tüy sikletin ustas Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden hahahah scratch Biri beni korusun bu gece delilerden Kafamda fslt var abi sence bu ses ner'den? Uzakta kalmak istesemde olmaz artk dertten Biri beni korusun bu gece yine benden</t>
+          <t>M6 is whipping this up Morts, I choose you Bilmezsin nereden geldim No Vibe deiik Baby, come fuck with the A team Yeah Buss downs on wrist we gravy Yeah One night and your life be changing 'Sup? Yalan yok we real If I got you, your benden still Hey Hayatm trap but we doing up drill Ya Kesilir sr, aslr göt real Nah Yok, yok his, souttu taktm that piece Aye tah açar ac o yüzden aldm Rolex Donatrm seni de, yanyo'san oh yes! Hmm Istrm geceleri tekrardan içine no cap Söylediim her eyi not et Yeah This ain't no phase, fast life, no chase Gece daha erken Emre'yi aradm Ner'de? Bu akam n'apsam sence? Alaçat ya da Çeme çinden geçti swerving Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z I want me Asl Enver Yeah Xany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar Ah, hepsi bahar, hepsi ah Hepsi bahar Ey Hepsi bahar Hepsi bahar Hepsi, ah Gece daha erken Ey Emre'yi aradm Ner'de? Bu akam n'apsam sence? N'apim? Alaçat ya da Çeme çinden geçti swerving Skrr! Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z Oh I want me Asl Enver Yeah Zany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ILERLE</t>
+          <t>Çabam Kalben*</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K geceleri alkol alanlarn yanna oturdum Kendi tarzm beenmezdim ama her parçamn sonunda kendimi bulurdum Çekilen aclar tatmak için bi' bama rak sofrasna kuruldum Bana gerekli olan iki sahte dost deil de sevdiim kadna Geri dön. Demeyecek gururdur Vaktinde hiç iyi anlaamazdk annemle imdiyse çok iyi biliyorum Babam ölünce kymete binecek Bense hiç yazamayacam onlarla yaadm mutlu anlarm bu deftere Çektiim Çileler kalbimi söktü çkard zaten Artk gerek yok içimi demek için ameliyathanede kör bi' netere Defterimi doldurduum kalemin ucu krk Gittiim yolun yok ucu buca nsanlar istemiyo' sayfalar karalamam Neden bu hrsnz? Yoksa sebebi alamamak m intikamnz? Haline otur da ükret. Çünkü Sokakta karn ackm çocuklar dileniyo' hallerine yazk Yan daha 15 lerde görü'cen mutluluu imdiyse rahatla Sigaraya baladn. Biliyorum. Çünkü Oturupta 2 kelam edemiyo'sun babanla Anan da üzülür sen kötü ilere bulatkça Kendine öyle bir dost edin ki Yüzün hâlâ gülüyor olsun Onunla sohbetin son bulmu olsada</t>
+          <t>Uzun zaman önce yeminimi ettim Bütün bu tabular devirecektim Yaamann anlam benim için buyken Kayglarm geciktiriyo' beni lgilenmem gereken çok konu var Yolum dar, yok olucam Ölümsüz ölmeliyim Bununla görevliyim, ah Buna ramen Veriyo' sevdiim ey zarar rendiim ey kadar Fevri verdiim her karar Dönüp durdum hep, kafamn içinde tek geldiim yer zaman Onun yeterliliinden falan Düün bi' ey ifade etmicek geberdiim yer sana Beni yaatmal bu bnliimden kalan Baka bi' ey dert dilken bana Mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam bunu anla, ya Müsaade et lüfen, ya Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et lütfen Müsaade et lütfen Fark ettim ki büyüdükçe ben küçülmekte her birine olan öfkem Kabarmyor hiç meersem Savam benimle hedefim arasndaym Size zamanm kalmyor hiç Yine artyor, artyor, etkim var biliyo'm zdiham diliyor, tansiyon hit Dilimin ürettii bu antibiyotiimi krp çektim Antibiyotiim Rap mant artk ayk'yon di mi? Benimki bala göte ky nikah daya döe Diyosanz Ne diyo bu çok ac, ha Cevaplarm cidden içten sorsanz Zaten tam da siz ve benle ilgili bu korkarm Yani korkmam da açkças korkmalym Düün elimdeki çakmakla yaktm contay Kasmpaa'dan yukar çk gör'cen ortam Aman aman, eksik tek bi' ey olmasn sofranzda Fakat mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam, ya, ya Müsaade et lüfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et, müsaade</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AİLEM</t>
+          <t>Criminalo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>'Cê vai pra sempre estar em mim Diz que a história não acabou Que depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah e eu te vejo lá Ah, ah, ah, ah Ainda te sinto nos meus sonhos Toda noite eu te encontro nas estrelas Pra dançar nossa canção Lembro da sua boca no meu rosto Na última noite de agosto 'Cê já sabia que ia levar meu coração E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois 'Cê vai pra sempre estar em mim Diz que a história não acabou E depois do universo ainda existe o nosso amor Esse não pode ser o fim Tem que existir outra versão Depois do universo, além da nossa dimensão E eu te vejo lá Ah, ah, ah, e eu te vejo lá Ah, ah, ah, ah E foi difícil ver o sol se pôr quando você se foi Mas acredito que existe um final infinito para nós dois E eu te vejo lá6</t>
+          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DIE ZONA</t>
+          <t>Eskiden Tek Derdimdi Para*</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>Olvi Olvi king ya Bu Unique bro Bay bay niteliksizler, tüm pisliksizlik düler ey Bismillahszlardan beklerler etnik toplumlar ehven Cadlar eklenmi gemiye Kaptanlar acizken herkes hakl lan Ben nedense garnitür hissettim smim sektörden deilmi meer kilemek en zormu, randuman tutanla bir argüman tutan köstebek Aklm resmen iktidar tarts Aada kalan ksm banknotlar Keep it real Mississippi deil bura im bam kadar, ek i deil sra Tek isteim masa ba deal bro Turkish life bana göre iyi bro Mengeni eksan-trik meyve gibi Gerede mezbaha huh kelle paça Dörtdivan vah, Çaa merebi bu Alkol alma sana yapsnlar Mudurnuda Baba battk lan harap olmaktan Yalan altnlar beni bozmaz hah! Amcaolu sana klasmanlar vip wild Aksan var, çok aksanda az görmüler Espriymi bak seksenler baba imdi burdaysa balkon en tepe Yok club falan evde i bebek Baktn olmuyo, bakm'can aann Tek derdimiz iler gitmez Küçük ehre büyük öykü bitmez Bu mürettebatn içinde birsen Sen görmemisen insanlk esne yi deilse baban ticaretinde nsanl sormadan önce dön bak Komple memleket ne alemde bro? Söker atar kalbim arr Haslatm itin azna çomak Sen it bu bariz artk, iltifat m? Hasmlarma reva m? Hasmlarma reva m? Hasmlarma reva m? Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan Açlma aman, açlma aman htimalim ise birthday cake Mimli mahallede ki tornet keyif Eklemlerimde krk en sert yer En dost bildiklerin en çok yer Bense galibiyet sarhou Endam mabedine smaz hiç Planlar içinde yüz, kat için Sars itibarn da acilen Yolumu duydu ve kudurdu Kuyruk aclarlar yerine oturdu Durup dururken, e kuruntu muydu bu? Huzurum içime kaçt ah! Paket paket ara, belki kalr sana kara para gibi, para kara Nasl haram ama sana fana asl-a-ma-man ah Seni maganda papaz! Gözümün içine iyi bak! Bu gözler numara yer mi ha? Polisler adam eder mi? Yürein kuru eder mi lan? Düümde yalnzca Paris Ve bi de karmla parti var Havada dönüyor artk Taraf ol olma kanka kal Kalemim parlad Kula kul kalmaktandr bu Bana kal kal kal kal diyen olmad Paravan olmusak madem Tanmazlar doymadm Daha sofrada yeniyim zaten de Eskiden garsondum, imdi ben yiyorum Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan silkelen, silkelen, silkelen Açlma aman, açlma aman silkelen, silkelen, silkelen Yazk kafana, yazk kafana Yazk kafana, yazk kafana Azmsamadan, azmsamadan Açlma bana, açlma aman yazk, yazk, yazk Morde2</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BUL AGLAMAYA BAHANE</t>
+          <t>Etrafta kamera*</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>K ritmin içine gökyüzünden dalan bir ahin kadar sinirliydi Bu ghetto'da isim yapmak kadar zor fakat bir o kadar sevinçliydi Nefesimi bugün de kesemediniz ben hayallerim kadar dirençliydim Olmak zorunda deilsin kafam mahallen kadar geni miydi Geni miydi ha geni miydi belki de bir anda deimeliydim Ritim ve natoyla ayn yataktaym hiç durmadan da sevimeliydim Gevi getirdi ve geli dedirtti Takale kendini fazla belirtti Üstüme gelen bu ehri umursamaz bir tavr içinde ve kendi delirdi Bana hala yeti diyorlar çünkü bu ormandaki tek kral benim Bana benden bakas dost olamaz egom fazla yüksekte krar zemin Saçlarn sarya boyatp Raponza gibi yapacaksn melankolik Harcamalarna kz avlamaya devam önüne alrsn birkaç kemik Ayn basamakta deiliz yorulduun an durup da bir sigara yakarsn Takale tasman sald korunmak için de hançeri o götüne takarsn Ilham gelince sol eline bak kek, duygusal bir parça yaparsn Sabah kahvaltsnda kaar görsen eski sevgiline mesaj atarsn Neyse siktir et, belki de bundan daha fazlasn hak ediyorum olsun Kimi kendini fazla kandrd kimin amac da sadece cüzdan dolsun Dolsun tabii niye dolmasn ki bo kalan yerlerine Kürat koysun apka ve sakal bu ehirde çakalm bazen emanet bazen kurun Hadi anlat x7 Hadi anlat, anlat, dinle gölgem siyahi ama gece rahatna bakmadm Mahallemdeyim ve etiketin düük ama ben dostumu asla satmadm Aslan kesildi tayfan gerildi kangren olacak o mic tuttuun el Herkes merak etti ama hiçbiri yaktrp o capi kafasna takmad Sanki bir Harlem mantk arar, övdüün o burjuvaya pandik atar Göl, köprü tepe üstü üzerine birden korku salar Bunu anlatmak isterdim ama yaamadan örenemeyeceksin Çekmecedeki tek safkan biziz ve bunu asla göremeyeceksin Ama neden neden kafam ar basar bu bedel kadar ar yaantlar Bir düzen kuruldu ve ykld kumar gözaltlarmdaki o ahane duvar Bahane bulan bir kerhane bul al kendine bir hatun elalem u'lar Bu kaçnc sunan karanlk sular punchline o zihne dinamini kurar Bu terapi stili senin eline verir o kç krk mikrofonu sana deneme dedim Ne geri ne ileri Hiphop için elemedeyim o zaman ele bebeim hadi be unu göreyim Elime tekila shot verip tuzum kuru demeyin veyahut kuru deneyin bu sorunlu bir deneyim Bir kere de brakn emeinizi kenara o zaman müzik nasl yaplyormu sizi göreyim Bekle sorun deil bekle, bekle sorun deil K34 yakana yapacak bu sorun beyim Ben zaten zirvedeyim, Aras yeni bir deneyim Beni de deneyin o sabrnz bir göreyim x21</t>
+          <t>Sorumsuz evladn ardndan yas tutan anneler Sorunsuz hayatlarnda sorunlu taklan nesiller Zaman deitikçe artan kibrin esiri gençlik Sorsan hepsi gündeme internetten isyan etmitir Yakn zaman, çok da uzak deil paranoyalar büyür Kötü giden bir eyler olsa bu ülkenin genci görür yi niyetle yaklar lakin eytann ardnda yürür Ve kimse anlamadan kin ve nefret kalplerinde büyür Gece olunca rahat uyu fitne senin kara kuyun Para girince büyür oyun hep önde gidiyor kara koyun Bilmek için soru sorun herkes yatyo yüzükoyun Bak huy dimez ayk olun yaknda balar asl oyun Tuzak var saptn her yolda tuzaklar da var Evet blki çok uzaklarda ancak hatrla Ardna bile bakmadan kaçarsn bir ey olduunda Zaten kçna tokad yemitin hem de ilk doduunda Farketmediiniz her nota sanki ibadetleri Yürüdüün her yolda sakl eytann sembolleri zlediiniz her yerde var deccalin üçgenleri Aydnlanan müzik deil rihannann ampülleri Çabuk unuttun dünleri acyla dolan günleri Aka dalar gözler hep ve kanla solar gülleri Kardan baknca soldan doru gelir zul Arkasndan baksan sadan gelir yaplan bütün zulümleri Bu biraz eletirel bu Salvo, Ayben Dar çkp biraz yürü ve hepsi sayko zaten Aklnn alamad nokta bak deimi alem Millete bok atarken çocuk nasl karnen? Aynen kafiyem afillidir nefret kusar bazen Sen brak bok atmayda yoluna yürü bi madem Burun kvrr entellektüel ya haspam aynen eytani endüstride Türkçe Rap bi maden Yeraltnda yürütür iini sonra durum deiir öyle Hayat gibidir insanolu kendisiyle çeliir Açk olmak gerekirse herkes Rap yapabilir zaten Hayatn masaya koy yada brak bu ii Gelii büyü gibidir etkiler çocuklar Çocuklar etkiler, etkiler sokaklar Etrafta onca hakszlk kasar akaklarm Bir asker kulaklnda ben sayar afaklar Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>İSTANBUL</t>
+          <t>Fam</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Çok track var Gösündeki kllarn says Aaa Pit10! Naber verseümdeki yllarn hasm Ego biter ses ver be ksmayn atnz eyho siker, cCc skmayn cann Szlanr yaras kskanmayn hrslanp yaznz z kalr atnz skaladn sklr kalbn Iskartalk maln ilk yaprana slatp yatrn Ismarlarz canm spanamz rzladr sanrm Küsemiyorum kadere hatalar benim Sövemiyorum felee hatalar benim Göremiyorum nerede hatam var benim Hatalar satr aralarnda yatarlar enik Atta gidelim hey hatta ce-ee fucked up bebe Takm taklavat takn alt kat yere Ma'fucka rakm underground muhatap ve de Ala nigga yakn aklar mal fuck rape Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Ver Bat'dan melodimi ve tempomu diz Tarlama haseti çaktrmadan eker koku pis Top triple bozuk yap seker çou bir Türkçe Rap'e biber lazm homie çocuk deil stanbul'da homosun Japonya'da geya Uzi bana pussy gibi bazookada ehinah Nolursa eklin gel mason ya da petemal Ama bana deil yani mal olmadan geç pas Haclar ac verir açk elim kaçn geri Kçn yeri öper benim ilhamn kasl beyim Hiphop akl seli moron tti fasl ezik Meydanmda asl ezip kasl delir ba eim Egomu saf d brakmak egonu katleder Meteor gibi gelen nesiliz def olun sahneden Ne konum fark eder ne ya bir olup harp eder- -Sek birinci nesil biz gelince Zyon'u kaybeder Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil Haziran aynda gökkua görmek gibi eyho-Pit10 bakp deli gömlei giyin Biri ylan dieriyse ördek hihi Brrrrr iki perfect stil imdi bu adamlar birbirlerine bu kadar diss yaptlar, küfrettiler yani bu tükürdüünü yalamak oluyor biraz, gel sen o kadar birbirine küfret sonra gel beraber ark yap yani nerede kald sizin gururunuz onurunuz yani ................................... özet geç piç3</t>
+          <t>Oh no, the gyaldem wan' party So uno mi affi start it Champagne she a sippy A wheh di gyaldem wan'? Red Rat and Chippy FaNaTiX Oh no Girls like insta' and girls like clubs Girls dont like you, girls like us Since 1980s, Cyndi Lauper I know girls just wanna have fun Seh wah? Dat one deh classy Dat one deh skatty Dat one got breast but she got no batty Two of dem boy dere babymudda call me daddy Haha It wasnt me, it was Shaggy Gyal call mi a cutie Ya See me in the dance DSquared2 or Gucci Ya Pussy 'pon safety, release da Uzi Brrr When mi seh buss it it nuh mean yuh fi shoot me Nuh Dat one deh choosy But still she ah choose me Young boss Not you, you aint gang Nah Tek way yourself, you aint part of di plan Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex for the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru Me would a shame Tek way em gyal and 'im leff inna pain Mad Pussy boy now, frow dirt pon me name Ayy boy, why you wan give man bad name Oh no When theres bare gyal on road call dat easy street Ya Chatty-patty boys, call dem cheesy beef I dont fuck with you, so dont speak to me On my Cardi B shit Yo, yo Unno a mad mi 5 gyal a squeeze in the back of the taxi Skrrt Penthouse suite so dem view yah mad b Maud Mandem are strait nah yuh can't relax wi Wavy, Max B, couple gyal wan trap me Mhm Male groupies cant stand Nah Tek way your self, you ain't part of the gang Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex wid the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru That girl Oh no Double R Me would a shame The girl call him a cute A big man she wan She no wan a likkle yout If she not tell yuh Make me tell the trut Ah me she a want, yuh no see 'ow me cute? So all of dem girl deh ya a fi mi, you see me Me ask anyone, dem a gimmie Look 'ow she a jiggle and a twirl and a spin it You know from me a bahn any gyal mi go afta mi winnin Mek sure yuh can bubble and wine pon the dick Nuh struggle when you climb pon the dick Girl spend time pon dick Even do it t'ick Be my superstar Girl shine pon the dick An' whine like a clock girl Tick, tick me a boy Make your pussy start drip, drip Girl ride like a jockey Tek whip, whip My girl just swallow, dont spit Oh no My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Backflips</t>
+          <t>Favela (Demo)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks Skatoties apkrt ko adrenalns veic Kaepe tu i' traks, t man imaks teica Ms baudam dienu, bet dados veidos Dzima baudt dzvi, ne lai par to steigtos Man mzika , kam ritenis, kam bikes Patrinjums apstdina, apstjas laiks Un vl kad mljies adrenalns sprgst Klausoties mziku, maigums un Te pki kds uzmet skaistu triku Easy Saldus saldo backflipu Nemaz jau nav traki ar izpletni vai gumiju Daivot oken, bt biznes ar uzviju Splm piesdies, atslbis sabijies Sportam jtot ldzi pacilts, aizdedzies Kam man apstties, viss notiek pats no sevis Adrnalns visiem reizi biki kaut ko devis Tu rdzi to visur, tas scs tev t k mitrums To tev prass, kad tav dzv iestjies kritums Tas tav galv kp k kaln kpa alpnists Kas nebaids krist, izejot uz risku Tav prt nav viss kas parasti iet tev pretdabisks Gatavs esi raut, plst, lkt un krist, kam tev tas viss? Jaunb viss iet jaudgks, tur jau tas triks Ms visi esam dzves baudtji, nav jau tik slikti Vairk draudgs nek draudzgs is bts tav playlist nekad nebs saudzgs Pa ausm dauzs k pa spaini, paem pauzti Trausl vainas apzia ir ierakusies kaudz Adrenalns, ko izjt daudzi, risku raudz Aveu vns, izjti baudu, visu zaud Nesakrist var manas domas ar tavjm Tomr pie tmas s, ts mazliet kavjs ljos es, savienojot punktus galjos Apvienot te, visus tuvjos un tljos Rga, Saldus izkliedjot visus maldus Skanot im te, neviens neteiks vrdus saldus Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Smaids kas lp man klt atgrieas dab Runas adrenalns kad izdals Tirpas kas skrien man pri nelaias va Pirms enerijas tas izsvaids Labais kas lp man klt atgrieas labks</t>
+          <t>Uma vez eu sonhei que era rei do rap GAME Acordei e pensei That's kinda lame Lazy flow, same beats, lame shows, rimas non sense Qual o sentido de ser rei o desse game? Não sei, apenas sei que sou competitivo Hanibalizando beats e continuo faminto Canibalizando ouvidos apenas com minha intro Difícil compreensão? Volta ao início Nosso princípio Carbono e Oxigênio Nosso princípio Nitrogênio e Hidrogênio Sensacional, o princípio universal é o mesmo Ninguém é especial. Ingênuo ou um gênio? Contra a minha a tese, exercito o BRAGGADOCIO Quando nada aquece o coração de um monstro Ela olha pra mim e já ri de nervoso E ele olha pra mim com um sorriso escroto Minha habilidade oral é magistral O instrumental é o clitóris, minha língua o canal Reproduzo 7.1, não sou estereo Nem mono flow, me fala nego Qual é o seu critério? O império dos FAKE contra-ataca Playboy que só ladra, cosplay de favela Pior que novela, da mente apaga Rima nada com nada, enquanto eu pinto telas Que deviam tá no louvre, cês só rimam estrume Acho o cúmulo, procuram cume encontram túmulo Acúmulo do ridículo e a fan base que acostume Todo álbum é genial, que conceito estúpido Não sou guardinha de rap, só espero critério Senso crítico é mínimo, a cena virou circo, cês são tudo histérico Liguei pra MEG e falei Eu quero um império Não de fama, sucesso ou excesso, mas pela rima que expresso Os prego cego grita PRR e no final só sobra ego Só sobra ego Tudo mudou no dia 2 Outubro 2017, aniversário de vinte e uno Me sinto apático, preciso de um novo rumo Difícil ter pé no chão quando sua mente é em saturno Saio de casa atrasado, procuro um trabalho Diurno, taciturno ou noturno, que seja Só preciso de um destino que não termine em breja Prefiro em beijos, e que assim seja Por ela eu trabalho 12 horas na frimesa Não sou o único da linhagem, então cartas na mesa Minha bisa indígena, escrava de família portuguesa Provavelmente estuprada, dá a luz a cena Uma filha bastarda, minha vó paterna Enquanto isso minha vó materna chorava O marido foi pra Brasília, nunca voltara Essa mistura de história trágicas formou meu carater Personalidade, filosofia, identidade Limparam o caminho para minha prosperidade Então abram-se as alas, eu cheguei pra traçá-lo Por essas e outras, é que eu busco um LEGADO Para preencher as lacunas do meu espírito oco Meus gritos ecoam no corredor e eu fico rouco A perna bambeia, o coração acelera, porra A gente perde, levanta e tenta de novo Não acredito em meritocracia, quero que essa porra se foda Mas eu tento vencer na vida, mesmo que eu morra Mesmo que o sangue se misture com o suor E no final tudo escorra Altos e baixos, a criança machuca-se na gangorra Todo rapper alega ter uma vida sofrida Reclamador profissional, essa é a função do artista Paradoxos formam-se, segue a lista Um iconoclasta classicista, Estoico e hedonista Que procura riqueza mas de forma simplista Após divagar, me recordo de TEMPOS idos Rodando em CÍRCULOS, volto ao princípio Assisti de camarote a morte do meu irmão Vi minha mãe ser forte enfrentando a depressão Ela virou artesã, transformou a dor em arte Então eu luto contra a solidão que inunda meu coração Rezo para que do meus pais eu nunca perca a amizade E que nunca nessa vida eu cause decepção E o que falar da ACADEMIA? Essa engrenagem prussiana em estado de LETARGIA? Temer as autoridades em troca de sabedoria Tornar-se um lacaio por um pedaço de papel Ensino atrasado que prejudica a periferia Que suga nossa alma, acaba com nossa vida Penaliza gente sofrida, dolorida e enaltece parasita Qual o significado de CONTRAKADEMICO? É um personagem tirado de um mundo cênico Criado pela minha mente rebelde e insegura Que busca de uma vez justificar suas loucuras Quero criar o meu caminho, autodidata Nunca se render nem se corromper pela indústria Mas não busco o underground, busco as massas Mantendo a integridade, isso me causa um impasse Os BECOS da minha mente formam labirintos Procuro uma bússola para caminhos precisos Engulo seco, me encontro perdido Desencontro, atento, flashback To na mustardinha, eles enrolam beck Mescladinha, reparo o estresse O suor desce, aquece o couro CHUMBO escorre, renasce OURO Tudo que eles querem é nos calar Eles querem nos calar x2 Mas eu falo mesmo assim, pé na porta, o que esperas de mim? Ser mais um escravo? Preso num ciclo sem fim Abraços ternos formam momentos eternos Multidões num atraso perverso refletem no espelho convexo Não consigo me reconhecer, deixo a alma perecer Independente do que acontecer, não consigo vencer Isso que o demônio me fala todo dia Cartas na mesa, demô-cracia elitista Fácil ser meritocrata numa aristocracia Kratos é mais que um jogo quem diria Poder para o povo por meio de linhas anarquistas Aqui o discurso nunca será materialista Saiba diferenciar celebridade de artistas Não siga as Kardashians, valoriza tua vida Respeite a si mesmo e a sua vivência empírica Minha vida nas rimas, minha dor nas melodias Expurgando demônios e executando facínoras A caneta sangra e o resultado fascina Nos breves momentos em que a carne amacia O lábio ama e te reconecta com a vida Tudo que eles querem é nos calar Eles querem nos calar x2</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LE CANE (RMX)</t>
+          <t>Favela - Instrumental</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Guarda che più partecipi più vinci meno Mo pedali, volevi la bici vero? Lazza fai cagare come dici, prego? A lavare i vetri come ti ci vedo Ti faccio urlare Zzalando, Don Lazza è l'anagramma La tua tipa di dietro ne ha presi talmente Che adesso c'ha il buco del mmh che parla, analgrammar Chiudo queste bocche tipo Saratoga Palle in faccia alla tua tipa, arapova Spiegami com'è che parla sempre di piccioni O sarà troia o sarà Povia Ho una barra nuova Quando faccio un live ti porti le casse, la prendi per gioco Non ti do ascolto, fra' se faccio un live Ti porti le casse da morto per dopo C'ho un botto di fotta, tu infottati troppo Fra' sotto a chi tocca, tu toccati sotto qua Lo sai perché qui meno te? Sei troppo stupido, QI -3 Qui meno tre scemi Che fanno la gara a chi ce l'ha più duro fra' Se fossi Neri Parenti voi sareste i protagonisti Per fare Natale a fanculo, fra' Bella Real Talk, sono un tipo fresh Sì ma fresh troppo Tu trash, goffo Cash troppo, quando stappo il G sono Flash Gordon Voi troppo babbi, troppo scarsi Bosca al beat, faccio un morto sappi Che non vado in tele perché se ci andassi Tirerei bestemmie frate' Gordon Ramsay Chi lo sa come va a finire Kilocal, peso queste rime Rapper ballerini con le ballerine Chi ti Kledi per capire eh? I tuoi cazzi li vieni a dire a me Che nemmeno ti sto ascoltando Ho preso un palo, Cristiano Ronaldo Sei tutto fumo, ti stiamo rollando Boy, fatti da parte se passa il mio team Frate' hai i minuti contati Come se ti scade la promo di Tim Fra' sei giù con la police, Sting Non sentirmi che ci rimani Lanci i sassi, nascondi mani Vedo un sacco di questi tali geni Incollati ai miei genitali E la giro e la fumo e non gioco a PES Sei sbirro, sei cane, fra' come Rex Mi puoi presentare, sì, come guest Anche come Dio, sì, alla Kanye West 'Sti rapper li usiamo da anti stress Si sa che sono così avanti che Se apri la rubrica dentro al mio cell La mia nuova tipa è salvata ex Metticeli in tasca che fatichiamo Mangiare una pasta, mi è capitato Se un fra' dice basta, decapitiamo Ce l'hai in bocca fra', Pasta del Capitano Io sto in gara ma mica per partecipare Non accetto le sconfitte Mischio le carte, fumo due jolle Pesco due Jolly e ti lascio il due di picche Ho un tattoo sulla mano con scritto odio Così sai cosa provo se te la stringo Rido quando fate Bang bang con la gang gang Sì ma il ferro è finto E il live è free Ma se vieni insieme alla tua tipa vai tra' lei paga lo stesso Il mio cachet è un po' meno di un palo Lei ci dà due gambe con la figa in mezzo Crudo, crudo, crudo come il sushi Frate' crudo, crudo come il Pata Negra Crudo frate' come i Vaffanculo Che ti prendi quando mi scrivi in bacheca Maledetto il giorno che hai scoperto il web Fra' spero che ti ripigli Sono tutto ttofa che scrivo sul sofà Quanto è figa Sabrina Ferilli Scarto rapper come Zanzibar Muori tu scemo che zanzi barre I tuoi frate' non hanno le palle I miei scroccano paglie per far le canne Hey hey, stai buono Che sei lì che cerchi di fare il pazzo Facci una sega con due mani Ti sblocchiamo l'iPhone col cazzo Sai come mi chiamano da me? Giovane Chopin Perché prima mi siedo a suonare il piano Dopo mi alzo per scrivere e suono te Sto tra i pazzi da legare, con i cazzi da levare Qua ci girano le palle, playmaker Li ho schivati tutti, Mayweather Non stare a sentire me o ti chiudi I miei frate' fanno Metro Boomin Sì ma frate' in cinque metri cubi Odio se mi crolla il mondo addosso Odio se passo momenti bui Odio per tanto perché non posso dire Che sto crollando io addosso a lui Bello il tuo discorso, ti giuro che è stato interessante Vorrei un portafoglio così gonfio Che sembra sia in stato interessante Fra', sono uno per cento come se ho il telefono scarico Fanculo il coltello, il flow è Hattori Hanz Con la katana dalla parte del manico Ho una bandana in testa come De Niro ne Il Cacciatore La faccia da Goodfellas e le scarpe da spacciatore Una schiera di groupie intorno e non capisco come Sto senza sentimenti ma è aperta la caccia al cuore Neanche un bisturi in pancia mi ha tolto la voglia di vivere Di scrivere, di tagliare la testa a queste vipere Bastoni tra le ruote ma non mollo, col cazzo 'Sti rapper deepthroat senza collo, Costanzo E ho vinto ancora io, non pari Perché ho sempre suonato i tasti giusti, Bollani È inutile, non puoi farmi fuori se non bari Mi han chiesto chi mi fa le scarpe, ho detto nobody E la tua scopa amica non ti scopa mica Sembri tutto gay, è come se scopa Mika Fra' mi mandi un pezzo che hai fatto la strofa fica Non lo apro nemmeno, boy, risparmia la fatica E sono giù con pochi, il resto è tutta scena Giso, Tela, Gimmy, Vegas, Mirko, Tedua Ghali, Killa e tutto il resto della cricca La tua crew fa ridere, Premiata Ditta Il tuo flow non prende come il cell in galleria Metto 'sti soldi da parte per andare via Torno e mi fanno una statua in mezzo alla mia via Maria io non esco, no, io esco la maria Il fatto che la terra è rotonda fra' è una cazzata Finché ci sono infami ad ogni angolo di strada Qua sfondano gli scemi perché la gente è distratta Non c'hai la credibilità ma te la sei comprata E manco vai a tempo, cazzo rappi? Stai perdendo Tempo, boy, fazzoletti Io sui tuoi progetti non investirei Investirei te e gli scemi con cui sei Se vuoi glielo dimostro a questi Quanto sono ancora sempre un mostro a testi In giro così fake che piuttosto il wrestling Il flow fra' non è tosto, frate', è Dosto-evskij E quindi frate' riempimi di fresca quella vasca Chi ti vende questa ha la tua cresta nella tasca Non dimenticarti mai di questa bella faccia Ho perle per le orecchie, tu una perla per la nasca È tutto uguale, droghe a puttane Poi il flow è da buttare Magari con me perdi ma prova a puntare Non puoi fare il sudoku se non fai i numeri a chiuderle E non puoi fare Goku finché vivi tra le nuvole, boy Quale strage di stato? Tu fai strage di stati Incapace a distrarmi, alla brace 'sti infami Vi rispedisco a casa al volo, viziati A cazzo bello forte in culo, colonizzati Ce ne avreste di storie da raccontare, ma forse Ve le siete perse in mezzo a puttanate più grosse Le domande che mi fate non avranno risposte Fra' al massimo sì con la testa più qualche colpo di tosse Oh mio Dio, oh mio Dio, muoio, sono leggenda Qualcosa del tipo Sarà mai esistito davvero? I miei numeri parlano, ma fa niente, che c'entra Per te sarò sempre un genio travestito da scemo, boy Ho nemici fra', un sacco di nemici fra' E più ne stai parlando più mi chiedo Cazzo dici?, fra' Amici, amici, fra' e ti fottono la bici, fra' 'Sti qua sono comparse, manco buoni a far le attrici, fra' Voglio il grano come Dandi di Romanzo Criminale Non ho fame, oggi il mio pranzo lì rimane Cerco calma, ma lo scazzo mi risale Fino al giorno che esco con un mitra in mano E faccio il pazzo al Quirinale, boy Questi rapper quando entro si danno l'addio Sai che c'ho il flow di Cristo però Cristo non ha il mio Cento passi indietro e non sono manco d'impegno Inginocchiati e poi slaccia 'sta lampo di genio, boy Volete fottere? Testate! Calderone, con il flow Mr. Lazzino rapper Fra', tu sei un coglione Il flow ti fa di brutto, vuoi fare il calderone La Pozione Polisucco, fammi un poli-risucchio Ye, come fossi Harry Potter Faccio girare i coglioni, tipo globetrotter Porto questa storia, quando arrivo vai sicuro Vuoi fare il maghetto ma c'hai la bacchetta nel culo Ye, Brexit, quando arrivo io è B-Rex it Sai come funziona, faccio flexing Come fossi Meek Mill che scopa Nicki Quando rappo fra' ho i tuoi versi preferiti Ye, laptop, quando arrivo Lazzino fra' sono là al top Porto questa storia, non ce n'è Fresh metrico, Crash Bandicoot Ti chiudo in due come un Macintosh Ye, hai presente com'è C'ho roba seria quando te ne droppo un paio col rap Ye, c'ho le robe fra' e non si discute Fai Biancaneve ma dai un morso alla mela del tuo computer! Yeah2</t>
+          <t>Acho que eu envelheci dez anos Mas no calendário só foi três anos A teimosia ainda mata meus manos E às vezes somos os maior haters daquilo que planejamos Meu manos na ilha, e não é do Caribe Com o sonho cancelado tipo Freddie Gibbs Hoje Outback, ontem esfirra no Habib's Mas as armas ainda mira em nós, não importa o calibre Não perca o foco, quando tudo é click Nem todos têm o poder de Midas, isso eu vi no Rick Use o cérebro antes da Uzi, vida de Instagram, public Porém esse rappers bundão só são concorrência pra Nicki Pretos no topo, só não esquece as preta E quando expor suas fraquezas não culpe buceta MC destaque é o instrumental, quando se falta letra E se não tem talento, tudo bem, vai no Twitter, forja uma treta Minha redenção é através da arte, igual Caravaggio Ainda com a mesma fé, da Fiel quando lota o estádio Seres humanos tão vaidosos, mas soam frágil Copio ninguém além de Deus, só ele pode acusar eu de plágio Me comparar com cafetão e o crime, soa rockstar Me comparar com deuses e reis, soa arrogante Somos deuses do Orum invadindo o Olimpo pra ocupar Então pode se preocupar, se quer ver a morte dos meus semelhantes Criado mudo pra não ver o estante Quantos nossos, morreu de desgosto igual Little Walter Barry viu quão infiel a fama é Na primeira oportu' nos troca por um caucasiano qualquer Números mentem, JAY-Z, hoje se compra like Robôs projetam dislikes, qualidade se ver por like Exigência é mentir no mic, contabilizando like É que o novo hip-hop exige idiotas do hype 'Cêis quer nos bobo da corte ou no cemitério? Hypam quem brinca com a luta, não que leva a luta a sério Qual é o textão que nos separa? Respeito as manas desde Fabiana, Dona Ivone Lara Sonho do oprimido é ser o opressor? Não não, só ser ressarcido! Hoje o opressor diz o que é opressão, mermão, tamo fudido Menor de 13, entra pro 12, e se encontra perdido Morre na mira de um 38, matemática dos excluído Tudo invertido tipo a cruz do filme A Freira Tá de chapéu, abra sua mente, e eu nem falo em usar viseira Só em usar tua a visão, além do leitinho com pera Olhar pro próprio umbigo é estático, tipo correr na esteira Caneta e coração tem que fala mais do que o beat A cada 10 que me critica, 11 já me pediu feat Eu sei, que invejoso é mato, o jogo é sujo e pede hit Teatro da vida ingrata igual Adão culpando Lilith De volta ao lar igual Peter Tempos sombrios onde pastor quer pregar a palavra de Hitler Como Cristo fosse um soldado alemão nazista Não sou racista, eu tenho amigo preto Disse o racista Um dia arrastei tênis no chão pra ninguém ver ele furado Hoje a Converse me patrocina com os mais foda que ela têm lançado Corri tanto que os bico pareceu parado E hoje é impossível um top five sem meu nome ser lembrado Esse storytelling é foda Sem final feliz igual trama shakespeariana Brother, não existe amor quando o assunto é nota Aprendi do modo mais foda, que o Deus de São Paulo é grana É um mano meu me disse Esse mundo é o que há de pior Pessoas não muda, não se iluda, só aprendem a mentir melhor Eles nunca se posicionam, mais cobra Se posiciona e quando tua luz se vai, até tua sombra te abandona 2019 pecados a prestação É Black Friday né tio, depressão em liquidação Luz câmera e ação, pós produção exige marketing No lançamento da postura, a consciência que faz react Nosso sorriso inspira vida, tipo Dream Team do Passinho No ano de Jorge, Ogum na frente pra abrir o nossos caminhos Fiquem com o cobre e bronze, dizem que ouro não é pra gente Oxum é a minha mãe, filho da puta Eu vou por ouro até nos dente Papai Noel símbolo do império capitalista Esse ano vai vir de azul pra não parecer comunista Mas pera lá Coruja, cê tá sendo extremista Gritou a Revolução gourmet, bater panela na paulista 'Tamo precisando se amar, e eu nem falo só de foder Sim de empatia pra caminhar, pra no fim nós não se foder Mas não, eu quero CODEIN! Seus papo nem vende mais Tudo tão Michael Jackson, embranquecendo e andando pra trás Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Abrasileirei, linhas de murro, linhas de murro É a era do descartável, somos descartáveis Tudo tão vago, tudo tão vago, tudo tão raso2</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fatality</t>
+          <t>Gece Sokaklarda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Jahlil Beats, holla at me It's time to eat The Unit is back Them niggas is back, the real is back, the streets is back Shooters on deck nigga, yeah Got keys twinklin', pianos in the next apartment Safe house when the narcs hit I give rap critics verbal bouquets about AKs Foolish rappers in my rearview, far away Ferragamo dreams, the bitch lipstick on my cigarette M4 Carbine, aim for your neck Got that wavy work, Ryan Seacrest Forgi's on the foreign and they deep dish Kill a mink to make a mink My jacket in the weasel family Luxurious furs, pull an eagle swammy New Tahoe, 27Z New grill on that bitch looks so mean Dog food call it Arabian coffee Good connect, don't ask what it cost me I got undetected explosives in my floor Got me in Vera Wang clothes, ya feel me? Fatality, fatality, fatality My brother been dippin' his fuckin' face in the powder Fuckin' up ours We supposed to be in this together but you done with sour Cash money brothers, remember money and power A little paper'll get a nigga knocked down like the Towers I spend hours in the kitchen standin' over the stove Put too much time in finer places to put niggas in holes I got my son froze cold, baggin' up O's He said he want him a Phantom before he's 14 years old I told him he can do it if he don't open his nose Like my nigga Louis ask him where most of his go I'm a bad influence to broke niggas Encourage 'em to the pull up, hop out and smoke niggas Yeah, marinated the bullets in body fluids And if my weapon don't kill 'em, the infection gon' do it Every nigga standin' in my section goin' through it We gon' get the money, you ain't gotta help us to it, yeah Fatality, fatality, fatality Kidd nigga, uhh HUH? Watchin' my OG whip it, I learned how to remix it Turn the pigeons to a chicken, four piece and a biscuit Bodies come up missin' get found by someone fishin' Long nose, Scottie Pippen, Glock 40 extension If I'm broke I fix it but that ain't nobody business They comin' for my head I hope my nigga don't start bitchin' Gotta thank the Lord I ain't get a life sentence 'Fore my name end up in a rest in peace sentence Boy I say sumthin' I meant it Start sumthin' I finish it If I spray sumthin' it's head shots, you can't say I'm attemptin' Y'all niggas keep dissin' I hear 'em talkin' this and that But don't confuse this with that I put a hole in your inner tube car fixed or flat Realest niggas in the game man you gotta give us that I hold it down I'll bust your head for the right amount Six shots, every bullet gotta count1</t>
+          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cevap Ver</t>
+          <t>Geçmiş*</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Etraf hasette kin tutmam Dostlar sezince hiç durmaz Görülür kim ibne kim düman Kafiyeler hiç bi' ekil pas tutmaz Bizi görünce dersin kim bunlar Yatak odalara kadar biz kurnaz Bazen de ince bi' laf krmaz Ama inceler Cairo çok kurnaz Bu sefer ödevim rap ve makine Gibiyim okul dedi Çok durma Tanrnn elleri üstümde hissediyorum O yüzden bu ruh durmaz Yllardr kovala, kovala aclar gelip de bak Beni korkutmaz Zaten ne varsa srtmda Bçaklar yaralar hrsmdan Görebilir her eyi net Ama bu sefer flu duygularm elek-te Görebilip her eyi net Bu kadar salak olman Bize bi' ikence Akln kullan bu yolda Gençler çürüyo'lar bak hepsi darda Abileri deli ruhsuz, firarda Pes etmem asla sal bi' memur amca Mermi 2.20 Teke tek etek giydi gitti Glock ya da uzi Skar düünmez hapisi nan farkl sur içi Serseriler gitti süt içip Kapya yaklat siyah cip Vurul'ucaksn hem de nam için Dümem peine uan derdin Taak geçerdin ama bak elendin Cevab verdim götler bilendi Abilerin bi' taam ederdi Sevmez bizi ama yüzüme güler Çaklar küteler yakalar ve deler Yakadan yakalar sizi tehdit eder Soruyo'sun ebi nasl or'dan tepeler Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Herkese mermi bize yermi Kapo ringde Muhammed Ali Lan götler kalmad halim nan yoruldu silahtaki mermim Yava yava Gözlerinden belli tela Bu sefer rahat rahat gez Biraz sert geçecek rövan Yana yana Korkmadan ver hadi cevap Kapo'nun etkisi bu, ya Düüümüz bile klas Mermi, mermi, mermi Gelir ani Mermi, mermi, mermi 2.20 Mermi, mermi, mermi Gelir an Mermi, mermi, mermi</t>
+          <t>Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Her yer her yer de Hep kalan oldum ben yerlerde Dalmm aryorum kendimi Kim bilir sen nerde ben nerde Es geçtim sokaklar Attmz admlar Unutmak istedim sadece Yaadmz tüm anlar Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Gezdim sokaklar tek tek Önümü göremem net deilim pek Ya uzakla ya da geçmii es geç Senden bana kalan niye sadece nefret Ara! stersen söv acma Kusurunu kaplam sahte yanna Sinsice szdm bütün ayp anna Bugünü hapsettim ben kayp yarna Geziyorum odalar tek tek Eser yok eski halimden Bitiyor umutlarm sebep net Eksik bir yanm sen yokken hep Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kanıtlandık</t>
+          <t>Gefangen 3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok Oras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
+          <t>Part 1 Vom Anfangen Ich bin so fett - ich fall auf beiden Seiten aus dem Bett Jedes Statement so flüchtig wie das Leben und Gebäck Einmal kurz kacken gegangen und es ist weg Während man noch seine Nasenhaare im Klospiegel checkt Ich werde die Welt erst retten, wenn die Welt mich liebt Und nie wieder etwas essen, was mir Fanpost schreibt Ich hab noch immer keine Ahnung, wie man Geld verdient Ich verschwinde langsam immer mehr, ich verschwende Zeit Die Jugend ist mein Kapital und die ist längst vorbei Sonst hab ich wenig doch dafür die Hände frei Aber wem sag ich das, Mann ihr kennt den Scheiß Ihr habt ja nicht mal Geld, um den Song hier legal downzuloaden Ich sollte mich damit abfinden, statt mir einen abzusuchen Doch ich will den Kuchen essen und gleichzeitig behalten Und gleichzeitig verschenken, doch ich habe gar keinen Kuchen Und ich brauch am Ende drei Ich mach eigentlich nur Rap, um im Takt zu fluchen Dann kann ich sagen das ist eine Kunstform, Fe! Ich wurde Rapper, um die Wahrheit in meinem Sack zu suchen Ich hoffe, das bleibt unter uns, Du Fe! Geh mit mir oder weg da, aber mir nicht auf den Sack Bring mir Bier oder Erleuchtung, aber mich nicht aus dem Takt Gib mir Props oder nicht, Mann ich gebe keinen Fuck Auf Meinungen von Leuten, die nicht Ich sind Ich stehe ganz alleine auf ner Kreuzung mit der Flak Du stehst da ganz alleine mit ner Hose voller Kack Wenn ich meine Mütze umdrehe, werde ich zum Truck 80er Anspielungen machen heute kaum noch Sinn Manche sagen, dass ich aus der Zeit gefallen bin Andere fallen hin nachdem sie auf die Eins gegangen sind Manche fallen um, wenn ich auf sie eingegangen bin Ihr seid nicht Gangster, wenn eure Jobs im Einzelhandel sind Das Gute, Wahre, Schöne - meine Eier mittendrin Und treffende Metaphern sind eh nicht so mein Ding Die Weltgeschichte dreht sich plötzlich um die Krim Statt um mich obwohl ich viel interessanter bin Lass die Leute sich erschießen, Kinder zeugen und beten Lass die ganzen Rapper einfach weiter Scheiße reden Von Dingen von denen sie nicht verstehen Ich hab mich umgesehen - es gibt kaum was, wovon sie nicht nichts verstehen Schau mal, mein Sohn, die Kinder da draußen Spielen mit Waffen und dummen Parolen Und alle wollen doch eh nur das eine Sich gegenseitig einen runterholen Doch die Welt will das Drama - die Welt will Effekte Pornoroboter, Theaterdonner Gescheiterte Künstler und Zirkuspferde Ich spiel für euch den Maradona Man braucht keine Ahnung, um ne Meinung zu haben Da bin ich eurer Meinung, aber ich hab ja keine Ahnung Und man braucht keine Warnung um in die Eier zu schlagen Offenbar bin ich inzwischen sowas wie ne Offenbarung Die Offenbarung nach Manfred Apokryphen Zu alt für Gewalt und diese Aggrotypen Hör doch auf zu schreien, ich kann dich nicht verstehen Und dein BMW glänzt zwar hübsch, riecht aber übel Und Ewigkeit ist auch nicht mehr das, was sie mal war Ich mach ein langes Gesicht, wie ein Pferd in der Bar Du magst deine Witze wie deine Mama - mit Bart Unverhofft kommt selten, wie der Name schon sagt Ich bin so alt, ich spiel immer noch Mario Kart Und freue mich, wenn mein Song im Radio war Obwohl meine Zielgruppe nicht weiß, was ein Radio war Die Schallplatte killt den Videostar Ich bin ein Ausschlussjoker für jede Frage des Lebens Ein Roboter - programmiert um Gott zu töten Und seitdem bin unterwegs mit vollen Segeln Und einer Crew aus Idioten und verlorenen Seelen Der fliegende Highlander es kann nur einen geben Und danach spiel ich weiterhin mich selbst - nur als Rayden Aber versuch besser nicht, mir irgendwo reinzureden Denn meine Kernkompetenz ist dir vors Schienbein zu treten Also Kick Kick Yeah, Kick Kick Yeah Vielleicht wär ja alles gut, wenn ich Dolf Lundgren wär Vielleicht wär ja alles gut, wär ich ein Kickboxer Dann könnt ich alle dissen du Wichskopf, yeah Und zwar ohne dass der Dingsbums-Clan vor meiner Haustüre steht Und mir nen Pferdekopf auf mein Kopfkissen legt Wenn schon ein abgetrennter Kopf, dann ein Pandabär Denn Pferdeköpfe gibt es ja schließlich wie Sand am Meer Und so ein bisschen exklusiv sollte das Ganze schon sein Denn bei uns ist nichts heilig, höchstens der Schein Der dafür sehr, größer ist besser als klein Es kommt nicht auf Technik an, sondern aufs Stylen Ich will dein Geld einstecken und dann austeilen Ich will mich leise umschauen und dann laut schreien Wie tight ich bin und mich an mir selber aufgeilen Das Leben serviert mir Fressen - und ich hau rein Wir sind am Ende nur Fragmente aus Bauteilen Monothematisch - Rosa von Praunheim Und mögen unsere Seelen auch dunkelgrau sein Kommen wir rein und nehmen den ganzen Raum ein Und kaum ein anderer MC schafft den Spagat Zwischen, Poesie, Praxis und Eiersalat Zwischen Theorie, Taxis und Feiern im Park Zwischen Affengehege und 18 Karat Zwischen Abstraktion und Wursttheke im Real Albernheit, Oscar Wilde, Themenlokal Manfred Groove wir bringen Rapmusik zum Roman Bitte einsetzen Novaliszitat Ihrer Wahl Part 2 Vom Aussterben Wie man in den Wald scheißt, scheißt es heraus Man wird zum Abgrund, wenn man in den Abgrund läuft Man fällt ab, wenn man zu lange in den Abfall schaut Und sinkt ab, wenn man laufend Absinth säuft Ich habe meine Welt um einen Takt rum gebaut Und die restlichen Normen mit der Axt umgehauen Die Umwertung der Werte Meine Nacht ist dein Traum Der Luxus des kleinen Mannes - Hackwunderbaum Nichts tun ist auch irgendwie Kunst, steht auf meiner Kappe Glaube ich zumindest ich kann ja nicht hochschauen Was auf meiner Schublade steht, ist mir eigentlich Latte Hauptsache im Walkman läuft Motown Haselnüsse sind eigentlich rotbraun Und der Enzian blüht so blau auch wieder nich Man sollte nicht alles glauben, was die Volksmusik erzählt Und schon ist die Welt ein bisschen weniger widerlich Denn schließlich wäre auf einer Skala von eins bis zehn Die Welt ohne Enzian so ziemlich genauso schön Ich kann ja Enzianbilder im Internet sehen Warum bitte sollte ich auf irgendwelche Berge stehen? Also jammer mich nicht voll mit Dingen, die aussterben Wie Realität oder asiatische Tiger Ich hatte auch mal ne Freundin, die war auf einmal weg Und drei Tage später traf ich sie wieder Und zwar im Cabrio von so nem Modedesigner Sie war im 8 Monat schwanger und hat Spanisch gesprochen Manchmal ist mir, als wäre meine Logik gescheitert Doch dann kommt sie im Mantel der Erkenntnis wieder angekrochen Wir müssen einfach nur anfangen, Geschichte im Kreis zu denken Und alle Probleme lösen sich wie Brausetabletten Und die Gedanken fließen in geregelten Flussbetten Von oben nach unten, als ob sie Staustufen hätten Am Wasser entlang, bis zum Rheindamm Da wo das Zitat anfängt Und sich alles um sich selbst im Kreis dreht Wie wenn man auf der Tartanbahn rennt Der Schwindel begleitet den Rest deines Lebens Er hat sich an deinen Magen gehängt Und er teilt sich ein Bett mit deiner Depression Und die beiden haben deine Laken durchtränkt Das Militär hat aus Versehen deinen Vermieter versenkt Und dir als Trost ein PUR-Album und einen Kater geschenkt Und jetzt suchst du Trost in fernöstlicher Weisheit Und siehst aus wie ein getragenes Hemd Es ist doch immer das Gleiche mit euch komischen Menschen Ich hab doch die Antworten auf alle eure Fragen Aber ihr glaubt lieber an die größten Idioten Und die größten Arschlöcher wie Hitler undoder Stalin Und das nur, weil ihr Welterklärungen braucht Dabei müsstet ihr nur lernen, die Welt nicht zu erklären Sondern sie einfach mal sehen, als das was sie ist Keine Ahnung was sie ist, Mann zumindest kein Stern Also wendet euch an meinen Arsch, um euch zu beschweren Sehr geehrte Kategorien 3, Damen und Herren Ich weiß ja - man hat es nicht leicht so als Mensch Denn laufend verwechselt man Scheiße mit Senf Das ist das menschliche Dilemma Man startet als König und endet als Penner Man erwartet zu wenig und erreicht nicht mal das Und dabei hat man dann nur so mäßig viel Spaß Wir wollen gleichzeitig weg und suchen Anhänger Mit dem Kopf in den Wolken - Jan Tenner Mit glasigen Augen wie 100 Sandmänner Ein paar verkannte, an die Wand rennende Anfänger Ein echter Bösewicht erschießt zuerst das Pferd Bevor er mit dem Auto über deine Kniescheibe fährt Ein schlechter Bösewicht lässt Ravioli auf dem Herd Bevor er mit dem Auto aus Versehen in einen Kindergarten fährt Wenn du Künstler werden willst, kauf dir einen Hut Wenn du willst, dass Leute zuhören, sag viele dumme Sachen Wenn du Sex haben willst, sei schön oder reich Nett reicht meistens nur, um ein bisschen rumzumachen Und niemals ungewaschen in die Waschanlage fahren Das Universum hat viel mehr Humor, als du denkst Und nie nen Mülleimer in einen Mülleimer werfen Weil sonst die Schwarzes-Loch-Anomalie der Logik anfängt Dinge, die dich umbringen, sind meistens härter als du Dinge, die dich umzingeln, sind meistens mehr da als du Dinge, die nicht rund sind, sind öfters mal das Tor Und wenn du willst, dass man den Witz versteht, schreib halt nen scheiß Smiley! Und überhaupt Ein Witz sollte ohne Smiley funktionieren Oder hast du das Gefühl, deine Freunde sind zu dumm? Oder hast du einfach Angst vor social Awkwardness? Ein kleines bisschen Eier bringt dich schon nicht um Naja - Ich will nicht scharf essen und trotzdem ein Mann sein Doch du kannst kein Mann sein und keine Chilischoten anfassen Als es noch okay war, Frauen nachzupfeifen Musste McDonalds die Currysaucenschärfe nicht anpassen Vielleicht bringt dich ein kleines bisschen Ei ja aber doch um? Wer weiß das schon bei den ganzen Allergien heutzutage Und ob das Glúten oder Glutén heißt, könnt ich recherchieren Aber ich habe Angst davor, das diesen Google zu fragen Sonst werde ich wieder zugeschissen mit Vorschlägen Für Bestelladressen für Ernährungssensible Und dabei sehne ich mich doch nur nach Bestelladressen Für ein schwedisches Model und eine tschechische Geliebte Es liegt ein toter Mann am Strand Mackie Messer lacht idiotisch die Polizei vermutet Herzinfarkt Da liegt man zu fast 40 richtig und das ist ausreichend Wie für Marzipankartoffeln Persipan Yeah, Mann! Part 3 Von der Wirklichkeit Manchmal sind Dinge perfekt aber trotzdem falsch Wie ein Ehemann in einer Witwenerinnerung Unser Gehirn spielt gerne mit der Realität rum Sie wird erst verklärt, sitzt sie nicht mehr im Zimmer rum Und kratzt sich die Eier mit dem Silberbesteck Und damals dachte man noch Man will da nur weg Doch jetzt ist er tot und das Gehirn erinnert sich nicht mehr Dass er je etwas wie Eierkratzen getan hätt Und mit einem tot und einem, der sich nicht daran erinnert Ist diese Szene nun tatsächlich nie passiert Es gibt keinen Geschichtsschreiber des Universums Der jede Kleinigkeit irgendwo für irgendwen notiert Wir haben nur uns und unsere löchrigen Köpfe Und was man nicht erinnert, ist für immer verschwunden Realität ist relativ, wusste schon Einstein Doch wir sind nun endlich nicht mehr an die Draußenwelt gebunden Wir sollten der NSA danken, dass sie unser kollektives Bewusstsein auf irgendwelchen Servern verwaltet Und unserem Gehirn, dass es diese wirre Wirklichkeit Aus irgendwelchen komischen Wörtern gestaltet Danke PRISM, für die Sammlung menschlicher Belanglosigkeit Danke für die ganz großen Fragen unserer Zeit Wenn eine Ära nach dem ganz großen Wunder schreit Dann unsere bis man uns endlich den Berg runter treibt Und da unten steht der kultivierte Herr mit dem Floß Und bittet uns sehr höflich, aber bestimmt Dass wir doch bitte nun übersetzen müssten Weil sonst die Zeit noch weiter ins Nirgendwo rinnt Und überhaupt Zeit - warum bin ich getrieben von diesem seltsamen Gedanken Irgendetwas zu erschaffen, was bleibt Und überhaupt Bleiben ein Fußabdruck im Sand bleibt Wie ein Strich an der Wand aus Kreide wie ein Strich an der Wand aus Stein Wie ein Strich an der Wand aus Ewigkeit Der Unterschied ist unterm Strich nur graduell Eine langweilige Kreisfahrt Kettenkarussell Denn Bleiben ist nicht das Gleiche wie Rückwärtsgehen Man geht nicht ins Theater um das Stück zu sehen Man geht nur ins Theater um sich selbst beim Stücke sehen Zuzusehen. Das sind die wichtigen Szenen Und was wir daraus mitnehmen Ist ein zerschlissener Goodiebag Mit viel zu kleinen Socken und viel zu großer Tasche Und die Unmöglichkeit, irgend etwas Gutes zu sehen Ich bin kein Pessimist, wenn ich das Glas halb leer gesoffen hab Nur wenn ich es halb voll gegossen hab Ich wohne nicht in Berlin, nur weil ich da nen Koffer hab Und Marlene Dietrich hat mir gar nichts zu befehlen Und Hildegard Knef hatte höchstwahrscheinlich recht Ganz egal, was sie wieder Dummes erzählt hat Es geht nur um die Art und Weise der Präsentation Die man für seine Vermittlung gewählt hat Auch wenn mir sonst nie irgendwas gefehlt hat Ist jetzt meine Matratze nicht ausreichend gefedert Prioritäten verlagern sich mit gegebener Zeit Vom Zustand der Welt zur eigenen Befindlichkeit Und manchmal habe ich das Gefühl, wir sind so weit Dann wieder das Gefühl, wir sind so weit weg Wovon wäre noch zu klären zu gegebener Zeit Doch bis dahin ist fast alles ein großer Scheißdreck Und um den großen Scheißhaufen hübsch zu finden Braucht man neue Kategorien für Ästhetik Also atmet durch den Mund und reißt euch zusammen Und umarmt die Scheiße, bis sie weggelebt ist Etwas Träges fällt von oben und dreht sich Legt sich zusammen, wird konkret und verwebt sich Und wir stehen mitten drin, im Neonlicht Und denken Geometrisches wie Tetris Und das Leben macht Ding diggeding digge ding digge ding... Und wir kennen die Melodie und wir sehen das Problem Aber wir haben keinen Plan, in welchem Level wir sind Wahrscheinlich kurz vor Schluss und das Ende ist nah Aber wie jeder weiß, gibt der Klügere nicht nach Weil er ja sonst verlieren würde und die Geschichte schreiben Sieger Und schwuppdiwupp ist das eigene Image im Arsch Wenn ich ein Diktator wäre, ich würde zuallererst mal Immer allen sagen, sie sind frei und reich Und dass sie alles erreichen können, wenn sie hart dafür arbeiten Und dass sie alles verlieren können, wenn der Feind angreift Und wenn es keinen gibt, muss man eben einen schnitzen Und seien sie noch so grobe Abziehfiguren Hauptsache, die Leute, die vor dem Facebook-Fernsehern sitzen Spuren Aber ich bin ja kein Diktator noch nicht Mir ist noch kein vernünftiger Bart eingefallen Und noch kein richtiger Slogan für nen konsequenten Putsch Der letzte Stand war Sehr viel Geld für alle! Wenn man Glück im Spiel hat, hat man genug Geld für die Liebe Wenn man Musik macht, hat man nie genug Geld für die Miete Wir wetten gegen Staaten und setzen auf die Krise Und schreiben gleichzeitig schwarze Zahlen und Miese Virtuelles Geld und virtuelle Welt, die sich bedingen Virtualität ist das letzte große Ding Und wenn die Wirklichkeiten zu Informationen gerinnen Sitzen wir gleichzeitig draußen und drinnen Und die Grenzen verschwimmen Und es bleibt mal wieder nur mein Sack das ist Fakt Ich habe lange darüber nachgedacht was eigentlich noch bleibt Wenn man verzweifelt und es bleibt mal wieder nur mein Sack Part 4 Von der HipHop Szene Ich nehm den Satzfüller, Schreibschrift in meinen Fanblock Schlagworte Aussprache, Leitsätze in den Trendspot Presseberichte in mein Feuerwerk und Landebahn-brechendes Stell an Sprüche Ansprüche, dass es ansprechend ist Ich Gehwege, seh Leute, wenn ich durch Augenblicke Und tausend Tritte treffen tausend Ärsche, wenn ichs nach draußen schicke Ich mach den Tintenkiller seh jeden Abend rot Füll Federn, schreib ein Mundwerk und Nieten ziehen das Gnadenlos Denn Julia Engelmann ist die deutsche HipHop-Szene Ein kleines Mädchen mit großen Erste-Welt-Problemen Rap ist in der Pubertät und nicht im echten Leben Zwischen Tränen und wahllos Umsichtreten Nur relevant für alle, die sich mit 17 erschießen Oder schon fürs Aufstehen ne Belohnung kriegen Wenn man nur Kinder anspricht, sieht man nur Kinder reagieren Deshalb meint man auch immer, dass nur Kinder diskutieren Kinder und Idioten sagen die Wahrheit Trinker sagen, was sie denken, denken aber kaum Das Internet sagt, was irgendwer da reinschreibt Und Wahrheit ist eh ein feuchter Diktatorentraum Ich lass die Hoden baumeln mehr kann ich nicht erreichen Außer völlig nutzlose tausend Zeilen schreiben Ein livre sur rien gesprochen auf den Takt Lässt das sinnlose Hämmern besonders kühn erscheinen Verweis doch mal auf Dinge, die auch wir verstehen! Ey Mann, ich scheiß doch auf die Dinge, die auch ihr versteht Ich trink schon wieder morgens Bier statt Biotee Und denke, mein Traumjob wär Funktionär beim IOC Denn Willkür ist der größte Luxus unserer Zeit Endlich vom Diktat der Rationalität befreit Muss ein Zustand sein, den man nur über den Wolken Oder als Unterschichtenfernseh-Darsteller erreicht Oder als Wutbürger - in der Netzwelt Wo der digitale Stammtisch dem lautesten Proleten hinterher bellt Und Ansichten zu Wahrheiten werden Als würden sich Kirchen über Giraffenmord beschweren Als wollte man Nietzsche einem Affenhort erklären Und die dumm-vitalen Bonobos bumsen die ganze Zeit Und während man so redet, merkt man, dass sie vielleicht Alles verstehen und eben deswegen geil werden Aber mitbumsen will man auch nicht unbedingt Denn da ist ja dieses Gefälle zwischen den Viechern und mir Und die Sehnsucht, dieses Gefälle zu überwinden Und grunzend mitzumachen wird vom Verstand blockiert Laufend steht der Scheiß zwischen mir und dem Glück Das Gras ist viel grüner, wenn man sich nicht danach bückt Ein Pickel macht nur Spaß, wenn man ihn ausdrückt Und Rap macht nur Spaß, wenn man Applaus kriegt Also doch Gangster, Fotzen und Scheiß drauf auf Kreislauf reimen Also doch Propaganda machen - Sergej Eisenstein Und endlich abnehmen, dass man als Hipster durchgeht Und völlig crazy Sachen machen und Lifestyle sein Dieses Cabrio kaufen und den Wind in Kauf nehmen Dann eine Mütze kaufen, weil der Wind ins Auto weht Einen Unfall bauen, weil es deine Mütze wegweht Und dann mit stylisch verwuschelten Haaren draufgehen Wenn es Samstag ist, will ich ausgehen Es sei denn, ich bin eine Kerze Es kommt immer darauf an, was man ist und will Über Relativität gibt es NUR gute Scherze So wie über Handpuppen mit einer Hand im Po Sowie komplexe Poesie auf einer Wand im Klo Das Lied der Straße - Zampano Naja, komplexe Poesie gibt es wohl anderswo Ich habe einen guten, aber arroganten Flow Warum das so ist? Ich kann das so! Milf und Yellow cookies sind die Fanta zwo, nur in Gut Keine Angst, Mann, das geht noch lange so Oder eben nicht das ist das Schöne daran Dass ich, wenn ich will, diese Hasenhaken schlagen kann Und die Leute gewöhnen sich dran Oder eben doch nicht, dann ist das immerhin ein stolzer Abgesang Und Abgesänge sind bekanntlich die besten Gesänge Schönheit und Tod ist die beste Kombo Wer würde nicht gerne in Rosenblättern ersticken Ein bisschen Dekadenzästhetik für euer Fitnesstudio Also lass doch mal das Pumpen und das Hustlen sein Pack doch mal die Pumpgun und Goldkette ein Versuch doch einfach mal nicht, der Tollste zu sein Ich versuch inzwischen mal Tolstoi zu sein Denn Krieg und Frieden steht zu Dichtung und Wahrheit Wie Style und Zeit zu Wein und Vibes Und wir beide hier, wir stehen zu ehrlicher Arbeit Wie zu Leistungsethos und geilem Geiz Wir meiden das! Falls ihr das noch nicht verstanden habt Vielleicht sind wir deshalb auch niemals angesagt Vielleicht werden wir deshalb vor unseren Gigs nie angesagt Und trotzdem sagt der viel, der Guten Abend sagt Ich habe einen Anzug und einen Tage-Bart Und kaufe meine Möbel im Habitat Ich bums deine Freundin auf Abifahrt Ein fiktionales Leben aus Klavier und Kaviar Na immerhin hat das Klavier gestimmt Na immerhin hat The Finger das Klavier gestimmt Na immerhin hat das Kontingent an Bier gestimmt Alles andere ist egal, Hauptsache, die Wirkung stimmt Bitte gehen Sie weiter, hier gibt es nichts zu hören Es sei denn, Sie haben etwas Zeit mitgebracht Wir sind angetreten, um Gewohnheiten zu stören Und ham endlich wieder Musik weit entfernt von Hits gemacht Part 5 Vom Haben und vom Sein Ich wollte noch nie, das was ich habe - sein Ich war noch nie das was ich sage Nein Es geht seit Jahren nur von Fragen zu Fragen Und nur der gleiche Trott, mein Morgen ist euer Abend Ich bin irgendwann aus der Zeit gefallen Die Gedanken aus den immer gleichen Longdrinks geboren Doch solange der Beat läuft, geh ich raus In meinem Kopf einen Mittelfinger an die Welt und den Walkman im Ohr Jeder Rapper ist ein Alphatier Ich produzier nur tonnenweise Altpapier Steh auf Bühnen rum und halte die immer gleiche Predigt Von der einzig wahren Religion von Leck-mich-doch und kaltem Bier Bevor ich mich im Blätterwald verlier, mach ich die Augen zu Ich mein, ich mach die Augen auf, schau mich um und mach die Augen zu Ich mach das im Endeffekt genau wie du Nur nicht halb so prollig und weniger Leute schauen mir zu Man lacht nicht, wenn man die Welt als sinnvoll betrachtet Doch ich lache, weil ich die Welt als meinen Sack betrachte Die Welt als Wille und Vollstreckung Und als ihr dachtet Es kann nicht schlimmer kommen, kam Manfred ans Schachbrett Und da bin ich nun Mit der Axt und einem Landstreicherbündel voller Billiguhren Kauft was oder macht doch was ihr wollt, aber gebt mir euer Geld Ich werd erst reich, dann berühmt und erst dann will ich touren Denn wir sind fahrendes Volk mit Taschen voller Katzengold Sitzen wir vorne und der Wagen der rollt Und wir tragen die Masken der Hungerkünstler Und der Zirkusartisten und wir tragen sie stolz Und auch wenn wir sonst nichts haben haben wir Zeit Und den Block und den Stift und die Freiheit Und auch wenn die ganze Welt nach Beschleunigung schreit Nehm ich den Block und den Stift und ich schreib Ich nehm den Block und den Stift und ich bleib Mir treu und hier sitzen, bis der Flow treibt Sollen alle ruhig rennen, die kommen schon wieder zurück Wenn der Vorhang aufgeht und die Show steigt jetzt Ich schick diesen Reim heim durchs Wurmloch wie Deep Space Nine Geflügelte Worte der übelsten Sorte Geschichtenerzähler wie Siebenstein Ich könnt liegenbleiben, oder aufstehen In Siebenmeilenstiefeln rausgehen Wenn wir aufdrehen ist Entkommen nicht drin - Gezeiten in Stauseen Die Früchte des Zorns manifestieren sich in diesen Zeilen Es wurden schon wieder Gerüchte geboren Bald gibts Tränen wie beim Zwiebelschneiden Bei jedem, der jemals über die Themenwahl lästerte Im Vergleich zu Manfred ist der Zeitgeist das ewig Gestrige Wir halten uns in Grenzen die wir gezogen haben Denn wir vertreten die Jedi-Methoden wie Obi Wan Sind noch ein bisschen aggressiver als ein Grobian im Drogenwahn Verlieren oft komplett die Kontrolle, aber nie den roten Faden Es ging alles ziemlich lahm, bis Manfred kam Dann ging alles ganz schnell - und auf einmal war alles ab Es war alles ziemlich lahm, bis Manfred kam Dann war alles ganz schnell - und auf einmal ging alles ab Schlechte Entscheidungen werden gute Geschichten Erzählt von schlechten Erzählern, die sich in gutes Licht rücken Gute Entscheidungen werden lange Geschichten Erzählt von schlechten Erzählern, die über sich selbst entzückt sind Und gute Erzähler? Erzählen keine Geschichten Die auf ihren belanglosen Entscheidungen basieren Gute Erzähler erzählen nur Geschichten Von Robotern, Titten, Stierkampf und Bier Und hier sind wir unterhalt uns Irgendwo in der Mitte irgendeines Albums Irgendwo in der Mitte irgendeines Ortes Und geistern verwirrt und versoffen im Wald rum Bitte bewahren Sie die Haltung Auch wenn Sie die Sinnlosigkeit durchschaut haben Sie haben sonst nichts, also auch nichts zu verlieren Außer fiktionalen Aufgaben Selbsterkenntnis ist der erste Schritt zum Suizid Die Kur gegen Selbsterkenntnis ist Louis V Pack alle Zweifel in die Tasche und zeig sie deiner Welt Bis sie selbst zur Tasche wird und Du wirst sie Du wirst sehen Haben ist Sein Hauptsache dein Magen ist klein Hauptsache dein Wagen ist groß Hauptsache dein Herz ist rein Also immer rein in die gute Stube, liebe Menschheit Und in dieses sympathische Spiegelkabinett Wo alle Bilder von euch ständig gnädig lächeln Und ihr endlich schlafen könnt also ab ins Bett Wir wünschen bunte Träume von Zuckerwattenwolken Und Lebkuchenhäusern und Töpfen voller Gold Am Fuß des Regenbogens und in Kürbiskutschen Fahrt ihr durch Zauberwälder, wo euch der Untergang holt Und deine Geister spielen Hackbrett Und Dennis Hopper schreit Fuck that! Du denkst, dass ewig am längsten währt Während sich dein Leben neu taktet Fuck that! Ich habe meine Angst für Texte im Wandschrank Denn meine Sätze finden bisher kaum Anklang Ich will nicht untergehen ohne Sang und klang Und schaue euch deswegen so gebannt an Ich nehm euch auf auf Video ihr spielt euch von alleine Little people und Liegen haben kurze Beine Und Lügen haben behaarte - Ihr wollt noch mehr schöne Lügen? Wir bringen Raptracks auf Arte Wir machen Raptracks salonfähig für die Hochpreisigen Rotwein trinkenden Teile der Gesellschaft Also Gangsterrapper, Autoschieber, Halbweltboxer Abmahnanwälte und zahlreiche Präsidenten einer Weltmacht Part 6 Vom Erwachsenwerden Wenn mich das Glück verlässt, geh ich einfach mit Denn jeder Untergang beginnt mit dem ersten Schritt Heute ist der erste Tag vom Rest des ganzen Shit Und die Plastiktraumgesellschaft tanzt mit Ich wollte immer irgendwo weggehen Ich wollte immer irgendwo bleiben Wahrscheinlich wollte ich einfach immer irgendwo rumstehen Und völlig überraschend war ich knapp über 30 Wenn man alt wird sollte man nicht jung bleiben wollen In Seilbahnen sollte man nicht umsteigen wollen Egal, wo wir uns rumtreiben sollen Wenn es keinen Alkohol gibt, ist es wahrscheinlich nicht toll Wenn wirs gewonnen haben, ist es sicher nicht Gold Wenn wir gewonnen haben, bin ich sicherlich voll Ihr wollt Expertenanalysen wie von Kahn oder Scholl Balkanbeats ist Ska nur in Moll Der frühe Wurm wird vom frühen Vogel gefangen Hätte er doch lieber länger vor der Playstation gehangen Dann müssten seine Kinder jetzt nicht ins Heim Und er könnte noch immer unverdaut sein no doubt! Apropos unverdaut ich hab mal meine Eltern beim Bumsen erwischt Also wenn ich plötzlich weine, wundert euch nicht Ich hatte eine ziemlich schwere Kindheit Deshalb bin ich jetzt Rapper und schicke Frauen auf den Strich Was man halt so tut um in die Szene zu kommen Koks ticken, Hoes ficken, gib mal die Bong Auf Outlines beharren, als wäre die Welt Tron Und außerdem hab ich diesen Train gebombt selbstverständlicher Blick Nach der Snare kommt die Kick Und wenn das nicht so ist, weiß man, dass etwas nicht richtig ist Man steht auf einem Grund, der nicht triftig ist So wie der Untergrund nicht so wichtig ist wie er sich selbst nimmt Denn ein Weltbild hält nur, so lange das Geld stimmt Und jeder, der zu lange auffällt, fällt hin Also flüchte ich doch lieber in die Fiktionalität Und verliebe mich brutal unglücklich in diese Elbin Na die mit den Ohren und der Brust und dem Bogen Die den strengen Vater hat und im Wald und von oben Ach, ihr versteht mich alle nicht ich bin ganz allein Na klar! Würdest du denn gerne mit dir befreundet sein? Also ehrlich Träumereien in Ehren Ich will mich nicht über unrealistische Pläne beschweren Ich will nicht viel, nur euch euer Leben erklären Bis die Dorfbewohner mich wieder federn und teeren Doch da muss man durch wie durch dieses Nadelöhr Nachdem man endlich unendlich reich geworden ist Ich will nicht viel, nur euch euer Leben erschweren Und für den Hotdog-Fress-Contest ein Sportgebiss Mit diesen Bling-Bling Dingern am Zahn Die Kasse macht Kling Kling ich sage ja Verkaufe dann gewinnbringend Dinge am Markt Und werde Binge-Drinking-King alles klar? Schreit mal ja! Ja! Oh, wohl doch keiner da Naja, vielleicht ist der Song als Clubtrack nicht optimal 40 Minuten Rap am Stück und da noch nicht mal tanzbar Wie ich damit reich werden konnte, ist mir immer noch nicht ganz klar Aber Hauptsache ist, dass ich es geworden bin Hoffen auf selbsterfüllende Prophezeiung Und wenn ich schon zu Unrecht nie was im Sport gewinn Dann doch wenigstens bei der nächsten Grammy Verleihung Oder wie heißt doch gleich das deutsche Pendant Da wo immer Peter Maffay und Eißfeld spielen Wo man das Gefühl hat, Musikdeutschland ist ein riesiger Haufen Und eigentlich will man doch nur den ganzen Scheiß wegspülen Der ECHO ist wie dunkle Schokolade oder ein Handjob Man nimmt es, wenn es keine Auswahl gibt Aber sobald irgendetwas anderes daneben liegt Steckt man den Penis lieber woanders rein Oder man kauft ne Alpenmilch um in den Metaphern zu bleiben Wir wollen nicht viel nur all die Affen vertreiben Und den Stil zurückbringen denn Rap ohne Style Ist eben wie ein Handjob nur so ein bisschen geil Und mal ganz ehrlich Mona Lisa und Nofretete Sind auch nicht so eindrucksvoll wie immer alle tun Die eine schaut debil, die andere wie auf Opium Und trotzdem haben sie genug Fame, um sich darauf auszuruhen Also was machen die richtig, was wir falsch machen? Außer, dass sie Frauen sind - und tot Wer macht denn diese komischen Regeln für diese Hypes Und warum befolgt die dann eigentlich jeder Idiot? Wenn die kritische Schwelle des Erfolgs mal erreicht ist Dann leistet sich keiner mehr, zu sagen, was alle sehen Nämlich Dieses oder jenes Werk ist zwar nett Aber eigentlich dann doch nur so Handjob-okay Es geht um 15 Minutes of fame Die reichen exakt für eine Halbzeitpause Und trotzdem rennen ihm alle hinterher Und man denkt bei jedem zweiten nur OH! Halt die Schnauze Wenn man nichts kann und nicht arbeiten will Kann man immer noch Abmahnanwalt oder Celebrity werden Denn wir leben schließlich in einer Gesellschaft, in der wir Spielerfrauen und Modebloggerinnen verehren Doch eines Tages werden auch Celebrities zu Menschen Und entdecken einen tiefgreifenden Mangel an Kompetenzen Wenn die Aura erst mal weg ist und echten Fragen anfangen Muss man erstmals anfangen, seine Lücken zu ergänzen Aber vielleicht ist genau das, was erwachsen sein ist Desillusionierung und Scheitern als Prinzip Und sich dann irgendwann entscheiden, den Helm aufzuziehen Und der erste Rostentferner lässt die Rüstung wieder glänzen Part 7 Vom Wesen des Seins Ich schmeiß mal eben nen Eimer Farbe über mein altes Leben Und ne alte Häkeldecke über mein ganzes Wesen Vieles hat uns Halt gegeben und ist dann weggebrochen Oder es trägt sich aus, wie alte Tennissocken Am Rand des Planeten ist ein Abgrund aus Meer Und darunter lebt Gott, der sich um oben einen Scheißdreck schert Was solls, wir segeln mit, das ist ne Reise wert Denn nur unterwegs sein vertreibt den Schmerz Idealerweise muss die Reise dein Zuhause werden Es gibt Parallelen von Allem und Nichts Idealerweise muss die Scheiße jemand auswerten Doch ich glaube, der arbeitet im Dachbodengericht Und all unser Streben ist nach oben gerichtet Und alles was hier ist, gehört grob umgeschichtet Und wenn ich nen vernünftigen Hundeblick hätt Läge ich nicht schon wieder alleine betrunken im Bett Naja Talfahrt geht auch im Riesenslalom Und das Radio singt wieder Liebeskanon Und was ist eigentlich mit Tibet? Das müsste ich mal googlen, wenn ich mit Youporn fertig bin Schnipselporn, Schnipselinfo, Schnipselempörung Unmittelbar stört mich nur die Routerstörung Mittelbar aber alles und das halt ich nicht zurück Gesellschaftliche Verantwortung beginnt mit einem Klick Ich gebe einen Fick auf folgende Dinge Eisenbahnen, Eisbären, Eisenhüttenstadt und Katzen Listen, Ironie, Ski fahren und Singen Und auf alle Sachen, die mit einem T beginnen Zum Beispiel Teewurst nur auf flache Witze Komm ich eigentlich ganz gut klar nur nicht über Katzen Manchmal ist es mir zudem ganz egal, wie ich klinge Solange ich nur an das Wesen des Seins vordringe Und dass das geradeaus gehen soll, hat sich noch nie bewährt Viele Dinge, die man nicht mag, sind eine Liebe wert Doch im Nu wird eine Pflugschar wieder Schwert Wenn man das Gefühl hat, dass man nicht dazu gehört Doch das Wesen des Seins ist ein komisches Wesen Es hat lichte Haare und einen hässlichen Buckel Einen Bauch und nen fetten Arsch hat es auch Und es plärrt mir dreckig lachend immer wieder in meine Mucke Und es stört einfach und versteht nicht, wenn man das nicht will Als würde es das Wort Nein nicht kennen Und es nimmt keine Rücksicht auf mich oder andere Und es macht ihm auch nichts aus, immer alleine zu pennen So ein Arschloch naja leben und leben lassen Was will man machen man kann eh nichts machen Denn Aktivisten und Aktionisten sind nicht das Gleiche Das Selbe und das Gleiche ist nicht das Gleiche Und schon gar nicht das Selbe denn auf dieser Reise Sind die Unterscheidungen das Entscheidende Der Weg vom Rand der Welt steht mit offener Weiche Bereit - am Ende ist man hoffentlich eine schöne Leiche Was will man sonst erreichen, außer in Schönheit unterzugehen Wir haben keine Wahl, wenn keine Wunder geschehen Wir bewegen uns nur innerhalb unserer Regeln Nur im Fußball endet Prozent bei Hundert und zehn Aber Mathematik erklärt die Welt nicht Wir erklären uns die Welt mit Mathematik Und vielleicht si</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pisko 2</t>
+          <t>GLOCK MARKA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tu gde svako petlja Gde civilna su svetla Proe speksi proe meta Dok tke, svoja plua eka Cuki bio tu sa 15 Znai iveo taj matching Pivo, trava, muter, trei Tu u kraju sedi s' neim Moja upra dalu, znai nije normal Tenzija me pukne, kada vidim loma Motaj jo, znai sve u topa Mora budem smiren, ako vidim drota Tu u kraju i dalje traju Znai radi amne, to je moj kblo Samo uti i ako znaju Mogu pue kurac i to grubo Reperi gde ste Cuki sklapa die beste Uivo da pisne ne sme Gistro ljava kao koji kerme Dobrodoao u Rbo Kriminal jai nego svuda duplo Samo pDo lobe vutra nita drugo Budi tu na zive samo vidim s drugom 'a je piko oe da se snima A vamo maska, ivi se kriminal Imam stila svaka glava klima Nastavljam rimu iz prolog singla Nisam lerdi ali uvek imam Samo motam samo neto dimRa Imam priu koja uvek prodje Mala mi u stau stavlja groe I tako dalje eto mene opet Krimi pria ti je moj domen Oko love, tu su moja braa I gedore velike ko praka ta god hoce bato uvek moe Samo skank nista bobe roze Pukne jako promeni ti boje Pod lampom tu neke biljke stoje Kesu cepaj stavi sve u ndla Tu te iza eka moj bruda Ovi smeni malo fale muda A fali glavi malo je i uplja mekeri a runi kao bulja Fanfa sve dobra je i sulja A moja plua vole samo unka Do muzike bato preko ugla Svi su tvrdi ubio ih kompleks Nita ne znam to je moj kodeks Tu u kraju 2 da li moe? Ne zna nita tako je i bolje Znaju ljudi koji ovo vode Znaju ljudi koji ovo rade Cukela u kui care Za ispravnost vadite medalje Alo Kad je trebalo bio sam Kad nije trebalo i'o sam Zipu uvao, nije sam Dvojku stavim i nije gram I moe stvarno kae ko ta hoe Svojim delima sam bato vodjen 22. Blok tu sam roen Daj mi neto vie, neu vie gloem</t>
+          <t>Altn rahata, iyi bak etrafa Ner'de olursak olalm bamz belada Bi' günümüz sahne, bi' gün mevzularda Bakarm icraate, oynayn kenarda Ben gibi bi' tane var o da çok uzakta Ayn yerde deiliz ayn yerde bulunsakta Hzl bizim cadde, sen bekledin durakta Bur'da seni gören kimse sikmedan brakma Yükselirim her gün, evim bulutlarda Para kazanyorum artk dursam da Mutluluk sadece bi' telefon uzakta Hatta beni bekliyo'dur dier hatta Asla dümem sen kalma merakta Yükseliyo' çta beni gördüün her hafta Ascak, kesicek ama sadec lafta Biraz rahatla Konu benim, kanm serin Takm denim v dolu belim Kopar film Makina deil belim tutulur Kskanç piçler bize saat gibi kurulur Üflemem pesto, kanmda yok alkol Yeni Moodie temiz biri doal huzur Fs bize UK derdimiz çmem ben Kool-Aid, kraln bo koy Gözlerim kara, cefa anlatr Sözlerim yasak ceza balatr Harbiler sever yalana Mermiler seker, analar alatr Loui V, gerçekten ölmezsin Kimliim dandik bu ate sönmez GNG aga or'jinal aile Babalar dönmeden de geri dönmez Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek Çra gibi kemik krd amcaolu Biz onlara dedik, tanr kolu komu Yüz metrelik kou, her birini ta Ner'desin? Görüntü iyi aramayz açk Ama kestik pozu kameralara Senin orospun ama neden benim yanmda? Dedikleri aklmda ama üphe sonuçta Deniz scak sen yine de ylanlara alma Dan tepesindeyim karn içinde, arama Rap yerine el ii yap bence o ses tonuyla Hah, Glock marka bebek GNG Yetimek için öyle bi' frn yok demek Yerim taht olsa bu kadar rahat olamazdm Ben taçsz kralm sen saçsz kaarsn Güngören'de büyüdüm, çktm baardm Rap yapmasam da zengin yaardm Koydum aklma para çaltm Hm, sen kar paras yedin, altn Yüzümü bu sefer sana kapatca'm, vn, vn Seni vuruca'm bunu bil çocuk altrdm Hah, Glock marka evet Bilir misin sokaklarda fedai ne demek? Zekatn verir sana bendeki yetenek Olucak m, görücekler orospuda Hah, Glock marka bebek Yetimek için öyle bi' frn yok demek Hah, Glock marka bebek Makinada Holosight kaçrmadm hedef Hah, Glock marka bebek Topla bulduunu çünkü dolup tat sepet, azn açk Hah, Glock marka bebek Orospuda bahane çok bizde de yetenek</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Yeniyorum İstanbul’u</t>
+          <t>GNG CLAN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yürüyorum Eskiehir'in karanlk sokaklarnda Ne gam ne kasvet var aklm oyunlarmda Babamn yanndaym, yokular çkyoruz Minibüsten iniyoruz, eve doru kouyoruz Annem evde bekliyor hep, koltukta szyorum Küçük bir üçgenim var içinde yayorum Hep ayn eyden korkuyorum, ayn soka arnlayp Ayn odaya kapanyor ve ayn derdi tayorum Plakalar deiiyor zmir'de uyuyorum Uyanmak istemiyor planlarm erteliyorum Üstüm bam pislik içinde, saç sakal karyor Bir gün saçm olmayacak, o günlerde bilmiyorum Ev nedir? Bam sokacak bir çat deil çinde uyuduum be admlk odam deil Kesin karar veriyorum, kendimi uyutuyorum Nereye ev dendiini yava yava unutuyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan... Talih yüzüme gülüyor tren garnda bekliyorum stanbul yolunda ellerini tutuyorum Yanamda bir öpücük, dizlerim titriyor Ben ne yaptm bilmiyorum, yerden yüksek süzülüyorum Her güzel ey kirlenirmi, stanbul da öyle Sokaklarda be parasz sabah, akam, öle Meydanlarda sinir stres, politikayla iç içe Bir baka ehir olmuyor, bu kez bir baka ülke lk kez ayak basyorum bilmediim bu diyara Annem babam uzakta, sevdiklerim uzakta lk kez gerçekten tek bana Berlin sokaklarnda Bir özgürlük türküsü var çatlak dudaklarmda Hüzün çöküyor akam olunca kendimi dinliyorum Yazdkça yazyorum, yazdm silmiyorum Yazdkça yazyorum, yazdkça uyanyorum Nereye ev dendiini artk hiç hatrlamyorum Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede Nasl da üzüyor insan insan Yürüyü yabanc bir ehirde Çatlar ayn parlatt ah Öylece uyuklayan sessiz gecede</t>
+          <t>Yeahhh Let me talk my shit real quick Uhh I'm feeling woozy Catch an opp n Im upping The toolie Money longer jus copped a Lil uzi Drop da lo we gon slide like it's toosie Shorty thick yea I'm grabbing her booty Take a flick yeah we making a movie Talkin shit and I knocked off his duwee Heard I'm rich now she's tryna come do me Ouu, slide down yo block Catch an opp and im bussing da chop He a snitch he be talking to cops She a treesh be doing hella cocks Put my phone up on do not disturb Hit her once then kick her to the curb Roll up 10 gs I'm smoking on herb Popped a 40 now I'm geeked like a nerd Lil shorty horny keep asking what's th word He was talking shit now he flying with The birds Had to cut my bitch off sh getting on my nerves I know what she wants but I don't really need it Slide down yo block I'm making foenem bleed it I heard his tummy growl These bullets gon feed it My bitch said she hungry this dick she finna eat it Side bitch took a photo I told her to delete it We don't take no Ls we really undefeated Used to fight niggas now dey getting heated I can't cuff no thot but that bitch nigga he did Keep talking shit taking u off of the grid And she squirted on me like she was a damn squid I can't fuck again cuz that pussy was real mid LIKE, the 30s 50s double ds onna Glock All this ice up on me got me feeling like wop Call up Ju he don't miss he taking off yo top Feel like R kelly I'm bout to be up on dis thot Keep ya pants on I only came here for da bop He was flexing until we got up on his drop Got no bodies then why you claiming you an opp We got sticks we got mops we cleaning up yo block Told Jo to spin one more time to make sure we ain't miss no spots The opps tryna line me they saying I'm cocky but really I don't give a fuck I'm getting this money I'm stacking this paper I'm swimming in blues like it was a flood I'm hanging with Glizzy,he banging that neighborhood crip So his ass steady screaming out cuz I'm hitting this bitch from the back then throw her to the side I think that she falling in love She ask me Jo Glizzy I need a 3.5 but fuck it I gave her a dub but she got a slug So, fuck it might hit it again then next time give her a nug Now she outta luck She calling my phone like it wasn't enough You bitches is sluts I call up D30 he slide with that mac and that .50 No second thought he gone buss Like Don't trip get hit in your gut She a freak out my thumb in her butt Big .45 and you know this shit tucked Dick on the clip and you know i'm gon buss Like, lil nigga talk tuff but he ran Lean in my gut, ian popping no Xan Calling me broke, can you show me a band? Dissing the wood, you ain't spin for your mans Goofy ain't spin for his mans Spin on they block and I'm flocking like ten Drop a fake check imma grab 8 bands Givenchy my shoes, Amiri my pants Geeking off Wock I barely can stand We fucking dese bitches you know that they fans I'm smoking exotic I'm looking Japan The wood be the gang you know that's my clan Uh, I'm feeling woozy Catch an Opp n Im upping The Toolie Money longer just copped a Lil Uzi Drop da lo we gone slide like it's tootsie Shorty thick yea I'm grabbing her booty Take a flick, yeah, we making a movie Talkin shit and I knocked off his du-wee Wanna feat pay the fee but it better not be dookie Got a freak hoe at cooper she giving me Slurpee Got yo bitch bussing wide Tellin you she ain't heard of me Can't fall in love with no bitch like my nigga low key I can fuck a thot but I will never marry Turn an opp SRT into a fuckin Chevy Cant up the score on us, yall ass sweet like sum cherry Ain't leave the crib in months man y'all niggas is scary Claiming Candlewood K now that bitch getting buried</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Alem Buysa Kral Biziz</t>
+          <t>GNG Kartel</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Çabuk souttun beni Kanm akar akar deli Yeah Bilekleri kelepçeli deil Çkartrdm biladerimi Dollar dollar Richard Mille Beni deil param sevdi Konutum kznla kirli Sonuçta isteyerek içeri girdi Benimse bayadr içimde özgüven vard Bir anda sokana mermiler yad blaka stanbul küçük bizde iki yaka Çln duyabilen var m aka Ölmemisin hâlâ, ölemezsin ezmediyse 34 GNG plaka Benim ismim bile büyük fiyaka Bum bum bum asl glock'a kisi bacaktan, biri kafa U-uf Kötü aka, GNG kartel tiki taka Voom voom voom, hemen uza 1000RR kurtarr ya da Hayabusa Hemen satldn gittin ucuza Tek kral biziz alem buysa Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o Zarlar attm, küstah tavrm Kanla kazandm düman artt Susmam artk sana yer yok tatlm Kapkara bahtm bataklkta kaldm Sanma çiçek açtn, sarmaksn Yollar karmakt ama atm Giyerim Prada, artk bi' eytan Toplanr familia, dersin eyvah Çoald kopyalar, hepsi evlat Bd bd, biraz mermi patlat Srtrm ama yok hiç efkat Krntlar senin, hepsini topla Yorum yok, geri çekil beni izle Sonra bok gibi öl sahte yetenekle Ya da terk et buralar bi' valizle Atyo'z fark, otur üç kat yap rap'i sikme Kapmda krallk, turistler Fransz Yaadk kuralsz, olduk bak suratsz Kötü ans urasn, yine de baardk Didindik uratk, orospu sus artk Sus, sus, sus Soru sorma yoksa kumar oyna Kurtuldum derin orman Beni bozmaz senin ölmen Full, full, full fulle jeton Oyna oyun yada defol Kazan say yutar beton Abartmadk krdk rekor Kara gözüm sakat bi rol Kapla özüm yarat bi son Ya da ölüm dönmez bu yol Para çözüm olmaz bro'm Alem buysa kral biziz cane N'olur ki dünya yansa duysa bütün mahalle O-o-o Eski çocuk deiliz artk cane 34 stanbul ekip, GNG kale O-o-o</t>
+          <t>B-B-B-Barlas on Astral AKDO Grr Kafa dert, yanna gelemem Grr Ben, tavrlar derbeder Hâlimden anlamazsn sen Grr Dalgamz çok özel Çavo'ya döndür de gelsin ki dumana pert Srtr bana nedensiz Grr Yklma, yok kimseye iltimas, ha Yok stisnasz da kader dedi maske, bok gibi intibahn Grr Ortamda iktidar biz, Tuborg ve viski var Midede üç Lyrica Açln sahneden kaarlar Bizi sor, hep bilir babanlar Riziko, her zaman yakamda Telefondan konuma mal mal Dosyam patlar sanki mermi Yine de tutm'u'ca'm güvenlik Grr Sana da kukum var, tamam m? Uzak ol, öyle bak süpersin Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çk, çek Bu bildiin deil, ha Grr Smoke weed, shisha Pa-pah Bir kre uyarrm olmaz Bir daha patlar ieler, yanar villa Woah Bu sokaklar ring Ring Havalar karardnda Grr-pah E-e-e-elmas parlar bling bling VVS bro, maallah Woah Tek kuralm, mert olalm, olsun tüm götler uza' Sert duralm cam gibi, krlrsak basmaktan korkarlar Ey Dik ölelim, net görelim, olmam kahpelere tutsak Pa-pah Drill gelenek, tek seçenek basmak her bir omuza Phew Kahverengi kat rollin' Klcm salladm sana, Shaolin Param zulamda, her gün katlanr yeni aldm Bitcoin Eskiden güzel triptin, imdi sktn ite bro, n'ap'im? Big money, ah, flippin' Çkardm ömrüm boyunca tatil' Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, wow Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr, Batuflex, Batuflex Dert sanki kehribar Çek, çek Ati, UZI El Chavo, Lil Murda Heh Lvbel, Batuflex, Moti Gang Hepimizin ortak noktas dip Dip Bugünse yapyoruz cash stream Cash Baby, gel izle, her eyi yaptm kendim Yokluk ne? desem sen bilmezsin Yokluk ne? Life is shit, yeah, keyifsiz eklim ler'de olucak çocuunla derdim Dramam gerçek, gerisi hayaldi Heh Bo konuan çok H, tek direnendim Yaarken küfret, sakn geri kalma Ölünce belki takdir edersin He Bur'da sevgi yok, her ey ticari Yeah Ama satmadm kimseyi elhamdülillah Yeah Hastalmdn, he, oldum tedavi Yeah, suratm gülmedi ondan beri bak AMCAS, AMCAS yani yaptk festival 50K yetti, bak, çektik bankadan Ya Yapardm geceleri teslimat falan Eh Harbiden hustle'la geçti, bak zaman Ya Taaklar doksan, koydum kantara Yeah Dalgalar tüter, al dumanlara C5 tatlm bu, harbi manzara Bizden gerisi bo, harbi maskara Ya Flow'lar sek sek dört, Golf'üm Hatchback Üstümde mavi bi' tech baba, Mad Max Amcas bo ver, bize paf'lyo' herkes Es baba, es, C-Class Mercedes Normal taklyo'z hep bi' tatbikat u anda siklemem tabii tatlm bak Taklalar salam, harbiden silah Woo Unutma, bu dünya ölümlü baba Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek Ba-ba-ba-ow Siktir lan, üstüne yrtk don giymiken vazgeçmem eklimden Ba-ba-ba-ow Bilmem kaç bin desibele yazsam bile kovulmam evimden Prr, prr, prr Denedim Love me, please, like me de n'apyim? Olmad hiç sevilmem Ba-ba-ow Vurulsan kaç kii gel'cek ki peinden? Ba-ba-ow stanbul city, ben sapmadm map'imden Yeah, gangsta rap denedin, yazp, çizip oyna, o bile feminen çtim, sçtm geçene kadar kendimden, JB, Jacky viski, otuz dak'ka dinlen Bi' miyavlamadn kald, daha kedisin evde koltuktaki kedinden Pa-pa-ow Hayat serttir, vurdu bizlere kick ilen Pa-pa-ow, yaklama, bu sabah uyandm tersimden Grr Baclar, stanbul Eh Mahalle, dön tam tur Prr Patlamadk babacm daha, dur Ya Ka-Ka-Kaldk zindan' mahsur, paf küf Kaltaklarla dans, kalk bi' tatlm Paralar koydum, al, aldm altn Esir ol ya da öl, budur hakkn Bi' siren duydum, pat, yere yattm Pat Dinle ya da dinleme, siktir Çok yol gördüm, bu yüzden dimdik Duruyorum hâlâ gözlerimi diktim Baarl olmak budur tek bildiim GNG kartel, haram para, ben Düman atp tutar, gerçek bilmeden Kurun i yapar, ac dinmeden Yklmaz beden her ey bitmeden P Hortum gibi flow, içine çeker Ya Kilo kilo var, hepsine yeter Ya Iklar açk, öderim bedel Prr Bi' gerei var, ykar ve geçer Adamlnz bir kuru eder Yine de ecel hep bizi seçer Srtlarm yükünü kardeimin Gerek'se omuzlarmn üstünde gezer Grr Kafalar kriminal Grrah Yaantm illegal Grr ienin dibi var Grr, grr Ölüm bi' ihtimal Wow, skrr, woo Dümanlar minimal Grr, grr Her mevzu ihtilal Skrr Dert sanki kehribar Çek, çek16</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Alman Rüyası*</t>
+          <t>İstanbuldan Parise*</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Yeah, yeah Es ist K-U, der Typ in 'nem Brabus, Kennzeichen Kabul Kahbas auf Sarruch, Airmax, Tattoos, piep-piep, allu, allu? K-K-K-Therapie, schmuggel' Ware in Radio, Tajil So wie Abdel Khalil auf der Flucht vor Police, Treffpunkt Zentrum Berlin im gepanzerten Q7 hört ganz laut Almaz Musiq Bewaffnet mit Uzi, die Sprache Russi Da, Blajd im Privatjet, Alpha-Jacket, Gepäck eingecheckt Kein Scheck, sondern Bargeld, die Kahba in Latex wartet in 'nem A6 In der Hand ein Baguette, Afiyet, Schwarzgeld Auf dem Rücksitz gestapelt, nebendran ein RPG-Raket', ey, psscht, saket Gangbang mit Scarlett in 'nem BM-Double-W und sie atmet Wooh wooh wooh woooh wooh-wooh-wooh wooh Ganz schnell, ganz tief, in Handschell'n der Bandit, mitternachtsaktiv In die Bank zieh'n, der Diamantdieb, wer? Er, der Diamantdieb Gebor'n zwischen Landmin'n, hatte nichts zum Anzieh'n, heute in 3-0 matt Frees Ich chill' mit Gan-G und du nur mit Junkies, chrt pfu Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Mein Anwalt heißt Tino, sieht aus wie Al Pacino fährt ein Lamborghini Innenfarbe Cappucino, wäscht Geld in Casinos, plus oder minus Beats von Zino, Almaz Niveau, Fantastico Yallah, yallah, ich baller' mit der Kalash, khalas, rauch' nur Marlboro-Tabak Ganz locker, Gawad trag' Zahnstocher, wowa, denn der Transport dauert Geld hisab zählen, während mich deine Schwestern massier'n, erpress' dein Patient Gangster-Aktien in Westkroatien, im Benzer maskiert, ständig Razzien Rap läuft parallel, check' Madame Annabelle, Hautfarbe Karamell Chillt in 'nem Panamera, Alfa Omega, 9 mm, Import Teheran Illegal? Der Täter hat Appetit, so wie Aladdin Gaza, Falastin, live aus dem Satallite, die Tattoos sind arabi Kurdo, der Typ mit dem Baghdad-Akzent, klau' von deiner Kahba Batzen Im schwarzen Mercedes, ich mein', im schwarzen matt CLS Der Typ in helle Jeans, der mit gefälschte Pässe dealt, non-stop auf Tilidin Boxe den Pressedienst, ich chill' mit Yezidis bald auf Television Plasma HD, Halabja, Café mit Uasta Waleh, Salamo Aleik Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali Im letzten Kampf wie Ali Meine Gegner sind in Panik Rennen, sind weg Magie K-U, King-Rap, Ali19</t>
+          <t>ndirime girmi eyalar kadar sezonluk klime bal indirgenmi cezalar kadar suçlu, bir o kadar Güçlüyüm imdi imdi bu, dünse... Ak dedi bir gün birisi Bo bulundum Yine omzumdan burkuldum Baktk, tantk Yattk daha ilk gece Namussuzluk ettik Yetemedik Aladk olmad Güne dönmeye çaltk, olmad Gitti Kara bir tren gibi sessizce terkettik yine ayn gar Mutluluk fonda kald Karl, meteorlu, korkulu bir dekor yarattk Yok Saat farkmz çok Umduumdan daha da çok, çok Oras Istanbul'a uzak kald Gerçi Istanbulda kozmopolit, depresif, yaama sevinçli Yorgun ve tarih sahibi Ama yetmedi Burda kalmasna yetmedi istanbul stanbul ilk defa malup ayrld kendi snrlarnda aktan Ak ehri Paris'mi Bir kez daha kantland O rak diyarlara çok büyük büyükelçi Tahlillere büyük cevher Ast astk, kestii kestik, dedii dedik baskn kadn Ayrla alardn, peki ne oldu? Ben rak diyarlara büyük idealist Tahminlere büyük mücevher Yand yandk, kestii kestik, dedii dedik gurur adam Ayr kaldk, ayrlk aldk, ayrlk verdik Apayr iki insandk Apaçk ortada kaldk Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Ben hiçbireyi bilemez oldum Aramak ister arayamaz oldum Aktan ölür, midesi kaznr Dilim ekmee özsuyunu kurutur oldum O, belli ki verdii kararn arkasnda durmay bilen O, belki zorlanan ama iyi bilen Ama neyi bilen Boa sevitik, boa savatk, boa kürek çektik Yanldk, yine yanldk Çoku bölütük, yoka dönütük Ayrldk daha ilk gece Elimize ne geçti? Monalisa'nn üzgün taraf Elimize ne geçti? Monalisann mutlu taraf Peki elimize ne geçti? Alarken gülmeyi becerebilen bir palyaço maskesi Peki elimize ne geçti? Krk dökük anlar Van Gogh sar çiçeklerini bize çizmemi ki... Elimize ne geçti? Elimize sadece yok geçti Öyle büyük ki arm Horon tepseler alyorum nan ki elimi kolumu zincirledin nan ki sustuklarm sen izin vermedin diye Boazmda cümleledim Artk telefon beklemiyorum Artk telefon etmiyorum, çünkü biz artk olduk Tabakta kaldk günah olduk Yazk olduk Biz senle, biz senle iki ayr olduk Ben sana susacak kadar Ben sana susayacak kadar Ben seni beni susturacak kadar sevdim Öyle büyük ceza ki bu kimize iyiliimiz için kestiin Artk Afrikadakiler yaar Biz ölürüz Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde Evvel zaman içinde Kalbur saman içinde Yalan bir ak yaarm Boaziçinde</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Asi</t>
+          <t>Karanlık Mazi*</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>G-G-G-Good work, Charlie, hahaha Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Count something bitch, ho just count some money I just sold a zone, spent half the profit on Givenchy I got plenty shit, out your rim my nigga you can't find it Oh you came wit' her If I pull out my dick she top it And my bitch be rollin', and rollin' off xanny pill I look at that bitch like she crazy cuz Purple shit just be the concoction And my body filled up with toxins My niggas wild out every day moshin' Got dark skin, got light skin, got Puerto Rican bitch I got options I'm eatin' good, nigga, that's kosher Chopper real big fuck a holster And if that bitch all on me I give her D except Felecia And Lil Uzi just gettin' older, and Lil Uzi just gettin' wiser And Lil Uzi just gettin' money, shit my pockets gettin' wider Pray everyday cause you never know when its your time to go Rest in peace my nigga Chico Strong pockets but not stocky though This bitch all on my dick stop it hoe Know everybody u fuckin' hoe, Know everybody u toppin' hoe So don't act different 'round me, just know you gotta go Yes I coulda hit it but I turned it down you gotta go Your shit so wide like hockey puck and a hockey goal Or like spottin' my ass probably up in Montreal Pussy wider than a god damn three day obstacle Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit that you can't afford for some blonde dikes Okay this purple got my eyes tight, got my eyes tight Sip that shit til' my mind right til my mind right You sold your soul for the limelight, for the limelight Just bought some shit you can't afford for some blonde dikes Ok it's going down ? Got white got black got Puerto Rican got Asian nigga Got a lot of whores I be ballin' heavy, nigga talking final four I'm riding clean, 2014 Why you riding that dinosaur Promethazine connoisseur All I smoke is that good shit I'm the king in my city sitting good bitch I'm a young black nigga and I'm hood rich10</t>
+          <t>Ah Umursamazlna düen meteor Rap Yeah Dilein tam aksine çkan icraat demode Ah Biz bir avuç yalann ressamlarna insan Goethe Serseri aklarn hüsran dura Son model arabalar, para ve mutluluktan olutur bir Tetris Ey Altn fanustan dünya mavi, bo tabakta renksiz Ey Bir anlamda Matrix, hedeflere varamadan eksil Ha! Ynla baka parça birleip fazladan eksilt Pu pu pu! Onlarca gelecek hayalinden birini seç ve yapama Yalan hiper-reel resim ve peynir yok ki fare kapana ehir dütü, kral mazi, karanlk güçlerin buralar Ah Kurtulmann eiindeyken bile lein düer burada Masum yok, hep suçlu var, mermileri tetikler tercüman Zeytin dalnda umutsuz tüm güvercinler uçtular Bir kurban seç ve suçlu kal, gururlu cannn borcuna Bo ömrünün en vahim anndasn artk hayatn felç u an Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Naho bi' kent, varo bi' rapçi, bo bir ev Yana temkinli, etkilen, bin farkl renk, büyümek için sulak yer Kaç uyak saydn dilimden? Düün, hatr için kulak ver Ha? Çocuk uyan! O saygdeer abiler hayatlarnz silerler Üstüne basp geçerler, sen bakasn der, seçerler Riyakâr suratlarndan yalnz sahtelik geçerken stemezsin uzak olsun senin sefalet gecende Sana sabah unuttursun garip anan reçelle Yeah syana tek bir insan deil binlerce ömür deer Esir almak filan yok, ölümlerden ölüm been Bu topran fidanysan hiç minnet duyma kahpeye Ah Sen can deil, nakitsin, sistem brakmtr vadeye Anla! Anla! Dütükçe artar zamanla Zamanla Küfürler, ziyânlar, suçun insan olmak Soru sorma! Ya esaretten mutluyuz milletçe ya da kafanda ciddi bir sorun var Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar Bir baka teni unut, bu son savatan zevk al Cümleler içinde kruvazörler var Yeah Zrh kuanp hazrlan Yeah Hayaletler ülkesinde ruhundan tanyp alrlar1</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BEBEK*</t>
+          <t>Kovanlar Yanar</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nisam bogat, al' bih se radije provozao U kolima na manuelnim bih probao Pored nje bih oti'o toliko daleko Da nas ne nae, aman ba niko Sat otkucava, a jo si pored mene eno moja hoe li da se uda za mene Kai mi, reci mi, da bebo staviu ti prsten Ne bih voleo kad bih bio poniten Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno Konano sam van sela Za men tamo vie nema mesta Staro drutvo s odavno raspalo Budunost zajedno zapisujemo Trud i gas bez fleksa To je samo ako sme radit' bez seksa Samo vi radite va ou biz Ja u sa svojom dragom radit' svoj stil Bebo idemo kolima kroz grad Zna ti sama da nisam gad Bebo idemo kolima kroz grad Ja samo hou da te vozim celim gradom Bebe da uivamo u pogledu predivnom Neu lambom nego citroenom otmenom Skupo mi ne treba meni nije to bitno</t>
+          <t>Yaza yaza getiririz hürriyeti, rahat ol Yediririm seviyesiz cüretini, kaybol Bu takm banko yaz Hip-Hop'un içine sçan heriflerin içini açaca'm, bu art oldu Brak, o jargon senin deil Mahallelere inemez hiçbiri En fazla balkonda sigara tellendirir keyif pezevengi Puh! Popüler diye görün zengin Hah Gucci mucci, Prada ve amck aznz Uyuturucu batana sapl aklnz Hehehe! Sanat sepet deme bana, yetti lan! Yoz bi' nesli var etti hepsi, bak! imdi bana gerici diyecek torbaclar Bizim mahallede gezemez o torbaclar Çünkü Ata'mn izinde uyuan bir gençlik deil Salam kafa olmal ya! Ya! Motherfucker digga, Santi, Boss Lig Kalk çiroz, yataa yat, bu tayfa zombi Ati tarzn çok pis, çavolarda yok pipi Bu King Kong deil diggi, bi' bomba, yok pimi Bi' tozla kompleniz dumana boul Makina dolu veremem poz, piyasa menopoz Brr! Çocuksan eve ko amck, atama post PMC sana boss Skrra! Tweet at Yabba-dabba doo! Buras digga baba crew Ah ey Deme bana Dur! Hevesim kaçana dek tur atarm Sana bu nasihat oul Ey Babas yapyo' flow'u Ey Yol al amna koduum, ko'dum karna çocuu Alr popodan soluu, bulur godaman yolunu Burun kokoman sorunu, kuruntularna sokaym Kurul, kurulma da demem Kurulmana yarat neden Digga haber yolla hemen Belimde silah, srtmda çanta pini koparan geliyo' kafamza aydan Siktiiminin parasn yanmda sayma Ghetto'mda yerin yok, yataca'n bagajma Kafanda mermiyle cesedin bayat Gidip edece'm tayfan sakat Kaç saklan ya da karakola sn Amna koduum beni de yok tandn Klibinde çete ii, evinde homo Benim tayfam stanbul'a dinamo Yürü diyo' bana Carlito Yolu Kim durdurabilir kafamdaki doruyu? Gökyüzü bugün bizim için kararyo' Hep Duisburg duvarndan dirilen Rap Kara kafa kanak homie AK-47 sokama melodi AK-47 sokama melodi, AK-47 sokama melodi Belki ben aklna gelen ilk rapçi deilim Ama manitan yerinden oynatr sex appeal'im Beni tanmadn, yllarca önemsemediydin Ama imdi karndaym, n'apca'n, söyle bana yiidim Ben altm hayatn Almanca'sna Her gün kramp girdi yazmaktan parmaklarma Seni bi' yumrukla gönderiyorum taaklarna babann Yaarm böyle afam atmazcasna Göüs gerdim sistemin paral yavaklarna Göüs gerdim kel kafal dazlaklarna Homie, dik durdum, kick vurdum, beat buldum, yazdm Ben bu kadarm. Sen ne yaptn? Anlatsana! Ha? Diskotekte çözülüyordun kaltaklara Ben ise dövüüyordum sokaklarda kanlar akana kadar Bana rakip deilsin moruk, çay koy ve yaylan Defkhan, Boss Lig, Eye of the Tiger Defkhan, Boss Lig, Eye of the Tiger, Defkhan, Boss Lig, Eye of the Tiger Tabutunun kapa tek, mezarda cannabis'le Huduni bi' sakz çine Vck bi' vakasn lan, her eyi arak ibne Tipik bir devinimde umumi bi' kelebeksin at sikinde Yalamalanma! Narsistlik akar iyice Paçandan definitely, n'apaca'n lan klon ite Huduni sakar- Rap, popüler bi' flow ite Harabe junkies, woo fuck it! zindeydi zinde zombi Yeniden dönüyo' ringe Marsiano gibi Dinle, dimdik horny, gelgitim, peki inanma Gerginim ve silahl gerzein teki, Rap'im deliler gibi stil hâlâ Boss Lig Hava koullar deil sert olan rüzgâr gibi dönüyorum boluun içinde Boss Lig sorry, partinizi bölüyorum vuh! Size Eddy Murphy gibi gülüyorum Bi' kartnn içindeyim. nsan için neyim? Soko Türkçe Rap bilei Hmm Richie Rich'i deil Hrrr Etraf vzr vzrken ben bar diley'im Çünkü elime kondu diye asla öldürmem sinei Sava iim deil En iyi insandan deerlidir sokak köpei Hip-Hop Per Metro Quadrato lle teke tek istiyo'san okay'im Benim derdim hayatla bebeim Senle ayn safta olmak m? Gözünü seveyim! Huy hâline getirdiniz özür dilemeyi u geldiiniz duruma üzülmedim deil nsanlar da yazar, basar tekmeyi Bölümeyi örenin az'ck ekmei Rap magazin oldu kavga, gürültü Siz aç kalmayn diye su bast tekneyi</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bizim Savaşımız Asla Bitmez</t>
+          <t>Krvn (Demo)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yeah, bak hele sakara, uyanm aya Yememi baya, güzelim daya Burdadr saf, görünür kap te köpee yutturur sap Baka bak baktn, baka da kaldn Yanla taktn, ataa kalktn Kaymsa gözün, yanltr sözün Satmsan özünü, yersin sen sözünü Sra da alr, bana da kalr Sana da dalar, iti de salar Yeri de yalar, geçmez dak'kalar Bitmez vakalar, bekleme gülüm Saniyeler zulüm, yakmaz ölüm Sokakta dölüm, çkmad falm Hapise saln, öcümü aln Kelepçem kaln, maske ile daln Biri satar, biri atar, biri katar, biri yatar Gündüz içinde uyumalar, uyuma yâr Zamann var, zaman kar, hatralar Geride dur, uzan uzan Kuzu kuzu, tuzu buza Yanmda durma git, uzak uzaa Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir birden with his gang gang gang Alright Karanlk yollardan geldim Gürçeme, Kreuzberg, zmir, Berlin, ja Korkmadan çok yol geçtik Savan içinden çktm geldim, yeah Ateim sönmez asla Derine dütün çkman zor biraz Çukurun dibini gördük Gel de gör sen gözlerin kanar Palavra budala çok bak Bizde her yol tuttuk yok sçan Rats Kafas ezilir onlarn Ner'de bana gönder bir sopa Bat Adresler nette apaçk Girme hiç ner'desin falan Facts Kafalar bizde bi' tk kaçk Sen misin semtte fink atan? Tekilat salam düümü bala Kaçamaz asla, yeltenmen saçma Gözlerim kan bak, sebebi sakla Bizde yok inkar, gerçek hep or'da Zekâlar kvrak, yemezler sorma Dolambaç oyna, etraf kolla Düzene uyma, düzensiz olma Skarsak korkma, mertliini bozma Hrra, hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir birden with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hayata bakn, güçlü duruun Kallee vuruun, gda ve bakm Psikopat takm, sokaa yaknz Underground akmz, parlar hep çakmz tedebilir, yakadabilir, hayatn önünde akadabilir Bir kalle sana bakadabilir, ak bela olup çkadabilir Mücadele et diren, polis ve siren Narkoza balanma, hayat bir tren Radar hep açk, gözler hep açk Bir gün yakar enfeksiyon arpack Hayatta kutun, yaama tutun Her eye sabr, baka bir tavr Gözlerim kanl, gömüldüm canl Varsa bir katm, terlidir atm Arkamda gözlerim var gibi Medusa üstümde parlyor yok geri Sokaktan dönütüm Sükse mi? Bak dedim Her türlü delikte telefon çak derim En azndan, yar'cak var biri size Bizim kulvarlar ta gibi, saatimiz belli hep tan yeri Hepinizin vaktine dank dedim Bile bile kal dedim Bile bile lades Belliydi yapacan kahpelik Sokak benim hep evim Heh Geldiim yere bak daha ne di'yim Daha neyim bak Ykk dökük her yeri Git gör Onarmadk deitirdik yepyeni Gel gör çimdeki cehennemin ateini Nhfff Dengeler kolyelerim buz gibi Yeah, ice Hrra, hedefi yolu da belli konu da belli bang bang bang Darda kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hedefi yolu da belli konu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang Hrra, hedefi yolu da belli sonu da belli bang bang bang Dar'da kalrsn Killa gelir bir'den with his gang gang gang5</t>
+          <t>Königliches Antlitz, unbrechbares Rückgrat Seh' die ganzen rumbettelnden, dumm schwätzenden Stricher Wie Sprungbretter erzittern Denn mit King ist das Album da, das die deutsche Szene in ihren Grundfesten erschüttert Unmengen von Müttern, die, nachdem sie den Boss einmal sah'n Zwecks Hochzeitsanfragen Tage vor sei'm Lofteingang warten Vor der Schlosseinfahrt warten, ich lass' sie den Cock einmal blasen Außer den fetten Hässlichen, die lass' ich von Rottweilern jagen Pffh Yo, mich stoppt keiner, Mann Eh-eh, mich toppt keiner, Mann Eh-eh Die Konkurrenz versucht mir zu folgen so wie Spotlight-Anlagen Es wird doch keiner schaffen Niemals Die Opfer werden wie im Block einst per Box-Fights zur Konsistenz von Softeis zerschlagen Yeah Yo, verneig dich vor dem Drogenboss Ah Sonst klatscht er dein'n Schädel auf die Eckkommode wie Designer das Rhinozeros Disch Dein Girl ist fett, doch hat nicht ma' dicke Titten Ich würd die Ische nicht ma' ficken, um dich damit zu dissen Und du sagst, sie hätt bloß schwere Knochen Yeah Doch sie ist bei all deinen Perlen noch am dünnsten wie'n Sternekoch Ich schreibe die Chart-Hits, krieg' bei Live-Gigs die Gage, reise nach Mali Lieg' im Sand am Strand, der weiß ist wie das Eis der Antarktis Heiz' in Ferraris, kicke die Lines, schreibe die Reime für Bares Steig' in den Jet, mach' bei Geschäften mit den Scheichs Abu Dhabis In 'nem einzigen Jahr bis zu dreißig Milliarden Bitch, die Welt von Kollegah besteht einzig aus Zahl'n, als sei sie die Matrix Einfach der Wahnsinn, dir steht der Mund auf wie Gummipuppen Während ich mich frag', warum sie überhaupt noch Hunnis drucken Warum? Die landen bei mir in Schreddern, die sie kleinmachen, damit Ich Füllmaterial hab', wenn ich ma' 'ne Weinflasche verschick' Sie zu Weihnachten verschick', ey, guck, dein'n Kleinwagen, Kid Den nehm' ich locker im Kofferraum meines Maybachs hier mit Ich bin einfach der Shit Jap, Punchlines, du kleiner Stricher Mich battlen geht ins Auge wie der Schwanz eines Leichenfickers Denn ich zieh' dich aus dei'm Haus Ah, geb' dir Hiebe mit der Faust Ah Klatsch' dich in den Boden und du kommst in China wieder raus Uhh Oder ich leer' auf dir Benzinkanister aus Nehme grinsend noch 'nen letzten Zug und schnipp' dann die Cohiba auf dich drauf Ah Und früher war es Weed kiffen statt Hanteln stemmen Früher war es Hoes auf die Street schicken wie Ampelmännchen Früher Speed ticken, heut Beats picken, MCs ficken und mies spitten Der Rest kann sich ins Knie ficken wie Schlangenmenschen Kein Respekt mehr, ich fick' ab heute alle Alle Guck, wie ich die Schädel deiner Kifferfreunde spalte Wenn ich im Café mein Mittagspäuschen halte Klatschen Leute Poster an mein'n Arm, weil sie ihn für 'ne Litfaßsäule halten Tze Guck, ich roll' auf Chromfelgen, 26 Zoll, du Bastard Hate nicht, Talent plus Disziplin ergibt Erfolg, du Bastard Taschen voll mit Zaster, ich hab' Häuser groß wie Wolkenkratzer Und sie sind mit Goldfliesen statt Holzdielen vollgepflastert Die schwerste Entscheidung ist heut, Beamer oder Benz zu nehm'n Oder Chicas, die ich bang' im Steh'n, lieber auf dem Bett zu nehm'n Ob ich Tequila oder Brandy nehm' Lisa oder Kelly, Alina, Mandy, Maria oder Sandy nehm' Heut könnt ihr die Diamanten glänzen seh'n Das' mein Lifestyle Yeah, den hab' ich mir trotz Widerstand erkämpft im Leben Und niemals wird's ein Ende geben Niemals Denn lässt der King sich mal geh'n, dann nur, wenn ihn seine Dienerschaft auf Sänften trägt Yeah Will ich relaxen in mei'm Wohnzimmer, dann kauf' ich circa Dreißig Pianisten, die auf Flügeln spiel'n wie Außenstürmer Yeah Und zwar Sinfonien Beethovens Ich bang' nur Hoes vom roten Teppich, denn ich bin oberflächlich wie Seerosen Was Charakter? Ich leb' nicht nach dem Leitmotiv Liebe Ah Bei Girls muss ich Body checken, als wärn's Eishockeyspiele Yeah Yo, seit ich das Game allein dominiere und mein Weißgold poliere Geht ihr auf die Knie wie Thaibox-Turniere Und Und winselt bloß um Gnade, weil euch klar ist, wer der King ist, ohne Frage Ihr seid sinnlos wie ein Pinsel ohne Farbe Seit ich euren Mums nur'n Mindestlohn bezahle Hab'n sie auf dem Strich mehr Laufkundschaft als eine Intersport-Filiale Kid, ich liefer' Texte wie ein Teleprompter Du willst hoch hinaus, doch wirst zerhäckselt von mei'm Helikopter Da liegst du blutrot im Matsch und Ich ersetz' deine paar verbliebenen Gesichtszüge durch meinen Schuhsohlenabdruck Ich seh' die Rapper, seh' ihren Angstschweiß, wie er fließt Doch baller' weiter erbarmungslos Punchlines durch den Beat Keine Gnade, Bitch, eyo, ich schlag' dich, bis die Nase bricht Ich zeig' dir, was 'ne Harke ist, und rede nicht von Gartentipps Guck, ich treff' die Crew dieses Smudos Tze Geb' ihnen Punches und sie fliegen auf den Mars Uhh wie die Groupies von Bruno Ich bin die Numero uno Baller' meine allerfeinsten Doubletimes und alle mein'n, da sei 'ne Uzi im Studio Das hier ist ein harter Diamant unter tausend Alben, die weichgespült sind Von Clowns, die alle kaum auszuhalten sind live auf Bühnen Ich seh' aus wie Hulk, diese Lauchgestalten sind klein und süß Und werden meist von Typen für Frau'n gehalten wie Einkaufstüten Bitch, hörst du den Selfmade-Boss im Ghettoblaster Ah Dann vibriert durch seine Stimme in deinen Zellen noch das Ektoplasma Yeah Ich muss sie nur kurz vibrieren lassen und Chicas erblassen Fangen an zu zittern und kriegen multiple Orgasmen, yeah Häng' ich nicht Zigarre qualmend am Pokertisch ab Ras' ich radikal vorbei an mannigfaltigen Großstadtlichtern Mit Party-Schnallen zur Nobelvilla Kid, mein Portemonnaie ist so schwer, das könnte sogar 'nen Kran nicht halten wie Vogelzüchter Und ich fahr' mit jedem Coup weiter Gewinne ein Fahr' bei Erdöl-Deals mit 'nem Kuwaiter Gewinne ein In Dubai, fahr' Gewinne ein, fahr' so viele Gewinne ein Es ist ein Ding der Unmöglichkeit für meine Buchhalter, sie mitzuschreiben Ich chill' an Ferienorten wie den Bahamas Hänge dort an aus Edelholz gezimmerten Bars ab Wo mir jeden Morgen hinkende Butler Seltene Tropfen bringen, yeah, wie Regenwolken in der Sahara Du behinderter Versager, Bitch, es ist der Pimp im Game Rap-Star und King im Game, jetzt ist wieder glänzendes Bling im Game Deine Schwester will ficken geh'n Es ist wie bei Frischeprodukten im Supermarkt Man sollte sie besser von hinten nehm'n Will man nicht ihr hässliches Grinsen seh'n, Bitch, ich trag' Platinumringe Denn ich mach' bei diversen Geschäften Milliardengewinne Die ich gründlich versteuer', doch bestimmt nicht in Deutschland Ah Sonst würd all mein Gewinn an den Staat geh'n wie olympische Läufer Mal ganz nüchtern geseh'n Glaubt ihr, das könnt man mit fairen Steuern verdien'n wie das Gehalt von Schiffskapitän'n? Ah? Das würd sicher nicht geh'n, ich mach' mein Business im Game Mit allen Mitteln, deswegen bin ich nun richer denn je Fick' auf den Fame, Stricher-Rapper weinen bittere Trän'n Wenn die Wichser mich seh'n, wie ich dabei bin, ihre Bitches zu nehm'n Die dann zittern und stöhn'n, yeah, ich bang' Weiber im Q-Dorf Die es gern im Doggystyle machen wie Biter von Snoop Dogg Von Mailand bis New York bis zu Thailands Küsten Warten Chicks auf mich mit geilen Titten und breiten Hüften Ich lass' Weiber strippen Die schüchtern sind, doch die man dann beim Tanzen auftauen sieht wie Seilartisten Ich reis' auf Tour weit hinaus über Germanys Staatsgrenzen Trete auf in Szeneclubs, Fans woll'n hör'n, wie ich Parts rappe Zwischen Girls, die mir nachsetzen Mois, du trittst in heruntergekommenen Schuppen auf wie Friseure nach Haarwäschen Ich gebe dir 'nen Punch wie Thaibox-Champs, jeder im Land hier weiß schon längst Ich hab' die Fäden in der Hand wie Spiderman Leg' dich nicht an mit meiner Gang, ich komm' mit mehreren Kanten Zu dir nach Hause und all deine Homies sterben als Schlampen Bevor wir deine Fam kill'n, auch entfernte Verwandte Sie sind dann allesamt vom Erdboden entfernte Verwandte Ich battle die Erzfeinde, sie könn'n mein Level nie erreichen Ihre Weiber machen die Beine breit wie Leggings mit Querstreifen Ständig lungern an meiner riesigen Landhausvilla Horden von Paparazzis und hoffen gespannt auf Bilder Ich hol' die AK raus und schieß' einfach Auf die Paparazzis drauf, jag' die Schweine aus dem Garten raus wie Viehtreiber Abertausend Teens feiern mein'n Hammer-Sound Während du armer Clown seit Jahren auf der Straße haust wie Street-Fighter Charter' ich an Wochenenden Segelboote Und hol' Szenedrogen von Gs, die an den Docks abhäng'n wie Stethoskope Ey Rapper zittern, wenn der Mac eben was kickt Mit sei'm neuen Album gleich die ganze Rapszene zerfickt Konsequent alle staun'n lässt Und sich in jedem Winkel des kontinentalen Raumes ein Bronzedenkmal erbau'n lässt Bis alle beginnen, ihm seiner Aura wegen zu huldigen Die Konkurrenz ist nicht mehr ausschlaggebend wie Nulllinien Guck, wie ich Rap regier', Rap definier' Der Boss, ich dulde keine anderen Kings of Rap neben mir Verdunkelte Stretchlimo-Tür, metergroße HD-Screens Block-Pate, Godfather, Player-Flows auf KD-Beatz Löwenpower, ich geh' nicht durch Türen, ich zerstöre Mauern K zum O, Besitzer der Königsaura32</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bu Gece Vibe*</t>
+          <t>KUMBARA*</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M6 is whipping this up Morts, I choose you Bilmezsin nereden geldim No Vibe deiik Baby, come fuck with the A team Yeah Buss downs on wrist we gravy Yeah One night and your life be changing 'Sup? Yalan yok we real If I got you, your benden still Hey Hayatm trap but we doing up drill Ya Kesilir sr, aslr göt real Nah Yok, yok his, souttu taktm that piece Aye tah açar ac o yüzden aldm Rolex Donatrm seni de, yanyo'san oh yes! Hmm Istrm geceleri tekrardan içine no cap Söylediim her eyi not et Yeah This ain't no phase, fast life, no chase Gece daha erken Emre'yi aradm Ner'de? Bu akam n'apsam sence? Alaçat ya da Çeme çinden geçti swerving Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z I want me Asl Enver Yeah Xany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar Ah, hepsi bahar, hepsi ah Hepsi bahar Ey Hepsi bahar Hepsi bahar Hepsi, ah Gece daha erken Ey Emre'yi aradm Ner'de? Bu akam n'apsam sence? N'apim? Alaçat ya da Çeme çinden geçti swerving Skrr! Paralar bas hiç bitmez Kafalar high, hiç inmez Taklan herkes benden Trust Pop that bottle, then send it Kalbin krksa bu gece iç'ce'z Oh I want me Asl Enver Yeah Zany pills comin' all pembe Yeah Tam imdi balad anlatmaya n'ap'can benle Yeah, yeah Gece uzun ama hemen dal Yeah Söylemeden hemen yap Yeah Aklm uzakta, serke daldm Senle seçimler hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Hepsi bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-bahar Ba-ba-ba-ba-baharHepsi bahar</t>
+          <t>Life will get better I'm under pressure I don't wanna fall in love tonight, I just wanna be alone Life will get better Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar I'm under pressure Belki de sevgi gerçek ama ak yalan I don't wanna fall in love tonight Kalbimi harcar gerçek ve de parçalar I just wanna be alone Oldukça yalnzm u sralar Sen de bakmyo'sun telefona Gördüüm tek k pencerem, bak Gezdiim tek yr bu küçük odam Dinliyo'm müzik keyif almadan zliyo'm dizi bak anlamadan Geçiriyorum panikataklar Gecmle gündüzüm kalmad daha Sikilmi tüm hayatm burada Oynadm hepsini bi' kumara Krlm son kalan kumbaram da Olmuyo' çare bak para falan Olmad ilaçlar çare falan Almyo' bu boku koca kafam nsanlar brakp gidecekler ise neden kal'cakm gibi yaparlar ha? Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Kaplarm açk ama içer'de kaldm Darya gitmiyo' sesim artk Motivasyonum yok gibi tatlm Geceleri Teoman dinliyorum Kafamn içindeki gitmesi lazm stediimi söylemem lazm Konuamadm, arklar yazdm Geceleri Teoman dinliyorum Kalbim acyo' bazen, bunu bilmiyo'sun Evimi özledim çok uzakta kalnca Her ey daha kolay, biliyo' musun? Salonda uyuyup odanda kalknca Hevesim kaçyo' saate baknca Belki de olmas gereken budur Hatra olarak kalyo'sa herkes Belki de olmas gereken budur Bu baln gözyalar yoktur Denizlerde gözükmüyo'sundur Gözüksen de bi' önemin yoktur Sürüden ayrlsan fark edilmez Bunu bilmek sana kötü gelirken Yaanmlklardan verir ders Bildiin eyler ilham verirken Bunu yazmak için kalk yerinden Çoktan bitmi bi' ben kaldm Raydan çkm dünya artk Senden farkl deil eytan Sen de önceden melektin tatlm Bu dünya öyle bi' yer, ya Düündüün gibi deil ki etraf Bakasn deil, kendini suçla Kendinin katili sensin, ey Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar Üstüme doru geldi odalar Yalnzm, Korkak dedi bütün kolpalar Belki de sevgi gerçek ama ak yalan Kalbimi harcar gerçek ve de parçalar O-o-oh Ak yalan4</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Çabam Kalben*</t>
+          <t>La vrai vie</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Uzun zaman önce yeminimi ettim Bütün bu tabular devirecektim Yaamann anlam benim için buyken Kayglarm geciktiriyo' beni lgilenmem gereken çok konu var Yolum dar, yok olucam Ölümsüz ölmeliyim Bununla görevliyim, ah Buna ramen Veriyo' sevdiim ey zarar rendiim ey kadar Fevri verdiim her karar Dönüp durdum hep, kafamn içinde tek geldiim yer zaman Onun yeterliliinden falan Düün bi' ey ifade etmicek geberdiim yer sana Beni yaatmal bu bnliimden kalan Baka bi' ey dert dilken bana Mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam bunu anla, ya Müsaade et lüfen, ya Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et lütfen Müsaade et lütfen Fark ettim ki büyüdükçe ben küçülmekte her birine olan öfkem Kabarmyor hiç meersem Savam benimle hedefim arasndaym Size zamanm kalmyor hiç Yine artyor, artyor, etkim var biliyo'm zdiham diliyor, tansiyon hit Dilimin ürettii bu antibiyotiimi krp çektim Antibiyotiim Rap mant artk ayk'yon di mi? Benimki bala göte ky nikah daya döe Diyosanz Ne diyo bu çok ac, ha Cevaplarm cidden içten sorsanz Zaten tam da siz ve benle ilgili bu korkarm Yani korkmam da açkças korkmalym Düün elimdeki çakmakla yaktm contay Kasmpaa'dan yukar çk gör'cen ortam Aman aman, eksik tek bi' ey olmasn sofranzda Fakat mezar çiçek doldurma lütfen çinde bi' tek sözlerim olsun Elimde tek kalan çabam var Etrafa saçamam, ya, ya Müsaade et lüfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Woo, müsaade et lütfen Müsaade et, müsaade</t>
+          <t>Trop de médisance dans l'secteur Focus Beatz Trop de médisance dans le secteur Trop réticent à leur bon cur DA Uzi Yeah On est jamais réticent pour l'salaire, on est méfiant sur le corner Produit, stupéfiant dans l'grinder, j'fais des bangers, j'lève mon finger Connu depuis que j'ai seize piges, montagne de problèmes, j'ai pas d'vertige Je dérape, l'ESP me corrige, aucun dirigeant ne me dirige et puis mehlich T'aimes pas Papé, ça ne m'empêche pas de dormir, j'les ai pas vu dans mon avenir, j'les ai perdu dans mes souvenirs J'suis le Capo, je relève les compteurs, la Terre est ronde, y a pas d'cachette Tu es une copie de moi, mal faite, j'ai des tresses, de l'or comme un Aztèque, comme un Aztèque Sous ma casquette, j'regarde la ville qui s'endort, talents gâchés pleins les Baumettes, y en a combien qui s'en sortent ? Et ouais mec, c'est le bordel, en T-Max, je traverse le magma et ça depuis l'époque de Pac-Man On voulait tous baiser Bulma fuck La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah J'ai grandi à Sevran, près d'ma cité peut tout s'passer J'ai rempli des prisons avec mes collègues L'ambition d'avancer sans m'retourner, me permettra Oui, j'ai les mains sales quand j'dis qu'j'suis honnête vrai de vrai Connu depuis que j'suis sortis, le sourire j'le donne mais le cur s'est renfermé T'es malin, prépare ta guerre avec ton Famas Mais tombe pas amoureux d'une sorcière, chaque année, ça pleure quelques morts de l'an dernier Tout l'monde veut devenir chef comme Georges au Libéria ou comme Sergio Ramos au Réal de Madrid J'me cagoulerais comme tous mes senseis ah, vécu sur le papier ah, y a pas mieux ah Y a pas mieux, pour ça qu'y a l'Pack M c'est vrai, les p'tits d'la cité sous talkie ou bien sous Toka', ça pourrait t'choquer Ils voulaient nous donner des miettes mais j'veux pas d'assiette, j'vais prendre dans l'gâteau Ils feront pas les Gotti ils feront pas ou ils passeront pas la semaine à Gotham vrai de vrai La vie m'a donné, toi tu m'en veux pour ça j'traîne plus en bas d'chez moi J'ai charbonné pour arriver là showcase à 'me-'da' Faut faire le mal pour être bien chez moi je sais qu'ça parle sur moi J'avance, je les perds en chemin vrai de vrai Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Si j'peux me permettre, qu'ils aillent se faire mettre, yah, yah On est sur l'terrain, on pense qu'à faire le plein, yah Yeah, DA Uzi</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Criminalo</t>
+          <t>NEON</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Só aceito o veredicto do juiz pra minha gente Se Deus em pessoa garantir seus antecedentes Vai se foder com sua toga arrombado Sou Eduardo, sei o que cê fez nos verões passados Madame, não adianta comprar cartão de orfanato Se tua omissão produz menor abandonado Quem planta a fome não se livra da Uzi como karma Pagando de santa puta, doando cesta básica Também quero corrigir o Código Penal de 40 Estipular pro grã-fino egoísta uma sentença Capítulo 1 disseminou a inanição Capuz na cabeça e plou-plou no paredão Vou mandar pro Vaticano um e-mail alarmista Conheço 19 milhões de possessões demoníacas Sem exorcismo vão ligar pra Secretaria de Segurança Cobrando do policiamento ampliação da matança Comunico que o vídeo com refém não é da Al-Qaeda É outra produção independente da quebrada Usam a cena do empresário da aviação que implora Pra serem indenizados pela colonização predatória Sou perigo porque sei que operação policial Com saldo de 30 mortos é extermínio social Sou perigo porque meus heróis combatiam a segregação Enfrentando jato dágua e pastor alemão Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Quem segue a trilha da avareza no novo inferno de Dante Tem que estocar prótese pros próximos implantes Rezar pro bico seguir o Z4 num ato heroico Pra não acabar desaparecido e ter velório simbólico Se o fator financeiro não influencia Por que na Finlândia não tem resgate em delegacia? Quando o milagre econômico é de verdade Mãe não tenta vender recém-nascido em maternidade Quinhentos anos se passaram e ainda o invasor Dá espelhos em troca dos nossos bens de valor Por um salário estratégico compram sua saúde Sua liberdade e de brinde levam a sua juventude Por meio desta afirmo que o país dos belos gols Só te deixa vencer etapas da escala de Glasgow Meter o cortador a plasma no cofre da construtora Em 20 anos devolvem sua coordenação motora Faxina não é Blackwater do boy na classe E É matar o bispo que vende cura falsa do HIV É jogar do helicóptero a foto do marginal Que faz nove em dez no gueto ter processo criminal Se pedir igualdade fere a Lei de Segurança Nacional Pode vir força tarefa e delegado geral Permaneço contra quem nos faz render o motorista Até que a carga seja entregue na rede varejista Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada Se tiver outra encarnação quero voltar assassino Pra montar abajur com pele de político Vou fazer igual o Mac faz com rebanho bovino Facão no pescoço com o condenado ainda vivo Violento não é o rap, é a primeira-dama em ação Roubando da merenda pra comprar ração Tirou do aluno pra dar pro Lulu da Pomerânia Devia engolir 100 sacos de Eukanuba grama por grama No freak show não sou um Jim Jones moderno Que conduz com mentiras seguidores pro inferno Se não fosse a pressão internacional Seríamos nós e não Beagles no instituto Royal Sabe quando vamos ter ônibus espacial? Quando idade ativa no morro não for pra maca de metal Quando não vermos o terror no olho do esquartejado Colocado pelo Steve descaracterizado Boy me deixa feliz saber que o seu tumor Seria curado pelo sabotado que cê fuzilou Pra você desejo uma morte lenta e dolorosa Sem efeito da anestesia intravenosa Realmente não nos enquadramos na luta de classes Relatada nas obras de Karl Marx Luta significa agressão mútua Não povo dizimado em silêncio por filhos da puta Mesmo com o juiz querendo minha carne enjaulada Continuo expondo o sangue da guerra não declarada Mesmo com a polícia me querendo na cova rasa Continuo expondo o sangue da guerra não declarada Mesmo com o playboy querendo minha mente alcoolizada Continuo expondo o sangue da guerra não declarada Mesmo com o político querendo minha voz silenciada Continuo expondo o sangue da guerra não declarada</t>
+          <t>La stereotipata Bulgaria dei luoghi comuni produce yoghurt, rose e virus informatici tutto questo, tuttavia, non corrisponde a completa verità o perlomeno non dà un'idea sufficientemente chiara di una nazione leader nel settore. Non a caso, Elio e le Storie Tese si sono rivolti ai loro colleghi balcanici - rappresentati in questo frangente dal Coro femminile di Stato della Radio e Televisione bulgara - per un ideale gemellaggio che avvicinasse due culture, differenti nella forma ma affini nella sostanza, sotto l'egidia dell'Istituto Superiore di Musicologia Loren di Sofia e l'alto patrocinio del Ministero degli Esteri della Repubblica Italiana. Accantonate le spiacevoli incomprensioni del periodo Antonov - Aga, ecco il PIPPPERO, il ballo più umano e più vero, che si può ballare seduti, che favorisce il dialogo, che riavvicina finalmente due popoli rimasti separati troppo a lungo. I umorismo I umorismo kusch umorismo Sdreveide! Mismese gatchetene boghers chetegossuvé. Pretzdavemivi Elio e le Storie Tese. Ha ha ha ha Grazie... Grazie al Coro Femminile di Stato della Radio e Televisione bulgara che ha portato in Italia finalmente un ballo a misura d'uomo, più umano, più vero Più umano, più vero Un ballo sincero È un ballo sincero Eh, certo, vista la situazione internazionale noi abbiamo dovuto promettergli Ramaya, Ramaya, però amici vi assicuro che ne è valsa la pena Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Diù diù diù diù diù diù, PippperoR diù diù diù diù diù diù. Zieoung. Diù diù diù diù diù diù, diù diù diù diù diù diù. Iù. Atinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc tinc. Pipppero Evviva l'Italia, evviva la Bulgaria che ci ha fatto dono del PIPPPERO Ruotiamo le dita e uniamo le falangi, questo è il ballo del PIPPPERO Amici servizi segreti bulgari, non sparate più al Papa, ma dedicatevi al PIPPPERO Popolo bulgaro - iù -. Popolo italiano Servizi segreti bulgari e italiani, via Sentite come pompa il Pipppero Diù. Ruotate le dita. Unite le falangi Bene, ora ripetete con me Più umano più vero Più umano più vero È un ballo straniero È un ballo straniero Qui l'atmosfera sa di PIPPPERO Qui l'atmosfera sa di PIPPPERO Se in discuteca balli u Pippperupippero Se in discuteca balli u Pippperupippero Molto bene, ora da sole Più umano più vero. È un ballo sincero. E la tua estate sa di PIPPPERO - molto bene -. Non senti come pompa il PIPPPERO? Pompa. Pompa. Pompa. Pompa. A tinc etc. Dio bono come pompa il PIPPPERO Diù. Più umano, più vero. È un ballo sincero. A ba ba ba, a ba ba ba. Più umano, più vero. È un ballo sincero. Più umano, più vero State ruotando le dita? State unendo le falangi ? State stringendo amicizia con persone che hanno il colore della pelle diverso dal vostro ? Bravi. Ora è il momento di cantare a squarciagola Ramaya, Ramaya, Ramaya rarrà Il PIPPPERO è una ballo che io e te balliamo se l'amore c'è, e l'amore c'è se guardi me. Bugiardo io, bulgaro in te, bugiardi noi, sperando che l'amore c'è se ballo in te. Tu balla in me e saremo okay Più umano, più vero. È un ballo sincero Ehi, coro delle voci bulgare, io posso offrirvi qualcosa di molto meglio di un semplice Ramaya potrei darvi Kung fu fighting di Carl Douglas. Gnacchisnà. Fly robin fly ? Non vi interessa? Gnacchisnà. Voi forse preferite il meglio dei Tavares? Gnacchisnà. Ali shuffle? Niente? Gnacchisnà. Disco Inferno? Gnacchisnà. Qualcosa di Cerrone? Gnacchisnà. Oppure Boney M.. Gna. Tipo Ma Baker, Daddy Cool, Rasputin. Gnacchisnà. Niente? Disco Duck? No Gnacchisnà. Gimme Some? Gnacchisnà. Qualcosa degli Oliver Onions, tipo Sandokan, Orzowei? Niente? Cuba dei Gibson Brothers, dai</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Dejau</t>
+          <t>Olayımız Bu*</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>nsanlna kurban olaym hakim bey! Bu da m gol deil? Gol! You are high as a fuckin' kite! Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Uh, let's go Yok sana paf küf, eskidin hep küf Kokar çektim püf püf püf Eti Puf Puf gibiyim ben, uf uf Yüzüne tükürmem, anca sana tüf tüf Kiiliin kf kf, hava civa srf srf Parfümüm fs fs, koklym bi hmpphs hmpphs Karnm sana tok tok, olamam broke boys Benim havam Rolls Royce, seninkisi Tos Tos Dedi ''Mike Tyson'', dedim ''Einstein'm'' Morgenshtern'sn , dedim ''Nein, hayr'' Çok aalym biraz aalk Kzm hiç üzülme dile basal Vn vn vn Almam seni Porsche'a Sidikli Aye, benimki Natasha Vn vn vn Baktm göze kaa benimki biraz ey materyalist yaam Vn Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe Kz kahpe, dedi ''Beni affet'' Seni affetmemem gerek kahpe O hâlde sana atmam daha gol Mbappe gibi Mbappe, Mbappe Gol, gol!2</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Eskiden Tek Derdimdi Para*</t>
+          <t>Part Time Rockstar</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Olvi Olvi king ya Bu Unique bro Bay bay niteliksizler, tüm pisliksizlik düler ey Bismillahszlardan beklerler etnik toplumlar ehven Cadlar eklenmi gemiye Kaptanlar acizken herkes hakl lan Ben nedense garnitür hissettim smim sektörden deilmi meer kilemek en zormu, randuman tutanla bir argüman tutan köstebek Aklm resmen iktidar tarts Aada kalan ksm banknotlar Keep it real Mississippi deil bura im bam kadar, ek i deil sra Tek isteim masa ba deal bro Turkish life bana göre iyi bro Mengeni eksan-trik meyve gibi Gerede mezbaha huh kelle paça Dörtdivan vah, Çaa merebi bu Alkol alma sana yapsnlar Mudurnuda Baba battk lan harap olmaktan Yalan altnlar beni bozmaz hah! Amcaolu sana klasmanlar vip wild Aksan var, çok aksanda az görmüler Espriymi bak seksenler baba imdi burdaysa balkon en tepe Yok club falan evde i bebek Baktn olmuyo, bakm'can aann Tek derdimiz iler gitmez Küçük ehre büyük öykü bitmez Bu mürettebatn içinde birsen Sen görmemisen insanlk esne yi deilse baban ticaretinde nsanl sormadan önce dön bak Komple memleket ne alemde bro? Söker atar kalbim arr Haslatm itin azna çomak Sen it bu bariz artk, iltifat m? Hasmlarma reva m? Hasmlarma reva m? Hasmlarma reva m? Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan Açlma aman, açlma aman htimalim ise birthday cake Mimli mahallede ki tornet keyif Eklemlerimde krk en sert yer En dost bildiklerin en çok yer Bense galibiyet sarhou Endam mabedine smaz hiç Planlar içinde yüz, kat için Sars itibarn da acilen Yolumu duydu ve kudurdu Kuyruk aclarlar yerine oturdu Durup dururken, e kuruntu muydu bu? Huzurum içime kaçt ah! Paket paket ara, belki kalr sana kara para gibi, para kara Nasl haram ama sana fana asl-a-ma-man ah Seni maganda papaz! Gözümün içine iyi bak! Bu gözler numara yer mi ha? Polisler adam eder mi? Yürein kuru eder mi lan? Düümde yalnzca Paris Ve bi de karmla parti var Havada dönüyor artk Taraf ol olma kanka kal Kalemim parlad Kula kul kalmaktandr bu Bana kal kal kal kal diyen olmad Paravan olmusak madem Tanmazlar doymadm Daha sofrada yeniyim zaten de Eskiden garsondum, imdi ben yiyorum Yazk kafana Yazk kafana silkelen, silkelen, silkelen Azmsamadan silkelen, silkelen, silkelen Açlma aman, açlma aman silkelen, silkelen, silkelen Yazk kafana, yazk kafana Yazk kafana, yazk kafana Azmsamadan, azmsamadan Açlma bana, açlma aman yazk, yazk, yazk Morde2</t>
+          <t>F-F-Flames Ya Tokatlyorum destelerle nefret edenleri Çünkü öhret ve para dnda sevme nedenleri yok Yerdeyken gördüm bütün tekmeleyenleri imdi ne söylesen de um'rumda olma ihtimali yok Bunlar m bu ilerin önde gelenleri? Daha neyin bekçiliini yaptndan haberleri yok Sikiyim kendini yukar'da görenleri Benim için parann belirledii bi' statü yok Dütük her gün baka bi' oyunun ortasna Hepsinin belliydi günah da tövbesi de En iyi silahtk ve döndük hedef tahtasna Zaten ihtiyacm yok kimsenin görmesine htiyacm var sadece gece olmasna Bütün bu gerçein karanla dönmesine arklar yazlr hep birinin ölmesine Bur'da ne arklar yazld öylesine Anlamam gibiler Bizler yokluktan çkan Anlattk sokan içinden Görmedin bu açdan Gösteremez TV'ler, bizden çok duman çkar Yani sahte reytingler, sanki ihtiyacm var Kendi kendime PR, asla olmadm yalan biri Harcayamam vaktimi, doldurdun hakkn Anca bakyo'sun mal gibi Tek beceriniz görünmek bi' sike yarar gibi Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar Boa harcamadm vaktimi Benim kanm buz, senin kalbin de kurak gibi nsanlktan uzak gibi Kader bizi keser ayn pasl bi' bçak gibi Verdim dostuma srtm Gerdim gösümü aileme sanki her an ölecek gibi Kendi dünyamda mutluyum yine doacak gibi Ya, kim olduunu hatrla Onca kii mazi oldu, kalamad aklmda nsan mym, robot mu? Baktm her sabah kalktmda Boa Makina demedik kendimize aslnda 2018 depo, imdi Gangsta Paradise Çardlar, geldik, yolla konum, hemen oradayz Rrr Uzun süredir bi' moladayz Rengimiz bellidir, aynen, siz'le takm olamayz Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, dur deseler de durmu'ca'm Çkmam tatile, yalanyorum, kouca'm Dostum ans dile, o piçi bugün buluca'm Tüm gün partile, gece kendimi kuruca'm Belki sebebim oluca'n, Dur deseler de durmu'ca'm Çünkü Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Part Time Rockstar, üstünde elmaslar Gökyüzüne bakp görebilirsin en fazla Asla unutma geldiin yeri, asla Uçmak üzeresin, o yüzden sürün çok az daha Rockstar</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Etrafta kamera*</t>
+          <t>Postalarım*</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sorumsuz evladn ardndan yas tutan anneler Sorunsuz hayatlarnda sorunlu taklan nesiller Zaman deitikçe artan kibrin esiri gençlik Sorsan hepsi gündeme internetten isyan etmitir Yakn zaman, çok da uzak deil paranoyalar büyür Kötü giden bir eyler olsa bu ülkenin genci görür yi niyetle yaklar lakin eytann ardnda yürür Ve kimse anlamadan kin ve nefret kalplerinde büyür Gece olunca rahat uyu fitne senin kara kuyun Para girince büyür oyun hep önde gidiyor kara koyun Bilmek için soru sorun herkes yatyo yüzükoyun Bak huy dimez ayk olun yaknda balar asl oyun Tuzak var saptn her yolda tuzaklar da var Evet blki çok uzaklarda ancak hatrla Ardna bile bakmadan kaçarsn bir ey olduunda Zaten kçna tokad yemitin hem de ilk doduunda Farketmediiniz her nota sanki ibadetleri Yürüdüün her yolda sakl eytann sembolleri zlediiniz her yerde var deccalin üçgenleri Aydnlanan müzik deil rihannann ampülleri Çabuk unuttun dünleri acyla dolan günleri Aka dalar gözler hep ve kanla solar gülleri Kardan baknca soldan doru gelir zul Arkasndan baksan sadan gelir yaplan bütün zulümleri Bu biraz eletirel bu Salvo, Ayben Dar çkp biraz yürü ve hepsi sayko zaten Aklnn alamad nokta bak deimi alem Millete bok atarken çocuk nasl karnen? Aynen kafiyem afillidir nefret kusar bazen Sen brak bok atmayda yoluna yürü bi madem Burun kvrr entellektüel ya haspam aynen eytani endüstride Türkçe Rap bi maden Yeraltnda yürütür iini sonra durum deiir öyle Hayat gibidir insanolu kendisiyle çeliir Açk olmak gerekirse herkes Rap yapabilir zaten Hayatn masaya koy yada brak bu ii Gelii büyü gibidir etkiler çocuklar Çocuklar etkiler, etkiler sokaklar Etrafta onca hakszlk kasar akaklarm Bir asker kulaklnda ben sayar afaklar Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü Çocuk biraz büyüyün bu duyduun müzik büyü Yarn kaybedenler geçmiiyle büyüdü Ve bütün tecrübeler satrlara bölündü Geçmie sahip olan geleceini büyüttü</t>
+          <t>Herkes konuuyo' Taksim delisi gibi Tamam, anladk, artist hepiniz Lanet olas bi' narsist feminist Gibi beni darlyo' kaprisleriniz Wouh Baptist Kilisesi vaftizleri gibi Kutsanmamm, bahtsz biriyim Ah Rahatsz edici bi' asi lyricist Oldum diye bana kalpsiz dediniz I don't give a fuck hisleriniz Fuck Batsn pop'tan farksz pesimist Rap'lerinizden skldm, hepiniz Yobazsnz ve bi' Marksist, Leninist Wouh Gibi aranzda yabanclk çekiyo'm Hehe Fuck peace dediniz, harp istediniz Fan listenizi mi çaldm? Pardon Böyle iliyo' hip-hop sisteminiz Aha Okey tamam da yok keyfim, ha Bu Türk rapçilerinin yok beyni, mal Bi' complain'im var, yok teminat O yüzden bana deme Çok fame'im, ah Smoke motherfuckin', all day lave niyetine votkal kokteyl bira Bira Ben hepsini içtim, Uh Atmadan önce bi' konteynra Eskisi gibi ben beat'i Duyduum bu an Da Vinci gibi Onlar sanatla harcaynca beni Çekitiriyo'lar anca kinci gibi Huh Hepsi mahallenin amc dincileri Huh Gibi hor görüyo' ganja diyince beni Yeah Punch'la incitirim canlarn, mic'ta Saçma rapçileri parça pinçik edip Pinçik edip Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Va, har Nedenim var Var, ha, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var Hangisi benim iim, hangisi deil? Ha Haddini bilirsen var nasibin Wouh Bu nas' bi' beat? dedim Emrah Türkan'a Kanka, dedi, bu beat biraz asabi Ha Ben de asabiyim Çünkü kepçeyle yerdik wasabi'yi Aha Ay'a ilk giden de NASA deil Bi' de bizi yönetirler adna yasa deyip imdi Benim iim müzik, müzik deli ii Ve sanki çocukluumdaki seviniim Wouh Yanmda Ceg var Bu Kobe'yle Shaq'n NBA'de potalar devirii Ah Gibi, sanma bu kibir Bu ikili en büyük ordunun en özel timi Ah Ne güzel, d'i' mi? Ah Bu ne düzen? deyip Ah Aryorum karmaada güzellii Bak, zaman zaman yalan da var Aldanma palavradan hayatlara Kanarlar bayat, yalan baharlara U-uh Sanarlar hayat kalan paran kadar, ah Tamam ama bana kadar pastada pay Bi' virüs gibisiniz rap'i hasta yapan Ya sokak ya otobüsteyim, rastla bana Rap sokan ii, sizinki fazla sanal Daha fazla para için daha fazla salak Ah Ulu TV diyo' Ko bankalara Yeah Borç katlayarak esir ol kartlara da Üzül borçtan parkta yatanlara da Bak, bak, paraya tapanlara fuck Dönütük insan kesen kasaplara da Bataa saplanarak o yükü saklar adam Masaldan hayatlara hayal saklayarak 'Rak Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var Var Nedenim var Var, nedenim var Hip-hop'la yaayp rap yap'ca'm Buna inanmak için bi' nedenim var A-ah Nedenim var A-ah, nedenim var A-a-a-ah nanmak için bi' nedenim var Wouh, wouh Nedenim var Var, wouh, nedenim var A-a-a-ah nanmak için bi' nedenim var5</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fam</t>
+          <t>Replika - Instrumental</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Oh no, the gyaldem wan' party So uno mi affi start it Champagne she a sippy A wheh di gyaldem wan'? Red Rat and Chippy FaNaTiX Oh no Girls like insta' and girls like clubs Girls dont like you, girls like us Since 1980s, Cyndi Lauper I know girls just wanna have fun Seh wah? Dat one deh classy Dat one deh skatty Dat one got breast but she got no batty Two of dem boy dere babymudda call me daddy Haha It wasnt me, it was Shaggy Gyal call mi a cutie Ya See me in the dance DSquared2 or Gucci Ya Pussy 'pon safety, release da Uzi Brrr When mi seh buss it it nuh mean yuh fi shoot me Nuh Dat one deh choosy But still she ah choose me Young boss Not you, you aint gang Nah Tek way yourself, you aint part of di plan Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex for the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru Me would a shame Tek way em gyal and 'im leff inna pain Mad Pussy boy now, frow dirt pon me name Ayy boy, why you wan give man bad name Oh no When theres bare gyal on road call dat easy street Ya Chatty-patty boys, call dem cheesy beef I dont fuck with you, so dont speak to me On my Cardi B shit Yo, yo Unno a mad mi 5 gyal a squeeze in the back of the taxi Skrrt Penthouse suite so dem view yah mad b Maud Mandem are strait nah yuh can't relax wi Wavy, Max B, couple gyal wan trap me Mhm Male groupies cant stand Nah Tek way your self, you ain't part of the gang Move Di 'ole of dem gyal deh fi jump inna cab Cah di 'ole a dem gyal wan flex wid the fam My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru That girl Oh no Double R Me would a shame The girl call him a cute A big man she wan She no wan a likkle yout If she not tell yuh Make me tell the trut Ah me she a want, yuh no see 'ow me cute? So all of dem girl deh ya a fi mi, you see me Me ask anyone, dem a gimmie Look 'ow she a jiggle and a twirl and a spin it You know from me a bahn any gyal mi go afta mi winnin Mek sure yuh can bubble and wine pon the dick Nuh struggle when you climb pon the dick Girl spend time pon dick Even do it t'ick Be my superstar Girl shine pon the dick An' whine like a clock girl Tick, tick me a boy Make your pussy start drip, drip Girl ride like a jockey Tek whip, whip My girl just swallow, dont spit Oh no My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you Fun we a deal wid, gyal come tru My girl, my girl come tru Me wan' di suh'um and you wan fuck too You nuh love me and me nuh love you A fun we a deal wid, gyal come tru</t>
+          <t>Pensa como vais e como voltas Dizem puto tu dispensa quer atalhos, quer andaimes E entra logo é pela porta! Se não és convidado, tão a espera ou és da casa... E eu sou da casa dos 20 anos a puxar a corda! Mbora mano! Ninguém cai agora, ta seguro. Posso? Podes, é a resposta Dada pela minha tropa Saio da minha toca e tu nota que não me importa Quem ta no top a reinar meu reinado é de quem me topa E o scrah voca duma forma, de quem vem com uma fome Igual a quem bota o uniforme agora, e tá pronto p'rá Copa! Taças e Champagne....cada um com o seu lugar Desde que o valor não seja o valor de um polegar Há p'ra todos e há p'ra tantos Mas p'ra que desse fruto hoje aquilo que plantámos Foi indispensável antes Agora seguramos Paredes enquanto o resto Rui.... O Rock não rola mais como rolava E a Pop tá apaixonada por versos desta cambada... É karma meu camarada ou tem cara Repara que ele não pára e tu cara-a-cara com um gajo Que só traz clássicos atrás de clássicos atrás Repara, pára e sente! x8 Tu sente como assento e no futuro Eu sou exemplo de que tar ausente por um tempo curto Analisar sem forçar num tento prematuro Faz-te moldar parte homem parte sábio e partes tudo! De forma épica e singular Se te for similar é uma réplica boy aprende a assimilar Trepei p'ra estar aqui, tu trepas pelo trap p'ra ser MC Mas tropeças se de repente mudarem as peças do teu beat Não meças só por conversas vê os atos mano São factos exatos, não vivo por boatos não... Quem assim rima assim fala Não tem gaguez Não me calam... Tenta-me! Que vê eu tornar-me no que tu tentas... Sentas quando a malta vai a jogo Levantas voo, a malta senta porque das enjoos... A malta salta quando o instrumental te dá o show... Eu parto o palco em metade e num só bocado Te parto em dois... Repara com o a gente faz isto x4</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Favela (Demo)</t>
+          <t>SAHİDEN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Uma vez eu sonhei que era rei do rap GAME Acordei e pensei That's kinda lame Lazy flow, same beats, lame shows, rimas non sense Qual o sentido de ser rei o desse game? Não sei, apenas sei que sou competitivo Hanibalizando beats e continuo faminto Canibalizando ouvidos apenas com minha intro Difícil compreensão? Volta ao início Nosso princípio Carbono e Oxigênio Nosso princípio Nitrogênio e Hidrogênio Sensacional, o princípio universal é o mesmo Ninguém é especial. Ingênuo ou um gênio? Contra a minha a tese, exercito o BRAGGADOCIO Quando nada aquece o coração de um monstro Ela olha pra mim e já ri de nervoso E ele olha pra mim com um sorriso escroto Minha habilidade oral é magistral O instrumental é o clitóris, minha língua o canal Reproduzo 7.1, não sou estereo Nem mono flow, me fala nego Qual é o seu critério? O império dos FAKE contra-ataca Playboy que só ladra, cosplay de favela Pior que novela, da mente apaga Rima nada com nada, enquanto eu pinto telas Que deviam tá no louvre, cês só rimam estrume Acho o cúmulo, procuram cume encontram túmulo Acúmulo do ridículo e a fan base que acostume Todo álbum é genial, que conceito estúpido Não sou guardinha de rap, só espero critério Senso crítico é mínimo, a cena virou circo, cês são tudo histérico Liguei pra MEG e falei Eu quero um império Não de fama, sucesso ou excesso, mas pela rima que expresso Os prego cego grita PRR e no final só sobra ego Só sobra ego Tudo mudou no dia 2 Outubro 2017, aniversário de vinte e uno Me sinto apático, preciso de um novo rumo Difícil ter pé no chão quando sua mente é em saturno Saio de casa atrasado, procuro um trabalho Diurno, taciturno ou noturno, que seja Só preciso de um destino que não termine em breja Prefiro em beijos, e que assim seja Por ela eu trabalho 12 horas na frimesa Não sou o único da linhagem, então cartas na mesa Minha bisa indígena, escrava de família portuguesa Provavelmente estuprada, dá a luz a cena Uma filha bastarda, minha vó paterna Enquanto isso minha vó materna chorava O marido foi pra Brasília, nunca voltara Essa mistura de história trágicas formou meu carater Personalidade, filosofia, identidade Limparam o caminho para minha prosperidade Então abram-se as alas, eu cheguei pra traçá-lo Por essas e outras, é que eu busco um LEGADO Para preencher as lacunas do meu espírito oco Meus gritos ecoam no corredor e eu fico rouco A perna bambeia, o coração acelera, porra A gente perde, levanta e tenta de novo Não acredito em meritocracia, quero que essa porra se foda Mas eu tento vencer na vida, mesmo que eu morra Mesmo que o sangue se misture com o suor E no final tudo escorra Altos e baixos, a criança machuca-se na gangorra Todo rapper alega ter uma vida sofrida Reclamador profissional, essa é a função do artista Paradoxos formam-se, segue a lista Um iconoclasta classicista, Estoico e hedonista Que procura riqueza mas de forma simplista Após divagar, me recordo de TEMPOS idos Rodando em CÍRCULOS, volto ao princípio Assisti de camarote a morte do meu irmão Vi minha mãe ser forte enfrentando a depressão Ela virou artesã, transformou a dor em arte Então eu luto contra a solidão que inunda meu coração Rezo para que do meus pais eu nunca perca a amizade E que nunca nessa vida eu cause decepção E o que falar da ACADEMIA? Essa engrenagem prussiana em estado de LETARGIA? Temer as autoridades em troca de sabedoria Tornar-se um lacaio por um pedaço de papel Ensino atrasado que prejudica a periferia Que suga nossa alma, acaba com nossa vida Penaliza gente sofrida, dolorida e enaltece parasita Qual o significado de CONTRAKADEMICO? É um personagem tirado de um mundo cênico Criado pela minha mente rebelde e insegura Que busca de uma vez justificar suas loucuras Quero criar o meu caminho, autodidata Nunca se render nem se corromper pela indústria Mas não busco o underground, busco as massas Mantendo a integridade, isso me causa um impasse Os BECOS da minha mente formam labirintos Procuro uma bússola para caminhos precisos Engulo seco, me encontro perdido Desencontro, atento, flashback To na mustardinha, eles enrolam beck Mescladinha, reparo o estresse O suor desce, aquece o couro CHUMBO escorre, renasce OURO Tudo que eles querem é nos calar Eles querem nos calar x2 Mas eu falo mesmo assim, pé na porta, o que esperas de mim? Ser mais um escravo? Preso num ciclo sem fim Abraços ternos formam momentos eternos Multidões num atraso perverso refletem no espelho convexo Não consigo me reconhecer, deixo a alma perecer Independente do que acontecer, não consigo vencer Isso que o demônio me fala todo dia Cartas na mesa, demô-cracia elitista Fácil ser meritocrata numa aristocracia Kratos é mais que um jogo quem diria Poder para o povo por meio de linhas anarquistas Aqui o discurso nunca será materialista Saiba diferenciar celebridade de artistas Não siga as Kardashians, valoriza tua vida Respeite a si mesmo e a sua vivência empírica Minha vida nas rimas, minha dor nas melodias Expurgando demônios e executando facínoras A caneta sangra e o resultado fascina Nos breves momentos em que a carne amacia O lábio ama e te reconecta com a vida Tudo que eles querem é nos calar Eles querem nos calar x2</t>
+          <t>Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida i, i, i, RTF, uh Atmosfera Mobb Deep, da Brate, s glavom kroz zid, da Kroz zid Dalje s travom profit, uh S tvojom malom doggy Rest in peace Prodigy, i je on fleek Bolestan ko Taji, ne igram PUBG Vai igrai e izvu' krai obani leat ete u svojoj mokrai Da, Zeitgeist odvratni i pria ko da neto bolji si Da, Zeitgeist moderni, mon ami Lifestyle siromanih i opasnih, yeah Ladidadida, ladidadida Kaka je to na stolu praina? Uh Ladidadida ladidadida Razvuci tri crte, brate, Adidas, da Ladidadida, ladidadida Ladidadida, ladidadida Ladidadida, ladidadida Ne pijem lean, pije se malina, uh Blaka, blaka AMG CLS, bolje FIFA nego PES Yeah Kupujmo hrvatsko, pitolj mi je HS Kada se savijem, vozim automatika Imam vie patika nego danki kaika Hodam po liniji ko Johnny Cash Perem te pare ko da perem ve Puim ha, Maroko, Marake Vrti, vrti, vrti dok ne padne Trim ove ulice kao Eros Grezda Teleskop mi ne slui za gledanje zvijezda esto sam u muriji, nikad ne druknem Savijen sam stalno, al' nikad ne puknem Jednom zabuni se arer puni se Vozim te u gepeku do umice, poni molit krunice Predstavljam ulice, motam frulice I fine curice pretvaram u kurvice Vinjevac i Retfala, desetka il' petarda? Pravim hrpu beatova, poznajem hrpu retarda Dandare-mandare, moje kmice mrze andare 1-3-1-2, jebo sam vam mater ja Nula, tri, jedan, jedan, jedan, dva, jedan, osam, sedam Brate nikom na ler ne dam Razvozim pakete ko DHL Bri nego Schumacher Michael Ako neto tre'a, brate, lagano rijeim Troim vie kea nego Emil Tedeschi Kao Milan Bandi, popiam te, jadnie Nosim Gucci papue, jebem Q-klabae Serem se na radio stanice Istina U autu mi pue konobarice Pue mi, pue mi Zna da uivam dok brojim parice Brojim pare I trpam u madrace i ladice Massimo, Massimo Massimo, Massimo Massimo Massimo Savage direktno iz geta U depu mi bereta kad ulicom etam Svi znaju ko je Massimo Oko iskopa ti kaikom Da l' si, brate, dobro shvatio? Pogled mi je tol'ko leden da si se prehladio Namignem ti staroj kad ide na zornicu Sestri popiam ti polja kada igra kolicu I na trap isto sjednem ko na stolicu Inae boom bap, ali novi crnci dobri su Rodit e mi sina, kralja kodeina Kodeina Rodit e mi sina, kralja prometazina Prometazina Massimo i bomba runa, znai tvoja, bam, kua Dok bam, bam, pucam pijem Fanta Bamboocha Tra- tra- travu ljutu, na ranu ljutu Okreem gutu, snimam trep, viem Skrrt, skrrt Iz Retfatlante Savage Massimo, skkrt, skrrt Beat zamastio, objasnio, brate, skrrt, skrrt Ispred vremena, a ti si zakasnio skrrt, skrrt Massimo Bacim bombu na vas jer ste pike, brate, skrrt, skrrt Massimo, Massimo Massimo, Massimo</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Favela - Instrumental</t>
+          <t>Sakin Olamıyoruz</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Acho que eu envelheci dez anos Mas no calendário só foi três anos A teimosia ainda mata meus manos E às vezes somos os maior haters daquilo que planejamos Meu manos na ilha, e não é do Caribe Com o sonho cancelado tipo Freddie Gibbs Hoje Outback, ontem esfirra no Habib's Mas as armas ainda mira em nós, não importa o calibre Não perca o foco, quando tudo é click Nem todos têm o poder de Midas, isso eu vi no Rick Use o cérebro antes da Uzi, vida de Instagram, public Porém esse rappers bundão só são concorrência pra Nicki Pretos no topo, só não esquece as preta E quando expor suas fraquezas não culpe buceta MC destaque é o instrumental, quando se falta letra E se não tem talento, tudo bem, vai no Twitter, forja uma treta Minha redenção é através da arte, igual Caravaggio Ainda com a mesma fé, da Fiel quando lota o estádio Seres humanos tão vaidosos, mas soam frágil Copio ninguém além de Deus, só ele pode acusar eu de plágio Me comparar com cafetão e o crime, soa rockstar Me comparar com deuses e reis, soa arrogante Somos deuses do Orum invadindo o Olimpo pra ocupar Então pode se preocupar, se quer ver a morte dos meus semelhantes Criado mudo pra não ver o estante Quantos nossos, morreu de desgosto igual Little Walter Barry viu quão infiel a fama é Na primeira oportu' nos troca por um caucasiano qualquer Números mentem, JAY-Z, hoje se compra like Robôs projetam dislikes, qualidade se ver por like Exigência é mentir no mic, contabilizando like É que o novo hip-hop exige idiotas do hype 'Cêis quer nos bobo da corte ou no cemitério? Hypam quem brinca com a luta, não que leva a luta a sério Qual é o textão que nos separa? Respeito as manas desde Fabiana, Dona Ivone Lara Sonho do oprimido é ser o opressor? Não não, só ser ressarcido! Hoje o opressor diz o que é opressão, mermão, tamo fudido Menor de 13, entra pro 12, e se encontra perdido Morre na mira de um 38, matemática dos excluído Tudo invertido tipo a cruz do filme A Freira Tá de chapéu, abra sua mente, e eu nem falo em usar viseira Só em usar tua a visão, além do leitinho com pera Olhar pro próprio umbigo é estático, tipo correr na esteira Caneta e coração tem que fala mais do que o beat A cada 10 que me critica, 11 já me pediu feat Eu sei, que invejoso é mato, o jogo é sujo e pede hit Teatro da vida ingrata igual Adão culpando Lilith De volta ao lar igual Peter Tempos sombrios onde pastor quer pregar a palavra de Hitler Como Cristo fosse um soldado alemão nazista Não sou racista, eu tenho amigo preto Disse o racista Um dia arrastei tênis no chão pra ninguém ver ele furado Hoje a Converse me patrocina com os mais foda que ela têm lançado Corri tanto que os bico pareceu parado E hoje é impossível um top five sem meu nome ser lembrado Esse storytelling é foda Sem final feliz igual trama shakespeariana Brother, não existe amor quando o assunto é nota Aprendi do modo mais foda, que o Deus de São Paulo é grana É um mano meu me disse Esse mundo é o que há de pior Pessoas não muda, não se iluda, só aprendem a mentir melhor Eles nunca se posicionam, mais cobra Se posiciona e quando tua luz se vai, até tua sombra te abandona 2019 pecados a prestação É Black Friday né tio, depressão em liquidação Luz câmera e ação, pós produção exige marketing No lançamento da postura, a consciência que faz react Nosso sorriso inspira vida, tipo Dream Team do Passinho No ano de Jorge, Ogum na frente pra abrir o nossos caminhos Fiquem com o cobre e bronze, dizem que ouro não é pra gente Oxum é a minha mãe, filho da puta Eu vou por ouro até nos dente Papai Noel símbolo do império capitalista Esse ano vai vir de azul pra não parecer comunista Mas pera lá Coruja, cê tá sendo extremista Gritou a Revolução gourmet, bater panela na paulista 'Tamo precisando se amar, e eu nem falo só de foder Sim de empatia pra caminhar, pra no fim nós não se foder Mas não, eu quero CODEIN! Seus papo nem vende mais Tudo tão Michael Jackson, embranquecendo e andando pra trás Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Punchline não, abrasileirei, linhas de murro Às vezes me sinto meio Shrek, olho em volta é só vejo burro Abrasileirei, linhas de murro, linhas de murro É a era do descartável, somos descartáveis Tudo tão vago, tudo tão vago, tudo tão raso2</t>
+          <t>Kurt uluma sesi Köede bekliyo' canolar, her biri benimle can alr u anda hedefim araba, yukar kalkmal kaps Sürekli bahsettim paradan, sonunda açld çekmece Her zaman tek korku yaradan, can o verir, o alr yok endie Dibinden kesik bi' pet ie veriyo' yürei sana Motoru sürerim üstüne Ces ile, kapadm tas olan kafam aga Kolay m lan, telefon, trafik reislik taslamam homolara Eer ki bulcaksan belan, numaram yaz, cebinden beni ara Hanginiz reis, hanginiz kral, hanginiz yürekli, kaçnz var? Annemin pazarda tad torbalar bile bu müptezellerden ar nönü, Parseller, Çekmece Ghetto, Güngören, Baclar Ne zaman dinlendiysek yanmza geldi suratsz yanclar Kopar direkt semtte yaygara, büyükler laf konuur, halleder küçükler Davullarn içine döner, sote eder kardeler henüz ufak tefekler Ya deil i, bk lafn yemekten diler köpeim baldrn Seni aklma koyduysam bulurum, umrumda olmaz hakimin yaptrm Çavo! Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Sürekli denedin, denedin, her zamanki gibi yaptn sadece laf Ondan da pimansn eminim ama maalesef her eyin bi' bedeli var Duymadm, ne dedin, ne dedin, ha? Buraya gelmiyo' sesin hiç kral Geldik, atamadn mermileri o yüzden biraz daha tweet at Anca bu gelir elinden, açlr dünyaya yeteneim Yetimez sesiniz zeminden, sikiyim bütün felsefenizi Çekin u klar gözümden, uzam hepinizden Bi' boka yarardnz belki tutsaydk elinizden Popüler konumlar, hepsi sert çocuklar Da biter sonunda, bize dert olursa Sürtükler kolumda, çktk tersoluktan Tüm iler yolunda, devirmez sorunlar Her zamankinden daha çok parlar kolyem, görmediini sanmam Onlar anlamaktan yanayken her düüncemiz vandal Kskan amck, evindesin bense izlediin ekranda Deiti bütün dünya, sen bildiini tekrarla ya, ya Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz Hiç sakin olamyoruz Denedik, denedik, sakin olamyoruz Ne dedin, ne dedin, seni duyamyorum stediimiz her eyi kapp yol alyoruz</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Gece Sokaklarda</t>
+          <t>Sana Bayılıyorum</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ne? Dur bakalm, dinle beni Mutsuzluu en iyi ben bilirim Ama bence onun da bi' nedeni vard, onun olmas gerekiyordu Yani ikimiz için de bu hayatmzn ilk günü, tamam m? Tamam m? Ellerimde, evvelimin içinde kalan o hatralar Hayallerimde hep o var içim, kan alar Ard sra dizildi boaza hasretimin naralar Ve benim çkmayan bi' sesle haykrm izlemiti dostlar O günü unutmam, biraz içip de datmam gerek nan ki piman olduum zamanlarm var Engerek sokaklara uzandm da oldu Asl Ylmak demek hayata balayan zayf bi' ilmek Onu da sök at güzel yerinde ah mat olur hayat Zaten ilerliyo'dum milim milim hep bayat Ben de istdim bi' nehir kadar özgür olmak Derdimi aktsam or'dan dururdu Frat Ve son vda baktk öyle ne ses var ne seda Zamann ak gibiydi akam oldu sema Karard ve o yok oldu, ne kalmt elimde? Bende geceye doru yol aldm bi' ark dilimde Bugün hiç iyi deilim sende yaz bu beyaz sayfalar da karala Gece yars ruhum hep tribâl Her zaman ki yerdeyim düüncelerle ba baa Sense gururunla kalbin aras ska kal Akam üstlerinde bir hüzün var çözemediim Rüyalarmda bir melek var göremediim Gittiim bi' yer vard geri dönemediim Bugün bi' kasvet var içimde ölebilirim Dinlediim u eski plaklar nostalji Akp giden zaman anlatr bu kum saati u an sorsan çocukluuma dönmek isterim Çünkü eskilerde çok temizdi hislerim Bi'kaç yalnzlk hikayeleri yazdm Garip senaryolar karaladm Güne batarken bir hikaye dudaklarmdan son kez fsldad Kulaklarna doru son vedayd Serildi gözler önüne hayatm Adm yazdm o ilkokul snav katlarndan hatrlarm Kitap ve çanta yolda yarm admla atlan her adm Götürdü ayn yerlere, ayn evlere, ayn yüzlere Sen ben oldum yamur alt slanan ve snacaksam Benimle ol çünkü en güzel fotorafm senin cebinde vard Ak olmak matmazelin baklarna bal imdi kalemi kada yatrdm önünde beklemekteyim Hep ayn filme bilet alan bi' seyirciyim belki bilmiyorum Belki görmüyorum gerçekten, hissetsen bir defa Son veda hayata hatra bu yaptm Avuçta sakla, demirden bi' halka Kahra stanbul, stanbul kaç gözün var üstümde Içimde titrer eller, son vedalar hep akam üstü geldiler</t>
+          <t>Bir, iki, üç, dört Bir elimde kahveyi tutuyorum bir yandan da kulakln öbür ucunu Rüzgar parmak uçlarna deerken ve beraber küçük eyler yaparken bana sarlyorsun Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Nakarat Sonras Jeonghan, Joshua Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Uzanmak veya oturmak güzel olur diye düünmütüm ama seni gördüüm anda bu düünceler çok aptalmm gibi hissettiedi Neredesin mutluluum? Tüm mutluluum burada ite Seni bulduum için çok mutluyum Bu tarz bir insann var olmu olmasn umardm te sensin Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk Madem ayn yere bakyoruz el ele tutumak ister miydin? Gözlerimiz bulusa skca sarlmak ister miydin? Seninleyken gelen güzel düünceler Seninleyken mutlu bir ekilde gülerken görünüümüz Seninle konumal mym yoksa konumamal mym diye çok endielendim Aklm karmt Beraber içeceimizi düündüüm kahve çoktan hazrd ki fincan da bo imdi Sana baylyorum Sana baylyorum Sana baylyorum Sana baylyorum, bir kez daha Gözlerimi senden alamyorum Sana baylyorum Sana baylyorum Sana baylyorum Kaçmam için çok geç artk</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Geçmiş*</t>
+          <t>Sanma</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Her yer her yer de Hep kalan oldum ben yerlerde Dalmm aryorum kendimi Kim bilir sen nerde ben nerde Es geçtim sokaklar Attmz admlar Unutmak istedim sadece Yaadmz tüm anlar Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun Gezdim sokaklar tek tek Önümü göremem net deilim pek Ya uzakla ya da geçmii es geç Senden bana kalan niye sadece nefret Ara! stersen söv acma Kusurunu kaplam sahte yanna Sinsice szdm bütün ayp anna Bugünü hapsettim ben kayp yarna Geziyorum odalar tek tek Eser yok eski halimden Bitiyor umutlarm sebep net Eksik bir yanm sen yokken hep Geziyorum odalar tek tek Gri sam solum sensiz tek renk Bitiyor umutlarm sebep net Bu evden gidiinle kalan kokun</t>
+          <t>Neyin varsa kaldrp çöpe attm Saçlarm kestirdim hemen sarya boyattm Bitanem diye kaydetmitim ya hani telefonuma Sildim derhal, herkes gibi adn yazdm Sensizlik bana çok iyi geldi Ne kadar da ihmal etmiim kendimi Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Attm kendimi sokaklara Dokundum sarho yabanc ellere Üstelik de hiç piman olmadm Ama hâlimden de hiç memnun kalmadm Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Aslnda iyiyim gerçekten Bir kere özgür hissediyorum kendimi Çapraz yatyorum yatakta Oh be diyorum, Her ey tamamen benim artk Canm ne isterse onu yapyorum Ama bazen Bilhassa akam olurken Bir tuhaflk olmuyor deil Szlyorum, özlüyorum Resimlerini atamyorum mesela Bakamyorum, kzyorum Çok kzyorum Üzmek istiyorum seni Cann yakmak istiyorum Sonra yatyorum Sana da üzülüyorum Ama iyileiyorum ya, iyileiyorum Umrumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki Um'rumda deil, iyi ki bitti Omuzlarmdan koca bir yük gitti Çoktan altm yokluuna inan ki</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Gefangen 3</t>
+          <t>Say</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Part 1 Vom Anfangen Ich bin so fett - ich fall auf beiden Seiten aus dem Bett Jedes Statement so flüchtig wie das Leben und Gebäck Einmal kurz kacken gegangen und es ist weg Während man noch seine Nasenhaare im Klospiegel checkt Ich werde die Welt erst retten, wenn die Welt mich liebt Und nie wieder etwas essen, was mir Fanpost schreibt Ich hab noch immer keine Ahnung, wie man Geld verdient Ich verschwinde langsam immer mehr, ich verschwende Zeit Die Jugend ist mein Kapital und die ist längst vorbei Sonst hab ich wenig doch dafür die Hände frei Aber wem sag ich das, Mann ihr kennt den Scheiß Ihr habt ja nicht mal Geld, um den Song hier legal downzuloaden Ich sollte mich damit abfinden, statt mir einen abzusuchen Doch ich will den Kuchen essen und gleichzeitig behalten Und gleichzeitig verschenken, doch ich habe gar keinen Kuchen Und ich brauch am Ende drei Ich mach eigentlich nur Rap, um im Takt zu fluchen Dann kann ich sagen das ist eine Kunstform, Fe! Ich wurde Rapper, um die Wahrheit in meinem Sack zu suchen Ich hoffe, das bleibt unter uns, Du Fe! Geh mit mir oder weg da, aber mir nicht auf den Sack Bring mir Bier oder Erleuchtung, aber mich nicht aus dem Takt Gib mir Props oder nicht, Mann ich gebe keinen Fuck Auf Meinungen von Leuten, die nicht Ich sind Ich stehe ganz alleine auf ner Kreuzung mit der Flak Du stehst da ganz alleine mit ner Hose voller Kack Wenn ich meine Mütze umdrehe, werde ich zum Truck 80er Anspielungen machen heute kaum noch Sinn Manche sagen, dass ich aus der Zeit gefallen bin Andere fallen hin nachdem sie auf die Eins gegangen sind Manche fallen um, wenn ich auf sie eingegangen bin Ihr seid nicht Gangster, wenn eure Jobs im Einzelhandel sind Das Gute, Wahre, Schöne - meine Eier mittendrin Und treffende Metaphern sind eh nicht so mein Ding Die Weltgeschichte dreht sich plötzlich um die Krim Statt um mich obwohl ich viel interessanter bin Lass die Leute sich erschießen, Kinder zeugen und beten Lass die ganzen Rapper einfach weiter Scheiße reden Von Dingen von denen sie nicht verstehen Ich hab mich umgesehen - es gibt kaum was, wovon sie nicht nichts verstehen Schau mal, mein Sohn, die Kinder da draußen Spielen mit Waffen und dummen Parolen Und alle wollen doch eh nur das eine Sich gegenseitig einen runterholen Doch die Welt will das Drama - die Welt will Effekte Pornoroboter, Theaterdonner Gescheiterte Künstler und Zirkuspferde Ich spiel für euch den Maradona Man braucht keine Ahnung, um ne Meinung zu haben Da bin ich eurer Meinung, aber ich hab ja keine Ahnung Und man braucht keine Warnung um in die Eier zu schlagen Offenbar bin ich inzwischen sowas wie ne Offenbarung Die Offenbarung nach Manfred Apokryphen Zu alt für Gewalt und diese Aggrotypen Hör doch auf zu schreien, ich kann dich nicht verstehen Und dein BMW glänzt zwar hübsch, riecht aber übel Und Ewigkeit ist auch nicht mehr das, was sie mal war Ich mach ein langes Gesicht, wie ein Pferd in der Bar Du magst deine Witze wie deine Mama - mit Bart Unverhofft kommt selten, wie der Name schon sagt Ich bin so alt, ich spiel immer noch Mario Kart Und freue mich, wenn mein Song im Radio war Obwohl meine Zielgruppe nicht weiß, was ein Radio war Die Schallplatte killt den Videostar Ich bin ein Ausschlussjoker für jede Frage des Lebens Ein Roboter - programmiert um Gott zu töten Und seitdem bin unterwegs mit vollen Segeln Und einer Crew aus Idioten und verlorenen Seelen Der fliegende Highlander es kann nur einen geben Und danach spiel ich weiterhin mich selbst - nur als Rayden Aber versuch besser nicht, mir irgendwo reinzureden Denn meine Kernkompetenz ist dir vors Schienbein zu treten Also Kick Kick Yeah, Kick Kick Yeah Vielleicht wär ja alles gut, wenn ich Dolf Lundgren wär Vielleicht wär ja alles gut, wär ich ein Kickboxer Dann könnt ich alle dissen du Wichskopf, yeah Und zwar ohne dass der Dingsbums-Clan vor meiner Haustüre steht Und mir nen Pferdekopf auf mein Kopfkissen legt Wenn schon ein abgetrennter Kopf, dann ein Pandabär Denn Pferdeköpfe gibt es ja schließlich wie Sand am Meer Und so ein bisschen exklusiv sollte das Ganze schon sein Denn bei uns ist nichts heilig, höchstens der Schein Der dafür sehr, größer ist besser als klein Es kommt nicht auf Technik an, sondern aufs Stylen Ich will dein Geld einstecken und dann austeilen Ich will mich leise umschauen und dann laut schreien Wie tight ich bin und mich an mir selber aufgeilen Das Leben serviert mir Fressen - und ich hau rein Wir sind am Ende nur Fragmente aus Bauteilen Monothematisch - Rosa von Praunheim Und mögen unsere Seelen auch dunkelgrau sein Kommen wir rein und nehmen den ganzen Raum ein Und kaum ein anderer MC schafft den Spagat Zwischen, Poesie, Praxis und Eiersalat Zwischen Theorie, Taxis und Feiern im Park Zwischen Affengehege und 18 Karat Zwischen Abstraktion und Wursttheke im Real Albernheit, Oscar Wilde, Themenlokal Manfred Groove wir bringen Rapmusik zum Roman Bitte einsetzen Novaliszitat Ihrer Wahl Part 2 Vom Aussterben Wie man in den Wald scheißt, scheißt es heraus Man wird zum Abgrund, wenn man in den Abgrund läuft Man fällt ab, wenn man zu lange in den Abfall schaut Und sinkt ab, wenn man laufend Absinth säuft Ich habe meine Welt um einen Takt rum gebaut Und die restlichen Normen mit der Axt umgehauen Die Umwertung der Werte Meine Nacht ist dein Traum Der Luxus des kleinen Mannes - Hackwunderbaum Nichts tun ist auch irgendwie Kunst, steht auf meiner Kappe Glaube ich zumindest ich kann ja nicht hochschauen Was auf meiner Schublade steht, ist mir eigentlich Latte Hauptsache im Walkman läuft Motown Haselnüsse sind eigentlich rotbraun Und der Enzian blüht so blau auch wieder nich Man sollte nicht alles glauben, was die Volksmusik erzählt Und schon ist die Welt ein bisschen weniger widerlich Denn schließlich wäre auf einer Skala von eins bis zehn Die Welt ohne Enzian so ziemlich genauso schön Ich kann ja Enzianbilder im Internet sehen Warum bitte sollte ich auf irgendwelche Berge stehen? Also jammer mich nicht voll mit Dingen, die aussterben Wie Realität oder asiatische Tiger Ich hatte auch mal ne Freundin, die war auf einmal weg Und drei Tage später traf ich sie wieder Und zwar im Cabrio von so nem Modedesigner Sie war im 8 Monat schwanger und hat Spanisch gesprochen Manchmal ist mir, als wäre meine Logik gescheitert Doch dann kommt sie im Mantel der Erkenntnis wieder angekrochen Wir müssen einfach nur anfangen, Geschichte im Kreis zu denken Und alle Probleme lösen sich wie Brausetabletten Und die Gedanken fließen in geregelten Flussbetten Von oben nach unten, als ob sie Staustufen hätten Am Wasser entlang, bis zum Rheindamm Da wo das Zitat anfängt Und sich alles um sich selbst im Kreis dreht Wie wenn man auf der Tartanbahn rennt Der Schwindel begleitet den Rest deines Lebens Er hat sich an deinen Magen gehängt Und er teilt sich ein Bett mit deiner Depression Und die beiden haben deine Laken durchtränkt Das Militär hat aus Versehen deinen Vermieter versenkt Und dir als Trost ein PUR-Album und einen Kater geschenkt Und jetzt suchst du Trost in fernöstlicher Weisheit Und siehst aus wie ein getragenes Hemd Es ist doch immer das Gleiche mit euch komischen Menschen Ich hab doch die Antworten auf alle eure Fragen Aber ihr glaubt lieber an die größten Idioten Und die größten Arschlöcher wie Hitler undoder Stalin Und das nur, weil ihr Welterklärungen braucht Dabei müsstet ihr nur lernen, die Welt nicht zu erklären Sondern sie einfach mal sehen, als das was sie ist Keine Ahnung was sie ist, Mann zumindest kein Stern Also wendet euch an meinen Arsch, um euch zu beschweren Sehr geehrte Kategorien 3, Damen und Herren Ich weiß ja - man hat es nicht leicht so als Mensch Denn laufend verwechselt man Scheiße mit Senf Das ist das menschliche Dilemma Man startet als König und endet als Penner Man erwartet zu wenig und erreicht nicht mal das Und dabei hat man dann nur so mäßig viel Spaß Wir wollen gleichzeitig weg und suchen Anhänger Mit dem Kopf in den Wolken - Jan Tenner Mit glasigen Augen wie 100 Sandmänner Ein paar verkannte, an die Wand rennende Anfänger Ein echter Bösewicht erschießt zuerst das Pferd Bevor er mit dem Auto über deine Kniescheibe fährt Ein schlechter Bösewicht lässt Ravioli auf dem Herd Bevor er mit dem Auto aus Versehen in einen Kindergarten fährt Wenn du Künstler werden willst, kauf dir einen Hut Wenn du willst, dass Leute zuhören, sag viele dumme Sachen Wenn du Sex haben willst, sei schön oder reich Nett reicht meistens nur, um ein bisschen rumzumachen Und niemals ungewaschen in die Waschanlage fahren Das Universum hat viel mehr Humor, als du denkst Und nie nen Mülleimer in einen Mülleimer werfen Weil sonst die Schwarzes-Loch-Anomalie der Logik anfängt Dinge, die dich umbringen, sind meistens härter als du Dinge, die dich umzingeln, sind meistens mehr da als du Dinge, die nicht rund sind, sind öfters mal das Tor Und wenn du willst, dass man den Witz versteht, schreib halt nen scheiß Smiley! Und überhaupt Ein Witz sollte ohne Smiley funktionieren Oder hast du das Gefühl, deine Freunde sind zu dumm? Oder hast du einfach Angst vor social Awkwardness? Ein kleines bisschen Eier bringt dich schon nicht um Naja - Ich will nicht scharf essen und trotzdem ein Mann sein Doch du kannst kein Mann sein und keine Chilischoten anfassen Als es noch okay war, Frauen nachzupfeifen Musste McDonalds die Currysaucenschärfe nicht anpassen Vielleicht bringt dich ein kleines bisschen Ei ja aber doch um? Wer weiß das schon bei den ganzen Allergien heutzutage Und ob das Glúten oder Glutén heißt, könnt ich recherchieren Aber ich habe Angst davor, das diesen Google zu fragen Sonst werde ich wieder zugeschissen mit Vorschlägen Für Bestelladressen für Ernährungssensible Und dabei sehne ich mich doch nur nach Bestelladressen Für ein schwedisches Model und eine tschechische Geliebte Es liegt ein toter Mann am Strand Mackie Messer lacht idiotisch die Polizei vermutet Herzinfarkt Da liegt man zu fast 40 richtig und das ist ausreichend Wie für Marzipankartoffeln Persipan Yeah, Mann! Part 3 Von der Wirklichkeit Manchmal sind Dinge perfekt aber trotzdem falsch Wie ein Ehemann in einer Witwenerinnerung Unser Gehirn spielt gerne mit der Realität rum Sie wird erst verklärt, sitzt sie nicht mehr im Zimmer rum Und kratzt sich die Eier mit dem Silberbesteck Und damals dachte man noch Man will da nur weg Doch jetzt ist er tot und das Gehirn erinnert sich nicht mehr Dass er je etwas wie Eierkratzen getan hätt Und mit einem tot und einem, der sich nicht daran erinnert Ist diese Szene nun tatsächlich nie passiert Es gibt keinen Geschichtsschreiber des Universums Der jede Kleinigkeit irgendwo für irgendwen notiert Wir haben nur uns und unsere löchrigen Köpfe Und was man nicht erinnert, ist für immer verschwunden Realität ist relativ, wusste schon Einstein Doch wir sind nun endlich nicht mehr an die Draußenwelt gebunden Wir sollten der NSA danken, dass sie unser kollektives Bewusstsein auf irgendwelchen Servern verwaltet Und unserem Gehirn, dass es diese wirre Wirklichkeit Aus irgendwelchen komischen Wörtern gestaltet Danke PRISM, für die Sammlung menschlicher Belanglosigkeit Danke für die ganz großen Fragen unserer Zeit Wenn eine Ära nach dem ganz großen Wunder schreit Dann unsere bis man uns endlich den Berg runter treibt Und da unten steht der kultivierte Herr mit dem Floß Und bittet uns sehr höflich, aber bestimmt Dass wir doch bitte nun übersetzen müssten Weil sonst die Zeit noch weiter ins Nirgendwo rinnt Und überhaupt Zeit - warum bin ich getrieben von diesem seltsamen Gedanken Irgendetwas zu erschaffen, was bleibt Und überhaupt Bleiben ein Fußabdruck im Sand bleibt Wie ein Strich an der Wand aus Kreide wie ein Strich an der Wand aus Stein Wie ein Strich an der Wand aus Ewigkeit Der Unterschied ist unterm Strich nur graduell Eine langweilige Kreisfahrt Kettenkarussell Denn Bleiben ist nicht das Gleiche wie Rückwärtsgehen Man geht nicht ins Theater um das Stück zu sehen Man geht nur ins Theater um sich selbst beim Stücke sehen Zuzusehen. Das sind die wichtigen Szenen Und was wir daraus mitnehmen Ist ein zerschlissener Goodiebag Mit viel zu kleinen Socken und viel zu großer Tasche Und die Unmöglichkeit, irgend etwas Gutes zu sehen Ich bin kein Pessimist, wenn ich das Glas halb leer gesoffen hab Nur wenn ich es halb voll gegossen hab Ich wohne nicht in Berlin, nur weil ich da nen Koffer hab Und Marlene Dietrich hat mir gar nichts zu befehlen Und Hildegard Knef hatte höchstwahrscheinlich recht Ganz egal, was sie wieder Dummes erzählt hat Es geht nur um die Art und Weise der Präsentation Die man für seine Vermittlung gewählt hat Auch wenn mir sonst nie irgendwas gefehlt hat Ist jetzt meine Matratze nicht ausreichend gefedert Prioritäten verlagern sich mit gegebener Zeit Vom Zustand der Welt zur eigenen Befindlichkeit Und manchmal habe ich das Gefühl, wir sind so weit Dann wieder das Gefühl, wir sind so weit weg Wovon wäre noch zu klären zu gegebener Zeit Doch bis dahin ist fast alles ein großer Scheißdreck Und um den großen Scheißhaufen hübsch zu finden Braucht man neue Kategorien für Ästhetik Also atmet durch den Mund und reißt euch zusammen Und umarmt die Scheiße, bis sie weggelebt ist Etwas Träges fällt von oben und dreht sich Legt sich zusammen, wird konkret und verwebt sich Und wir stehen mitten drin, im Neonlicht Und denken Geometrisches wie Tetris Und das Leben macht Ding diggeding digge ding digge ding... Und wir kennen die Melodie und wir sehen das Problem Aber wir haben keinen Plan, in welchem Level wir sind Wahrscheinlich kurz vor Schluss und das Ende ist nah Aber wie jeder weiß, gibt der Klügere nicht nach Weil er ja sonst verlieren würde und die Geschichte schreiben Sieger Und schwuppdiwupp ist das eigene Image im Arsch Wenn ich ein Diktator wäre, ich würde zuallererst mal Immer allen sagen, sie sind frei und reich Und dass sie alles erreichen können, wenn sie hart dafür arbeiten Und dass sie alles verlieren können, wenn der Feind angreift Und wenn es keinen gibt, muss man eben einen schnitzen Und seien sie noch so grobe Abziehfiguren Hauptsache, die Leute, die vor dem Facebook-Fernsehern sitzen Spuren Aber ich bin ja kein Diktator noch nicht Mir ist noch kein vernünftiger Bart eingefallen Und noch kein richtiger Slogan für nen konsequenten Putsch Der letzte Stand war Sehr viel Geld für alle! Wenn man Glück im Spiel hat, hat man genug Geld für die Liebe Wenn man Musik macht, hat man nie genug Geld für die Miete Wir wetten gegen Staaten und setzen auf die Krise Und schreiben gleichzeitig schwarze Zahlen und Miese Virtuelles Geld und virtuelle Welt, die sich bedingen Virtualität ist das letzte große Ding Und wenn die Wirklichkeiten zu Informationen gerinnen Sitzen wir gleichzeitig draußen und drinnen Und die Grenzen verschwimmen Und es bleibt mal wieder nur mein Sack das ist Fakt Ich habe lange darüber nachgedacht was eigentlich noch bleibt Wenn man verzweifelt und es bleibt mal wieder nur mein Sack Part 4 Von der HipHop Szene Ich nehm den Satzfüller, Schreibschrift in meinen Fanblock Schlagworte Aussprache, Leitsätze in den Trendspot Presseberichte in mein Feuerwerk und Landebahn-brechendes Stell an Sprüche Ansprüche, dass es ansprechend ist Ich Gehwege, seh Leute, wenn ich durch Augenblicke Und tausend Tritte treffen tausend Ärsche, wenn ichs nach draußen schicke Ich mach den Tintenkiller seh jeden Abend rot Füll Federn, schreib ein Mundwerk und Nieten ziehen das Gnadenlos Denn Julia Engelmann ist die deutsche HipHop-Szene Ein kleines Mädchen mit großen Erste-Welt-Problemen Rap ist in der Pubertät und nicht im echten Leben Zwischen Tränen und wahllos Umsichtreten Nur relevant für alle, die sich mit 17 erschießen Oder schon fürs Aufstehen ne Belohnung kriegen Wenn man nur Kinder anspricht, sieht man nur Kinder reagieren Deshalb meint man auch immer, dass nur Kinder diskutieren Kinder und Idioten sagen die Wahrheit Trinker sagen, was sie denken, denken aber kaum Das Internet sagt, was irgendwer da reinschreibt Und Wahrheit ist eh ein feuchter Diktatorentraum Ich lass die Hoden baumeln mehr kann ich nicht erreichen Außer völlig nutzlose tausend Zeilen schreiben Ein livre sur rien gesprochen auf den Takt Lässt das sinnlose Hämmern besonders kühn erscheinen Verweis doch mal auf Dinge, die auch wir verstehen! Ey Mann, ich scheiß doch auf die Dinge, die auch ihr versteht Ich trink schon wieder morgens Bier statt Biotee Und denke, mein Traumjob wär Funktionär beim IOC Denn Willkür ist der größte Luxus unserer Zeit Endlich vom Diktat der Rationalität befreit Muss ein Zustand sein, den man nur über den Wolken Oder als Unterschichtenfernseh-Darsteller erreicht Oder als Wutbürger - in der Netzwelt Wo der digitale Stammtisch dem lautesten Proleten hinterher bellt Und Ansichten zu Wahrheiten werden Als würden sich Kirchen über Giraffenmord beschweren Als wollte man Nietzsche einem Affenhort erklären Und die dumm-vitalen Bonobos bumsen die ganze Zeit Und während man so redet, merkt man, dass sie vielleicht Alles verstehen und eben deswegen geil werden Aber mitbumsen will man auch nicht unbedingt Denn da ist ja dieses Gefälle zwischen den Viechern und mir Und die Sehnsucht, dieses Gefälle zu überwinden Und grunzend mitzumachen wird vom Verstand blockiert Laufend steht der Scheiß zwischen mir und dem Glück Das Gras ist viel grüner, wenn man sich nicht danach bückt Ein Pickel macht nur Spaß, wenn man ihn ausdrückt Und Rap macht nur Spaß, wenn man Applaus kriegt Also doch Gangster, Fotzen und Scheiß drauf auf Kreislauf reimen Also doch Propaganda machen - Sergej Eisenstein Und endlich abnehmen, dass man als Hipster durchgeht Und völlig crazy Sachen machen und Lifestyle sein Dieses Cabrio kaufen und den Wind in Kauf nehmen Dann eine Mütze kaufen, weil der Wind ins Auto weht Einen Unfall bauen, weil es deine Mütze wegweht Und dann mit stylisch verwuschelten Haaren draufgehen Wenn es Samstag ist, will ich ausgehen Es sei denn, ich bin eine Kerze Es kommt immer darauf an, was man ist und will Über Relativität gibt es NUR gute Scherze So wie über Handpuppen mit einer Hand im Po Sowie komplexe Poesie auf einer Wand im Klo Das Lied der Straße - Zampano Naja, komplexe Poesie gibt es wohl anderswo Ich habe einen guten, aber arroganten Flow Warum das so ist? Ich kann das so! Milf und Yellow cookies sind die Fanta zwo, nur in Gut Keine Angst, Mann, das geht noch lange so Oder eben nicht das ist das Schöne daran Dass ich, wenn ich will, diese Hasenhaken schlagen kann Und die Leute gewöhnen sich dran Oder eben doch nicht, dann ist das immerhin ein stolzer Abgesang Und Abgesänge sind bekanntlich die besten Gesänge Schönheit und Tod ist die beste Kombo Wer würde nicht gerne in Rosenblättern ersticken Ein bisschen Dekadenzästhetik für euer Fitnesstudio Also lass doch mal das Pumpen und das Hustlen sein Pack doch mal die Pumpgun und Goldkette ein Versuch doch einfach mal nicht, der Tollste zu sein Ich versuch inzwischen mal Tolstoi zu sein Denn Krieg und Frieden steht zu Dichtung und Wahrheit Wie Style und Zeit zu Wein und Vibes Und wir beide hier, wir stehen zu ehrlicher Arbeit Wie zu Leistungsethos und geilem Geiz Wir meiden das! Falls ihr das noch nicht verstanden habt Vielleicht sind wir deshalb auch niemals angesagt Vielleicht werden wir deshalb vor unseren Gigs nie angesagt Und trotzdem sagt der viel, der Guten Abend sagt Ich habe einen Anzug und einen Tage-Bart Und kaufe meine Möbel im Habitat Ich bums deine Freundin auf Abifahrt Ein fiktionales Leben aus Klavier und Kaviar Na immerhin hat das Klavier gestimmt Na immerhin hat The Finger das Klavier gestimmt Na immerhin hat das Kontingent an Bier gestimmt Alles andere ist egal, Hauptsache, die Wirkung stimmt Bitte gehen Sie weiter, hier gibt es nichts zu hören Es sei denn, Sie haben etwas Zeit mitgebracht Wir sind angetreten, um Gewohnheiten zu stören Und ham endlich wieder Musik weit entfernt von Hits gemacht Part 5 Vom Haben und vom Sein Ich wollte noch nie, das was ich habe - sein Ich war noch nie das was ich sage Nein Es geht seit Jahren nur von Fragen zu Fragen Und nur der gleiche Trott, mein Morgen ist euer Abend Ich bin irgendwann aus der Zeit gefallen Die Gedanken aus den immer gleichen Longdrinks geboren Doch solange der Beat läuft, geh ich raus In meinem Kopf einen Mittelfinger an die Welt und den Walkman im Ohr Jeder Rapper ist ein Alphatier Ich produzier nur tonnenweise Altpapier Steh auf Bühnen rum und halte die immer gleiche Predigt Von der einzig wahren Religion von Leck-mich-doch und kaltem Bier Bevor ich mich im Blätterwald verlier, mach ich die Augen zu Ich mein, ich mach die Augen auf, schau mich um und mach die Augen zu Ich mach das im Endeffekt genau wie du Nur nicht halb so prollig und weniger Leute schauen mir zu Man lacht nicht, wenn man die Welt als sinnvoll betrachtet Doch ich lache, weil ich die Welt als meinen Sack betrachte Die Welt als Wille und Vollstreckung Und als ihr dachtet Es kann nicht schlimmer kommen, kam Manfred ans Schachbrett Und da bin ich nun Mit der Axt und einem Landstreicherbündel voller Billiguhren Kauft was oder macht doch was ihr wollt, aber gebt mir euer Geld Ich werd erst reich, dann berühmt und erst dann will ich touren Denn wir sind fahrendes Volk mit Taschen voller Katzengold Sitzen wir vorne und der Wagen der rollt Und wir tragen die Masken der Hungerkünstler Und der Zirkusartisten und wir tragen sie stolz Und auch wenn wir sonst nichts haben haben wir Zeit Und den Block und den Stift und die Freiheit Und auch wenn die ganze Welt nach Beschleunigung schreit Nehm ich den Block und den Stift und ich schreib Ich nehm den Block und den Stift und ich bleib Mir treu und hier sitzen, bis der Flow treibt Sollen alle ruhig rennen, die kommen schon wieder zurück Wenn der Vorhang aufgeht und die Show steigt jetzt Ich schick diesen Reim heim durchs Wurmloch wie Deep Space Nine Geflügelte Worte der übelsten Sorte Geschichtenerzähler wie Siebenstein Ich könnt liegenbleiben, oder aufstehen In Siebenmeilenstiefeln rausgehen Wenn wir aufdrehen ist Entkommen nicht drin - Gezeiten in Stauseen Die Früchte des Zorns manifestieren sich in diesen Zeilen Es wurden schon wieder Gerüchte geboren Bald gibts Tränen wie beim Zwiebelschneiden Bei jedem, der jemals über die Themenwahl lästerte Im Vergleich zu Manfred ist der Zeitgeist das ewig Gestrige Wir halten uns in Grenzen die wir gezogen haben Denn wir vertreten die Jedi-Methoden wie Obi Wan Sind noch ein bisschen aggressiver als ein Grobian im Drogenwahn Verlieren oft komplett die Kontrolle, aber nie den roten Faden Es ging alles ziemlich lahm, bis Manfred kam Dann ging alles ganz schnell - und auf einmal war alles ab Es war alles ziemlich lahm, bis Manfred kam Dann war alles ganz schnell - und auf einmal ging alles ab Schlechte Entscheidungen werden gute Geschichten Erzählt von schlechten Erzählern, die sich in gutes Licht rücken Gute Entscheidungen werden lange Geschichten Erzählt von schlechten Erzählern, die über sich selbst entzückt sind Und gute Erzähler? Erzählen keine Geschichten Die auf ihren belanglosen Entscheidungen basieren Gute Erzähler erzählen nur Geschichten Von Robotern, Titten, Stierkampf und Bier Und hier sind wir unterhalt uns Irgendwo in der Mitte irgendeines Albums Irgendwo in der Mitte irgendeines Ortes Und geistern verwirrt und versoffen im Wald rum Bitte bewahren Sie die Haltung Auch wenn Sie die Sinnlosigkeit durchschaut haben Sie haben sonst nichts, also auch nichts zu verlieren Außer fiktionalen Aufgaben Selbsterkenntnis ist der erste Schritt zum Suizid Die Kur gegen Selbsterkenntnis ist Louis V Pack alle Zweifel in die Tasche und zeig sie deiner Welt Bis sie selbst zur Tasche wird und Du wirst sie Du wirst sehen Haben ist Sein Hauptsache dein Magen ist klein Hauptsache dein Wagen ist groß Hauptsache dein Herz ist rein Also immer rein in die gute Stube, liebe Menschheit Und in dieses sympathische Spiegelkabinett Wo alle Bilder von euch ständig gnädig lächeln Und ihr endlich schlafen könnt also ab ins Bett Wir wünschen bunte Träume von Zuckerwattenwolken Und Lebkuchenhäusern und Töpfen voller Gold Am Fuß des Regenbogens und in Kürbiskutschen Fahrt ihr durch Zauberwälder, wo euch der Untergang holt Und deine Geister spielen Hackbrett Und Dennis Hopper schreit Fuck that! Du denkst, dass ewig am längsten währt Während sich dein Leben neu taktet Fuck that! Ich habe meine Angst für Texte im Wandschrank Denn meine Sätze finden bisher kaum Anklang Ich will nicht untergehen ohne Sang und klang Und schaue euch deswegen so gebannt an Ich nehm euch auf auf Video ihr spielt euch von alleine Little people und Liegen haben kurze Beine Und Lügen haben behaarte - Ihr wollt noch mehr schöne Lügen? Wir bringen Raptracks auf Arte Wir machen Raptracks salonfähig für die Hochpreisigen Rotwein trinkenden Teile der Gesellschaft Also Gangsterrapper, Autoschieber, Halbweltboxer Abmahnanwälte und zahlreiche Präsidenten einer Weltmacht Part 6 Vom Erwachsenwerden Wenn mich das Glück verlässt, geh ich einfach mit Denn jeder Untergang beginnt mit dem ersten Schritt Heute ist der erste Tag vom Rest des ganzen Shit Und die Plastiktraumgesellschaft tanzt mit Ich wollte immer irgendwo weggehen Ich wollte immer irgendwo bleiben Wahrscheinlich wollte ich einfach immer irgendwo rumstehen Und völlig überraschend war ich knapp über 30 Wenn man alt wird sollte man nicht jung bleiben wollen In Seilbahnen sollte man nicht umsteigen wollen Egal, wo wir uns rumtreiben sollen Wenn es keinen Alkohol gibt, ist es wahrscheinlich nicht toll Wenn wirs gewonnen haben, ist es sicher nicht Gold Wenn wir gewonnen haben, bin ich sicherlich voll Ihr wollt Expertenanalysen wie von Kahn oder Scholl Balkanbeats ist Ska nur in Moll Der frühe Wurm wird vom frühen Vogel gefangen Hätte er doch lieber länger vor der Playstation gehangen Dann müssten seine Kinder jetzt nicht ins Heim Und er könnte noch immer unverdaut sein no doubt! Apropos unverdaut ich hab mal meine Eltern beim Bumsen erwischt Also wenn ich plötzlich weine, wundert euch nicht Ich hatte eine ziemlich schwere Kindheit Deshalb bin ich jetzt Rapper und schicke Frauen auf den Strich Was man halt so tut um in die Szene zu kommen Koks ticken, Hoes ficken, gib mal die Bong Auf Outlines beharren, als wäre die Welt Tron Und außerdem hab ich diesen Train gebombt selbstverständlicher Blick Nach der Snare kommt die Kick Und wenn das nicht so ist, weiß man, dass etwas nicht richtig ist Man steht auf einem Grund, der nicht triftig ist So wie der Untergrund nicht so wichtig ist wie er sich selbst nimmt Denn ein Weltbild hält nur, so lange das Geld stimmt Und jeder, der zu lange auffällt, fällt hin Also flüchte ich doch lieber in die Fiktionalität Und verliebe mich brutal unglücklich in diese Elbin Na die mit den Ohren und der Brust und dem Bogen Die den strengen Vater hat und im Wald und von oben Ach, ihr versteht mich alle nicht ich bin ganz allein Na klar! Würdest du denn gerne mit dir befreundet sein? Also ehrlich Träumereien in Ehren Ich will mich nicht über unrealistische Pläne beschweren Ich will nicht viel, nur euch euer Leben erklären Bis die Dorfbewohner mich wieder federn und teeren Doch da muss man durch wie durch dieses Nadelöhr Nachdem man endlich unendlich reich geworden ist Ich will nicht viel, nur euch euer Leben erschweren Und für den Hotdog-Fress-Contest ein Sportgebiss Mit diesen Bling-Bling Dingern am Zahn Die Kasse macht Kling Kling ich sage ja Verkaufe dann gewinnbringend Dinge am Markt Und werde Binge-Drinking-King alles klar? Schreit mal ja! Ja! Oh, wohl doch keiner da Naja, vielleicht ist der Song als Clubtrack nicht optimal 40 Minuten Rap am Stück und da noch nicht mal tanzbar Wie ich damit reich werden konnte, ist mir immer noch nicht ganz klar Aber Hauptsache ist, dass ich es geworden bin Hoffen auf selbsterfüllende Prophezeiung Und wenn ich schon zu Unrecht nie was im Sport gewinn Dann doch wenigstens bei der nächsten Grammy Verleihung Oder wie heißt doch gleich das deutsche Pendant Da wo immer Peter Maffay und Eißfeld spielen Wo man das Gefühl hat, Musikdeutschland ist ein riesiger Haufen Und eigentlich will man doch nur den ganzen Scheiß wegspülen Der ECHO ist wie dunkle Schokolade oder ein Handjob Man nimmt es, wenn es keine Auswahl gibt Aber sobald irgendetwas anderes daneben liegt Steckt man den Penis lieber woanders rein Oder man kauft ne Alpenmilch um in den Metaphern zu bleiben Wir wollen nicht viel nur all die Affen vertreiben Und den Stil zurückbringen denn Rap ohne Style Ist eben wie ein Handjob nur so ein bisschen geil Und mal ganz ehrlich Mona Lisa und Nofretete Sind auch nicht so eindrucksvoll wie immer alle tun Die eine schaut debil, die andere wie auf Opium Und trotzdem haben sie genug Fame, um sich darauf auszuruhen Also was machen die richtig, was wir falsch machen? Außer, dass sie Frauen sind - und tot Wer macht denn diese komischen Regeln für diese Hypes Und warum befolgt die dann eigentlich jeder Idiot? Wenn die kritische Schwelle des Erfolgs mal erreicht ist Dann leistet sich keiner mehr, zu sagen, was alle sehen Nämlich Dieses oder jenes Werk ist zwar nett Aber eigentlich dann doch nur so Handjob-okay Es geht um 15 Minutes of fame Die reichen exakt für eine Halbzeitpause Und trotzdem rennen ihm alle hinterher Und man denkt bei jedem zweiten nur OH! Halt die Schnauze Wenn man nichts kann und nicht arbeiten will Kann man immer noch Abmahnan